--- a/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
+++ b/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C3B99C-8E1D-4448-B457-4F3EDCD681E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4766390-40CB-4AD7-AB58-58CA70AC386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOM" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Day 4" sheetId="7" r:id="rId6"/>
     <sheet name="Day 5" sheetId="8" r:id="rId7"/>
     <sheet name="Day 6(09-04-2022)" sheetId="9" r:id="rId8"/>
-    <sheet name="Day 7" sheetId="10" r:id="rId9"/>
+    <sheet name="Day 7(11-04-2022)" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="538">
   <si>
     <t>MOM</t>
   </si>
@@ -1553,6 +1553,102 @@
   </si>
   <si>
     <t xml:space="preserve">As a interviewer I should able to logout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                    -</t>
+  </si>
+  <si>
+    <t>I am in Home Page,When i click on current drive details to view the details and also cancel the drive</t>
+  </si>
+  <si>
+    <t>I am in Home Page,When i click on Scheduled drive details to view the details and also cancel the drive</t>
+  </si>
+  <si>
+    <t>To access this operation I need to be logged in as TAC</t>
+  </si>
+  <si>
+    <t>I am in Home Page,When i click on Upcoming drive details to view the details and also view the response</t>
+  </si>
+  <si>
+    <t>MANAGEMENT</t>
+  </si>
+  <si>
+    <t>To register I must fill all the mandatory fields in the details</t>
+  </si>
+  <si>
+    <t>To access my profile ,first I need to login</t>
+  </si>
+  <si>
+    <t>To recieve notification from TAC ,I need to be verified</t>
+  </si>
+  <si>
+    <t>To recieve Login Credentials from TAC,I need to register</t>
+  </si>
+  <si>
+    <t>To access the application ,I need to login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To access the application ,I need to login </t>
+  </si>
+  <si>
+    <t>I am in Home page,When i click on  Scheduled interviews I Should able to view Scheduled interviews</t>
+  </si>
+  <si>
+    <t>I am Viewing my Scheduled interview,When i click on Cancel ,My interview would be rescheduled</t>
+  </si>
+  <si>
+    <t>I am Viewing my Scheduled interview,When i click on Cancel ,I should able to Mention reasons for Cancellation.</t>
+  </si>
+  <si>
+    <t>To fill reasons for cancellation,I should  first cancel the scheduled interview</t>
+  </si>
+  <si>
+    <t>I am in Navigation bar,When i click on Profile I should able to view and edit my profile</t>
+  </si>
+  <si>
+    <t>To view a profile ,I should  login.</t>
+  </si>
+  <si>
+    <t>I am in Navigation bar,When i click on DashBoard,I should able to see my Consolidated performance</t>
+  </si>
+  <si>
+    <t>To view Dashboard ,I should login.</t>
+  </si>
+  <si>
+    <t>I am in Dashboard,When i click on Total No. of Drives Scheduled  I should able to view my Total No. of Drives Scheduled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To  view Consolidated Performance ,I should have accepted drive invites </t>
+  </si>
+  <si>
+    <t>I am in Dashboard,When i click on Interviews Attended I should able to view my Interviews Attended</t>
+  </si>
+  <si>
+    <t>To veiw Interviews Attended ,I should have attended scheduled interviews</t>
+  </si>
+  <si>
+    <t>I am in Dashboard,When i click on Interviews Denied  I should able to view my Interviews Denied</t>
+  </si>
+  <si>
+    <t>To View Interviews Denied ,I should have denied interviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am in Dashboard,When i click on Interviews Ignored  I should able to view my Interviews Ignored </t>
+  </si>
+  <si>
+    <t>To veiw Interviews Ignored, I should not have responded to drive invites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am in Dashboard,When i click on Unused Slots  I should able to view my  Unused Slots  </t>
+  </si>
+  <si>
+    <t>To view Unused slots,I should have given my availability but TAC  has not utilized me</t>
+  </si>
+  <si>
+    <t>I am in Dashboard,When i click on Logout I should be able to LOG OUT</t>
+  </si>
+  <si>
+    <t>To Log out,I need to LOG IN</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +2051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2362,6 +2458,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3152,10 +3251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46290B07-6E6D-4B19-9A9B-C3E38C6518F8}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3745,7 +3844,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3">
       <c r="A81" s="113">
         <v>4</v>
       </c>
@@ -3753,7 +3852,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3">
       <c r="A82" s="25">
         <v>5</v>
       </c>
@@ -3761,12 +3860,28 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:3">
       <c r="A83" s="45"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:3">
       <c r="A84" s="44" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9455,7 +9570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F93FD05-AC39-402B-8019-D230876DF7A9}">
   <dimension ref="A1:J241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A225" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -11061,7 +11176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE4E2DC-7D28-43FA-884A-18B48EC48975}">
   <dimension ref="A4:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D29" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E16"/>
     </sheetView>
   </sheetViews>
@@ -12292,8 +12407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2905983-969D-4AD4-B72B-B97CB8F99111}">
   <dimension ref="B5:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13323,12 +13438,1051 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF84FF66-0AA3-4B94-BE56-4DE17E29EB86}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+    <col min="5" max="5" width="91.28515625" customWidth="1"/>
+    <col min="6" max="6" width="106.85546875" customWidth="1"/>
+    <col min="7" max="7" width="85.28515625" customWidth="1"/>
+    <col min="8" max="8" width="95.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="18.75">
+      <c r="C2" s="53"/>
+      <c r="D2" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75">
+      <c r="C3" s="53"/>
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="C4" s="53"/>
+      <c r="D4" s="56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
+      <c r="A5" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="161" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="117" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="156" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
+      <c r="A6" s="162">
+        <v>1</v>
+      </c>
+      <c r="B6" s="163" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="63">
+        <v>1</v>
+      </c>
+      <c r="D6" s="166" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="166" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="148">
+        <v>2</v>
+      </c>
+      <c r="B7" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="164">
+        <v>2</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7" s="120" t="s">
+        <v>433</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="148"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="164">
+        <v>3</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" s="120" t="s">
+        <v>373</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="148"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="164">
+        <v>4</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G9" s="160" t="s">
+        <v>438</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="148"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="164">
+        <v>5</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>439</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>379</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="G10" s="120" t="s">
+        <v>380</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="148"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="164">
+        <v>6</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>383</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" s="157" t="s">
+        <v>384</v>
+      </c>
+      <c r="H11" s="103" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="148"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="164">
+        <v>7</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>443</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>444</v>
+      </c>
+      <c r="G12" s="158" t="s">
+        <v>415</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="164">
+        <v>8</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>395</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="160" t="s">
+        <v>438</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="148"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="164">
+        <v>9</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>447</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" s="155" t="s">
+        <v>507</v>
+      </c>
+      <c r="G14" s="158" t="s">
+        <v>427</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="148"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="164">
+        <v>10</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>448</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>383</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>508</v>
+      </c>
+      <c r="G15" s="158" t="s">
+        <v>509</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="148"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="164">
+        <v>11</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>449</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>404</v>
+      </c>
+      <c r="F16" s="101" t="s">
+        <v>510</v>
+      </c>
+      <c r="G16" s="158" t="s">
+        <v>509</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="148">
+        <v>3</v>
+      </c>
+      <c r="B17" s="148" t="s">
+        <v>511</v>
+      </c>
+      <c r="C17" s="164">
+        <v>1</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>450</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="G17" s="158" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="148"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="164">
+        <v>2</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>451</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="G18" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="122"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A19" s="148"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="164">
+        <v>3</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>452</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>435</v>
+      </c>
+      <c r="G19" s="159" t="s">
+        <v>513</v>
+      </c>
+      <c r="H19" s="122"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="148"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="164">
+        <v>3</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>454</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>455</v>
+      </c>
+      <c r="G20" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="101" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="148"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="164">
+        <v>4</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>456</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="G21" s="120" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="101" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="148"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="164">
+        <v>5</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" s="102" t="s">
+        <v>459</v>
+      </c>
+      <c r="G22" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="101" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="148"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="164">
+        <v>6</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>460</v>
+      </c>
+      <c r="E23" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>461</v>
+      </c>
+      <c r="G23" s="120" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="101" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="148"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="164">
+        <v>7</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>462</v>
+      </c>
+      <c r="E24" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="F24" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="G24" s="120" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="101" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="148"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="164">
+        <v>8</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="E25" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="G25" s="165" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="102" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="148"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="164">
+        <v>9</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>466</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>467</v>
+      </c>
+      <c r="G26" s="120" t="s">
+        <v>297</v>
+      </c>
+      <c r="H26" s="102" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="148"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="164">
+        <v>10</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>468</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="G27" s="120" t="s">
+        <v>304</v>
+      </c>
+      <c r="H27" s="102" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="148"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="164">
+        <v>11</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="E28" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" s="102" t="s">
+        <v>471</v>
+      </c>
+      <c r="G28" s="120" t="s">
+        <v>311</v>
+      </c>
+      <c r="H28" s="102" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="148">
+        <v>4</v>
+      </c>
+      <c r="B29" s="148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="164">
+        <v>1</v>
+      </c>
+      <c r="D29" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>472</v>
+      </c>
+      <c r="G29" t="s">
+        <v>514</v>
+      </c>
+      <c r="H29" s="101" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="148"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="164">
+        <f>(C29+1)</f>
+        <v>2</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>473</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>474</v>
+      </c>
+      <c r="G30" s="120" t="s">
+        <v>515</v>
+      </c>
+      <c r="H30" s="101"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="148"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="164">
+        <v>3</v>
+      </c>
+      <c r="D31" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="E31" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="F31" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="G31" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="H31" s="101"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="148"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="164">
+        <f t="shared" ref="C32:C50" si="0">(C31+1)</f>
+        <v>4</v>
+      </c>
+      <c r="D32" s="81" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>477</v>
+      </c>
+      <c r="F32" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="G32" s="120" t="s">
+        <v>517</v>
+      </c>
+      <c r="H32" s="101"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="148"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="164">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>478</v>
+      </c>
+      <c r="E33" s="81" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" s="102" t="s">
+        <v>480</v>
+      </c>
+      <c r="G33" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="H33" s="101"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="148"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="164">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D34" s="81" t="s">
+        <v>481</v>
+      </c>
+      <c r="E34" s="81" t="s">
+        <v>482</v>
+      </c>
+      <c r="F34" s="102" t="s">
+        <v>483</v>
+      </c>
+      <c r="G34" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="H34" s="101"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="148"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="164">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>484</v>
+      </c>
+      <c r="E35" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35" s="102" t="s">
+        <v>485</v>
+      </c>
+      <c r="G35" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="H35" s="101"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="148"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="164">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="G36" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="H36" s="101"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="148"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="164">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>487</v>
+      </c>
+      <c r="E37" s="70" t="s">
+        <v>488</v>
+      </c>
+      <c r="F37" s="68" t="s">
+        <v>489</v>
+      </c>
+      <c r="G37" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="H37" s="101"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="148"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="164">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>491</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="G38" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="H38" s="101"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="148"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="164">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39" s="101" t="s">
+        <v>493</v>
+      </c>
+      <c r="G39" s="106" t="s">
+        <v>494</v>
+      </c>
+      <c r="H39" s="101"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="148"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="164">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>495</v>
+      </c>
+      <c r="E40" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G40" s="106" t="s">
+        <v>497</v>
+      </c>
+      <c r="H40" s="101"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="148"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="164">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="E41" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G41" s="106" t="s">
+        <v>498</v>
+      </c>
+      <c r="H41" s="101"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="148"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="164">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>499</v>
+      </c>
+      <c r="E42" s="70" t="s">
+        <v>500</v>
+      </c>
+      <c r="F42" s="68" t="s">
+        <v>520</v>
+      </c>
+      <c r="G42" s="120" t="s">
+        <v>521</v>
+      </c>
+      <c r="H42" s="101"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="148"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="164">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D43" s="70" t="s">
+        <v>337</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>338</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>522</v>
+      </c>
+      <c r="G43" s="120" t="s">
+        <v>523</v>
+      </c>
+      <c r="H43" s="101"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="148"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="164">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>501</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>524</v>
+      </c>
+      <c r="G44" s="120" t="s">
+        <v>525</v>
+      </c>
+      <c r="H44" s="101"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="148"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="164">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>503</v>
+      </c>
+      <c r="E45" s="70" t="s">
+        <v>342</v>
+      </c>
+      <c r="F45" s="68" t="s">
+        <v>526</v>
+      </c>
+      <c r="G45" s="120" t="s">
+        <v>527</v>
+      </c>
+      <c r="H45" s="101"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="148"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="164">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="E46" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="F46" s="68" t="s">
+        <v>528</v>
+      </c>
+      <c r="G46" s="120" t="s">
+        <v>529</v>
+      </c>
+      <c r="H46" s="101"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="148"/>
+      <c r="B47" s="148"/>
+      <c r="C47" s="164">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="E47" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="F47" s="68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G47" s="120" t="s">
+        <v>531</v>
+      </c>
+      <c r="H47" s="101"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="148"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="164">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D48" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="E48" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="F48" s="68" t="s">
+        <v>532</v>
+      </c>
+      <c r="G48" s="120" t="s">
+        <v>533</v>
+      </c>
+      <c r="H48" s="101"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="148"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="164">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D49" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="E49" s="70" t="s">
+        <v>504</v>
+      </c>
+      <c r="F49" s="68" t="s">
+        <v>534</v>
+      </c>
+      <c r="G49" s="120" t="s">
+        <v>535</v>
+      </c>
+      <c r="H49" s="101"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="148"/>
+      <c r="B50" s="148"/>
+      <c r="C50" s="164">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D50" s="70" t="s">
+        <v>505</v>
+      </c>
+      <c r="E50" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="F50" s="68" t="s">
+        <v>536</v>
+      </c>
+      <c r="G50" s="120" t="s">
+        <v>537</v>
+      </c>
+      <c r="H50" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="A29:A50"/>
+    <mergeCell ref="B29:B50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
+++ b/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25213"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB39C2F-2694-4230-AB00-296CF895DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0996939-E20F-466C-B997-A92B8D4B1182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="558">
   <si>
     <t>MOM</t>
   </si>
@@ -340,7 +340,7 @@
     <t>DAY 8</t>
   </si>
   <si>
-    <t>Audit Fields is required</t>
+    <t>Audit Fields are required</t>
   </si>
   <si>
     <t>"Cancelled Drives" tables is not needed. Add it inside "Drives" table</t>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>DAY 9</t>
+  </si>
+  <si>
+    <t>TAC - Create Invite (From date &amp; To date)</t>
+  </si>
+  <si>
+    <t>Drop Multiple projet idea or otherwise add project select option for project manager</t>
   </si>
   <si>
     <t xml:space="preserve"> TEAM ALPHA</t>
@@ -3305,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46290B07-6E6D-4B19-9A9B-C3E38C6518F8}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:B109"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4073,11 +4079,35 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="114" t="s">
+      <c r="A109" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="43" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="6">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="6">
+        <v>2</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="6">
+        <v>3</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4103,7 +4133,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="G1" s="142" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
@@ -4113,14 +4143,14 @@
     </row>
     <row r="3" spans="1:14">
       <c r="G3" s="143" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H3" s="143"/>
       <c r="I3" s="143"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="F5" s="138" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
@@ -4130,11 +4160,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="137" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D8" s="137"/>
       <c r="E8" s="137"/>
@@ -4150,11 +4180,11 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="27" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="28"/>
@@ -4170,7 +4200,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="C12" s="139" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="140"/>
@@ -4186,7 +4216,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="C13" s="137" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
@@ -4233,7 +4263,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
       <c r="E1" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.75">
@@ -4241,7 +4271,7 @@
     </row>
     <row r="3" spans="2:6" ht="15.75">
       <c r="E3" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -4249,19 +4279,19 @@
     </row>
     <row r="5" spans="2:6" ht="15.75">
       <c r="B5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4269,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -4288,10 +4318,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -4301,10 +4331,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -4314,10 +4344,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -4327,10 +4357,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -4340,10 +4370,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -4353,10 +4383,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -4366,10 +4396,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -4377,16 +4407,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="146" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D14" s="25">
         <v>9</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -4396,10 +4426,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -4409,10 +4439,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4422,10 +4452,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4435,10 +4465,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -4446,16 +4476,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D19" s="25">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -4465,10 +4495,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4478,10 +4508,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4491,10 +4521,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -4567,20 +4597,20 @@
   <sheetData>
     <row r="1" spans="3:16" ht="18.75">
       <c r="C1" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="3:16">
       <c r="C3" s="22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="3:16" ht="17.25">
       <c r="C5" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H5" s="143" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I5" s="143"/>
       <c r="J5" s="143"/>
@@ -4591,10 +4621,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="3:16">
@@ -4603,10 +4633,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="144" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -4616,7 +4646,7 @@
       </c>
       <c r="I9" s="145"/>
       <c r="J9" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="17.25">
@@ -4626,10 +4656,10 @@
       </c>
       <c r="I10" s="145"/>
       <c r="J10" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="3:16">
@@ -4639,7 +4669,7 @@
       </c>
       <c r="I11" s="145"/>
       <c r="J11" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="3:16">
@@ -4649,7 +4679,7 @@
       </c>
       <c r="I12" s="145"/>
       <c r="J12" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -4659,7 +4689,7 @@
       </c>
       <c r="I13" s="145"/>
       <c r="J13" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="3:16">
@@ -4669,7 +4699,7 @@
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -4679,7 +4709,7 @@
       </c>
       <c r="I15" s="145"/>
       <c r="J15" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="3:16">
@@ -4689,7 +4719,7 @@
       </c>
       <c r="I16" s="149"/>
       <c r="J16" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -4703,10 +4733,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="151" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -4716,7 +4746,7 @@
       </c>
       <c r="I19" s="151"/>
       <c r="J19" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -4726,7 +4756,7 @@
       </c>
       <c r="I20" s="151"/>
       <c r="J20" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -4736,7 +4766,7 @@
       </c>
       <c r="I21" s="151"/>
       <c r="J21" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="3:10">
@@ -4746,7 +4776,7 @@
       </c>
       <c r="I22" s="151"/>
       <c r="J22" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -4756,7 +4786,7 @@
       </c>
       <c r="I23" s="151"/>
       <c r="J23" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -4766,7 +4796,7 @@
       </c>
       <c r="I24" s="151"/>
       <c r="J24" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="3:10">
@@ -4779,10 +4809,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="151" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="3:10">
@@ -4792,7 +4822,7 @@
       </c>
       <c r="I27" s="151"/>
       <c r="J27" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="3:10">
@@ -4802,7 +4832,7 @@
       </c>
       <c r="I28" s="151"/>
       <c r="J28" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="3:10">
@@ -4812,7 +4842,7 @@
       </c>
       <c r="I29" s="151"/>
       <c r="J29" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -4822,7 +4852,7 @@
       </c>
       <c r="I30" s="151"/>
       <c r="J30" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="3:10">
@@ -4832,7 +4862,7 @@
       </c>
       <c r="I31" s="151"/>
       <c r="J31" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="3:10">
@@ -4842,7 +4872,7 @@
       </c>
       <c r="I32" s="151"/>
       <c r="J32" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="3:10">
@@ -4851,12 +4881,12 @@
       </c>
       <c r="I33" s="151"/>
       <c r="J33" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="17.25">
       <c r="C34" s="23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="3:10">
@@ -4967,12 +4997,12 @@
     </row>
     <row r="72" spans="3:4" ht="17.25">
       <c r="C72" s="23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="150" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="3:4">
@@ -4990,7 +5020,7 @@
     <row r="79" spans="3:4" ht="17.25">
       <c r="C79" s="150"/>
       <c r="D79" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="3:4">
@@ -5111,7 +5141,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="D1" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -5119,24 +5149,24 @@
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="D3" s="12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5144,16 +5174,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="151" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5163,10 +5193,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5176,10 +5206,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5189,10 +5219,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5202,10 +5232,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5215,10 +5245,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5228,10 +5258,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5241,10 +5271,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5254,10 +5284,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5267,10 +5297,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5280,10 +5310,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5293,10 +5323,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5306,10 +5336,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5317,16 +5347,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="149" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C19" s="51">
         <v>14</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5336,10 +5366,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5349,10 +5379,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5362,10 +5392,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5375,10 +5405,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5386,16 +5416,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C24" s="50">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5405,10 +5435,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5418,10 +5448,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5431,10 +5461,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5444,10 +5474,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5457,10 +5487,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5470,10 +5500,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5483,10 +5513,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5506,7 +5536,7 @@
     </row>
     <row r="35" spans="3:20">
       <c r="D35" s="155" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E35" s="155"/>
       <c r="F35" s="155"/>
@@ -6670,7 +6700,7 @@
     </row>
     <row r="99" spans="4:21">
       <c r="D99" s="154" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E99" s="154"/>
       <c r="F99" s="154"/>
@@ -7992,7 +8022,7 @@
     </row>
     <row r="167" spans="4:21">
       <c r="D167" s="154" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E167" s="154"/>
       <c r="F167" s="154"/>
@@ -9694,52 +9724,52 @@
     </row>
     <row r="254" spans="4:21">
       <c r="D254" s="48" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="256" spans="4:21">
       <c r="D256" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="257" spans="4:4">
       <c r="D257" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="258" spans="4:4">
       <c r="D258" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="259" spans="4:4">
       <c r="D259" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="260" spans="4:4">
       <c r="D260" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="261" spans="4:4">
       <c r="D261" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="262" spans="4:4">
       <c r="D262" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="263" spans="4:4">
       <c r="D263" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="264" spans="4:4">
       <c r="D264" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -9792,7 +9822,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="D1" s="54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
@@ -9800,46 +9830,46 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="D3" s="56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="F5" s="158" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="158"/>
       <c r="H5" s="159"/>
       <c r="I5" s="99" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I6" s="100"/>
       <c r="J6" s="101"/>
@@ -9849,25 +9879,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C7" s="63">
         <v>1</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H7" s="98" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
@@ -9877,25 +9907,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="75">
         <v>1</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
@@ -9907,19 +9937,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I9" s="101"/>
       <c r="J9" s="101"/>
@@ -9931,19 +9961,19 @@
         <v>3</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
@@ -9955,13 +9985,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G11" s="68"/>
       <c r="H11" s="69"/>
@@ -9975,10 +10005,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
@@ -9993,10 +10023,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
@@ -10011,10 +10041,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
@@ -10029,10 +10059,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="68"/>
@@ -10047,10 +10077,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
@@ -10065,10 +10095,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
@@ -10083,10 +10113,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10101,10 +10131,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
@@ -10119,10 +10149,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
@@ -10137,10 +10167,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
@@ -10153,25 +10183,25 @@
         <v>3</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C22" s="72">
         <v>1</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I22" s="101"/>
       <c r="J22" s="101"/>
@@ -10183,25 +10213,25 @@
         <v>2</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F23" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="G23" s="68" t="s">
-        <v>256</v>
-      </c>
       <c r="H23" s="69" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I23" s="101" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J23" s="101" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10211,25 +10241,25 @@
         <v>3</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I24" s="101" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10239,25 +10269,25 @@
         <v>4</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J25" s="101" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10267,25 +10297,25 @@
         <v>5</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J26" s="101" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10295,25 +10325,25 @@
         <v>6</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J27" s="101" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10323,25 +10353,25 @@
         <v>7</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10351,25 +10381,25 @@
         <v>8</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H29" s="85" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I29" s="102" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J29" s="102" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10379,25 +10409,25 @@
         <v>9</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I30" s="101" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J30" s="102" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10407,25 +10437,25 @@
         <v>10</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J31" s="102" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10435,25 +10465,25 @@
         <v>11</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I32" s="101" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J32" s="101" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10461,25 +10491,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C33" s="75">
         <v>1</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -10491,19 +10521,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
@@ -10515,19 +10545,19 @@
         <v>3</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I35" s="101"/>
       <c r="J35" s="101"/>
@@ -10539,19 +10569,19 @@
         <v>4</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G36" s="68" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
@@ -10563,19 +10593,19 @@
         <v>5</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -10587,10 +10617,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68"/>
@@ -10605,10 +10635,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
@@ -10623,10 +10653,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F40" s="68"/>
       <c r="G40" s="68"/>
@@ -10641,10 +10671,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
@@ -10659,10 +10689,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F42" s="68"/>
       <c r="G42" s="68"/>
@@ -10677,10 +10707,10 @@
         <v>10</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
@@ -10695,10 +10725,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F44" s="68"/>
       <c r="G44" s="68"/>
@@ -10713,10 +10743,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
@@ -10731,10 +10761,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
@@ -10744,17 +10774,17 @@
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="90" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="90" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="90" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -11044,7 +11074,7 @@
     </row>
     <row r="173" spans="4:6">
       <c r="D173" s="90" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="4:6">
@@ -11279,76 +11309,76 @@
     </row>
     <row r="228" spans="4:7">
       <c r="D228" s="89" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E228" s="89" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="4:7">
       <c r="D229" s="53" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E229" s="53" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="230" spans="4:7">
       <c r="D230" s="53" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="231" spans="4:7">
       <c r="D231" s="53" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="232" spans="4:7">
       <c r="D232" s="53" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="233" spans="4:7">
       <c r="D233" s="85" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="234" spans="4:7">
       <c r="D234" s="53" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="237" spans="4:7">
       <c r="F237" s="88" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="239" spans="4:7">
       <c r="D239" s="86" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E239" s="87" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F239" s="87" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G239" s="87" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="241" spans="4:7">
       <c r="D241" s="53" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E241" s="53" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F241" s="53" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G241" s="53" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -11391,22 +11421,22 @@
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>39</v>
@@ -11417,156 +11447,156 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E8" s="109"/>
       <c r="F8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
       <c r="C11" s="96" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E12" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F12" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E14" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F14" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E15" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F15" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75">
@@ -11574,7 +11604,7 @@
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
@@ -11600,7 +11630,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
       <c r="D21" s="56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
@@ -11628,41 +11658,41 @@
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="158" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G23" s="158"/>
       <c r="H23" s="159"/>
       <c r="I23" s="99" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J23" s="99" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E24" s="108" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I24" s="100"/>
       <c r="J24" s="101"/>
@@ -11672,28 +11702,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C25" s="104">
         <v>1</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H25" s="98" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J25" s="101"/>
     </row>
@@ -11702,31 +11732,31 @@
         <v>2</v>
       </c>
       <c r="B26" s="160" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C26" s="78">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H26" s="98" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J26" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -11736,25 +11766,25 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F27" s="106" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J27" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -11764,25 +11794,25 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F28" s="106" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J28" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -11792,25 +11822,25 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F29" s="106" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J29" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -11820,25 +11850,25 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F30" s="106" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J30" s="101" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30.75">
@@ -11848,25 +11878,25 @@
         <v>6</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F31" s="106" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J31" s="96" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -11876,25 +11906,25 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F32" s="106" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J32" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -11904,25 +11934,25 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F33" s="106" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J33" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -11932,19 +11962,19 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F34" s="106"/>
       <c r="G34" s="68"/>
       <c r="H34" s="69"/>
       <c r="I34" s="38" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J34" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -11954,19 +11984,19 @@
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F35" s="106"/>
       <c r="G35" s="68"/>
       <c r="H35" s="69"/>
       <c r="I35" s="38" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J35" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -11976,19 +12006,19 @@
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F36" s="106"/>
       <c r="G36" s="68"/>
       <c r="H36" s="69"/>
       <c r="I36" s="38" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J36" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -11996,25 +12026,25 @@
         <v>3</v>
       </c>
       <c r="B37" s="165" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C37" s="72">
         <v>1</v>
       </c>
       <c r="D37" s="73" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -12026,25 +12056,25 @@
         <v>2</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F38" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="G38" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="68" t="s">
-        <v>256</v>
-      </c>
       <c r="H38" s="69" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I38" s="101" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J38" s="101" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -12054,25 +12084,25 @@
         <v>3</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I39" s="101" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J39" s="101" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -12082,25 +12112,25 @@
         <v>4</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I40" s="101" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J40" s="101" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -12110,25 +12140,25 @@
         <v>5</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I41" s="101" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J41" s="101" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -12138,25 +12168,25 @@
         <v>6</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I42" s="101" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12166,25 +12196,25 @@
         <v>7</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I43" s="101" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J43" s="102" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -12194,25 +12224,25 @@
         <v>8</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H44" s="85" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I44" s="102" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J44" s="102" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -12222,25 +12252,25 @@
         <v>9</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H45" s="69" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I45" s="101" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J45" s="102" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -12250,25 +12280,25 @@
         <v>10</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G46" s="68" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I46" s="101" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J46" s="102" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -12278,25 +12308,25 @@
         <v>11</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I47" s="101" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J47" s="101" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -12304,25 +12334,25 @@
         <v>4</v>
       </c>
       <c r="B48" s="163" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C48" s="75">
         <v>1</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I48" s="101"/>
       <c r="J48" s="101"/>
@@ -12334,19 +12364,19 @@
         <v>2</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I49" s="101"/>
       <c r="J49" s="101"/>
@@ -12358,19 +12388,19 @@
         <v>3</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E50" s="82" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I50" s="101"/>
       <c r="J50" s="101"/>
@@ -12382,19 +12412,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E51" s="84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I51" s="101"/>
       <c r="J51" s="101"/>
@@ -12406,19 +12436,19 @@
         <v>5</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F52" s="68" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I52" s="101"/>
       <c r="J52" s="101"/>
@@ -12430,10 +12460,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F53" s="68"/>
       <c r="G53" s="68"/>
@@ -12448,10 +12478,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E54" s="71" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
@@ -12466,10 +12496,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F55" s="68"/>
       <c r="G55" s="68"/>
@@ -12484,10 +12514,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
@@ -12502,10 +12532,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F57" s="68"/>
       <c r="G57" s="68"/>
@@ -12520,10 +12550,10 @@
         <v>10</v>
       </c>
       <c r="D58" s="70" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F58" s="68"/>
       <c r="G58" s="68"/>
@@ -12538,10 +12568,10 @@
         <v>11</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
@@ -12556,10 +12586,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E60" s="71" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F60" s="68"/>
       <c r="G60" s="68"/>
@@ -12574,10 +12604,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="70" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F61" s="68"/>
       <c r="G61" s="68"/>
@@ -12626,7 +12656,7 @@
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
@@ -12652,7 +12682,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -12685,28 +12715,28 @@
     </row>
     <row r="10" spans="2:11" ht="15.75">
       <c r="B10" s="118" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E10" s="129" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75">
@@ -12714,22 +12744,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H11" s="105" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I11" s="122"/>
     </row>
@@ -12738,22 +12768,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="160" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D12" s="132">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H12" s="120" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I12" s="123"/>
     </row>
@@ -12764,19 +12794,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H13" s="120" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -12786,19 +12816,19 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H14" s="120" t="s">
+        <v>457</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="H14" s="120" t="s">
-        <v>455</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -12808,19 +12838,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="H15" s="120" t="s">
+        <v>399</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>457</v>
-      </c>
-      <c r="H15" s="120" t="s">
-        <v>397</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -12830,19 +12860,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="H16" s="126" t="s">
+        <v>403</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H16" s="126" t="s">
-        <v>401</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -12852,19 +12882,19 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G17" s="101" t="s">
+        <v>463</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>434</v>
+      </c>
+      <c r="I17" s="103" t="s">
         <v>408</v>
-      </c>
-      <c r="G17" s="101" t="s">
-        <v>461</v>
-      </c>
-      <c r="H17" s="127" t="s">
-        <v>432</v>
-      </c>
-      <c r="I17" s="103" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -12874,19 +12904,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H18" s="120" t="s">
+        <v>457</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="H18" s="120" t="s">
-        <v>455</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -12896,17 +12926,17 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G19" s="124"/>
       <c r="H19" s="127" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -12916,17 +12946,17 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="127" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -12936,17 +12966,17 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G21" s="101"/>
       <c r="H21" s="127" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -12954,25 +12984,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="160" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D22" s="132">
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H22" s="127" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -12982,13 +13012,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H23" s="128"/>
       <c r="I23" s="122"/>
@@ -13000,13 +13030,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H24" s="128"/>
       <c r="I24" s="122"/>
@@ -13018,19 +13048,19 @@
         <v>3</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F25" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>474</v>
+      </c>
+      <c r="H25" s="120" t="s">
+        <v>270</v>
+      </c>
+      <c r="I25" s="101" t="s">
         <v>271</v>
-      </c>
-      <c r="G25" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="H25" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="I25" s="101" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -13040,19 +13070,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F26" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="H26" s="120" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" s="101" t="s">
         <v>278</v>
-      </c>
-      <c r="G26" s="68" t="s">
-        <v>474</v>
-      </c>
-      <c r="H26" s="120" t="s">
-        <v>275</v>
-      </c>
-      <c r="I26" s="101" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -13062,19 +13092,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F27" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="G27" s="102" t="s">
+        <v>478</v>
+      </c>
+      <c r="H27" s="120" t="s">
+        <v>284</v>
+      </c>
+      <c r="I27" s="101" t="s">
         <v>285</v>
-      </c>
-      <c r="G27" s="102" t="s">
-        <v>476</v>
-      </c>
-      <c r="H27" s="120" t="s">
-        <v>282</v>
-      </c>
-      <c r="I27" s="101" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -13084,19 +13114,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H28" s="120" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -13106,19 +13136,19 @@
         <v>7</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F29" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>482</v>
+      </c>
+      <c r="H29" s="120" t="s">
+        <v>297</v>
+      </c>
+      <c r="I29" s="101" t="s">
         <v>298</v>
-      </c>
-      <c r="G29" s="102" t="s">
-        <v>480</v>
-      </c>
-      <c r="H29" s="120" t="s">
-        <v>295</v>
-      </c>
-      <c r="I29" s="101" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -13128,19 +13158,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F30" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>484</v>
+      </c>
+      <c r="H30" s="120" t="s">
+        <v>304</v>
+      </c>
+      <c r="I30" s="102" t="s">
         <v>305</v>
-      </c>
-      <c r="G30" s="68" t="s">
-        <v>482</v>
-      </c>
-      <c r="H30" s="120" t="s">
-        <v>302</v>
-      </c>
-      <c r="I30" s="102" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -13150,19 +13180,19 @@
         <v>9</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F31" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="H31" s="133" t="s">
+        <v>310</v>
+      </c>
+      <c r="I31" s="102" t="s">
         <v>311</v>
-      </c>
-      <c r="G31" s="68" t="s">
-        <v>484</v>
-      </c>
-      <c r="H31" s="133" t="s">
-        <v>308</v>
-      </c>
-      <c r="I31" s="102" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -13172,19 +13202,19 @@
         <v>10</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F32" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>488</v>
+      </c>
+      <c r="H32" s="120" t="s">
+        <v>316</v>
+      </c>
+      <c r="I32" s="102" t="s">
         <v>317</v>
-      </c>
-      <c r="G32" s="68" t="s">
-        <v>486</v>
-      </c>
-      <c r="H32" s="120" t="s">
-        <v>314</v>
-      </c>
-      <c r="I32" s="102" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -13194,19 +13224,19 @@
         <v>11</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F33" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="H33" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="I33" s="102" t="s">
         <v>324</v>
-      </c>
-      <c r="G33" s="102" t="s">
-        <v>488</v>
-      </c>
-      <c r="H33" s="120" t="s">
-        <v>321</v>
-      </c>
-      <c r="I33" s="102" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -13214,25 +13244,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="160" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D34" s="132">
         <v>1</v>
       </c>
       <c r="E34" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>447</v>
+      </c>
+      <c r="G34" s="68" t="s">
+        <v>491</v>
+      </c>
+      <c r="H34" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="I34" s="101" t="s">
         <v>331</v>
-      </c>
-      <c r="F34" s="68" t="s">
-        <v>445</v>
-      </c>
-      <c r="G34" s="68" t="s">
-        <v>489</v>
-      </c>
-      <c r="H34" s="120" t="s">
-        <v>328</v>
-      </c>
-      <c r="I34" s="101" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -13243,13 +13273,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H35" s="120"/>
       <c r="I35" s="101"/>
@@ -13261,13 +13291,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G36" s="102" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H36" s="120"/>
       <c r="I36" s="101"/>
@@ -13280,13 +13310,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="81" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F37" s="81" t="s">
+        <v>496</v>
+      </c>
+      <c r="G37" s="102" t="s">
         <v>494</v>
-      </c>
-      <c r="G37" s="102" t="s">
-        <v>492</v>
       </c>
       <c r="H37" s="120"/>
       <c r="I37" s="101"/>
@@ -13299,13 +13329,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G38" s="102" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H38" s="120"/>
       <c r="I38" s="101"/>
@@ -13318,13 +13348,13 @@
         <v>6</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F39" s="81" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G39" s="102" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H39" s="120"/>
       <c r="I39" s="101"/>
@@ -13337,13 +13367,13 @@
         <v>7</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G40" s="102" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H40" s="120"/>
       <c r="I40" s="101"/>
@@ -13356,13 +13386,13 @@
         <v>8</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H41" s="120"/>
       <c r="I41" s="101"/>
@@ -13375,13 +13405,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="101"/>
@@ -13394,13 +13424,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="102" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="101"/>
@@ -13413,16 +13443,16 @@
         <v>11</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="H44" s="106" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I44" s="101"/>
     </row>
@@ -13434,16 +13464,16 @@
         <v>12</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H45" s="106" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I45" s="101"/>
     </row>
@@ -13455,14 +13485,14 @@
         <v>13</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="106" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="I46" s="101"/>
     </row>
@@ -13474,10 +13504,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G47" s="68"/>
       <c r="H47" s="120"/>
@@ -13491,10 +13521,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G48" s="68"/>
       <c r="H48" s="120"/>
@@ -13508,10 +13538,10 @@
         <v>16</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G49" s="68"/>
       <c r="H49" s="120"/>
@@ -13525,10 +13555,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G50" s="68"/>
       <c r="H50" s="120"/>
@@ -13542,10 +13572,10 @@
         <v>18</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G51" s="68"/>
       <c r="H51" s="120"/>
@@ -13559,10 +13589,10 @@
         <v>19</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G52" s="68"/>
       <c r="H52" s="120"/>
@@ -13576,10 +13606,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="120"/>
@@ -13593,10 +13623,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G54" s="68"/>
       <c r="H54" s="120"/>
@@ -13610,10 +13640,10 @@
         <v>22</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G55" s="68"/>
       <c r="H55" s="120"/>
@@ -13636,7 +13666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF84FF66-0AA3-4B94-BE56-4DE17E29EB86}">
   <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -13654,7 +13684,7 @@
     <row r="2" spans="1:8" ht="18.75">
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -13664,33 +13694,33 @@
     <row r="4" spans="1:8" ht="15.75">
       <c r="C4" s="53"/>
       <c r="D4" s="56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="118" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -13698,25 +13728,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C6" s="63">
         <v>1</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E6" s="134" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H6" s="122" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13724,25 +13754,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" s="132">
         <v>2</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G7" s="120" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -13752,19 +13782,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G8" s="120" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13774,19 +13804,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G9" s="120" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -13796,19 +13826,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G10" s="120" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13818,19 +13848,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G11" s="126" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -13840,19 +13870,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -13862,19 +13892,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G13" s="120" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -13884,19 +13914,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E14" s="101" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -13906,19 +13936,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E15" s="101" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -13928,19 +13958,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -13948,22 +13978,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="160" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C17" s="132">
         <v>1</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -13974,16 +14004,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G18" s="135" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H18" s="101"/>
     </row>
@@ -13994,16 +14024,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G19" s="128" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H19" s="122"/>
     </row>
@@ -14014,19 +14044,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E20" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>474</v>
+      </c>
+      <c r="G20" s="120" t="s">
+        <v>277</v>
+      </c>
+      <c r="H20" s="101" t="s">
         <v>271</v>
-      </c>
-      <c r="F20" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="G20" s="120" t="s">
-        <v>275</v>
-      </c>
-      <c r="H20" s="101" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14036,19 +14066,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E21" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="G21" s="120" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" s="101" t="s">
         <v>278</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>474</v>
-      </c>
-      <c r="G21" s="120" t="s">
-        <v>282</v>
-      </c>
-      <c r="H21" s="101" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14058,19 +14088,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E22" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" s="102" t="s">
+        <v>478</v>
+      </c>
+      <c r="G22" s="120" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" s="101" t="s">
         <v>285</v>
-      </c>
-      <c r="F22" s="102" t="s">
-        <v>476</v>
-      </c>
-      <c r="G22" s="120" t="s">
-        <v>289</v>
-      </c>
-      <c r="H22" s="101" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14080,19 +14110,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G23" s="120" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H23" s="101" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14102,19 +14132,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E24" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="102" t="s">
+        <v>482</v>
+      </c>
+      <c r="G24" s="120" t="s">
+        <v>304</v>
+      </c>
+      <c r="H24" s="101" t="s">
         <v>298</v>
-      </c>
-      <c r="F24" s="102" t="s">
-        <v>480</v>
-      </c>
-      <c r="G24" s="120" t="s">
-        <v>302</v>
-      </c>
-      <c r="H24" s="101" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14124,19 +14154,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E25" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="68" t="s">
+        <v>484</v>
+      </c>
+      <c r="G25" s="133" t="s">
+        <v>310</v>
+      </c>
+      <c r="H25" s="102" t="s">
         <v>305</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>482</v>
-      </c>
-      <c r="G25" s="133" t="s">
-        <v>308</v>
-      </c>
-      <c r="H25" s="102" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14146,19 +14176,19 @@
         <v>9</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E26" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>486</v>
+      </c>
+      <c r="G26" s="120" t="s">
+        <v>316</v>
+      </c>
+      <c r="H26" s="102" t="s">
         <v>311</v>
-      </c>
-      <c r="F26" s="68" t="s">
-        <v>484</v>
-      </c>
-      <c r="G26" s="120" t="s">
-        <v>314</v>
-      </c>
-      <c r="H26" s="102" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14168,19 +14198,19 @@
         <v>10</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E27" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" s="68" t="s">
+        <v>488</v>
+      </c>
+      <c r="G27" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="H27" s="102" t="s">
         <v>317</v>
-      </c>
-      <c r="F27" s="68" t="s">
-        <v>486</v>
-      </c>
-      <c r="G27" s="120" t="s">
-        <v>321</v>
-      </c>
-      <c r="H27" s="102" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14190,19 +14220,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E28" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="F28" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="G28" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="H28" s="102" t="s">
         <v>324</v>
-      </c>
-      <c r="F28" s="102" t="s">
-        <v>488</v>
-      </c>
-      <c r="G28" s="120" t="s">
-        <v>328</v>
-      </c>
-      <c r="H28" s="102" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14210,25 +14240,25 @@
         <v>4</v>
       </c>
       <c r="B29" s="160" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C29" s="132">
         <v>1</v>
       </c>
       <c r="D29" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>447</v>
+      </c>
+      <c r="F29" s="68" t="s">
+        <v>491</v>
+      </c>
+      <c r="G29" t="s">
+        <v>533</v>
+      </c>
+      <c r="H29" s="101" t="s">
         <v>331</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>445</v>
-      </c>
-      <c r="F29" s="68" t="s">
-        <v>489</v>
-      </c>
-      <c r="G29" t="s">
-        <v>531</v>
-      </c>
-      <c r="H29" s="101" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14239,16 +14269,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G30" s="120" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H30" s="101"/>
     </row>
@@ -14259,16 +14289,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H31" s="101"/>
     </row>
@@ -14280,16 +14310,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E32" s="81" t="s">
+        <v>496</v>
+      </c>
+      <c r="F32" s="102" t="s">
         <v>494</v>
       </c>
-      <c r="F32" s="102" t="s">
-        <v>492</v>
-      </c>
       <c r="G32" s="120" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="H32" s="101"/>
     </row>
@@ -14301,16 +14331,16 @@
         <v>5</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G33" s="120" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H33" s="101"/>
     </row>
@@ -14322,16 +14352,16 @@
         <v>6</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F34" s="102" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H34" s="101"/>
     </row>
@@ -14343,16 +14373,16 @@
         <v>7</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E35" s="81" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F35" s="102" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H35" s="101"/>
     </row>
@@ -14364,16 +14394,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H36" s="101"/>
     </row>
@@ -14385,16 +14415,16 @@
         <v>9</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G37" s="120" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H37" s="101"/>
     </row>
@@ -14406,16 +14436,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G38" s="120" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H38" s="101"/>
     </row>
@@ -14427,16 +14457,16 @@
         <v>11</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G39" s="106" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H39" s="101"/>
     </row>
@@ -14448,16 +14478,16 @@
         <v>12</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G40" s="106" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H40" s="101"/>
     </row>
@@ -14469,16 +14499,16 @@
         <v>13</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G41" s="106" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H41" s="101"/>
     </row>
@@ -14490,16 +14520,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G42" s="120" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H42" s="101"/>
     </row>
@@ -14511,16 +14541,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G43" s="120" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H43" s="101"/>
     </row>
@@ -14532,16 +14562,16 @@
         <v>16</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G44" s="120" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H44" s="101"/>
     </row>
@@ -14553,16 +14583,16 @@
         <v>17</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G45" s="120" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H45" s="101"/>
     </row>
@@ -14574,16 +14604,16 @@
         <v>18</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G46" s="120" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H46" s="101"/>
     </row>
@@ -14595,16 +14625,16 @@
         <v>19</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G47" s="120" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H47" s="101"/>
     </row>
@@ -14616,16 +14646,16 @@
         <v>20</v>
       </c>
       <c r="D48" s="70" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G48" s="120" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H48" s="101"/>
     </row>
@@ -14637,16 +14667,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="70" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G49" s="120" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H49" s="101"/>
     </row>
@@ -14658,16 +14688,16 @@
         <v>22</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G50" s="120" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="H50" s="101"/>
     </row>

--- a/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
+++ b/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0996939-E20F-466C-B997-A92B8D4B1182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1925CC58-D79D-4A4C-9B92-0FD851138DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="564">
   <si>
     <t>MOM</t>
   </si>
@@ -365,6 +365,24 @@
   </si>
   <si>
     <t>Drop Multiple projet idea or otherwise add project select option for project manager</t>
+  </si>
+  <si>
+    <t>DAY 10</t>
+  </si>
+  <si>
+    <t>Add output methods in data models</t>
+  </si>
+  <si>
+    <t>Proper naming conventions in data model</t>
+  </si>
+  <si>
+    <t>Add department list as a view model</t>
+  </si>
+  <si>
+    <t>Compare prototype with Data model and refine data model</t>
+  </si>
+  <si>
+    <t>Identify services</t>
   </si>
   <si>
     <t xml:space="preserve"> TEAM ALPHA</t>
@@ -2111,7 +2129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2479,16 +2497,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2520,6 +2538,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3311,10 +3333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46290B07-6E6D-4B19-9A9B-C3E38C6518F8}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4109,6 +4131,63 @@
       <c r="B112" s="2" t="s">
         <v>109</v>
       </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="6">
+        <v>1</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="6">
+        <v>2</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="6">
+        <v>3</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="7">
+        <v>4</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="6">
+        <v>5</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="168"/>
+      <c r="B123" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4133,7 +4212,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="G1" s="142" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
@@ -4143,14 +4222,14 @@
     </row>
     <row r="3" spans="1:14">
       <c r="G3" s="143" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H3" s="143"/>
       <c r="I3" s="143"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="F5" s="138" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
@@ -4160,11 +4239,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="27" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="137" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D8" s="137"/>
       <c r="E8" s="137"/>
@@ -4180,11 +4259,11 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="27" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="28"/>
@@ -4200,7 +4279,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="C12" s="139" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="140"/>
@@ -4216,7 +4295,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="C13" s="137" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
@@ -4263,7 +4342,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
       <c r="E1" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.75">
@@ -4271,7 +4350,7 @@
     </row>
     <row r="3" spans="2:6" ht="15.75">
       <c r="E3" s="12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -4279,19 +4358,19 @@
     </row>
     <row r="5" spans="2:6" ht="15.75">
       <c r="B5" s="13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4299,16 +4378,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -4318,10 +4397,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -4331,10 +4410,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -4344,10 +4423,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -4357,10 +4436,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -4370,10 +4449,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -4383,10 +4462,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -4396,10 +4475,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -4407,16 +4486,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="146" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D14" s="25">
         <v>9</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -4426,10 +4505,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -4439,10 +4518,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4452,10 +4531,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4465,10 +4544,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -4476,16 +4555,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D19" s="25">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -4495,10 +4574,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4508,10 +4587,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4521,10 +4600,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -4597,20 +4676,20 @@
   <sheetData>
     <row r="1" spans="3:16" ht="18.75">
       <c r="C1" s="21" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="3:16">
       <c r="C3" s="22" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="3:16" ht="17.25">
       <c r="C5" s="20" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H5" s="143" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I5" s="143"/>
       <c r="J5" s="143"/>
@@ -4621,10 +4700,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="3:16">
@@ -4633,10 +4712,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="144" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -4646,7 +4725,7 @@
       </c>
       <c r="I9" s="145"/>
       <c r="J9" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="17.25">
@@ -4656,10 +4735,10 @@
       </c>
       <c r="I10" s="145"/>
       <c r="J10" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="3:16">
@@ -4669,7 +4748,7 @@
       </c>
       <c r="I11" s="145"/>
       <c r="J11" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="3:16">
@@ -4679,7 +4758,7 @@
       </c>
       <c r="I12" s="145"/>
       <c r="J12" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -4689,7 +4768,7 @@
       </c>
       <c r="I13" s="145"/>
       <c r="J13" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="3:16">
@@ -4699,7 +4778,7 @@
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -4709,7 +4788,7 @@
       </c>
       <c r="I15" s="145"/>
       <c r="J15" s="19" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="3:16">
@@ -4719,7 +4798,7 @@
       </c>
       <c r="I16" s="149"/>
       <c r="J16" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -4733,10 +4812,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="151" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -4746,7 +4825,7 @@
       </c>
       <c r="I19" s="151"/>
       <c r="J19" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -4756,7 +4835,7 @@
       </c>
       <c r="I20" s="151"/>
       <c r="J20" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -4766,7 +4845,7 @@
       </c>
       <c r="I21" s="151"/>
       <c r="J21" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="3:10">
@@ -4776,7 +4855,7 @@
       </c>
       <c r="I22" s="151"/>
       <c r="J22" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -4786,7 +4865,7 @@
       </c>
       <c r="I23" s="151"/>
       <c r="J23" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -4796,7 +4875,7 @@
       </c>
       <c r="I24" s="151"/>
       <c r="J24" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="3:10">
@@ -4809,10 +4888,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="151" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="3:10">
@@ -4822,7 +4901,7 @@
       </c>
       <c r="I27" s="151"/>
       <c r="J27" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="3:10">
@@ -4832,7 +4911,7 @@
       </c>
       <c r="I28" s="151"/>
       <c r="J28" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="3:10">
@@ -4842,7 +4921,7 @@
       </c>
       <c r="I29" s="151"/>
       <c r="J29" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -4852,7 +4931,7 @@
       </c>
       <c r="I30" s="151"/>
       <c r="J30" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="3:10">
@@ -4862,7 +4941,7 @@
       </c>
       <c r="I31" s="151"/>
       <c r="J31" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="3:10">
@@ -4872,7 +4951,7 @@
       </c>
       <c r="I32" s="151"/>
       <c r="J32" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="3:10">
@@ -4881,12 +4960,12 @@
       </c>
       <c r="I33" s="151"/>
       <c r="J33" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="17.25">
       <c r="C34" s="23" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="3:10">
@@ -4997,12 +5076,12 @@
     </row>
     <row r="72" spans="3:4" ht="17.25">
       <c r="C72" s="23" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="150" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="3:4">
@@ -5020,7 +5099,7 @@
     <row r="79" spans="3:4" ht="17.25">
       <c r="C79" s="150"/>
       <c r="D79" s="17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="3:4">
@@ -5141,7 +5220,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="D1" s="10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -5149,24 +5228,24 @@
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="D3" s="12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5174,16 +5253,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="151" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5193,10 +5272,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5206,10 +5285,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5219,10 +5298,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5232,10 +5311,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5245,10 +5324,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5258,10 +5337,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5271,10 +5350,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5284,10 +5363,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5297,10 +5376,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5310,10 +5389,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5323,10 +5402,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5336,10 +5415,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5347,16 +5426,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="149" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C19" s="51">
         <v>14</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5366,10 +5445,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5379,10 +5458,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5392,10 +5471,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5405,10 +5484,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5416,16 +5495,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C24" s="50">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5435,10 +5514,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5448,10 +5527,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5461,10 +5540,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5474,10 +5553,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5487,10 +5566,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5500,10 +5579,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5513,10 +5592,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5535,44 +5614,44 @@
       <c r="E34" s="47"/>
     </row>
     <row r="35" spans="3:20">
-      <c r="D35" s="155" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="155"/>
-      <c r="R35" s="155"/>
-      <c r="S35" s="155"/>
-      <c r="T35" s="155"/>
+      <c r="D35" s="156" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="156"/>
+      <c r="P35" s="156"/>
+      <c r="Q35" s="156"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="156"/>
+      <c r="T35" s="156"/>
     </row>
     <row r="36" spans="3:20">
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="155"/>
     </row>
     <row r="37" spans="3:20">
       <c r="D37" s="152"/>
@@ -6700,7 +6779,7 @@
     </row>
     <row r="99" spans="4:21">
       <c r="D99" s="154" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E99" s="154"/>
       <c r="F99" s="154"/>
@@ -6721,24 +6800,24 @@
       <c r="U99" s="154"/>
     </row>
     <row r="100" spans="4:21">
-      <c r="D100" s="153"/>
-      <c r="E100" s="153"/>
-      <c r="F100" s="153"/>
-      <c r="G100" s="153"/>
-      <c r="H100" s="153"/>
-      <c r="I100" s="153"/>
-      <c r="J100" s="153"/>
-      <c r="K100" s="153"/>
-      <c r="L100" s="153"/>
-      <c r="M100" s="153"/>
-      <c r="N100" s="153"/>
-      <c r="O100" s="153"/>
-      <c r="P100" s="153"/>
-      <c r="Q100" s="153"/>
-      <c r="R100" s="153"/>
-      <c r="S100" s="153"/>
-      <c r="T100" s="153"/>
-      <c r="U100" s="153"/>
+      <c r="D100" s="155"/>
+      <c r="E100" s="155"/>
+      <c r="F100" s="155"/>
+      <c r="G100" s="155"/>
+      <c r="H100" s="155"/>
+      <c r="I100" s="155"/>
+      <c r="J100" s="155"/>
+      <c r="K100" s="155"/>
+      <c r="L100" s="155"/>
+      <c r="M100" s="155"/>
+      <c r="N100" s="155"/>
+      <c r="O100" s="155"/>
+      <c r="P100" s="155"/>
+      <c r="Q100" s="155"/>
+      <c r="R100" s="155"/>
+      <c r="S100" s="155"/>
+      <c r="T100" s="155"/>
+      <c r="U100" s="155"/>
     </row>
     <row r="101" spans="4:21">
       <c r="D101" s="152"/>
@@ -8022,7 +8101,7 @@
     </row>
     <row r="167" spans="4:21">
       <c r="D167" s="154" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E167" s="154"/>
       <c r="F167" s="154"/>
@@ -8043,1742 +8122,1737 @@
       <c r="U167" s="154"/>
     </row>
     <row r="168" spans="4:21">
-      <c r="D168" s="156"/>
-      <c r="E168" s="156"/>
-      <c r="F168" s="156"/>
-      <c r="G168" s="156"/>
-      <c r="H168" s="156"/>
-      <c r="I168" s="156"/>
-      <c r="J168" s="156"/>
-      <c r="K168" s="156"/>
-      <c r="L168" s="156"/>
-      <c r="M168" s="156"/>
-      <c r="N168" s="156"/>
-      <c r="O168" s="156"/>
-      <c r="P168" s="156"/>
-      <c r="Q168" s="156"/>
-      <c r="R168" s="156"/>
-      <c r="S168" s="156"/>
-      <c r="T168" s="156"/>
-      <c r="U168" s="156"/>
+      <c r="D168" s="153"/>
+      <c r="E168" s="153"/>
+      <c r="F168" s="153"/>
+      <c r="G168" s="153"/>
+      <c r="H168" s="153"/>
+      <c r="I168" s="153"/>
+      <c r="J168" s="153"/>
+      <c r="K168" s="153"/>
+      <c r="L168" s="153"/>
+      <c r="M168" s="153"/>
+      <c r="N168" s="153"/>
+      <c r="O168" s="153"/>
+      <c r="P168" s="153"/>
+      <c r="Q168" s="153"/>
+      <c r="R168" s="153"/>
+      <c r="S168" s="153"/>
+      <c r="T168" s="153"/>
+      <c r="U168" s="153"/>
     </row>
     <row r="169" spans="4:21">
-      <c r="D169" s="156"/>
-      <c r="E169" s="156"/>
-      <c r="F169" s="156"/>
-      <c r="G169" s="156"/>
-      <c r="H169" s="156"/>
-      <c r="I169" s="156"/>
-      <c r="J169" s="156"/>
-      <c r="K169" s="156"/>
-      <c r="L169" s="156"/>
-      <c r="M169" s="156"/>
-      <c r="N169" s="156"/>
-      <c r="O169" s="156"/>
-      <c r="P169" s="156"/>
-      <c r="Q169" s="156"/>
-      <c r="R169" s="156"/>
-      <c r="S169" s="156"/>
-      <c r="T169" s="156"/>
-      <c r="U169" s="156"/>
+      <c r="D169" s="153"/>
+      <c r="E169" s="153"/>
+      <c r="F169" s="153"/>
+      <c r="G169" s="153"/>
+      <c r="H169" s="153"/>
+      <c r="I169" s="153"/>
+      <c r="J169" s="153"/>
+      <c r="K169" s="153"/>
+      <c r="L169" s="153"/>
+      <c r="M169" s="153"/>
+      <c r="N169" s="153"/>
+      <c r="O169" s="153"/>
+      <c r="P169" s="153"/>
+      <c r="Q169" s="153"/>
+      <c r="R169" s="153"/>
+      <c r="S169" s="153"/>
+      <c r="T169" s="153"/>
+      <c r="U169" s="153"/>
     </row>
     <row r="170" spans="4:21">
-      <c r="D170" s="156"/>
-      <c r="E170" s="156"/>
-      <c r="F170" s="156"/>
-      <c r="G170" s="156"/>
-      <c r="H170" s="156"/>
-      <c r="I170" s="156"/>
-      <c r="J170" s="156"/>
-      <c r="K170" s="156"/>
-      <c r="L170" s="156"/>
-      <c r="M170" s="156"/>
-      <c r="N170" s="156"/>
-      <c r="O170" s="156"/>
-      <c r="P170" s="156"/>
-      <c r="Q170" s="156"/>
-      <c r="R170" s="156"/>
-      <c r="S170" s="156"/>
-      <c r="T170" s="156"/>
-      <c r="U170" s="156"/>
+      <c r="D170" s="153"/>
+      <c r="E170" s="153"/>
+      <c r="F170" s="153"/>
+      <c r="G170" s="153"/>
+      <c r="H170" s="153"/>
+      <c r="I170" s="153"/>
+      <c r="J170" s="153"/>
+      <c r="K170" s="153"/>
+      <c r="L170" s="153"/>
+      <c r="M170" s="153"/>
+      <c r="N170" s="153"/>
+      <c r="O170" s="153"/>
+      <c r="P170" s="153"/>
+      <c r="Q170" s="153"/>
+      <c r="R170" s="153"/>
+      <c r="S170" s="153"/>
+      <c r="T170" s="153"/>
+      <c r="U170" s="153"/>
     </row>
     <row r="171" spans="4:21">
-      <c r="D171" s="156"/>
-      <c r="E171" s="156"/>
-      <c r="F171" s="156"/>
-      <c r="G171" s="156"/>
-      <c r="H171" s="156"/>
-      <c r="I171" s="156"/>
-      <c r="J171" s="156"/>
-      <c r="K171" s="156"/>
-      <c r="L171" s="156"/>
-      <c r="M171" s="156"/>
-      <c r="N171" s="156"/>
-      <c r="O171" s="156"/>
-      <c r="P171" s="156"/>
-      <c r="Q171" s="156"/>
-      <c r="R171" s="156"/>
-      <c r="S171" s="156"/>
-      <c r="T171" s="156"/>
-      <c r="U171" s="156"/>
+      <c r="D171" s="153"/>
+      <c r="E171" s="153"/>
+      <c r="F171" s="153"/>
+      <c r="G171" s="153"/>
+      <c r="H171" s="153"/>
+      <c r="I171" s="153"/>
+      <c r="J171" s="153"/>
+      <c r="K171" s="153"/>
+      <c r="L171" s="153"/>
+      <c r="M171" s="153"/>
+      <c r="N171" s="153"/>
+      <c r="O171" s="153"/>
+      <c r="P171" s="153"/>
+      <c r="Q171" s="153"/>
+      <c r="R171" s="153"/>
+      <c r="S171" s="153"/>
+      <c r="T171" s="153"/>
+      <c r="U171" s="153"/>
     </row>
     <row r="172" spans="4:21">
-      <c r="D172" s="156"/>
-      <c r="E172" s="156"/>
-      <c r="F172" s="156"/>
-      <c r="G172" s="156"/>
-      <c r="H172" s="156"/>
-      <c r="I172" s="156"/>
-      <c r="J172" s="156"/>
-      <c r="K172" s="156"/>
-      <c r="L172" s="156"/>
-      <c r="M172" s="156"/>
-      <c r="N172" s="156"/>
-      <c r="O172" s="156"/>
-      <c r="P172" s="156"/>
-      <c r="Q172" s="156"/>
-      <c r="R172" s="156"/>
-      <c r="S172" s="156"/>
-      <c r="T172" s="156"/>
-      <c r="U172" s="156"/>
+      <c r="D172" s="153"/>
+      <c r="E172" s="153"/>
+      <c r="F172" s="153"/>
+      <c r="G172" s="153"/>
+      <c r="H172" s="153"/>
+      <c r="I172" s="153"/>
+      <c r="J172" s="153"/>
+      <c r="K172" s="153"/>
+      <c r="L172" s="153"/>
+      <c r="M172" s="153"/>
+      <c r="N172" s="153"/>
+      <c r="O172" s="153"/>
+      <c r="P172" s="153"/>
+      <c r="Q172" s="153"/>
+      <c r="R172" s="153"/>
+      <c r="S172" s="153"/>
+      <c r="T172" s="153"/>
+      <c r="U172" s="153"/>
     </row>
     <row r="173" spans="4:21">
-      <c r="D173" s="156"/>
-      <c r="E173" s="156"/>
-      <c r="F173" s="156"/>
-      <c r="G173" s="156"/>
-      <c r="H173" s="156"/>
-      <c r="I173" s="156"/>
-      <c r="J173" s="156"/>
-      <c r="K173" s="156"/>
-      <c r="L173" s="156"/>
-      <c r="M173" s="156"/>
-      <c r="N173" s="156"/>
-      <c r="O173" s="156"/>
-      <c r="P173" s="156"/>
-      <c r="Q173" s="156"/>
-      <c r="R173" s="156"/>
-      <c r="S173" s="156"/>
-      <c r="T173" s="156"/>
-      <c r="U173" s="156"/>
+      <c r="D173" s="153"/>
+      <c r="E173" s="153"/>
+      <c r="F173" s="153"/>
+      <c r="G173" s="153"/>
+      <c r="H173" s="153"/>
+      <c r="I173" s="153"/>
+      <c r="J173" s="153"/>
+      <c r="K173" s="153"/>
+      <c r="L173" s="153"/>
+      <c r="M173" s="153"/>
+      <c r="N173" s="153"/>
+      <c r="O173" s="153"/>
+      <c r="P173" s="153"/>
+      <c r="Q173" s="153"/>
+      <c r="R173" s="153"/>
+      <c r="S173" s="153"/>
+      <c r="T173" s="153"/>
+      <c r="U173" s="153"/>
     </row>
     <row r="174" spans="4:21">
-      <c r="D174" s="156"/>
-      <c r="E174" s="156"/>
-      <c r="F174" s="156"/>
-      <c r="G174" s="156"/>
-      <c r="H174" s="156"/>
-      <c r="I174" s="156"/>
-      <c r="J174" s="156"/>
-      <c r="K174" s="156"/>
-      <c r="L174" s="156"/>
-      <c r="M174" s="156"/>
-      <c r="N174" s="156"/>
-      <c r="O174" s="156"/>
-      <c r="P174" s="156"/>
-      <c r="Q174" s="156"/>
-      <c r="R174" s="156"/>
-      <c r="S174" s="156"/>
-      <c r="T174" s="156"/>
-      <c r="U174" s="156"/>
+      <c r="D174" s="153"/>
+      <c r="E174" s="153"/>
+      <c r="F174" s="153"/>
+      <c r="G174" s="153"/>
+      <c r="H174" s="153"/>
+      <c r="I174" s="153"/>
+      <c r="J174" s="153"/>
+      <c r="K174" s="153"/>
+      <c r="L174" s="153"/>
+      <c r="M174" s="153"/>
+      <c r="N174" s="153"/>
+      <c r="O174" s="153"/>
+      <c r="P174" s="153"/>
+      <c r="Q174" s="153"/>
+      <c r="R174" s="153"/>
+      <c r="S174" s="153"/>
+      <c r="T174" s="153"/>
+      <c r="U174" s="153"/>
     </row>
     <row r="175" spans="4:21">
-      <c r="D175" s="156"/>
-      <c r="E175" s="156"/>
-      <c r="F175" s="156"/>
-      <c r="G175" s="156"/>
-      <c r="H175" s="156"/>
-      <c r="I175" s="156"/>
-      <c r="J175" s="156"/>
-      <c r="K175" s="156"/>
-      <c r="L175" s="156"/>
-      <c r="M175" s="156"/>
-      <c r="N175" s="156"/>
-      <c r="O175" s="156"/>
-      <c r="P175" s="156"/>
-      <c r="Q175" s="156"/>
-      <c r="R175" s="156"/>
-      <c r="S175" s="156"/>
-      <c r="T175" s="156"/>
-      <c r="U175" s="156"/>
+      <c r="D175" s="153"/>
+      <c r="E175" s="153"/>
+      <c r="F175" s="153"/>
+      <c r="G175" s="153"/>
+      <c r="H175" s="153"/>
+      <c r="I175" s="153"/>
+      <c r="J175" s="153"/>
+      <c r="K175" s="153"/>
+      <c r="L175" s="153"/>
+      <c r="M175" s="153"/>
+      <c r="N175" s="153"/>
+      <c r="O175" s="153"/>
+      <c r="P175" s="153"/>
+      <c r="Q175" s="153"/>
+      <c r="R175" s="153"/>
+      <c r="S175" s="153"/>
+      <c r="T175" s="153"/>
+      <c r="U175" s="153"/>
     </row>
     <row r="176" spans="4:21">
-      <c r="D176" s="156"/>
-      <c r="E176" s="156"/>
-      <c r="F176" s="156"/>
-      <c r="G176" s="156"/>
-      <c r="H176" s="156"/>
-      <c r="I176" s="156"/>
-      <c r="J176" s="156"/>
-      <c r="K176" s="156"/>
-      <c r="L176" s="156"/>
-      <c r="M176" s="156"/>
-      <c r="N176" s="156"/>
-      <c r="O176" s="156"/>
-      <c r="P176" s="156"/>
-      <c r="Q176" s="156"/>
-      <c r="R176" s="156"/>
-      <c r="S176" s="156"/>
-      <c r="T176" s="156"/>
-      <c r="U176" s="156"/>
+      <c r="D176" s="153"/>
+      <c r="E176" s="153"/>
+      <c r="F176" s="153"/>
+      <c r="G176" s="153"/>
+      <c r="H176" s="153"/>
+      <c r="I176" s="153"/>
+      <c r="J176" s="153"/>
+      <c r="K176" s="153"/>
+      <c r="L176" s="153"/>
+      <c r="M176" s="153"/>
+      <c r="N176" s="153"/>
+      <c r="O176" s="153"/>
+      <c r="P176" s="153"/>
+      <c r="Q176" s="153"/>
+      <c r="R176" s="153"/>
+      <c r="S176" s="153"/>
+      <c r="T176" s="153"/>
+      <c r="U176" s="153"/>
     </row>
     <row r="177" spans="4:21">
-      <c r="D177" s="156"/>
-      <c r="E177" s="156"/>
-      <c r="F177" s="156"/>
-      <c r="G177" s="156"/>
-      <c r="H177" s="156"/>
-      <c r="I177" s="156"/>
-      <c r="J177" s="156"/>
-      <c r="K177" s="156"/>
-      <c r="L177" s="156"/>
-      <c r="M177" s="156"/>
-      <c r="N177" s="156"/>
-      <c r="O177" s="156"/>
-      <c r="P177" s="156"/>
-      <c r="Q177" s="156"/>
-      <c r="R177" s="156"/>
-      <c r="S177" s="156"/>
-      <c r="T177" s="156"/>
-      <c r="U177" s="156"/>
+      <c r="D177" s="153"/>
+      <c r="E177" s="153"/>
+      <c r="F177" s="153"/>
+      <c r="G177" s="153"/>
+      <c r="H177" s="153"/>
+      <c r="I177" s="153"/>
+      <c r="J177" s="153"/>
+      <c r="K177" s="153"/>
+      <c r="L177" s="153"/>
+      <c r="M177" s="153"/>
+      <c r="N177" s="153"/>
+      <c r="O177" s="153"/>
+      <c r="P177" s="153"/>
+      <c r="Q177" s="153"/>
+      <c r="R177" s="153"/>
+      <c r="S177" s="153"/>
+      <c r="T177" s="153"/>
+      <c r="U177" s="153"/>
     </row>
     <row r="178" spans="4:21">
-      <c r="D178" s="156"/>
-      <c r="E178" s="156"/>
-      <c r="F178" s="156"/>
-      <c r="G178" s="156"/>
-      <c r="H178" s="156"/>
-      <c r="I178" s="156"/>
-      <c r="J178" s="156"/>
-      <c r="K178" s="156"/>
-      <c r="L178" s="156"/>
-      <c r="M178" s="156"/>
-      <c r="N178" s="156"/>
-      <c r="O178" s="156"/>
-      <c r="P178" s="156"/>
-      <c r="Q178" s="156"/>
-      <c r="R178" s="156"/>
-      <c r="S178" s="156"/>
-      <c r="T178" s="156"/>
-      <c r="U178" s="156"/>
+      <c r="D178" s="153"/>
+      <c r="E178" s="153"/>
+      <c r="F178" s="153"/>
+      <c r="G178" s="153"/>
+      <c r="H178" s="153"/>
+      <c r="I178" s="153"/>
+      <c r="J178" s="153"/>
+      <c r="K178" s="153"/>
+      <c r="L178" s="153"/>
+      <c r="M178" s="153"/>
+      <c r="N178" s="153"/>
+      <c r="O178" s="153"/>
+      <c r="P178" s="153"/>
+      <c r="Q178" s="153"/>
+      <c r="R178" s="153"/>
+      <c r="S178" s="153"/>
+      <c r="T178" s="153"/>
+      <c r="U178" s="153"/>
     </row>
     <row r="179" spans="4:21">
-      <c r="D179" s="156"/>
-      <c r="E179" s="156"/>
-      <c r="F179" s="156"/>
-      <c r="G179" s="156"/>
-      <c r="H179" s="156"/>
-      <c r="I179" s="156"/>
-      <c r="J179" s="156"/>
-      <c r="K179" s="156"/>
-      <c r="L179" s="156"/>
-      <c r="M179" s="156"/>
-      <c r="N179" s="156"/>
-      <c r="O179" s="156"/>
-      <c r="P179" s="156"/>
-      <c r="Q179" s="156"/>
-      <c r="R179" s="156"/>
-      <c r="S179" s="156"/>
-      <c r="T179" s="156"/>
-      <c r="U179" s="156"/>
+      <c r="D179" s="153"/>
+      <c r="E179" s="153"/>
+      <c r="F179" s="153"/>
+      <c r="G179" s="153"/>
+      <c r="H179" s="153"/>
+      <c r="I179" s="153"/>
+      <c r="J179" s="153"/>
+      <c r="K179" s="153"/>
+      <c r="L179" s="153"/>
+      <c r="M179" s="153"/>
+      <c r="N179" s="153"/>
+      <c r="O179" s="153"/>
+      <c r="P179" s="153"/>
+      <c r="Q179" s="153"/>
+      <c r="R179" s="153"/>
+      <c r="S179" s="153"/>
+      <c r="T179" s="153"/>
+      <c r="U179" s="153"/>
     </row>
     <row r="180" spans="4:21">
-      <c r="D180" s="156"/>
-      <c r="E180" s="156"/>
-      <c r="F180" s="156"/>
-      <c r="G180" s="156"/>
-      <c r="H180" s="156"/>
-      <c r="I180" s="156"/>
-      <c r="J180" s="156"/>
-      <c r="K180" s="156"/>
-      <c r="L180" s="156"/>
-      <c r="M180" s="156"/>
-      <c r="N180" s="156"/>
-      <c r="O180" s="156"/>
-      <c r="P180" s="156"/>
-      <c r="Q180" s="156"/>
-      <c r="R180" s="156"/>
-      <c r="S180" s="156"/>
-      <c r="T180" s="156"/>
-      <c r="U180" s="156"/>
+      <c r="D180" s="153"/>
+      <c r="E180" s="153"/>
+      <c r="F180" s="153"/>
+      <c r="G180" s="153"/>
+      <c r="H180" s="153"/>
+      <c r="I180" s="153"/>
+      <c r="J180" s="153"/>
+      <c r="K180" s="153"/>
+      <c r="L180" s="153"/>
+      <c r="M180" s="153"/>
+      <c r="N180" s="153"/>
+      <c r="O180" s="153"/>
+      <c r="P180" s="153"/>
+      <c r="Q180" s="153"/>
+      <c r="R180" s="153"/>
+      <c r="S180" s="153"/>
+      <c r="T180" s="153"/>
+      <c r="U180" s="153"/>
     </row>
     <row r="181" spans="4:21">
-      <c r="D181" s="156"/>
-      <c r="E181" s="156"/>
-      <c r="F181" s="156"/>
-      <c r="G181" s="156"/>
-      <c r="H181" s="156"/>
-      <c r="I181" s="156"/>
-      <c r="J181" s="156"/>
-      <c r="K181" s="156"/>
-      <c r="L181" s="156"/>
-      <c r="M181" s="156"/>
-      <c r="N181" s="156"/>
-      <c r="O181" s="156"/>
-      <c r="P181" s="156"/>
-      <c r="Q181" s="156"/>
-      <c r="R181" s="156"/>
-      <c r="S181" s="156"/>
-      <c r="T181" s="156"/>
-      <c r="U181" s="156"/>
+      <c r="D181" s="153"/>
+      <c r="E181" s="153"/>
+      <c r="F181" s="153"/>
+      <c r="G181" s="153"/>
+      <c r="H181" s="153"/>
+      <c r="I181" s="153"/>
+      <c r="J181" s="153"/>
+      <c r="K181" s="153"/>
+      <c r="L181" s="153"/>
+      <c r="M181" s="153"/>
+      <c r="N181" s="153"/>
+      <c r="O181" s="153"/>
+      <c r="P181" s="153"/>
+      <c r="Q181" s="153"/>
+      <c r="R181" s="153"/>
+      <c r="S181" s="153"/>
+      <c r="T181" s="153"/>
+      <c r="U181" s="153"/>
     </row>
     <row r="182" spans="4:21">
-      <c r="D182" s="156"/>
-      <c r="E182" s="156"/>
-      <c r="F182" s="156"/>
-      <c r="G182" s="156"/>
-      <c r="H182" s="156"/>
-      <c r="I182" s="156"/>
-      <c r="J182" s="156"/>
-      <c r="K182" s="156"/>
-      <c r="L182" s="156"/>
-      <c r="M182" s="156"/>
-      <c r="N182" s="156"/>
-      <c r="O182" s="156"/>
-      <c r="P182" s="156"/>
-      <c r="Q182" s="156"/>
-      <c r="R182" s="156"/>
-      <c r="S182" s="156"/>
-      <c r="T182" s="156"/>
-      <c r="U182" s="156"/>
+      <c r="D182" s="153"/>
+      <c r="E182" s="153"/>
+      <c r="F182" s="153"/>
+      <c r="G182" s="153"/>
+      <c r="H182" s="153"/>
+      <c r="I182" s="153"/>
+      <c r="J182" s="153"/>
+      <c r="K182" s="153"/>
+      <c r="L182" s="153"/>
+      <c r="M182" s="153"/>
+      <c r="N182" s="153"/>
+      <c r="O182" s="153"/>
+      <c r="P182" s="153"/>
+      <c r="Q182" s="153"/>
+      <c r="R182" s="153"/>
+      <c r="S182" s="153"/>
+      <c r="T182" s="153"/>
+      <c r="U182" s="153"/>
     </row>
     <row r="183" spans="4:21">
-      <c r="D183" s="156"/>
-      <c r="E183" s="156"/>
-      <c r="F183" s="156"/>
-      <c r="G183" s="156"/>
-      <c r="H183" s="156"/>
-      <c r="I183" s="156"/>
-      <c r="J183" s="156"/>
-      <c r="K183" s="156"/>
-      <c r="L183" s="156"/>
-      <c r="M183" s="156"/>
-      <c r="N183" s="156"/>
-      <c r="O183" s="156"/>
-      <c r="P183" s="156"/>
-      <c r="Q183" s="156"/>
-      <c r="R183" s="156"/>
-      <c r="S183" s="156"/>
-      <c r="T183" s="156"/>
-      <c r="U183" s="156"/>
+      <c r="D183" s="153"/>
+      <c r="E183" s="153"/>
+      <c r="F183" s="153"/>
+      <c r="G183" s="153"/>
+      <c r="H183" s="153"/>
+      <c r="I183" s="153"/>
+      <c r="J183" s="153"/>
+      <c r="K183" s="153"/>
+      <c r="L183" s="153"/>
+      <c r="M183" s="153"/>
+      <c r="N183" s="153"/>
+      <c r="O183" s="153"/>
+      <c r="P183" s="153"/>
+      <c r="Q183" s="153"/>
+      <c r="R183" s="153"/>
+      <c r="S183" s="153"/>
+      <c r="T183" s="153"/>
+      <c r="U183" s="153"/>
     </row>
     <row r="184" spans="4:21">
-      <c r="D184" s="156"/>
-      <c r="E184" s="156"/>
-      <c r="F184" s="156"/>
-      <c r="G184" s="156"/>
-      <c r="H184" s="156"/>
-      <c r="I184" s="156"/>
-      <c r="J184" s="156"/>
-      <c r="K184" s="156"/>
-      <c r="L184" s="156"/>
-      <c r="M184" s="156"/>
-      <c r="N184" s="156"/>
-      <c r="O184" s="156"/>
-      <c r="P184" s="156"/>
-      <c r="Q184" s="156"/>
-      <c r="R184" s="156"/>
-      <c r="S184" s="156"/>
-      <c r="T184" s="156"/>
-      <c r="U184" s="156"/>
+      <c r="D184" s="153"/>
+      <c r="E184" s="153"/>
+      <c r="F184" s="153"/>
+      <c r="G184" s="153"/>
+      <c r="H184" s="153"/>
+      <c r="I184" s="153"/>
+      <c r="J184" s="153"/>
+      <c r="K184" s="153"/>
+      <c r="L184" s="153"/>
+      <c r="M184" s="153"/>
+      <c r="N184" s="153"/>
+      <c r="O184" s="153"/>
+      <c r="P184" s="153"/>
+      <c r="Q184" s="153"/>
+      <c r="R184" s="153"/>
+      <c r="S184" s="153"/>
+      <c r="T184" s="153"/>
+      <c r="U184" s="153"/>
     </row>
     <row r="185" spans="4:21">
-      <c r="D185" s="156"/>
-      <c r="E185" s="156"/>
-      <c r="F185" s="156"/>
-      <c r="G185" s="156"/>
-      <c r="H185" s="156"/>
-      <c r="I185" s="156"/>
-      <c r="J185" s="156"/>
-      <c r="K185" s="156"/>
-      <c r="L185" s="156"/>
-      <c r="M185" s="156"/>
-      <c r="N185" s="156"/>
-      <c r="O185" s="156"/>
-      <c r="P185" s="156"/>
-      <c r="Q185" s="156"/>
-      <c r="R185" s="156"/>
-      <c r="S185" s="156"/>
-      <c r="T185" s="156"/>
-      <c r="U185" s="156"/>
+      <c r="D185" s="153"/>
+      <c r="E185" s="153"/>
+      <c r="F185" s="153"/>
+      <c r="G185" s="153"/>
+      <c r="H185" s="153"/>
+      <c r="I185" s="153"/>
+      <c r="J185" s="153"/>
+      <c r="K185" s="153"/>
+      <c r="L185" s="153"/>
+      <c r="M185" s="153"/>
+      <c r="N185" s="153"/>
+      <c r="O185" s="153"/>
+      <c r="P185" s="153"/>
+      <c r="Q185" s="153"/>
+      <c r="R185" s="153"/>
+      <c r="S185" s="153"/>
+      <c r="T185" s="153"/>
+      <c r="U185" s="153"/>
     </row>
     <row r="186" spans="4:21">
-      <c r="D186" s="156"/>
-      <c r="E186" s="156"/>
-      <c r="F186" s="156"/>
-      <c r="G186" s="156"/>
-      <c r="H186" s="156"/>
-      <c r="I186" s="156"/>
-      <c r="J186" s="156"/>
-      <c r="K186" s="156"/>
-      <c r="L186" s="156"/>
-      <c r="M186" s="156"/>
-      <c r="N186" s="156"/>
-      <c r="O186" s="156"/>
-      <c r="P186" s="156"/>
-      <c r="Q186" s="156"/>
-      <c r="R186" s="156"/>
-      <c r="S186" s="156"/>
-      <c r="T186" s="156"/>
-      <c r="U186" s="156"/>
+      <c r="D186" s="153"/>
+      <c r="E186" s="153"/>
+      <c r="F186" s="153"/>
+      <c r="G186" s="153"/>
+      <c r="H186" s="153"/>
+      <c r="I186" s="153"/>
+      <c r="J186" s="153"/>
+      <c r="K186" s="153"/>
+      <c r="L186" s="153"/>
+      <c r="M186" s="153"/>
+      <c r="N186" s="153"/>
+      <c r="O186" s="153"/>
+      <c r="P186" s="153"/>
+      <c r="Q186" s="153"/>
+      <c r="R186" s="153"/>
+      <c r="S186" s="153"/>
+      <c r="T186" s="153"/>
+      <c r="U186" s="153"/>
     </row>
     <row r="187" spans="4:21">
-      <c r="D187" s="156"/>
-      <c r="E187" s="156"/>
-      <c r="F187" s="156"/>
-      <c r="G187" s="156"/>
-      <c r="H187" s="156"/>
-      <c r="I187" s="156"/>
-      <c r="J187" s="156"/>
-      <c r="K187" s="156"/>
-      <c r="L187" s="156"/>
-      <c r="M187" s="156"/>
-      <c r="N187" s="156"/>
-      <c r="O187" s="156"/>
-      <c r="P187" s="156"/>
-      <c r="Q187" s="156"/>
-      <c r="R187" s="156"/>
-      <c r="S187" s="156"/>
-      <c r="T187" s="156"/>
-      <c r="U187" s="156"/>
+      <c r="D187" s="153"/>
+      <c r="E187" s="153"/>
+      <c r="F187" s="153"/>
+      <c r="G187" s="153"/>
+      <c r="H187" s="153"/>
+      <c r="I187" s="153"/>
+      <c r="J187" s="153"/>
+      <c r="K187" s="153"/>
+      <c r="L187" s="153"/>
+      <c r="M187" s="153"/>
+      <c r="N187" s="153"/>
+      <c r="O187" s="153"/>
+      <c r="P187" s="153"/>
+      <c r="Q187" s="153"/>
+      <c r="R187" s="153"/>
+      <c r="S187" s="153"/>
+      <c r="T187" s="153"/>
+      <c r="U187" s="153"/>
     </row>
     <row r="188" spans="4:21">
-      <c r="D188" s="156"/>
-      <c r="E188" s="156"/>
-      <c r="F188" s="156"/>
-      <c r="G188" s="156"/>
-      <c r="H188" s="156"/>
-      <c r="I188" s="156"/>
-      <c r="J188" s="156"/>
-      <c r="K188" s="156"/>
-      <c r="L188" s="156"/>
-      <c r="M188" s="156"/>
-      <c r="N188" s="156"/>
-      <c r="O188" s="156"/>
-      <c r="P188" s="156"/>
-      <c r="Q188" s="156"/>
-      <c r="R188" s="156"/>
-      <c r="S188" s="156"/>
-      <c r="T188" s="156"/>
-      <c r="U188" s="156"/>
+      <c r="D188" s="153"/>
+      <c r="E188" s="153"/>
+      <c r="F188" s="153"/>
+      <c r="G188" s="153"/>
+      <c r="H188" s="153"/>
+      <c r="I188" s="153"/>
+      <c r="J188" s="153"/>
+      <c r="K188" s="153"/>
+      <c r="L188" s="153"/>
+      <c r="M188" s="153"/>
+      <c r="N188" s="153"/>
+      <c r="O188" s="153"/>
+      <c r="P188" s="153"/>
+      <c r="Q188" s="153"/>
+      <c r="R188" s="153"/>
+      <c r="S188" s="153"/>
+      <c r="T188" s="153"/>
+      <c r="U188" s="153"/>
     </row>
     <row r="189" spans="4:21">
-      <c r="D189" s="156"/>
-      <c r="E189" s="156"/>
-      <c r="F189" s="156"/>
-      <c r="G189" s="156"/>
-      <c r="H189" s="156"/>
-      <c r="I189" s="156"/>
-      <c r="J189" s="156"/>
-      <c r="K189" s="156"/>
-      <c r="L189" s="156"/>
-      <c r="M189" s="156"/>
-      <c r="N189" s="156"/>
-      <c r="O189" s="156"/>
-      <c r="P189" s="156"/>
-      <c r="Q189" s="156"/>
-      <c r="R189" s="156"/>
-      <c r="S189" s="156"/>
-      <c r="T189" s="156"/>
-      <c r="U189" s="156"/>
+      <c r="D189" s="153"/>
+      <c r="E189" s="153"/>
+      <c r="F189" s="153"/>
+      <c r="G189" s="153"/>
+      <c r="H189" s="153"/>
+      <c r="I189" s="153"/>
+      <c r="J189" s="153"/>
+      <c r="K189" s="153"/>
+      <c r="L189" s="153"/>
+      <c r="M189" s="153"/>
+      <c r="N189" s="153"/>
+      <c r="O189" s="153"/>
+      <c r="P189" s="153"/>
+      <c r="Q189" s="153"/>
+      <c r="R189" s="153"/>
+      <c r="S189" s="153"/>
+      <c r="T189" s="153"/>
+      <c r="U189" s="153"/>
     </row>
     <row r="190" spans="4:21">
-      <c r="D190" s="156"/>
-      <c r="E190" s="156"/>
-      <c r="F190" s="156"/>
-      <c r="G190" s="156"/>
-      <c r="H190" s="156"/>
-      <c r="I190" s="156"/>
-      <c r="J190" s="156"/>
-      <c r="K190" s="156"/>
-      <c r="L190" s="156"/>
-      <c r="M190" s="156"/>
-      <c r="N190" s="156"/>
-      <c r="O190" s="156"/>
-      <c r="P190" s="156"/>
-      <c r="Q190" s="156"/>
-      <c r="R190" s="156"/>
-      <c r="S190" s="156"/>
-      <c r="T190" s="156"/>
-      <c r="U190" s="156"/>
+      <c r="D190" s="153"/>
+      <c r="E190" s="153"/>
+      <c r="F190" s="153"/>
+      <c r="G190" s="153"/>
+      <c r="H190" s="153"/>
+      <c r="I190" s="153"/>
+      <c r="J190" s="153"/>
+      <c r="K190" s="153"/>
+      <c r="L190" s="153"/>
+      <c r="M190" s="153"/>
+      <c r="N190" s="153"/>
+      <c r="O190" s="153"/>
+      <c r="P190" s="153"/>
+      <c r="Q190" s="153"/>
+      <c r="R190" s="153"/>
+      <c r="S190" s="153"/>
+      <c r="T190" s="153"/>
+      <c r="U190" s="153"/>
     </row>
     <row r="191" spans="4:21">
-      <c r="D191" s="156"/>
-      <c r="E191" s="156"/>
-      <c r="F191" s="156"/>
-      <c r="G191" s="156"/>
-      <c r="H191" s="156"/>
-      <c r="I191" s="156"/>
-      <c r="J191" s="156"/>
-      <c r="K191" s="156"/>
-      <c r="L191" s="156"/>
-      <c r="M191" s="156"/>
-      <c r="N191" s="156"/>
-      <c r="O191" s="156"/>
-      <c r="P191" s="156"/>
-      <c r="Q191" s="156"/>
-      <c r="R191" s="156"/>
-      <c r="S191" s="156"/>
-      <c r="T191" s="156"/>
-      <c r="U191" s="156"/>
+      <c r="D191" s="153"/>
+      <c r="E191" s="153"/>
+      <c r="F191" s="153"/>
+      <c r="G191" s="153"/>
+      <c r="H191" s="153"/>
+      <c r="I191" s="153"/>
+      <c r="J191" s="153"/>
+      <c r="K191" s="153"/>
+      <c r="L191" s="153"/>
+      <c r="M191" s="153"/>
+      <c r="N191" s="153"/>
+      <c r="O191" s="153"/>
+      <c r="P191" s="153"/>
+      <c r="Q191" s="153"/>
+      <c r="R191" s="153"/>
+      <c r="S191" s="153"/>
+      <c r="T191" s="153"/>
+      <c r="U191" s="153"/>
     </row>
     <row r="192" spans="4:21">
-      <c r="D192" s="156"/>
-      <c r="E192" s="156"/>
-      <c r="F192" s="156"/>
-      <c r="G192" s="156"/>
-      <c r="H192" s="156"/>
-      <c r="I192" s="156"/>
-      <c r="J192" s="156"/>
-      <c r="K192" s="156"/>
-      <c r="L192" s="156"/>
-      <c r="M192" s="156"/>
-      <c r="N192" s="156"/>
-      <c r="O192" s="156"/>
-      <c r="P192" s="156"/>
-      <c r="Q192" s="156"/>
-      <c r="R192" s="156"/>
-      <c r="S192" s="156"/>
-      <c r="T192" s="156"/>
-      <c r="U192" s="156"/>
+      <c r="D192" s="153"/>
+      <c r="E192" s="153"/>
+      <c r="F192" s="153"/>
+      <c r="G192" s="153"/>
+      <c r="H192" s="153"/>
+      <c r="I192" s="153"/>
+      <c r="J192" s="153"/>
+      <c r="K192" s="153"/>
+      <c r="L192" s="153"/>
+      <c r="M192" s="153"/>
+      <c r="N192" s="153"/>
+      <c r="O192" s="153"/>
+      <c r="P192" s="153"/>
+      <c r="Q192" s="153"/>
+      <c r="R192" s="153"/>
+      <c r="S192" s="153"/>
+      <c r="T192" s="153"/>
+      <c r="U192" s="153"/>
     </row>
     <row r="193" spans="4:21">
-      <c r="D193" s="156"/>
-      <c r="E193" s="156"/>
-      <c r="F193" s="156"/>
-      <c r="G193" s="156"/>
-      <c r="H193" s="156"/>
-      <c r="I193" s="156"/>
-      <c r="J193" s="156"/>
-      <c r="K193" s="156"/>
-      <c r="L193" s="156"/>
-      <c r="M193" s="156"/>
-      <c r="N193" s="156"/>
-      <c r="O193" s="156"/>
-      <c r="P193" s="156"/>
-      <c r="Q193" s="156"/>
-      <c r="R193" s="156"/>
-      <c r="S193" s="156"/>
-      <c r="T193" s="156"/>
-      <c r="U193" s="156"/>
+      <c r="D193" s="153"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="153"/>
+      <c r="H193" s="153"/>
+      <c r="I193" s="153"/>
+      <c r="J193" s="153"/>
+      <c r="K193" s="153"/>
+      <c r="L193" s="153"/>
+      <c r="M193" s="153"/>
+      <c r="N193" s="153"/>
+      <c r="O193" s="153"/>
+      <c r="P193" s="153"/>
+      <c r="Q193" s="153"/>
+      <c r="R193" s="153"/>
+      <c r="S193" s="153"/>
+      <c r="T193" s="153"/>
+      <c r="U193" s="153"/>
     </row>
     <row r="194" spans="4:21">
-      <c r="D194" s="156"/>
-      <c r="E194" s="156"/>
-      <c r="F194" s="156"/>
-      <c r="G194" s="156"/>
-      <c r="H194" s="156"/>
-      <c r="I194" s="156"/>
-      <c r="J194" s="156"/>
-      <c r="K194" s="156"/>
-      <c r="L194" s="156"/>
-      <c r="M194" s="156"/>
-      <c r="N194" s="156"/>
-      <c r="O194" s="156"/>
-      <c r="P194" s="156"/>
-      <c r="Q194" s="156"/>
-      <c r="R194" s="156"/>
-      <c r="S194" s="156"/>
-      <c r="T194" s="156"/>
-      <c r="U194" s="156"/>
+      <c r="D194" s="153"/>
+      <c r="E194" s="153"/>
+      <c r="F194" s="153"/>
+      <c r="G194" s="153"/>
+      <c r="H194" s="153"/>
+      <c r="I194" s="153"/>
+      <c r="J194" s="153"/>
+      <c r="K194" s="153"/>
+      <c r="L194" s="153"/>
+      <c r="M194" s="153"/>
+      <c r="N194" s="153"/>
+      <c r="O194" s="153"/>
+      <c r="P194" s="153"/>
+      <c r="Q194" s="153"/>
+      <c r="R194" s="153"/>
+      <c r="S194" s="153"/>
+      <c r="T194" s="153"/>
+      <c r="U194" s="153"/>
     </row>
     <row r="195" spans="4:21">
-      <c r="D195" s="156"/>
-      <c r="E195" s="156"/>
-      <c r="F195" s="156"/>
-      <c r="G195" s="156"/>
-      <c r="H195" s="156"/>
-      <c r="I195" s="156"/>
-      <c r="J195" s="156"/>
-      <c r="K195" s="156"/>
-      <c r="L195" s="156"/>
-      <c r="M195" s="156"/>
-      <c r="N195" s="156"/>
-      <c r="O195" s="156"/>
-      <c r="P195" s="156"/>
-      <c r="Q195" s="156"/>
-      <c r="R195" s="156"/>
-      <c r="S195" s="156"/>
-      <c r="T195" s="156"/>
-      <c r="U195" s="156"/>
+      <c r="D195" s="153"/>
+      <c r="E195" s="153"/>
+      <c r="F195" s="153"/>
+      <c r="G195" s="153"/>
+      <c r="H195" s="153"/>
+      <c r="I195" s="153"/>
+      <c r="J195" s="153"/>
+      <c r="K195" s="153"/>
+      <c r="L195" s="153"/>
+      <c r="M195" s="153"/>
+      <c r="N195" s="153"/>
+      <c r="O195" s="153"/>
+      <c r="P195" s="153"/>
+      <c r="Q195" s="153"/>
+      <c r="R195" s="153"/>
+      <c r="S195" s="153"/>
+      <c r="T195" s="153"/>
+      <c r="U195" s="153"/>
     </row>
     <row r="196" spans="4:21">
-      <c r="D196" s="156"/>
-      <c r="E196" s="156"/>
-      <c r="F196" s="156"/>
-      <c r="G196" s="156"/>
-      <c r="H196" s="156"/>
-      <c r="I196" s="156"/>
-      <c r="J196" s="156"/>
-      <c r="K196" s="156"/>
-      <c r="L196" s="156"/>
-      <c r="M196" s="156"/>
-      <c r="N196" s="156"/>
-      <c r="O196" s="156"/>
-      <c r="P196" s="156"/>
-      <c r="Q196" s="156"/>
-      <c r="R196" s="156"/>
-      <c r="S196" s="156"/>
-      <c r="T196" s="156"/>
-      <c r="U196" s="156"/>
+      <c r="D196" s="153"/>
+      <c r="E196" s="153"/>
+      <c r="F196" s="153"/>
+      <c r="G196" s="153"/>
+      <c r="H196" s="153"/>
+      <c r="I196" s="153"/>
+      <c r="J196" s="153"/>
+      <c r="K196" s="153"/>
+      <c r="L196" s="153"/>
+      <c r="M196" s="153"/>
+      <c r="N196" s="153"/>
+      <c r="O196" s="153"/>
+      <c r="P196" s="153"/>
+      <c r="Q196" s="153"/>
+      <c r="R196" s="153"/>
+      <c r="S196" s="153"/>
+      <c r="T196" s="153"/>
+      <c r="U196" s="153"/>
     </row>
     <row r="197" spans="4:21">
-      <c r="D197" s="156"/>
-      <c r="E197" s="156"/>
-      <c r="F197" s="156"/>
-      <c r="G197" s="156"/>
-      <c r="H197" s="156"/>
-      <c r="I197" s="156"/>
-      <c r="J197" s="156"/>
-      <c r="K197" s="156"/>
-      <c r="L197" s="156"/>
-      <c r="M197" s="156"/>
-      <c r="N197" s="156"/>
-      <c r="O197" s="156"/>
-      <c r="P197" s="156"/>
-      <c r="Q197" s="156"/>
-      <c r="R197" s="156"/>
-      <c r="S197" s="156"/>
-      <c r="T197" s="156"/>
-      <c r="U197" s="156"/>
+      <c r="D197" s="153"/>
+      <c r="E197" s="153"/>
+      <c r="F197" s="153"/>
+      <c r="G197" s="153"/>
+      <c r="H197" s="153"/>
+      <c r="I197" s="153"/>
+      <c r="J197" s="153"/>
+      <c r="K197" s="153"/>
+      <c r="L197" s="153"/>
+      <c r="M197" s="153"/>
+      <c r="N197" s="153"/>
+      <c r="O197" s="153"/>
+      <c r="P197" s="153"/>
+      <c r="Q197" s="153"/>
+      <c r="R197" s="153"/>
+      <c r="S197" s="153"/>
+      <c r="T197" s="153"/>
+      <c r="U197" s="153"/>
     </row>
     <row r="198" spans="4:21">
-      <c r="D198" s="156"/>
-      <c r="E198" s="156"/>
-      <c r="F198" s="156"/>
-      <c r="G198" s="156"/>
-      <c r="H198" s="156"/>
-      <c r="I198" s="156"/>
-      <c r="J198" s="156"/>
-      <c r="K198" s="156"/>
-      <c r="L198" s="156"/>
-      <c r="M198" s="156"/>
-      <c r="N198" s="156"/>
-      <c r="O198" s="156"/>
-      <c r="P198" s="156"/>
-      <c r="Q198" s="156"/>
-      <c r="R198" s="156"/>
-      <c r="S198" s="156"/>
-      <c r="T198" s="156"/>
-      <c r="U198" s="156"/>
+      <c r="D198" s="153"/>
+      <c r="E198" s="153"/>
+      <c r="F198" s="153"/>
+      <c r="G198" s="153"/>
+      <c r="H198" s="153"/>
+      <c r="I198" s="153"/>
+      <c r="J198" s="153"/>
+      <c r="K198" s="153"/>
+      <c r="L198" s="153"/>
+      <c r="M198" s="153"/>
+      <c r="N198" s="153"/>
+      <c r="O198" s="153"/>
+      <c r="P198" s="153"/>
+      <c r="Q198" s="153"/>
+      <c r="R198" s="153"/>
+      <c r="S198" s="153"/>
+      <c r="T198" s="153"/>
+      <c r="U198" s="153"/>
     </row>
     <row r="199" spans="4:21">
-      <c r="D199" s="156"/>
-      <c r="E199" s="156"/>
-      <c r="F199" s="156"/>
-      <c r="G199" s="156"/>
-      <c r="H199" s="156"/>
-      <c r="I199" s="156"/>
-      <c r="J199" s="156"/>
-      <c r="K199" s="156"/>
-      <c r="L199" s="156"/>
-      <c r="M199" s="156"/>
-      <c r="N199" s="156"/>
-      <c r="O199" s="156"/>
-      <c r="P199" s="156"/>
-      <c r="Q199" s="156"/>
-      <c r="R199" s="156"/>
-      <c r="S199" s="156"/>
-      <c r="T199" s="156"/>
-      <c r="U199" s="156"/>
+      <c r="D199" s="153"/>
+      <c r="E199" s="153"/>
+      <c r="F199" s="153"/>
+      <c r="G199" s="153"/>
+      <c r="H199" s="153"/>
+      <c r="I199" s="153"/>
+      <c r="J199" s="153"/>
+      <c r="K199" s="153"/>
+      <c r="L199" s="153"/>
+      <c r="M199" s="153"/>
+      <c r="N199" s="153"/>
+      <c r="O199" s="153"/>
+      <c r="P199" s="153"/>
+      <c r="Q199" s="153"/>
+      <c r="R199" s="153"/>
+      <c r="S199" s="153"/>
+      <c r="T199" s="153"/>
+      <c r="U199" s="153"/>
     </row>
     <row r="200" spans="4:21">
-      <c r="D200" s="156"/>
-      <c r="E200" s="156"/>
-      <c r="F200" s="156"/>
-      <c r="G200" s="156"/>
-      <c r="H200" s="156"/>
-      <c r="I200" s="156"/>
-      <c r="J200" s="156"/>
-      <c r="K200" s="156"/>
-      <c r="L200" s="156"/>
-      <c r="M200" s="156"/>
-      <c r="N200" s="156"/>
-      <c r="O200" s="156"/>
-      <c r="P200" s="156"/>
-      <c r="Q200" s="156"/>
-      <c r="R200" s="156"/>
-      <c r="S200" s="156"/>
-      <c r="T200" s="156"/>
-      <c r="U200" s="156"/>
+      <c r="D200" s="153"/>
+      <c r="E200" s="153"/>
+      <c r="F200" s="153"/>
+      <c r="G200" s="153"/>
+      <c r="H200" s="153"/>
+      <c r="I200" s="153"/>
+      <c r="J200" s="153"/>
+      <c r="K200" s="153"/>
+      <c r="L200" s="153"/>
+      <c r="M200" s="153"/>
+      <c r="N200" s="153"/>
+      <c r="O200" s="153"/>
+      <c r="P200" s="153"/>
+      <c r="Q200" s="153"/>
+      <c r="R200" s="153"/>
+      <c r="S200" s="153"/>
+      <c r="T200" s="153"/>
+      <c r="U200" s="153"/>
     </row>
     <row r="201" spans="4:21">
-      <c r="D201" s="156"/>
-      <c r="E201" s="156"/>
-      <c r="F201" s="156"/>
-      <c r="G201" s="156"/>
-      <c r="H201" s="156"/>
-      <c r="I201" s="156"/>
-      <c r="J201" s="156"/>
-      <c r="K201" s="156"/>
-      <c r="L201" s="156"/>
-      <c r="M201" s="156"/>
-      <c r="N201" s="156"/>
-      <c r="O201" s="156"/>
-      <c r="P201" s="156"/>
-      <c r="Q201" s="156"/>
-      <c r="R201" s="156"/>
-      <c r="S201" s="156"/>
-      <c r="T201" s="156"/>
-      <c r="U201" s="156"/>
+      <c r="D201" s="153"/>
+      <c r="E201" s="153"/>
+      <c r="F201" s="153"/>
+      <c r="G201" s="153"/>
+      <c r="H201" s="153"/>
+      <c r="I201" s="153"/>
+      <c r="J201" s="153"/>
+      <c r="K201" s="153"/>
+      <c r="L201" s="153"/>
+      <c r="M201" s="153"/>
+      <c r="N201" s="153"/>
+      <c r="O201" s="153"/>
+      <c r="P201" s="153"/>
+      <c r="Q201" s="153"/>
+      <c r="R201" s="153"/>
+      <c r="S201" s="153"/>
+      <c r="T201" s="153"/>
+      <c r="U201" s="153"/>
     </row>
     <row r="202" spans="4:21">
-      <c r="D202" s="156"/>
-      <c r="E202" s="156"/>
-      <c r="F202" s="156"/>
-      <c r="G202" s="156"/>
-      <c r="H202" s="156"/>
-      <c r="I202" s="156"/>
-      <c r="J202" s="156"/>
-      <c r="K202" s="156"/>
-      <c r="L202" s="156"/>
-      <c r="M202" s="156"/>
-      <c r="N202" s="156"/>
-      <c r="O202" s="156"/>
-      <c r="P202" s="156"/>
-      <c r="Q202" s="156"/>
-      <c r="R202" s="156"/>
-      <c r="S202" s="156"/>
-      <c r="T202" s="156"/>
-      <c r="U202" s="156"/>
+      <c r="D202" s="153"/>
+      <c r="E202" s="153"/>
+      <c r="F202" s="153"/>
+      <c r="G202" s="153"/>
+      <c r="H202" s="153"/>
+      <c r="I202" s="153"/>
+      <c r="J202" s="153"/>
+      <c r="K202" s="153"/>
+      <c r="L202" s="153"/>
+      <c r="M202" s="153"/>
+      <c r="N202" s="153"/>
+      <c r="O202" s="153"/>
+      <c r="P202" s="153"/>
+      <c r="Q202" s="153"/>
+      <c r="R202" s="153"/>
+      <c r="S202" s="153"/>
+      <c r="T202" s="153"/>
+      <c r="U202" s="153"/>
     </row>
     <row r="203" spans="4:21">
-      <c r="D203" s="156"/>
-      <c r="E203" s="156"/>
-      <c r="F203" s="156"/>
-      <c r="G203" s="156"/>
-      <c r="H203" s="156"/>
-      <c r="I203" s="156"/>
-      <c r="J203" s="156"/>
-      <c r="K203" s="156"/>
-      <c r="L203" s="156"/>
-      <c r="M203" s="156"/>
-      <c r="N203" s="156"/>
-      <c r="O203" s="156"/>
-      <c r="P203" s="156"/>
-      <c r="Q203" s="156"/>
-      <c r="R203" s="156"/>
-      <c r="S203" s="156"/>
-      <c r="T203" s="156"/>
-      <c r="U203" s="156"/>
+      <c r="D203" s="153"/>
+      <c r="E203" s="153"/>
+      <c r="F203" s="153"/>
+      <c r="G203" s="153"/>
+      <c r="H203" s="153"/>
+      <c r="I203" s="153"/>
+      <c r="J203" s="153"/>
+      <c r="K203" s="153"/>
+      <c r="L203" s="153"/>
+      <c r="M203" s="153"/>
+      <c r="N203" s="153"/>
+      <c r="O203" s="153"/>
+      <c r="P203" s="153"/>
+      <c r="Q203" s="153"/>
+      <c r="R203" s="153"/>
+      <c r="S203" s="153"/>
+      <c r="T203" s="153"/>
+      <c r="U203" s="153"/>
     </row>
     <row r="204" spans="4:21">
-      <c r="D204" s="156"/>
-      <c r="E204" s="156"/>
-      <c r="F204" s="156"/>
-      <c r="G204" s="156"/>
-      <c r="H204" s="156"/>
-      <c r="I204" s="156"/>
-      <c r="J204" s="156"/>
-      <c r="K204" s="156"/>
-      <c r="L204" s="156"/>
-      <c r="M204" s="156"/>
-      <c r="N204" s="156"/>
-      <c r="O204" s="156"/>
-      <c r="P204" s="156"/>
-      <c r="Q204" s="156"/>
-      <c r="R204" s="156"/>
-      <c r="S204" s="156"/>
-      <c r="T204" s="156"/>
-      <c r="U204" s="156"/>
+      <c r="D204" s="153"/>
+      <c r="E204" s="153"/>
+      <c r="F204" s="153"/>
+      <c r="G204" s="153"/>
+      <c r="H204" s="153"/>
+      <c r="I204" s="153"/>
+      <c r="J204" s="153"/>
+      <c r="K204" s="153"/>
+      <c r="L204" s="153"/>
+      <c r="M204" s="153"/>
+      <c r="N204" s="153"/>
+      <c r="O204" s="153"/>
+      <c r="P204" s="153"/>
+      <c r="Q204" s="153"/>
+      <c r="R204" s="153"/>
+      <c r="S204" s="153"/>
+      <c r="T204" s="153"/>
+      <c r="U204" s="153"/>
     </row>
     <row r="205" spans="4:21">
-      <c r="D205" s="156"/>
-      <c r="E205" s="156"/>
-      <c r="F205" s="156"/>
-      <c r="G205" s="156"/>
-      <c r="H205" s="156"/>
-      <c r="I205" s="156"/>
-      <c r="J205" s="156"/>
-      <c r="K205" s="156"/>
-      <c r="L205" s="156"/>
-      <c r="M205" s="156"/>
-      <c r="N205" s="156"/>
-      <c r="O205" s="156"/>
-      <c r="P205" s="156"/>
-      <c r="Q205" s="156"/>
-      <c r="R205" s="156"/>
-      <c r="S205" s="156"/>
-      <c r="T205" s="156"/>
-      <c r="U205" s="156"/>
+      <c r="D205" s="153"/>
+      <c r="E205" s="153"/>
+      <c r="F205" s="153"/>
+      <c r="G205" s="153"/>
+      <c r="H205" s="153"/>
+      <c r="I205" s="153"/>
+      <c r="J205" s="153"/>
+      <c r="K205" s="153"/>
+      <c r="L205" s="153"/>
+      <c r="M205" s="153"/>
+      <c r="N205" s="153"/>
+      <c r="O205" s="153"/>
+      <c r="P205" s="153"/>
+      <c r="Q205" s="153"/>
+      <c r="R205" s="153"/>
+      <c r="S205" s="153"/>
+      <c r="T205" s="153"/>
+      <c r="U205" s="153"/>
     </row>
     <row r="206" spans="4:21">
-      <c r="D206" s="156"/>
-      <c r="E206" s="156"/>
-      <c r="F206" s="156"/>
-      <c r="G206" s="156"/>
-      <c r="H206" s="156"/>
-      <c r="I206" s="156"/>
-      <c r="J206" s="156"/>
-      <c r="K206" s="156"/>
-      <c r="L206" s="156"/>
-      <c r="M206" s="156"/>
-      <c r="N206" s="156"/>
-      <c r="O206" s="156"/>
-      <c r="P206" s="156"/>
-      <c r="Q206" s="156"/>
-      <c r="R206" s="156"/>
-      <c r="S206" s="156"/>
-      <c r="T206" s="156"/>
-      <c r="U206" s="156"/>
+      <c r="D206" s="153"/>
+      <c r="E206" s="153"/>
+      <c r="F206" s="153"/>
+      <c r="G206" s="153"/>
+      <c r="H206" s="153"/>
+      <c r="I206" s="153"/>
+      <c r="J206" s="153"/>
+      <c r="K206" s="153"/>
+      <c r="L206" s="153"/>
+      <c r="M206" s="153"/>
+      <c r="N206" s="153"/>
+      <c r="O206" s="153"/>
+      <c r="P206" s="153"/>
+      <c r="Q206" s="153"/>
+      <c r="R206" s="153"/>
+      <c r="S206" s="153"/>
+      <c r="T206" s="153"/>
+      <c r="U206" s="153"/>
     </row>
     <row r="207" spans="4:21">
-      <c r="D207" s="156"/>
-      <c r="E207" s="156"/>
-      <c r="F207" s="156"/>
-      <c r="G207" s="156"/>
-      <c r="H207" s="156"/>
-      <c r="I207" s="156"/>
-      <c r="J207" s="156"/>
-      <c r="K207" s="156"/>
-      <c r="L207" s="156"/>
-      <c r="M207" s="156"/>
-      <c r="N207" s="156"/>
-      <c r="O207" s="156"/>
-      <c r="P207" s="156"/>
-      <c r="Q207" s="156"/>
-      <c r="R207" s="156"/>
-      <c r="S207" s="156"/>
-      <c r="T207" s="156"/>
-      <c r="U207" s="156"/>
+      <c r="D207" s="153"/>
+      <c r="E207" s="153"/>
+      <c r="F207" s="153"/>
+      <c r="G207" s="153"/>
+      <c r="H207" s="153"/>
+      <c r="I207" s="153"/>
+      <c r="J207" s="153"/>
+      <c r="K207" s="153"/>
+      <c r="L207" s="153"/>
+      <c r="M207" s="153"/>
+      <c r="N207" s="153"/>
+      <c r="O207" s="153"/>
+      <c r="P207" s="153"/>
+      <c r="Q207" s="153"/>
+      <c r="R207" s="153"/>
+      <c r="S207" s="153"/>
+      <c r="T207" s="153"/>
+      <c r="U207" s="153"/>
     </row>
     <row r="208" spans="4:21">
-      <c r="D208" s="156"/>
-      <c r="E208" s="156"/>
-      <c r="F208" s="156"/>
-      <c r="G208" s="156"/>
-      <c r="H208" s="156"/>
-      <c r="I208" s="156"/>
-      <c r="J208" s="156"/>
-      <c r="K208" s="156"/>
-      <c r="L208" s="156"/>
-      <c r="M208" s="156"/>
-      <c r="N208" s="156"/>
-      <c r="O208" s="156"/>
-      <c r="P208" s="156"/>
-      <c r="Q208" s="156"/>
-      <c r="R208" s="156"/>
-      <c r="S208" s="156"/>
-      <c r="T208" s="156"/>
-      <c r="U208" s="156"/>
+      <c r="D208" s="153"/>
+      <c r="E208" s="153"/>
+      <c r="F208" s="153"/>
+      <c r="G208" s="153"/>
+      <c r="H208" s="153"/>
+      <c r="I208" s="153"/>
+      <c r="J208" s="153"/>
+      <c r="K208" s="153"/>
+      <c r="L208" s="153"/>
+      <c r="M208" s="153"/>
+      <c r="N208" s="153"/>
+      <c r="O208" s="153"/>
+      <c r="P208" s="153"/>
+      <c r="Q208" s="153"/>
+      <c r="R208" s="153"/>
+      <c r="S208" s="153"/>
+      <c r="T208" s="153"/>
+      <c r="U208" s="153"/>
     </row>
     <row r="209" spans="4:21">
-      <c r="D209" s="156"/>
-      <c r="E209" s="156"/>
-      <c r="F209" s="156"/>
-      <c r="G209" s="156"/>
-      <c r="H209" s="156"/>
-      <c r="I209" s="156"/>
-      <c r="J209" s="156"/>
-      <c r="K209" s="156"/>
-      <c r="L209" s="156"/>
-      <c r="M209" s="156"/>
-      <c r="N209" s="156"/>
-      <c r="O209" s="156"/>
-      <c r="P209" s="156"/>
-      <c r="Q209" s="156"/>
-      <c r="R209" s="156"/>
-      <c r="S209" s="156"/>
-      <c r="T209" s="156"/>
-      <c r="U209" s="156"/>
+      <c r="D209" s="153"/>
+      <c r="E209" s="153"/>
+      <c r="F209" s="153"/>
+      <c r="G209" s="153"/>
+      <c r="H209" s="153"/>
+      <c r="I209" s="153"/>
+      <c r="J209" s="153"/>
+      <c r="K209" s="153"/>
+      <c r="L209" s="153"/>
+      <c r="M209" s="153"/>
+      <c r="N209" s="153"/>
+      <c r="O209" s="153"/>
+      <c r="P209" s="153"/>
+      <c r="Q209" s="153"/>
+      <c r="R209" s="153"/>
+      <c r="S209" s="153"/>
+      <c r="T209" s="153"/>
+      <c r="U209" s="153"/>
     </row>
     <row r="210" spans="4:21">
-      <c r="D210" s="156"/>
-      <c r="E210" s="156"/>
-      <c r="F210" s="156"/>
-      <c r="G210" s="156"/>
-      <c r="H210" s="156"/>
-      <c r="I210" s="156"/>
-      <c r="J210" s="156"/>
-      <c r="K210" s="156"/>
-      <c r="L210" s="156"/>
-      <c r="M210" s="156"/>
-      <c r="N210" s="156"/>
-      <c r="O210" s="156"/>
-      <c r="P210" s="156"/>
-      <c r="Q210" s="156"/>
-      <c r="R210" s="156"/>
-      <c r="S210" s="156"/>
-      <c r="T210" s="156"/>
-      <c r="U210" s="156"/>
+      <c r="D210" s="153"/>
+      <c r="E210" s="153"/>
+      <c r="F210" s="153"/>
+      <c r="G210" s="153"/>
+      <c r="H210" s="153"/>
+      <c r="I210" s="153"/>
+      <c r="J210" s="153"/>
+      <c r="K210" s="153"/>
+      <c r="L210" s="153"/>
+      <c r="M210" s="153"/>
+      <c r="N210" s="153"/>
+      <c r="O210" s="153"/>
+      <c r="P210" s="153"/>
+      <c r="Q210" s="153"/>
+      <c r="R210" s="153"/>
+      <c r="S210" s="153"/>
+      <c r="T210" s="153"/>
+      <c r="U210" s="153"/>
     </row>
     <row r="211" spans="4:21">
-      <c r="D211" s="156"/>
-      <c r="E211" s="156"/>
-      <c r="F211" s="156"/>
-      <c r="G211" s="156"/>
-      <c r="H211" s="156"/>
-      <c r="I211" s="156"/>
-      <c r="J211" s="156"/>
-      <c r="K211" s="156"/>
-      <c r="L211" s="156"/>
-      <c r="M211" s="156"/>
-      <c r="N211" s="156"/>
-      <c r="O211" s="156"/>
-      <c r="P211" s="156"/>
-      <c r="Q211" s="156"/>
-      <c r="R211" s="156"/>
-      <c r="S211" s="156"/>
-      <c r="T211" s="156"/>
-      <c r="U211" s="156"/>
+      <c r="D211" s="153"/>
+      <c r="E211" s="153"/>
+      <c r="F211" s="153"/>
+      <c r="G211" s="153"/>
+      <c r="H211" s="153"/>
+      <c r="I211" s="153"/>
+      <c r="J211" s="153"/>
+      <c r="K211" s="153"/>
+      <c r="L211" s="153"/>
+      <c r="M211" s="153"/>
+      <c r="N211" s="153"/>
+      <c r="O211" s="153"/>
+      <c r="P211" s="153"/>
+      <c r="Q211" s="153"/>
+      <c r="R211" s="153"/>
+      <c r="S211" s="153"/>
+      <c r="T211" s="153"/>
+      <c r="U211" s="153"/>
     </row>
     <row r="212" spans="4:21">
-      <c r="D212" s="156"/>
-      <c r="E212" s="156"/>
-      <c r="F212" s="156"/>
-      <c r="G212" s="156"/>
-      <c r="H212" s="156"/>
-      <c r="I212" s="156"/>
-      <c r="J212" s="156"/>
-      <c r="K212" s="156"/>
-      <c r="L212" s="156"/>
-      <c r="M212" s="156"/>
-      <c r="N212" s="156"/>
-      <c r="O212" s="156"/>
-      <c r="P212" s="156"/>
-      <c r="Q212" s="156"/>
-      <c r="R212" s="156"/>
-      <c r="S212" s="156"/>
-      <c r="T212" s="156"/>
-      <c r="U212" s="156"/>
+      <c r="D212" s="153"/>
+      <c r="E212" s="153"/>
+      <c r="F212" s="153"/>
+      <c r="G212" s="153"/>
+      <c r="H212" s="153"/>
+      <c r="I212" s="153"/>
+      <c r="J212" s="153"/>
+      <c r="K212" s="153"/>
+      <c r="L212" s="153"/>
+      <c r="M212" s="153"/>
+      <c r="N212" s="153"/>
+      <c r="O212" s="153"/>
+      <c r="P212" s="153"/>
+      <c r="Q212" s="153"/>
+      <c r="R212" s="153"/>
+      <c r="S212" s="153"/>
+      <c r="T212" s="153"/>
+      <c r="U212" s="153"/>
     </row>
     <row r="213" spans="4:21">
-      <c r="D213" s="156"/>
-      <c r="E213" s="156"/>
-      <c r="F213" s="156"/>
-      <c r="G213" s="156"/>
-      <c r="H213" s="156"/>
-      <c r="I213" s="156"/>
-      <c r="J213" s="156"/>
-      <c r="K213" s="156"/>
-      <c r="L213" s="156"/>
-      <c r="M213" s="156"/>
-      <c r="N213" s="156"/>
-      <c r="O213" s="156"/>
-      <c r="P213" s="156"/>
-      <c r="Q213" s="156"/>
-      <c r="R213" s="156"/>
-      <c r="S213" s="156"/>
-      <c r="T213" s="156"/>
-      <c r="U213" s="156"/>
+      <c r="D213" s="153"/>
+      <c r="E213" s="153"/>
+      <c r="F213" s="153"/>
+      <c r="G213" s="153"/>
+      <c r="H213" s="153"/>
+      <c r="I213" s="153"/>
+      <c r="J213" s="153"/>
+      <c r="K213" s="153"/>
+      <c r="L213" s="153"/>
+      <c r="M213" s="153"/>
+      <c r="N213" s="153"/>
+      <c r="O213" s="153"/>
+      <c r="P213" s="153"/>
+      <c r="Q213" s="153"/>
+      <c r="R213" s="153"/>
+      <c r="S213" s="153"/>
+      <c r="T213" s="153"/>
+      <c r="U213" s="153"/>
     </row>
     <row r="214" spans="4:21">
-      <c r="D214" s="156"/>
-      <c r="E214" s="156"/>
-      <c r="F214" s="156"/>
-      <c r="G214" s="156"/>
-      <c r="H214" s="156"/>
-      <c r="I214" s="156"/>
-      <c r="J214" s="156"/>
-      <c r="K214" s="156"/>
-      <c r="L214" s="156"/>
-      <c r="M214" s="156"/>
-      <c r="N214" s="156"/>
-      <c r="O214" s="156"/>
-      <c r="P214" s="156"/>
-      <c r="Q214" s="156"/>
-      <c r="R214" s="156"/>
-      <c r="S214" s="156"/>
-      <c r="T214" s="156"/>
-      <c r="U214" s="156"/>
+      <c r="D214" s="153"/>
+      <c r="E214" s="153"/>
+      <c r="F214" s="153"/>
+      <c r="G214" s="153"/>
+      <c r="H214" s="153"/>
+      <c r="I214" s="153"/>
+      <c r="J214" s="153"/>
+      <c r="K214" s="153"/>
+      <c r="L214" s="153"/>
+      <c r="M214" s="153"/>
+      <c r="N214" s="153"/>
+      <c r="O214" s="153"/>
+      <c r="P214" s="153"/>
+      <c r="Q214" s="153"/>
+      <c r="R214" s="153"/>
+      <c r="S214" s="153"/>
+      <c r="T214" s="153"/>
+      <c r="U214" s="153"/>
     </row>
     <row r="215" spans="4:21">
-      <c r="D215" s="156"/>
-      <c r="E215" s="156"/>
-      <c r="F215" s="156"/>
-      <c r="G215" s="156"/>
-      <c r="H215" s="156"/>
-      <c r="I215" s="156"/>
-      <c r="J215" s="156"/>
-      <c r="K215" s="156"/>
-      <c r="L215" s="156"/>
-      <c r="M215" s="156"/>
-      <c r="N215" s="156"/>
-      <c r="O215" s="156"/>
-      <c r="P215" s="156"/>
-      <c r="Q215" s="156"/>
-      <c r="R215" s="156"/>
-      <c r="S215" s="156"/>
-      <c r="T215" s="156"/>
-      <c r="U215" s="156"/>
+      <c r="D215" s="153"/>
+      <c r="E215" s="153"/>
+      <c r="F215" s="153"/>
+      <c r="G215" s="153"/>
+      <c r="H215" s="153"/>
+      <c r="I215" s="153"/>
+      <c r="J215" s="153"/>
+      <c r="K215" s="153"/>
+      <c r="L215" s="153"/>
+      <c r="M215" s="153"/>
+      <c r="N215" s="153"/>
+      <c r="O215" s="153"/>
+      <c r="P215" s="153"/>
+      <c r="Q215" s="153"/>
+      <c r="R215" s="153"/>
+      <c r="S215" s="153"/>
+      <c r="T215" s="153"/>
+      <c r="U215" s="153"/>
     </row>
     <row r="216" spans="4:21">
-      <c r="D216" s="156"/>
-      <c r="E216" s="156"/>
-      <c r="F216" s="156"/>
-      <c r="G216" s="156"/>
-      <c r="H216" s="156"/>
-      <c r="I216" s="156"/>
-      <c r="J216" s="156"/>
-      <c r="K216" s="156"/>
-      <c r="L216" s="156"/>
-      <c r="M216" s="156"/>
-      <c r="N216" s="156"/>
-      <c r="O216" s="156"/>
-      <c r="P216" s="156"/>
-      <c r="Q216" s="156"/>
-      <c r="R216" s="156"/>
-      <c r="S216" s="156"/>
-      <c r="T216" s="156"/>
-      <c r="U216" s="156"/>
+      <c r="D216" s="153"/>
+      <c r="E216" s="153"/>
+      <c r="F216" s="153"/>
+      <c r="G216" s="153"/>
+      <c r="H216" s="153"/>
+      <c r="I216" s="153"/>
+      <c r="J216" s="153"/>
+      <c r="K216" s="153"/>
+      <c r="L216" s="153"/>
+      <c r="M216" s="153"/>
+      <c r="N216" s="153"/>
+      <c r="O216" s="153"/>
+      <c r="P216" s="153"/>
+      <c r="Q216" s="153"/>
+      <c r="R216" s="153"/>
+      <c r="S216" s="153"/>
+      <c r="T216" s="153"/>
+      <c r="U216" s="153"/>
     </row>
     <row r="217" spans="4:21">
-      <c r="D217" s="156"/>
-      <c r="E217" s="156"/>
-      <c r="F217" s="156"/>
-      <c r="G217" s="156"/>
-      <c r="H217" s="156"/>
-      <c r="I217" s="156"/>
-      <c r="J217" s="156"/>
-      <c r="K217" s="156"/>
-      <c r="L217" s="156"/>
-      <c r="M217" s="156"/>
-      <c r="N217" s="156"/>
-      <c r="O217" s="156"/>
-      <c r="P217" s="156"/>
-      <c r="Q217" s="156"/>
-      <c r="R217" s="156"/>
-      <c r="S217" s="156"/>
-      <c r="T217" s="156"/>
-      <c r="U217" s="156"/>
+      <c r="D217" s="153"/>
+      <c r="E217" s="153"/>
+      <c r="F217" s="153"/>
+      <c r="G217" s="153"/>
+      <c r="H217" s="153"/>
+      <c r="I217" s="153"/>
+      <c r="J217" s="153"/>
+      <c r="K217" s="153"/>
+      <c r="L217" s="153"/>
+      <c r="M217" s="153"/>
+      <c r="N217" s="153"/>
+      <c r="O217" s="153"/>
+      <c r="P217" s="153"/>
+      <c r="Q217" s="153"/>
+      <c r="R217" s="153"/>
+      <c r="S217" s="153"/>
+      <c r="T217" s="153"/>
+      <c r="U217" s="153"/>
     </row>
     <row r="218" spans="4:21">
-      <c r="D218" s="156"/>
-      <c r="E218" s="156"/>
-      <c r="F218" s="156"/>
-      <c r="G218" s="156"/>
-      <c r="H218" s="156"/>
-      <c r="I218" s="156"/>
-      <c r="J218" s="156"/>
-      <c r="K218" s="156"/>
-      <c r="L218" s="156"/>
-      <c r="M218" s="156"/>
-      <c r="N218" s="156"/>
-      <c r="O218" s="156"/>
-      <c r="P218" s="156"/>
-      <c r="Q218" s="156"/>
-      <c r="R218" s="156"/>
-      <c r="S218" s="156"/>
-      <c r="T218" s="156"/>
-      <c r="U218" s="156"/>
+      <c r="D218" s="153"/>
+      <c r="E218" s="153"/>
+      <c r="F218" s="153"/>
+      <c r="G218" s="153"/>
+      <c r="H218" s="153"/>
+      <c r="I218" s="153"/>
+      <c r="J218" s="153"/>
+      <c r="K218" s="153"/>
+      <c r="L218" s="153"/>
+      <c r="M218" s="153"/>
+      <c r="N218" s="153"/>
+      <c r="O218" s="153"/>
+      <c r="P218" s="153"/>
+      <c r="Q218" s="153"/>
+      <c r="R218" s="153"/>
+      <c r="S218" s="153"/>
+      <c r="T218" s="153"/>
+      <c r="U218" s="153"/>
     </row>
     <row r="219" spans="4:21">
-      <c r="D219" s="156"/>
-      <c r="E219" s="156"/>
-      <c r="F219" s="156"/>
-      <c r="G219" s="156"/>
-      <c r="H219" s="156"/>
-      <c r="I219" s="156"/>
-      <c r="J219" s="156"/>
-      <c r="K219" s="156"/>
-      <c r="L219" s="156"/>
-      <c r="M219" s="156"/>
-      <c r="N219" s="156"/>
-      <c r="O219" s="156"/>
-      <c r="P219" s="156"/>
-      <c r="Q219" s="156"/>
-      <c r="R219" s="156"/>
-      <c r="S219" s="156"/>
-      <c r="T219" s="156"/>
-      <c r="U219" s="156"/>
+      <c r="D219" s="153"/>
+      <c r="E219" s="153"/>
+      <c r="F219" s="153"/>
+      <c r="G219" s="153"/>
+      <c r="H219" s="153"/>
+      <c r="I219" s="153"/>
+      <c r="J219" s="153"/>
+      <c r="K219" s="153"/>
+      <c r="L219" s="153"/>
+      <c r="M219" s="153"/>
+      <c r="N219" s="153"/>
+      <c r="O219" s="153"/>
+      <c r="P219" s="153"/>
+      <c r="Q219" s="153"/>
+      <c r="R219" s="153"/>
+      <c r="S219" s="153"/>
+      <c r="T219" s="153"/>
+      <c r="U219" s="153"/>
     </row>
     <row r="220" spans="4:21">
-      <c r="D220" s="156"/>
-      <c r="E220" s="156"/>
-      <c r="F220" s="156"/>
-      <c r="G220" s="156"/>
-      <c r="H220" s="156"/>
-      <c r="I220" s="156"/>
-      <c r="J220" s="156"/>
-      <c r="K220" s="156"/>
-      <c r="L220" s="156"/>
-      <c r="M220" s="156"/>
-      <c r="N220" s="156"/>
-      <c r="O220" s="156"/>
-      <c r="P220" s="156"/>
-      <c r="Q220" s="156"/>
-      <c r="R220" s="156"/>
-      <c r="S220" s="156"/>
-      <c r="T220" s="156"/>
-      <c r="U220" s="156"/>
+      <c r="D220" s="153"/>
+      <c r="E220" s="153"/>
+      <c r="F220" s="153"/>
+      <c r="G220" s="153"/>
+      <c r="H220" s="153"/>
+      <c r="I220" s="153"/>
+      <c r="J220" s="153"/>
+      <c r="K220" s="153"/>
+      <c r="L220" s="153"/>
+      <c r="M220" s="153"/>
+      <c r="N220" s="153"/>
+      <c r="O220" s="153"/>
+      <c r="P220" s="153"/>
+      <c r="Q220" s="153"/>
+      <c r="R220" s="153"/>
+      <c r="S220" s="153"/>
+      <c r="T220" s="153"/>
+      <c r="U220" s="153"/>
     </row>
     <row r="221" spans="4:21">
-      <c r="D221" s="156"/>
-      <c r="E221" s="156"/>
-      <c r="F221" s="156"/>
-      <c r="G221" s="156"/>
-      <c r="H221" s="156"/>
-      <c r="I221" s="156"/>
-      <c r="J221" s="156"/>
-      <c r="K221" s="156"/>
-      <c r="L221" s="156"/>
-      <c r="M221" s="156"/>
-      <c r="N221" s="156"/>
-      <c r="O221" s="156"/>
-      <c r="P221" s="156"/>
-      <c r="Q221" s="156"/>
-      <c r="R221" s="156"/>
-      <c r="S221" s="156"/>
-      <c r="T221" s="156"/>
-      <c r="U221" s="156"/>
+      <c r="D221" s="153"/>
+      <c r="E221" s="153"/>
+      <c r="F221" s="153"/>
+      <c r="G221" s="153"/>
+      <c r="H221" s="153"/>
+      <c r="I221" s="153"/>
+      <c r="J221" s="153"/>
+      <c r="K221" s="153"/>
+      <c r="L221" s="153"/>
+      <c r="M221" s="153"/>
+      <c r="N221" s="153"/>
+      <c r="O221" s="153"/>
+      <c r="P221" s="153"/>
+      <c r="Q221" s="153"/>
+      <c r="R221" s="153"/>
+      <c r="S221" s="153"/>
+      <c r="T221" s="153"/>
+      <c r="U221" s="153"/>
     </row>
     <row r="222" spans="4:21">
-      <c r="D222" s="156"/>
-      <c r="E222" s="156"/>
-      <c r="F222" s="156"/>
-      <c r="G222" s="156"/>
-      <c r="H222" s="156"/>
-      <c r="I222" s="156"/>
-      <c r="J222" s="156"/>
-      <c r="K222" s="156"/>
-      <c r="L222" s="156"/>
-      <c r="M222" s="156"/>
-      <c r="N222" s="156"/>
-      <c r="O222" s="156"/>
-      <c r="P222" s="156"/>
-      <c r="Q222" s="156"/>
-      <c r="R222" s="156"/>
-      <c r="S222" s="156"/>
-      <c r="T222" s="156"/>
-      <c r="U222" s="156"/>
+      <c r="D222" s="153"/>
+      <c r="E222" s="153"/>
+      <c r="F222" s="153"/>
+      <c r="G222" s="153"/>
+      <c r="H222" s="153"/>
+      <c r="I222" s="153"/>
+      <c r="J222" s="153"/>
+      <c r="K222" s="153"/>
+      <c r="L222" s="153"/>
+      <c r="M222" s="153"/>
+      <c r="N222" s="153"/>
+      <c r="O222" s="153"/>
+      <c r="P222" s="153"/>
+      <c r="Q222" s="153"/>
+      <c r="R222" s="153"/>
+      <c r="S222" s="153"/>
+      <c r="T222" s="153"/>
+      <c r="U222" s="153"/>
     </row>
     <row r="223" spans="4:21">
-      <c r="D223" s="156"/>
-      <c r="E223" s="156"/>
-      <c r="F223" s="156"/>
-      <c r="G223" s="156"/>
-      <c r="H223" s="156"/>
-      <c r="I223" s="156"/>
-      <c r="J223" s="156"/>
-      <c r="K223" s="156"/>
-      <c r="L223" s="156"/>
-      <c r="M223" s="156"/>
-      <c r="N223" s="156"/>
-      <c r="O223" s="156"/>
-      <c r="P223" s="156"/>
-      <c r="Q223" s="156"/>
-      <c r="R223" s="156"/>
-      <c r="S223" s="156"/>
-      <c r="T223" s="156"/>
-      <c r="U223" s="156"/>
+      <c r="D223" s="153"/>
+      <c r="E223" s="153"/>
+      <c r="F223" s="153"/>
+      <c r="G223" s="153"/>
+      <c r="H223" s="153"/>
+      <c r="I223" s="153"/>
+      <c r="J223" s="153"/>
+      <c r="K223" s="153"/>
+      <c r="L223" s="153"/>
+      <c r="M223" s="153"/>
+      <c r="N223" s="153"/>
+      <c r="O223" s="153"/>
+      <c r="P223" s="153"/>
+      <c r="Q223" s="153"/>
+      <c r="R223" s="153"/>
+      <c r="S223" s="153"/>
+      <c r="T223" s="153"/>
+      <c r="U223" s="153"/>
     </row>
     <row r="224" spans="4:21">
-      <c r="D224" s="156"/>
-      <c r="E224" s="156"/>
-      <c r="F224" s="156"/>
-      <c r="G224" s="156"/>
-      <c r="H224" s="156"/>
-      <c r="I224" s="156"/>
-      <c r="J224" s="156"/>
-      <c r="K224" s="156"/>
-      <c r="L224" s="156"/>
-      <c r="M224" s="156"/>
-      <c r="N224" s="156"/>
-      <c r="O224" s="156"/>
-      <c r="P224" s="156"/>
-      <c r="Q224" s="156"/>
-      <c r="R224" s="156"/>
-      <c r="S224" s="156"/>
-      <c r="T224" s="156"/>
-      <c r="U224" s="156"/>
+      <c r="D224" s="153"/>
+      <c r="E224" s="153"/>
+      <c r="F224" s="153"/>
+      <c r="G224" s="153"/>
+      <c r="H224" s="153"/>
+      <c r="I224" s="153"/>
+      <c r="J224" s="153"/>
+      <c r="K224" s="153"/>
+      <c r="L224" s="153"/>
+      <c r="M224" s="153"/>
+      <c r="N224" s="153"/>
+      <c r="O224" s="153"/>
+      <c r="P224" s="153"/>
+      <c r="Q224" s="153"/>
+      <c r="R224" s="153"/>
+      <c r="S224" s="153"/>
+      <c r="T224" s="153"/>
+      <c r="U224" s="153"/>
     </row>
     <row r="225" spans="4:21">
-      <c r="D225" s="156"/>
-      <c r="E225" s="156"/>
-      <c r="F225" s="156"/>
-      <c r="G225" s="156"/>
-      <c r="H225" s="156"/>
-      <c r="I225" s="156"/>
-      <c r="J225" s="156"/>
-      <c r="K225" s="156"/>
-      <c r="L225" s="156"/>
-      <c r="M225" s="156"/>
-      <c r="N225" s="156"/>
-      <c r="O225" s="156"/>
-      <c r="P225" s="156"/>
-      <c r="Q225" s="156"/>
-      <c r="R225" s="156"/>
-      <c r="S225" s="156"/>
-      <c r="T225" s="156"/>
-      <c r="U225" s="156"/>
+      <c r="D225" s="153"/>
+      <c r="E225" s="153"/>
+      <c r="F225" s="153"/>
+      <c r="G225" s="153"/>
+      <c r="H225" s="153"/>
+      <c r="I225" s="153"/>
+      <c r="J225" s="153"/>
+      <c r="K225" s="153"/>
+      <c r="L225" s="153"/>
+      <c r="M225" s="153"/>
+      <c r="N225" s="153"/>
+      <c r="O225" s="153"/>
+      <c r="P225" s="153"/>
+      <c r="Q225" s="153"/>
+      <c r="R225" s="153"/>
+      <c r="S225" s="153"/>
+      <c r="T225" s="153"/>
+      <c r="U225" s="153"/>
     </row>
     <row r="226" spans="4:21">
-      <c r="D226" s="156"/>
-      <c r="E226" s="156"/>
-      <c r="F226" s="156"/>
-      <c r="G226" s="156"/>
-      <c r="H226" s="156"/>
-      <c r="I226" s="156"/>
-      <c r="J226" s="156"/>
-      <c r="K226" s="156"/>
-      <c r="L226" s="156"/>
-      <c r="M226" s="156"/>
-      <c r="N226" s="156"/>
-      <c r="O226" s="156"/>
-      <c r="P226" s="156"/>
-      <c r="Q226" s="156"/>
-      <c r="R226" s="156"/>
-      <c r="S226" s="156"/>
-      <c r="T226" s="156"/>
-      <c r="U226" s="156"/>
+      <c r="D226" s="153"/>
+      <c r="E226" s="153"/>
+      <c r="F226" s="153"/>
+      <c r="G226" s="153"/>
+      <c r="H226" s="153"/>
+      <c r="I226" s="153"/>
+      <c r="J226" s="153"/>
+      <c r="K226" s="153"/>
+      <c r="L226" s="153"/>
+      <c r="M226" s="153"/>
+      <c r="N226" s="153"/>
+      <c r="O226" s="153"/>
+      <c r="P226" s="153"/>
+      <c r="Q226" s="153"/>
+      <c r="R226" s="153"/>
+      <c r="S226" s="153"/>
+      <c r="T226" s="153"/>
+      <c r="U226" s="153"/>
     </row>
     <row r="227" spans="4:21">
-      <c r="D227" s="156"/>
-      <c r="E227" s="156"/>
-      <c r="F227" s="156"/>
-      <c r="G227" s="156"/>
-      <c r="H227" s="156"/>
-      <c r="I227" s="156"/>
-      <c r="J227" s="156"/>
-      <c r="K227" s="156"/>
-      <c r="L227" s="156"/>
-      <c r="M227" s="156"/>
-      <c r="N227" s="156"/>
-      <c r="O227" s="156"/>
-      <c r="P227" s="156"/>
-      <c r="Q227" s="156"/>
-      <c r="R227" s="156"/>
-      <c r="S227" s="156"/>
-      <c r="T227" s="156"/>
-      <c r="U227" s="156"/>
+      <c r="D227" s="153"/>
+      <c r="E227" s="153"/>
+      <c r="F227" s="153"/>
+      <c r="G227" s="153"/>
+      <c r="H227" s="153"/>
+      <c r="I227" s="153"/>
+      <c r="J227" s="153"/>
+      <c r="K227" s="153"/>
+      <c r="L227" s="153"/>
+      <c r="M227" s="153"/>
+      <c r="N227" s="153"/>
+      <c r="O227" s="153"/>
+      <c r="P227" s="153"/>
+      <c r="Q227" s="153"/>
+      <c r="R227" s="153"/>
+      <c r="S227" s="153"/>
+      <c r="T227" s="153"/>
+      <c r="U227" s="153"/>
     </row>
     <row r="228" spans="4:21">
-      <c r="D228" s="156"/>
-      <c r="E228" s="156"/>
-      <c r="F228" s="156"/>
-      <c r="G228" s="156"/>
-      <c r="H228" s="156"/>
-      <c r="I228" s="156"/>
-      <c r="J228" s="156"/>
-      <c r="K228" s="156"/>
-      <c r="L228" s="156"/>
-      <c r="M228" s="156"/>
-      <c r="N228" s="156"/>
-      <c r="O228" s="156"/>
-      <c r="P228" s="156"/>
-      <c r="Q228" s="156"/>
-      <c r="R228" s="156"/>
-      <c r="S228" s="156"/>
-      <c r="T228" s="156"/>
-      <c r="U228" s="156"/>
+      <c r="D228" s="153"/>
+      <c r="E228" s="153"/>
+      <c r="F228" s="153"/>
+      <c r="G228" s="153"/>
+      <c r="H228" s="153"/>
+      <c r="I228" s="153"/>
+      <c r="J228" s="153"/>
+      <c r="K228" s="153"/>
+      <c r="L228" s="153"/>
+      <c r="M228" s="153"/>
+      <c r="N228" s="153"/>
+      <c r="O228" s="153"/>
+      <c r="P228" s="153"/>
+      <c r="Q228" s="153"/>
+      <c r="R228" s="153"/>
+      <c r="S228" s="153"/>
+      <c r="T228" s="153"/>
+      <c r="U228" s="153"/>
     </row>
     <row r="229" spans="4:21">
-      <c r="D229" s="156"/>
-      <c r="E229" s="156"/>
-      <c r="F229" s="156"/>
-      <c r="G229" s="156"/>
-      <c r="H229" s="156"/>
-      <c r="I229" s="156"/>
-      <c r="J229" s="156"/>
-      <c r="K229" s="156"/>
-      <c r="L229" s="156"/>
-      <c r="M229" s="156"/>
-      <c r="N229" s="156"/>
-      <c r="O229" s="156"/>
-      <c r="P229" s="156"/>
-      <c r="Q229" s="156"/>
-      <c r="R229" s="156"/>
-      <c r="S229" s="156"/>
-      <c r="T229" s="156"/>
-      <c r="U229" s="156"/>
+      <c r="D229" s="153"/>
+      <c r="E229" s="153"/>
+      <c r="F229" s="153"/>
+      <c r="G229" s="153"/>
+      <c r="H229" s="153"/>
+      <c r="I229" s="153"/>
+      <c r="J229" s="153"/>
+      <c r="K229" s="153"/>
+      <c r="L229" s="153"/>
+      <c r="M229" s="153"/>
+      <c r="N229" s="153"/>
+      <c r="O229" s="153"/>
+      <c r="P229" s="153"/>
+      <c r="Q229" s="153"/>
+      <c r="R229" s="153"/>
+      <c r="S229" s="153"/>
+      <c r="T229" s="153"/>
+      <c r="U229" s="153"/>
     </row>
     <row r="230" spans="4:21">
-      <c r="D230" s="156"/>
-      <c r="E230" s="156"/>
-      <c r="F230" s="156"/>
-      <c r="G230" s="156"/>
-      <c r="H230" s="156"/>
-      <c r="I230" s="156"/>
-      <c r="J230" s="156"/>
-      <c r="K230" s="156"/>
-      <c r="L230" s="156"/>
-      <c r="M230" s="156"/>
-      <c r="N230" s="156"/>
-      <c r="O230" s="156"/>
-      <c r="P230" s="156"/>
-      <c r="Q230" s="156"/>
-      <c r="R230" s="156"/>
-      <c r="S230" s="156"/>
-      <c r="T230" s="156"/>
-      <c r="U230" s="156"/>
+      <c r="D230" s="153"/>
+      <c r="E230" s="153"/>
+      <c r="F230" s="153"/>
+      <c r="G230" s="153"/>
+      <c r="H230" s="153"/>
+      <c r="I230" s="153"/>
+      <c r="J230" s="153"/>
+      <c r="K230" s="153"/>
+      <c r="L230" s="153"/>
+      <c r="M230" s="153"/>
+      <c r="N230" s="153"/>
+      <c r="O230" s="153"/>
+      <c r="P230" s="153"/>
+      <c r="Q230" s="153"/>
+      <c r="R230" s="153"/>
+      <c r="S230" s="153"/>
+      <c r="T230" s="153"/>
+      <c r="U230" s="153"/>
     </row>
     <row r="231" spans="4:21">
-      <c r="D231" s="156"/>
-      <c r="E231" s="156"/>
-      <c r="F231" s="156"/>
-      <c r="G231" s="156"/>
-      <c r="H231" s="156"/>
-      <c r="I231" s="156"/>
-      <c r="J231" s="156"/>
-      <c r="K231" s="156"/>
-      <c r="L231" s="156"/>
-      <c r="M231" s="156"/>
-      <c r="N231" s="156"/>
-      <c r="O231" s="156"/>
-      <c r="P231" s="156"/>
-      <c r="Q231" s="156"/>
-      <c r="R231" s="156"/>
-      <c r="S231" s="156"/>
-      <c r="T231" s="156"/>
-      <c r="U231" s="156"/>
+      <c r="D231" s="153"/>
+      <c r="E231" s="153"/>
+      <c r="F231" s="153"/>
+      <c r="G231" s="153"/>
+      <c r="H231" s="153"/>
+      <c r="I231" s="153"/>
+      <c r="J231" s="153"/>
+      <c r="K231" s="153"/>
+      <c r="L231" s="153"/>
+      <c r="M231" s="153"/>
+      <c r="N231" s="153"/>
+      <c r="O231" s="153"/>
+      <c r="P231" s="153"/>
+      <c r="Q231" s="153"/>
+      <c r="R231" s="153"/>
+      <c r="S231" s="153"/>
+      <c r="T231" s="153"/>
+      <c r="U231" s="153"/>
     </row>
     <row r="232" spans="4:21">
-      <c r="D232" s="156"/>
-      <c r="E232" s="156"/>
-      <c r="F232" s="156"/>
-      <c r="G232" s="156"/>
-      <c r="H232" s="156"/>
-      <c r="I232" s="156"/>
-      <c r="J232" s="156"/>
-      <c r="K232" s="156"/>
-      <c r="L232" s="156"/>
-      <c r="M232" s="156"/>
-      <c r="N232" s="156"/>
-      <c r="O232" s="156"/>
-      <c r="P232" s="156"/>
-      <c r="Q232" s="156"/>
-      <c r="R232" s="156"/>
-      <c r="S232" s="156"/>
-      <c r="T232" s="156"/>
-      <c r="U232" s="156"/>
+      <c r="D232" s="153"/>
+      <c r="E232" s="153"/>
+      <c r="F232" s="153"/>
+      <c r="G232" s="153"/>
+      <c r="H232" s="153"/>
+      <c r="I232" s="153"/>
+      <c r="J232" s="153"/>
+      <c r="K232" s="153"/>
+      <c r="L232" s="153"/>
+      <c r="M232" s="153"/>
+      <c r="N232" s="153"/>
+      <c r="O232" s="153"/>
+      <c r="P232" s="153"/>
+      <c r="Q232" s="153"/>
+      <c r="R232" s="153"/>
+      <c r="S232" s="153"/>
+      <c r="T232" s="153"/>
+      <c r="U232" s="153"/>
     </row>
     <row r="233" spans="4:21">
-      <c r="D233" s="156"/>
-      <c r="E233" s="156"/>
-      <c r="F233" s="156"/>
-      <c r="G233" s="156"/>
-      <c r="H233" s="156"/>
-      <c r="I233" s="156"/>
-      <c r="J233" s="156"/>
-      <c r="K233" s="156"/>
-      <c r="L233" s="156"/>
-      <c r="M233" s="156"/>
-      <c r="N233" s="156"/>
-      <c r="O233" s="156"/>
-      <c r="P233" s="156"/>
-      <c r="Q233" s="156"/>
-      <c r="R233" s="156"/>
-      <c r="S233" s="156"/>
-      <c r="T233" s="156"/>
-      <c r="U233" s="156"/>
+      <c r="D233" s="153"/>
+      <c r="E233" s="153"/>
+      <c r="F233" s="153"/>
+      <c r="G233" s="153"/>
+      <c r="H233" s="153"/>
+      <c r="I233" s="153"/>
+      <c r="J233" s="153"/>
+      <c r="K233" s="153"/>
+      <c r="L233" s="153"/>
+      <c r="M233" s="153"/>
+      <c r="N233" s="153"/>
+      <c r="O233" s="153"/>
+      <c r="P233" s="153"/>
+      <c r="Q233" s="153"/>
+      <c r="R233" s="153"/>
+      <c r="S233" s="153"/>
+      <c r="T233" s="153"/>
+      <c r="U233" s="153"/>
     </row>
     <row r="234" spans="4:21">
-      <c r="D234" s="156"/>
-      <c r="E234" s="156"/>
-      <c r="F234" s="156"/>
-      <c r="G234" s="156"/>
-      <c r="H234" s="156"/>
-      <c r="I234" s="156"/>
-      <c r="J234" s="156"/>
-      <c r="K234" s="156"/>
-      <c r="L234" s="156"/>
-      <c r="M234" s="156"/>
-      <c r="N234" s="156"/>
-      <c r="O234" s="156"/>
-      <c r="P234" s="156"/>
-      <c r="Q234" s="156"/>
-      <c r="R234" s="156"/>
-      <c r="S234" s="156"/>
-      <c r="T234" s="156"/>
-      <c r="U234" s="156"/>
+      <c r="D234" s="153"/>
+      <c r="E234" s="153"/>
+      <c r="F234" s="153"/>
+      <c r="G234" s="153"/>
+      <c r="H234" s="153"/>
+      <c r="I234" s="153"/>
+      <c r="J234" s="153"/>
+      <c r="K234" s="153"/>
+      <c r="L234" s="153"/>
+      <c r="M234" s="153"/>
+      <c r="N234" s="153"/>
+      <c r="O234" s="153"/>
+      <c r="P234" s="153"/>
+      <c r="Q234" s="153"/>
+      <c r="R234" s="153"/>
+      <c r="S234" s="153"/>
+      <c r="T234" s="153"/>
+      <c r="U234" s="153"/>
     </row>
     <row r="235" spans="4:21">
-      <c r="D235" s="156"/>
-      <c r="E235" s="156"/>
-      <c r="F235" s="156"/>
-      <c r="G235" s="156"/>
-      <c r="H235" s="156"/>
-      <c r="I235" s="156"/>
-      <c r="J235" s="156"/>
-      <c r="K235" s="156"/>
-      <c r="L235" s="156"/>
-      <c r="M235" s="156"/>
-      <c r="N235" s="156"/>
-      <c r="O235" s="156"/>
-      <c r="P235" s="156"/>
-      <c r="Q235" s="156"/>
-      <c r="R235" s="156"/>
-      <c r="S235" s="156"/>
-      <c r="T235" s="156"/>
-      <c r="U235" s="156"/>
+      <c r="D235" s="153"/>
+      <c r="E235" s="153"/>
+      <c r="F235" s="153"/>
+      <c r="G235" s="153"/>
+      <c r="H235" s="153"/>
+      <c r="I235" s="153"/>
+      <c r="J235" s="153"/>
+      <c r="K235" s="153"/>
+      <c r="L235" s="153"/>
+      <c r="M235" s="153"/>
+      <c r="N235" s="153"/>
+      <c r="O235" s="153"/>
+      <c r="P235" s="153"/>
+      <c r="Q235" s="153"/>
+      <c r="R235" s="153"/>
+      <c r="S235" s="153"/>
+      <c r="T235" s="153"/>
+      <c r="U235" s="153"/>
     </row>
     <row r="236" spans="4:21">
-      <c r="D236" s="156"/>
-      <c r="E236" s="156"/>
-      <c r="F236" s="156"/>
-      <c r="G236" s="156"/>
-      <c r="H236" s="156"/>
-      <c r="I236" s="156"/>
-      <c r="J236" s="156"/>
-      <c r="K236" s="156"/>
-      <c r="L236" s="156"/>
-      <c r="M236" s="156"/>
-      <c r="N236" s="156"/>
-      <c r="O236" s="156"/>
-      <c r="P236" s="156"/>
-      <c r="Q236" s="156"/>
-      <c r="R236" s="156"/>
-      <c r="S236" s="156"/>
-      <c r="T236" s="156"/>
-      <c r="U236" s="156"/>
+      <c r="D236" s="153"/>
+      <c r="E236" s="153"/>
+      <c r="F236" s="153"/>
+      <c r="G236" s="153"/>
+      <c r="H236" s="153"/>
+      <c r="I236" s="153"/>
+      <c r="J236" s="153"/>
+      <c r="K236" s="153"/>
+      <c r="L236" s="153"/>
+      <c r="M236" s="153"/>
+      <c r="N236" s="153"/>
+      <c r="O236" s="153"/>
+      <c r="P236" s="153"/>
+      <c r="Q236" s="153"/>
+      <c r="R236" s="153"/>
+      <c r="S236" s="153"/>
+      <c r="T236" s="153"/>
+      <c r="U236" s="153"/>
     </row>
     <row r="237" spans="4:21">
-      <c r="D237" s="156"/>
-      <c r="E237" s="156"/>
-      <c r="F237" s="156"/>
-      <c r="G237" s="156"/>
-      <c r="H237" s="156"/>
-      <c r="I237" s="156"/>
-      <c r="J237" s="156"/>
-      <c r="K237" s="156"/>
-      <c r="L237" s="156"/>
-      <c r="M237" s="156"/>
-      <c r="N237" s="156"/>
-      <c r="O237" s="156"/>
-      <c r="P237" s="156"/>
-      <c r="Q237" s="156"/>
-      <c r="R237" s="156"/>
-      <c r="S237" s="156"/>
-      <c r="T237" s="156"/>
-      <c r="U237" s="156"/>
+      <c r="D237" s="153"/>
+      <c r="E237" s="153"/>
+      <c r="F237" s="153"/>
+      <c r="G237" s="153"/>
+      <c r="H237" s="153"/>
+      <c r="I237" s="153"/>
+      <c r="J237" s="153"/>
+      <c r="K237" s="153"/>
+      <c r="L237" s="153"/>
+      <c r="M237" s="153"/>
+      <c r="N237" s="153"/>
+      <c r="O237" s="153"/>
+      <c r="P237" s="153"/>
+      <c r="Q237" s="153"/>
+      <c r="R237" s="153"/>
+      <c r="S237" s="153"/>
+      <c r="T237" s="153"/>
+      <c r="U237" s="153"/>
     </row>
     <row r="238" spans="4:21">
-      <c r="D238" s="156"/>
-      <c r="E238" s="156"/>
-      <c r="F238" s="156"/>
-      <c r="G238" s="156"/>
-      <c r="H238" s="156"/>
-      <c r="I238" s="156"/>
-      <c r="J238" s="156"/>
-      <c r="K238" s="156"/>
-      <c r="L238" s="156"/>
-      <c r="M238" s="156"/>
-      <c r="N238" s="156"/>
-      <c r="O238" s="156"/>
-      <c r="P238" s="156"/>
-      <c r="Q238" s="156"/>
-      <c r="R238" s="156"/>
-      <c r="S238" s="156"/>
-      <c r="T238" s="156"/>
-      <c r="U238" s="156"/>
+      <c r="D238" s="153"/>
+      <c r="E238" s="153"/>
+      <c r="F238" s="153"/>
+      <c r="G238" s="153"/>
+      <c r="H238" s="153"/>
+      <c r="I238" s="153"/>
+      <c r="J238" s="153"/>
+      <c r="K238" s="153"/>
+      <c r="L238" s="153"/>
+      <c r="M238" s="153"/>
+      <c r="N238" s="153"/>
+      <c r="O238" s="153"/>
+      <c r="P238" s="153"/>
+      <c r="Q238" s="153"/>
+      <c r="R238" s="153"/>
+      <c r="S238" s="153"/>
+      <c r="T238" s="153"/>
+      <c r="U238" s="153"/>
     </row>
     <row r="239" spans="4:21">
-      <c r="D239" s="156"/>
-      <c r="E239" s="156"/>
-      <c r="F239" s="156"/>
-      <c r="G239" s="156"/>
-      <c r="H239" s="156"/>
-      <c r="I239" s="156"/>
-      <c r="J239" s="156"/>
-      <c r="K239" s="156"/>
-      <c r="L239" s="156"/>
-      <c r="M239" s="156"/>
-      <c r="N239" s="156"/>
-      <c r="O239" s="156"/>
-      <c r="P239" s="156"/>
-      <c r="Q239" s="156"/>
-      <c r="R239" s="156"/>
-      <c r="S239" s="156"/>
-      <c r="T239" s="156"/>
-      <c r="U239" s="156"/>
+      <c r="D239" s="153"/>
+      <c r="E239" s="153"/>
+      <c r="F239" s="153"/>
+      <c r="G239" s="153"/>
+      <c r="H239" s="153"/>
+      <c r="I239" s="153"/>
+      <c r="J239" s="153"/>
+      <c r="K239" s="153"/>
+      <c r="L239" s="153"/>
+      <c r="M239" s="153"/>
+      <c r="N239" s="153"/>
+      <c r="O239" s="153"/>
+      <c r="P239" s="153"/>
+      <c r="Q239" s="153"/>
+      <c r="R239" s="153"/>
+      <c r="S239" s="153"/>
+      <c r="T239" s="153"/>
+      <c r="U239" s="153"/>
     </row>
     <row r="240" spans="4:21">
-      <c r="D240" s="156"/>
-      <c r="E240" s="156"/>
-      <c r="F240" s="156"/>
-      <c r="G240" s="156"/>
-      <c r="H240" s="156"/>
-      <c r="I240" s="156"/>
-      <c r="J240" s="156"/>
-      <c r="K240" s="156"/>
-      <c r="L240" s="156"/>
-      <c r="M240" s="156"/>
-      <c r="N240" s="156"/>
-      <c r="O240" s="156"/>
-      <c r="P240" s="156"/>
-      <c r="Q240" s="156"/>
-      <c r="R240" s="156"/>
-      <c r="S240" s="156"/>
-      <c r="T240" s="156"/>
-      <c r="U240" s="156"/>
+      <c r="D240" s="153"/>
+      <c r="E240" s="153"/>
+      <c r="F240" s="153"/>
+      <c r="G240" s="153"/>
+      <c r="H240" s="153"/>
+      <c r="I240" s="153"/>
+      <c r="J240" s="153"/>
+      <c r="K240" s="153"/>
+      <c r="L240" s="153"/>
+      <c r="M240" s="153"/>
+      <c r="N240" s="153"/>
+      <c r="O240" s="153"/>
+      <c r="P240" s="153"/>
+      <c r="Q240" s="153"/>
+      <c r="R240" s="153"/>
+      <c r="S240" s="153"/>
+      <c r="T240" s="153"/>
+      <c r="U240" s="153"/>
     </row>
     <row r="241" spans="4:21">
-      <c r="D241" s="156"/>
-      <c r="E241" s="156"/>
-      <c r="F241" s="156"/>
-      <c r="G241" s="156"/>
-      <c r="H241" s="156"/>
-      <c r="I241" s="156"/>
-      <c r="J241" s="156"/>
-      <c r="K241" s="156"/>
-      <c r="L241" s="156"/>
-      <c r="M241" s="156"/>
-      <c r="N241" s="156"/>
-      <c r="O241" s="156"/>
-      <c r="P241" s="156"/>
-      <c r="Q241" s="156"/>
-      <c r="R241" s="156"/>
-      <c r="S241" s="156"/>
-      <c r="T241" s="156"/>
-      <c r="U241" s="156"/>
+      <c r="D241" s="153"/>
+      <c r="E241" s="153"/>
+      <c r="F241" s="153"/>
+      <c r="G241" s="153"/>
+      <c r="H241" s="153"/>
+      <c r="I241" s="153"/>
+      <c r="J241" s="153"/>
+      <c r="K241" s="153"/>
+      <c r="L241" s="153"/>
+      <c r="M241" s="153"/>
+      <c r="N241" s="153"/>
+      <c r="O241" s="153"/>
+      <c r="P241" s="153"/>
+      <c r="Q241" s="153"/>
+      <c r="R241" s="153"/>
+      <c r="S241" s="153"/>
+      <c r="T241" s="153"/>
+      <c r="U241" s="153"/>
     </row>
     <row r="242" spans="4:21">
-      <c r="D242" s="156"/>
-      <c r="E242" s="156"/>
-      <c r="F242" s="156"/>
-      <c r="G242" s="156"/>
-      <c r="H242" s="156"/>
-      <c r="I242" s="156"/>
-      <c r="J242" s="156"/>
-      <c r="K242" s="156"/>
-      <c r="L242" s="156"/>
-      <c r="M242" s="156"/>
-      <c r="N242" s="156"/>
-      <c r="O242" s="156"/>
-      <c r="P242" s="156"/>
-      <c r="Q242" s="156"/>
-      <c r="R242" s="156"/>
-      <c r="S242" s="156"/>
-      <c r="T242" s="156"/>
-      <c r="U242" s="156"/>
+      <c r="D242" s="153"/>
+      <c r="E242" s="153"/>
+      <c r="F242" s="153"/>
+      <c r="G242" s="153"/>
+      <c r="H242" s="153"/>
+      <c r="I242" s="153"/>
+      <c r="J242" s="153"/>
+      <c r="K242" s="153"/>
+      <c r="L242" s="153"/>
+      <c r="M242" s="153"/>
+      <c r="N242" s="153"/>
+      <c r="O242" s="153"/>
+      <c r="P242" s="153"/>
+      <c r="Q242" s="153"/>
+      <c r="R242" s="153"/>
+      <c r="S242" s="153"/>
+      <c r="T242" s="153"/>
+      <c r="U242" s="153"/>
     </row>
     <row r="243" spans="4:21">
-      <c r="D243" s="156"/>
-      <c r="E243" s="156"/>
-      <c r="F243" s="156"/>
-      <c r="G243" s="156"/>
-      <c r="H243" s="156"/>
-      <c r="I243" s="156"/>
-      <c r="J243" s="156"/>
-      <c r="K243" s="156"/>
-      <c r="L243" s="156"/>
-      <c r="M243" s="156"/>
-      <c r="N243" s="156"/>
-      <c r="O243" s="156"/>
-      <c r="P243" s="156"/>
-      <c r="Q243" s="156"/>
-      <c r="R243" s="156"/>
-      <c r="S243" s="156"/>
-      <c r="T243" s="156"/>
-      <c r="U243" s="156"/>
+      <c r="D243" s="153"/>
+      <c r="E243" s="153"/>
+      <c r="F243" s="153"/>
+      <c r="G243" s="153"/>
+      <c r="H243" s="153"/>
+      <c r="I243" s="153"/>
+      <c r="J243" s="153"/>
+      <c r="K243" s="153"/>
+      <c r="L243" s="153"/>
+      <c r="M243" s="153"/>
+      <c r="N243" s="153"/>
+      <c r="O243" s="153"/>
+      <c r="P243" s="153"/>
+      <c r="Q243" s="153"/>
+      <c r="R243" s="153"/>
+      <c r="S243" s="153"/>
+      <c r="T243" s="153"/>
+      <c r="U243" s="153"/>
     </row>
     <row r="244" spans="4:21">
-      <c r="D244" s="156"/>
-      <c r="E244" s="156"/>
-      <c r="F244" s="156"/>
-      <c r="G244" s="156"/>
-      <c r="H244" s="156"/>
-      <c r="I244" s="156"/>
-      <c r="J244" s="156"/>
-      <c r="K244" s="156"/>
-      <c r="L244" s="156"/>
-      <c r="M244" s="156"/>
-      <c r="N244" s="156"/>
-      <c r="O244" s="156"/>
-      <c r="P244" s="156"/>
-      <c r="Q244" s="156"/>
-      <c r="R244" s="156"/>
-      <c r="S244" s="156"/>
-      <c r="T244" s="156"/>
-      <c r="U244" s="156"/>
+      <c r="D244" s="153"/>
+      <c r="E244" s="153"/>
+      <c r="F244" s="153"/>
+      <c r="G244" s="153"/>
+      <c r="H244" s="153"/>
+      <c r="I244" s="153"/>
+      <c r="J244" s="153"/>
+      <c r="K244" s="153"/>
+      <c r="L244" s="153"/>
+      <c r="M244" s="153"/>
+      <c r="N244" s="153"/>
+      <c r="O244" s="153"/>
+      <c r="P244" s="153"/>
+      <c r="Q244" s="153"/>
+      <c r="R244" s="153"/>
+      <c r="S244" s="153"/>
+      <c r="T244" s="153"/>
+      <c r="U244" s="153"/>
     </row>
     <row r="245" spans="4:21">
-      <c r="D245" s="156"/>
-      <c r="E245" s="156"/>
-      <c r="F245" s="156"/>
-      <c r="G245" s="156"/>
-      <c r="H245" s="156"/>
-      <c r="I245" s="156"/>
-      <c r="J245" s="156"/>
-      <c r="K245" s="156"/>
-      <c r="L245" s="156"/>
-      <c r="M245" s="156"/>
-      <c r="N245" s="156"/>
-      <c r="O245" s="156"/>
-      <c r="P245" s="156"/>
-      <c r="Q245" s="156"/>
-      <c r="R245" s="156"/>
-      <c r="S245" s="156"/>
-      <c r="T245" s="156"/>
-      <c r="U245" s="156"/>
+      <c r="D245" s="153"/>
+      <c r="E245" s="153"/>
+      <c r="F245" s="153"/>
+      <c r="G245" s="153"/>
+      <c r="H245" s="153"/>
+      <c r="I245" s="153"/>
+      <c r="J245" s="153"/>
+      <c r="K245" s="153"/>
+      <c r="L245" s="153"/>
+      <c r="M245" s="153"/>
+      <c r="N245" s="153"/>
+      <c r="O245" s="153"/>
+      <c r="P245" s="153"/>
+      <c r="Q245" s="153"/>
+      <c r="R245" s="153"/>
+      <c r="S245" s="153"/>
+      <c r="T245" s="153"/>
+      <c r="U245" s="153"/>
     </row>
     <row r="246" spans="4:21">
-      <c r="D246" s="156"/>
-      <c r="E246" s="156"/>
-      <c r="F246" s="156"/>
-      <c r="G246" s="156"/>
-      <c r="H246" s="156"/>
-      <c r="I246" s="156"/>
-      <c r="J246" s="156"/>
-      <c r="K246" s="156"/>
-      <c r="L246" s="156"/>
-      <c r="M246" s="156"/>
-      <c r="N246" s="156"/>
-      <c r="O246" s="156"/>
-      <c r="P246" s="156"/>
-      <c r="Q246" s="156"/>
-      <c r="R246" s="156"/>
-      <c r="S246" s="156"/>
-      <c r="T246" s="156"/>
-      <c r="U246" s="156"/>
+      <c r="D246" s="153"/>
+      <c r="E246" s="153"/>
+      <c r="F246" s="153"/>
+      <c r="G246" s="153"/>
+      <c r="H246" s="153"/>
+      <c r="I246" s="153"/>
+      <c r="J246" s="153"/>
+      <c r="K246" s="153"/>
+      <c r="L246" s="153"/>
+      <c r="M246" s="153"/>
+      <c r="N246" s="153"/>
+      <c r="O246" s="153"/>
+      <c r="P246" s="153"/>
+      <c r="Q246" s="153"/>
+      <c r="R246" s="153"/>
+      <c r="S246" s="153"/>
+      <c r="T246" s="153"/>
+      <c r="U246" s="153"/>
     </row>
     <row r="247" spans="4:21">
-      <c r="D247" s="156"/>
-      <c r="E247" s="156"/>
-      <c r="F247" s="156"/>
-      <c r="G247" s="156"/>
-      <c r="H247" s="156"/>
-      <c r="I247" s="156"/>
-      <c r="J247" s="156"/>
-      <c r="K247" s="156"/>
-      <c r="L247" s="156"/>
-      <c r="M247" s="156"/>
-      <c r="N247" s="156"/>
-      <c r="O247" s="156"/>
-      <c r="P247" s="156"/>
-      <c r="Q247" s="156"/>
-      <c r="R247" s="156"/>
-      <c r="S247" s="156"/>
-      <c r="T247" s="156"/>
-      <c r="U247" s="156"/>
+      <c r="D247" s="153"/>
+      <c r="E247" s="153"/>
+      <c r="F247" s="153"/>
+      <c r="G247" s="153"/>
+      <c r="H247" s="153"/>
+      <c r="I247" s="153"/>
+      <c r="J247" s="153"/>
+      <c r="K247" s="153"/>
+      <c r="L247" s="153"/>
+      <c r="M247" s="153"/>
+      <c r="N247" s="153"/>
+      <c r="O247" s="153"/>
+      <c r="P247" s="153"/>
+      <c r="Q247" s="153"/>
+      <c r="R247" s="153"/>
+      <c r="S247" s="153"/>
+      <c r="T247" s="153"/>
+      <c r="U247" s="153"/>
     </row>
     <row r="248" spans="4:21">
-      <c r="D248" s="156"/>
-      <c r="E248" s="156"/>
-      <c r="F248" s="156"/>
-      <c r="G248" s="156"/>
-      <c r="H248" s="156"/>
-      <c r="I248" s="156"/>
-      <c r="J248" s="156"/>
-      <c r="K248" s="156"/>
-      <c r="L248" s="156"/>
-      <c r="M248" s="156"/>
-      <c r="N248" s="156"/>
-      <c r="O248" s="156"/>
-      <c r="P248" s="156"/>
-      <c r="Q248" s="156"/>
-      <c r="R248" s="156"/>
-      <c r="S248" s="156"/>
-      <c r="T248" s="156"/>
-      <c r="U248" s="156"/>
+      <c r="D248" s="153"/>
+      <c r="E248" s="153"/>
+      <c r="F248" s="153"/>
+      <c r="G248" s="153"/>
+      <c r="H248" s="153"/>
+      <c r="I248" s="153"/>
+      <c r="J248" s="153"/>
+      <c r="K248" s="153"/>
+      <c r="L248" s="153"/>
+      <c r="M248" s="153"/>
+      <c r="N248" s="153"/>
+      <c r="O248" s="153"/>
+      <c r="P248" s="153"/>
+      <c r="Q248" s="153"/>
+      <c r="R248" s="153"/>
+      <c r="S248" s="153"/>
+      <c r="T248" s="153"/>
+      <c r="U248" s="153"/>
     </row>
     <row r="249" spans="4:21">
-      <c r="D249" s="156"/>
-      <c r="E249" s="156"/>
-      <c r="F249" s="156"/>
-      <c r="G249" s="156"/>
-      <c r="H249" s="156"/>
-      <c r="I249" s="156"/>
-      <c r="J249" s="156"/>
-      <c r="K249" s="156"/>
-      <c r="L249" s="156"/>
-      <c r="M249" s="156"/>
-      <c r="N249" s="156"/>
-      <c r="O249" s="156"/>
-      <c r="P249" s="156"/>
-      <c r="Q249" s="156"/>
-      <c r="R249" s="156"/>
-      <c r="S249" s="156"/>
-      <c r="T249" s="156"/>
-      <c r="U249" s="156"/>
+      <c r="D249" s="153"/>
+      <c r="E249" s="153"/>
+      <c r="F249" s="153"/>
+      <c r="G249" s="153"/>
+      <c r="H249" s="153"/>
+      <c r="I249" s="153"/>
+      <c r="J249" s="153"/>
+      <c r="K249" s="153"/>
+      <c r="L249" s="153"/>
+      <c r="M249" s="153"/>
+      <c r="N249" s="153"/>
+      <c r="O249" s="153"/>
+      <c r="P249" s="153"/>
+      <c r="Q249" s="153"/>
+      <c r="R249" s="153"/>
+      <c r="S249" s="153"/>
+      <c r="T249" s="153"/>
+      <c r="U249" s="153"/>
     </row>
     <row r="250" spans="4:21">
-      <c r="D250" s="156"/>
-      <c r="E250" s="156"/>
-      <c r="F250" s="156"/>
-      <c r="G250" s="156"/>
-      <c r="H250" s="156"/>
-      <c r="I250" s="156"/>
-      <c r="J250" s="156"/>
-      <c r="K250" s="156"/>
-      <c r="L250" s="156"/>
-      <c r="M250" s="156"/>
-      <c r="N250" s="156"/>
-      <c r="O250" s="156"/>
-      <c r="P250" s="156"/>
-      <c r="Q250" s="156"/>
-      <c r="R250" s="156"/>
-      <c r="S250" s="156"/>
-      <c r="T250" s="156"/>
-      <c r="U250" s="156"/>
+      <c r="D250" s="153"/>
+      <c r="E250" s="153"/>
+      <c r="F250" s="153"/>
+      <c r="G250" s="153"/>
+      <c r="H250" s="153"/>
+      <c r="I250" s="153"/>
+      <c r="J250" s="153"/>
+      <c r="K250" s="153"/>
+      <c r="L250" s="153"/>
+      <c r="M250" s="153"/>
+      <c r="N250" s="153"/>
+      <c r="O250" s="153"/>
+      <c r="P250" s="153"/>
+      <c r="Q250" s="153"/>
+      <c r="R250" s="153"/>
+      <c r="S250" s="153"/>
+      <c r="T250" s="153"/>
+      <c r="U250" s="153"/>
     </row>
     <row r="251" spans="4:21">
-      <c r="D251" s="156"/>
-      <c r="E251" s="156"/>
-      <c r="F251" s="156"/>
-      <c r="G251" s="156"/>
-      <c r="H251" s="156"/>
-      <c r="I251" s="156"/>
-      <c r="J251" s="156"/>
-      <c r="K251" s="156"/>
-      <c r="L251" s="156"/>
-      <c r="M251" s="156"/>
-      <c r="N251" s="156"/>
-      <c r="O251" s="156"/>
-      <c r="P251" s="156"/>
-      <c r="Q251" s="156"/>
-      <c r="R251" s="156"/>
-      <c r="S251" s="156"/>
-      <c r="T251" s="156"/>
-      <c r="U251" s="156"/>
+      <c r="D251" s="153"/>
+      <c r="E251" s="153"/>
+      <c r="F251" s="153"/>
+      <c r="G251" s="153"/>
+      <c r="H251" s="153"/>
+      <c r="I251" s="153"/>
+      <c r="J251" s="153"/>
+      <c r="K251" s="153"/>
+      <c r="L251" s="153"/>
+      <c r="M251" s="153"/>
+      <c r="N251" s="153"/>
+      <c r="O251" s="153"/>
+      <c r="P251" s="153"/>
+      <c r="Q251" s="153"/>
+      <c r="R251" s="153"/>
+      <c r="S251" s="153"/>
+      <c r="T251" s="153"/>
+      <c r="U251" s="153"/>
     </row>
     <row r="254" spans="4:21">
       <c r="D254" s="48" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="256" spans="4:21">
       <c r="D256" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="257" spans="4:4">
       <c r="D257" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="258" spans="4:4">
       <c r="D258" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="259" spans="4:4">
       <c r="D259" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="260" spans="4:4">
       <c r="D260" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="261" spans="4:4">
       <c r="D261" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="262" spans="4:4">
       <c r="D262" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="263" spans="4:4">
       <c r="D263" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="264" spans="4:4">
       <c r="D264" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D168:U251"/>
-    <mergeCell ref="D167:U167"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:B31"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="B19:B23"/>
@@ -9786,6 +9860,11 @@
     <mergeCell ref="D100:U164"/>
     <mergeCell ref="D99:U99"/>
     <mergeCell ref="D35:T35"/>
+    <mergeCell ref="D168:U251"/>
+    <mergeCell ref="D167:U167"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9822,7 +9901,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="D1" s="54" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
@@ -9830,46 +9909,46 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="D3" s="56" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="F5" s="158" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G5" s="158"/>
       <c r="H5" s="159"/>
       <c r="I5" s="99" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="57" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I6" s="100"/>
       <c r="J6" s="101"/>
@@ -9879,25 +9958,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C7" s="63">
         <v>1</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H7" s="98" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
@@ -9907,25 +9986,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C8" s="75">
         <v>1</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
@@ -9937,19 +10016,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I9" s="101"/>
       <c r="J9" s="101"/>
@@ -9961,19 +10040,19 @@
         <v>3</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F10" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="68" t="s">
-        <v>254</v>
-      </c>
       <c r="H10" s="69" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
@@ -9985,13 +10064,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G11" s="68"/>
       <c r="H11" s="69"/>
@@ -10005,10 +10084,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
@@ -10023,10 +10102,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
@@ -10041,10 +10120,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
@@ -10059,10 +10138,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="68"/>
@@ -10077,10 +10156,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
@@ -10095,10 +10174,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
@@ -10113,10 +10192,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10131,10 +10210,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
@@ -10149,10 +10228,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
@@ -10167,10 +10246,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
@@ -10183,25 +10262,25 @@
         <v>3</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C22" s="72">
         <v>1</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I22" s="101"/>
       <c r="J22" s="101"/>
@@ -10213,25 +10292,25 @@
         <v>2</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I23" s="101" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J23" s="101" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10241,25 +10320,25 @@
         <v>3</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I24" s="101" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10269,25 +10348,25 @@
         <v>4</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J25" s="101" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10297,25 +10376,25 @@
         <v>5</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="J26" s="101" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10325,25 +10404,25 @@
         <v>6</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="J27" s="101" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10353,25 +10432,25 @@
         <v>7</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10381,25 +10460,25 @@
         <v>8</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E29" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="F29" s="68" t="s">
-        <v>301</v>
-      </c>
       <c r="G29" s="68" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H29" s="85" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="I29" s="102" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J29" s="102" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10409,25 +10488,25 @@
         <v>9</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I30" s="101" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="J30" s="102" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10437,25 +10516,25 @@
         <v>10</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J31" s="102" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10465,25 +10544,25 @@
         <v>11</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="I32" s="101" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J32" s="101" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10491,25 +10570,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C33" s="75">
         <v>1</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -10521,19 +10600,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
@@ -10545,19 +10624,19 @@
         <v>3</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="I35" s="101"/>
       <c r="J35" s="101"/>
@@ -10569,19 +10648,19 @@
         <v>4</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G36" s="68" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
@@ -10593,19 +10672,19 @@
         <v>5</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -10617,10 +10696,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68"/>
@@ -10635,10 +10714,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
@@ -10653,10 +10732,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F40" s="68"/>
       <c r="G40" s="68"/>
@@ -10671,10 +10750,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
@@ -10689,10 +10768,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F42" s="68"/>
       <c r="G42" s="68"/>
@@ -10707,10 +10786,10 @@
         <v>10</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
@@ -10725,10 +10804,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F44" s="68"/>
       <c r="G44" s="68"/>
@@ -10743,10 +10822,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
@@ -10761,10 +10840,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
@@ -10774,17 +10853,17 @@
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="90" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="90" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="90" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -11074,7 +11153,7 @@
     </row>
     <row r="173" spans="4:6">
       <c r="D173" s="90" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="176" spans="4:6">
@@ -11309,76 +11388,76 @@
     </row>
     <row r="228" spans="4:7">
       <c r="D228" s="89" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E228" s="89" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="229" spans="4:7">
       <c r="D229" s="53" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E229" s="53" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="230" spans="4:7">
       <c r="D230" s="53" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="231" spans="4:7">
       <c r="D231" s="53" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="232" spans="4:7">
       <c r="D232" s="53" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="233" spans="4:7">
       <c r="D233" s="85" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="234" spans="4:7">
       <c r="D234" s="53" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="4:7">
       <c r="F237" s="88" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="239" spans="4:7">
       <c r="D239" s="86" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E239" s="87" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F239" s="87" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G239" s="87" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="241" spans="4:7">
       <c r="D241" s="53" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E241" s="53" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F241" s="53" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G241" s="53" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -11421,22 +11500,22 @@
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>39</v>
@@ -11447,156 +11526,156 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E6" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F6" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E8" s="109"/>
       <c r="F8" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F9" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D10" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E10" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F10" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
       <c r="C11" s="96" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E12" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F12" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D14" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E14" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F14" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D15" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E15" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F15" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D16" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E16" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F16" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75">
@@ -11604,7 +11683,7 @@
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
@@ -11630,7 +11709,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
       <c r="D21" s="56" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
@@ -11658,41 +11737,41 @@
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="158" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G23" s="158"/>
       <c r="H23" s="159"/>
       <c r="I23" s="99" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J23" s="99" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="57" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E24" s="108" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I24" s="100"/>
       <c r="J24" s="101"/>
@@ -11702,28 +11781,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C25" s="104">
         <v>1</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H25" s="98" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="J25" s="101"/>
     </row>
@@ -11732,31 +11811,31 @@
         <v>2</v>
       </c>
       <c r="B26" s="160" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C26" s="78">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H26" s="98" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="J26" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -11766,25 +11845,25 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F27" s="106" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="J27" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -11794,25 +11873,25 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F28" s="106" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="68" t="s">
         <v>260</v>
       </c>
-      <c r="G28" s="68" t="s">
-        <v>254</v>
-      </c>
       <c r="H28" s="69" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J28" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -11822,25 +11901,25 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F29" s="106" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="J29" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -11850,25 +11929,25 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F30" s="106" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="J30" s="101" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30.75">
@@ -11878,25 +11957,25 @@
         <v>6</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F31" s="106" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H31" s="95" t="s">
+        <v>446</v>
+      </c>
+      <c r="I31" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="I31" s="38" t="s">
-        <v>434</v>
-      </c>
       <c r="J31" s="96" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -11906,25 +11985,25 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F32" s="106" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J32" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -11934,25 +12013,25 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F33" s="106" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="J33" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -11962,19 +12041,19 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F34" s="106"/>
       <c r="G34" s="68"/>
       <c r="H34" s="69"/>
       <c r="I34" s="38" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J34" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -11984,19 +12063,19 @@
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F35" s="106"/>
       <c r="G35" s="68"/>
       <c r="H35" s="69"/>
       <c r="I35" s="38" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J35" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -12006,19 +12085,19 @@
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F36" s="106"/>
       <c r="G36" s="68"/>
       <c r="H36" s="69"/>
       <c r="I36" s="38" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J36" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -12026,25 +12105,25 @@
         <v>3</v>
       </c>
       <c r="B37" s="165" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C37" s="72">
         <v>1</v>
       </c>
       <c r="D37" s="73" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -12056,25 +12135,25 @@
         <v>2</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H38" s="69" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I38" s="101" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J38" s="101" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -12084,25 +12163,25 @@
         <v>3</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I39" s="101" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="J39" s="101" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -12112,25 +12191,25 @@
         <v>4</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="I40" s="101" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J40" s="101" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -12140,25 +12219,25 @@
         <v>5</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="I41" s="101" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="J41" s="101" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -12168,25 +12247,25 @@
         <v>6</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I42" s="101" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12196,25 +12275,25 @@
         <v>7</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I43" s="101" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="J43" s="102" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -12224,25 +12303,25 @@
         <v>8</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E44" s="71" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="F44" s="68" t="s">
-        <v>301</v>
-      </c>
       <c r="G44" s="68" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H44" s="85" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="I44" s="102" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J44" s="102" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -12252,25 +12331,25 @@
         <v>9</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H45" s="69" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I45" s="101" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="J45" s="102" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -12280,25 +12359,25 @@
         <v>10</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G46" s="68" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I46" s="101" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J46" s="102" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -12308,25 +12387,25 @@
         <v>11</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="I47" s="101" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="J47" s="101" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -12334,25 +12413,25 @@
         <v>4</v>
       </c>
       <c r="B48" s="163" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C48" s="75">
         <v>1</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="I48" s="101"/>
       <c r="J48" s="101"/>
@@ -12364,19 +12443,19 @@
         <v>2</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="I49" s="101"/>
       <c r="J49" s="101"/>
@@ -12388,19 +12467,19 @@
         <v>3</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E50" s="82" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="I50" s="101"/>
       <c r="J50" s="101"/>
@@ -12412,19 +12491,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E51" s="84" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="I51" s="101"/>
       <c r="J51" s="101"/>
@@ -12436,19 +12515,19 @@
         <v>5</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F52" s="68" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="I52" s="101"/>
       <c r="J52" s="101"/>
@@ -12460,10 +12539,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F53" s="68"/>
       <c r="G53" s="68"/>
@@ -12478,10 +12557,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E54" s="71" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
@@ -12496,10 +12575,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F55" s="68"/>
       <c r="G55" s="68"/>
@@ -12514,10 +12593,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
@@ -12532,10 +12611,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F57" s="68"/>
       <c r="G57" s="68"/>
@@ -12550,10 +12629,10 @@
         <v>10</v>
       </c>
       <c r="D58" s="70" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F58" s="68"/>
       <c r="G58" s="68"/>
@@ -12568,10 +12647,10 @@
         <v>11</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
@@ -12586,10 +12665,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E60" s="71" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F60" s="68"/>
       <c r="G60" s="68"/>
@@ -12604,10 +12683,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="70" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F61" s="68"/>
       <c r="G61" s="68"/>
@@ -12656,7 +12735,7 @@
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="54" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
@@ -12682,7 +12761,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="56" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -12715,28 +12794,28 @@
     </row>
     <row r="10" spans="2:11" ht="15.75">
       <c r="B10" s="118" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E10" s="129" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75">
@@ -12744,22 +12823,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H11" s="105" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="I11" s="122"/>
     </row>
@@ -12768,22 +12847,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="160" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D12" s="132">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H12" s="120" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="I12" s="123"/>
     </row>
@@ -12794,19 +12873,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="H13" s="120" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -12816,19 +12895,19 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H14" s="120" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -12838,19 +12917,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H15" s="120" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -12860,19 +12939,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -12882,19 +12961,19 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G17" s="101" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H17" s="127" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="I17" s="103" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -12904,19 +12983,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H18" s="120" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -12926,17 +13005,17 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G19" s="124"/>
       <c r="H19" s="127" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -12946,17 +13025,17 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="127" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -12966,17 +13045,17 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G21" s="101"/>
       <c r="H21" s="127" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -12984,25 +13063,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="160" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D22" s="132">
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="H22" s="127" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -13012,13 +13091,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H23" s="128"/>
       <c r="I23" s="122"/>
@@ -13030,13 +13109,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="H24" s="128"/>
       <c r="I24" s="122"/>
@@ -13048,19 +13127,19 @@
         <v>3</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H25" s="120" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -13070,19 +13149,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="H26" s="120" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -13092,19 +13171,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G27" s="102" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="H27" s="120" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -13114,19 +13193,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="H28" s="120" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -13136,19 +13215,19 @@
         <v>7</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F29" s="70" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G29" s="102" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="H29" s="120" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I29" s="101" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -13158,19 +13237,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F30" s="70" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="H30" s="120" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="I30" s="102" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -13180,19 +13259,19 @@
         <v>9</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F31" s="70" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="I31" s="102" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -13202,19 +13281,19 @@
         <v>10</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="F32" s="70" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H32" s="120" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I32" s="102" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -13224,19 +13303,19 @@
         <v>11</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G33" s="102" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="H33" s="120" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I33" s="102" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -13244,25 +13323,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="160" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D34" s="132">
         <v>1</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="H34" s="120" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="I34" s="101" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -13273,13 +13352,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H35" s="120"/>
       <c r="I35" s="101"/>
@@ -13291,13 +13370,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G36" s="102" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="H36" s="120"/>
       <c r="I36" s="101"/>
@@ -13310,13 +13389,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="81" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F37" s="81" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G37" s="102" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="H37" s="120"/>
       <c r="I37" s="101"/>
@@ -13329,13 +13408,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G38" s="102" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H38" s="120"/>
       <c r="I38" s="101"/>
@@ -13348,13 +13427,13 @@
         <v>6</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F39" s="81" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G39" s="102" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="H39" s="120"/>
       <c r="I39" s="101"/>
@@ -13367,13 +13446,13 @@
         <v>7</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G40" s="102" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="H40" s="120"/>
       <c r="I40" s="101"/>
@@ -13386,13 +13465,13 @@
         <v>8</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="H41" s="120"/>
       <c r="I41" s="101"/>
@@ -13405,13 +13484,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="101"/>
@@ -13424,13 +13503,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="102" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="101"/>
@@ -13443,16 +13522,16 @@
         <v>11</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="H44" s="106" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="I44" s="101"/>
     </row>
@@ -13464,16 +13543,16 @@
         <v>12</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="H45" s="106" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="I45" s="101"/>
     </row>
@@ -13485,14 +13564,14 @@
         <v>13</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="106" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I46" s="101"/>
     </row>
@@ -13504,10 +13583,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="G47" s="68"/>
       <c r="H47" s="120"/>
@@ -13521,10 +13600,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G48" s="68"/>
       <c r="H48" s="120"/>
@@ -13538,10 +13617,10 @@
         <v>16</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G49" s="68"/>
       <c r="H49" s="120"/>
@@ -13555,10 +13634,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="G50" s="68"/>
       <c r="H50" s="120"/>
@@ -13572,10 +13651,10 @@
         <v>18</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G51" s="68"/>
       <c r="H51" s="120"/>
@@ -13589,10 +13668,10 @@
         <v>19</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G52" s="68"/>
       <c r="H52" s="120"/>
@@ -13606,10 +13685,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="120"/>
@@ -13623,10 +13702,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="G54" s="68"/>
       <c r="H54" s="120"/>
@@ -13640,10 +13719,10 @@
         <v>22</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G55" s="68"/>
       <c r="H55" s="120"/>
@@ -13684,7 +13763,7 @@
     <row r="2" spans="1:8" ht="18.75">
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -13694,33 +13773,33 @@
     <row r="4" spans="1:8" ht="15.75">
       <c r="C4" s="53"/>
       <c r="D4" s="56" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="118" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -13728,25 +13807,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C6" s="63">
         <v>1</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E6" s="134" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H6" s="122" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13754,25 +13833,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C7" s="132">
         <v>2</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G7" s="120" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -13782,19 +13861,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G8" s="120" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13804,19 +13883,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="G9" s="120" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -13826,19 +13905,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G10" s="120" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13848,19 +13927,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G11" s="126" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -13870,19 +13949,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -13892,19 +13971,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="G13" s="120" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -13914,19 +13993,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E14" s="101" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -13936,19 +14015,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E15" s="101" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -13958,19 +14037,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -13978,22 +14057,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="160" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C17" s="132">
         <v>1</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -14004,16 +14083,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G18" s="135" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H18" s="101"/>
     </row>
@@ -14024,16 +14103,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G19" s="128" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="H19" s="122"/>
     </row>
@@ -14044,19 +14123,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G20" s="120" t="s">
+        <v>283</v>
+      </c>
+      <c r="H20" s="101" t="s">
         <v>277</v>
-      </c>
-      <c r="H20" s="101" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14066,19 +14145,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="G21" s="120" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21" s="101" t="s">
         <v>284</v>
-      </c>
-      <c r="H21" s="101" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14088,19 +14167,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F22" s="102" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G22" s="120" t="s">
+        <v>297</v>
+      </c>
+      <c r="H22" s="101" t="s">
         <v>291</v>
-      </c>
-      <c r="H22" s="101" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14110,19 +14189,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G23" s="120" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H23" s="101" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14132,19 +14211,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G24" s="120" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" s="101" t="s">
         <v>304</v>
-      </c>
-      <c r="H24" s="101" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14154,19 +14233,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G25" s="133" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H25" s="102" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14176,19 +14255,19 @@
         <v>9</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G26" s="120" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14198,19 +14277,19 @@
         <v>10</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G27" s="120" t="s">
+        <v>329</v>
+      </c>
+      <c r="H27" s="102" t="s">
         <v>323</v>
-      </c>
-      <c r="H27" s="102" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14220,19 +14299,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G28" s="120" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" s="102" t="s">
         <v>330</v>
-      </c>
-      <c r="H28" s="102" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14240,25 +14319,25 @@
         <v>4</v>
       </c>
       <c r="B29" s="160" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C29" s="132">
         <v>1</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G29" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H29" s="101" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14269,16 +14348,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="G30" s="120" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H30" s="101"/>
     </row>
@@ -14289,16 +14368,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H31" s="101"/>
     </row>
@@ -14310,16 +14389,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="G32" s="120" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="H32" s="101"/>
     </row>
@@ -14331,16 +14410,16 @@
         <v>5</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="G33" s="120" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H33" s="101"/>
     </row>
@@ -14352,16 +14431,16 @@
         <v>6</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F34" s="102" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H34" s="101"/>
     </row>
@@ -14373,16 +14452,16 @@
         <v>7</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E35" s="81" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F35" s="102" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H35" s="101"/>
     </row>
@@ -14394,16 +14473,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H36" s="101"/>
     </row>
@@ -14415,16 +14494,16 @@
         <v>9</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="G37" s="120" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H37" s="101"/>
     </row>
@@ -14436,16 +14515,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G38" s="120" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H38" s="101"/>
     </row>
@@ -14457,16 +14536,16 @@
         <v>11</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G39" s="106" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H39" s="101"/>
     </row>
@@ -14478,16 +14557,16 @@
         <v>12</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G40" s="106" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="H40" s="101"/>
     </row>
@@ -14499,16 +14578,16 @@
         <v>13</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="G41" s="106" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H41" s="101"/>
     </row>
@@ -14520,16 +14599,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G42" s="120" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H42" s="101"/>
     </row>
@@ -14541,16 +14620,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G43" s="120" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H43" s="101"/>
     </row>
@@ -14562,16 +14641,16 @@
         <v>16</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G44" s="120" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H44" s="101"/>
     </row>
@@ -14583,16 +14662,16 @@
         <v>17</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G45" s="120" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="H45" s="101"/>
     </row>
@@ -14604,16 +14683,16 @@
         <v>18</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="G46" s="120" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H46" s="101"/>
     </row>
@@ -14625,16 +14704,16 @@
         <v>19</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="G47" s="120" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="H47" s="101"/>
     </row>
@@ -14646,16 +14725,16 @@
         <v>20</v>
       </c>
       <c r="D48" s="70" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G48" s="120" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H48" s="101"/>
     </row>
@@ -14667,16 +14746,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="70" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="G49" s="120" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="H49" s="101"/>
     </row>
@@ -14688,16 +14767,16 @@
         <v>22</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="G50" s="120" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="H50" s="101"/>
     </row>

--- a/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
+++ b/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1925CC58-D79D-4A4C-9B92-0FD851138DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{442C108F-2B5B-4844-AD51-F03AD831FB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="572">
   <si>
     <t>MOM</t>
   </si>
@@ -383,6 +383,30 @@
   </si>
   <si>
     <t>Identify services</t>
+  </si>
+  <si>
+    <t>DAY 11</t>
+  </si>
+  <si>
+    <t>Proper Naming Conventions for methods</t>
+  </si>
+  <si>
+    <t>Avoid Multiple methods</t>
+  </si>
+  <si>
+    <t>For Soft Delete use Active flag.</t>
+  </si>
+  <si>
+    <t>Edit Pools(Pass Pool Object along with pool Id),</t>
+  </si>
+  <si>
+    <t>Add MemberstoPool(Add Pool Id  along with Employee Id)</t>
+  </si>
+  <si>
+    <t>Add Logout</t>
+  </si>
+  <si>
+    <t>NFR should be Objective.</t>
   </si>
   <si>
     <t xml:space="preserve"> TEAM ALPHA</t>
@@ -2129,7 +2153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2497,16 +2521,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2538,10 +2562,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3333,10 +3353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46290B07-6E6D-4B19-9A9B-C3E38C6518F8}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4186,8 +4206,76 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="168"/>
-      <c r="B123" s="167"/>
+      <c r="A123" s="4"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="6">
+        <v>1</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="6">
+        <v>2</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="6">
+        <v>3</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="6">
+        <v>4</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="6">
+        <v>5</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="25">
+        <v>6</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="6">
+        <v>7</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4212,7 +4300,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="G1" s="142" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
@@ -4222,14 +4310,14 @@
     </row>
     <row r="3" spans="1:14">
       <c r="G3" s="143" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H3" s="143"/>
       <c r="I3" s="143"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="F5" s="138" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
@@ -4239,11 +4327,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="27" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="137" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D8" s="137"/>
       <c r="E8" s="137"/>
@@ -4259,11 +4347,11 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="27" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="28" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="28"/>
@@ -4279,7 +4367,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="C12" s="139" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="140"/>
@@ -4295,7 +4383,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="C13" s="137" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
@@ -4342,7 +4430,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
       <c r="E1" s="10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.75">
@@ -4350,7 +4438,7 @@
     </row>
     <row r="3" spans="2:6" ht="15.75">
       <c r="E3" s="12" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -4358,19 +4446,19 @@
     </row>
     <row r="5" spans="2:6" ht="15.75">
       <c r="B5" s="13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4378,16 +4466,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -4397,10 +4485,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -4410,10 +4498,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -4423,10 +4511,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -4436,10 +4524,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -4449,10 +4537,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -4462,10 +4550,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -4475,10 +4563,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -4486,16 +4574,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="146" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D14" s="25">
         <v>9</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -4505,10 +4593,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -4518,10 +4606,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4531,10 +4619,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4544,10 +4632,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -4555,16 +4643,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D19" s="25">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -4574,10 +4662,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4587,10 +4675,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4600,10 +4688,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -4676,20 +4764,20 @@
   <sheetData>
     <row r="1" spans="3:16" ht="18.75">
       <c r="C1" s="21" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="3:16">
       <c r="C3" s="22" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="3:16" ht="17.25">
       <c r="C5" s="20" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H5" s="143" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="I5" s="143"/>
       <c r="J5" s="143"/>
@@ -4700,10 +4788,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="3:16">
@@ -4712,10 +4800,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="144" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -4725,7 +4813,7 @@
       </c>
       <c r="I9" s="145"/>
       <c r="J9" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="17.25">
@@ -4735,10 +4823,10 @@
       </c>
       <c r="I10" s="145"/>
       <c r="J10" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="3:16">
@@ -4748,7 +4836,7 @@
       </c>
       <c r="I11" s="145"/>
       <c r="J11" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="3:16">
@@ -4758,7 +4846,7 @@
       </c>
       <c r="I12" s="145"/>
       <c r="J12" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -4768,7 +4856,7 @@
       </c>
       <c r="I13" s="145"/>
       <c r="J13" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="3:16">
@@ -4778,7 +4866,7 @@
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -4788,7 +4876,7 @@
       </c>
       <c r="I15" s="145"/>
       <c r="J15" s="19" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="3:16">
@@ -4798,7 +4886,7 @@
       </c>
       <c r="I16" s="149"/>
       <c r="J16" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -4812,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="151" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -4825,7 +4913,7 @@
       </c>
       <c r="I19" s="151"/>
       <c r="J19" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -4835,7 +4923,7 @@
       </c>
       <c r="I20" s="151"/>
       <c r="J20" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -4845,7 +4933,7 @@
       </c>
       <c r="I21" s="151"/>
       <c r="J21" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="3:10">
@@ -4855,7 +4943,7 @@
       </c>
       <c r="I22" s="151"/>
       <c r="J22" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -4865,7 +4953,7 @@
       </c>
       <c r="I23" s="151"/>
       <c r="J23" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -4875,7 +4963,7 @@
       </c>
       <c r="I24" s="151"/>
       <c r="J24" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="3:10">
@@ -4888,10 +4976,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="151" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="3:10">
@@ -4901,7 +4989,7 @@
       </c>
       <c r="I27" s="151"/>
       <c r="J27" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="3:10">
@@ -4911,7 +4999,7 @@
       </c>
       <c r="I28" s="151"/>
       <c r="J28" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="3:10">
@@ -4921,7 +5009,7 @@
       </c>
       <c r="I29" s="151"/>
       <c r="J29" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -4931,7 +5019,7 @@
       </c>
       <c r="I30" s="151"/>
       <c r="J30" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="3:10">
@@ -4941,7 +5029,7 @@
       </c>
       <c r="I31" s="151"/>
       <c r="J31" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="3:10">
@@ -4951,7 +5039,7 @@
       </c>
       <c r="I32" s="151"/>
       <c r="J32" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="3:10">
@@ -4960,12 +5048,12 @@
       </c>
       <c r="I33" s="151"/>
       <c r="J33" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="17.25">
       <c r="C34" s="23" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="3:10">
@@ -5076,12 +5164,12 @@
     </row>
     <row r="72" spans="3:4" ht="17.25">
       <c r="C72" s="23" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="150" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="3:4">
@@ -5099,7 +5187,7 @@
     <row r="79" spans="3:4" ht="17.25">
       <c r="C79" s="150"/>
       <c r="D79" s="17" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="3:4">
@@ -5220,7 +5308,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="D1" s="10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -5228,24 +5316,24 @@
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="D3" s="12" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="13" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5253,16 +5341,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="151" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5272,10 +5360,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5285,10 +5373,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5298,10 +5386,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5311,10 +5399,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5324,10 +5412,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5337,10 +5425,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5350,10 +5438,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5363,10 +5451,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5376,10 +5464,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5389,10 +5477,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5402,10 +5490,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5415,10 +5503,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5426,16 +5514,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="149" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C19" s="51">
         <v>14</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5445,10 +5533,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5458,10 +5546,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5471,10 +5559,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5484,10 +5572,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5495,16 +5583,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C24" s="50">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5514,10 +5602,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5527,10 +5615,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5540,10 +5628,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5553,10 +5641,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5566,10 +5654,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5579,10 +5667,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5592,10 +5680,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5614,44 +5702,44 @@
       <c r="E34" s="47"/>
     </row>
     <row r="35" spans="3:20">
-      <c r="D35" s="156" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="156"/>
-      <c r="Q35" s="156"/>
-      <c r="R35" s="156"/>
-      <c r="S35" s="156"/>
-      <c r="T35" s="156"/>
+      <c r="D35" s="155" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="155"/>
+      <c r="Q35" s="155"/>
+      <c r="R35" s="155"/>
+      <c r="S35" s="155"/>
+      <c r="T35" s="155"/>
     </row>
     <row r="36" spans="3:20">
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="155"/>
-      <c r="R36" s="155"/>
-      <c r="S36" s="155"/>
-      <c r="T36" s="155"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="153"/>
     </row>
     <row r="37" spans="3:20">
       <c r="D37" s="152"/>
@@ -6779,7 +6867,7 @@
     </row>
     <row r="99" spans="4:21">
       <c r="D99" s="154" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E99" s="154"/>
       <c r="F99" s="154"/>
@@ -6800,24 +6888,24 @@
       <c r="U99" s="154"/>
     </row>
     <row r="100" spans="4:21">
-      <c r="D100" s="155"/>
-      <c r="E100" s="155"/>
-      <c r="F100" s="155"/>
-      <c r="G100" s="155"/>
-      <c r="H100" s="155"/>
-      <c r="I100" s="155"/>
-      <c r="J100" s="155"/>
-      <c r="K100" s="155"/>
-      <c r="L100" s="155"/>
-      <c r="M100" s="155"/>
-      <c r="N100" s="155"/>
-      <c r="O100" s="155"/>
-      <c r="P100" s="155"/>
-      <c r="Q100" s="155"/>
-      <c r="R100" s="155"/>
-      <c r="S100" s="155"/>
-      <c r="T100" s="155"/>
-      <c r="U100" s="155"/>
+      <c r="D100" s="153"/>
+      <c r="E100" s="153"/>
+      <c r="F100" s="153"/>
+      <c r="G100" s="153"/>
+      <c r="H100" s="153"/>
+      <c r="I100" s="153"/>
+      <c r="J100" s="153"/>
+      <c r="K100" s="153"/>
+      <c r="L100" s="153"/>
+      <c r="M100" s="153"/>
+      <c r="N100" s="153"/>
+      <c r="O100" s="153"/>
+      <c r="P100" s="153"/>
+      <c r="Q100" s="153"/>
+      <c r="R100" s="153"/>
+      <c r="S100" s="153"/>
+      <c r="T100" s="153"/>
+      <c r="U100" s="153"/>
     </row>
     <row r="101" spans="4:21">
       <c r="D101" s="152"/>
@@ -8101,7 +8189,7 @@
     </row>
     <row r="167" spans="4:21">
       <c r="D167" s="154" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E167" s="154"/>
       <c r="F167" s="154"/>
@@ -8122,1737 +8210,1742 @@
       <c r="U167" s="154"/>
     </row>
     <row r="168" spans="4:21">
-      <c r="D168" s="153"/>
-      <c r="E168" s="153"/>
-      <c r="F168" s="153"/>
-      <c r="G168" s="153"/>
-      <c r="H168" s="153"/>
-      <c r="I168" s="153"/>
-      <c r="J168" s="153"/>
-      <c r="K168" s="153"/>
-      <c r="L168" s="153"/>
-      <c r="M168" s="153"/>
-      <c r="N168" s="153"/>
-      <c r="O168" s="153"/>
-      <c r="P168" s="153"/>
-      <c r="Q168" s="153"/>
-      <c r="R168" s="153"/>
-      <c r="S168" s="153"/>
-      <c r="T168" s="153"/>
-      <c r="U168" s="153"/>
+      <c r="D168" s="156"/>
+      <c r="E168" s="156"/>
+      <c r="F168" s="156"/>
+      <c r="G168" s="156"/>
+      <c r="H168" s="156"/>
+      <c r="I168" s="156"/>
+      <c r="J168" s="156"/>
+      <c r="K168" s="156"/>
+      <c r="L168" s="156"/>
+      <c r="M168" s="156"/>
+      <c r="N168" s="156"/>
+      <c r="O168" s="156"/>
+      <c r="P168" s="156"/>
+      <c r="Q168" s="156"/>
+      <c r="R168" s="156"/>
+      <c r="S168" s="156"/>
+      <c r="T168" s="156"/>
+      <c r="U168" s="156"/>
     </row>
     <row r="169" spans="4:21">
-      <c r="D169" s="153"/>
-      <c r="E169" s="153"/>
-      <c r="F169" s="153"/>
-      <c r="G169" s="153"/>
-      <c r="H169" s="153"/>
-      <c r="I169" s="153"/>
-      <c r="J169" s="153"/>
-      <c r="K169" s="153"/>
-      <c r="L169" s="153"/>
-      <c r="M169" s="153"/>
-      <c r="N169" s="153"/>
-      <c r="O169" s="153"/>
-      <c r="P169" s="153"/>
-      <c r="Q169" s="153"/>
-      <c r="R169" s="153"/>
-      <c r="S169" s="153"/>
-      <c r="T169" s="153"/>
-      <c r="U169" s="153"/>
+      <c r="D169" s="156"/>
+      <c r="E169" s="156"/>
+      <c r="F169" s="156"/>
+      <c r="G169" s="156"/>
+      <c r="H169" s="156"/>
+      <c r="I169" s="156"/>
+      <c r="J169" s="156"/>
+      <c r="K169" s="156"/>
+      <c r="L169" s="156"/>
+      <c r="M169" s="156"/>
+      <c r="N169" s="156"/>
+      <c r="O169" s="156"/>
+      <c r="P169" s="156"/>
+      <c r="Q169" s="156"/>
+      <c r="R169" s="156"/>
+      <c r="S169" s="156"/>
+      <c r="T169" s="156"/>
+      <c r="U169" s="156"/>
     </row>
     <row r="170" spans="4:21">
-      <c r="D170" s="153"/>
-      <c r="E170" s="153"/>
-      <c r="F170" s="153"/>
-      <c r="G170" s="153"/>
-      <c r="H170" s="153"/>
-      <c r="I170" s="153"/>
-      <c r="J170" s="153"/>
-      <c r="K170" s="153"/>
-      <c r="L170" s="153"/>
-      <c r="M170" s="153"/>
-      <c r="N170" s="153"/>
-      <c r="O170" s="153"/>
-      <c r="P170" s="153"/>
-      <c r="Q170" s="153"/>
-      <c r="R170" s="153"/>
-      <c r="S170" s="153"/>
-      <c r="T170" s="153"/>
-      <c r="U170" s="153"/>
+      <c r="D170" s="156"/>
+      <c r="E170" s="156"/>
+      <c r="F170" s="156"/>
+      <c r="G170" s="156"/>
+      <c r="H170" s="156"/>
+      <c r="I170" s="156"/>
+      <c r="J170" s="156"/>
+      <c r="K170" s="156"/>
+      <c r="L170" s="156"/>
+      <c r="M170" s="156"/>
+      <c r="N170" s="156"/>
+      <c r="O170" s="156"/>
+      <c r="P170" s="156"/>
+      <c r="Q170" s="156"/>
+      <c r="R170" s="156"/>
+      <c r="S170" s="156"/>
+      <c r="T170" s="156"/>
+      <c r="U170" s="156"/>
     </row>
     <row r="171" spans="4:21">
-      <c r="D171" s="153"/>
-      <c r="E171" s="153"/>
-      <c r="F171" s="153"/>
-      <c r="G171" s="153"/>
-      <c r="H171" s="153"/>
-      <c r="I171" s="153"/>
-      <c r="J171" s="153"/>
-      <c r="K171" s="153"/>
-      <c r="L171" s="153"/>
-      <c r="M171" s="153"/>
-      <c r="N171" s="153"/>
-      <c r="O171" s="153"/>
-      <c r="P171" s="153"/>
-      <c r="Q171" s="153"/>
-      <c r="R171" s="153"/>
-      <c r="S171" s="153"/>
-      <c r="T171" s="153"/>
-      <c r="U171" s="153"/>
+      <c r="D171" s="156"/>
+      <c r="E171" s="156"/>
+      <c r="F171" s="156"/>
+      <c r="G171" s="156"/>
+      <c r="H171" s="156"/>
+      <c r="I171" s="156"/>
+      <c r="J171" s="156"/>
+      <c r="K171" s="156"/>
+      <c r="L171" s="156"/>
+      <c r="M171" s="156"/>
+      <c r="N171" s="156"/>
+      <c r="O171" s="156"/>
+      <c r="P171" s="156"/>
+      <c r="Q171" s="156"/>
+      <c r="R171" s="156"/>
+      <c r="S171" s="156"/>
+      <c r="T171" s="156"/>
+      <c r="U171" s="156"/>
     </row>
     <row r="172" spans="4:21">
-      <c r="D172" s="153"/>
-      <c r="E172" s="153"/>
-      <c r="F172" s="153"/>
-      <c r="G172" s="153"/>
-      <c r="H172" s="153"/>
-      <c r="I172" s="153"/>
-      <c r="J172" s="153"/>
-      <c r="K172" s="153"/>
-      <c r="L172" s="153"/>
-      <c r="M172" s="153"/>
-      <c r="N172" s="153"/>
-      <c r="O172" s="153"/>
-      <c r="P172" s="153"/>
-      <c r="Q172" s="153"/>
-      <c r="R172" s="153"/>
-      <c r="S172" s="153"/>
-      <c r="T172" s="153"/>
-      <c r="U172" s="153"/>
+      <c r="D172" s="156"/>
+      <c r="E172" s="156"/>
+      <c r="F172" s="156"/>
+      <c r="G172" s="156"/>
+      <c r="H172" s="156"/>
+      <c r="I172" s="156"/>
+      <c r="J172" s="156"/>
+      <c r="K172" s="156"/>
+      <c r="L172" s="156"/>
+      <c r="M172" s="156"/>
+      <c r="N172" s="156"/>
+      <c r="O172" s="156"/>
+      <c r="P172" s="156"/>
+      <c r="Q172" s="156"/>
+      <c r="R172" s="156"/>
+      <c r="S172" s="156"/>
+      <c r="T172" s="156"/>
+      <c r="U172" s="156"/>
     </row>
     <row r="173" spans="4:21">
-      <c r="D173" s="153"/>
-      <c r="E173" s="153"/>
-      <c r="F173" s="153"/>
-      <c r="G173" s="153"/>
-      <c r="H173" s="153"/>
-      <c r="I173" s="153"/>
-      <c r="J173" s="153"/>
-      <c r="K173" s="153"/>
-      <c r="L173" s="153"/>
-      <c r="M173" s="153"/>
-      <c r="N173" s="153"/>
-      <c r="O173" s="153"/>
-      <c r="P173" s="153"/>
-      <c r="Q173" s="153"/>
-      <c r="R173" s="153"/>
-      <c r="S173" s="153"/>
-      <c r="T173" s="153"/>
-      <c r="U173" s="153"/>
+      <c r="D173" s="156"/>
+      <c r="E173" s="156"/>
+      <c r="F173" s="156"/>
+      <c r="G173" s="156"/>
+      <c r="H173" s="156"/>
+      <c r="I173" s="156"/>
+      <c r="J173" s="156"/>
+      <c r="K173" s="156"/>
+      <c r="L173" s="156"/>
+      <c r="M173" s="156"/>
+      <c r="N173" s="156"/>
+      <c r="O173" s="156"/>
+      <c r="P173" s="156"/>
+      <c r="Q173" s="156"/>
+      <c r="R173" s="156"/>
+      <c r="S173" s="156"/>
+      <c r="T173" s="156"/>
+      <c r="U173" s="156"/>
     </row>
     <row r="174" spans="4:21">
-      <c r="D174" s="153"/>
-      <c r="E174" s="153"/>
-      <c r="F174" s="153"/>
-      <c r="G174" s="153"/>
-      <c r="H174" s="153"/>
-      <c r="I174" s="153"/>
-      <c r="J174" s="153"/>
-      <c r="K174" s="153"/>
-      <c r="L174" s="153"/>
-      <c r="M174" s="153"/>
-      <c r="N174" s="153"/>
-      <c r="O174" s="153"/>
-      <c r="P174" s="153"/>
-      <c r="Q174" s="153"/>
-      <c r="R174" s="153"/>
-      <c r="S174" s="153"/>
-      <c r="T174" s="153"/>
-      <c r="U174" s="153"/>
+      <c r="D174" s="156"/>
+      <c r="E174" s="156"/>
+      <c r="F174" s="156"/>
+      <c r="G174" s="156"/>
+      <c r="H174" s="156"/>
+      <c r="I174" s="156"/>
+      <c r="J174" s="156"/>
+      <c r="K174" s="156"/>
+      <c r="L174" s="156"/>
+      <c r="M174" s="156"/>
+      <c r="N174" s="156"/>
+      <c r="O174" s="156"/>
+      <c r="P174" s="156"/>
+      <c r="Q174" s="156"/>
+      <c r="R174" s="156"/>
+      <c r="S174" s="156"/>
+      <c r="T174" s="156"/>
+      <c r="U174" s="156"/>
     </row>
     <row r="175" spans="4:21">
-      <c r="D175" s="153"/>
-      <c r="E175" s="153"/>
-      <c r="F175" s="153"/>
-      <c r="G175" s="153"/>
-      <c r="H175" s="153"/>
-      <c r="I175" s="153"/>
-      <c r="J175" s="153"/>
-      <c r="K175" s="153"/>
-      <c r="L175" s="153"/>
-      <c r="M175" s="153"/>
-      <c r="N175" s="153"/>
-      <c r="O175" s="153"/>
-      <c r="P175" s="153"/>
-      <c r="Q175" s="153"/>
-      <c r="R175" s="153"/>
-      <c r="S175" s="153"/>
-      <c r="T175" s="153"/>
-      <c r="U175" s="153"/>
+      <c r="D175" s="156"/>
+      <c r="E175" s="156"/>
+      <c r="F175" s="156"/>
+      <c r="G175" s="156"/>
+      <c r="H175" s="156"/>
+      <c r="I175" s="156"/>
+      <c r="J175" s="156"/>
+      <c r="K175" s="156"/>
+      <c r="L175" s="156"/>
+      <c r="M175" s="156"/>
+      <c r="N175" s="156"/>
+      <c r="O175" s="156"/>
+      <c r="P175" s="156"/>
+      <c r="Q175" s="156"/>
+      <c r="R175" s="156"/>
+      <c r="S175" s="156"/>
+      <c r="T175" s="156"/>
+      <c r="U175" s="156"/>
     </row>
     <row r="176" spans="4:21">
-      <c r="D176" s="153"/>
-      <c r="E176" s="153"/>
-      <c r="F176" s="153"/>
-      <c r="G176" s="153"/>
-      <c r="H176" s="153"/>
-      <c r="I176" s="153"/>
-      <c r="J176" s="153"/>
-      <c r="K176" s="153"/>
-      <c r="L176" s="153"/>
-      <c r="M176" s="153"/>
-      <c r="N176" s="153"/>
-      <c r="O176" s="153"/>
-      <c r="P176" s="153"/>
-      <c r="Q176" s="153"/>
-      <c r="R176" s="153"/>
-      <c r="S176" s="153"/>
-      <c r="T176" s="153"/>
-      <c r="U176" s="153"/>
+      <c r="D176" s="156"/>
+      <c r="E176" s="156"/>
+      <c r="F176" s="156"/>
+      <c r="G176" s="156"/>
+      <c r="H176" s="156"/>
+      <c r="I176" s="156"/>
+      <c r="J176" s="156"/>
+      <c r="K176" s="156"/>
+      <c r="L176" s="156"/>
+      <c r="M176" s="156"/>
+      <c r="N176" s="156"/>
+      <c r="O176" s="156"/>
+      <c r="P176" s="156"/>
+      <c r="Q176" s="156"/>
+      <c r="R176" s="156"/>
+      <c r="S176" s="156"/>
+      <c r="T176" s="156"/>
+      <c r="U176" s="156"/>
     </row>
     <row r="177" spans="4:21">
-      <c r="D177" s="153"/>
-      <c r="E177" s="153"/>
-      <c r="F177" s="153"/>
-      <c r="G177" s="153"/>
-      <c r="H177" s="153"/>
-      <c r="I177" s="153"/>
-      <c r="J177" s="153"/>
-      <c r="K177" s="153"/>
-      <c r="L177" s="153"/>
-      <c r="M177" s="153"/>
-      <c r="N177" s="153"/>
-      <c r="O177" s="153"/>
-      <c r="P177" s="153"/>
-      <c r="Q177" s="153"/>
-      <c r="R177" s="153"/>
-      <c r="S177" s="153"/>
-      <c r="T177" s="153"/>
-      <c r="U177" s="153"/>
+      <c r="D177" s="156"/>
+      <c r="E177" s="156"/>
+      <c r="F177" s="156"/>
+      <c r="G177" s="156"/>
+      <c r="H177" s="156"/>
+      <c r="I177" s="156"/>
+      <c r="J177" s="156"/>
+      <c r="K177" s="156"/>
+      <c r="L177" s="156"/>
+      <c r="M177" s="156"/>
+      <c r="N177" s="156"/>
+      <c r="O177" s="156"/>
+      <c r="P177" s="156"/>
+      <c r="Q177" s="156"/>
+      <c r="R177" s="156"/>
+      <c r="S177" s="156"/>
+      <c r="T177" s="156"/>
+      <c r="U177" s="156"/>
     </row>
     <row r="178" spans="4:21">
-      <c r="D178" s="153"/>
-      <c r="E178" s="153"/>
-      <c r="F178" s="153"/>
-      <c r="G178" s="153"/>
-      <c r="H178" s="153"/>
-      <c r="I178" s="153"/>
-      <c r="J178" s="153"/>
-      <c r="K178" s="153"/>
-      <c r="L178" s="153"/>
-      <c r="M178" s="153"/>
-      <c r="N178" s="153"/>
-      <c r="O178" s="153"/>
-      <c r="P178" s="153"/>
-      <c r="Q178" s="153"/>
-      <c r="R178" s="153"/>
-      <c r="S178" s="153"/>
-      <c r="T178" s="153"/>
-      <c r="U178" s="153"/>
+      <c r="D178" s="156"/>
+      <c r="E178" s="156"/>
+      <c r="F178" s="156"/>
+      <c r="G178" s="156"/>
+      <c r="H178" s="156"/>
+      <c r="I178" s="156"/>
+      <c r="J178" s="156"/>
+      <c r="K178" s="156"/>
+      <c r="L178" s="156"/>
+      <c r="M178" s="156"/>
+      <c r="N178" s="156"/>
+      <c r="O178" s="156"/>
+      <c r="P178" s="156"/>
+      <c r="Q178" s="156"/>
+      <c r="R178" s="156"/>
+      <c r="S178" s="156"/>
+      <c r="T178" s="156"/>
+      <c r="U178" s="156"/>
     </row>
     <row r="179" spans="4:21">
-      <c r="D179" s="153"/>
-      <c r="E179" s="153"/>
-      <c r="F179" s="153"/>
-      <c r="G179" s="153"/>
-      <c r="H179" s="153"/>
-      <c r="I179" s="153"/>
-      <c r="J179" s="153"/>
-      <c r="K179" s="153"/>
-      <c r="L179" s="153"/>
-      <c r="M179" s="153"/>
-      <c r="N179" s="153"/>
-      <c r="O179" s="153"/>
-      <c r="P179" s="153"/>
-      <c r="Q179" s="153"/>
-      <c r="R179" s="153"/>
-      <c r="S179" s="153"/>
-      <c r="T179" s="153"/>
-      <c r="U179" s="153"/>
+      <c r="D179" s="156"/>
+      <c r="E179" s="156"/>
+      <c r="F179" s="156"/>
+      <c r="G179" s="156"/>
+      <c r="H179" s="156"/>
+      <c r="I179" s="156"/>
+      <c r="J179" s="156"/>
+      <c r="K179" s="156"/>
+      <c r="L179" s="156"/>
+      <c r="M179" s="156"/>
+      <c r="N179" s="156"/>
+      <c r="O179" s="156"/>
+      <c r="P179" s="156"/>
+      <c r="Q179" s="156"/>
+      <c r="R179" s="156"/>
+      <c r="S179" s="156"/>
+      <c r="T179" s="156"/>
+      <c r="U179" s="156"/>
     </row>
     <row r="180" spans="4:21">
-      <c r="D180" s="153"/>
-      <c r="E180" s="153"/>
-      <c r="F180" s="153"/>
-      <c r="G180" s="153"/>
-      <c r="H180" s="153"/>
-      <c r="I180" s="153"/>
-      <c r="J180" s="153"/>
-      <c r="K180" s="153"/>
-      <c r="L180" s="153"/>
-      <c r="M180" s="153"/>
-      <c r="N180" s="153"/>
-      <c r="O180" s="153"/>
-      <c r="P180" s="153"/>
-      <c r="Q180" s="153"/>
-      <c r="R180" s="153"/>
-      <c r="S180" s="153"/>
-      <c r="T180" s="153"/>
-      <c r="U180" s="153"/>
+      <c r="D180" s="156"/>
+      <c r="E180" s="156"/>
+      <c r="F180" s="156"/>
+      <c r="G180" s="156"/>
+      <c r="H180" s="156"/>
+      <c r="I180" s="156"/>
+      <c r="J180" s="156"/>
+      <c r="K180" s="156"/>
+      <c r="L180" s="156"/>
+      <c r="M180" s="156"/>
+      <c r="N180" s="156"/>
+      <c r="O180" s="156"/>
+      <c r="P180" s="156"/>
+      <c r="Q180" s="156"/>
+      <c r="R180" s="156"/>
+      <c r="S180" s="156"/>
+      <c r="T180" s="156"/>
+      <c r="U180" s="156"/>
     </row>
     <row r="181" spans="4:21">
-      <c r="D181" s="153"/>
-      <c r="E181" s="153"/>
-      <c r="F181" s="153"/>
-      <c r="G181" s="153"/>
-      <c r="H181" s="153"/>
-      <c r="I181" s="153"/>
-      <c r="J181" s="153"/>
-      <c r="K181" s="153"/>
-      <c r="L181" s="153"/>
-      <c r="M181" s="153"/>
-      <c r="N181" s="153"/>
-      <c r="O181" s="153"/>
-      <c r="P181" s="153"/>
-      <c r="Q181" s="153"/>
-      <c r="R181" s="153"/>
-      <c r="S181" s="153"/>
-      <c r="T181" s="153"/>
-      <c r="U181" s="153"/>
+      <c r="D181" s="156"/>
+      <c r="E181" s="156"/>
+      <c r="F181" s="156"/>
+      <c r="G181" s="156"/>
+      <c r="H181" s="156"/>
+      <c r="I181" s="156"/>
+      <c r="J181" s="156"/>
+      <c r="K181" s="156"/>
+      <c r="L181" s="156"/>
+      <c r="M181" s="156"/>
+      <c r="N181" s="156"/>
+      <c r="O181" s="156"/>
+      <c r="P181" s="156"/>
+      <c r="Q181" s="156"/>
+      <c r="R181" s="156"/>
+      <c r="S181" s="156"/>
+      <c r="T181" s="156"/>
+      <c r="U181" s="156"/>
     </row>
     <row r="182" spans="4:21">
-      <c r="D182" s="153"/>
-      <c r="E182" s="153"/>
-      <c r="F182" s="153"/>
-      <c r="G182" s="153"/>
-      <c r="H182" s="153"/>
-      <c r="I182" s="153"/>
-      <c r="J182" s="153"/>
-      <c r="K182" s="153"/>
-      <c r="L182" s="153"/>
-      <c r="M182" s="153"/>
-      <c r="N182" s="153"/>
-      <c r="O182" s="153"/>
-      <c r="P182" s="153"/>
-      <c r="Q182" s="153"/>
-      <c r="R182" s="153"/>
-      <c r="S182" s="153"/>
-      <c r="T182" s="153"/>
-      <c r="U182" s="153"/>
+      <c r="D182" s="156"/>
+      <c r="E182" s="156"/>
+      <c r="F182" s="156"/>
+      <c r="G182" s="156"/>
+      <c r="H182" s="156"/>
+      <c r="I182" s="156"/>
+      <c r="J182" s="156"/>
+      <c r="K182" s="156"/>
+      <c r="L182" s="156"/>
+      <c r="M182" s="156"/>
+      <c r="N182" s="156"/>
+      <c r="O182" s="156"/>
+      <c r="P182" s="156"/>
+      <c r="Q182" s="156"/>
+      <c r="R182" s="156"/>
+      <c r="S182" s="156"/>
+      <c r="T182" s="156"/>
+      <c r="U182" s="156"/>
     </row>
     <row r="183" spans="4:21">
-      <c r="D183" s="153"/>
-      <c r="E183" s="153"/>
-      <c r="F183" s="153"/>
-      <c r="G183" s="153"/>
-      <c r="H183" s="153"/>
-      <c r="I183" s="153"/>
-      <c r="J183" s="153"/>
-      <c r="K183" s="153"/>
-      <c r="L183" s="153"/>
-      <c r="M183" s="153"/>
-      <c r="N183" s="153"/>
-      <c r="O183" s="153"/>
-      <c r="P183" s="153"/>
-      <c r="Q183" s="153"/>
-      <c r="R183" s="153"/>
-      <c r="S183" s="153"/>
-      <c r="T183" s="153"/>
-      <c r="U183" s="153"/>
+      <c r="D183" s="156"/>
+      <c r="E183" s="156"/>
+      <c r="F183" s="156"/>
+      <c r="G183" s="156"/>
+      <c r="H183" s="156"/>
+      <c r="I183" s="156"/>
+      <c r="J183" s="156"/>
+      <c r="K183" s="156"/>
+      <c r="L183" s="156"/>
+      <c r="M183" s="156"/>
+      <c r="N183" s="156"/>
+      <c r="O183" s="156"/>
+      <c r="P183" s="156"/>
+      <c r="Q183" s="156"/>
+      <c r="R183" s="156"/>
+      <c r="S183" s="156"/>
+      <c r="T183" s="156"/>
+      <c r="U183" s="156"/>
     </row>
     <row r="184" spans="4:21">
-      <c r="D184" s="153"/>
-      <c r="E184" s="153"/>
-      <c r="F184" s="153"/>
-      <c r="G184" s="153"/>
-      <c r="H184" s="153"/>
-      <c r="I184" s="153"/>
-      <c r="J184" s="153"/>
-      <c r="K184" s="153"/>
-      <c r="L184" s="153"/>
-      <c r="M184" s="153"/>
-      <c r="N184" s="153"/>
-      <c r="O184" s="153"/>
-      <c r="P184" s="153"/>
-      <c r="Q184" s="153"/>
-      <c r="R184" s="153"/>
-      <c r="S184" s="153"/>
-      <c r="T184" s="153"/>
-      <c r="U184" s="153"/>
+      <c r="D184" s="156"/>
+      <c r="E184" s="156"/>
+      <c r="F184" s="156"/>
+      <c r="G184" s="156"/>
+      <c r="H184" s="156"/>
+      <c r="I184" s="156"/>
+      <c r="J184" s="156"/>
+      <c r="K184" s="156"/>
+      <c r="L184" s="156"/>
+      <c r="M184" s="156"/>
+      <c r="N184" s="156"/>
+      <c r="O184" s="156"/>
+      <c r="P184" s="156"/>
+      <c r="Q184" s="156"/>
+      <c r="R184" s="156"/>
+      <c r="S184" s="156"/>
+      <c r="T184" s="156"/>
+      <c r="U184" s="156"/>
     </row>
     <row r="185" spans="4:21">
-      <c r="D185" s="153"/>
-      <c r="E185" s="153"/>
-      <c r="F185" s="153"/>
-      <c r="G185" s="153"/>
-      <c r="H185" s="153"/>
-      <c r="I185" s="153"/>
-      <c r="J185" s="153"/>
-      <c r="K185" s="153"/>
-      <c r="L185" s="153"/>
-      <c r="M185" s="153"/>
-      <c r="N185" s="153"/>
-      <c r="O185" s="153"/>
-      <c r="P185" s="153"/>
-      <c r="Q185" s="153"/>
-      <c r="R185" s="153"/>
-      <c r="S185" s="153"/>
-      <c r="T185" s="153"/>
-      <c r="U185" s="153"/>
+      <c r="D185" s="156"/>
+      <c r="E185" s="156"/>
+      <c r="F185" s="156"/>
+      <c r="G185" s="156"/>
+      <c r="H185" s="156"/>
+      <c r="I185" s="156"/>
+      <c r="J185" s="156"/>
+      <c r="K185" s="156"/>
+      <c r="L185" s="156"/>
+      <c r="M185" s="156"/>
+      <c r="N185" s="156"/>
+      <c r="O185" s="156"/>
+      <c r="P185" s="156"/>
+      <c r="Q185" s="156"/>
+      <c r="R185" s="156"/>
+      <c r="S185" s="156"/>
+      <c r="T185" s="156"/>
+      <c r="U185" s="156"/>
     </row>
     <row r="186" spans="4:21">
-      <c r="D186" s="153"/>
-      <c r="E186" s="153"/>
-      <c r="F186" s="153"/>
-      <c r="G186" s="153"/>
-      <c r="H186" s="153"/>
-      <c r="I186" s="153"/>
-      <c r="J186" s="153"/>
-      <c r="K186" s="153"/>
-      <c r="L186" s="153"/>
-      <c r="M186" s="153"/>
-      <c r="N186" s="153"/>
-      <c r="O186" s="153"/>
-      <c r="P186" s="153"/>
-      <c r="Q186" s="153"/>
-      <c r="R186" s="153"/>
-      <c r="S186" s="153"/>
-      <c r="T186" s="153"/>
-      <c r="U186" s="153"/>
+      <c r="D186" s="156"/>
+      <c r="E186" s="156"/>
+      <c r="F186" s="156"/>
+      <c r="G186" s="156"/>
+      <c r="H186" s="156"/>
+      <c r="I186" s="156"/>
+      <c r="J186" s="156"/>
+      <c r="K186" s="156"/>
+      <c r="L186" s="156"/>
+      <c r="M186" s="156"/>
+      <c r="N186" s="156"/>
+      <c r="O186" s="156"/>
+      <c r="P186" s="156"/>
+      <c r="Q186" s="156"/>
+      <c r="R186" s="156"/>
+      <c r="S186" s="156"/>
+      <c r="T186" s="156"/>
+      <c r="U186" s="156"/>
     </row>
     <row r="187" spans="4:21">
-      <c r="D187" s="153"/>
-      <c r="E187" s="153"/>
-      <c r="F187" s="153"/>
-      <c r="G187" s="153"/>
-      <c r="H187" s="153"/>
-      <c r="I187" s="153"/>
-      <c r="J187" s="153"/>
-      <c r="K187" s="153"/>
-      <c r="L187" s="153"/>
-      <c r="M187" s="153"/>
-      <c r="N187" s="153"/>
-      <c r="O187" s="153"/>
-      <c r="P187" s="153"/>
-      <c r="Q187" s="153"/>
-      <c r="R187" s="153"/>
-      <c r="S187" s="153"/>
-      <c r="T187" s="153"/>
-      <c r="U187" s="153"/>
+      <c r="D187" s="156"/>
+      <c r="E187" s="156"/>
+      <c r="F187" s="156"/>
+      <c r="G187" s="156"/>
+      <c r="H187" s="156"/>
+      <c r="I187" s="156"/>
+      <c r="J187" s="156"/>
+      <c r="K187" s="156"/>
+      <c r="L187" s="156"/>
+      <c r="M187" s="156"/>
+      <c r="N187" s="156"/>
+      <c r="O187" s="156"/>
+      <c r="P187" s="156"/>
+      <c r="Q187" s="156"/>
+      <c r="R187" s="156"/>
+      <c r="S187" s="156"/>
+      <c r="T187" s="156"/>
+      <c r="U187" s="156"/>
     </row>
     <row r="188" spans="4:21">
-      <c r="D188" s="153"/>
-      <c r="E188" s="153"/>
-      <c r="F188" s="153"/>
-      <c r="G188" s="153"/>
-      <c r="H188" s="153"/>
-      <c r="I188" s="153"/>
-      <c r="J188" s="153"/>
-      <c r="K188" s="153"/>
-      <c r="L188" s="153"/>
-      <c r="M188" s="153"/>
-      <c r="N188" s="153"/>
-      <c r="O188" s="153"/>
-      <c r="P188" s="153"/>
-      <c r="Q188" s="153"/>
-      <c r="R188" s="153"/>
-      <c r="S188" s="153"/>
-      <c r="T188" s="153"/>
-      <c r="U188" s="153"/>
+      <c r="D188" s="156"/>
+      <c r="E188" s="156"/>
+      <c r="F188" s="156"/>
+      <c r="G188" s="156"/>
+      <c r="H188" s="156"/>
+      <c r="I188" s="156"/>
+      <c r="J188" s="156"/>
+      <c r="K188" s="156"/>
+      <c r="L188" s="156"/>
+      <c r="M188" s="156"/>
+      <c r="N188" s="156"/>
+      <c r="O188" s="156"/>
+      <c r="P188" s="156"/>
+      <c r="Q188" s="156"/>
+      <c r="R188" s="156"/>
+      <c r="S188" s="156"/>
+      <c r="T188" s="156"/>
+      <c r="U188" s="156"/>
     </row>
     <row r="189" spans="4:21">
-      <c r="D189" s="153"/>
-      <c r="E189" s="153"/>
-      <c r="F189" s="153"/>
-      <c r="G189" s="153"/>
-      <c r="H189" s="153"/>
-      <c r="I189" s="153"/>
-      <c r="J189" s="153"/>
-      <c r="K189" s="153"/>
-      <c r="L189" s="153"/>
-      <c r="M189" s="153"/>
-      <c r="N189" s="153"/>
-      <c r="O189" s="153"/>
-      <c r="P189" s="153"/>
-      <c r="Q189" s="153"/>
-      <c r="R189" s="153"/>
-      <c r="S189" s="153"/>
-      <c r="T189" s="153"/>
-      <c r="U189" s="153"/>
+      <c r="D189" s="156"/>
+      <c r="E189" s="156"/>
+      <c r="F189" s="156"/>
+      <c r="G189" s="156"/>
+      <c r="H189" s="156"/>
+      <c r="I189" s="156"/>
+      <c r="J189" s="156"/>
+      <c r="K189" s="156"/>
+      <c r="L189" s="156"/>
+      <c r="M189" s="156"/>
+      <c r="N189" s="156"/>
+      <c r="O189" s="156"/>
+      <c r="P189" s="156"/>
+      <c r="Q189" s="156"/>
+      <c r="R189" s="156"/>
+      <c r="S189" s="156"/>
+      <c r="T189" s="156"/>
+      <c r="U189" s="156"/>
     </row>
     <row r="190" spans="4:21">
-      <c r="D190" s="153"/>
-      <c r="E190" s="153"/>
-      <c r="F190" s="153"/>
-      <c r="G190" s="153"/>
-      <c r="H190" s="153"/>
-      <c r="I190" s="153"/>
-      <c r="J190" s="153"/>
-      <c r="K190" s="153"/>
-      <c r="L190" s="153"/>
-      <c r="M190" s="153"/>
-      <c r="N190" s="153"/>
-      <c r="O190" s="153"/>
-      <c r="P190" s="153"/>
-      <c r="Q190" s="153"/>
-      <c r="R190" s="153"/>
-      <c r="S190" s="153"/>
-      <c r="T190" s="153"/>
-      <c r="U190" s="153"/>
+      <c r="D190" s="156"/>
+      <c r="E190" s="156"/>
+      <c r="F190" s="156"/>
+      <c r="G190" s="156"/>
+      <c r="H190" s="156"/>
+      <c r="I190" s="156"/>
+      <c r="J190" s="156"/>
+      <c r="K190" s="156"/>
+      <c r="L190" s="156"/>
+      <c r="M190" s="156"/>
+      <c r="N190" s="156"/>
+      <c r="O190" s="156"/>
+      <c r="P190" s="156"/>
+      <c r="Q190" s="156"/>
+      <c r="R190" s="156"/>
+      <c r="S190" s="156"/>
+      <c r="T190" s="156"/>
+      <c r="U190" s="156"/>
     </row>
     <row r="191" spans="4:21">
-      <c r="D191" s="153"/>
-      <c r="E191" s="153"/>
-      <c r="F191" s="153"/>
-      <c r="G191" s="153"/>
-      <c r="H191" s="153"/>
-      <c r="I191" s="153"/>
-      <c r="J191" s="153"/>
-      <c r="K191" s="153"/>
-      <c r="L191" s="153"/>
-      <c r="M191" s="153"/>
-      <c r="N191" s="153"/>
-      <c r="O191" s="153"/>
-      <c r="P191" s="153"/>
-      <c r="Q191" s="153"/>
-      <c r="R191" s="153"/>
-      <c r="S191" s="153"/>
-      <c r="T191" s="153"/>
-      <c r="U191" s="153"/>
+      <c r="D191" s="156"/>
+      <c r="E191" s="156"/>
+      <c r="F191" s="156"/>
+      <c r="G191" s="156"/>
+      <c r="H191" s="156"/>
+      <c r="I191" s="156"/>
+      <c r="J191" s="156"/>
+      <c r="K191" s="156"/>
+      <c r="L191" s="156"/>
+      <c r="M191" s="156"/>
+      <c r="N191" s="156"/>
+      <c r="O191" s="156"/>
+      <c r="P191" s="156"/>
+      <c r="Q191" s="156"/>
+      <c r="R191" s="156"/>
+      <c r="S191" s="156"/>
+      <c r="T191" s="156"/>
+      <c r="U191" s="156"/>
     </row>
     <row r="192" spans="4:21">
-      <c r="D192" s="153"/>
-      <c r="E192" s="153"/>
-      <c r="F192" s="153"/>
-      <c r="G192" s="153"/>
-      <c r="H192" s="153"/>
-      <c r="I192" s="153"/>
-      <c r="J192" s="153"/>
-      <c r="K192" s="153"/>
-      <c r="L192" s="153"/>
-      <c r="M192" s="153"/>
-      <c r="N192" s="153"/>
-      <c r="O192" s="153"/>
-      <c r="P192" s="153"/>
-      <c r="Q192" s="153"/>
-      <c r="R192" s="153"/>
-      <c r="S192" s="153"/>
-      <c r="T192" s="153"/>
-      <c r="U192" s="153"/>
+      <c r="D192" s="156"/>
+      <c r="E192" s="156"/>
+      <c r="F192" s="156"/>
+      <c r="G192" s="156"/>
+      <c r="H192" s="156"/>
+      <c r="I192" s="156"/>
+      <c r="J192" s="156"/>
+      <c r="K192" s="156"/>
+      <c r="L192" s="156"/>
+      <c r="M192" s="156"/>
+      <c r="N192" s="156"/>
+      <c r="O192" s="156"/>
+      <c r="P192" s="156"/>
+      <c r="Q192" s="156"/>
+      <c r="R192" s="156"/>
+      <c r="S192" s="156"/>
+      <c r="T192" s="156"/>
+      <c r="U192" s="156"/>
     </row>
     <row r="193" spans="4:21">
-      <c r="D193" s="153"/>
-      <c r="E193" s="153"/>
-      <c r="F193" s="153"/>
-      <c r="G193" s="153"/>
-      <c r="H193" s="153"/>
-      <c r="I193" s="153"/>
-      <c r="J193" s="153"/>
-      <c r="K193" s="153"/>
-      <c r="L193" s="153"/>
-      <c r="M193" s="153"/>
-      <c r="N193" s="153"/>
-      <c r="O193" s="153"/>
-      <c r="P193" s="153"/>
-      <c r="Q193" s="153"/>
-      <c r="R193" s="153"/>
-      <c r="S193" s="153"/>
-      <c r="T193" s="153"/>
-      <c r="U193" s="153"/>
+      <c r="D193" s="156"/>
+      <c r="E193" s="156"/>
+      <c r="F193" s="156"/>
+      <c r="G193" s="156"/>
+      <c r="H193" s="156"/>
+      <c r="I193" s="156"/>
+      <c r="J193" s="156"/>
+      <c r="K193" s="156"/>
+      <c r="L193" s="156"/>
+      <c r="M193" s="156"/>
+      <c r="N193" s="156"/>
+      <c r="O193" s="156"/>
+      <c r="P193" s="156"/>
+      <c r="Q193" s="156"/>
+      <c r="R193" s="156"/>
+      <c r="S193" s="156"/>
+      <c r="T193" s="156"/>
+      <c r="U193" s="156"/>
     </row>
     <row r="194" spans="4:21">
-      <c r="D194" s="153"/>
-      <c r="E194" s="153"/>
-      <c r="F194" s="153"/>
-      <c r="G194" s="153"/>
-      <c r="H194" s="153"/>
-      <c r="I194" s="153"/>
-      <c r="J194" s="153"/>
-      <c r="K194" s="153"/>
-      <c r="L194" s="153"/>
-      <c r="M194" s="153"/>
-      <c r="N194" s="153"/>
-      <c r="O194" s="153"/>
-      <c r="P194" s="153"/>
-      <c r="Q194" s="153"/>
-      <c r="R194" s="153"/>
-      <c r="S194" s="153"/>
-      <c r="T194" s="153"/>
-      <c r="U194" s="153"/>
+      <c r="D194" s="156"/>
+      <c r="E194" s="156"/>
+      <c r="F194" s="156"/>
+      <c r="G194" s="156"/>
+      <c r="H194" s="156"/>
+      <c r="I194" s="156"/>
+      <c r="J194" s="156"/>
+      <c r="K194" s="156"/>
+      <c r="L194" s="156"/>
+      <c r="M194" s="156"/>
+      <c r="N194" s="156"/>
+      <c r="O194" s="156"/>
+      <c r="P194" s="156"/>
+      <c r="Q194" s="156"/>
+      <c r="R194" s="156"/>
+      <c r="S194" s="156"/>
+      <c r="T194" s="156"/>
+      <c r="U194" s="156"/>
     </row>
     <row r="195" spans="4:21">
-      <c r="D195" s="153"/>
-      <c r="E195" s="153"/>
-      <c r="F195" s="153"/>
-      <c r="G195" s="153"/>
-      <c r="H195" s="153"/>
-      <c r="I195" s="153"/>
-      <c r="J195" s="153"/>
-      <c r="K195" s="153"/>
-      <c r="L195" s="153"/>
-      <c r="M195" s="153"/>
-      <c r="N195" s="153"/>
-      <c r="O195" s="153"/>
-      <c r="P195" s="153"/>
-      <c r="Q195" s="153"/>
-      <c r="R195" s="153"/>
-      <c r="S195" s="153"/>
-      <c r="T195" s="153"/>
-      <c r="U195" s="153"/>
+      <c r="D195" s="156"/>
+      <c r="E195" s="156"/>
+      <c r="F195" s="156"/>
+      <c r="G195" s="156"/>
+      <c r="H195" s="156"/>
+      <c r="I195" s="156"/>
+      <c r="J195" s="156"/>
+      <c r="K195" s="156"/>
+      <c r="L195" s="156"/>
+      <c r="M195" s="156"/>
+      <c r="N195" s="156"/>
+      <c r="O195" s="156"/>
+      <c r="P195" s="156"/>
+      <c r="Q195" s="156"/>
+      <c r="R195" s="156"/>
+      <c r="S195" s="156"/>
+      <c r="T195" s="156"/>
+      <c r="U195" s="156"/>
     </row>
     <row r="196" spans="4:21">
-      <c r="D196" s="153"/>
-      <c r="E196" s="153"/>
-      <c r="F196" s="153"/>
-      <c r="G196" s="153"/>
-      <c r="H196" s="153"/>
-      <c r="I196" s="153"/>
-      <c r="J196" s="153"/>
-      <c r="K196" s="153"/>
-      <c r="L196" s="153"/>
-      <c r="M196" s="153"/>
-      <c r="N196" s="153"/>
-      <c r="O196" s="153"/>
-      <c r="P196" s="153"/>
-      <c r="Q196" s="153"/>
-      <c r="R196" s="153"/>
-      <c r="S196" s="153"/>
-      <c r="T196" s="153"/>
-      <c r="U196" s="153"/>
+      <c r="D196" s="156"/>
+      <c r="E196" s="156"/>
+      <c r="F196" s="156"/>
+      <c r="G196" s="156"/>
+      <c r="H196" s="156"/>
+      <c r="I196" s="156"/>
+      <c r="J196" s="156"/>
+      <c r="K196" s="156"/>
+      <c r="L196" s="156"/>
+      <c r="M196" s="156"/>
+      <c r="N196" s="156"/>
+      <c r="O196" s="156"/>
+      <c r="P196" s="156"/>
+      <c r="Q196" s="156"/>
+      <c r="R196" s="156"/>
+      <c r="S196" s="156"/>
+      <c r="T196" s="156"/>
+      <c r="U196" s="156"/>
     </row>
     <row r="197" spans="4:21">
-      <c r="D197" s="153"/>
-      <c r="E197" s="153"/>
-      <c r="F197" s="153"/>
-      <c r="G197" s="153"/>
-      <c r="H197" s="153"/>
-      <c r="I197" s="153"/>
-      <c r="J197" s="153"/>
-      <c r="K197" s="153"/>
-      <c r="L197" s="153"/>
-      <c r="M197" s="153"/>
-      <c r="N197" s="153"/>
-      <c r="O197" s="153"/>
-      <c r="P197" s="153"/>
-      <c r="Q197" s="153"/>
-      <c r="R197" s="153"/>
-      <c r="S197" s="153"/>
-      <c r="T197" s="153"/>
-      <c r="U197" s="153"/>
+      <c r="D197" s="156"/>
+      <c r="E197" s="156"/>
+      <c r="F197" s="156"/>
+      <c r="G197" s="156"/>
+      <c r="H197" s="156"/>
+      <c r="I197" s="156"/>
+      <c r="J197" s="156"/>
+      <c r="K197" s="156"/>
+      <c r="L197" s="156"/>
+      <c r="M197" s="156"/>
+      <c r="N197" s="156"/>
+      <c r="O197" s="156"/>
+      <c r="P197" s="156"/>
+      <c r="Q197" s="156"/>
+      <c r="R197" s="156"/>
+      <c r="S197" s="156"/>
+      <c r="T197" s="156"/>
+      <c r="U197" s="156"/>
     </row>
     <row r="198" spans="4:21">
-      <c r="D198" s="153"/>
-      <c r="E198" s="153"/>
-      <c r="F198" s="153"/>
-      <c r="G198" s="153"/>
-      <c r="H198" s="153"/>
-      <c r="I198" s="153"/>
-      <c r="J198" s="153"/>
-      <c r="K198" s="153"/>
-      <c r="L198" s="153"/>
-      <c r="M198" s="153"/>
-      <c r="N198" s="153"/>
-      <c r="O198" s="153"/>
-      <c r="P198" s="153"/>
-      <c r="Q198" s="153"/>
-      <c r="R198" s="153"/>
-      <c r="S198" s="153"/>
-      <c r="T198" s="153"/>
-      <c r="U198" s="153"/>
+      <c r="D198" s="156"/>
+      <c r="E198" s="156"/>
+      <c r="F198" s="156"/>
+      <c r="G198" s="156"/>
+      <c r="H198" s="156"/>
+      <c r="I198" s="156"/>
+      <c r="J198" s="156"/>
+      <c r="K198" s="156"/>
+      <c r="L198" s="156"/>
+      <c r="M198" s="156"/>
+      <c r="N198" s="156"/>
+      <c r="O198" s="156"/>
+      <c r="P198" s="156"/>
+      <c r="Q198" s="156"/>
+      <c r="R198" s="156"/>
+      <c r="S198" s="156"/>
+      <c r="T198" s="156"/>
+      <c r="U198" s="156"/>
     </row>
     <row r="199" spans="4:21">
-      <c r="D199" s="153"/>
-      <c r="E199" s="153"/>
-      <c r="F199" s="153"/>
-      <c r="G199" s="153"/>
-      <c r="H199" s="153"/>
-      <c r="I199" s="153"/>
-      <c r="J199" s="153"/>
-      <c r="K199" s="153"/>
-      <c r="L199" s="153"/>
-      <c r="M199" s="153"/>
-      <c r="N199" s="153"/>
-      <c r="O199" s="153"/>
-      <c r="P199" s="153"/>
-      <c r="Q199" s="153"/>
-      <c r="R199" s="153"/>
-      <c r="S199" s="153"/>
-      <c r="T199" s="153"/>
-      <c r="U199" s="153"/>
+      <c r="D199" s="156"/>
+      <c r="E199" s="156"/>
+      <c r="F199" s="156"/>
+      <c r="G199" s="156"/>
+      <c r="H199" s="156"/>
+      <c r="I199" s="156"/>
+      <c r="J199" s="156"/>
+      <c r="K199" s="156"/>
+      <c r="L199" s="156"/>
+      <c r="M199" s="156"/>
+      <c r="N199" s="156"/>
+      <c r="O199" s="156"/>
+      <c r="P199" s="156"/>
+      <c r="Q199" s="156"/>
+      <c r="R199" s="156"/>
+      <c r="S199" s="156"/>
+      <c r="T199" s="156"/>
+      <c r="U199" s="156"/>
     </row>
     <row r="200" spans="4:21">
-      <c r="D200" s="153"/>
-      <c r="E200" s="153"/>
-      <c r="F200" s="153"/>
-      <c r="G200" s="153"/>
-      <c r="H200" s="153"/>
-      <c r="I200" s="153"/>
-      <c r="J200" s="153"/>
-      <c r="K200" s="153"/>
-      <c r="L200" s="153"/>
-      <c r="M200" s="153"/>
-      <c r="N200" s="153"/>
-      <c r="O200" s="153"/>
-      <c r="P200" s="153"/>
-      <c r="Q200" s="153"/>
-      <c r="R200" s="153"/>
-      <c r="S200" s="153"/>
-      <c r="T200" s="153"/>
-      <c r="U200" s="153"/>
+      <c r="D200" s="156"/>
+      <c r="E200" s="156"/>
+      <c r="F200" s="156"/>
+      <c r="G200" s="156"/>
+      <c r="H200" s="156"/>
+      <c r="I200" s="156"/>
+      <c r="J200" s="156"/>
+      <c r="K200" s="156"/>
+      <c r="L200" s="156"/>
+      <c r="M200" s="156"/>
+      <c r="N200" s="156"/>
+      <c r="O200" s="156"/>
+      <c r="P200" s="156"/>
+      <c r="Q200" s="156"/>
+      <c r="R200" s="156"/>
+      <c r="S200" s="156"/>
+      <c r="T200" s="156"/>
+      <c r="U200" s="156"/>
     </row>
     <row r="201" spans="4:21">
-      <c r="D201" s="153"/>
-      <c r="E201" s="153"/>
-      <c r="F201" s="153"/>
-      <c r="G201" s="153"/>
-      <c r="H201" s="153"/>
-      <c r="I201" s="153"/>
-      <c r="J201" s="153"/>
-      <c r="K201" s="153"/>
-      <c r="L201" s="153"/>
-      <c r="M201" s="153"/>
-      <c r="N201" s="153"/>
-      <c r="O201" s="153"/>
-      <c r="P201" s="153"/>
-      <c r="Q201" s="153"/>
-      <c r="R201" s="153"/>
-      <c r="S201" s="153"/>
-      <c r="T201" s="153"/>
-      <c r="U201" s="153"/>
+      <c r="D201" s="156"/>
+      <c r="E201" s="156"/>
+      <c r="F201" s="156"/>
+      <c r="G201" s="156"/>
+      <c r="H201" s="156"/>
+      <c r="I201" s="156"/>
+      <c r="J201" s="156"/>
+      <c r="K201" s="156"/>
+      <c r="L201" s="156"/>
+      <c r="M201" s="156"/>
+      <c r="N201" s="156"/>
+      <c r="O201" s="156"/>
+      <c r="P201" s="156"/>
+      <c r="Q201" s="156"/>
+      <c r="R201" s="156"/>
+      <c r="S201" s="156"/>
+      <c r="T201" s="156"/>
+      <c r="U201" s="156"/>
     </row>
     <row r="202" spans="4:21">
-      <c r="D202" s="153"/>
-      <c r="E202" s="153"/>
-      <c r="F202" s="153"/>
-      <c r="G202" s="153"/>
-      <c r="H202" s="153"/>
-      <c r="I202" s="153"/>
-      <c r="J202" s="153"/>
-      <c r="K202" s="153"/>
-      <c r="L202" s="153"/>
-      <c r="M202" s="153"/>
-      <c r="N202" s="153"/>
-      <c r="O202" s="153"/>
-      <c r="P202" s="153"/>
-      <c r="Q202" s="153"/>
-      <c r="R202" s="153"/>
-      <c r="S202" s="153"/>
-      <c r="T202" s="153"/>
-      <c r="U202" s="153"/>
+      <c r="D202" s="156"/>
+      <c r="E202" s="156"/>
+      <c r="F202" s="156"/>
+      <c r="G202" s="156"/>
+      <c r="H202" s="156"/>
+      <c r="I202" s="156"/>
+      <c r="J202" s="156"/>
+      <c r="K202" s="156"/>
+      <c r="L202" s="156"/>
+      <c r="M202" s="156"/>
+      <c r="N202" s="156"/>
+      <c r="O202" s="156"/>
+      <c r="P202" s="156"/>
+      <c r="Q202" s="156"/>
+      <c r="R202" s="156"/>
+      <c r="S202" s="156"/>
+      <c r="T202" s="156"/>
+      <c r="U202" s="156"/>
     </row>
     <row r="203" spans="4:21">
-      <c r="D203" s="153"/>
-      <c r="E203" s="153"/>
-      <c r="F203" s="153"/>
-      <c r="G203" s="153"/>
-      <c r="H203" s="153"/>
-      <c r="I203" s="153"/>
-      <c r="J203" s="153"/>
-      <c r="K203" s="153"/>
-      <c r="L203" s="153"/>
-      <c r="M203" s="153"/>
-      <c r="N203" s="153"/>
-      <c r="O203" s="153"/>
-      <c r="P203" s="153"/>
-      <c r="Q203" s="153"/>
-      <c r="R203" s="153"/>
-      <c r="S203" s="153"/>
-      <c r="T203" s="153"/>
-      <c r="U203" s="153"/>
+      <c r="D203" s="156"/>
+      <c r="E203" s="156"/>
+      <c r="F203" s="156"/>
+      <c r="G203" s="156"/>
+      <c r="H203" s="156"/>
+      <c r="I203" s="156"/>
+      <c r="J203" s="156"/>
+      <c r="K203" s="156"/>
+      <c r="L203" s="156"/>
+      <c r="M203" s="156"/>
+      <c r="N203" s="156"/>
+      <c r="O203" s="156"/>
+      <c r="P203" s="156"/>
+      <c r="Q203" s="156"/>
+      <c r="R203" s="156"/>
+      <c r="S203" s="156"/>
+      <c r="T203" s="156"/>
+      <c r="U203" s="156"/>
     </row>
     <row r="204" spans="4:21">
-      <c r="D204" s="153"/>
-      <c r="E204" s="153"/>
-      <c r="F204" s="153"/>
-      <c r="G204" s="153"/>
-      <c r="H204" s="153"/>
-      <c r="I204" s="153"/>
-      <c r="J204" s="153"/>
-      <c r="K204" s="153"/>
-      <c r="L204" s="153"/>
-      <c r="M204" s="153"/>
-      <c r="N204" s="153"/>
-      <c r="O204" s="153"/>
-      <c r="P204" s="153"/>
-      <c r="Q204" s="153"/>
-      <c r="R204" s="153"/>
-      <c r="S204" s="153"/>
-      <c r="T204" s="153"/>
-      <c r="U204" s="153"/>
+      <c r="D204" s="156"/>
+      <c r="E204" s="156"/>
+      <c r="F204" s="156"/>
+      <c r="G204" s="156"/>
+      <c r="H204" s="156"/>
+      <c r="I204" s="156"/>
+      <c r="J204" s="156"/>
+      <c r="K204" s="156"/>
+      <c r="L204" s="156"/>
+      <c r="M204" s="156"/>
+      <c r="N204" s="156"/>
+      <c r="O204" s="156"/>
+      <c r="P204" s="156"/>
+      <c r="Q204" s="156"/>
+      <c r="R204" s="156"/>
+      <c r="S204" s="156"/>
+      <c r="T204" s="156"/>
+      <c r="U204" s="156"/>
     </row>
     <row r="205" spans="4:21">
-      <c r="D205" s="153"/>
-      <c r="E205" s="153"/>
-      <c r="F205" s="153"/>
-      <c r="G205" s="153"/>
-      <c r="H205" s="153"/>
-      <c r="I205" s="153"/>
-      <c r="J205" s="153"/>
-      <c r="K205" s="153"/>
-      <c r="L205" s="153"/>
-      <c r="M205" s="153"/>
-      <c r="N205" s="153"/>
-      <c r="O205" s="153"/>
-      <c r="P205" s="153"/>
-      <c r="Q205" s="153"/>
-      <c r="R205" s="153"/>
-      <c r="S205" s="153"/>
-      <c r="T205" s="153"/>
-      <c r="U205" s="153"/>
+      <c r="D205" s="156"/>
+      <c r="E205" s="156"/>
+      <c r="F205" s="156"/>
+      <c r="G205" s="156"/>
+      <c r="H205" s="156"/>
+      <c r="I205" s="156"/>
+      <c r="J205" s="156"/>
+      <c r="K205" s="156"/>
+      <c r="L205" s="156"/>
+      <c r="M205" s="156"/>
+      <c r="N205" s="156"/>
+      <c r="O205" s="156"/>
+      <c r="P205" s="156"/>
+      <c r="Q205" s="156"/>
+      <c r="R205" s="156"/>
+      <c r="S205" s="156"/>
+      <c r="T205" s="156"/>
+      <c r="U205" s="156"/>
     </row>
     <row r="206" spans="4:21">
-      <c r="D206" s="153"/>
-      <c r="E206" s="153"/>
-      <c r="F206" s="153"/>
-      <c r="G206" s="153"/>
-      <c r="H206" s="153"/>
-      <c r="I206" s="153"/>
-      <c r="J206" s="153"/>
-      <c r="K206" s="153"/>
-      <c r="L206" s="153"/>
-      <c r="M206" s="153"/>
-      <c r="N206" s="153"/>
-      <c r="O206" s="153"/>
-      <c r="P206" s="153"/>
-      <c r="Q206" s="153"/>
-      <c r="R206" s="153"/>
-      <c r="S206" s="153"/>
-      <c r="T206" s="153"/>
-      <c r="U206" s="153"/>
+      <c r="D206" s="156"/>
+      <c r="E206" s="156"/>
+      <c r="F206" s="156"/>
+      <c r="G206" s="156"/>
+      <c r="H206" s="156"/>
+      <c r="I206" s="156"/>
+      <c r="J206" s="156"/>
+      <c r="K206" s="156"/>
+      <c r="L206" s="156"/>
+      <c r="M206" s="156"/>
+      <c r="N206" s="156"/>
+      <c r="O206" s="156"/>
+      <c r="P206" s="156"/>
+      <c r="Q206" s="156"/>
+      <c r="R206" s="156"/>
+      <c r="S206" s="156"/>
+      <c r="T206" s="156"/>
+      <c r="U206" s="156"/>
     </row>
     <row r="207" spans="4:21">
-      <c r="D207" s="153"/>
-      <c r="E207" s="153"/>
-      <c r="F207" s="153"/>
-      <c r="G207" s="153"/>
-      <c r="H207" s="153"/>
-      <c r="I207" s="153"/>
-      <c r="J207" s="153"/>
-      <c r="K207" s="153"/>
-      <c r="L207" s="153"/>
-      <c r="M207" s="153"/>
-      <c r="N207" s="153"/>
-      <c r="O207" s="153"/>
-      <c r="P207" s="153"/>
-      <c r="Q207" s="153"/>
-      <c r="R207" s="153"/>
-      <c r="S207" s="153"/>
-      <c r="T207" s="153"/>
-      <c r="U207" s="153"/>
+      <c r="D207" s="156"/>
+      <c r="E207" s="156"/>
+      <c r="F207" s="156"/>
+      <c r="G207" s="156"/>
+      <c r="H207" s="156"/>
+      <c r="I207" s="156"/>
+      <c r="J207" s="156"/>
+      <c r="K207" s="156"/>
+      <c r="L207" s="156"/>
+      <c r="M207" s="156"/>
+      <c r="N207" s="156"/>
+      <c r="O207" s="156"/>
+      <c r="P207" s="156"/>
+      <c r="Q207" s="156"/>
+      <c r="R207" s="156"/>
+      <c r="S207" s="156"/>
+      <c r="T207" s="156"/>
+      <c r="U207" s="156"/>
     </row>
     <row r="208" spans="4:21">
-      <c r="D208" s="153"/>
-      <c r="E208" s="153"/>
-      <c r="F208" s="153"/>
-      <c r="G208" s="153"/>
-      <c r="H208" s="153"/>
-      <c r="I208" s="153"/>
-      <c r="J208" s="153"/>
-      <c r="K208" s="153"/>
-      <c r="L208" s="153"/>
-      <c r="M208" s="153"/>
-      <c r="N208" s="153"/>
-      <c r="O208" s="153"/>
-      <c r="P208" s="153"/>
-      <c r="Q208" s="153"/>
-      <c r="R208" s="153"/>
-      <c r="S208" s="153"/>
-      <c r="T208" s="153"/>
-      <c r="U208" s="153"/>
+      <c r="D208" s="156"/>
+      <c r="E208" s="156"/>
+      <c r="F208" s="156"/>
+      <c r="G208" s="156"/>
+      <c r="H208" s="156"/>
+      <c r="I208" s="156"/>
+      <c r="J208" s="156"/>
+      <c r="K208" s="156"/>
+      <c r="L208" s="156"/>
+      <c r="M208" s="156"/>
+      <c r="N208" s="156"/>
+      <c r="O208" s="156"/>
+      <c r="P208" s="156"/>
+      <c r="Q208" s="156"/>
+      <c r="R208" s="156"/>
+      <c r="S208" s="156"/>
+      <c r="T208" s="156"/>
+      <c r="U208" s="156"/>
     </row>
     <row r="209" spans="4:21">
-      <c r="D209" s="153"/>
-      <c r="E209" s="153"/>
-      <c r="F209" s="153"/>
-      <c r="G209" s="153"/>
-      <c r="H209" s="153"/>
-      <c r="I209" s="153"/>
-      <c r="J209" s="153"/>
-      <c r="K209" s="153"/>
-      <c r="L209" s="153"/>
-      <c r="M209" s="153"/>
-      <c r="N209" s="153"/>
-      <c r="O209" s="153"/>
-      <c r="P209" s="153"/>
-      <c r="Q209" s="153"/>
-      <c r="R209" s="153"/>
-      <c r="S209" s="153"/>
-      <c r="T209" s="153"/>
-      <c r="U209" s="153"/>
+      <c r="D209" s="156"/>
+      <c r="E209" s="156"/>
+      <c r="F209" s="156"/>
+      <c r="G209" s="156"/>
+      <c r="H209" s="156"/>
+      <c r="I209" s="156"/>
+      <c r="J209" s="156"/>
+      <c r="K209" s="156"/>
+      <c r="L209" s="156"/>
+      <c r="M209" s="156"/>
+      <c r="N209" s="156"/>
+      <c r="O209" s="156"/>
+      <c r="P209" s="156"/>
+      <c r="Q209" s="156"/>
+      <c r="R209" s="156"/>
+      <c r="S209" s="156"/>
+      <c r="T209" s="156"/>
+      <c r="U209" s="156"/>
     </row>
     <row r="210" spans="4:21">
-      <c r="D210" s="153"/>
-      <c r="E210" s="153"/>
-      <c r="F210" s="153"/>
-      <c r="G210" s="153"/>
-      <c r="H210" s="153"/>
-      <c r="I210" s="153"/>
-      <c r="J210" s="153"/>
-      <c r="K210" s="153"/>
-      <c r="L210" s="153"/>
-      <c r="M210" s="153"/>
-      <c r="N210" s="153"/>
-      <c r="O210" s="153"/>
-      <c r="P210" s="153"/>
-      <c r="Q210" s="153"/>
-      <c r="R210" s="153"/>
-      <c r="S210" s="153"/>
-      <c r="T210" s="153"/>
-      <c r="U210" s="153"/>
+      <c r="D210" s="156"/>
+      <c r="E210" s="156"/>
+      <c r="F210" s="156"/>
+      <c r="G210" s="156"/>
+      <c r="H210" s="156"/>
+      <c r="I210" s="156"/>
+      <c r="J210" s="156"/>
+      <c r="K210" s="156"/>
+      <c r="L210" s="156"/>
+      <c r="M210" s="156"/>
+      <c r="N210" s="156"/>
+      <c r="O210" s="156"/>
+      <c r="P210" s="156"/>
+      <c r="Q210" s="156"/>
+      <c r="R210" s="156"/>
+      <c r="S210" s="156"/>
+      <c r="T210" s="156"/>
+      <c r="U210" s="156"/>
     </row>
     <row r="211" spans="4:21">
-      <c r="D211" s="153"/>
-      <c r="E211" s="153"/>
-      <c r="F211" s="153"/>
-      <c r="G211" s="153"/>
-      <c r="H211" s="153"/>
-      <c r="I211" s="153"/>
-      <c r="J211" s="153"/>
-      <c r="K211" s="153"/>
-      <c r="L211" s="153"/>
-      <c r="M211" s="153"/>
-      <c r="N211" s="153"/>
-      <c r="O211" s="153"/>
-      <c r="P211" s="153"/>
-      <c r="Q211" s="153"/>
-      <c r="R211" s="153"/>
-      <c r="S211" s="153"/>
-      <c r="T211" s="153"/>
-      <c r="U211" s="153"/>
+      <c r="D211" s="156"/>
+      <c r="E211" s="156"/>
+      <c r="F211" s="156"/>
+      <c r="G211" s="156"/>
+      <c r="H211" s="156"/>
+      <c r="I211" s="156"/>
+      <c r="J211" s="156"/>
+      <c r="K211" s="156"/>
+      <c r="L211" s="156"/>
+      <c r="M211" s="156"/>
+      <c r="N211" s="156"/>
+      <c r="O211" s="156"/>
+      <c r="P211" s="156"/>
+      <c r="Q211" s="156"/>
+      <c r="R211" s="156"/>
+      <c r="S211" s="156"/>
+      <c r="T211" s="156"/>
+      <c r="U211" s="156"/>
     </row>
     <row r="212" spans="4:21">
-      <c r="D212" s="153"/>
-      <c r="E212" s="153"/>
-      <c r="F212" s="153"/>
-      <c r="G212" s="153"/>
-      <c r="H212" s="153"/>
-      <c r="I212" s="153"/>
-      <c r="J212" s="153"/>
-      <c r="K212" s="153"/>
-      <c r="L212" s="153"/>
-      <c r="M212" s="153"/>
-      <c r="N212" s="153"/>
-      <c r="O212" s="153"/>
-      <c r="P212" s="153"/>
-      <c r="Q212" s="153"/>
-      <c r="R212" s="153"/>
-      <c r="S212" s="153"/>
-      <c r="T212" s="153"/>
-      <c r="U212" s="153"/>
+      <c r="D212" s="156"/>
+      <c r="E212" s="156"/>
+      <c r="F212" s="156"/>
+      <c r="G212" s="156"/>
+      <c r="H212" s="156"/>
+      <c r="I212" s="156"/>
+      <c r="J212" s="156"/>
+      <c r="K212" s="156"/>
+      <c r="L212" s="156"/>
+      <c r="M212" s="156"/>
+      <c r="N212" s="156"/>
+      <c r="O212" s="156"/>
+      <c r="P212" s="156"/>
+      <c r="Q212" s="156"/>
+      <c r="R212" s="156"/>
+      <c r="S212" s="156"/>
+      <c r="T212" s="156"/>
+      <c r="U212" s="156"/>
     </row>
     <row r="213" spans="4:21">
-      <c r="D213" s="153"/>
-      <c r="E213" s="153"/>
-      <c r="F213" s="153"/>
-      <c r="G213" s="153"/>
-      <c r="H213" s="153"/>
-      <c r="I213" s="153"/>
-      <c r="J213" s="153"/>
-      <c r="K213" s="153"/>
-      <c r="L213" s="153"/>
-      <c r="M213" s="153"/>
-      <c r="N213" s="153"/>
-      <c r="O213" s="153"/>
-      <c r="P213" s="153"/>
-      <c r="Q213" s="153"/>
-      <c r="R213" s="153"/>
-      <c r="S213" s="153"/>
-      <c r="T213" s="153"/>
-      <c r="U213" s="153"/>
+      <c r="D213" s="156"/>
+      <c r="E213" s="156"/>
+      <c r="F213" s="156"/>
+      <c r="G213" s="156"/>
+      <c r="H213" s="156"/>
+      <c r="I213" s="156"/>
+      <c r="J213" s="156"/>
+      <c r="K213" s="156"/>
+      <c r="L213" s="156"/>
+      <c r="M213" s="156"/>
+      <c r="N213" s="156"/>
+      <c r="O213" s="156"/>
+      <c r="P213" s="156"/>
+      <c r="Q213" s="156"/>
+      <c r="R213" s="156"/>
+      <c r="S213" s="156"/>
+      <c r="T213" s="156"/>
+      <c r="U213" s="156"/>
     </row>
     <row r="214" spans="4:21">
-      <c r="D214" s="153"/>
-      <c r="E214" s="153"/>
-      <c r="F214" s="153"/>
-      <c r="G214" s="153"/>
-      <c r="H214" s="153"/>
-      <c r="I214" s="153"/>
-      <c r="J214" s="153"/>
-      <c r="K214" s="153"/>
-      <c r="L214" s="153"/>
-      <c r="M214" s="153"/>
-      <c r="N214" s="153"/>
-      <c r="O214" s="153"/>
-      <c r="P214" s="153"/>
-      <c r="Q214" s="153"/>
-      <c r="R214" s="153"/>
-      <c r="S214" s="153"/>
-      <c r="T214" s="153"/>
-      <c r="U214" s="153"/>
+      <c r="D214" s="156"/>
+      <c r="E214" s="156"/>
+      <c r="F214" s="156"/>
+      <c r="G214" s="156"/>
+      <c r="H214" s="156"/>
+      <c r="I214" s="156"/>
+      <c r="J214" s="156"/>
+      <c r="K214" s="156"/>
+      <c r="L214" s="156"/>
+      <c r="M214" s="156"/>
+      <c r="N214" s="156"/>
+      <c r="O214" s="156"/>
+      <c r="P214" s="156"/>
+      <c r="Q214" s="156"/>
+      <c r="R214" s="156"/>
+      <c r="S214" s="156"/>
+      <c r="T214" s="156"/>
+      <c r="U214" s="156"/>
     </row>
     <row r="215" spans="4:21">
-      <c r="D215" s="153"/>
-      <c r="E215" s="153"/>
-      <c r="F215" s="153"/>
-      <c r="G215" s="153"/>
-      <c r="H215" s="153"/>
-      <c r="I215" s="153"/>
-      <c r="J215" s="153"/>
-      <c r="K215" s="153"/>
-      <c r="L215" s="153"/>
-      <c r="M215" s="153"/>
-      <c r="N215" s="153"/>
-      <c r="O215" s="153"/>
-      <c r="P215" s="153"/>
-      <c r="Q215" s="153"/>
-      <c r="R215" s="153"/>
-      <c r="S215" s="153"/>
-      <c r="T215" s="153"/>
-      <c r="U215" s="153"/>
+      <c r="D215" s="156"/>
+      <c r="E215" s="156"/>
+      <c r="F215" s="156"/>
+      <c r="G215" s="156"/>
+      <c r="H215" s="156"/>
+      <c r="I215" s="156"/>
+      <c r="J215" s="156"/>
+      <c r="K215" s="156"/>
+      <c r="L215" s="156"/>
+      <c r="M215" s="156"/>
+      <c r="N215" s="156"/>
+      <c r="O215" s="156"/>
+      <c r="P215" s="156"/>
+      <c r="Q215" s="156"/>
+      <c r="R215" s="156"/>
+      <c r="S215" s="156"/>
+      <c r="T215" s="156"/>
+      <c r="U215" s="156"/>
     </row>
     <row r="216" spans="4:21">
-      <c r="D216" s="153"/>
-      <c r="E216" s="153"/>
-      <c r="F216" s="153"/>
-      <c r="G216" s="153"/>
-      <c r="H216" s="153"/>
-      <c r="I216" s="153"/>
-      <c r="J216" s="153"/>
-      <c r="K216" s="153"/>
-      <c r="L216" s="153"/>
-      <c r="M216" s="153"/>
-      <c r="N216" s="153"/>
-      <c r="O216" s="153"/>
-      <c r="P216" s="153"/>
-      <c r="Q216" s="153"/>
-      <c r="R216" s="153"/>
-      <c r="S216" s="153"/>
-      <c r="T216" s="153"/>
-      <c r="U216" s="153"/>
+      <c r="D216" s="156"/>
+      <c r="E216" s="156"/>
+      <c r="F216" s="156"/>
+      <c r="G216" s="156"/>
+      <c r="H216" s="156"/>
+      <c r="I216" s="156"/>
+      <c r="J216" s="156"/>
+      <c r="K216" s="156"/>
+      <c r="L216" s="156"/>
+      <c r="M216" s="156"/>
+      <c r="N216" s="156"/>
+      <c r="O216" s="156"/>
+      <c r="P216" s="156"/>
+      <c r="Q216" s="156"/>
+      <c r="R216" s="156"/>
+      <c r="S216" s="156"/>
+      <c r="T216" s="156"/>
+      <c r="U216" s="156"/>
     </row>
     <row r="217" spans="4:21">
-      <c r="D217" s="153"/>
-      <c r="E217" s="153"/>
-      <c r="F217" s="153"/>
-      <c r="G217" s="153"/>
-      <c r="H217" s="153"/>
-      <c r="I217" s="153"/>
-      <c r="J217" s="153"/>
-      <c r="K217" s="153"/>
-      <c r="L217" s="153"/>
-      <c r="M217" s="153"/>
-      <c r="N217" s="153"/>
-      <c r="O217" s="153"/>
-      <c r="P217" s="153"/>
-      <c r="Q217" s="153"/>
-      <c r="R217" s="153"/>
-      <c r="S217" s="153"/>
-      <c r="T217" s="153"/>
-      <c r="U217" s="153"/>
+      <c r="D217" s="156"/>
+      <c r="E217" s="156"/>
+      <c r="F217" s="156"/>
+      <c r="G217" s="156"/>
+      <c r="H217" s="156"/>
+      <c r="I217" s="156"/>
+      <c r="J217" s="156"/>
+      <c r="K217" s="156"/>
+      <c r="L217" s="156"/>
+      <c r="M217" s="156"/>
+      <c r="N217" s="156"/>
+      <c r="O217" s="156"/>
+      <c r="P217" s="156"/>
+      <c r="Q217" s="156"/>
+      <c r="R217" s="156"/>
+      <c r="S217" s="156"/>
+      <c r="T217" s="156"/>
+      <c r="U217" s="156"/>
     </row>
     <row r="218" spans="4:21">
-      <c r="D218" s="153"/>
-      <c r="E218" s="153"/>
-      <c r="F218" s="153"/>
-      <c r="G218" s="153"/>
-      <c r="H218" s="153"/>
-      <c r="I218" s="153"/>
-      <c r="J218" s="153"/>
-      <c r="K218" s="153"/>
-      <c r="L218" s="153"/>
-      <c r="M218" s="153"/>
-      <c r="N218" s="153"/>
-      <c r="O218" s="153"/>
-      <c r="P218" s="153"/>
-      <c r="Q218" s="153"/>
-      <c r="R218" s="153"/>
-      <c r="S218" s="153"/>
-      <c r="T218" s="153"/>
-      <c r="U218" s="153"/>
+      <c r="D218" s="156"/>
+      <c r="E218" s="156"/>
+      <c r="F218" s="156"/>
+      <c r="G218" s="156"/>
+      <c r="H218" s="156"/>
+      <c r="I218" s="156"/>
+      <c r="J218" s="156"/>
+      <c r="K218" s="156"/>
+      <c r="L218" s="156"/>
+      <c r="M218" s="156"/>
+      <c r="N218" s="156"/>
+      <c r="O218" s="156"/>
+      <c r="P218" s="156"/>
+      <c r="Q218" s="156"/>
+      <c r="R218" s="156"/>
+      <c r="S218" s="156"/>
+      <c r="T218" s="156"/>
+      <c r="U218" s="156"/>
     </row>
     <row r="219" spans="4:21">
-      <c r="D219" s="153"/>
-      <c r="E219" s="153"/>
-      <c r="F219" s="153"/>
-      <c r="G219" s="153"/>
-      <c r="H219" s="153"/>
-      <c r="I219" s="153"/>
-      <c r="J219" s="153"/>
-      <c r="K219" s="153"/>
-      <c r="L219" s="153"/>
-      <c r="M219" s="153"/>
-      <c r="N219" s="153"/>
-      <c r="O219" s="153"/>
-      <c r="P219" s="153"/>
-      <c r="Q219" s="153"/>
-      <c r="R219" s="153"/>
-      <c r="S219" s="153"/>
-      <c r="T219" s="153"/>
-      <c r="U219" s="153"/>
+      <c r="D219" s="156"/>
+      <c r="E219" s="156"/>
+      <c r="F219" s="156"/>
+      <c r="G219" s="156"/>
+      <c r="H219" s="156"/>
+      <c r="I219" s="156"/>
+      <c r="J219" s="156"/>
+      <c r="K219" s="156"/>
+      <c r="L219" s="156"/>
+      <c r="M219" s="156"/>
+      <c r="N219" s="156"/>
+      <c r="O219" s="156"/>
+      <c r="P219" s="156"/>
+      <c r="Q219" s="156"/>
+      <c r="R219" s="156"/>
+      <c r="S219" s="156"/>
+      <c r="T219" s="156"/>
+      <c r="U219" s="156"/>
     </row>
     <row r="220" spans="4:21">
-      <c r="D220" s="153"/>
-      <c r="E220" s="153"/>
-      <c r="F220" s="153"/>
-      <c r="G220" s="153"/>
-      <c r="H220" s="153"/>
-      <c r="I220" s="153"/>
-      <c r="J220" s="153"/>
-      <c r="K220" s="153"/>
-      <c r="L220" s="153"/>
-      <c r="M220" s="153"/>
-      <c r="N220" s="153"/>
-      <c r="O220" s="153"/>
-      <c r="P220" s="153"/>
-      <c r="Q220" s="153"/>
-      <c r="R220" s="153"/>
-      <c r="S220" s="153"/>
-      <c r="T220" s="153"/>
-      <c r="U220" s="153"/>
+      <c r="D220" s="156"/>
+      <c r="E220" s="156"/>
+      <c r="F220" s="156"/>
+      <c r="G220" s="156"/>
+      <c r="H220" s="156"/>
+      <c r="I220" s="156"/>
+      <c r="J220" s="156"/>
+      <c r="K220" s="156"/>
+      <c r="L220" s="156"/>
+      <c r="M220" s="156"/>
+      <c r="N220" s="156"/>
+      <c r="O220" s="156"/>
+      <c r="P220" s="156"/>
+      <c r="Q220" s="156"/>
+      <c r="R220" s="156"/>
+      <c r="S220" s="156"/>
+      <c r="T220" s="156"/>
+      <c r="U220" s="156"/>
     </row>
     <row r="221" spans="4:21">
-      <c r="D221" s="153"/>
-      <c r="E221" s="153"/>
-      <c r="F221" s="153"/>
-      <c r="G221" s="153"/>
-      <c r="H221" s="153"/>
-      <c r="I221" s="153"/>
-      <c r="J221" s="153"/>
-      <c r="K221" s="153"/>
-      <c r="L221" s="153"/>
-      <c r="M221" s="153"/>
-      <c r="N221" s="153"/>
-      <c r="O221" s="153"/>
-      <c r="P221" s="153"/>
-      <c r="Q221" s="153"/>
-      <c r="R221" s="153"/>
-      <c r="S221" s="153"/>
-      <c r="T221" s="153"/>
-      <c r="U221" s="153"/>
+      <c r="D221" s="156"/>
+      <c r="E221" s="156"/>
+      <c r="F221" s="156"/>
+      <c r="G221" s="156"/>
+      <c r="H221" s="156"/>
+      <c r="I221" s="156"/>
+      <c r="J221" s="156"/>
+      <c r="K221" s="156"/>
+      <c r="L221" s="156"/>
+      <c r="M221" s="156"/>
+      <c r="N221" s="156"/>
+      <c r="O221" s="156"/>
+      <c r="P221" s="156"/>
+      <c r="Q221" s="156"/>
+      <c r="R221" s="156"/>
+      <c r="S221" s="156"/>
+      <c r="T221" s="156"/>
+      <c r="U221" s="156"/>
     </row>
     <row r="222" spans="4:21">
-      <c r="D222" s="153"/>
-      <c r="E222" s="153"/>
-      <c r="F222" s="153"/>
-      <c r="G222" s="153"/>
-      <c r="H222" s="153"/>
-      <c r="I222" s="153"/>
-      <c r="J222" s="153"/>
-      <c r="K222" s="153"/>
-      <c r="L222" s="153"/>
-      <c r="M222" s="153"/>
-      <c r="N222" s="153"/>
-      <c r="O222" s="153"/>
-      <c r="P222" s="153"/>
-      <c r="Q222" s="153"/>
-      <c r="R222" s="153"/>
-      <c r="S222" s="153"/>
-      <c r="T222" s="153"/>
-      <c r="U222" s="153"/>
+      <c r="D222" s="156"/>
+      <c r="E222" s="156"/>
+      <c r="F222" s="156"/>
+      <c r="G222" s="156"/>
+      <c r="H222" s="156"/>
+      <c r="I222" s="156"/>
+      <c r="J222" s="156"/>
+      <c r="K222" s="156"/>
+      <c r="L222" s="156"/>
+      <c r="M222" s="156"/>
+      <c r="N222" s="156"/>
+      <c r="O222" s="156"/>
+      <c r="P222" s="156"/>
+      <c r="Q222" s="156"/>
+      <c r="R222" s="156"/>
+      <c r="S222" s="156"/>
+      <c r="T222" s="156"/>
+      <c r="U222" s="156"/>
     </row>
     <row r="223" spans="4:21">
-      <c r="D223" s="153"/>
-      <c r="E223" s="153"/>
-      <c r="F223" s="153"/>
-      <c r="G223" s="153"/>
-      <c r="H223" s="153"/>
-      <c r="I223" s="153"/>
-      <c r="J223" s="153"/>
-      <c r="K223" s="153"/>
-      <c r="L223" s="153"/>
-      <c r="M223" s="153"/>
-      <c r="N223" s="153"/>
-      <c r="O223" s="153"/>
-      <c r="P223" s="153"/>
-      <c r="Q223" s="153"/>
-      <c r="R223" s="153"/>
-      <c r="S223" s="153"/>
-      <c r="T223" s="153"/>
-      <c r="U223" s="153"/>
+      <c r="D223" s="156"/>
+      <c r="E223" s="156"/>
+      <c r="F223" s="156"/>
+      <c r="G223" s="156"/>
+      <c r="H223" s="156"/>
+      <c r="I223" s="156"/>
+      <c r="J223" s="156"/>
+      <c r="K223" s="156"/>
+      <c r="L223" s="156"/>
+      <c r="M223" s="156"/>
+      <c r="N223" s="156"/>
+      <c r="O223" s="156"/>
+      <c r="P223" s="156"/>
+      <c r="Q223" s="156"/>
+      <c r="R223" s="156"/>
+      <c r="S223" s="156"/>
+      <c r="T223" s="156"/>
+      <c r="U223" s="156"/>
     </row>
     <row r="224" spans="4:21">
-      <c r="D224" s="153"/>
-      <c r="E224" s="153"/>
-      <c r="F224" s="153"/>
-      <c r="G224" s="153"/>
-      <c r="H224" s="153"/>
-      <c r="I224" s="153"/>
-      <c r="J224" s="153"/>
-      <c r="K224" s="153"/>
-      <c r="L224" s="153"/>
-      <c r="M224" s="153"/>
-      <c r="N224" s="153"/>
-      <c r="O224" s="153"/>
-      <c r="P224" s="153"/>
-      <c r="Q224" s="153"/>
-      <c r="R224" s="153"/>
-      <c r="S224" s="153"/>
-      <c r="T224" s="153"/>
-      <c r="U224" s="153"/>
+      <c r="D224" s="156"/>
+      <c r="E224" s="156"/>
+      <c r="F224" s="156"/>
+      <c r="G224" s="156"/>
+      <c r="H224" s="156"/>
+      <c r="I224" s="156"/>
+      <c r="J224" s="156"/>
+      <c r="K224" s="156"/>
+      <c r="L224" s="156"/>
+      <c r="M224" s="156"/>
+      <c r="N224" s="156"/>
+      <c r="O224" s="156"/>
+      <c r="P224" s="156"/>
+      <c r="Q224" s="156"/>
+      <c r="R224" s="156"/>
+      <c r="S224" s="156"/>
+      <c r="T224" s="156"/>
+      <c r="U224" s="156"/>
     </row>
     <row r="225" spans="4:21">
-      <c r="D225" s="153"/>
-      <c r="E225" s="153"/>
-      <c r="F225" s="153"/>
-      <c r="G225" s="153"/>
-      <c r="H225" s="153"/>
-      <c r="I225" s="153"/>
-      <c r="J225" s="153"/>
-      <c r="K225" s="153"/>
-      <c r="L225" s="153"/>
-      <c r="M225" s="153"/>
-      <c r="N225" s="153"/>
-      <c r="O225" s="153"/>
-      <c r="P225" s="153"/>
-      <c r="Q225" s="153"/>
-      <c r="R225" s="153"/>
-      <c r="S225" s="153"/>
-      <c r="T225" s="153"/>
-      <c r="U225" s="153"/>
+      <c r="D225" s="156"/>
+      <c r="E225" s="156"/>
+      <c r="F225" s="156"/>
+      <c r="G225" s="156"/>
+      <c r="H225" s="156"/>
+      <c r="I225" s="156"/>
+      <c r="J225" s="156"/>
+      <c r="K225" s="156"/>
+      <c r="L225" s="156"/>
+      <c r="M225" s="156"/>
+      <c r="N225" s="156"/>
+      <c r="O225" s="156"/>
+      <c r="P225" s="156"/>
+      <c r="Q225" s="156"/>
+      <c r="R225" s="156"/>
+      <c r="S225" s="156"/>
+      <c r="T225" s="156"/>
+      <c r="U225" s="156"/>
     </row>
     <row r="226" spans="4:21">
-      <c r="D226" s="153"/>
-      <c r="E226" s="153"/>
-      <c r="F226" s="153"/>
-      <c r="G226" s="153"/>
-      <c r="H226" s="153"/>
-      <c r="I226" s="153"/>
-      <c r="J226" s="153"/>
-      <c r="K226" s="153"/>
-      <c r="L226" s="153"/>
-      <c r="M226" s="153"/>
-      <c r="N226" s="153"/>
-      <c r="O226" s="153"/>
-      <c r="P226" s="153"/>
-      <c r="Q226" s="153"/>
-      <c r="R226" s="153"/>
-      <c r="S226" s="153"/>
-      <c r="T226" s="153"/>
-      <c r="U226" s="153"/>
+      <c r="D226" s="156"/>
+      <c r="E226" s="156"/>
+      <c r="F226" s="156"/>
+      <c r="G226" s="156"/>
+      <c r="H226" s="156"/>
+      <c r="I226" s="156"/>
+      <c r="J226" s="156"/>
+      <c r="K226" s="156"/>
+      <c r="L226" s="156"/>
+      <c r="M226" s="156"/>
+      <c r="N226" s="156"/>
+      <c r="O226" s="156"/>
+      <c r="P226" s="156"/>
+      <c r="Q226" s="156"/>
+      <c r="R226" s="156"/>
+      <c r="S226" s="156"/>
+      <c r="T226" s="156"/>
+      <c r="U226" s="156"/>
     </row>
     <row r="227" spans="4:21">
-      <c r="D227" s="153"/>
-      <c r="E227" s="153"/>
-      <c r="F227" s="153"/>
-      <c r="G227" s="153"/>
-      <c r="H227" s="153"/>
-      <c r="I227" s="153"/>
-      <c r="J227" s="153"/>
-      <c r="K227" s="153"/>
-      <c r="L227" s="153"/>
-      <c r="M227" s="153"/>
-      <c r="N227" s="153"/>
-      <c r="O227" s="153"/>
-      <c r="P227" s="153"/>
-      <c r="Q227" s="153"/>
-      <c r="R227" s="153"/>
-      <c r="S227" s="153"/>
-      <c r="T227" s="153"/>
-      <c r="U227" s="153"/>
+      <c r="D227" s="156"/>
+      <c r="E227" s="156"/>
+      <c r="F227" s="156"/>
+      <c r="G227" s="156"/>
+      <c r="H227" s="156"/>
+      <c r="I227" s="156"/>
+      <c r="J227" s="156"/>
+      <c r="K227" s="156"/>
+      <c r="L227" s="156"/>
+      <c r="M227" s="156"/>
+      <c r="N227" s="156"/>
+      <c r="O227" s="156"/>
+      <c r="P227" s="156"/>
+      <c r="Q227" s="156"/>
+      <c r="R227" s="156"/>
+      <c r="S227" s="156"/>
+      <c r="T227" s="156"/>
+      <c r="U227" s="156"/>
     </row>
     <row r="228" spans="4:21">
-      <c r="D228" s="153"/>
-      <c r="E228" s="153"/>
-      <c r="F228" s="153"/>
-      <c r="G228" s="153"/>
-      <c r="H228" s="153"/>
-      <c r="I228" s="153"/>
-      <c r="J228" s="153"/>
-      <c r="K228" s="153"/>
-      <c r="L228" s="153"/>
-      <c r="M228" s="153"/>
-      <c r="N228" s="153"/>
-      <c r="O228" s="153"/>
-      <c r="P228" s="153"/>
-      <c r="Q228" s="153"/>
-      <c r="R228" s="153"/>
-      <c r="S228" s="153"/>
-      <c r="T228" s="153"/>
-      <c r="U228" s="153"/>
+      <c r="D228" s="156"/>
+      <c r="E228" s="156"/>
+      <c r="F228" s="156"/>
+      <c r="G228" s="156"/>
+      <c r="H228" s="156"/>
+      <c r="I228" s="156"/>
+      <c r="J228" s="156"/>
+      <c r="K228" s="156"/>
+      <c r="L228" s="156"/>
+      <c r="M228" s="156"/>
+      <c r="N228" s="156"/>
+      <c r="O228" s="156"/>
+      <c r="P228" s="156"/>
+      <c r="Q228" s="156"/>
+      <c r="R228" s="156"/>
+      <c r="S228" s="156"/>
+      <c r="T228" s="156"/>
+      <c r="U228" s="156"/>
     </row>
     <row r="229" spans="4:21">
-      <c r="D229" s="153"/>
-      <c r="E229" s="153"/>
-      <c r="F229" s="153"/>
-      <c r="G229" s="153"/>
-      <c r="H229" s="153"/>
-      <c r="I229" s="153"/>
-      <c r="J229" s="153"/>
-      <c r="K229" s="153"/>
-      <c r="L229" s="153"/>
-      <c r="M229" s="153"/>
-      <c r="N229" s="153"/>
-      <c r="O229" s="153"/>
-      <c r="P229" s="153"/>
-      <c r="Q229" s="153"/>
-      <c r="R229" s="153"/>
-      <c r="S229" s="153"/>
-      <c r="T229" s="153"/>
-      <c r="U229" s="153"/>
+      <c r="D229" s="156"/>
+      <c r="E229" s="156"/>
+      <c r="F229" s="156"/>
+      <c r="G229" s="156"/>
+      <c r="H229" s="156"/>
+      <c r="I229" s="156"/>
+      <c r="J229" s="156"/>
+      <c r="K229" s="156"/>
+      <c r="L229" s="156"/>
+      <c r="M229" s="156"/>
+      <c r="N229" s="156"/>
+      <c r="O229" s="156"/>
+      <c r="P229" s="156"/>
+      <c r="Q229" s="156"/>
+      <c r="R229" s="156"/>
+      <c r="S229" s="156"/>
+      <c r="T229" s="156"/>
+      <c r="U229" s="156"/>
     </row>
     <row r="230" spans="4:21">
-      <c r="D230" s="153"/>
-      <c r="E230" s="153"/>
-      <c r="F230" s="153"/>
-      <c r="G230" s="153"/>
-      <c r="H230" s="153"/>
-      <c r="I230" s="153"/>
-      <c r="J230" s="153"/>
-      <c r="K230" s="153"/>
-      <c r="L230" s="153"/>
-      <c r="M230" s="153"/>
-      <c r="N230" s="153"/>
-      <c r="O230" s="153"/>
-      <c r="P230" s="153"/>
-      <c r="Q230" s="153"/>
-      <c r="R230" s="153"/>
-      <c r="S230" s="153"/>
-      <c r="T230" s="153"/>
-      <c r="U230" s="153"/>
+      <c r="D230" s="156"/>
+      <c r="E230" s="156"/>
+      <c r="F230" s="156"/>
+      <c r="G230" s="156"/>
+      <c r="H230" s="156"/>
+      <c r="I230" s="156"/>
+      <c r="J230" s="156"/>
+      <c r="K230" s="156"/>
+      <c r="L230" s="156"/>
+      <c r="M230" s="156"/>
+      <c r="N230" s="156"/>
+      <c r="O230" s="156"/>
+      <c r="P230" s="156"/>
+      <c r="Q230" s="156"/>
+      <c r="R230" s="156"/>
+      <c r="S230" s="156"/>
+      <c r="T230" s="156"/>
+      <c r="U230" s="156"/>
     </row>
     <row r="231" spans="4:21">
-      <c r="D231" s="153"/>
-      <c r="E231" s="153"/>
-      <c r="F231" s="153"/>
-      <c r="G231" s="153"/>
-      <c r="H231" s="153"/>
-      <c r="I231" s="153"/>
-      <c r="J231" s="153"/>
-      <c r="K231" s="153"/>
-      <c r="L231" s="153"/>
-      <c r="M231" s="153"/>
-      <c r="N231" s="153"/>
-      <c r="O231" s="153"/>
-      <c r="P231" s="153"/>
-      <c r="Q231" s="153"/>
-      <c r="R231" s="153"/>
-      <c r="S231" s="153"/>
-      <c r="T231" s="153"/>
-      <c r="U231" s="153"/>
+      <c r="D231" s="156"/>
+      <c r="E231" s="156"/>
+      <c r="F231" s="156"/>
+      <c r="G231" s="156"/>
+      <c r="H231" s="156"/>
+      <c r="I231" s="156"/>
+      <c r="J231" s="156"/>
+      <c r="K231" s="156"/>
+      <c r="L231" s="156"/>
+      <c r="M231" s="156"/>
+      <c r="N231" s="156"/>
+      <c r="O231" s="156"/>
+      <c r="P231" s="156"/>
+      <c r="Q231" s="156"/>
+      <c r="R231" s="156"/>
+      <c r="S231" s="156"/>
+      <c r="T231" s="156"/>
+      <c r="U231" s="156"/>
     </row>
     <row r="232" spans="4:21">
-      <c r="D232" s="153"/>
-      <c r="E232" s="153"/>
-      <c r="F232" s="153"/>
-      <c r="G232" s="153"/>
-      <c r="H232" s="153"/>
-      <c r="I232" s="153"/>
-      <c r="J232" s="153"/>
-      <c r="K232" s="153"/>
-      <c r="L232" s="153"/>
-      <c r="M232" s="153"/>
-      <c r="N232" s="153"/>
-      <c r="O232" s="153"/>
-      <c r="P232" s="153"/>
-      <c r="Q232" s="153"/>
-      <c r="R232" s="153"/>
-      <c r="S232" s="153"/>
-      <c r="T232" s="153"/>
-      <c r="U232" s="153"/>
+      <c r="D232" s="156"/>
+      <c r="E232" s="156"/>
+      <c r="F232" s="156"/>
+      <c r="G232" s="156"/>
+      <c r="H232" s="156"/>
+      <c r="I232" s="156"/>
+      <c r="J232" s="156"/>
+      <c r="K232" s="156"/>
+      <c r="L232" s="156"/>
+      <c r="M232" s="156"/>
+      <c r="N232" s="156"/>
+      <c r="O232" s="156"/>
+      <c r="P232" s="156"/>
+      <c r="Q232" s="156"/>
+      <c r="R232" s="156"/>
+      <c r="S232" s="156"/>
+      <c r="T232" s="156"/>
+      <c r="U232" s="156"/>
     </row>
     <row r="233" spans="4:21">
-      <c r="D233" s="153"/>
-      <c r="E233" s="153"/>
-      <c r="F233" s="153"/>
-      <c r="G233" s="153"/>
-      <c r="H233" s="153"/>
-      <c r="I233" s="153"/>
-      <c r="J233" s="153"/>
-      <c r="K233" s="153"/>
-      <c r="L233" s="153"/>
-      <c r="M233" s="153"/>
-      <c r="N233" s="153"/>
-      <c r="O233" s="153"/>
-      <c r="P233" s="153"/>
-      <c r="Q233" s="153"/>
-      <c r="R233" s="153"/>
-      <c r="S233" s="153"/>
-      <c r="T233" s="153"/>
-      <c r="U233" s="153"/>
+      <c r="D233" s="156"/>
+      <c r="E233" s="156"/>
+      <c r="F233" s="156"/>
+      <c r="G233" s="156"/>
+      <c r="H233" s="156"/>
+      <c r="I233" s="156"/>
+      <c r="J233" s="156"/>
+      <c r="K233" s="156"/>
+      <c r="L233" s="156"/>
+      <c r="M233" s="156"/>
+      <c r="N233" s="156"/>
+      <c r="O233" s="156"/>
+      <c r="P233" s="156"/>
+      <c r="Q233" s="156"/>
+      <c r="R233" s="156"/>
+      <c r="S233" s="156"/>
+      <c r="T233" s="156"/>
+      <c r="U233" s="156"/>
     </row>
     <row r="234" spans="4:21">
-      <c r="D234" s="153"/>
-      <c r="E234" s="153"/>
-      <c r="F234" s="153"/>
-      <c r="G234" s="153"/>
-      <c r="H234" s="153"/>
-      <c r="I234" s="153"/>
-      <c r="J234" s="153"/>
-      <c r="K234" s="153"/>
-      <c r="L234" s="153"/>
-      <c r="M234" s="153"/>
-      <c r="N234" s="153"/>
-      <c r="O234" s="153"/>
-      <c r="P234" s="153"/>
-      <c r="Q234" s="153"/>
-      <c r="R234" s="153"/>
-      <c r="S234" s="153"/>
-      <c r="T234" s="153"/>
-      <c r="U234" s="153"/>
+      <c r="D234" s="156"/>
+      <c r="E234" s="156"/>
+      <c r="F234" s="156"/>
+      <c r="G234" s="156"/>
+      <c r="H234" s="156"/>
+      <c r="I234" s="156"/>
+      <c r="J234" s="156"/>
+      <c r="K234" s="156"/>
+      <c r="L234" s="156"/>
+      <c r="M234" s="156"/>
+      <c r="N234" s="156"/>
+      <c r="O234" s="156"/>
+      <c r="P234" s="156"/>
+      <c r="Q234" s="156"/>
+      <c r="R234" s="156"/>
+      <c r="S234" s="156"/>
+      <c r="T234" s="156"/>
+      <c r="U234" s="156"/>
     </row>
     <row r="235" spans="4:21">
-      <c r="D235" s="153"/>
-      <c r="E235" s="153"/>
-      <c r="F235" s="153"/>
-      <c r="G235" s="153"/>
-      <c r="H235" s="153"/>
-      <c r="I235" s="153"/>
-      <c r="J235" s="153"/>
-      <c r="K235" s="153"/>
-      <c r="L235" s="153"/>
-      <c r="M235" s="153"/>
-      <c r="N235" s="153"/>
-      <c r="O235" s="153"/>
-      <c r="P235" s="153"/>
-      <c r="Q235" s="153"/>
-      <c r="R235" s="153"/>
-      <c r="S235" s="153"/>
-      <c r="T235" s="153"/>
-      <c r="U235" s="153"/>
+      <c r="D235" s="156"/>
+      <c r="E235" s="156"/>
+      <c r="F235" s="156"/>
+      <c r="G235" s="156"/>
+      <c r="H235" s="156"/>
+      <c r="I235" s="156"/>
+      <c r="J235" s="156"/>
+      <c r="K235" s="156"/>
+      <c r="L235" s="156"/>
+      <c r="M235" s="156"/>
+      <c r="N235" s="156"/>
+      <c r="O235" s="156"/>
+      <c r="P235" s="156"/>
+      <c r="Q235" s="156"/>
+      <c r="R235" s="156"/>
+      <c r="S235" s="156"/>
+      <c r="T235" s="156"/>
+      <c r="U235" s="156"/>
     </row>
     <row r="236" spans="4:21">
-      <c r="D236" s="153"/>
-      <c r="E236" s="153"/>
-      <c r="F236" s="153"/>
-      <c r="G236" s="153"/>
-      <c r="H236" s="153"/>
-      <c r="I236" s="153"/>
-      <c r="J236" s="153"/>
-      <c r="K236" s="153"/>
-      <c r="L236" s="153"/>
-      <c r="M236" s="153"/>
-      <c r="N236" s="153"/>
-      <c r="O236" s="153"/>
-      <c r="P236" s="153"/>
-      <c r="Q236" s="153"/>
-      <c r="R236" s="153"/>
-      <c r="S236" s="153"/>
-      <c r="T236" s="153"/>
-      <c r="U236" s="153"/>
+      <c r="D236" s="156"/>
+      <c r="E236" s="156"/>
+      <c r="F236" s="156"/>
+      <c r="G236" s="156"/>
+      <c r="H236" s="156"/>
+      <c r="I236" s="156"/>
+      <c r="J236" s="156"/>
+      <c r="K236" s="156"/>
+      <c r="L236" s="156"/>
+      <c r="M236" s="156"/>
+      <c r="N236" s="156"/>
+      <c r="O236" s="156"/>
+      <c r="P236" s="156"/>
+      <c r="Q236" s="156"/>
+      <c r="R236" s="156"/>
+      <c r="S236" s="156"/>
+      <c r="T236" s="156"/>
+      <c r="U236" s="156"/>
     </row>
     <row r="237" spans="4:21">
-      <c r="D237" s="153"/>
-      <c r="E237" s="153"/>
-      <c r="F237" s="153"/>
-      <c r="G237" s="153"/>
-      <c r="H237" s="153"/>
-      <c r="I237" s="153"/>
-      <c r="J237" s="153"/>
-      <c r="K237" s="153"/>
-      <c r="L237" s="153"/>
-      <c r="M237" s="153"/>
-      <c r="N237" s="153"/>
-      <c r="O237" s="153"/>
-      <c r="P237" s="153"/>
-      <c r="Q237" s="153"/>
-      <c r="R237" s="153"/>
-      <c r="S237" s="153"/>
-      <c r="T237" s="153"/>
-      <c r="U237" s="153"/>
+      <c r="D237" s="156"/>
+      <c r="E237" s="156"/>
+      <c r="F237" s="156"/>
+      <c r="G237" s="156"/>
+      <c r="H237" s="156"/>
+      <c r="I237" s="156"/>
+      <c r="J237" s="156"/>
+      <c r="K237" s="156"/>
+      <c r="L237" s="156"/>
+      <c r="M237" s="156"/>
+      <c r="N237" s="156"/>
+      <c r="O237" s="156"/>
+      <c r="P237" s="156"/>
+      <c r="Q237" s="156"/>
+      <c r="R237" s="156"/>
+      <c r="S237" s="156"/>
+      <c r="T237" s="156"/>
+      <c r="U237" s="156"/>
     </row>
     <row r="238" spans="4:21">
-      <c r="D238" s="153"/>
-      <c r="E238" s="153"/>
-      <c r="F238" s="153"/>
-      <c r="G238" s="153"/>
-      <c r="H238" s="153"/>
-      <c r="I238" s="153"/>
-      <c r="J238" s="153"/>
-      <c r="K238" s="153"/>
-      <c r="L238" s="153"/>
-      <c r="M238" s="153"/>
-      <c r="N238" s="153"/>
-      <c r="O238" s="153"/>
-      <c r="P238" s="153"/>
-      <c r="Q238" s="153"/>
-      <c r="R238" s="153"/>
-      <c r="S238" s="153"/>
-      <c r="T238" s="153"/>
-      <c r="U238" s="153"/>
+      <c r="D238" s="156"/>
+      <c r="E238" s="156"/>
+      <c r="F238" s="156"/>
+      <c r="G238" s="156"/>
+      <c r="H238" s="156"/>
+      <c r="I238" s="156"/>
+      <c r="J238" s="156"/>
+      <c r="K238" s="156"/>
+      <c r="L238" s="156"/>
+      <c r="M238" s="156"/>
+      <c r="N238" s="156"/>
+      <c r="O238" s="156"/>
+      <c r="P238" s="156"/>
+      <c r="Q238" s="156"/>
+      <c r="R238" s="156"/>
+      <c r="S238" s="156"/>
+      <c r="T238" s="156"/>
+      <c r="U238" s="156"/>
     </row>
     <row r="239" spans="4:21">
-      <c r="D239" s="153"/>
-      <c r="E239" s="153"/>
-      <c r="F239" s="153"/>
-      <c r="G239" s="153"/>
-      <c r="H239" s="153"/>
-      <c r="I239" s="153"/>
-      <c r="J239" s="153"/>
-      <c r="K239" s="153"/>
-      <c r="L239" s="153"/>
-      <c r="M239" s="153"/>
-      <c r="N239" s="153"/>
-      <c r="O239" s="153"/>
-      <c r="P239" s="153"/>
-      <c r="Q239" s="153"/>
-      <c r="R239" s="153"/>
-      <c r="S239" s="153"/>
-      <c r="T239" s="153"/>
-      <c r="U239" s="153"/>
+      <c r="D239" s="156"/>
+      <c r="E239" s="156"/>
+      <c r="F239" s="156"/>
+      <c r="G239" s="156"/>
+      <c r="H239" s="156"/>
+      <c r="I239" s="156"/>
+      <c r="J239" s="156"/>
+      <c r="K239" s="156"/>
+      <c r="L239" s="156"/>
+      <c r="M239" s="156"/>
+      <c r="N239" s="156"/>
+      <c r="O239" s="156"/>
+      <c r="P239" s="156"/>
+      <c r="Q239" s="156"/>
+      <c r="R239" s="156"/>
+      <c r="S239" s="156"/>
+      <c r="T239" s="156"/>
+      <c r="U239" s="156"/>
     </row>
     <row r="240" spans="4:21">
-      <c r="D240" s="153"/>
-      <c r="E240" s="153"/>
-      <c r="F240" s="153"/>
-      <c r="G240" s="153"/>
-      <c r="H240" s="153"/>
-      <c r="I240" s="153"/>
-      <c r="J240" s="153"/>
-      <c r="K240" s="153"/>
-      <c r="L240" s="153"/>
-      <c r="M240" s="153"/>
-      <c r="N240" s="153"/>
-      <c r="O240" s="153"/>
-      <c r="P240" s="153"/>
-      <c r="Q240" s="153"/>
-      <c r="R240" s="153"/>
-      <c r="S240" s="153"/>
-      <c r="T240" s="153"/>
-      <c r="U240" s="153"/>
+      <c r="D240" s="156"/>
+      <c r="E240" s="156"/>
+      <c r="F240" s="156"/>
+      <c r="G240" s="156"/>
+      <c r="H240" s="156"/>
+      <c r="I240" s="156"/>
+      <c r="J240" s="156"/>
+      <c r="K240" s="156"/>
+      <c r="L240" s="156"/>
+      <c r="M240" s="156"/>
+      <c r="N240" s="156"/>
+      <c r="O240" s="156"/>
+      <c r="P240" s="156"/>
+      <c r="Q240" s="156"/>
+      <c r="R240" s="156"/>
+      <c r="S240" s="156"/>
+      <c r="T240" s="156"/>
+      <c r="U240" s="156"/>
     </row>
     <row r="241" spans="4:21">
-      <c r="D241" s="153"/>
-      <c r="E241" s="153"/>
-      <c r="F241" s="153"/>
-      <c r="G241" s="153"/>
-      <c r="H241" s="153"/>
-      <c r="I241" s="153"/>
-      <c r="J241" s="153"/>
-      <c r="K241" s="153"/>
-      <c r="L241" s="153"/>
-      <c r="M241" s="153"/>
-      <c r="N241" s="153"/>
-      <c r="O241" s="153"/>
-      <c r="P241" s="153"/>
-      <c r="Q241" s="153"/>
-      <c r="R241" s="153"/>
-      <c r="S241" s="153"/>
-      <c r="T241" s="153"/>
-      <c r="U241" s="153"/>
+      <c r="D241" s="156"/>
+      <c r="E241" s="156"/>
+      <c r="F241" s="156"/>
+      <c r="G241" s="156"/>
+      <c r="H241" s="156"/>
+      <c r="I241" s="156"/>
+      <c r="J241" s="156"/>
+      <c r="K241" s="156"/>
+      <c r="L241" s="156"/>
+      <c r="M241" s="156"/>
+      <c r="N241" s="156"/>
+      <c r="O241" s="156"/>
+      <c r="P241" s="156"/>
+      <c r="Q241" s="156"/>
+      <c r="R241" s="156"/>
+      <c r="S241" s="156"/>
+      <c r="T241" s="156"/>
+      <c r="U241" s="156"/>
     </row>
     <row r="242" spans="4:21">
-      <c r="D242" s="153"/>
-      <c r="E242" s="153"/>
-      <c r="F242" s="153"/>
-      <c r="G242" s="153"/>
-      <c r="H242" s="153"/>
-      <c r="I242" s="153"/>
-      <c r="J242" s="153"/>
-      <c r="K242" s="153"/>
-      <c r="L242" s="153"/>
-      <c r="M242" s="153"/>
-      <c r="N242" s="153"/>
-      <c r="O242" s="153"/>
-      <c r="P242" s="153"/>
-      <c r="Q242" s="153"/>
-      <c r="R242" s="153"/>
-      <c r="S242" s="153"/>
-      <c r="T242" s="153"/>
-      <c r="U242" s="153"/>
+      <c r="D242" s="156"/>
+      <c r="E242" s="156"/>
+      <c r="F242" s="156"/>
+      <c r="G242" s="156"/>
+      <c r="H242" s="156"/>
+      <c r="I242" s="156"/>
+      <c r="J242" s="156"/>
+      <c r="K242" s="156"/>
+      <c r="L242" s="156"/>
+      <c r="M242" s="156"/>
+      <c r="N242" s="156"/>
+      <c r="O242" s="156"/>
+      <c r="P242" s="156"/>
+      <c r="Q242" s="156"/>
+      <c r="R242" s="156"/>
+      <c r="S242" s="156"/>
+      <c r="T242" s="156"/>
+      <c r="U242" s="156"/>
     </row>
     <row r="243" spans="4:21">
-      <c r="D243" s="153"/>
-      <c r="E243" s="153"/>
-      <c r="F243" s="153"/>
-      <c r="G243" s="153"/>
-      <c r="H243" s="153"/>
-      <c r="I243" s="153"/>
-      <c r="J243" s="153"/>
-      <c r="K243" s="153"/>
-      <c r="L243" s="153"/>
-      <c r="M243" s="153"/>
-      <c r="N243" s="153"/>
-      <c r="O243" s="153"/>
-      <c r="P243" s="153"/>
-      <c r="Q243" s="153"/>
-      <c r="R243" s="153"/>
-      <c r="S243" s="153"/>
-      <c r="T243" s="153"/>
-      <c r="U243" s="153"/>
+      <c r="D243" s="156"/>
+      <c r="E243" s="156"/>
+      <c r="F243" s="156"/>
+      <c r="G243" s="156"/>
+      <c r="H243" s="156"/>
+      <c r="I243" s="156"/>
+      <c r="J243" s="156"/>
+      <c r="K243" s="156"/>
+      <c r="L243" s="156"/>
+      <c r="M243" s="156"/>
+      <c r="N243" s="156"/>
+      <c r="O243" s="156"/>
+      <c r="P243" s="156"/>
+      <c r="Q243" s="156"/>
+      <c r="R243" s="156"/>
+      <c r="S243" s="156"/>
+      <c r="T243" s="156"/>
+      <c r="U243" s="156"/>
     </row>
     <row r="244" spans="4:21">
-      <c r="D244" s="153"/>
-      <c r="E244" s="153"/>
-      <c r="F244" s="153"/>
-      <c r="G244" s="153"/>
-      <c r="H244" s="153"/>
-      <c r="I244" s="153"/>
-      <c r="J244" s="153"/>
-      <c r="K244" s="153"/>
-      <c r="L244" s="153"/>
-      <c r="M244" s="153"/>
-      <c r="N244" s="153"/>
-      <c r="O244" s="153"/>
-      <c r="P244" s="153"/>
-      <c r="Q244" s="153"/>
-      <c r="R244" s="153"/>
-      <c r="S244" s="153"/>
-      <c r="T244" s="153"/>
-      <c r="U244" s="153"/>
+      <c r="D244" s="156"/>
+      <c r="E244" s="156"/>
+      <c r="F244" s="156"/>
+      <c r="G244" s="156"/>
+      <c r="H244" s="156"/>
+      <c r="I244" s="156"/>
+      <c r="J244" s="156"/>
+      <c r="K244" s="156"/>
+      <c r="L244" s="156"/>
+      <c r="M244" s="156"/>
+      <c r="N244" s="156"/>
+      <c r="O244" s="156"/>
+      <c r="P244" s="156"/>
+      <c r="Q244" s="156"/>
+      <c r="R244" s="156"/>
+      <c r="S244" s="156"/>
+      <c r="T244" s="156"/>
+      <c r="U244" s="156"/>
     </row>
     <row r="245" spans="4:21">
-      <c r="D245" s="153"/>
-      <c r="E245" s="153"/>
-      <c r="F245" s="153"/>
-      <c r="G245" s="153"/>
-      <c r="H245" s="153"/>
-      <c r="I245" s="153"/>
-      <c r="J245" s="153"/>
-      <c r="K245" s="153"/>
-      <c r="L245" s="153"/>
-      <c r="M245" s="153"/>
-      <c r="N245" s="153"/>
-      <c r="O245" s="153"/>
-      <c r="P245" s="153"/>
-      <c r="Q245" s="153"/>
-      <c r="R245" s="153"/>
-      <c r="S245" s="153"/>
-      <c r="T245" s="153"/>
-      <c r="U245" s="153"/>
+      <c r="D245" s="156"/>
+      <c r="E245" s="156"/>
+      <c r="F245" s="156"/>
+      <c r="G245" s="156"/>
+      <c r="H245" s="156"/>
+      <c r="I245" s="156"/>
+      <c r="J245" s="156"/>
+      <c r="K245" s="156"/>
+      <c r="L245" s="156"/>
+      <c r="M245" s="156"/>
+      <c r="N245" s="156"/>
+      <c r="O245" s="156"/>
+      <c r="P245" s="156"/>
+      <c r="Q245" s="156"/>
+      <c r="R245" s="156"/>
+      <c r="S245" s="156"/>
+      <c r="T245" s="156"/>
+      <c r="U245" s="156"/>
     </row>
     <row r="246" spans="4:21">
-      <c r="D246" s="153"/>
-      <c r="E246" s="153"/>
-      <c r="F246" s="153"/>
-      <c r="G246" s="153"/>
-      <c r="H246" s="153"/>
-      <c r="I246" s="153"/>
-      <c r="J246" s="153"/>
-      <c r="K246" s="153"/>
-      <c r="L246" s="153"/>
-      <c r="M246" s="153"/>
-      <c r="N246" s="153"/>
-      <c r="O246" s="153"/>
-      <c r="P246" s="153"/>
-      <c r="Q246" s="153"/>
-      <c r="R246" s="153"/>
-      <c r="S246" s="153"/>
-      <c r="T246" s="153"/>
-      <c r="U246" s="153"/>
+      <c r="D246" s="156"/>
+      <c r="E246" s="156"/>
+      <c r="F246" s="156"/>
+      <c r="G246" s="156"/>
+      <c r="H246" s="156"/>
+      <c r="I246" s="156"/>
+      <c r="J246" s="156"/>
+      <c r="K246" s="156"/>
+      <c r="L246" s="156"/>
+      <c r="M246" s="156"/>
+      <c r="N246" s="156"/>
+      <c r="O246" s="156"/>
+      <c r="P246" s="156"/>
+      <c r="Q246" s="156"/>
+      <c r="R246" s="156"/>
+      <c r="S246" s="156"/>
+      <c r="T246" s="156"/>
+      <c r="U246" s="156"/>
     </row>
     <row r="247" spans="4:21">
-      <c r="D247" s="153"/>
-      <c r="E247" s="153"/>
-      <c r="F247" s="153"/>
-      <c r="G247" s="153"/>
-      <c r="H247" s="153"/>
-      <c r="I247" s="153"/>
-      <c r="J247" s="153"/>
-      <c r="K247" s="153"/>
-      <c r="L247" s="153"/>
-      <c r="M247" s="153"/>
-      <c r="N247" s="153"/>
-      <c r="O247" s="153"/>
-      <c r="P247" s="153"/>
-      <c r="Q247" s="153"/>
-      <c r="R247" s="153"/>
-      <c r="S247" s="153"/>
-      <c r="T247" s="153"/>
-      <c r="U247" s="153"/>
+      <c r="D247" s="156"/>
+      <c r="E247" s="156"/>
+      <c r="F247" s="156"/>
+      <c r="G247" s="156"/>
+      <c r="H247" s="156"/>
+      <c r="I247" s="156"/>
+      <c r="J247" s="156"/>
+      <c r="K247" s="156"/>
+      <c r="L247" s="156"/>
+      <c r="M247" s="156"/>
+      <c r="N247" s="156"/>
+      <c r="O247" s="156"/>
+      <c r="P247" s="156"/>
+      <c r="Q247" s="156"/>
+      <c r="R247" s="156"/>
+      <c r="S247" s="156"/>
+      <c r="T247" s="156"/>
+      <c r="U247" s="156"/>
     </row>
     <row r="248" spans="4:21">
-      <c r="D248" s="153"/>
-      <c r="E248" s="153"/>
-      <c r="F248" s="153"/>
-      <c r="G248" s="153"/>
-      <c r="H248" s="153"/>
-      <c r="I248" s="153"/>
-      <c r="J248" s="153"/>
-      <c r="K248" s="153"/>
-      <c r="L248" s="153"/>
-      <c r="M248" s="153"/>
-      <c r="N248" s="153"/>
-      <c r="O248" s="153"/>
-      <c r="P248" s="153"/>
-      <c r="Q248" s="153"/>
-      <c r="R248" s="153"/>
-      <c r="S248" s="153"/>
-      <c r="T248" s="153"/>
-      <c r="U248" s="153"/>
+      <c r="D248" s="156"/>
+      <c r="E248" s="156"/>
+      <c r="F248" s="156"/>
+      <c r="G248" s="156"/>
+      <c r="H248" s="156"/>
+      <c r="I248" s="156"/>
+      <c r="J248" s="156"/>
+      <c r="K248" s="156"/>
+      <c r="L248" s="156"/>
+      <c r="M248" s="156"/>
+      <c r="N248" s="156"/>
+      <c r="O248" s="156"/>
+      <c r="P248" s="156"/>
+      <c r="Q248" s="156"/>
+      <c r="R248" s="156"/>
+      <c r="S248" s="156"/>
+      <c r="T248" s="156"/>
+      <c r="U248" s="156"/>
     </row>
     <row r="249" spans="4:21">
-      <c r="D249" s="153"/>
-      <c r="E249" s="153"/>
-      <c r="F249" s="153"/>
-      <c r="G249" s="153"/>
-      <c r="H249" s="153"/>
-      <c r="I249" s="153"/>
-      <c r="J249" s="153"/>
-      <c r="K249" s="153"/>
-      <c r="L249" s="153"/>
-      <c r="M249" s="153"/>
-      <c r="N249" s="153"/>
-      <c r="O249" s="153"/>
-      <c r="P249" s="153"/>
-      <c r="Q249" s="153"/>
-      <c r="R249" s="153"/>
-      <c r="S249" s="153"/>
-      <c r="T249" s="153"/>
-      <c r="U249" s="153"/>
+      <c r="D249" s="156"/>
+      <c r="E249" s="156"/>
+      <c r="F249" s="156"/>
+      <c r="G249" s="156"/>
+      <c r="H249" s="156"/>
+      <c r="I249" s="156"/>
+      <c r="J249" s="156"/>
+      <c r="K249" s="156"/>
+      <c r="L249" s="156"/>
+      <c r="M249" s="156"/>
+      <c r="N249" s="156"/>
+      <c r="O249" s="156"/>
+      <c r="P249" s="156"/>
+      <c r="Q249" s="156"/>
+      <c r="R249" s="156"/>
+      <c r="S249" s="156"/>
+      <c r="T249" s="156"/>
+      <c r="U249" s="156"/>
     </row>
     <row r="250" spans="4:21">
-      <c r="D250" s="153"/>
-      <c r="E250" s="153"/>
-      <c r="F250" s="153"/>
-      <c r="G250" s="153"/>
-      <c r="H250" s="153"/>
-      <c r="I250" s="153"/>
-      <c r="J250" s="153"/>
-      <c r="K250" s="153"/>
-      <c r="L250" s="153"/>
-      <c r="M250" s="153"/>
-      <c r="N250" s="153"/>
-      <c r="O250" s="153"/>
-      <c r="P250" s="153"/>
-      <c r="Q250" s="153"/>
-      <c r="R250" s="153"/>
-      <c r="S250" s="153"/>
-      <c r="T250" s="153"/>
-      <c r="U250" s="153"/>
+      <c r="D250" s="156"/>
+      <c r="E250" s="156"/>
+      <c r="F250" s="156"/>
+      <c r="G250" s="156"/>
+      <c r="H250" s="156"/>
+      <c r="I250" s="156"/>
+      <c r="J250" s="156"/>
+      <c r="K250" s="156"/>
+      <c r="L250" s="156"/>
+      <c r="M250" s="156"/>
+      <c r="N250" s="156"/>
+      <c r="O250" s="156"/>
+      <c r="P250" s="156"/>
+      <c r="Q250" s="156"/>
+      <c r="R250" s="156"/>
+      <c r="S250" s="156"/>
+      <c r="T250" s="156"/>
+      <c r="U250" s="156"/>
     </row>
     <row r="251" spans="4:21">
-      <c r="D251" s="153"/>
-      <c r="E251" s="153"/>
-      <c r="F251" s="153"/>
-      <c r="G251" s="153"/>
-      <c r="H251" s="153"/>
-      <c r="I251" s="153"/>
-      <c r="J251" s="153"/>
-      <c r="K251" s="153"/>
-      <c r="L251" s="153"/>
-      <c r="M251" s="153"/>
-      <c r="N251" s="153"/>
-      <c r="O251" s="153"/>
-      <c r="P251" s="153"/>
-      <c r="Q251" s="153"/>
-      <c r="R251" s="153"/>
-      <c r="S251" s="153"/>
-      <c r="T251" s="153"/>
-      <c r="U251" s="153"/>
+      <c r="D251" s="156"/>
+      <c r="E251" s="156"/>
+      <c r="F251" s="156"/>
+      <c r="G251" s="156"/>
+      <c r="H251" s="156"/>
+      <c r="I251" s="156"/>
+      <c r="J251" s="156"/>
+      <c r="K251" s="156"/>
+      <c r="L251" s="156"/>
+      <c r="M251" s="156"/>
+      <c r="N251" s="156"/>
+      <c r="O251" s="156"/>
+      <c r="P251" s="156"/>
+      <c r="Q251" s="156"/>
+      <c r="R251" s="156"/>
+      <c r="S251" s="156"/>
+      <c r="T251" s="156"/>
+      <c r="U251" s="156"/>
     </row>
     <row r="254" spans="4:21">
       <c r="D254" s="48" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="256" spans="4:21">
       <c r="D256" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="257" spans="4:4">
       <c r="D257" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="258" spans="4:4">
       <c r="D258" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="259" spans="4:4">
       <c r="D259" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="260" spans="4:4">
       <c r="D260" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="261" spans="4:4">
       <c r="D261" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="262" spans="4:4">
       <c r="D262" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="263" spans="4:4">
       <c r="D263" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="264" spans="4:4">
       <c r="D264" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D168:U251"/>
+    <mergeCell ref="D167:U167"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B31"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="B19:B23"/>
@@ -9860,11 +9953,6 @@
     <mergeCell ref="D100:U164"/>
     <mergeCell ref="D99:U99"/>
     <mergeCell ref="D35:T35"/>
-    <mergeCell ref="D168:U251"/>
-    <mergeCell ref="D167:U167"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9901,7 +9989,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="D1" s="54" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
@@ -9909,46 +9997,46 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="D3" s="56" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="F5" s="158" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G5" s="158"/>
       <c r="H5" s="159"/>
       <c r="I5" s="99" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="57" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="I6" s="100"/>
       <c r="J6" s="101"/>
@@ -9958,25 +10046,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C7" s="63">
         <v>1</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H7" s="98" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
@@ -9986,25 +10074,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C8" s="75">
         <v>1</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
@@ -10016,19 +10104,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I9" s="101"/>
       <c r="J9" s="101"/>
@@ -10040,19 +10128,19 @@
         <v>3</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
@@ -10064,13 +10152,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G11" s="68"/>
       <c r="H11" s="69"/>
@@ -10084,10 +10172,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
@@ -10102,10 +10190,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
@@ -10120,10 +10208,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
@@ -10138,10 +10226,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="68"/>
@@ -10156,10 +10244,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
@@ -10174,10 +10262,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
@@ -10192,10 +10280,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10210,10 +10298,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
@@ -10228,10 +10316,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
@@ -10246,10 +10334,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
@@ -10262,25 +10350,25 @@
         <v>3</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C22" s="72">
         <v>1</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I22" s="101"/>
       <c r="J22" s="101"/>
@@ -10292,25 +10380,25 @@
         <v>2</v>
       </c>
       <c r="D23" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="F23" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="E23" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>266</v>
-      </c>
       <c r="G23" s="68" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I23" s="101" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="J23" s="101" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10320,25 +10408,25 @@
         <v>3</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I24" s="101" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10348,25 +10436,25 @@
         <v>4</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="J25" s="101" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10376,25 +10464,25 @@
         <v>5</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J26" s="101" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10404,25 +10492,25 @@
         <v>6</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="J27" s="101" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10432,25 +10520,25 @@
         <v>7</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10460,25 +10548,25 @@
         <v>8</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H29" s="85" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="I29" s="102" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="J29" s="102" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10488,25 +10576,25 @@
         <v>9</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="I30" s="101" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J30" s="102" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10516,25 +10604,25 @@
         <v>10</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="J31" s="102" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10544,25 +10632,25 @@
         <v>11</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="I32" s="101" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J32" s="101" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10570,25 +10658,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C33" s="75">
         <v>1</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -10600,19 +10688,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
@@ -10624,19 +10712,19 @@
         <v>3</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="I35" s="101"/>
       <c r="J35" s="101"/>
@@ -10648,19 +10736,19 @@
         <v>4</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G36" s="68" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
@@ -10672,19 +10760,19 @@
         <v>5</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -10696,10 +10784,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68"/>
@@ -10714,10 +10802,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
@@ -10732,10 +10820,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F40" s="68"/>
       <c r="G40" s="68"/>
@@ -10750,10 +10838,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
@@ -10768,10 +10856,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F42" s="68"/>
       <c r="G42" s="68"/>
@@ -10786,10 +10874,10 @@
         <v>10</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
@@ -10804,10 +10892,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F44" s="68"/>
       <c r="G44" s="68"/>
@@ -10822,10 +10910,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
@@ -10840,10 +10928,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
@@ -10853,17 +10941,17 @@
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="90" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="90" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="90" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -11153,7 +11241,7 @@
     </row>
     <row r="173" spans="4:6">
       <c r="D173" s="90" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="176" spans="4:6">
@@ -11388,76 +11476,76 @@
     </row>
     <row r="228" spans="4:7">
       <c r="D228" s="89" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E228" s="89" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="229" spans="4:7">
       <c r="D229" s="53" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E229" s="53" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="230" spans="4:7">
       <c r="D230" s="53" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="231" spans="4:7">
       <c r="D231" s="53" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="232" spans="4:7">
       <c r="D232" s="53" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="233" spans="4:7">
       <c r="D233" s="85" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="234" spans="4:7">
       <c r="D234" s="53" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="237" spans="4:7">
       <c r="F237" s="88" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="4:7">
       <c r="D239" s="86" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E239" s="87" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F239" s="87" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G239" s="87" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="241" spans="4:7">
       <c r="D241" s="53" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E241" s="53" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F241" s="53" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="G241" s="53" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -11500,22 +11588,22 @@
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>39</v>
@@ -11526,156 +11614,156 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E6" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F6" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D8" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E8" s="109"/>
       <c r="F8" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D9" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E9" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F9" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D10" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E10" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F10" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
       <c r="C11" s="96" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D12" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="F12" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D13" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D14" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="F14" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D15" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E15" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F15" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D16" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E16" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F16" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75">
@@ -11683,7 +11771,7 @@
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
@@ -11709,7 +11797,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
       <c r="D21" s="56" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
@@ -11737,41 +11825,41 @@
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="158" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G23" s="158"/>
       <c r="H23" s="159"/>
       <c r="I23" s="99" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="J23" s="99" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="57" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E24" s="108" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="I24" s="100"/>
       <c r="J24" s="101"/>
@@ -11781,28 +11869,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C25" s="104">
         <v>1</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H25" s="98" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="J25" s="101"/>
     </row>
@@ -11811,31 +11899,31 @@
         <v>2</v>
       </c>
       <c r="B26" s="160" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C26" s="78">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H26" s="98" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="J26" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -11845,25 +11933,25 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="F27" s="106" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="J27" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -11873,25 +11961,25 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F28" s="106" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="J28" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -11901,25 +11989,25 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F29" s="106" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="J29" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -11929,25 +12017,25 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F30" s="106" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="J30" s="101" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30.75">
@@ -11957,25 +12045,25 @@
         <v>6</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F31" s="106" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="J31" s="96" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -11985,25 +12073,25 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F32" s="106" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H32" s="69" t="s">
+        <v>456</v>
+      </c>
+      <c r="I32" s="38" t="s">
         <v>448</v>
       </c>
-      <c r="I32" s="38" t="s">
-        <v>440</v>
-      </c>
       <c r="J32" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -12013,25 +12101,25 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F33" s="106" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="J33" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -12041,19 +12129,19 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F34" s="106"/>
       <c r="G34" s="68"/>
       <c r="H34" s="69"/>
       <c r="I34" s="38" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="J34" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -12063,19 +12151,19 @@
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F35" s="106"/>
       <c r="G35" s="68"/>
       <c r="H35" s="69"/>
       <c r="I35" s="38" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="J35" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -12085,19 +12173,19 @@
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F36" s="106"/>
       <c r="G36" s="68"/>
       <c r="H36" s="69"/>
       <c r="I36" s="38" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="J36" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -12105,25 +12193,25 @@
         <v>3</v>
       </c>
       <c r="B37" s="165" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C37" s="72">
         <v>1</v>
       </c>
       <c r="D37" s="73" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -12135,25 +12223,25 @@
         <v>2</v>
       </c>
       <c r="D38" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="F38" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="E38" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="F38" s="68" t="s">
-        <v>266</v>
-      </c>
       <c r="G38" s="68" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H38" s="69" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I38" s="101" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="J38" s="101" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -12163,25 +12251,25 @@
         <v>3</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I39" s="101" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J39" s="101" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -12191,25 +12279,25 @@
         <v>4</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="I40" s="101" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="J40" s="101" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -12219,25 +12307,25 @@
         <v>5</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I41" s="101" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J41" s="101" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -12247,25 +12335,25 @@
         <v>6</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="I42" s="101" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12275,25 +12363,25 @@
         <v>7</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="I43" s="101" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J43" s="102" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -12303,25 +12391,25 @@
         <v>8</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H44" s="85" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="I44" s="102" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="J44" s="102" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -12331,25 +12419,25 @@
         <v>9</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H45" s="69" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="I45" s="101" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="J45" s="102" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -12359,25 +12447,25 @@
         <v>10</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G46" s="68" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="I46" s="101" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="J46" s="102" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -12387,25 +12475,25 @@
         <v>11</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="I47" s="101" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J47" s="101" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -12413,25 +12501,25 @@
         <v>4</v>
       </c>
       <c r="B48" s="163" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C48" s="75">
         <v>1</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="I48" s="101"/>
       <c r="J48" s="101"/>
@@ -12443,19 +12531,19 @@
         <v>2</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="I49" s="101"/>
       <c r="J49" s="101"/>
@@ -12467,19 +12555,19 @@
         <v>3</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E50" s="82" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="I50" s="101"/>
       <c r="J50" s="101"/>
@@ -12491,19 +12579,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E51" s="84" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="I51" s="101"/>
       <c r="J51" s="101"/>
@@ -12515,19 +12603,19 @@
         <v>5</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F52" s="68" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="I52" s="101"/>
       <c r="J52" s="101"/>
@@ -12539,10 +12627,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F53" s="68"/>
       <c r="G53" s="68"/>
@@ -12557,10 +12645,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E54" s="71" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
@@ -12575,10 +12663,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F55" s="68"/>
       <c r="G55" s="68"/>
@@ -12593,10 +12681,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
@@ -12611,10 +12699,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F57" s="68"/>
       <c r="G57" s="68"/>
@@ -12629,10 +12717,10 @@
         <v>10</v>
       </c>
       <c r="D58" s="70" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F58" s="68"/>
       <c r="G58" s="68"/>
@@ -12647,10 +12735,10 @@
         <v>11</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
@@ -12665,10 +12753,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E60" s="71" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F60" s="68"/>
       <c r="G60" s="68"/>
@@ -12683,10 +12771,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="70" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F61" s="68"/>
       <c r="G61" s="68"/>
@@ -12735,7 +12823,7 @@
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="54" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
@@ -12761,7 +12849,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="56" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -12794,28 +12882,28 @@
     </row>
     <row r="10" spans="2:11" ht="15.75">
       <c r="B10" s="118" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E10" s="129" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75">
@@ -12823,22 +12911,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H11" s="105" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="I11" s="122"/>
     </row>
@@ -12847,22 +12935,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="160" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D12" s="132">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H12" s="120" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="I12" s="123"/>
     </row>
@@ -12873,19 +12961,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H13" s="120" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -12895,19 +12983,19 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H14" s="120" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -12917,19 +13005,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="H15" s="120" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -12939,19 +13027,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -12961,19 +13049,19 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="G17" s="101" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="H17" s="127" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="I17" s="103" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -12983,19 +13071,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H18" s="120" t="s">
         <v>471</v>
       </c>
-      <c r="H18" s="120" t="s">
-        <v>463</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -13005,17 +13093,17 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G19" s="124"/>
       <c r="H19" s="127" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -13025,17 +13113,17 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="127" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -13045,17 +13133,17 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="G21" s="101"/>
       <c r="H21" s="127" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -13063,25 +13151,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="160" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D22" s="132">
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H22" s="127" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -13091,13 +13179,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="H23" s="128"/>
       <c r="I23" s="122"/>
@@ -13109,13 +13197,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H24" s="128"/>
       <c r="I24" s="122"/>
@@ -13127,19 +13215,19 @@
         <v>3</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H25" s="120" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -13149,19 +13237,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H26" s="120" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -13171,19 +13259,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G27" s="102" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="H27" s="120" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -13193,19 +13281,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="H28" s="120" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -13215,19 +13303,19 @@
         <v>7</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="F29" s="70" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G29" s="102" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="H29" s="120" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="I29" s="101" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -13237,19 +13325,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F30" s="70" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="H30" s="120" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="I30" s="102" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -13259,19 +13347,19 @@
         <v>9</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F31" s="70" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="I31" s="102" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -13281,19 +13369,19 @@
         <v>10</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="F32" s="70" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H32" s="120" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="I32" s="102" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -13303,19 +13391,19 @@
         <v>11</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G33" s="102" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="H33" s="120" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="I33" s="102" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -13323,25 +13411,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="160" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D34" s="132">
         <v>1</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="H34" s="120" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I34" s="101" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -13352,13 +13440,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="H35" s="120"/>
       <c r="I35" s="101"/>
@@ -13370,13 +13458,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G36" s="102" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="H36" s="120"/>
       <c r="I36" s="101"/>
@@ -13389,13 +13477,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="81" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F37" s="81" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="G37" s="102" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="H37" s="120"/>
       <c r="I37" s="101"/>
@@ -13408,13 +13496,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="G38" s="102" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="H38" s="120"/>
       <c r="I38" s="101"/>
@@ -13427,13 +13515,13 @@
         <v>6</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="F39" s="81" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="G39" s="102" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H39" s="120"/>
       <c r="I39" s="101"/>
@@ -13446,13 +13534,13 @@
         <v>7</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G40" s="102" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H40" s="120"/>
       <c r="I40" s="101"/>
@@ -13465,13 +13553,13 @@
         <v>8</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="H41" s="120"/>
       <c r="I41" s="101"/>
@@ -13484,13 +13572,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="101"/>
@@ -13503,13 +13591,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="102" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="101"/>
@@ -13522,16 +13610,16 @@
         <v>11</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="H44" s="106" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="I44" s="101"/>
     </row>
@@ -13543,16 +13631,16 @@
         <v>12</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="H45" s="106" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="I45" s="101"/>
     </row>
@@ -13564,14 +13652,14 @@
         <v>13</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="106" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="I46" s="101"/>
     </row>
@@ -13583,10 +13671,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="G47" s="68"/>
       <c r="H47" s="120"/>
@@ -13600,10 +13688,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="G48" s="68"/>
       <c r="H48" s="120"/>
@@ -13617,10 +13705,10 @@
         <v>16</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="G49" s="68"/>
       <c r="H49" s="120"/>
@@ -13634,10 +13722,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G50" s="68"/>
       <c r="H50" s="120"/>
@@ -13651,10 +13739,10 @@
         <v>18</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G51" s="68"/>
       <c r="H51" s="120"/>
@@ -13668,10 +13756,10 @@
         <v>19</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G52" s="68"/>
       <c r="H52" s="120"/>
@@ -13685,10 +13773,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="120"/>
@@ -13702,10 +13790,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G54" s="68"/>
       <c r="H54" s="120"/>
@@ -13719,10 +13807,10 @@
         <v>22</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G55" s="68"/>
       <c r="H55" s="120"/>
@@ -13745,7 +13833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF84FF66-0AA3-4B94-BE56-4DE17E29EB86}">
   <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -13763,7 +13851,7 @@
     <row r="2" spans="1:8" ht="18.75">
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -13773,33 +13861,33 @@
     <row r="4" spans="1:8" ht="15.75">
       <c r="C4" s="53"/>
       <c r="D4" s="56" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="118" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -13807,25 +13895,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C6" s="63">
         <v>1</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E6" s="134" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H6" s="122" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13833,25 +13921,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C7" s="132">
         <v>2</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="G7" s="120" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -13861,19 +13949,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="G8" s="120" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13883,19 +13971,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="G9" s="120" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -13905,19 +13993,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G10" s="120" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13927,19 +14015,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G11" s="126" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -13949,19 +14037,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -13971,19 +14059,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G13" s="120" t="s">
         <v>471</v>
       </c>
-      <c r="G13" s="120" t="s">
-        <v>463</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -13993,19 +14081,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="E14" s="101" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14015,19 +14103,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="E15" s="101" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14037,19 +14125,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14057,22 +14145,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="160" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C17" s="132">
         <v>1</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -14083,16 +14171,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="G18" s="135" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H18" s="101"/>
     </row>
@@ -14103,16 +14191,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="G19" s="128" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="H19" s="122"/>
     </row>
@@ -14123,19 +14211,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G20" s="120" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H20" s="101" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14145,19 +14233,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G21" s="120" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="H21" s="101" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14167,19 +14255,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F22" s="102" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G22" s="120" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H22" s="101" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14189,19 +14277,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G23" s="120" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H23" s="101" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14211,19 +14299,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="G24" s="120" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H24" s="101" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14233,19 +14321,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G25" s="133" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H25" s="102" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14255,19 +14343,19 @@
         <v>9</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G26" s="120" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14277,19 +14365,19 @@
         <v>10</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G27" s="120" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H27" s="102" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14299,19 +14387,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14319,25 +14407,25 @@
         <v>4</v>
       </c>
       <c r="B29" s="160" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C29" s="132">
         <v>1</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="G29" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="H29" s="101" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14348,16 +14436,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="G30" s="120" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="H30" s="101"/>
     </row>
@@ -14368,16 +14456,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H31" s="101"/>
     </row>
@@ -14389,16 +14477,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G32" s="120" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="H32" s="101"/>
     </row>
@@ -14410,16 +14498,16 @@
         <v>5</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="G33" s="120" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H33" s="101"/>
     </row>
@@ -14431,16 +14519,16 @@
         <v>6</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="F34" s="102" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H34" s="101"/>
     </row>
@@ -14452,16 +14540,16 @@
         <v>7</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E35" s="81" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F35" s="102" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H35" s="101"/>
     </row>
@@ -14473,16 +14561,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H36" s="101"/>
     </row>
@@ -14494,16 +14582,16 @@
         <v>9</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="G37" s="120" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H37" s="101"/>
     </row>
@@ -14515,16 +14603,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G38" s="120" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="H38" s="101"/>
     </row>
@@ -14536,16 +14624,16 @@
         <v>11</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G39" s="106" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="H39" s="101"/>
     </row>
@@ -14557,16 +14645,16 @@
         <v>12</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="G40" s="106" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H40" s="101"/>
     </row>
@@ -14578,16 +14666,16 @@
         <v>13</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="G41" s="106" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H41" s="101"/>
     </row>
@@ -14599,16 +14687,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="G42" s="120" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H42" s="101"/>
     </row>
@@ -14620,16 +14708,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="G43" s="120" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="H43" s="101"/>
     </row>
@@ -14641,16 +14729,16 @@
         <v>16</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="G44" s="120" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="H44" s="101"/>
     </row>
@@ -14662,16 +14750,16 @@
         <v>17</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="G45" s="120" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="H45" s="101"/>
     </row>
@@ -14683,16 +14771,16 @@
         <v>18</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="G46" s="120" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="H46" s="101"/>
     </row>
@@ -14704,16 +14792,16 @@
         <v>19</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="G47" s="120" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="H47" s="101"/>
     </row>
@@ -14725,16 +14813,16 @@
         <v>20</v>
       </c>
       <c r="D48" s="70" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="G48" s="120" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="H48" s="101"/>
     </row>
@@ -14746,16 +14834,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="70" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="G49" s="120" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="H49" s="101"/>
     </row>
@@ -14767,16 +14855,16 @@
         <v>22</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="G50" s="120" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="H50" s="101"/>
     </row>

--- a/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
+++ b/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442C108F-2B5B-4844-AD51-F03AD831FB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58BBE4A3-1B35-4DA5-8FFF-AE5016A166B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="579">
   <si>
     <t>MOM</t>
   </si>
@@ -407,6 +407,27 @@
   </si>
   <si>
     <t>NFR should be Objective.</t>
+  </si>
+  <si>
+    <t>DAY 12</t>
+  </si>
+  <si>
+    <t>Web API Not required for Calander ( Don't Do Yagni )</t>
+  </si>
+  <si>
+    <t>Misplacement in System Architechture diagram ( Application Layer, Permission layer )</t>
+  </si>
+  <si>
+    <t>Corrections in NFR ( Inter operability, Page Resolution )</t>
+  </si>
+  <si>
+    <t>Security Must be subjective not objective ( in NFR )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply Real Estate Usage in in Layout </t>
+  </si>
+  <si>
+    <t>Start Nuilding Web API</t>
   </si>
   <si>
     <t xml:space="preserve"> TEAM ALPHA</t>
@@ -2153,7 +2174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2521,16 +2542,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2563,6 +2584,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3353,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46290B07-6E6D-4B19-9A9B-C3E38C6518F8}">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4276,6 +4301,71 @@
       <c r="B134" s="2" t="s">
         <v>123</v>
       </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="6">
+        <v>1</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="6">
+        <v>2</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="6">
+        <v>3</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="6">
+        <v>4</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="7">
+        <v>5</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="25">
+        <v>6</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="167"/>
+      <c r="B145" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4300,7 +4390,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="G1" s="142" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
@@ -4310,14 +4400,14 @@
     </row>
     <row r="3" spans="1:14">
       <c r="G3" s="143" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H3" s="143"/>
       <c r="I3" s="143"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="F5" s="138" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
@@ -4327,11 +4417,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="27" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="137" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D8" s="137"/>
       <c r="E8" s="137"/>
@@ -4347,11 +4437,11 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="27" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="28" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="28"/>
@@ -4367,7 +4457,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="C12" s="139" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="140"/>
@@ -4383,7 +4473,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="C13" s="137" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
@@ -4430,7 +4520,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
       <c r="E1" s="10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.75">
@@ -4438,7 +4528,7 @@
     </row>
     <row r="3" spans="2:6" ht="15.75">
       <c r="E3" s="12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -4446,19 +4536,19 @@
     </row>
     <row r="5" spans="2:6" ht="15.75">
       <c r="B5" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4466,16 +4556,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -4485,10 +4575,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -4498,10 +4588,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -4511,10 +4601,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -4524,10 +4614,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -4537,10 +4627,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -4550,10 +4640,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -4563,10 +4653,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -4574,16 +4664,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="146" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D14" s="25">
         <v>9</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -4593,10 +4683,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -4606,10 +4696,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4619,10 +4709,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4632,10 +4722,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -4643,16 +4733,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D19" s="25">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -4662,10 +4752,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4675,10 +4765,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4688,10 +4778,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -4764,20 +4854,20 @@
   <sheetData>
     <row r="1" spans="3:16" ht="18.75">
       <c r="C1" s="21" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="3:16">
       <c r="C3" s="22" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="3:16" ht="17.25">
       <c r="C5" s="20" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H5" s="143" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I5" s="143"/>
       <c r="J5" s="143"/>
@@ -4788,10 +4878,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="3:16">
@@ -4800,10 +4890,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="144" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -4813,7 +4903,7 @@
       </c>
       <c r="I9" s="145"/>
       <c r="J9" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="17.25">
@@ -4823,10 +4913,10 @@
       </c>
       <c r="I10" s="145"/>
       <c r="J10" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="3:16">
@@ -4836,7 +4926,7 @@
       </c>
       <c r="I11" s="145"/>
       <c r="J11" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="3:16">
@@ -4846,7 +4936,7 @@
       </c>
       <c r="I12" s="145"/>
       <c r="J12" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -4856,7 +4946,7 @@
       </c>
       <c r="I13" s="145"/>
       <c r="J13" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="3:16">
@@ -4866,7 +4956,7 @@
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -4876,7 +4966,7 @@
       </c>
       <c r="I15" s="145"/>
       <c r="J15" s="19" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="3:16">
@@ -4886,7 +4976,7 @@
       </c>
       <c r="I16" s="149"/>
       <c r="J16" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -4900,10 +4990,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="151" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -4913,7 +5003,7 @@
       </c>
       <c r="I19" s="151"/>
       <c r="J19" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -4923,7 +5013,7 @@
       </c>
       <c r="I20" s="151"/>
       <c r="J20" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -4933,7 +5023,7 @@
       </c>
       <c r="I21" s="151"/>
       <c r="J21" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="3:10">
@@ -4943,7 +5033,7 @@
       </c>
       <c r="I22" s="151"/>
       <c r="J22" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -4953,7 +5043,7 @@
       </c>
       <c r="I23" s="151"/>
       <c r="J23" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -4963,7 +5053,7 @@
       </c>
       <c r="I24" s="151"/>
       <c r="J24" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="3:10">
@@ -4976,10 +5066,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="151" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="3:10">
@@ -4989,7 +5079,7 @@
       </c>
       <c r="I27" s="151"/>
       <c r="J27" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="3:10">
@@ -4999,7 +5089,7 @@
       </c>
       <c r="I28" s="151"/>
       <c r="J28" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="3:10">
@@ -5009,7 +5099,7 @@
       </c>
       <c r="I29" s="151"/>
       <c r="J29" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -5019,7 +5109,7 @@
       </c>
       <c r="I30" s="151"/>
       <c r="J30" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="3:10">
@@ -5029,7 +5119,7 @@
       </c>
       <c r="I31" s="151"/>
       <c r="J31" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="3:10">
@@ -5039,7 +5129,7 @@
       </c>
       <c r="I32" s="151"/>
       <c r="J32" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="3:10">
@@ -5048,12 +5138,12 @@
       </c>
       <c r="I33" s="151"/>
       <c r="J33" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="17.25">
       <c r="C34" s="23" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="3:10">
@@ -5164,12 +5254,12 @@
     </row>
     <row r="72" spans="3:4" ht="17.25">
       <c r="C72" s="23" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="150" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="3:4">
@@ -5187,7 +5277,7 @@
     <row r="79" spans="3:4" ht="17.25">
       <c r="C79" s="150"/>
       <c r="D79" s="17" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="3:4">
@@ -5308,7 +5398,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="D1" s="10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -5316,24 +5406,24 @@
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="D3" s="12" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5341,16 +5431,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="151" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5360,10 +5450,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5373,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5386,10 +5476,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5399,10 +5489,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5412,10 +5502,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5425,10 +5515,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5438,10 +5528,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5451,10 +5541,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5464,10 +5554,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5477,10 +5567,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5490,10 +5580,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5503,10 +5593,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5514,16 +5604,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="149" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C19" s="51">
         <v>14</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5533,10 +5623,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5546,10 +5636,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5559,10 +5649,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5572,10 +5662,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5583,16 +5673,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C24" s="50">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5602,10 +5692,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5615,10 +5705,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5628,10 +5718,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5641,10 +5731,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5654,10 +5744,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5667,10 +5757,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5680,10 +5770,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5702,44 +5792,44 @@
       <c r="E34" s="47"/>
     </row>
     <row r="35" spans="3:20">
-      <c r="D35" s="155" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="155"/>
-      <c r="R35" s="155"/>
-      <c r="S35" s="155"/>
-      <c r="T35" s="155"/>
+      <c r="D35" s="156" t="s">
+        <v>248</v>
+      </c>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="156"/>
+      <c r="P35" s="156"/>
+      <c r="Q35" s="156"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="156"/>
+      <c r="T35" s="156"/>
     </row>
     <row r="36" spans="3:20">
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="155"/>
     </row>
     <row r="37" spans="3:20">
       <c r="D37" s="152"/>
@@ -6867,7 +6957,7 @@
     </row>
     <row r="99" spans="4:21">
       <c r="D99" s="154" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E99" s="154"/>
       <c r="F99" s="154"/>
@@ -6888,24 +6978,24 @@
       <c r="U99" s="154"/>
     </row>
     <row r="100" spans="4:21">
-      <c r="D100" s="153"/>
-      <c r="E100" s="153"/>
-      <c r="F100" s="153"/>
-      <c r="G100" s="153"/>
-      <c r="H100" s="153"/>
-      <c r="I100" s="153"/>
-      <c r="J100" s="153"/>
-      <c r="K100" s="153"/>
-      <c r="L100" s="153"/>
-      <c r="M100" s="153"/>
-      <c r="N100" s="153"/>
-      <c r="O100" s="153"/>
-      <c r="P100" s="153"/>
-      <c r="Q100" s="153"/>
-      <c r="R100" s="153"/>
-      <c r="S100" s="153"/>
-      <c r="T100" s="153"/>
-      <c r="U100" s="153"/>
+      <c r="D100" s="155"/>
+      <c r="E100" s="155"/>
+      <c r="F100" s="155"/>
+      <c r="G100" s="155"/>
+      <c r="H100" s="155"/>
+      <c r="I100" s="155"/>
+      <c r="J100" s="155"/>
+      <c r="K100" s="155"/>
+      <c r="L100" s="155"/>
+      <c r="M100" s="155"/>
+      <c r="N100" s="155"/>
+      <c r="O100" s="155"/>
+      <c r="P100" s="155"/>
+      <c r="Q100" s="155"/>
+      <c r="R100" s="155"/>
+      <c r="S100" s="155"/>
+      <c r="T100" s="155"/>
+      <c r="U100" s="155"/>
     </row>
     <row r="101" spans="4:21">
       <c r="D101" s="152"/>
@@ -8189,7 +8279,7 @@
     </row>
     <row r="167" spans="4:21">
       <c r="D167" s="154" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E167" s="154"/>
       <c r="F167" s="154"/>
@@ -8210,1742 +8300,1737 @@
       <c r="U167" s="154"/>
     </row>
     <row r="168" spans="4:21">
-      <c r="D168" s="156"/>
-      <c r="E168" s="156"/>
-      <c r="F168" s="156"/>
-      <c r="G168" s="156"/>
-      <c r="H168" s="156"/>
-      <c r="I168" s="156"/>
-      <c r="J168" s="156"/>
-      <c r="K168" s="156"/>
-      <c r="L168" s="156"/>
-      <c r="M168" s="156"/>
-      <c r="N168" s="156"/>
-      <c r="O168" s="156"/>
-      <c r="P168" s="156"/>
-      <c r="Q168" s="156"/>
-      <c r="R168" s="156"/>
-      <c r="S168" s="156"/>
-      <c r="T168" s="156"/>
-      <c r="U168" s="156"/>
+      <c r="D168" s="153"/>
+      <c r="E168" s="153"/>
+      <c r="F168" s="153"/>
+      <c r="G168" s="153"/>
+      <c r="H168" s="153"/>
+      <c r="I168" s="153"/>
+      <c r="J168" s="153"/>
+      <c r="K168" s="153"/>
+      <c r="L168" s="153"/>
+      <c r="M168" s="153"/>
+      <c r="N168" s="153"/>
+      <c r="O168" s="153"/>
+      <c r="P168" s="153"/>
+      <c r="Q168" s="153"/>
+      <c r="R168" s="153"/>
+      <c r="S168" s="153"/>
+      <c r="T168" s="153"/>
+      <c r="U168" s="153"/>
     </row>
     <row r="169" spans="4:21">
-      <c r="D169" s="156"/>
-      <c r="E169" s="156"/>
-      <c r="F169" s="156"/>
-      <c r="G169" s="156"/>
-      <c r="H169" s="156"/>
-      <c r="I169" s="156"/>
-      <c r="J169" s="156"/>
-      <c r="K169" s="156"/>
-      <c r="L169" s="156"/>
-      <c r="M169" s="156"/>
-      <c r="N169" s="156"/>
-      <c r="O169" s="156"/>
-      <c r="P169" s="156"/>
-      <c r="Q169" s="156"/>
-      <c r="R169" s="156"/>
-      <c r="S169" s="156"/>
-      <c r="T169" s="156"/>
-      <c r="U169" s="156"/>
+      <c r="D169" s="153"/>
+      <c r="E169" s="153"/>
+      <c r="F169" s="153"/>
+      <c r="G169" s="153"/>
+      <c r="H169" s="153"/>
+      <c r="I169" s="153"/>
+      <c r="J169" s="153"/>
+      <c r="K169" s="153"/>
+      <c r="L169" s="153"/>
+      <c r="M169" s="153"/>
+      <c r="N169" s="153"/>
+      <c r="O169" s="153"/>
+      <c r="P169" s="153"/>
+      <c r="Q169" s="153"/>
+      <c r="R169" s="153"/>
+      <c r="S169" s="153"/>
+      <c r="T169" s="153"/>
+      <c r="U169" s="153"/>
     </row>
     <row r="170" spans="4:21">
-      <c r="D170" s="156"/>
-      <c r="E170" s="156"/>
-      <c r="F170" s="156"/>
-      <c r="G170" s="156"/>
-      <c r="H170" s="156"/>
-      <c r="I170" s="156"/>
-      <c r="J170" s="156"/>
-      <c r="K170" s="156"/>
-      <c r="L170" s="156"/>
-      <c r="M170" s="156"/>
-      <c r="N170" s="156"/>
-      <c r="O170" s="156"/>
-      <c r="P170" s="156"/>
-      <c r="Q170" s="156"/>
-      <c r="R170" s="156"/>
-      <c r="S170" s="156"/>
-      <c r="T170" s="156"/>
-      <c r="U170" s="156"/>
+      <c r="D170" s="153"/>
+      <c r="E170" s="153"/>
+      <c r="F170" s="153"/>
+      <c r="G170" s="153"/>
+      <c r="H170" s="153"/>
+      <c r="I170" s="153"/>
+      <c r="J170" s="153"/>
+      <c r="K170" s="153"/>
+      <c r="L170" s="153"/>
+      <c r="M170" s="153"/>
+      <c r="N170" s="153"/>
+      <c r="O170" s="153"/>
+      <c r="P170" s="153"/>
+      <c r="Q170" s="153"/>
+      <c r="R170" s="153"/>
+      <c r="S170" s="153"/>
+      <c r="T170" s="153"/>
+      <c r="U170" s="153"/>
     </row>
     <row r="171" spans="4:21">
-      <c r="D171" s="156"/>
-      <c r="E171" s="156"/>
-      <c r="F171" s="156"/>
-      <c r="G171" s="156"/>
-      <c r="H171" s="156"/>
-      <c r="I171" s="156"/>
-      <c r="J171" s="156"/>
-      <c r="K171" s="156"/>
-      <c r="L171" s="156"/>
-      <c r="M171" s="156"/>
-      <c r="N171" s="156"/>
-      <c r="O171" s="156"/>
-      <c r="P171" s="156"/>
-      <c r="Q171" s="156"/>
-      <c r="R171" s="156"/>
-      <c r="S171" s="156"/>
-      <c r="T171" s="156"/>
-      <c r="U171" s="156"/>
+      <c r="D171" s="153"/>
+      <c r="E171" s="153"/>
+      <c r="F171" s="153"/>
+      <c r="G171" s="153"/>
+      <c r="H171" s="153"/>
+      <c r="I171" s="153"/>
+      <c r="J171" s="153"/>
+      <c r="K171" s="153"/>
+      <c r="L171" s="153"/>
+      <c r="M171" s="153"/>
+      <c r="N171" s="153"/>
+      <c r="O171" s="153"/>
+      <c r="P171" s="153"/>
+      <c r="Q171" s="153"/>
+      <c r="R171" s="153"/>
+      <c r="S171" s="153"/>
+      <c r="T171" s="153"/>
+      <c r="U171" s="153"/>
     </row>
     <row r="172" spans="4:21">
-      <c r="D172" s="156"/>
-      <c r="E172" s="156"/>
-      <c r="F172" s="156"/>
-      <c r="G172" s="156"/>
-      <c r="H172" s="156"/>
-      <c r="I172" s="156"/>
-      <c r="J172" s="156"/>
-      <c r="K172" s="156"/>
-      <c r="L172" s="156"/>
-      <c r="M172" s="156"/>
-      <c r="N172" s="156"/>
-      <c r="O172" s="156"/>
-      <c r="P172" s="156"/>
-      <c r="Q172" s="156"/>
-      <c r="R172" s="156"/>
-      <c r="S172" s="156"/>
-      <c r="T172" s="156"/>
-      <c r="U172" s="156"/>
+      <c r="D172" s="153"/>
+      <c r="E172" s="153"/>
+      <c r="F172" s="153"/>
+      <c r="G172" s="153"/>
+      <c r="H172" s="153"/>
+      <c r="I172" s="153"/>
+      <c r="J172" s="153"/>
+      <c r="K172" s="153"/>
+      <c r="L172" s="153"/>
+      <c r="M172" s="153"/>
+      <c r="N172" s="153"/>
+      <c r="O172" s="153"/>
+      <c r="P172" s="153"/>
+      <c r="Q172" s="153"/>
+      <c r="R172" s="153"/>
+      <c r="S172" s="153"/>
+      <c r="T172" s="153"/>
+      <c r="U172" s="153"/>
     </row>
     <row r="173" spans="4:21">
-      <c r="D173" s="156"/>
-      <c r="E173" s="156"/>
-      <c r="F173" s="156"/>
-      <c r="G173" s="156"/>
-      <c r="H173" s="156"/>
-      <c r="I173" s="156"/>
-      <c r="J173" s="156"/>
-      <c r="K173" s="156"/>
-      <c r="L173" s="156"/>
-      <c r="M173" s="156"/>
-      <c r="N173" s="156"/>
-      <c r="O173" s="156"/>
-      <c r="P173" s="156"/>
-      <c r="Q173" s="156"/>
-      <c r="R173" s="156"/>
-      <c r="S173" s="156"/>
-      <c r="T173" s="156"/>
-      <c r="U173" s="156"/>
+      <c r="D173" s="153"/>
+      <c r="E173" s="153"/>
+      <c r="F173" s="153"/>
+      <c r="G173" s="153"/>
+      <c r="H173" s="153"/>
+      <c r="I173" s="153"/>
+      <c r="J173" s="153"/>
+      <c r="K173" s="153"/>
+      <c r="L173" s="153"/>
+      <c r="M173" s="153"/>
+      <c r="N173" s="153"/>
+      <c r="O173" s="153"/>
+      <c r="P173" s="153"/>
+      <c r="Q173" s="153"/>
+      <c r="R173" s="153"/>
+      <c r="S173" s="153"/>
+      <c r="T173" s="153"/>
+      <c r="U173" s="153"/>
     </row>
     <row r="174" spans="4:21">
-      <c r="D174" s="156"/>
-      <c r="E174" s="156"/>
-      <c r="F174" s="156"/>
-      <c r="G174" s="156"/>
-      <c r="H174" s="156"/>
-      <c r="I174" s="156"/>
-      <c r="J174" s="156"/>
-      <c r="K174" s="156"/>
-      <c r="L174" s="156"/>
-      <c r="M174" s="156"/>
-      <c r="N174" s="156"/>
-      <c r="O174" s="156"/>
-      <c r="P174" s="156"/>
-      <c r="Q174" s="156"/>
-      <c r="R174" s="156"/>
-      <c r="S174" s="156"/>
-      <c r="T174" s="156"/>
-      <c r="U174" s="156"/>
+      <c r="D174" s="153"/>
+      <c r="E174" s="153"/>
+      <c r="F174" s="153"/>
+      <c r="G174" s="153"/>
+      <c r="H174" s="153"/>
+      <c r="I174" s="153"/>
+      <c r="J174" s="153"/>
+      <c r="K174" s="153"/>
+      <c r="L174" s="153"/>
+      <c r="M174" s="153"/>
+      <c r="N174" s="153"/>
+      <c r="O174" s="153"/>
+      <c r="P174" s="153"/>
+      <c r="Q174" s="153"/>
+      <c r="R174" s="153"/>
+      <c r="S174" s="153"/>
+      <c r="T174" s="153"/>
+      <c r="U174" s="153"/>
     </row>
     <row r="175" spans="4:21">
-      <c r="D175" s="156"/>
-      <c r="E175" s="156"/>
-      <c r="F175" s="156"/>
-      <c r="G175" s="156"/>
-      <c r="H175" s="156"/>
-      <c r="I175" s="156"/>
-      <c r="J175" s="156"/>
-      <c r="K175" s="156"/>
-      <c r="L175" s="156"/>
-      <c r="M175" s="156"/>
-      <c r="N175" s="156"/>
-      <c r="O175" s="156"/>
-      <c r="P175" s="156"/>
-      <c r="Q175" s="156"/>
-      <c r="R175" s="156"/>
-      <c r="S175" s="156"/>
-      <c r="T175" s="156"/>
-      <c r="U175" s="156"/>
+      <c r="D175" s="153"/>
+      <c r="E175" s="153"/>
+      <c r="F175" s="153"/>
+      <c r="G175" s="153"/>
+      <c r="H175" s="153"/>
+      <c r="I175" s="153"/>
+      <c r="J175" s="153"/>
+      <c r="K175" s="153"/>
+      <c r="L175" s="153"/>
+      <c r="M175" s="153"/>
+      <c r="N175" s="153"/>
+      <c r="O175" s="153"/>
+      <c r="P175" s="153"/>
+      <c r="Q175" s="153"/>
+      <c r="R175" s="153"/>
+      <c r="S175" s="153"/>
+      <c r="T175" s="153"/>
+      <c r="U175" s="153"/>
     </row>
     <row r="176" spans="4:21">
-      <c r="D176" s="156"/>
-      <c r="E176" s="156"/>
-      <c r="F176" s="156"/>
-      <c r="G176" s="156"/>
-      <c r="H176" s="156"/>
-      <c r="I176" s="156"/>
-      <c r="J176" s="156"/>
-      <c r="K176" s="156"/>
-      <c r="L176" s="156"/>
-      <c r="M176" s="156"/>
-      <c r="N176" s="156"/>
-      <c r="O176" s="156"/>
-      <c r="P176" s="156"/>
-      <c r="Q176" s="156"/>
-      <c r="R176" s="156"/>
-      <c r="S176" s="156"/>
-      <c r="T176" s="156"/>
-      <c r="U176" s="156"/>
+      <c r="D176" s="153"/>
+      <c r="E176" s="153"/>
+      <c r="F176" s="153"/>
+      <c r="G176" s="153"/>
+      <c r="H176" s="153"/>
+      <c r="I176" s="153"/>
+      <c r="J176" s="153"/>
+      <c r="K176" s="153"/>
+      <c r="L176" s="153"/>
+      <c r="M176" s="153"/>
+      <c r="N176" s="153"/>
+      <c r="O176" s="153"/>
+      <c r="P176" s="153"/>
+      <c r="Q176" s="153"/>
+      <c r="R176" s="153"/>
+      <c r="S176" s="153"/>
+      <c r="T176" s="153"/>
+      <c r="U176" s="153"/>
     </row>
     <row r="177" spans="4:21">
-      <c r="D177" s="156"/>
-      <c r="E177" s="156"/>
-      <c r="F177" s="156"/>
-      <c r="G177" s="156"/>
-      <c r="H177" s="156"/>
-      <c r="I177" s="156"/>
-      <c r="J177" s="156"/>
-      <c r="K177" s="156"/>
-      <c r="L177" s="156"/>
-      <c r="M177" s="156"/>
-      <c r="N177" s="156"/>
-      <c r="O177" s="156"/>
-      <c r="P177" s="156"/>
-      <c r="Q177" s="156"/>
-      <c r="R177" s="156"/>
-      <c r="S177" s="156"/>
-      <c r="T177" s="156"/>
-      <c r="U177" s="156"/>
+      <c r="D177" s="153"/>
+      <c r="E177" s="153"/>
+      <c r="F177" s="153"/>
+      <c r="G177" s="153"/>
+      <c r="H177" s="153"/>
+      <c r="I177" s="153"/>
+      <c r="J177" s="153"/>
+      <c r="K177" s="153"/>
+      <c r="L177" s="153"/>
+      <c r="M177" s="153"/>
+      <c r="N177" s="153"/>
+      <c r="O177" s="153"/>
+      <c r="P177" s="153"/>
+      <c r="Q177" s="153"/>
+      <c r="R177" s="153"/>
+      <c r="S177" s="153"/>
+      <c r="T177" s="153"/>
+      <c r="U177" s="153"/>
     </row>
     <row r="178" spans="4:21">
-      <c r="D178" s="156"/>
-      <c r="E178" s="156"/>
-      <c r="F178" s="156"/>
-      <c r="G178" s="156"/>
-      <c r="H178" s="156"/>
-      <c r="I178" s="156"/>
-      <c r="J178" s="156"/>
-      <c r="K178" s="156"/>
-      <c r="L178" s="156"/>
-      <c r="M178" s="156"/>
-      <c r="N178" s="156"/>
-      <c r="O178" s="156"/>
-      <c r="P178" s="156"/>
-      <c r="Q178" s="156"/>
-      <c r="R178" s="156"/>
-      <c r="S178" s="156"/>
-      <c r="T178" s="156"/>
-      <c r="U178" s="156"/>
+      <c r="D178" s="153"/>
+      <c r="E178" s="153"/>
+      <c r="F178" s="153"/>
+      <c r="G178" s="153"/>
+      <c r="H178" s="153"/>
+      <c r="I178" s="153"/>
+      <c r="J178" s="153"/>
+      <c r="K178" s="153"/>
+      <c r="L178" s="153"/>
+      <c r="M178" s="153"/>
+      <c r="N178" s="153"/>
+      <c r="O178" s="153"/>
+      <c r="P178" s="153"/>
+      <c r="Q178" s="153"/>
+      <c r="R178" s="153"/>
+      <c r="S178" s="153"/>
+      <c r="T178" s="153"/>
+      <c r="U178" s="153"/>
     </row>
     <row r="179" spans="4:21">
-      <c r="D179" s="156"/>
-      <c r="E179" s="156"/>
-      <c r="F179" s="156"/>
-      <c r="G179" s="156"/>
-      <c r="H179" s="156"/>
-      <c r="I179" s="156"/>
-      <c r="J179" s="156"/>
-      <c r="K179" s="156"/>
-      <c r="L179" s="156"/>
-      <c r="M179" s="156"/>
-      <c r="N179" s="156"/>
-      <c r="O179" s="156"/>
-      <c r="P179" s="156"/>
-      <c r="Q179" s="156"/>
-      <c r="R179" s="156"/>
-      <c r="S179" s="156"/>
-      <c r="T179" s="156"/>
-      <c r="U179" s="156"/>
+      <c r="D179" s="153"/>
+      <c r="E179" s="153"/>
+      <c r="F179" s="153"/>
+      <c r="G179" s="153"/>
+      <c r="H179" s="153"/>
+      <c r="I179" s="153"/>
+      <c r="J179" s="153"/>
+      <c r="K179" s="153"/>
+      <c r="L179" s="153"/>
+      <c r="M179" s="153"/>
+      <c r="N179" s="153"/>
+      <c r="O179" s="153"/>
+      <c r="P179" s="153"/>
+      <c r="Q179" s="153"/>
+      <c r="R179" s="153"/>
+      <c r="S179" s="153"/>
+      <c r="T179" s="153"/>
+      <c r="U179" s="153"/>
     </row>
     <row r="180" spans="4:21">
-      <c r="D180" s="156"/>
-      <c r="E180" s="156"/>
-      <c r="F180" s="156"/>
-      <c r="G180" s="156"/>
-      <c r="H180" s="156"/>
-      <c r="I180" s="156"/>
-      <c r="J180" s="156"/>
-      <c r="K180" s="156"/>
-      <c r="L180" s="156"/>
-      <c r="M180" s="156"/>
-      <c r="N180" s="156"/>
-      <c r="O180" s="156"/>
-      <c r="P180" s="156"/>
-      <c r="Q180" s="156"/>
-      <c r="R180" s="156"/>
-      <c r="S180" s="156"/>
-      <c r="T180" s="156"/>
-      <c r="U180" s="156"/>
+      <c r="D180" s="153"/>
+      <c r="E180" s="153"/>
+      <c r="F180" s="153"/>
+      <c r="G180" s="153"/>
+      <c r="H180" s="153"/>
+      <c r="I180" s="153"/>
+      <c r="J180" s="153"/>
+      <c r="K180" s="153"/>
+      <c r="L180" s="153"/>
+      <c r="M180" s="153"/>
+      <c r="N180" s="153"/>
+      <c r="O180" s="153"/>
+      <c r="P180" s="153"/>
+      <c r="Q180" s="153"/>
+      <c r="R180" s="153"/>
+      <c r="S180" s="153"/>
+      <c r="T180" s="153"/>
+      <c r="U180" s="153"/>
     </row>
     <row r="181" spans="4:21">
-      <c r="D181" s="156"/>
-      <c r="E181" s="156"/>
-      <c r="F181" s="156"/>
-      <c r="G181" s="156"/>
-      <c r="H181" s="156"/>
-      <c r="I181" s="156"/>
-      <c r="J181" s="156"/>
-      <c r="K181" s="156"/>
-      <c r="L181" s="156"/>
-      <c r="M181" s="156"/>
-      <c r="N181" s="156"/>
-      <c r="O181" s="156"/>
-      <c r="P181" s="156"/>
-      <c r="Q181" s="156"/>
-      <c r="R181" s="156"/>
-      <c r="S181" s="156"/>
-      <c r="T181" s="156"/>
-      <c r="U181" s="156"/>
+      <c r="D181" s="153"/>
+      <c r="E181" s="153"/>
+      <c r="F181" s="153"/>
+      <c r="G181" s="153"/>
+      <c r="H181" s="153"/>
+      <c r="I181" s="153"/>
+      <c r="J181" s="153"/>
+      <c r="K181" s="153"/>
+      <c r="L181" s="153"/>
+      <c r="M181" s="153"/>
+      <c r="N181" s="153"/>
+      <c r="O181" s="153"/>
+      <c r="P181" s="153"/>
+      <c r="Q181" s="153"/>
+      <c r="R181" s="153"/>
+      <c r="S181" s="153"/>
+      <c r="T181" s="153"/>
+      <c r="U181" s="153"/>
     </row>
     <row r="182" spans="4:21">
-      <c r="D182" s="156"/>
-      <c r="E182" s="156"/>
-      <c r="F182" s="156"/>
-      <c r="G182" s="156"/>
-      <c r="H182" s="156"/>
-      <c r="I182" s="156"/>
-      <c r="J182" s="156"/>
-      <c r="K182" s="156"/>
-      <c r="L182" s="156"/>
-      <c r="M182" s="156"/>
-      <c r="N182" s="156"/>
-      <c r="O182" s="156"/>
-      <c r="P182" s="156"/>
-      <c r="Q182" s="156"/>
-      <c r="R182" s="156"/>
-      <c r="S182" s="156"/>
-      <c r="T182" s="156"/>
-      <c r="U182" s="156"/>
+      <c r="D182" s="153"/>
+      <c r="E182" s="153"/>
+      <c r="F182" s="153"/>
+      <c r="G182" s="153"/>
+      <c r="H182" s="153"/>
+      <c r="I182" s="153"/>
+      <c r="J182" s="153"/>
+      <c r="K182" s="153"/>
+      <c r="L182" s="153"/>
+      <c r="M182" s="153"/>
+      <c r="N182" s="153"/>
+      <c r="O182" s="153"/>
+      <c r="P182" s="153"/>
+      <c r="Q182" s="153"/>
+      <c r="R182" s="153"/>
+      <c r="S182" s="153"/>
+      <c r="T182" s="153"/>
+      <c r="U182" s="153"/>
     </row>
     <row r="183" spans="4:21">
-      <c r="D183" s="156"/>
-      <c r="E183" s="156"/>
-      <c r="F183" s="156"/>
-      <c r="G183" s="156"/>
-      <c r="H183" s="156"/>
-      <c r="I183" s="156"/>
-      <c r="J183" s="156"/>
-      <c r="K183" s="156"/>
-      <c r="L183" s="156"/>
-      <c r="M183" s="156"/>
-      <c r="N183" s="156"/>
-      <c r="O183" s="156"/>
-      <c r="P183" s="156"/>
-      <c r="Q183" s="156"/>
-      <c r="R183" s="156"/>
-      <c r="S183" s="156"/>
-      <c r="T183" s="156"/>
-      <c r="U183" s="156"/>
+      <c r="D183" s="153"/>
+      <c r="E183" s="153"/>
+      <c r="F183" s="153"/>
+      <c r="G183" s="153"/>
+      <c r="H183" s="153"/>
+      <c r="I183" s="153"/>
+      <c r="J183" s="153"/>
+      <c r="K183" s="153"/>
+      <c r="L183" s="153"/>
+      <c r="M183" s="153"/>
+      <c r="N183" s="153"/>
+      <c r="O183" s="153"/>
+      <c r="P183" s="153"/>
+      <c r="Q183" s="153"/>
+      <c r="R183" s="153"/>
+      <c r="S183" s="153"/>
+      <c r="T183" s="153"/>
+      <c r="U183" s="153"/>
     </row>
     <row r="184" spans="4:21">
-      <c r="D184" s="156"/>
-      <c r="E184" s="156"/>
-      <c r="F184" s="156"/>
-      <c r="G184" s="156"/>
-      <c r="H184" s="156"/>
-      <c r="I184" s="156"/>
-      <c r="J184" s="156"/>
-      <c r="K184" s="156"/>
-      <c r="L184" s="156"/>
-      <c r="M184" s="156"/>
-      <c r="N184" s="156"/>
-      <c r="O184" s="156"/>
-      <c r="P184" s="156"/>
-      <c r="Q184" s="156"/>
-      <c r="R184" s="156"/>
-      <c r="S184" s="156"/>
-      <c r="T184" s="156"/>
-      <c r="U184" s="156"/>
+      <c r="D184" s="153"/>
+      <c r="E184" s="153"/>
+      <c r="F184" s="153"/>
+      <c r="G184" s="153"/>
+      <c r="H184" s="153"/>
+      <c r="I184" s="153"/>
+      <c r="J184" s="153"/>
+      <c r="K184" s="153"/>
+      <c r="L184" s="153"/>
+      <c r="M184" s="153"/>
+      <c r="N184" s="153"/>
+      <c r="O184" s="153"/>
+      <c r="P184" s="153"/>
+      <c r="Q184" s="153"/>
+      <c r="R184" s="153"/>
+      <c r="S184" s="153"/>
+      <c r="T184" s="153"/>
+      <c r="U184" s="153"/>
     </row>
     <row r="185" spans="4:21">
-      <c r="D185" s="156"/>
-      <c r="E185" s="156"/>
-      <c r="F185" s="156"/>
-      <c r="G185" s="156"/>
-      <c r="H185" s="156"/>
-      <c r="I185" s="156"/>
-      <c r="J185" s="156"/>
-      <c r="K185" s="156"/>
-      <c r="L185" s="156"/>
-      <c r="M185" s="156"/>
-      <c r="N185" s="156"/>
-      <c r="O185" s="156"/>
-      <c r="P185" s="156"/>
-      <c r="Q185" s="156"/>
-      <c r="R185" s="156"/>
-      <c r="S185" s="156"/>
-      <c r="T185" s="156"/>
-      <c r="U185" s="156"/>
+      <c r="D185" s="153"/>
+      <c r="E185" s="153"/>
+      <c r="F185" s="153"/>
+      <c r="G185" s="153"/>
+      <c r="H185" s="153"/>
+      <c r="I185" s="153"/>
+      <c r="J185" s="153"/>
+      <c r="K185" s="153"/>
+      <c r="L185" s="153"/>
+      <c r="M185" s="153"/>
+      <c r="N185" s="153"/>
+      <c r="O185" s="153"/>
+      <c r="P185" s="153"/>
+      <c r="Q185" s="153"/>
+      <c r="R185" s="153"/>
+      <c r="S185" s="153"/>
+      <c r="T185" s="153"/>
+      <c r="U185" s="153"/>
     </row>
     <row r="186" spans="4:21">
-      <c r="D186" s="156"/>
-      <c r="E186" s="156"/>
-      <c r="F186" s="156"/>
-      <c r="G186" s="156"/>
-      <c r="H186" s="156"/>
-      <c r="I186" s="156"/>
-      <c r="J186" s="156"/>
-      <c r="K186" s="156"/>
-      <c r="L186" s="156"/>
-      <c r="M186" s="156"/>
-      <c r="N186" s="156"/>
-      <c r="O186" s="156"/>
-      <c r="P186" s="156"/>
-      <c r="Q186" s="156"/>
-      <c r="R186" s="156"/>
-      <c r="S186" s="156"/>
-      <c r="T186" s="156"/>
-      <c r="U186" s="156"/>
+      <c r="D186" s="153"/>
+      <c r="E186" s="153"/>
+      <c r="F186" s="153"/>
+      <c r="G186" s="153"/>
+      <c r="H186" s="153"/>
+      <c r="I186" s="153"/>
+      <c r="J186" s="153"/>
+      <c r="K186" s="153"/>
+      <c r="L186" s="153"/>
+      <c r="M186" s="153"/>
+      <c r="N186" s="153"/>
+      <c r="O186" s="153"/>
+      <c r="P186" s="153"/>
+      <c r="Q186" s="153"/>
+      <c r="R186" s="153"/>
+      <c r="S186" s="153"/>
+      <c r="T186" s="153"/>
+      <c r="U186" s="153"/>
     </row>
     <row r="187" spans="4:21">
-      <c r="D187" s="156"/>
-      <c r="E187" s="156"/>
-      <c r="F187" s="156"/>
-      <c r="G187" s="156"/>
-      <c r="H187" s="156"/>
-      <c r="I187" s="156"/>
-      <c r="J187" s="156"/>
-      <c r="K187" s="156"/>
-      <c r="L187" s="156"/>
-      <c r="M187" s="156"/>
-      <c r="N187" s="156"/>
-      <c r="O187" s="156"/>
-      <c r="P187" s="156"/>
-      <c r="Q187" s="156"/>
-      <c r="R187" s="156"/>
-      <c r="S187" s="156"/>
-      <c r="T187" s="156"/>
-      <c r="U187" s="156"/>
+      <c r="D187" s="153"/>
+      <c r="E187" s="153"/>
+      <c r="F187" s="153"/>
+      <c r="G187" s="153"/>
+      <c r="H187" s="153"/>
+      <c r="I187" s="153"/>
+      <c r="J187" s="153"/>
+      <c r="K187" s="153"/>
+      <c r="L187" s="153"/>
+      <c r="M187" s="153"/>
+      <c r="N187" s="153"/>
+      <c r="O187" s="153"/>
+      <c r="P187" s="153"/>
+      <c r="Q187" s="153"/>
+      <c r="R187" s="153"/>
+      <c r="S187" s="153"/>
+      <c r="T187" s="153"/>
+      <c r="U187" s="153"/>
     </row>
     <row r="188" spans="4:21">
-      <c r="D188" s="156"/>
-      <c r="E188" s="156"/>
-      <c r="F188" s="156"/>
-      <c r="G188" s="156"/>
-      <c r="H188" s="156"/>
-      <c r="I188" s="156"/>
-      <c r="J188" s="156"/>
-      <c r="K188" s="156"/>
-      <c r="L188" s="156"/>
-      <c r="M188" s="156"/>
-      <c r="N188" s="156"/>
-      <c r="O188" s="156"/>
-      <c r="P188" s="156"/>
-      <c r="Q188" s="156"/>
-      <c r="R188" s="156"/>
-      <c r="S188" s="156"/>
-      <c r="T188" s="156"/>
-      <c r="U188" s="156"/>
+      <c r="D188" s="153"/>
+      <c r="E188" s="153"/>
+      <c r="F188" s="153"/>
+      <c r="G188" s="153"/>
+      <c r="H188" s="153"/>
+      <c r="I188" s="153"/>
+      <c r="J188" s="153"/>
+      <c r="K188" s="153"/>
+      <c r="L188" s="153"/>
+      <c r="M188" s="153"/>
+      <c r="N188" s="153"/>
+      <c r="O188" s="153"/>
+      <c r="P188" s="153"/>
+      <c r="Q188" s="153"/>
+      <c r="R188" s="153"/>
+      <c r="S188" s="153"/>
+      <c r="T188" s="153"/>
+      <c r="U188" s="153"/>
     </row>
     <row r="189" spans="4:21">
-      <c r="D189" s="156"/>
-      <c r="E189" s="156"/>
-      <c r="F189" s="156"/>
-      <c r="G189" s="156"/>
-      <c r="H189" s="156"/>
-      <c r="I189" s="156"/>
-      <c r="J189" s="156"/>
-      <c r="K189" s="156"/>
-      <c r="L189" s="156"/>
-      <c r="M189" s="156"/>
-      <c r="N189" s="156"/>
-      <c r="O189" s="156"/>
-      <c r="P189" s="156"/>
-      <c r="Q189" s="156"/>
-      <c r="R189" s="156"/>
-      <c r="S189" s="156"/>
-      <c r="T189" s="156"/>
-      <c r="U189" s="156"/>
+      <c r="D189" s="153"/>
+      <c r="E189" s="153"/>
+      <c r="F189" s="153"/>
+      <c r="G189" s="153"/>
+      <c r="H189" s="153"/>
+      <c r="I189" s="153"/>
+      <c r="J189" s="153"/>
+      <c r="K189" s="153"/>
+      <c r="L189" s="153"/>
+      <c r="M189" s="153"/>
+      <c r="N189" s="153"/>
+      <c r="O189" s="153"/>
+      <c r="P189" s="153"/>
+      <c r="Q189" s="153"/>
+      <c r="R189" s="153"/>
+      <c r="S189" s="153"/>
+      <c r="T189" s="153"/>
+      <c r="U189" s="153"/>
     </row>
     <row r="190" spans="4:21">
-      <c r="D190" s="156"/>
-      <c r="E190" s="156"/>
-      <c r="F190" s="156"/>
-      <c r="G190" s="156"/>
-      <c r="H190" s="156"/>
-      <c r="I190" s="156"/>
-      <c r="J190" s="156"/>
-      <c r="K190" s="156"/>
-      <c r="L190" s="156"/>
-      <c r="M190" s="156"/>
-      <c r="N190" s="156"/>
-      <c r="O190" s="156"/>
-      <c r="P190" s="156"/>
-      <c r="Q190" s="156"/>
-      <c r="R190" s="156"/>
-      <c r="S190" s="156"/>
-      <c r="T190" s="156"/>
-      <c r="U190" s="156"/>
+      <c r="D190" s="153"/>
+      <c r="E190" s="153"/>
+      <c r="F190" s="153"/>
+      <c r="G190" s="153"/>
+      <c r="H190" s="153"/>
+      <c r="I190" s="153"/>
+      <c r="J190" s="153"/>
+      <c r="K190" s="153"/>
+      <c r="L190" s="153"/>
+      <c r="M190" s="153"/>
+      <c r="N190" s="153"/>
+      <c r="O190" s="153"/>
+      <c r="P190" s="153"/>
+      <c r="Q190" s="153"/>
+      <c r="R190" s="153"/>
+      <c r="S190" s="153"/>
+      <c r="T190" s="153"/>
+      <c r="U190" s="153"/>
     </row>
     <row r="191" spans="4:21">
-      <c r="D191" s="156"/>
-      <c r="E191" s="156"/>
-      <c r="F191" s="156"/>
-      <c r="G191" s="156"/>
-      <c r="H191" s="156"/>
-      <c r="I191" s="156"/>
-      <c r="J191" s="156"/>
-      <c r="K191" s="156"/>
-      <c r="L191" s="156"/>
-      <c r="M191" s="156"/>
-      <c r="N191" s="156"/>
-      <c r="O191" s="156"/>
-      <c r="P191" s="156"/>
-      <c r="Q191" s="156"/>
-      <c r="R191" s="156"/>
-      <c r="S191" s="156"/>
-      <c r="T191" s="156"/>
-      <c r="U191" s="156"/>
+      <c r="D191" s="153"/>
+      <c r="E191" s="153"/>
+      <c r="F191" s="153"/>
+      <c r="G191" s="153"/>
+      <c r="H191" s="153"/>
+      <c r="I191" s="153"/>
+      <c r="J191" s="153"/>
+      <c r="K191" s="153"/>
+      <c r="L191" s="153"/>
+      <c r="M191" s="153"/>
+      <c r="N191" s="153"/>
+      <c r="O191" s="153"/>
+      <c r="P191" s="153"/>
+      <c r="Q191" s="153"/>
+      <c r="R191" s="153"/>
+      <c r="S191" s="153"/>
+      <c r="T191" s="153"/>
+      <c r="U191" s="153"/>
     </row>
     <row r="192" spans="4:21">
-      <c r="D192" s="156"/>
-      <c r="E192" s="156"/>
-      <c r="F192" s="156"/>
-      <c r="G192" s="156"/>
-      <c r="H192" s="156"/>
-      <c r="I192" s="156"/>
-      <c r="J192" s="156"/>
-      <c r="K192" s="156"/>
-      <c r="L192" s="156"/>
-      <c r="M192" s="156"/>
-      <c r="N192" s="156"/>
-      <c r="O192" s="156"/>
-      <c r="P192" s="156"/>
-      <c r="Q192" s="156"/>
-      <c r="R192" s="156"/>
-      <c r="S192" s="156"/>
-      <c r="T192" s="156"/>
-      <c r="U192" s="156"/>
+      <c r="D192" s="153"/>
+      <c r="E192" s="153"/>
+      <c r="F192" s="153"/>
+      <c r="G192" s="153"/>
+      <c r="H192" s="153"/>
+      <c r="I192" s="153"/>
+      <c r="J192" s="153"/>
+      <c r="K192" s="153"/>
+      <c r="L192" s="153"/>
+      <c r="M192" s="153"/>
+      <c r="N192" s="153"/>
+      <c r="O192" s="153"/>
+      <c r="P192" s="153"/>
+      <c r="Q192" s="153"/>
+      <c r="R192" s="153"/>
+      <c r="S192" s="153"/>
+      <c r="T192" s="153"/>
+      <c r="U192" s="153"/>
     </row>
     <row r="193" spans="4:21">
-      <c r="D193" s="156"/>
-      <c r="E193" s="156"/>
-      <c r="F193" s="156"/>
-      <c r="G193" s="156"/>
-      <c r="H193" s="156"/>
-      <c r="I193" s="156"/>
-      <c r="J193" s="156"/>
-      <c r="K193" s="156"/>
-      <c r="L193" s="156"/>
-      <c r="M193" s="156"/>
-      <c r="N193" s="156"/>
-      <c r="O193" s="156"/>
-      <c r="P193" s="156"/>
-      <c r="Q193" s="156"/>
-      <c r="R193" s="156"/>
-      <c r="S193" s="156"/>
-      <c r="T193" s="156"/>
-      <c r="U193" s="156"/>
+      <c r="D193" s="153"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="153"/>
+      <c r="H193" s="153"/>
+      <c r="I193" s="153"/>
+      <c r="J193" s="153"/>
+      <c r="K193" s="153"/>
+      <c r="L193" s="153"/>
+      <c r="M193" s="153"/>
+      <c r="N193" s="153"/>
+      <c r="O193" s="153"/>
+      <c r="P193" s="153"/>
+      <c r="Q193" s="153"/>
+      <c r="R193" s="153"/>
+      <c r="S193" s="153"/>
+      <c r="T193" s="153"/>
+      <c r="U193" s="153"/>
     </row>
     <row r="194" spans="4:21">
-      <c r="D194" s="156"/>
-      <c r="E194" s="156"/>
-      <c r="F194" s="156"/>
-      <c r="G194" s="156"/>
-      <c r="H194" s="156"/>
-      <c r="I194" s="156"/>
-      <c r="J194" s="156"/>
-      <c r="K194" s="156"/>
-      <c r="L194" s="156"/>
-      <c r="M194" s="156"/>
-      <c r="N194" s="156"/>
-      <c r="O194" s="156"/>
-      <c r="P194" s="156"/>
-      <c r="Q194" s="156"/>
-      <c r="R194" s="156"/>
-      <c r="S194" s="156"/>
-      <c r="T194" s="156"/>
-      <c r="U194" s="156"/>
+      <c r="D194" s="153"/>
+      <c r="E194" s="153"/>
+      <c r="F194" s="153"/>
+      <c r="G194" s="153"/>
+      <c r="H194" s="153"/>
+      <c r="I194" s="153"/>
+      <c r="J194" s="153"/>
+      <c r="K194" s="153"/>
+      <c r="L194" s="153"/>
+      <c r="M194" s="153"/>
+      <c r="N194" s="153"/>
+      <c r="O194" s="153"/>
+      <c r="P194" s="153"/>
+      <c r="Q194" s="153"/>
+      <c r="R194" s="153"/>
+      <c r="S194" s="153"/>
+      <c r="T194" s="153"/>
+      <c r="U194" s="153"/>
     </row>
     <row r="195" spans="4:21">
-      <c r="D195" s="156"/>
-      <c r="E195" s="156"/>
-      <c r="F195" s="156"/>
-      <c r="G195" s="156"/>
-      <c r="H195" s="156"/>
-      <c r="I195" s="156"/>
-      <c r="J195" s="156"/>
-      <c r="K195" s="156"/>
-      <c r="L195" s="156"/>
-      <c r="M195" s="156"/>
-      <c r="N195" s="156"/>
-      <c r="O195" s="156"/>
-      <c r="P195" s="156"/>
-      <c r="Q195" s="156"/>
-      <c r="R195" s="156"/>
-      <c r="S195" s="156"/>
-      <c r="T195" s="156"/>
-      <c r="U195" s="156"/>
+      <c r="D195" s="153"/>
+      <c r="E195" s="153"/>
+      <c r="F195" s="153"/>
+      <c r="G195" s="153"/>
+      <c r="H195" s="153"/>
+      <c r="I195" s="153"/>
+      <c r="J195" s="153"/>
+      <c r="K195" s="153"/>
+      <c r="L195" s="153"/>
+      <c r="M195" s="153"/>
+      <c r="N195" s="153"/>
+      <c r="O195" s="153"/>
+      <c r="P195" s="153"/>
+      <c r="Q195" s="153"/>
+      <c r="R195" s="153"/>
+      <c r="S195" s="153"/>
+      <c r="T195" s="153"/>
+      <c r="U195" s="153"/>
     </row>
     <row r="196" spans="4:21">
-      <c r="D196" s="156"/>
-      <c r="E196" s="156"/>
-      <c r="F196" s="156"/>
-      <c r="G196" s="156"/>
-      <c r="H196" s="156"/>
-      <c r="I196" s="156"/>
-      <c r="J196" s="156"/>
-      <c r="K196" s="156"/>
-      <c r="L196" s="156"/>
-      <c r="M196" s="156"/>
-      <c r="N196" s="156"/>
-      <c r="O196" s="156"/>
-      <c r="P196" s="156"/>
-      <c r="Q196" s="156"/>
-      <c r="R196" s="156"/>
-      <c r="S196" s="156"/>
-      <c r="T196" s="156"/>
-      <c r="U196" s="156"/>
+      <c r="D196" s="153"/>
+      <c r="E196" s="153"/>
+      <c r="F196" s="153"/>
+      <c r="G196" s="153"/>
+      <c r="H196" s="153"/>
+      <c r="I196" s="153"/>
+      <c r="J196" s="153"/>
+      <c r="K196" s="153"/>
+      <c r="L196" s="153"/>
+      <c r="M196" s="153"/>
+      <c r="N196" s="153"/>
+      <c r="O196" s="153"/>
+      <c r="P196" s="153"/>
+      <c r="Q196" s="153"/>
+      <c r="R196" s="153"/>
+      <c r="S196" s="153"/>
+      <c r="T196" s="153"/>
+      <c r="U196" s="153"/>
     </row>
     <row r="197" spans="4:21">
-      <c r="D197" s="156"/>
-      <c r="E197" s="156"/>
-      <c r="F197" s="156"/>
-      <c r="G197" s="156"/>
-      <c r="H197" s="156"/>
-      <c r="I197" s="156"/>
-      <c r="J197" s="156"/>
-      <c r="K197" s="156"/>
-      <c r="L197" s="156"/>
-      <c r="M197" s="156"/>
-      <c r="N197" s="156"/>
-      <c r="O197" s="156"/>
-      <c r="P197" s="156"/>
-      <c r="Q197" s="156"/>
-      <c r="R197" s="156"/>
-      <c r="S197" s="156"/>
-      <c r="T197" s="156"/>
-      <c r="U197" s="156"/>
+      <c r="D197" s="153"/>
+      <c r="E197" s="153"/>
+      <c r="F197" s="153"/>
+      <c r="G197" s="153"/>
+      <c r="H197" s="153"/>
+      <c r="I197" s="153"/>
+      <c r="J197" s="153"/>
+      <c r="K197" s="153"/>
+      <c r="L197" s="153"/>
+      <c r="M197" s="153"/>
+      <c r="N197" s="153"/>
+      <c r="O197" s="153"/>
+      <c r="P197" s="153"/>
+      <c r="Q197" s="153"/>
+      <c r="R197" s="153"/>
+      <c r="S197" s="153"/>
+      <c r="T197" s="153"/>
+      <c r="U197" s="153"/>
     </row>
     <row r="198" spans="4:21">
-      <c r="D198" s="156"/>
-      <c r="E198" s="156"/>
-      <c r="F198" s="156"/>
-      <c r="G198" s="156"/>
-      <c r="H198" s="156"/>
-      <c r="I198" s="156"/>
-      <c r="J198" s="156"/>
-      <c r="K198" s="156"/>
-      <c r="L198" s="156"/>
-      <c r="M198" s="156"/>
-      <c r="N198" s="156"/>
-      <c r="O198" s="156"/>
-      <c r="P198" s="156"/>
-      <c r="Q198" s="156"/>
-      <c r="R198" s="156"/>
-      <c r="S198" s="156"/>
-      <c r="T198" s="156"/>
-      <c r="U198" s="156"/>
+      <c r="D198" s="153"/>
+      <c r="E198" s="153"/>
+      <c r="F198" s="153"/>
+      <c r="G198" s="153"/>
+      <c r="H198" s="153"/>
+      <c r="I198" s="153"/>
+      <c r="J198" s="153"/>
+      <c r="K198" s="153"/>
+      <c r="L198" s="153"/>
+      <c r="M198" s="153"/>
+      <c r="N198" s="153"/>
+      <c r="O198" s="153"/>
+      <c r="P198" s="153"/>
+      <c r="Q198" s="153"/>
+      <c r="R198" s="153"/>
+      <c r="S198" s="153"/>
+      <c r="T198" s="153"/>
+      <c r="U198" s="153"/>
     </row>
     <row r="199" spans="4:21">
-      <c r="D199" s="156"/>
-      <c r="E199" s="156"/>
-      <c r="F199" s="156"/>
-      <c r="G199" s="156"/>
-      <c r="H199" s="156"/>
-      <c r="I199" s="156"/>
-      <c r="J199" s="156"/>
-      <c r="K199" s="156"/>
-      <c r="L199" s="156"/>
-      <c r="M199" s="156"/>
-      <c r="N199" s="156"/>
-      <c r="O199" s="156"/>
-      <c r="P199" s="156"/>
-      <c r="Q199" s="156"/>
-      <c r="R199" s="156"/>
-      <c r="S199" s="156"/>
-      <c r="T199" s="156"/>
-      <c r="U199" s="156"/>
+      <c r="D199" s="153"/>
+      <c r="E199" s="153"/>
+      <c r="F199" s="153"/>
+      <c r="G199" s="153"/>
+      <c r="H199" s="153"/>
+      <c r="I199" s="153"/>
+      <c r="J199" s="153"/>
+      <c r="K199" s="153"/>
+      <c r="L199" s="153"/>
+      <c r="M199" s="153"/>
+      <c r="N199" s="153"/>
+      <c r="O199" s="153"/>
+      <c r="P199" s="153"/>
+      <c r="Q199" s="153"/>
+      <c r="R199" s="153"/>
+      <c r="S199" s="153"/>
+      <c r="T199" s="153"/>
+      <c r="U199" s="153"/>
     </row>
     <row r="200" spans="4:21">
-      <c r="D200" s="156"/>
-      <c r="E200" s="156"/>
-      <c r="F200" s="156"/>
-      <c r="G200" s="156"/>
-      <c r="H200" s="156"/>
-      <c r="I200" s="156"/>
-      <c r="J200" s="156"/>
-      <c r="K200" s="156"/>
-      <c r="L200" s="156"/>
-      <c r="M200" s="156"/>
-      <c r="N200" s="156"/>
-      <c r="O200" s="156"/>
-      <c r="P200" s="156"/>
-      <c r="Q200" s="156"/>
-      <c r="R200" s="156"/>
-      <c r="S200" s="156"/>
-      <c r="T200" s="156"/>
-      <c r="U200" s="156"/>
+      <c r="D200" s="153"/>
+      <c r="E200" s="153"/>
+      <c r="F200" s="153"/>
+      <c r="G200" s="153"/>
+      <c r="H200" s="153"/>
+      <c r="I200" s="153"/>
+      <c r="J200" s="153"/>
+      <c r="K200" s="153"/>
+      <c r="L200" s="153"/>
+      <c r="M200" s="153"/>
+      <c r="N200" s="153"/>
+      <c r="O200" s="153"/>
+      <c r="P200" s="153"/>
+      <c r="Q200" s="153"/>
+      <c r="R200" s="153"/>
+      <c r="S200" s="153"/>
+      <c r="T200" s="153"/>
+      <c r="U200" s="153"/>
     </row>
     <row r="201" spans="4:21">
-      <c r="D201" s="156"/>
-      <c r="E201" s="156"/>
-      <c r="F201" s="156"/>
-      <c r="G201" s="156"/>
-      <c r="H201" s="156"/>
-      <c r="I201" s="156"/>
-      <c r="J201" s="156"/>
-      <c r="K201" s="156"/>
-      <c r="L201" s="156"/>
-      <c r="M201" s="156"/>
-      <c r="N201" s="156"/>
-      <c r="O201" s="156"/>
-      <c r="P201" s="156"/>
-      <c r="Q201" s="156"/>
-      <c r="R201" s="156"/>
-      <c r="S201" s="156"/>
-      <c r="T201" s="156"/>
-      <c r="U201" s="156"/>
+      <c r="D201" s="153"/>
+      <c r="E201" s="153"/>
+      <c r="F201" s="153"/>
+      <c r="G201" s="153"/>
+      <c r="H201" s="153"/>
+      <c r="I201" s="153"/>
+      <c r="J201" s="153"/>
+      <c r="K201" s="153"/>
+      <c r="L201" s="153"/>
+      <c r="M201" s="153"/>
+      <c r="N201" s="153"/>
+      <c r="O201" s="153"/>
+      <c r="P201" s="153"/>
+      <c r="Q201" s="153"/>
+      <c r="R201" s="153"/>
+      <c r="S201" s="153"/>
+      <c r="T201" s="153"/>
+      <c r="U201" s="153"/>
     </row>
     <row r="202" spans="4:21">
-      <c r="D202" s="156"/>
-      <c r="E202" s="156"/>
-      <c r="F202" s="156"/>
-      <c r="G202" s="156"/>
-      <c r="H202" s="156"/>
-      <c r="I202" s="156"/>
-      <c r="J202" s="156"/>
-      <c r="K202" s="156"/>
-      <c r="L202" s="156"/>
-      <c r="M202" s="156"/>
-      <c r="N202" s="156"/>
-      <c r="O202" s="156"/>
-      <c r="P202" s="156"/>
-      <c r="Q202" s="156"/>
-      <c r="R202" s="156"/>
-      <c r="S202" s="156"/>
-      <c r="T202" s="156"/>
-      <c r="U202" s="156"/>
+      <c r="D202" s="153"/>
+      <c r="E202" s="153"/>
+      <c r="F202" s="153"/>
+      <c r="G202" s="153"/>
+      <c r="H202" s="153"/>
+      <c r="I202" s="153"/>
+      <c r="J202" s="153"/>
+      <c r="K202" s="153"/>
+      <c r="L202" s="153"/>
+      <c r="M202" s="153"/>
+      <c r="N202" s="153"/>
+      <c r="O202" s="153"/>
+      <c r="P202" s="153"/>
+      <c r="Q202" s="153"/>
+      <c r="R202" s="153"/>
+      <c r="S202" s="153"/>
+      <c r="T202" s="153"/>
+      <c r="U202" s="153"/>
     </row>
     <row r="203" spans="4:21">
-      <c r="D203" s="156"/>
-      <c r="E203" s="156"/>
-      <c r="F203" s="156"/>
-      <c r="G203" s="156"/>
-      <c r="H203" s="156"/>
-      <c r="I203" s="156"/>
-      <c r="J203" s="156"/>
-      <c r="K203" s="156"/>
-      <c r="L203" s="156"/>
-      <c r="M203" s="156"/>
-      <c r="N203" s="156"/>
-      <c r="O203" s="156"/>
-      <c r="P203" s="156"/>
-      <c r="Q203" s="156"/>
-      <c r="R203" s="156"/>
-      <c r="S203" s="156"/>
-      <c r="T203" s="156"/>
-      <c r="U203" s="156"/>
+      <c r="D203" s="153"/>
+      <c r="E203" s="153"/>
+      <c r="F203" s="153"/>
+      <c r="G203" s="153"/>
+      <c r="H203" s="153"/>
+      <c r="I203" s="153"/>
+      <c r="J203" s="153"/>
+      <c r="K203" s="153"/>
+      <c r="L203" s="153"/>
+      <c r="M203" s="153"/>
+      <c r="N203" s="153"/>
+      <c r="O203" s="153"/>
+      <c r="P203" s="153"/>
+      <c r="Q203" s="153"/>
+      <c r="R203" s="153"/>
+      <c r="S203" s="153"/>
+      <c r="T203" s="153"/>
+      <c r="U203" s="153"/>
     </row>
     <row r="204" spans="4:21">
-      <c r="D204" s="156"/>
-      <c r="E204" s="156"/>
-      <c r="F204" s="156"/>
-      <c r="G204" s="156"/>
-      <c r="H204" s="156"/>
-      <c r="I204" s="156"/>
-      <c r="J204" s="156"/>
-      <c r="K204" s="156"/>
-      <c r="L204" s="156"/>
-      <c r="M204" s="156"/>
-      <c r="N204" s="156"/>
-      <c r="O204" s="156"/>
-      <c r="P204" s="156"/>
-      <c r="Q204" s="156"/>
-      <c r="R204" s="156"/>
-      <c r="S204" s="156"/>
-      <c r="T204" s="156"/>
-      <c r="U204" s="156"/>
+      <c r="D204" s="153"/>
+      <c r="E204" s="153"/>
+      <c r="F204" s="153"/>
+      <c r="G204" s="153"/>
+      <c r="H204" s="153"/>
+      <c r="I204" s="153"/>
+      <c r="J204" s="153"/>
+      <c r="K204" s="153"/>
+      <c r="L204" s="153"/>
+      <c r="M204" s="153"/>
+      <c r="N204" s="153"/>
+      <c r="O204" s="153"/>
+      <c r="P204" s="153"/>
+      <c r="Q204" s="153"/>
+      <c r="R204" s="153"/>
+      <c r="S204" s="153"/>
+      <c r="T204" s="153"/>
+      <c r="U204" s="153"/>
     </row>
     <row r="205" spans="4:21">
-      <c r="D205" s="156"/>
-      <c r="E205" s="156"/>
-      <c r="F205" s="156"/>
-      <c r="G205" s="156"/>
-      <c r="H205" s="156"/>
-      <c r="I205" s="156"/>
-      <c r="J205" s="156"/>
-      <c r="K205" s="156"/>
-      <c r="L205" s="156"/>
-      <c r="M205" s="156"/>
-      <c r="N205" s="156"/>
-      <c r="O205" s="156"/>
-      <c r="P205" s="156"/>
-      <c r="Q205" s="156"/>
-      <c r="R205" s="156"/>
-      <c r="S205" s="156"/>
-      <c r="T205" s="156"/>
-      <c r="U205" s="156"/>
+      <c r="D205" s="153"/>
+      <c r="E205" s="153"/>
+      <c r="F205" s="153"/>
+      <c r="G205" s="153"/>
+      <c r="H205" s="153"/>
+      <c r="I205" s="153"/>
+      <c r="J205" s="153"/>
+      <c r="K205" s="153"/>
+      <c r="L205" s="153"/>
+      <c r="M205" s="153"/>
+      <c r="N205" s="153"/>
+      <c r="O205" s="153"/>
+      <c r="P205" s="153"/>
+      <c r="Q205" s="153"/>
+      <c r="R205" s="153"/>
+      <c r="S205" s="153"/>
+      <c r="T205" s="153"/>
+      <c r="U205" s="153"/>
     </row>
     <row r="206" spans="4:21">
-      <c r="D206" s="156"/>
-      <c r="E206" s="156"/>
-      <c r="F206" s="156"/>
-      <c r="G206" s="156"/>
-      <c r="H206" s="156"/>
-      <c r="I206" s="156"/>
-      <c r="J206" s="156"/>
-      <c r="K206" s="156"/>
-      <c r="L206" s="156"/>
-      <c r="M206" s="156"/>
-      <c r="N206" s="156"/>
-      <c r="O206" s="156"/>
-      <c r="P206" s="156"/>
-      <c r="Q206" s="156"/>
-      <c r="R206" s="156"/>
-      <c r="S206" s="156"/>
-      <c r="T206" s="156"/>
-      <c r="U206" s="156"/>
+      <c r="D206" s="153"/>
+      <c r="E206" s="153"/>
+      <c r="F206" s="153"/>
+      <c r="G206" s="153"/>
+      <c r="H206" s="153"/>
+      <c r="I206" s="153"/>
+      <c r="J206" s="153"/>
+      <c r="K206" s="153"/>
+      <c r="L206" s="153"/>
+      <c r="M206" s="153"/>
+      <c r="N206" s="153"/>
+      <c r="O206" s="153"/>
+      <c r="P206" s="153"/>
+      <c r="Q206" s="153"/>
+      <c r="R206" s="153"/>
+      <c r="S206" s="153"/>
+      <c r="T206" s="153"/>
+      <c r="U206" s="153"/>
     </row>
     <row r="207" spans="4:21">
-      <c r="D207" s="156"/>
-      <c r="E207" s="156"/>
-      <c r="F207" s="156"/>
-      <c r="G207" s="156"/>
-      <c r="H207" s="156"/>
-      <c r="I207" s="156"/>
-      <c r="J207" s="156"/>
-      <c r="K207" s="156"/>
-      <c r="L207" s="156"/>
-      <c r="M207" s="156"/>
-      <c r="N207" s="156"/>
-      <c r="O207" s="156"/>
-      <c r="P207" s="156"/>
-      <c r="Q207" s="156"/>
-      <c r="R207" s="156"/>
-      <c r="S207" s="156"/>
-      <c r="T207" s="156"/>
-      <c r="U207" s="156"/>
+      <c r="D207" s="153"/>
+      <c r="E207" s="153"/>
+      <c r="F207" s="153"/>
+      <c r="G207" s="153"/>
+      <c r="H207" s="153"/>
+      <c r="I207" s="153"/>
+      <c r="J207" s="153"/>
+      <c r="K207" s="153"/>
+      <c r="L207" s="153"/>
+      <c r="M207" s="153"/>
+      <c r="N207" s="153"/>
+      <c r="O207" s="153"/>
+      <c r="P207" s="153"/>
+      <c r="Q207" s="153"/>
+      <c r="R207" s="153"/>
+      <c r="S207" s="153"/>
+      <c r="T207" s="153"/>
+      <c r="U207" s="153"/>
     </row>
     <row r="208" spans="4:21">
-      <c r="D208" s="156"/>
-      <c r="E208" s="156"/>
-      <c r="F208" s="156"/>
-      <c r="G208" s="156"/>
-      <c r="H208" s="156"/>
-      <c r="I208" s="156"/>
-      <c r="J208" s="156"/>
-      <c r="K208" s="156"/>
-      <c r="L208" s="156"/>
-      <c r="M208" s="156"/>
-      <c r="N208" s="156"/>
-      <c r="O208" s="156"/>
-      <c r="P208" s="156"/>
-      <c r="Q208" s="156"/>
-      <c r="R208" s="156"/>
-      <c r="S208" s="156"/>
-      <c r="T208" s="156"/>
-      <c r="U208" s="156"/>
+      <c r="D208" s="153"/>
+      <c r="E208" s="153"/>
+      <c r="F208" s="153"/>
+      <c r="G208" s="153"/>
+      <c r="H208" s="153"/>
+      <c r="I208" s="153"/>
+      <c r="J208" s="153"/>
+      <c r="K208" s="153"/>
+      <c r="L208" s="153"/>
+      <c r="M208" s="153"/>
+      <c r="N208" s="153"/>
+      <c r="O208" s="153"/>
+      <c r="P208" s="153"/>
+      <c r="Q208" s="153"/>
+      <c r="R208" s="153"/>
+      <c r="S208" s="153"/>
+      <c r="T208" s="153"/>
+      <c r="U208" s="153"/>
     </row>
     <row r="209" spans="4:21">
-      <c r="D209" s="156"/>
-      <c r="E209" s="156"/>
-      <c r="F209" s="156"/>
-      <c r="G209" s="156"/>
-      <c r="H209" s="156"/>
-      <c r="I209" s="156"/>
-      <c r="J209" s="156"/>
-      <c r="K209" s="156"/>
-      <c r="L209" s="156"/>
-      <c r="M209" s="156"/>
-      <c r="N209" s="156"/>
-      <c r="O209" s="156"/>
-      <c r="P209" s="156"/>
-      <c r="Q209" s="156"/>
-      <c r="R209" s="156"/>
-      <c r="S209" s="156"/>
-      <c r="T209" s="156"/>
-      <c r="U209" s="156"/>
+      <c r="D209" s="153"/>
+      <c r="E209" s="153"/>
+      <c r="F209" s="153"/>
+      <c r="G209" s="153"/>
+      <c r="H209" s="153"/>
+      <c r="I209" s="153"/>
+      <c r="J209" s="153"/>
+      <c r="K209" s="153"/>
+      <c r="L209" s="153"/>
+      <c r="M209" s="153"/>
+      <c r="N209" s="153"/>
+      <c r="O209" s="153"/>
+      <c r="P209" s="153"/>
+      <c r="Q209" s="153"/>
+      <c r="R209" s="153"/>
+      <c r="S209" s="153"/>
+      <c r="T209" s="153"/>
+      <c r="U209" s="153"/>
     </row>
     <row r="210" spans="4:21">
-      <c r="D210" s="156"/>
-      <c r="E210" s="156"/>
-      <c r="F210" s="156"/>
-      <c r="G210" s="156"/>
-      <c r="H210" s="156"/>
-      <c r="I210" s="156"/>
-      <c r="J210" s="156"/>
-      <c r="K210" s="156"/>
-      <c r="L210" s="156"/>
-      <c r="M210" s="156"/>
-      <c r="N210" s="156"/>
-      <c r="O210" s="156"/>
-      <c r="P210" s="156"/>
-      <c r="Q210" s="156"/>
-      <c r="R210" s="156"/>
-      <c r="S210" s="156"/>
-      <c r="T210" s="156"/>
-      <c r="U210" s="156"/>
+      <c r="D210" s="153"/>
+      <c r="E210" s="153"/>
+      <c r="F210" s="153"/>
+      <c r="G210" s="153"/>
+      <c r="H210" s="153"/>
+      <c r="I210" s="153"/>
+      <c r="J210" s="153"/>
+      <c r="K210" s="153"/>
+      <c r="L210" s="153"/>
+      <c r="M210" s="153"/>
+      <c r="N210" s="153"/>
+      <c r="O210" s="153"/>
+      <c r="P210" s="153"/>
+      <c r="Q210" s="153"/>
+      <c r="R210" s="153"/>
+      <c r="S210" s="153"/>
+      <c r="T210" s="153"/>
+      <c r="U210" s="153"/>
     </row>
     <row r="211" spans="4:21">
-      <c r="D211" s="156"/>
-      <c r="E211" s="156"/>
-      <c r="F211" s="156"/>
-      <c r="G211" s="156"/>
-      <c r="H211" s="156"/>
-      <c r="I211" s="156"/>
-      <c r="J211" s="156"/>
-      <c r="K211" s="156"/>
-      <c r="L211" s="156"/>
-      <c r="M211" s="156"/>
-      <c r="N211" s="156"/>
-      <c r="O211" s="156"/>
-      <c r="P211" s="156"/>
-      <c r="Q211" s="156"/>
-      <c r="R211" s="156"/>
-      <c r="S211" s="156"/>
-      <c r="T211" s="156"/>
-      <c r="U211" s="156"/>
+      <c r="D211" s="153"/>
+      <c r="E211" s="153"/>
+      <c r="F211" s="153"/>
+      <c r="G211" s="153"/>
+      <c r="H211" s="153"/>
+      <c r="I211" s="153"/>
+      <c r="J211" s="153"/>
+      <c r="K211" s="153"/>
+      <c r="L211" s="153"/>
+      <c r="M211" s="153"/>
+      <c r="N211" s="153"/>
+      <c r="O211" s="153"/>
+      <c r="P211" s="153"/>
+      <c r="Q211" s="153"/>
+      <c r="R211" s="153"/>
+      <c r="S211" s="153"/>
+      <c r="T211" s="153"/>
+      <c r="U211" s="153"/>
     </row>
     <row r="212" spans="4:21">
-      <c r="D212" s="156"/>
-      <c r="E212" s="156"/>
-      <c r="F212" s="156"/>
-      <c r="G212" s="156"/>
-      <c r="H212" s="156"/>
-      <c r="I212" s="156"/>
-      <c r="J212" s="156"/>
-      <c r="K212" s="156"/>
-      <c r="L212" s="156"/>
-      <c r="M212" s="156"/>
-      <c r="N212" s="156"/>
-      <c r="O212" s="156"/>
-      <c r="P212" s="156"/>
-      <c r="Q212" s="156"/>
-      <c r="R212" s="156"/>
-      <c r="S212" s="156"/>
-      <c r="T212" s="156"/>
-      <c r="U212" s="156"/>
+      <c r="D212" s="153"/>
+      <c r="E212" s="153"/>
+      <c r="F212" s="153"/>
+      <c r="G212" s="153"/>
+      <c r="H212" s="153"/>
+      <c r="I212" s="153"/>
+      <c r="J212" s="153"/>
+      <c r="K212" s="153"/>
+      <c r="L212" s="153"/>
+      <c r="M212" s="153"/>
+      <c r="N212" s="153"/>
+      <c r="O212" s="153"/>
+      <c r="P212" s="153"/>
+      <c r="Q212" s="153"/>
+      <c r="R212" s="153"/>
+      <c r="S212" s="153"/>
+      <c r="T212" s="153"/>
+      <c r="U212" s="153"/>
     </row>
     <row r="213" spans="4:21">
-      <c r="D213" s="156"/>
-      <c r="E213" s="156"/>
-      <c r="F213" s="156"/>
-      <c r="G213" s="156"/>
-      <c r="H213" s="156"/>
-      <c r="I213" s="156"/>
-      <c r="J213" s="156"/>
-      <c r="K213" s="156"/>
-      <c r="L213" s="156"/>
-      <c r="M213" s="156"/>
-      <c r="N213" s="156"/>
-      <c r="O213" s="156"/>
-      <c r="P213" s="156"/>
-      <c r="Q213" s="156"/>
-      <c r="R213" s="156"/>
-      <c r="S213" s="156"/>
-      <c r="T213" s="156"/>
-      <c r="U213" s="156"/>
+      <c r="D213" s="153"/>
+      <c r="E213" s="153"/>
+      <c r="F213" s="153"/>
+      <c r="G213" s="153"/>
+      <c r="H213" s="153"/>
+      <c r="I213" s="153"/>
+      <c r="J213" s="153"/>
+      <c r="K213" s="153"/>
+      <c r="L213" s="153"/>
+      <c r="M213" s="153"/>
+      <c r="N213" s="153"/>
+      <c r="O213" s="153"/>
+      <c r="P213" s="153"/>
+      <c r="Q213" s="153"/>
+      <c r="R213" s="153"/>
+      <c r="S213" s="153"/>
+      <c r="T213" s="153"/>
+      <c r="U213" s="153"/>
     </row>
     <row r="214" spans="4:21">
-      <c r="D214" s="156"/>
-      <c r="E214" s="156"/>
-      <c r="F214" s="156"/>
-      <c r="G214" s="156"/>
-      <c r="H214" s="156"/>
-      <c r="I214" s="156"/>
-      <c r="J214" s="156"/>
-      <c r="K214" s="156"/>
-      <c r="L214" s="156"/>
-      <c r="M214" s="156"/>
-      <c r="N214" s="156"/>
-      <c r="O214" s="156"/>
-      <c r="P214" s="156"/>
-      <c r="Q214" s="156"/>
-      <c r="R214" s="156"/>
-      <c r="S214" s="156"/>
-      <c r="T214" s="156"/>
-      <c r="U214" s="156"/>
+      <c r="D214" s="153"/>
+      <c r="E214" s="153"/>
+      <c r="F214" s="153"/>
+      <c r="G214" s="153"/>
+      <c r="H214" s="153"/>
+      <c r="I214" s="153"/>
+      <c r="J214" s="153"/>
+      <c r="K214" s="153"/>
+      <c r="L214" s="153"/>
+      <c r="M214" s="153"/>
+      <c r="N214" s="153"/>
+      <c r="O214" s="153"/>
+      <c r="P214" s="153"/>
+      <c r="Q214" s="153"/>
+      <c r="R214" s="153"/>
+      <c r="S214" s="153"/>
+      <c r="T214" s="153"/>
+      <c r="U214" s="153"/>
     </row>
     <row r="215" spans="4:21">
-      <c r="D215" s="156"/>
-      <c r="E215" s="156"/>
-      <c r="F215" s="156"/>
-      <c r="G215" s="156"/>
-      <c r="H215" s="156"/>
-      <c r="I215" s="156"/>
-      <c r="J215" s="156"/>
-      <c r="K215" s="156"/>
-      <c r="L215" s="156"/>
-      <c r="M215" s="156"/>
-      <c r="N215" s="156"/>
-      <c r="O215" s="156"/>
-      <c r="P215" s="156"/>
-      <c r="Q215" s="156"/>
-      <c r="R215" s="156"/>
-      <c r="S215" s="156"/>
-      <c r="T215" s="156"/>
-      <c r="U215" s="156"/>
+      <c r="D215" s="153"/>
+      <c r="E215" s="153"/>
+      <c r="F215" s="153"/>
+      <c r="G215" s="153"/>
+      <c r="H215" s="153"/>
+      <c r="I215" s="153"/>
+      <c r="J215" s="153"/>
+      <c r="K215" s="153"/>
+      <c r="L215" s="153"/>
+      <c r="M215" s="153"/>
+      <c r="N215" s="153"/>
+      <c r="O215" s="153"/>
+      <c r="P215" s="153"/>
+      <c r="Q215" s="153"/>
+      <c r="R215" s="153"/>
+      <c r="S215" s="153"/>
+      <c r="T215" s="153"/>
+      <c r="U215" s="153"/>
     </row>
     <row r="216" spans="4:21">
-      <c r="D216" s="156"/>
-      <c r="E216" s="156"/>
-      <c r="F216" s="156"/>
-      <c r="G216" s="156"/>
-      <c r="H216" s="156"/>
-      <c r="I216" s="156"/>
-      <c r="J216" s="156"/>
-      <c r="K216" s="156"/>
-      <c r="L216" s="156"/>
-      <c r="M216" s="156"/>
-      <c r="N216" s="156"/>
-      <c r="O216" s="156"/>
-      <c r="P216" s="156"/>
-      <c r="Q216" s="156"/>
-      <c r="R216" s="156"/>
-      <c r="S216" s="156"/>
-      <c r="T216" s="156"/>
-      <c r="U216" s="156"/>
+      <c r="D216" s="153"/>
+      <c r="E216" s="153"/>
+      <c r="F216" s="153"/>
+      <c r="G216" s="153"/>
+      <c r="H216" s="153"/>
+      <c r="I216" s="153"/>
+      <c r="J216" s="153"/>
+      <c r="K216" s="153"/>
+      <c r="L216" s="153"/>
+      <c r="M216" s="153"/>
+      <c r="N216" s="153"/>
+      <c r="O216" s="153"/>
+      <c r="P216" s="153"/>
+      <c r="Q216" s="153"/>
+      <c r="R216" s="153"/>
+      <c r="S216" s="153"/>
+      <c r="T216" s="153"/>
+      <c r="U216" s="153"/>
     </row>
     <row r="217" spans="4:21">
-      <c r="D217" s="156"/>
-      <c r="E217" s="156"/>
-      <c r="F217" s="156"/>
-      <c r="G217" s="156"/>
-      <c r="H217" s="156"/>
-      <c r="I217" s="156"/>
-      <c r="J217" s="156"/>
-      <c r="K217" s="156"/>
-      <c r="L217" s="156"/>
-      <c r="M217" s="156"/>
-      <c r="N217" s="156"/>
-      <c r="O217" s="156"/>
-      <c r="P217" s="156"/>
-      <c r="Q217" s="156"/>
-      <c r="R217" s="156"/>
-      <c r="S217" s="156"/>
-      <c r="T217" s="156"/>
-      <c r="U217" s="156"/>
+      <c r="D217" s="153"/>
+      <c r="E217" s="153"/>
+      <c r="F217" s="153"/>
+      <c r="G217" s="153"/>
+      <c r="H217" s="153"/>
+      <c r="I217" s="153"/>
+      <c r="J217" s="153"/>
+      <c r="K217" s="153"/>
+      <c r="L217" s="153"/>
+      <c r="M217" s="153"/>
+      <c r="N217" s="153"/>
+      <c r="O217" s="153"/>
+      <c r="P217" s="153"/>
+      <c r="Q217" s="153"/>
+      <c r="R217" s="153"/>
+      <c r="S217" s="153"/>
+      <c r="T217" s="153"/>
+      <c r="U217" s="153"/>
     </row>
     <row r="218" spans="4:21">
-      <c r="D218" s="156"/>
-      <c r="E218" s="156"/>
-      <c r="F218" s="156"/>
-      <c r="G218" s="156"/>
-      <c r="H218" s="156"/>
-      <c r="I218" s="156"/>
-      <c r="J218" s="156"/>
-      <c r="K218" s="156"/>
-      <c r="L218" s="156"/>
-      <c r="M218" s="156"/>
-      <c r="N218" s="156"/>
-      <c r="O218" s="156"/>
-      <c r="P218" s="156"/>
-      <c r="Q218" s="156"/>
-      <c r="R218" s="156"/>
-      <c r="S218" s="156"/>
-      <c r="T218" s="156"/>
-      <c r="U218" s="156"/>
+      <c r="D218" s="153"/>
+      <c r="E218" s="153"/>
+      <c r="F218" s="153"/>
+      <c r="G218" s="153"/>
+      <c r="H218" s="153"/>
+      <c r="I218" s="153"/>
+      <c r="J218" s="153"/>
+      <c r="K218" s="153"/>
+      <c r="L218" s="153"/>
+      <c r="M218" s="153"/>
+      <c r="N218" s="153"/>
+      <c r="O218" s="153"/>
+      <c r="P218" s="153"/>
+      <c r="Q218" s="153"/>
+      <c r="R218" s="153"/>
+      <c r="S218" s="153"/>
+      <c r="T218" s="153"/>
+      <c r="U218" s="153"/>
     </row>
     <row r="219" spans="4:21">
-      <c r="D219" s="156"/>
-      <c r="E219" s="156"/>
-      <c r="F219" s="156"/>
-      <c r="G219" s="156"/>
-      <c r="H219" s="156"/>
-      <c r="I219" s="156"/>
-      <c r="J219" s="156"/>
-      <c r="K219" s="156"/>
-      <c r="L219" s="156"/>
-      <c r="M219" s="156"/>
-      <c r="N219" s="156"/>
-      <c r="O219" s="156"/>
-      <c r="P219" s="156"/>
-      <c r="Q219" s="156"/>
-      <c r="R219" s="156"/>
-      <c r="S219" s="156"/>
-      <c r="T219" s="156"/>
-      <c r="U219" s="156"/>
+      <c r="D219" s="153"/>
+      <c r="E219" s="153"/>
+      <c r="F219" s="153"/>
+      <c r="G219" s="153"/>
+      <c r="H219" s="153"/>
+      <c r="I219" s="153"/>
+      <c r="J219" s="153"/>
+      <c r="K219" s="153"/>
+      <c r="L219" s="153"/>
+      <c r="M219" s="153"/>
+      <c r="N219" s="153"/>
+      <c r="O219" s="153"/>
+      <c r="P219" s="153"/>
+      <c r="Q219" s="153"/>
+      <c r="R219" s="153"/>
+      <c r="S219" s="153"/>
+      <c r="T219" s="153"/>
+      <c r="U219" s="153"/>
     </row>
     <row r="220" spans="4:21">
-      <c r="D220" s="156"/>
-      <c r="E220" s="156"/>
-      <c r="F220" s="156"/>
-      <c r="G220" s="156"/>
-      <c r="H220" s="156"/>
-      <c r="I220" s="156"/>
-      <c r="J220" s="156"/>
-      <c r="K220" s="156"/>
-      <c r="L220" s="156"/>
-      <c r="M220" s="156"/>
-      <c r="N220" s="156"/>
-      <c r="O220" s="156"/>
-      <c r="P220" s="156"/>
-      <c r="Q220" s="156"/>
-      <c r="R220" s="156"/>
-      <c r="S220" s="156"/>
-      <c r="T220" s="156"/>
-      <c r="U220" s="156"/>
+      <c r="D220" s="153"/>
+      <c r="E220" s="153"/>
+      <c r="F220" s="153"/>
+      <c r="G220" s="153"/>
+      <c r="H220" s="153"/>
+      <c r="I220" s="153"/>
+      <c r="J220" s="153"/>
+      <c r="K220" s="153"/>
+      <c r="L220" s="153"/>
+      <c r="M220" s="153"/>
+      <c r="N220" s="153"/>
+      <c r="O220" s="153"/>
+      <c r="P220" s="153"/>
+      <c r="Q220" s="153"/>
+      <c r="R220" s="153"/>
+      <c r="S220" s="153"/>
+      <c r="T220" s="153"/>
+      <c r="U220" s="153"/>
     </row>
     <row r="221" spans="4:21">
-      <c r="D221" s="156"/>
-      <c r="E221" s="156"/>
-      <c r="F221" s="156"/>
-      <c r="G221" s="156"/>
-      <c r="H221" s="156"/>
-      <c r="I221" s="156"/>
-      <c r="J221" s="156"/>
-      <c r="K221" s="156"/>
-      <c r="L221" s="156"/>
-      <c r="M221" s="156"/>
-      <c r="N221" s="156"/>
-      <c r="O221" s="156"/>
-      <c r="P221" s="156"/>
-      <c r="Q221" s="156"/>
-      <c r="R221" s="156"/>
-      <c r="S221" s="156"/>
-      <c r="T221" s="156"/>
-      <c r="U221" s="156"/>
+      <c r="D221" s="153"/>
+      <c r="E221" s="153"/>
+      <c r="F221" s="153"/>
+      <c r="G221" s="153"/>
+      <c r="H221" s="153"/>
+      <c r="I221" s="153"/>
+      <c r="J221" s="153"/>
+      <c r="K221" s="153"/>
+      <c r="L221" s="153"/>
+      <c r="M221" s="153"/>
+      <c r="N221" s="153"/>
+      <c r="O221" s="153"/>
+      <c r="P221" s="153"/>
+      <c r="Q221" s="153"/>
+      <c r="R221" s="153"/>
+      <c r="S221" s="153"/>
+      <c r="T221" s="153"/>
+      <c r="U221" s="153"/>
     </row>
     <row r="222" spans="4:21">
-      <c r="D222" s="156"/>
-      <c r="E222" s="156"/>
-      <c r="F222" s="156"/>
-      <c r="G222" s="156"/>
-      <c r="H222" s="156"/>
-      <c r="I222" s="156"/>
-      <c r="J222" s="156"/>
-      <c r="K222" s="156"/>
-      <c r="L222" s="156"/>
-      <c r="M222" s="156"/>
-      <c r="N222" s="156"/>
-      <c r="O222" s="156"/>
-      <c r="P222" s="156"/>
-      <c r="Q222" s="156"/>
-      <c r="R222" s="156"/>
-      <c r="S222" s="156"/>
-      <c r="T222" s="156"/>
-      <c r="U222" s="156"/>
+      <c r="D222" s="153"/>
+      <c r="E222" s="153"/>
+      <c r="F222" s="153"/>
+      <c r="G222" s="153"/>
+      <c r="H222" s="153"/>
+      <c r="I222" s="153"/>
+      <c r="J222" s="153"/>
+      <c r="K222" s="153"/>
+      <c r="L222" s="153"/>
+      <c r="M222" s="153"/>
+      <c r="N222" s="153"/>
+      <c r="O222" s="153"/>
+      <c r="P222" s="153"/>
+      <c r="Q222" s="153"/>
+      <c r="R222" s="153"/>
+      <c r="S222" s="153"/>
+      <c r="T222" s="153"/>
+      <c r="U222" s="153"/>
     </row>
     <row r="223" spans="4:21">
-      <c r="D223" s="156"/>
-      <c r="E223" s="156"/>
-      <c r="F223" s="156"/>
-      <c r="G223" s="156"/>
-      <c r="H223" s="156"/>
-      <c r="I223" s="156"/>
-      <c r="J223" s="156"/>
-      <c r="K223" s="156"/>
-      <c r="L223" s="156"/>
-      <c r="M223" s="156"/>
-      <c r="N223" s="156"/>
-      <c r="O223" s="156"/>
-      <c r="P223" s="156"/>
-      <c r="Q223" s="156"/>
-      <c r="R223" s="156"/>
-      <c r="S223" s="156"/>
-      <c r="T223" s="156"/>
-      <c r="U223" s="156"/>
+      <c r="D223" s="153"/>
+      <c r="E223" s="153"/>
+      <c r="F223" s="153"/>
+      <c r="G223" s="153"/>
+      <c r="H223" s="153"/>
+      <c r="I223" s="153"/>
+      <c r="J223" s="153"/>
+      <c r="K223" s="153"/>
+      <c r="L223" s="153"/>
+      <c r="M223" s="153"/>
+      <c r="N223" s="153"/>
+      <c r="O223" s="153"/>
+      <c r="P223" s="153"/>
+      <c r="Q223" s="153"/>
+      <c r="R223" s="153"/>
+      <c r="S223" s="153"/>
+      <c r="T223" s="153"/>
+      <c r="U223" s="153"/>
     </row>
     <row r="224" spans="4:21">
-      <c r="D224" s="156"/>
-      <c r="E224" s="156"/>
-      <c r="F224" s="156"/>
-      <c r="G224" s="156"/>
-      <c r="H224" s="156"/>
-      <c r="I224" s="156"/>
-      <c r="J224" s="156"/>
-      <c r="K224" s="156"/>
-      <c r="L224" s="156"/>
-      <c r="M224" s="156"/>
-      <c r="N224" s="156"/>
-      <c r="O224" s="156"/>
-      <c r="P224" s="156"/>
-      <c r="Q224" s="156"/>
-      <c r="R224" s="156"/>
-      <c r="S224" s="156"/>
-      <c r="T224" s="156"/>
-      <c r="U224" s="156"/>
+      <c r="D224" s="153"/>
+      <c r="E224" s="153"/>
+      <c r="F224" s="153"/>
+      <c r="G224" s="153"/>
+      <c r="H224" s="153"/>
+      <c r="I224" s="153"/>
+      <c r="J224" s="153"/>
+      <c r="K224" s="153"/>
+      <c r="L224" s="153"/>
+      <c r="M224" s="153"/>
+      <c r="N224" s="153"/>
+      <c r="O224" s="153"/>
+      <c r="P224" s="153"/>
+      <c r="Q224" s="153"/>
+      <c r="R224" s="153"/>
+      <c r="S224" s="153"/>
+      <c r="T224" s="153"/>
+      <c r="U224" s="153"/>
     </row>
     <row r="225" spans="4:21">
-      <c r="D225" s="156"/>
-      <c r="E225" s="156"/>
-      <c r="F225" s="156"/>
-      <c r="G225" s="156"/>
-      <c r="H225" s="156"/>
-      <c r="I225" s="156"/>
-      <c r="J225" s="156"/>
-      <c r="K225" s="156"/>
-      <c r="L225" s="156"/>
-      <c r="M225" s="156"/>
-      <c r="N225" s="156"/>
-      <c r="O225" s="156"/>
-      <c r="P225" s="156"/>
-      <c r="Q225" s="156"/>
-      <c r="R225" s="156"/>
-      <c r="S225" s="156"/>
-      <c r="T225" s="156"/>
-      <c r="U225" s="156"/>
+      <c r="D225" s="153"/>
+      <c r="E225" s="153"/>
+      <c r="F225" s="153"/>
+      <c r="G225" s="153"/>
+      <c r="H225" s="153"/>
+      <c r="I225" s="153"/>
+      <c r="J225" s="153"/>
+      <c r="K225" s="153"/>
+      <c r="L225" s="153"/>
+      <c r="M225" s="153"/>
+      <c r="N225" s="153"/>
+      <c r="O225" s="153"/>
+      <c r="P225" s="153"/>
+      <c r="Q225" s="153"/>
+      <c r="R225" s="153"/>
+      <c r="S225" s="153"/>
+      <c r="T225" s="153"/>
+      <c r="U225" s="153"/>
     </row>
     <row r="226" spans="4:21">
-      <c r="D226" s="156"/>
-      <c r="E226" s="156"/>
-      <c r="F226" s="156"/>
-      <c r="G226" s="156"/>
-      <c r="H226" s="156"/>
-      <c r="I226" s="156"/>
-      <c r="J226" s="156"/>
-      <c r="K226" s="156"/>
-      <c r="L226" s="156"/>
-      <c r="M226" s="156"/>
-      <c r="N226" s="156"/>
-      <c r="O226" s="156"/>
-      <c r="P226" s="156"/>
-      <c r="Q226" s="156"/>
-      <c r="R226" s="156"/>
-      <c r="S226" s="156"/>
-      <c r="T226" s="156"/>
-      <c r="U226" s="156"/>
+      <c r="D226" s="153"/>
+      <c r="E226" s="153"/>
+      <c r="F226" s="153"/>
+      <c r="G226" s="153"/>
+      <c r="H226" s="153"/>
+      <c r="I226" s="153"/>
+      <c r="J226" s="153"/>
+      <c r="K226" s="153"/>
+      <c r="L226" s="153"/>
+      <c r="M226" s="153"/>
+      <c r="N226" s="153"/>
+      <c r="O226" s="153"/>
+      <c r="P226" s="153"/>
+      <c r="Q226" s="153"/>
+      <c r="R226" s="153"/>
+      <c r="S226" s="153"/>
+      <c r="T226" s="153"/>
+      <c r="U226" s="153"/>
     </row>
     <row r="227" spans="4:21">
-      <c r="D227" s="156"/>
-      <c r="E227" s="156"/>
-      <c r="F227" s="156"/>
-      <c r="G227" s="156"/>
-      <c r="H227" s="156"/>
-      <c r="I227" s="156"/>
-      <c r="J227" s="156"/>
-      <c r="K227" s="156"/>
-      <c r="L227" s="156"/>
-      <c r="M227" s="156"/>
-      <c r="N227" s="156"/>
-      <c r="O227" s="156"/>
-      <c r="P227" s="156"/>
-      <c r="Q227" s="156"/>
-      <c r="R227" s="156"/>
-      <c r="S227" s="156"/>
-      <c r="T227" s="156"/>
-      <c r="U227" s="156"/>
+      <c r="D227" s="153"/>
+      <c r="E227" s="153"/>
+      <c r="F227" s="153"/>
+      <c r="G227" s="153"/>
+      <c r="H227" s="153"/>
+      <c r="I227" s="153"/>
+      <c r="J227" s="153"/>
+      <c r="K227" s="153"/>
+      <c r="L227" s="153"/>
+      <c r="M227" s="153"/>
+      <c r="N227" s="153"/>
+      <c r="O227" s="153"/>
+      <c r="P227" s="153"/>
+      <c r="Q227" s="153"/>
+      <c r="R227" s="153"/>
+      <c r="S227" s="153"/>
+      <c r="T227" s="153"/>
+      <c r="U227" s="153"/>
     </row>
     <row r="228" spans="4:21">
-      <c r="D228" s="156"/>
-      <c r="E228" s="156"/>
-      <c r="F228" s="156"/>
-      <c r="G228" s="156"/>
-      <c r="H228" s="156"/>
-      <c r="I228" s="156"/>
-      <c r="J228" s="156"/>
-      <c r="K228" s="156"/>
-      <c r="L228" s="156"/>
-      <c r="M228" s="156"/>
-      <c r="N228" s="156"/>
-      <c r="O228" s="156"/>
-      <c r="P228" s="156"/>
-      <c r="Q228" s="156"/>
-      <c r="R228" s="156"/>
-      <c r="S228" s="156"/>
-      <c r="T228" s="156"/>
-      <c r="U228" s="156"/>
+      <c r="D228" s="153"/>
+      <c r="E228" s="153"/>
+      <c r="F228" s="153"/>
+      <c r="G228" s="153"/>
+      <c r="H228" s="153"/>
+      <c r="I228" s="153"/>
+      <c r="J228" s="153"/>
+      <c r="K228" s="153"/>
+      <c r="L228" s="153"/>
+      <c r="M228" s="153"/>
+      <c r="N228" s="153"/>
+      <c r="O228" s="153"/>
+      <c r="P228" s="153"/>
+      <c r="Q228" s="153"/>
+      <c r="R228" s="153"/>
+      <c r="S228" s="153"/>
+      <c r="T228" s="153"/>
+      <c r="U228" s="153"/>
     </row>
     <row r="229" spans="4:21">
-      <c r="D229" s="156"/>
-      <c r="E229" s="156"/>
-      <c r="F229" s="156"/>
-      <c r="G229" s="156"/>
-      <c r="H229" s="156"/>
-      <c r="I229" s="156"/>
-      <c r="J229" s="156"/>
-      <c r="K229" s="156"/>
-      <c r="L229" s="156"/>
-      <c r="M229" s="156"/>
-      <c r="N229" s="156"/>
-      <c r="O229" s="156"/>
-      <c r="P229" s="156"/>
-      <c r="Q229" s="156"/>
-      <c r="R229" s="156"/>
-      <c r="S229" s="156"/>
-      <c r="T229" s="156"/>
-      <c r="U229" s="156"/>
+      <c r="D229" s="153"/>
+      <c r="E229" s="153"/>
+      <c r="F229" s="153"/>
+      <c r="G229" s="153"/>
+      <c r="H229" s="153"/>
+      <c r="I229" s="153"/>
+      <c r="J229" s="153"/>
+      <c r="K229" s="153"/>
+      <c r="L229" s="153"/>
+      <c r="M229" s="153"/>
+      <c r="N229" s="153"/>
+      <c r="O229" s="153"/>
+      <c r="P229" s="153"/>
+      <c r="Q229" s="153"/>
+      <c r="R229" s="153"/>
+      <c r="S229" s="153"/>
+      <c r="T229" s="153"/>
+      <c r="U229" s="153"/>
     </row>
     <row r="230" spans="4:21">
-      <c r="D230" s="156"/>
-      <c r="E230" s="156"/>
-      <c r="F230" s="156"/>
-      <c r="G230" s="156"/>
-      <c r="H230" s="156"/>
-      <c r="I230" s="156"/>
-      <c r="J230" s="156"/>
-      <c r="K230" s="156"/>
-      <c r="L230" s="156"/>
-      <c r="M230" s="156"/>
-      <c r="N230" s="156"/>
-      <c r="O230" s="156"/>
-      <c r="P230" s="156"/>
-      <c r="Q230" s="156"/>
-      <c r="R230" s="156"/>
-      <c r="S230" s="156"/>
-      <c r="T230" s="156"/>
-      <c r="U230" s="156"/>
+      <c r="D230" s="153"/>
+      <c r="E230" s="153"/>
+      <c r="F230" s="153"/>
+      <c r="G230" s="153"/>
+      <c r="H230" s="153"/>
+      <c r="I230" s="153"/>
+      <c r="J230" s="153"/>
+      <c r="K230" s="153"/>
+      <c r="L230" s="153"/>
+      <c r="M230" s="153"/>
+      <c r="N230" s="153"/>
+      <c r="O230" s="153"/>
+      <c r="P230" s="153"/>
+      <c r="Q230" s="153"/>
+      <c r="R230" s="153"/>
+      <c r="S230" s="153"/>
+      <c r="T230" s="153"/>
+      <c r="U230" s="153"/>
     </row>
     <row r="231" spans="4:21">
-      <c r="D231" s="156"/>
-      <c r="E231" s="156"/>
-      <c r="F231" s="156"/>
-      <c r="G231" s="156"/>
-      <c r="H231" s="156"/>
-      <c r="I231" s="156"/>
-      <c r="J231" s="156"/>
-      <c r="K231" s="156"/>
-      <c r="L231" s="156"/>
-      <c r="M231" s="156"/>
-      <c r="N231" s="156"/>
-      <c r="O231" s="156"/>
-      <c r="P231" s="156"/>
-      <c r="Q231" s="156"/>
-      <c r="R231" s="156"/>
-      <c r="S231" s="156"/>
-      <c r="T231" s="156"/>
-      <c r="U231" s="156"/>
+      <c r="D231" s="153"/>
+      <c r="E231" s="153"/>
+      <c r="F231" s="153"/>
+      <c r="G231" s="153"/>
+      <c r="H231" s="153"/>
+      <c r="I231" s="153"/>
+      <c r="J231" s="153"/>
+      <c r="K231" s="153"/>
+      <c r="L231" s="153"/>
+      <c r="M231" s="153"/>
+      <c r="N231" s="153"/>
+      <c r="O231" s="153"/>
+      <c r="P231" s="153"/>
+      <c r="Q231" s="153"/>
+      <c r="R231" s="153"/>
+      <c r="S231" s="153"/>
+      <c r="T231" s="153"/>
+      <c r="U231" s="153"/>
     </row>
     <row r="232" spans="4:21">
-      <c r="D232" s="156"/>
-      <c r="E232" s="156"/>
-      <c r="F232" s="156"/>
-      <c r="G232" s="156"/>
-      <c r="H232" s="156"/>
-      <c r="I232" s="156"/>
-      <c r="J232" s="156"/>
-      <c r="K232" s="156"/>
-      <c r="L232" s="156"/>
-      <c r="M232" s="156"/>
-      <c r="N232" s="156"/>
-      <c r="O232" s="156"/>
-      <c r="P232" s="156"/>
-      <c r="Q232" s="156"/>
-      <c r="R232" s="156"/>
-      <c r="S232" s="156"/>
-      <c r="T232" s="156"/>
-      <c r="U232" s="156"/>
+      <c r="D232" s="153"/>
+      <c r="E232" s="153"/>
+      <c r="F232" s="153"/>
+      <c r="G232" s="153"/>
+      <c r="H232" s="153"/>
+      <c r="I232" s="153"/>
+      <c r="J232" s="153"/>
+      <c r="K232" s="153"/>
+      <c r="L232" s="153"/>
+      <c r="M232" s="153"/>
+      <c r="N232" s="153"/>
+      <c r="O232" s="153"/>
+      <c r="P232" s="153"/>
+      <c r="Q232" s="153"/>
+      <c r="R232" s="153"/>
+      <c r="S232" s="153"/>
+      <c r="T232" s="153"/>
+      <c r="U232" s="153"/>
     </row>
     <row r="233" spans="4:21">
-      <c r="D233" s="156"/>
-      <c r="E233" s="156"/>
-      <c r="F233" s="156"/>
-      <c r="G233" s="156"/>
-      <c r="H233" s="156"/>
-      <c r="I233" s="156"/>
-      <c r="J233" s="156"/>
-      <c r="K233" s="156"/>
-      <c r="L233" s="156"/>
-      <c r="M233" s="156"/>
-      <c r="N233" s="156"/>
-      <c r="O233" s="156"/>
-      <c r="P233" s="156"/>
-      <c r="Q233" s="156"/>
-      <c r="R233" s="156"/>
-      <c r="S233" s="156"/>
-      <c r="T233" s="156"/>
-      <c r="U233" s="156"/>
+      <c r="D233" s="153"/>
+      <c r="E233" s="153"/>
+      <c r="F233" s="153"/>
+      <c r="G233" s="153"/>
+      <c r="H233" s="153"/>
+      <c r="I233" s="153"/>
+      <c r="J233" s="153"/>
+      <c r="K233" s="153"/>
+      <c r="L233" s="153"/>
+      <c r="M233" s="153"/>
+      <c r="N233" s="153"/>
+      <c r="O233" s="153"/>
+      <c r="P233" s="153"/>
+      <c r="Q233" s="153"/>
+      <c r="R233" s="153"/>
+      <c r="S233" s="153"/>
+      <c r="T233" s="153"/>
+      <c r="U233" s="153"/>
     </row>
     <row r="234" spans="4:21">
-      <c r="D234" s="156"/>
-      <c r="E234" s="156"/>
-      <c r="F234" s="156"/>
-      <c r="G234" s="156"/>
-      <c r="H234" s="156"/>
-      <c r="I234" s="156"/>
-      <c r="J234" s="156"/>
-      <c r="K234" s="156"/>
-      <c r="L234" s="156"/>
-      <c r="M234" s="156"/>
-      <c r="N234" s="156"/>
-      <c r="O234" s="156"/>
-      <c r="P234" s="156"/>
-      <c r="Q234" s="156"/>
-      <c r="R234" s="156"/>
-      <c r="S234" s="156"/>
-      <c r="T234" s="156"/>
-      <c r="U234" s="156"/>
+      <c r="D234" s="153"/>
+      <c r="E234" s="153"/>
+      <c r="F234" s="153"/>
+      <c r="G234" s="153"/>
+      <c r="H234" s="153"/>
+      <c r="I234" s="153"/>
+      <c r="J234" s="153"/>
+      <c r="K234" s="153"/>
+      <c r="L234" s="153"/>
+      <c r="M234" s="153"/>
+      <c r="N234" s="153"/>
+      <c r="O234" s="153"/>
+      <c r="P234" s="153"/>
+      <c r="Q234" s="153"/>
+      <c r="R234" s="153"/>
+      <c r="S234" s="153"/>
+      <c r="T234" s="153"/>
+      <c r="U234" s="153"/>
     </row>
     <row r="235" spans="4:21">
-      <c r="D235" s="156"/>
-      <c r="E235" s="156"/>
-      <c r="F235" s="156"/>
-      <c r="G235" s="156"/>
-      <c r="H235" s="156"/>
-      <c r="I235" s="156"/>
-      <c r="J235" s="156"/>
-      <c r="K235" s="156"/>
-      <c r="L235" s="156"/>
-      <c r="M235" s="156"/>
-      <c r="N235" s="156"/>
-      <c r="O235" s="156"/>
-      <c r="P235" s="156"/>
-      <c r="Q235" s="156"/>
-      <c r="R235" s="156"/>
-      <c r="S235" s="156"/>
-      <c r="T235" s="156"/>
-      <c r="U235" s="156"/>
+      <c r="D235" s="153"/>
+      <c r="E235" s="153"/>
+      <c r="F235" s="153"/>
+      <c r="G235" s="153"/>
+      <c r="H235" s="153"/>
+      <c r="I235" s="153"/>
+      <c r="J235" s="153"/>
+      <c r="K235" s="153"/>
+      <c r="L235" s="153"/>
+      <c r="M235" s="153"/>
+      <c r="N235" s="153"/>
+      <c r="O235" s="153"/>
+      <c r="P235" s="153"/>
+      <c r="Q235" s="153"/>
+      <c r="R235" s="153"/>
+      <c r="S235" s="153"/>
+      <c r="T235" s="153"/>
+      <c r="U235" s="153"/>
     </row>
     <row r="236" spans="4:21">
-      <c r="D236" s="156"/>
-      <c r="E236" s="156"/>
-      <c r="F236" s="156"/>
-      <c r="G236" s="156"/>
-      <c r="H236" s="156"/>
-      <c r="I236" s="156"/>
-      <c r="J236" s="156"/>
-      <c r="K236" s="156"/>
-      <c r="L236" s="156"/>
-      <c r="M236" s="156"/>
-      <c r="N236" s="156"/>
-      <c r="O236" s="156"/>
-      <c r="P236" s="156"/>
-      <c r="Q236" s="156"/>
-      <c r="R236" s="156"/>
-      <c r="S236" s="156"/>
-      <c r="T236" s="156"/>
-      <c r="U236" s="156"/>
+      <c r="D236" s="153"/>
+      <c r="E236" s="153"/>
+      <c r="F236" s="153"/>
+      <c r="G236" s="153"/>
+      <c r="H236" s="153"/>
+      <c r="I236" s="153"/>
+      <c r="J236" s="153"/>
+      <c r="K236" s="153"/>
+      <c r="L236" s="153"/>
+      <c r="M236" s="153"/>
+      <c r="N236" s="153"/>
+      <c r="O236" s="153"/>
+      <c r="P236" s="153"/>
+      <c r="Q236" s="153"/>
+      <c r="R236" s="153"/>
+      <c r="S236" s="153"/>
+      <c r="T236" s="153"/>
+      <c r="U236" s="153"/>
     </row>
     <row r="237" spans="4:21">
-      <c r="D237" s="156"/>
-      <c r="E237" s="156"/>
-      <c r="F237" s="156"/>
-      <c r="G237" s="156"/>
-      <c r="H237" s="156"/>
-      <c r="I237" s="156"/>
-      <c r="J237" s="156"/>
-      <c r="K237" s="156"/>
-      <c r="L237" s="156"/>
-      <c r="M237" s="156"/>
-      <c r="N237" s="156"/>
-      <c r="O237" s="156"/>
-      <c r="P237" s="156"/>
-      <c r="Q237" s="156"/>
-      <c r="R237" s="156"/>
-      <c r="S237" s="156"/>
-      <c r="T237" s="156"/>
-      <c r="U237" s="156"/>
+      <c r="D237" s="153"/>
+      <c r="E237" s="153"/>
+      <c r="F237" s="153"/>
+      <c r="G237" s="153"/>
+      <c r="H237" s="153"/>
+      <c r="I237" s="153"/>
+      <c r="J237" s="153"/>
+      <c r="K237" s="153"/>
+      <c r="L237" s="153"/>
+      <c r="M237" s="153"/>
+      <c r="N237" s="153"/>
+      <c r="O237" s="153"/>
+      <c r="P237" s="153"/>
+      <c r="Q237" s="153"/>
+      <c r="R237" s="153"/>
+      <c r="S237" s="153"/>
+      <c r="T237" s="153"/>
+      <c r="U237" s="153"/>
     </row>
     <row r="238" spans="4:21">
-      <c r="D238" s="156"/>
-      <c r="E238" s="156"/>
-      <c r="F238" s="156"/>
-      <c r="G238" s="156"/>
-      <c r="H238" s="156"/>
-      <c r="I238" s="156"/>
-      <c r="J238" s="156"/>
-      <c r="K238" s="156"/>
-      <c r="L238" s="156"/>
-      <c r="M238" s="156"/>
-      <c r="N238" s="156"/>
-      <c r="O238" s="156"/>
-      <c r="P238" s="156"/>
-      <c r="Q238" s="156"/>
-      <c r="R238" s="156"/>
-      <c r="S238" s="156"/>
-      <c r="T238" s="156"/>
-      <c r="U238" s="156"/>
+      <c r="D238" s="153"/>
+      <c r="E238" s="153"/>
+      <c r="F238" s="153"/>
+      <c r="G238" s="153"/>
+      <c r="H238" s="153"/>
+      <c r="I238" s="153"/>
+      <c r="J238" s="153"/>
+      <c r="K238" s="153"/>
+      <c r="L238" s="153"/>
+      <c r="M238" s="153"/>
+      <c r="N238" s="153"/>
+      <c r="O238" s="153"/>
+      <c r="P238" s="153"/>
+      <c r="Q238" s="153"/>
+      <c r="R238" s="153"/>
+      <c r="S238" s="153"/>
+      <c r="T238" s="153"/>
+      <c r="U238" s="153"/>
     </row>
     <row r="239" spans="4:21">
-      <c r="D239" s="156"/>
-      <c r="E239" s="156"/>
-      <c r="F239" s="156"/>
-      <c r="G239" s="156"/>
-      <c r="H239" s="156"/>
-      <c r="I239" s="156"/>
-      <c r="J239" s="156"/>
-      <c r="K239" s="156"/>
-      <c r="L239" s="156"/>
-      <c r="M239" s="156"/>
-      <c r="N239" s="156"/>
-      <c r="O239" s="156"/>
-      <c r="P239" s="156"/>
-      <c r="Q239" s="156"/>
-      <c r="R239" s="156"/>
-      <c r="S239" s="156"/>
-      <c r="T239" s="156"/>
-      <c r="U239" s="156"/>
+      <c r="D239" s="153"/>
+      <c r="E239" s="153"/>
+      <c r="F239" s="153"/>
+      <c r="G239" s="153"/>
+      <c r="H239" s="153"/>
+      <c r="I239" s="153"/>
+      <c r="J239" s="153"/>
+      <c r="K239" s="153"/>
+      <c r="L239" s="153"/>
+      <c r="M239" s="153"/>
+      <c r="N239" s="153"/>
+      <c r="O239" s="153"/>
+      <c r="P239" s="153"/>
+      <c r="Q239" s="153"/>
+      <c r="R239" s="153"/>
+      <c r="S239" s="153"/>
+      <c r="T239" s="153"/>
+      <c r="U239" s="153"/>
     </row>
     <row r="240" spans="4:21">
-      <c r="D240" s="156"/>
-      <c r="E240" s="156"/>
-      <c r="F240" s="156"/>
-      <c r="G240" s="156"/>
-      <c r="H240" s="156"/>
-      <c r="I240" s="156"/>
-      <c r="J240" s="156"/>
-      <c r="K240" s="156"/>
-      <c r="L240" s="156"/>
-      <c r="M240" s="156"/>
-      <c r="N240" s="156"/>
-      <c r="O240" s="156"/>
-      <c r="P240" s="156"/>
-      <c r="Q240" s="156"/>
-      <c r="R240" s="156"/>
-      <c r="S240" s="156"/>
-      <c r="T240" s="156"/>
-      <c r="U240" s="156"/>
+      <c r="D240" s="153"/>
+      <c r="E240" s="153"/>
+      <c r="F240" s="153"/>
+      <c r="G240" s="153"/>
+      <c r="H240" s="153"/>
+      <c r="I240" s="153"/>
+      <c r="J240" s="153"/>
+      <c r="K240" s="153"/>
+      <c r="L240" s="153"/>
+      <c r="M240" s="153"/>
+      <c r="N240" s="153"/>
+      <c r="O240" s="153"/>
+      <c r="P240" s="153"/>
+      <c r="Q240" s="153"/>
+      <c r="R240" s="153"/>
+      <c r="S240" s="153"/>
+      <c r="T240" s="153"/>
+      <c r="U240" s="153"/>
     </row>
     <row r="241" spans="4:21">
-      <c r="D241" s="156"/>
-      <c r="E241" s="156"/>
-      <c r="F241" s="156"/>
-      <c r="G241" s="156"/>
-      <c r="H241" s="156"/>
-      <c r="I241" s="156"/>
-      <c r="J241" s="156"/>
-      <c r="K241" s="156"/>
-      <c r="L241" s="156"/>
-      <c r="M241" s="156"/>
-      <c r="N241" s="156"/>
-      <c r="O241" s="156"/>
-      <c r="P241" s="156"/>
-      <c r="Q241" s="156"/>
-      <c r="R241" s="156"/>
-      <c r="S241" s="156"/>
-      <c r="T241" s="156"/>
-      <c r="U241" s="156"/>
+      <c r="D241" s="153"/>
+      <c r="E241" s="153"/>
+      <c r="F241" s="153"/>
+      <c r="G241" s="153"/>
+      <c r="H241" s="153"/>
+      <c r="I241" s="153"/>
+      <c r="J241" s="153"/>
+      <c r="K241" s="153"/>
+      <c r="L241" s="153"/>
+      <c r="M241" s="153"/>
+      <c r="N241" s="153"/>
+      <c r="O241" s="153"/>
+      <c r="P241" s="153"/>
+      <c r="Q241" s="153"/>
+      <c r="R241" s="153"/>
+      <c r="S241" s="153"/>
+      <c r="T241" s="153"/>
+      <c r="U241" s="153"/>
     </row>
     <row r="242" spans="4:21">
-      <c r="D242" s="156"/>
-      <c r="E242" s="156"/>
-      <c r="F242" s="156"/>
-      <c r="G242" s="156"/>
-      <c r="H242" s="156"/>
-      <c r="I242" s="156"/>
-      <c r="J242" s="156"/>
-      <c r="K242" s="156"/>
-      <c r="L242" s="156"/>
-      <c r="M242" s="156"/>
-      <c r="N242" s="156"/>
-      <c r="O242" s="156"/>
-      <c r="P242" s="156"/>
-      <c r="Q242" s="156"/>
-      <c r="R242" s="156"/>
-      <c r="S242" s="156"/>
-      <c r="T242" s="156"/>
-      <c r="U242" s="156"/>
+      <c r="D242" s="153"/>
+      <c r="E242" s="153"/>
+      <c r="F242" s="153"/>
+      <c r="G242" s="153"/>
+      <c r="H242" s="153"/>
+      <c r="I242" s="153"/>
+      <c r="J242" s="153"/>
+      <c r="K242" s="153"/>
+      <c r="L242" s="153"/>
+      <c r="M242" s="153"/>
+      <c r="N242" s="153"/>
+      <c r="O242" s="153"/>
+      <c r="P242" s="153"/>
+      <c r="Q242" s="153"/>
+      <c r="R242" s="153"/>
+      <c r="S242" s="153"/>
+      <c r="T242" s="153"/>
+      <c r="U242" s="153"/>
     </row>
     <row r="243" spans="4:21">
-      <c r="D243" s="156"/>
-      <c r="E243" s="156"/>
-      <c r="F243" s="156"/>
-      <c r="G243" s="156"/>
-      <c r="H243" s="156"/>
-      <c r="I243" s="156"/>
-      <c r="J243" s="156"/>
-      <c r="K243" s="156"/>
-      <c r="L243" s="156"/>
-      <c r="M243" s="156"/>
-      <c r="N243" s="156"/>
-      <c r="O243" s="156"/>
-      <c r="P243" s="156"/>
-      <c r="Q243" s="156"/>
-      <c r="R243" s="156"/>
-      <c r="S243" s="156"/>
-      <c r="T243" s="156"/>
-      <c r="U243" s="156"/>
+      <c r="D243" s="153"/>
+      <c r="E243" s="153"/>
+      <c r="F243" s="153"/>
+      <c r="G243" s="153"/>
+      <c r="H243" s="153"/>
+      <c r="I243" s="153"/>
+      <c r="J243" s="153"/>
+      <c r="K243" s="153"/>
+      <c r="L243" s="153"/>
+      <c r="M243" s="153"/>
+      <c r="N243" s="153"/>
+      <c r="O243" s="153"/>
+      <c r="P243" s="153"/>
+      <c r="Q243" s="153"/>
+      <c r="R243" s="153"/>
+      <c r="S243" s="153"/>
+      <c r="T243" s="153"/>
+      <c r="U243" s="153"/>
     </row>
     <row r="244" spans="4:21">
-      <c r="D244" s="156"/>
-      <c r="E244" s="156"/>
-      <c r="F244" s="156"/>
-      <c r="G244" s="156"/>
-      <c r="H244" s="156"/>
-      <c r="I244" s="156"/>
-      <c r="J244" s="156"/>
-      <c r="K244" s="156"/>
-      <c r="L244" s="156"/>
-      <c r="M244" s="156"/>
-      <c r="N244" s="156"/>
-      <c r="O244" s="156"/>
-      <c r="P244" s="156"/>
-      <c r="Q244" s="156"/>
-      <c r="R244" s="156"/>
-      <c r="S244" s="156"/>
-      <c r="T244" s="156"/>
-      <c r="U244" s="156"/>
+      <c r="D244" s="153"/>
+      <c r="E244" s="153"/>
+      <c r="F244" s="153"/>
+      <c r="G244" s="153"/>
+      <c r="H244" s="153"/>
+      <c r="I244" s="153"/>
+      <c r="J244" s="153"/>
+      <c r="K244" s="153"/>
+      <c r="L244" s="153"/>
+      <c r="M244" s="153"/>
+      <c r="N244" s="153"/>
+      <c r="O244" s="153"/>
+      <c r="P244" s="153"/>
+      <c r="Q244" s="153"/>
+      <c r="R244" s="153"/>
+      <c r="S244" s="153"/>
+      <c r="T244" s="153"/>
+      <c r="U244" s="153"/>
     </row>
     <row r="245" spans="4:21">
-      <c r="D245" s="156"/>
-      <c r="E245" s="156"/>
-      <c r="F245" s="156"/>
-      <c r="G245" s="156"/>
-      <c r="H245" s="156"/>
-      <c r="I245" s="156"/>
-      <c r="J245" s="156"/>
-      <c r="K245" s="156"/>
-      <c r="L245" s="156"/>
-      <c r="M245" s="156"/>
-      <c r="N245" s="156"/>
-      <c r="O245" s="156"/>
-      <c r="P245" s="156"/>
-      <c r="Q245" s="156"/>
-      <c r="R245" s="156"/>
-      <c r="S245" s="156"/>
-      <c r="T245" s="156"/>
-      <c r="U245" s="156"/>
+      <c r="D245" s="153"/>
+      <c r="E245" s="153"/>
+      <c r="F245" s="153"/>
+      <c r="G245" s="153"/>
+      <c r="H245" s="153"/>
+      <c r="I245" s="153"/>
+      <c r="J245" s="153"/>
+      <c r="K245" s="153"/>
+      <c r="L245" s="153"/>
+      <c r="M245" s="153"/>
+      <c r="N245" s="153"/>
+      <c r="O245" s="153"/>
+      <c r="P245" s="153"/>
+      <c r="Q245" s="153"/>
+      <c r="R245" s="153"/>
+      <c r="S245" s="153"/>
+      <c r="T245" s="153"/>
+      <c r="U245" s="153"/>
     </row>
     <row r="246" spans="4:21">
-      <c r="D246" s="156"/>
-      <c r="E246" s="156"/>
-      <c r="F246" s="156"/>
-      <c r="G246" s="156"/>
-      <c r="H246" s="156"/>
-      <c r="I246" s="156"/>
-      <c r="J246" s="156"/>
-      <c r="K246" s="156"/>
-      <c r="L246" s="156"/>
-      <c r="M246" s="156"/>
-      <c r="N246" s="156"/>
-      <c r="O246" s="156"/>
-      <c r="P246" s="156"/>
-      <c r="Q246" s="156"/>
-      <c r="R246" s="156"/>
-      <c r="S246" s="156"/>
-      <c r="T246" s="156"/>
-      <c r="U246" s="156"/>
+      <c r="D246" s="153"/>
+      <c r="E246" s="153"/>
+      <c r="F246" s="153"/>
+      <c r="G246" s="153"/>
+      <c r="H246" s="153"/>
+      <c r="I246" s="153"/>
+      <c r="J246" s="153"/>
+      <c r="K246" s="153"/>
+      <c r="L246" s="153"/>
+      <c r="M246" s="153"/>
+      <c r="N246" s="153"/>
+      <c r="O246" s="153"/>
+      <c r="P246" s="153"/>
+      <c r="Q246" s="153"/>
+      <c r="R246" s="153"/>
+      <c r="S246" s="153"/>
+      <c r="T246" s="153"/>
+      <c r="U246" s="153"/>
     </row>
     <row r="247" spans="4:21">
-      <c r="D247" s="156"/>
-      <c r="E247" s="156"/>
-      <c r="F247" s="156"/>
-      <c r="G247" s="156"/>
-      <c r="H247" s="156"/>
-      <c r="I247" s="156"/>
-      <c r="J247" s="156"/>
-      <c r="K247" s="156"/>
-      <c r="L247" s="156"/>
-      <c r="M247" s="156"/>
-      <c r="N247" s="156"/>
-      <c r="O247" s="156"/>
-      <c r="P247" s="156"/>
-      <c r="Q247" s="156"/>
-      <c r="R247" s="156"/>
-      <c r="S247" s="156"/>
-      <c r="T247" s="156"/>
-      <c r="U247" s="156"/>
+      <c r="D247" s="153"/>
+      <c r="E247" s="153"/>
+      <c r="F247" s="153"/>
+      <c r="G247" s="153"/>
+      <c r="H247" s="153"/>
+      <c r="I247" s="153"/>
+      <c r="J247" s="153"/>
+      <c r="K247" s="153"/>
+      <c r="L247" s="153"/>
+      <c r="M247" s="153"/>
+      <c r="N247" s="153"/>
+      <c r="O247" s="153"/>
+      <c r="P247" s="153"/>
+      <c r="Q247" s="153"/>
+      <c r="R247" s="153"/>
+      <c r="S247" s="153"/>
+      <c r="T247" s="153"/>
+      <c r="U247" s="153"/>
     </row>
     <row r="248" spans="4:21">
-      <c r="D248" s="156"/>
-      <c r="E248" s="156"/>
-      <c r="F248" s="156"/>
-      <c r="G248" s="156"/>
-      <c r="H248" s="156"/>
-      <c r="I248" s="156"/>
-      <c r="J248" s="156"/>
-      <c r="K248" s="156"/>
-      <c r="L248" s="156"/>
-      <c r="M248" s="156"/>
-      <c r="N248" s="156"/>
-      <c r="O248" s="156"/>
-      <c r="P248" s="156"/>
-      <c r="Q248" s="156"/>
-      <c r="R248" s="156"/>
-      <c r="S248" s="156"/>
-      <c r="T248" s="156"/>
-      <c r="U248" s="156"/>
+      <c r="D248" s="153"/>
+      <c r="E248" s="153"/>
+      <c r="F248" s="153"/>
+      <c r="G248" s="153"/>
+      <c r="H248" s="153"/>
+      <c r="I248" s="153"/>
+      <c r="J248" s="153"/>
+      <c r="K248" s="153"/>
+      <c r="L248" s="153"/>
+      <c r="M248" s="153"/>
+      <c r="N248" s="153"/>
+      <c r="O248" s="153"/>
+      <c r="P248" s="153"/>
+      <c r="Q248" s="153"/>
+      <c r="R248" s="153"/>
+      <c r="S248" s="153"/>
+      <c r="T248" s="153"/>
+      <c r="U248" s="153"/>
     </row>
     <row r="249" spans="4:21">
-      <c r="D249" s="156"/>
-      <c r="E249" s="156"/>
-      <c r="F249" s="156"/>
-      <c r="G249" s="156"/>
-      <c r="H249" s="156"/>
-      <c r="I249" s="156"/>
-      <c r="J249" s="156"/>
-      <c r="K249" s="156"/>
-      <c r="L249" s="156"/>
-      <c r="M249" s="156"/>
-      <c r="N249" s="156"/>
-      <c r="O249" s="156"/>
-      <c r="P249" s="156"/>
-      <c r="Q249" s="156"/>
-      <c r="R249" s="156"/>
-      <c r="S249" s="156"/>
-      <c r="T249" s="156"/>
-      <c r="U249" s="156"/>
+      <c r="D249" s="153"/>
+      <c r="E249" s="153"/>
+      <c r="F249" s="153"/>
+      <c r="G249" s="153"/>
+      <c r="H249" s="153"/>
+      <c r="I249" s="153"/>
+      <c r="J249" s="153"/>
+      <c r="K249" s="153"/>
+      <c r="L249" s="153"/>
+      <c r="M249" s="153"/>
+      <c r="N249" s="153"/>
+      <c r="O249" s="153"/>
+      <c r="P249" s="153"/>
+      <c r="Q249" s="153"/>
+      <c r="R249" s="153"/>
+      <c r="S249" s="153"/>
+      <c r="T249" s="153"/>
+      <c r="U249" s="153"/>
     </row>
     <row r="250" spans="4:21">
-      <c r="D250" s="156"/>
-      <c r="E250" s="156"/>
-      <c r="F250" s="156"/>
-      <c r="G250" s="156"/>
-      <c r="H250" s="156"/>
-      <c r="I250" s="156"/>
-      <c r="J250" s="156"/>
-      <c r="K250" s="156"/>
-      <c r="L250" s="156"/>
-      <c r="M250" s="156"/>
-      <c r="N250" s="156"/>
-      <c r="O250" s="156"/>
-      <c r="P250" s="156"/>
-      <c r="Q250" s="156"/>
-      <c r="R250" s="156"/>
-      <c r="S250" s="156"/>
-      <c r="T250" s="156"/>
-      <c r="U250" s="156"/>
+      <c r="D250" s="153"/>
+      <c r="E250" s="153"/>
+      <c r="F250" s="153"/>
+      <c r="G250" s="153"/>
+      <c r="H250" s="153"/>
+      <c r="I250" s="153"/>
+      <c r="J250" s="153"/>
+      <c r="K250" s="153"/>
+      <c r="L250" s="153"/>
+      <c r="M250" s="153"/>
+      <c r="N250" s="153"/>
+      <c r="O250" s="153"/>
+      <c r="P250" s="153"/>
+      <c r="Q250" s="153"/>
+      <c r="R250" s="153"/>
+      <c r="S250" s="153"/>
+      <c r="T250" s="153"/>
+      <c r="U250" s="153"/>
     </row>
     <row r="251" spans="4:21">
-      <c r="D251" s="156"/>
-      <c r="E251" s="156"/>
-      <c r="F251" s="156"/>
-      <c r="G251" s="156"/>
-      <c r="H251" s="156"/>
-      <c r="I251" s="156"/>
-      <c r="J251" s="156"/>
-      <c r="K251" s="156"/>
-      <c r="L251" s="156"/>
-      <c r="M251" s="156"/>
-      <c r="N251" s="156"/>
-      <c r="O251" s="156"/>
-      <c r="P251" s="156"/>
-      <c r="Q251" s="156"/>
-      <c r="R251" s="156"/>
-      <c r="S251" s="156"/>
-      <c r="T251" s="156"/>
-      <c r="U251" s="156"/>
+      <c r="D251" s="153"/>
+      <c r="E251" s="153"/>
+      <c r="F251" s="153"/>
+      <c r="G251" s="153"/>
+      <c r="H251" s="153"/>
+      <c r="I251" s="153"/>
+      <c r="J251" s="153"/>
+      <c r="K251" s="153"/>
+      <c r="L251" s="153"/>
+      <c r="M251" s="153"/>
+      <c r="N251" s="153"/>
+      <c r="O251" s="153"/>
+      <c r="P251" s="153"/>
+      <c r="Q251" s="153"/>
+      <c r="R251" s="153"/>
+      <c r="S251" s="153"/>
+      <c r="T251" s="153"/>
+      <c r="U251" s="153"/>
     </row>
     <row r="254" spans="4:21">
       <c r="D254" s="48" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="256" spans="4:21">
       <c r="D256" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="257" spans="4:4">
       <c r="D257" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="258" spans="4:4">
       <c r="D258" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="259" spans="4:4">
       <c r="D259" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="4:4">
       <c r="D260" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="261" spans="4:4">
       <c r="D261" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="4:4">
       <c r="D262" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="4:4">
       <c r="D263" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="4:4">
       <c r="D264" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D168:U251"/>
-    <mergeCell ref="D167:U167"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:B31"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="B19:B23"/>
@@ -9953,6 +10038,11 @@
     <mergeCell ref="D100:U164"/>
     <mergeCell ref="D99:U99"/>
     <mergeCell ref="D35:T35"/>
+    <mergeCell ref="D168:U251"/>
+    <mergeCell ref="D167:U167"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9989,7 +10079,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="D1" s="54" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
@@ -9997,46 +10087,46 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="D3" s="56" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="F5" s="158" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G5" s="158"/>
       <c r="H5" s="159"/>
       <c r="I5" s="99" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="57" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I6" s="100"/>
       <c r="J6" s="101"/>
@@ -10046,25 +10136,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C7" s="63">
         <v>1</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H7" s="98" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
@@ -10074,25 +10164,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C8" s="75">
         <v>1</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
@@ -10104,19 +10194,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="I9" s="101"/>
       <c r="J9" s="101"/>
@@ -10128,19 +10218,19 @@
         <v>3</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
@@ -10152,13 +10242,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G11" s="68"/>
       <c r="H11" s="69"/>
@@ -10172,10 +10262,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
@@ -10190,10 +10280,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
@@ -10208,10 +10298,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
@@ -10226,10 +10316,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="68"/>
@@ -10244,10 +10334,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
@@ -10262,10 +10352,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
@@ -10280,10 +10370,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10298,10 +10388,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
@@ -10316,10 +10406,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
@@ -10334,10 +10424,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
@@ -10350,25 +10440,25 @@
         <v>3</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C22" s="72">
         <v>1</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="I22" s="101"/>
       <c r="J22" s="101"/>
@@ -10380,25 +10470,25 @@
         <v>2</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="I23" s="101" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="J23" s="101" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10408,25 +10498,25 @@
         <v>3</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I24" s="101" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10436,25 +10526,25 @@
         <v>4</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="J25" s="101" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10464,25 +10554,25 @@
         <v>5</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="J26" s="101" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10492,25 +10582,25 @@
         <v>6</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="J27" s="101" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10520,25 +10610,25 @@
         <v>7</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10548,25 +10638,25 @@
         <v>8</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H29" s="85" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="I29" s="102" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="J29" s="102" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10576,25 +10666,25 @@
         <v>9</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="I30" s="101" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="J30" s="102" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10604,25 +10694,25 @@
         <v>10</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J31" s="102" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10632,25 +10722,25 @@
         <v>11</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="I32" s="101" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="J32" s="101" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10658,25 +10748,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C33" s="75">
         <v>1</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -10688,19 +10778,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
@@ -10712,19 +10802,19 @@
         <v>3</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="I35" s="101"/>
       <c r="J35" s="101"/>
@@ -10736,19 +10826,19 @@
         <v>4</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G36" s="68" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
@@ -10760,19 +10850,19 @@
         <v>5</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -10784,10 +10874,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68"/>
@@ -10802,10 +10892,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
@@ -10820,10 +10910,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F40" s="68"/>
       <c r="G40" s="68"/>
@@ -10838,10 +10928,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
@@ -10856,10 +10946,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F42" s="68"/>
       <c r="G42" s="68"/>
@@ -10874,10 +10964,10 @@
         <v>10</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
@@ -10892,10 +10982,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F44" s="68"/>
       <c r="G44" s="68"/>
@@ -10910,10 +11000,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
@@ -10928,10 +11018,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
@@ -10941,17 +11031,17 @@
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="90" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="90" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="90" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -11241,7 +11331,7 @@
     </row>
     <row r="173" spans="4:6">
       <c r="D173" s="90" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="176" spans="4:6">
@@ -11476,76 +11566,76 @@
     </row>
     <row r="228" spans="4:7">
       <c r="D228" s="89" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E228" s="89" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" spans="4:7">
       <c r="D229" s="53" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E229" s="53" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="230" spans="4:7">
       <c r="D230" s="53" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="231" spans="4:7">
       <c r="D231" s="53" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="232" spans="4:7">
       <c r="D232" s="53" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="233" spans="4:7">
       <c r="D233" s="85" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="234" spans="4:7">
       <c r="D234" s="53" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="237" spans="4:7">
       <c r="F237" s="88" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="239" spans="4:7">
       <c r="D239" s="86" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E239" s="87" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F239" s="87" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="G239" s="87" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="241" spans="4:7">
       <c r="D241" s="53" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E241" s="53" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F241" s="53" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="G241" s="53" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -11588,22 +11678,22 @@
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>39</v>
@@ -11614,156 +11704,156 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D6" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E6" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F6" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="F7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D8" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E8" s="109"/>
       <c r="F8" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D9" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E9" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F9" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D10" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E10" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F10" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
       <c r="C11" s="96" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D12" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="E12" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F12" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D13" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F14" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D15" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E15" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F15" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D16" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E16" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F16" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75">
@@ -11771,7 +11861,7 @@
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
@@ -11797,7 +11887,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
       <c r="D21" s="56" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
@@ -11825,41 +11915,41 @@
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="158" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G23" s="158"/>
       <c r="H23" s="159"/>
       <c r="I23" s="99" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="J23" s="99" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="57" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E24" s="108" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I24" s="100"/>
       <c r="J24" s="101"/>
@@ -11869,28 +11959,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C25" s="104">
         <v>1</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H25" s="98" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="J25" s="101"/>
     </row>
@@ -11899,31 +11989,31 @@
         <v>2</v>
       </c>
       <c r="B26" s="160" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C26" s="78">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H26" s="98" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="J26" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -11933,25 +12023,25 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F27" s="106" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="J27" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -11961,25 +12051,25 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F28" s="106" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="J28" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -11989,25 +12079,25 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F29" s="106" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J29" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -12017,25 +12107,25 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F30" s="106" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="J30" s="101" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30.75">
@@ -12045,25 +12135,25 @@
         <v>6</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="F31" s="106" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="J31" s="96" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -12073,25 +12163,25 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F32" s="106" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G32" s="66" t="s">
+        <v>462</v>
+      </c>
+      <c r="H32" s="69" t="s">
+        <v>463</v>
+      </c>
+      <c r="I32" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="H32" s="69" t="s">
-        <v>456</v>
-      </c>
-      <c r="I32" s="38" t="s">
-        <v>448</v>
-      </c>
       <c r="J32" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -12101,25 +12191,25 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F33" s="106" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="J33" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -12129,19 +12219,19 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F34" s="106"/>
       <c r="G34" s="68"/>
       <c r="H34" s="69"/>
       <c r="I34" s="38" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="J34" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -12151,19 +12241,19 @@
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F35" s="106"/>
       <c r="G35" s="68"/>
       <c r="H35" s="69"/>
       <c r="I35" s="38" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="J35" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -12173,19 +12263,19 @@
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F36" s="106"/>
       <c r="G36" s="68"/>
       <c r="H36" s="69"/>
       <c r="I36" s="38" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="J36" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -12193,25 +12283,25 @@
         <v>3</v>
       </c>
       <c r="B37" s="165" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C37" s="72">
         <v>1</v>
       </c>
       <c r="D37" s="73" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -12223,25 +12313,25 @@
         <v>2</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H38" s="69" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="I38" s="101" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="J38" s="101" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -12251,25 +12341,25 @@
         <v>3</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I39" s="101" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J39" s="101" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -12279,25 +12369,25 @@
         <v>4</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="I40" s="101" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="J40" s="101" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -12307,25 +12397,25 @@
         <v>5</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="I41" s="101" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="J41" s="101" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -12335,25 +12425,25 @@
         <v>6</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="I42" s="101" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12363,25 +12453,25 @@
         <v>7</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="I43" s="101" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="J43" s="102" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -12391,25 +12481,25 @@
         <v>8</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H44" s="85" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="I44" s="102" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="J44" s="102" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -12419,25 +12509,25 @@
         <v>9</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H45" s="69" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="I45" s="101" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="J45" s="102" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -12447,25 +12537,25 @@
         <v>10</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G46" s="68" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="I46" s="101" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J46" s="102" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -12475,25 +12565,25 @@
         <v>11</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="I47" s="101" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="J47" s="101" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -12501,25 +12591,25 @@
         <v>4</v>
       </c>
       <c r="B48" s="163" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C48" s="75">
         <v>1</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I48" s="101"/>
       <c r="J48" s="101"/>
@@ -12531,19 +12621,19 @@
         <v>2</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="I49" s="101"/>
       <c r="J49" s="101"/>
@@ -12555,19 +12645,19 @@
         <v>3</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E50" s="82" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="I50" s="101"/>
       <c r="J50" s="101"/>
@@ -12579,19 +12669,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E51" s="84" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="I51" s="101"/>
       <c r="J51" s="101"/>
@@ -12603,19 +12693,19 @@
         <v>5</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F52" s="68" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="I52" s="101"/>
       <c r="J52" s="101"/>
@@ -12627,10 +12717,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F53" s="68"/>
       <c r="G53" s="68"/>
@@ -12645,10 +12735,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E54" s="71" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
@@ -12663,10 +12753,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F55" s="68"/>
       <c r="G55" s="68"/>
@@ -12681,10 +12771,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
@@ -12699,10 +12789,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F57" s="68"/>
       <c r="G57" s="68"/>
@@ -12717,10 +12807,10 @@
         <v>10</v>
       </c>
       <c r="D58" s="70" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F58" s="68"/>
       <c r="G58" s="68"/>
@@ -12735,10 +12825,10 @@
         <v>11</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
@@ -12753,10 +12843,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E60" s="71" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F60" s="68"/>
       <c r="G60" s="68"/>
@@ -12771,10 +12861,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F61" s="68"/>
       <c r="G61" s="68"/>
@@ -12823,7 +12913,7 @@
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="54" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
@@ -12849,7 +12939,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="56" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -12882,28 +12972,28 @@
     </row>
     <row r="10" spans="2:11" ht="15.75">
       <c r="B10" s="118" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E10" s="129" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75">
@@ -12911,22 +13001,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H11" s="105" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="I11" s="122"/>
     </row>
@@ -12935,22 +13025,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="160" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D12" s="132">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="H12" s="120" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="I12" s="123"/>
     </row>
@@ -12961,19 +13051,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="H13" s="120" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -12983,19 +13073,19 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H14" s="120" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -13005,19 +13095,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="H15" s="120" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -13027,19 +13117,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -13049,19 +13139,19 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="G17" s="101" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="H17" s="127" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="I17" s="103" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -13071,19 +13161,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H18" s="120" t="s">
         <v>478</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H18" s="120" t="s">
-        <v>471</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -13093,17 +13183,17 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G19" s="124"/>
       <c r="H19" s="127" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -13113,17 +13203,17 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="127" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -13133,17 +13223,17 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="G21" s="101"/>
       <c r="H21" s="127" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -13151,25 +13241,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="160" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D22" s="132">
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="H22" s="127" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -13179,13 +13269,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H23" s="128"/>
       <c r="I23" s="122"/>
@@ -13197,13 +13287,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="H24" s="128"/>
       <c r="I24" s="122"/>
@@ -13215,19 +13305,19 @@
         <v>3</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H25" s="120" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -13237,19 +13327,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="H26" s="120" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -13259,19 +13349,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G27" s="102" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H27" s="120" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -13281,19 +13371,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="H28" s="120" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -13303,19 +13393,19 @@
         <v>7</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F29" s="70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G29" s="102" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H29" s="120" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="I29" s="101" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -13325,19 +13415,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="F30" s="70" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="H30" s="120" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="I30" s="102" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -13347,19 +13437,19 @@
         <v>9</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F31" s="70" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I31" s="102" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -13369,19 +13459,19 @@
         <v>10</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F32" s="70" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="H32" s="120" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="I32" s="102" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -13391,19 +13481,19 @@
         <v>11</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G33" s="102" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H33" s="120" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="I33" s="102" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -13411,25 +13501,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="160" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D34" s="132">
         <v>1</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="H34" s="120" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="I34" s="101" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -13440,13 +13530,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="H35" s="120"/>
       <c r="I35" s="101"/>
@@ -13458,13 +13548,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G36" s="102" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H36" s="120"/>
       <c r="I36" s="101"/>
@@ -13477,13 +13567,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="81" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="F37" s="81" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="G37" s="102" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H37" s="120"/>
       <c r="I37" s="101"/>
@@ -13496,13 +13586,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="G38" s="102" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="H38" s="120"/>
       <c r="I38" s="101"/>
@@ -13515,13 +13605,13 @@
         <v>6</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F39" s="81" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="G39" s="102" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H39" s="120"/>
       <c r="I39" s="101"/>
@@ -13534,13 +13624,13 @@
         <v>7</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G40" s="102" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H40" s="120"/>
       <c r="I40" s="101"/>
@@ -13553,13 +13643,13 @@
         <v>8</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H41" s="120"/>
       <c r="I41" s="101"/>
@@ -13572,13 +13662,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="101"/>
@@ -13591,13 +13681,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="102" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="101"/>
@@ -13610,16 +13700,16 @@
         <v>11</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="H44" s="106" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="I44" s="101"/>
     </row>
@@ -13631,16 +13721,16 @@
         <v>12</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H45" s="106" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="I45" s="101"/>
     </row>
@@ -13652,14 +13742,14 @@
         <v>13</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="106" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="I46" s="101"/>
     </row>
@@ -13671,10 +13761,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="G47" s="68"/>
       <c r="H47" s="120"/>
@@ -13688,10 +13778,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G48" s="68"/>
       <c r="H48" s="120"/>
@@ -13705,10 +13795,10 @@
         <v>16</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G49" s="68"/>
       <c r="H49" s="120"/>
@@ -13722,10 +13812,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G50" s="68"/>
       <c r="H50" s="120"/>
@@ -13739,10 +13829,10 @@
         <v>18</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G51" s="68"/>
       <c r="H51" s="120"/>
@@ -13756,10 +13846,10 @@
         <v>19</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="G52" s="68"/>
       <c r="H52" s="120"/>
@@ -13773,10 +13863,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="120"/>
@@ -13790,10 +13880,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="G54" s="68"/>
       <c r="H54" s="120"/>
@@ -13807,10 +13897,10 @@
         <v>22</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="G55" s="68"/>
       <c r="H55" s="120"/>
@@ -13851,7 +13941,7 @@
     <row r="2" spans="1:8" ht="18.75">
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -13861,33 +13951,33 @@
     <row r="4" spans="1:8" ht="15.75">
       <c r="C4" s="53"/>
       <c r="D4" s="56" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="118" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -13895,25 +13985,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C6" s="63">
         <v>1</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="E6" s="134" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="H6" s="122" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13921,25 +14011,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C7" s="132">
         <v>2</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G7" s="120" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -13949,19 +14039,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G8" s="120" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13971,19 +14061,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="G9" s="120" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -13993,19 +14083,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="G10" s="120" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14015,19 +14105,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="G11" s="126" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14037,19 +14127,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14059,19 +14149,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>435</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G13" s="120" t="s">
         <v>478</v>
       </c>
-      <c r="E13" s="101" t="s">
-        <v>428</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G13" s="120" t="s">
-        <v>471</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14081,19 +14171,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E14" s="101" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14103,19 +14193,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="E15" s="101" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14125,19 +14215,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14145,22 +14235,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="160" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C17" s="132">
         <v>1</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -14171,16 +14261,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="G18" s="135" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H18" s="101"/>
     </row>
@@ -14191,16 +14281,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="G19" s="128" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="H19" s="122"/>
     </row>
@@ -14211,19 +14301,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="G20" s="120" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H20" s="101" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14233,19 +14323,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="G21" s="120" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H21" s="101" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14255,19 +14345,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F22" s="102" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G22" s="120" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H22" s="101" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14277,19 +14367,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="G23" s="120" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H23" s="101" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14299,19 +14389,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="G24" s="120" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H24" s="101" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14321,19 +14411,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="G25" s="133" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H25" s="102" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14343,19 +14433,19 @@
         <v>9</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G26" s="120" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14365,19 +14455,19 @@
         <v>10</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="G27" s="120" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H27" s="102" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14387,19 +14477,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14407,25 +14497,25 @@
         <v>4</v>
       </c>
       <c r="B29" s="160" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C29" s="132">
         <v>1</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G29" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="H29" s="101" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14436,16 +14526,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="G30" s="120" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="H30" s="101"/>
     </row>
@@ -14456,16 +14546,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H31" s="101"/>
     </row>
@@ -14477,16 +14567,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G32" s="120" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="H32" s="101"/>
     </row>
@@ -14498,16 +14588,16 @@
         <v>5</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="G33" s="120" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H33" s="101"/>
     </row>
@@ -14519,16 +14609,16 @@
         <v>6</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="F34" s="102" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H34" s="101"/>
     </row>
@@ -14540,16 +14630,16 @@
         <v>7</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="E35" s="81" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F35" s="102" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H35" s="101"/>
     </row>
@@ -14561,16 +14651,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H36" s="101"/>
     </row>
@@ -14582,16 +14672,16 @@
         <v>9</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G37" s="120" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H37" s="101"/>
     </row>
@@ -14603,16 +14693,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="G38" s="120" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H38" s="101"/>
     </row>
@@ -14624,16 +14714,16 @@
         <v>11</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="G39" s="106" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H39" s="101"/>
     </row>
@@ -14645,16 +14735,16 @@
         <v>12</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="G40" s="106" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H40" s="101"/>
     </row>
@@ -14666,16 +14756,16 @@
         <v>13</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="G41" s="106" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H41" s="101"/>
     </row>
@@ -14687,16 +14777,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="G42" s="120" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="H42" s="101"/>
     </row>
@@ -14708,16 +14798,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="G43" s="120" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="H43" s="101"/>
     </row>
@@ -14729,16 +14819,16 @@
         <v>16</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="G44" s="120" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H44" s="101"/>
     </row>
@@ -14750,16 +14840,16 @@
         <v>17</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="G45" s="120" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="H45" s="101"/>
     </row>
@@ -14771,16 +14861,16 @@
         <v>18</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="G46" s="120" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="H46" s="101"/>
     </row>
@@ -14792,16 +14882,16 @@
         <v>19</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="G47" s="120" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="H47" s="101"/>
     </row>
@@ -14813,16 +14903,16 @@
         <v>20</v>
       </c>
       <c r="D48" s="70" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="G48" s="120" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="H48" s="101"/>
     </row>
@@ -14834,16 +14924,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="G49" s="120" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="H49" s="101"/>
     </row>
@@ -14855,16 +14945,16 @@
         <v>22</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="G50" s="120" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="H50" s="101"/>
     </row>

--- a/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
+++ b/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{880101A3-29E2-4AB7-AE16-B239B40D9AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACEABC04-B82A-492F-B4CF-CC2F6F59BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="586">
   <si>
     <t>MOM</t>
   </si>
@@ -440,6 +440,15 @@
   </si>
   <si>
     <t>Prepare estimation for the whole process ( in hrs)</t>
+  </si>
+  <si>
+    <t>DAY 15</t>
+  </si>
+  <si>
+    <t>Correction in Estimation (Refine the timings)</t>
+  </si>
+  <si>
+    <t>Address multiple scenarios in a single implementation</t>
   </si>
   <si>
     <t xml:space="preserve"> TEAM ALPHA</t>
@@ -2186,7 +2195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2554,16 +2563,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2595,13 +2604,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3393,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46290B07-6E6D-4B19-9A9B-C3E38C6518F8}">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:B152"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4416,24 +4418,36 @@
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="167"/>
-      <c r="B153" s="168"/>
+      <c r="A153" s="4"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="167"/>
-      <c r="B154" s="168"/>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="167"/>
-      <c r="B155" s="168"/>
+      <c r="A154" s="44" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="169"/>
-      <c r="B156" s="168"/>
+      <c r="A156" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="43" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="167"/>
-      <c r="B157" s="168"/>
+      <c r="A157" s="7">
+        <v>1</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="6">
+        <v>2</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4458,7 +4472,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="G1" s="142" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
@@ -4468,14 +4482,14 @@
     </row>
     <row r="3" spans="1:14">
       <c r="G3" s="143" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H3" s="143"/>
       <c r="I3" s="143"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="F5" s="138" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
@@ -4485,11 +4499,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="137" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D8" s="137"/>
       <c r="E8" s="137"/>
@@ -4505,11 +4519,11 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="28"/>
@@ -4525,7 +4539,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="C12" s="139" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="140"/>
@@ -4541,7 +4555,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="C13" s="137" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
@@ -4588,7 +4602,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
       <c r="E1" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.75">
@@ -4596,7 +4610,7 @@
     </row>
     <row r="3" spans="2:6" ht="15.75">
       <c r="E3" s="12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -4604,19 +4618,19 @@
     </row>
     <row r="5" spans="2:6" ht="15.75">
       <c r="B5" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4624,16 +4638,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -4643,10 +4657,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -4656,10 +4670,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -4669,10 +4683,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -4682,10 +4696,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -4695,10 +4709,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -4708,10 +4722,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -4721,10 +4735,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -4732,16 +4746,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="146" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D14" s="25">
         <v>9</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -4751,10 +4765,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -4764,10 +4778,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4777,10 +4791,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4790,10 +4804,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -4801,16 +4815,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D19" s="25">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -4820,10 +4834,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4833,10 +4847,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4846,10 +4860,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -4922,20 +4936,20 @@
   <sheetData>
     <row r="1" spans="3:16" ht="18.75">
       <c r="C1" s="21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="3:16">
       <c r="C3" s="22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="3:16" ht="17.25">
       <c r="C5" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H5" s="143" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I5" s="143"/>
       <c r="J5" s="143"/>
@@ -4946,10 +4960,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="3:16">
@@ -4958,10 +4972,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="144" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -4971,7 +4985,7 @@
       </c>
       <c r="I9" s="145"/>
       <c r="J9" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="17.25">
@@ -4981,10 +4995,10 @@
       </c>
       <c r="I10" s="145"/>
       <c r="J10" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="3:16">
@@ -4994,7 +5008,7 @@
       </c>
       <c r="I11" s="145"/>
       <c r="J11" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="3:16">
@@ -5004,7 +5018,7 @@
       </c>
       <c r="I12" s="145"/>
       <c r="J12" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -5014,7 +5028,7 @@
       </c>
       <c r="I13" s="145"/>
       <c r="J13" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="3:16">
@@ -5024,7 +5038,7 @@
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -5034,7 +5048,7 @@
       </c>
       <c r="I15" s="145"/>
       <c r="J15" s="19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="3:16">
@@ -5044,7 +5058,7 @@
       </c>
       <c r="I16" s="149"/>
       <c r="J16" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -5058,10 +5072,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="151" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -5071,7 +5085,7 @@
       </c>
       <c r="I19" s="151"/>
       <c r="J19" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -5081,7 +5095,7 @@
       </c>
       <c r="I20" s="151"/>
       <c r="J20" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -5091,7 +5105,7 @@
       </c>
       <c r="I21" s="151"/>
       <c r="J21" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="3:10">
@@ -5101,7 +5115,7 @@
       </c>
       <c r="I22" s="151"/>
       <c r="J22" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -5111,7 +5125,7 @@
       </c>
       <c r="I23" s="151"/>
       <c r="J23" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -5121,7 +5135,7 @@
       </c>
       <c r="I24" s="151"/>
       <c r="J24" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="3:10">
@@ -5134,10 +5148,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="151" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="3:10">
@@ -5147,7 +5161,7 @@
       </c>
       <c r="I27" s="151"/>
       <c r="J27" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="3:10">
@@ -5157,7 +5171,7 @@
       </c>
       <c r="I28" s="151"/>
       <c r="J28" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="3:10">
@@ -5167,7 +5181,7 @@
       </c>
       <c r="I29" s="151"/>
       <c r="J29" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -5177,7 +5191,7 @@
       </c>
       <c r="I30" s="151"/>
       <c r="J30" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="3:10">
@@ -5187,7 +5201,7 @@
       </c>
       <c r="I31" s="151"/>
       <c r="J31" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="3:10">
@@ -5197,7 +5211,7 @@
       </c>
       <c r="I32" s="151"/>
       <c r="J32" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="3:10">
@@ -5206,12 +5220,12 @@
       </c>
       <c r="I33" s="151"/>
       <c r="J33" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="17.25">
       <c r="C34" s="23" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="3:10">
@@ -5322,12 +5336,12 @@
     </row>
     <row r="72" spans="3:4" ht="17.25">
       <c r="C72" s="23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="150" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="3:4">
@@ -5345,7 +5359,7 @@
     <row r="79" spans="3:4" ht="17.25">
       <c r="C79" s="150"/>
       <c r="D79" s="17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="3:4">
@@ -5466,7 +5480,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="D1" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -5474,24 +5488,24 @@
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="D3" s="12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5499,16 +5513,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="151" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5518,10 +5532,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5531,10 +5545,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5544,10 +5558,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5557,10 +5571,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5570,10 +5584,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5583,10 +5597,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5596,10 +5610,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5609,10 +5623,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5622,10 +5636,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5635,10 +5649,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5648,10 +5662,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5661,10 +5675,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5672,16 +5686,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="149" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C19" s="51">
         <v>14</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5691,10 +5705,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5704,10 +5718,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5717,10 +5731,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5730,10 +5744,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5741,16 +5755,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C24" s="50">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5760,10 +5774,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5773,10 +5787,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5786,10 +5800,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5799,10 +5813,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5812,10 +5826,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5825,10 +5839,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5838,10 +5852,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5860,44 +5874,44 @@
       <c r="E34" s="47"/>
     </row>
     <row r="35" spans="3:20">
-      <c r="D35" s="155" t="s">
-        <v>252</v>
-      </c>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="155"/>
-      <c r="R35" s="155"/>
-      <c r="S35" s="155"/>
-      <c r="T35" s="155"/>
+      <c r="D35" s="156" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="156"/>
+      <c r="P35" s="156"/>
+      <c r="Q35" s="156"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="156"/>
+      <c r="T35" s="156"/>
     </row>
     <row r="36" spans="3:20">
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="155"/>
     </row>
     <row r="37" spans="3:20">
       <c r="D37" s="152"/>
@@ -7025,7 +7039,7 @@
     </row>
     <row r="99" spans="4:21">
       <c r="D99" s="154" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E99" s="154"/>
       <c r="F99" s="154"/>
@@ -7046,24 +7060,24 @@
       <c r="U99" s="154"/>
     </row>
     <row r="100" spans="4:21">
-      <c r="D100" s="153"/>
-      <c r="E100" s="153"/>
-      <c r="F100" s="153"/>
-      <c r="G100" s="153"/>
-      <c r="H100" s="153"/>
-      <c r="I100" s="153"/>
-      <c r="J100" s="153"/>
-      <c r="K100" s="153"/>
-      <c r="L100" s="153"/>
-      <c r="M100" s="153"/>
-      <c r="N100" s="153"/>
-      <c r="O100" s="153"/>
-      <c r="P100" s="153"/>
-      <c r="Q100" s="153"/>
-      <c r="R100" s="153"/>
-      <c r="S100" s="153"/>
-      <c r="T100" s="153"/>
-      <c r="U100" s="153"/>
+      <c r="D100" s="155"/>
+      <c r="E100" s="155"/>
+      <c r="F100" s="155"/>
+      <c r="G100" s="155"/>
+      <c r="H100" s="155"/>
+      <c r="I100" s="155"/>
+      <c r="J100" s="155"/>
+      <c r="K100" s="155"/>
+      <c r="L100" s="155"/>
+      <c r="M100" s="155"/>
+      <c r="N100" s="155"/>
+      <c r="O100" s="155"/>
+      <c r="P100" s="155"/>
+      <c r="Q100" s="155"/>
+      <c r="R100" s="155"/>
+      <c r="S100" s="155"/>
+      <c r="T100" s="155"/>
+      <c r="U100" s="155"/>
     </row>
     <row r="101" spans="4:21">
       <c r="D101" s="152"/>
@@ -8347,7 +8361,7 @@
     </row>
     <row r="167" spans="4:21">
       <c r="D167" s="154" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E167" s="154"/>
       <c r="F167" s="154"/>
@@ -8368,1742 +8382,1737 @@
       <c r="U167" s="154"/>
     </row>
     <row r="168" spans="4:21">
-      <c r="D168" s="156"/>
-      <c r="E168" s="156"/>
-      <c r="F168" s="156"/>
-      <c r="G168" s="156"/>
-      <c r="H168" s="156"/>
-      <c r="I168" s="156"/>
-      <c r="J168" s="156"/>
-      <c r="K168" s="156"/>
-      <c r="L168" s="156"/>
-      <c r="M168" s="156"/>
-      <c r="N168" s="156"/>
-      <c r="O168" s="156"/>
-      <c r="P168" s="156"/>
-      <c r="Q168" s="156"/>
-      <c r="R168" s="156"/>
-      <c r="S168" s="156"/>
-      <c r="T168" s="156"/>
-      <c r="U168" s="156"/>
+      <c r="D168" s="153"/>
+      <c r="E168" s="153"/>
+      <c r="F168" s="153"/>
+      <c r="G168" s="153"/>
+      <c r="H168" s="153"/>
+      <c r="I168" s="153"/>
+      <c r="J168" s="153"/>
+      <c r="K168" s="153"/>
+      <c r="L168" s="153"/>
+      <c r="M168" s="153"/>
+      <c r="N168" s="153"/>
+      <c r="O168" s="153"/>
+      <c r="P168" s="153"/>
+      <c r="Q168" s="153"/>
+      <c r="R168" s="153"/>
+      <c r="S168" s="153"/>
+      <c r="T168" s="153"/>
+      <c r="U168" s="153"/>
     </row>
     <row r="169" spans="4:21">
-      <c r="D169" s="156"/>
-      <c r="E169" s="156"/>
-      <c r="F169" s="156"/>
-      <c r="G169" s="156"/>
-      <c r="H169" s="156"/>
-      <c r="I169" s="156"/>
-      <c r="J169" s="156"/>
-      <c r="K169" s="156"/>
-      <c r="L169" s="156"/>
-      <c r="M169" s="156"/>
-      <c r="N169" s="156"/>
-      <c r="O169" s="156"/>
-      <c r="P169" s="156"/>
-      <c r="Q169" s="156"/>
-      <c r="R169" s="156"/>
-      <c r="S169" s="156"/>
-      <c r="T169" s="156"/>
-      <c r="U169" s="156"/>
+      <c r="D169" s="153"/>
+      <c r="E169" s="153"/>
+      <c r="F169" s="153"/>
+      <c r="G169" s="153"/>
+      <c r="H169" s="153"/>
+      <c r="I169" s="153"/>
+      <c r="J169" s="153"/>
+      <c r="K169" s="153"/>
+      <c r="L169" s="153"/>
+      <c r="M169" s="153"/>
+      <c r="N169" s="153"/>
+      <c r="O169" s="153"/>
+      <c r="P169" s="153"/>
+      <c r="Q169" s="153"/>
+      <c r="R169" s="153"/>
+      <c r="S169" s="153"/>
+      <c r="T169" s="153"/>
+      <c r="U169" s="153"/>
     </row>
     <row r="170" spans="4:21">
-      <c r="D170" s="156"/>
-      <c r="E170" s="156"/>
-      <c r="F170" s="156"/>
-      <c r="G170" s="156"/>
-      <c r="H170" s="156"/>
-      <c r="I170" s="156"/>
-      <c r="J170" s="156"/>
-      <c r="K170" s="156"/>
-      <c r="L170" s="156"/>
-      <c r="M170" s="156"/>
-      <c r="N170" s="156"/>
-      <c r="O170" s="156"/>
-      <c r="P170" s="156"/>
-      <c r="Q170" s="156"/>
-      <c r="R170" s="156"/>
-      <c r="S170" s="156"/>
-      <c r="T170" s="156"/>
-      <c r="U170" s="156"/>
+      <c r="D170" s="153"/>
+      <c r="E170" s="153"/>
+      <c r="F170" s="153"/>
+      <c r="G170" s="153"/>
+      <c r="H170" s="153"/>
+      <c r="I170" s="153"/>
+      <c r="J170" s="153"/>
+      <c r="K170" s="153"/>
+      <c r="L170" s="153"/>
+      <c r="M170" s="153"/>
+      <c r="N170" s="153"/>
+      <c r="O170" s="153"/>
+      <c r="P170" s="153"/>
+      <c r="Q170" s="153"/>
+      <c r="R170" s="153"/>
+      <c r="S170" s="153"/>
+      <c r="T170" s="153"/>
+      <c r="U170" s="153"/>
     </row>
     <row r="171" spans="4:21">
-      <c r="D171" s="156"/>
-      <c r="E171" s="156"/>
-      <c r="F171" s="156"/>
-      <c r="G171" s="156"/>
-      <c r="H171" s="156"/>
-      <c r="I171" s="156"/>
-      <c r="J171" s="156"/>
-      <c r="K171" s="156"/>
-      <c r="L171" s="156"/>
-      <c r="M171" s="156"/>
-      <c r="N171" s="156"/>
-      <c r="O171" s="156"/>
-      <c r="P171" s="156"/>
-      <c r="Q171" s="156"/>
-      <c r="R171" s="156"/>
-      <c r="S171" s="156"/>
-      <c r="T171" s="156"/>
-      <c r="U171" s="156"/>
+      <c r="D171" s="153"/>
+      <c r="E171" s="153"/>
+      <c r="F171" s="153"/>
+      <c r="G171" s="153"/>
+      <c r="H171" s="153"/>
+      <c r="I171" s="153"/>
+      <c r="J171" s="153"/>
+      <c r="K171" s="153"/>
+      <c r="L171" s="153"/>
+      <c r="M171" s="153"/>
+      <c r="N171" s="153"/>
+      <c r="O171" s="153"/>
+      <c r="P171" s="153"/>
+      <c r="Q171" s="153"/>
+      <c r="R171" s="153"/>
+      <c r="S171" s="153"/>
+      <c r="T171" s="153"/>
+      <c r="U171" s="153"/>
     </row>
     <row r="172" spans="4:21">
-      <c r="D172" s="156"/>
-      <c r="E172" s="156"/>
-      <c r="F172" s="156"/>
-      <c r="G172" s="156"/>
-      <c r="H172" s="156"/>
-      <c r="I172" s="156"/>
-      <c r="J172" s="156"/>
-      <c r="K172" s="156"/>
-      <c r="L172" s="156"/>
-      <c r="M172" s="156"/>
-      <c r="N172" s="156"/>
-      <c r="O172" s="156"/>
-      <c r="P172" s="156"/>
-      <c r="Q172" s="156"/>
-      <c r="R172" s="156"/>
-      <c r="S172" s="156"/>
-      <c r="T172" s="156"/>
-      <c r="U172" s="156"/>
+      <c r="D172" s="153"/>
+      <c r="E172" s="153"/>
+      <c r="F172" s="153"/>
+      <c r="G172" s="153"/>
+      <c r="H172" s="153"/>
+      <c r="I172" s="153"/>
+      <c r="J172" s="153"/>
+      <c r="K172" s="153"/>
+      <c r="L172" s="153"/>
+      <c r="M172" s="153"/>
+      <c r="N172" s="153"/>
+      <c r="O172" s="153"/>
+      <c r="P172" s="153"/>
+      <c r="Q172" s="153"/>
+      <c r="R172" s="153"/>
+      <c r="S172" s="153"/>
+      <c r="T172" s="153"/>
+      <c r="U172" s="153"/>
     </row>
     <row r="173" spans="4:21">
-      <c r="D173" s="156"/>
-      <c r="E173" s="156"/>
-      <c r="F173" s="156"/>
-      <c r="G173" s="156"/>
-      <c r="H173" s="156"/>
-      <c r="I173" s="156"/>
-      <c r="J173" s="156"/>
-      <c r="K173" s="156"/>
-      <c r="L173" s="156"/>
-      <c r="M173" s="156"/>
-      <c r="N173" s="156"/>
-      <c r="O173" s="156"/>
-      <c r="P173" s="156"/>
-      <c r="Q173" s="156"/>
-      <c r="R173" s="156"/>
-      <c r="S173" s="156"/>
-      <c r="T173" s="156"/>
-      <c r="U173" s="156"/>
+      <c r="D173" s="153"/>
+      <c r="E173" s="153"/>
+      <c r="F173" s="153"/>
+      <c r="G173" s="153"/>
+      <c r="H173" s="153"/>
+      <c r="I173" s="153"/>
+      <c r="J173" s="153"/>
+      <c r="K173" s="153"/>
+      <c r="L173" s="153"/>
+      <c r="M173" s="153"/>
+      <c r="N173" s="153"/>
+      <c r="O173" s="153"/>
+      <c r="P173" s="153"/>
+      <c r="Q173" s="153"/>
+      <c r="R173" s="153"/>
+      <c r="S173" s="153"/>
+      <c r="T173" s="153"/>
+      <c r="U173" s="153"/>
     </row>
     <row r="174" spans="4:21">
-      <c r="D174" s="156"/>
-      <c r="E174" s="156"/>
-      <c r="F174" s="156"/>
-      <c r="G174" s="156"/>
-      <c r="H174" s="156"/>
-      <c r="I174" s="156"/>
-      <c r="J174" s="156"/>
-      <c r="K174" s="156"/>
-      <c r="L174" s="156"/>
-      <c r="M174" s="156"/>
-      <c r="N174" s="156"/>
-      <c r="O174" s="156"/>
-      <c r="P174" s="156"/>
-      <c r="Q174" s="156"/>
-      <c r="R174" s="156"/>
-      <c r="S174" s="156"/>
-      <c r="T174" s="156"/>
-      <c r="U174" s="156"/>
+      <c r="D174" s="153"/>
+      <c r="E174" s="153"/>
+      <c r="F174" s="153"/>
+      <c r="G174" s="153"/>
+      <c r="H174" s="153"/>
+      <c r="I174" s="153"/>
+      <c r="J174" s="153"/>
+      <c r="K174" s="153"/>
+      <c r="L174" s="153"/>
+      <c r="M174" s="153"/>
+      <c r="N174" s="153"/>
+      <c r="O174" s="153"/>
+      <c r="P174" s="153"/>
+      <c r="Q174" s="153"/>
+      <c r="R174" s="153"/>
+      <c r="S174" s="153"/>
+      <c r="T174" s="153"/>
+      <c r="U174" s="153"/>
     </row>
     <row r="175" spans="4:21">
-      <c r="D175" s="156"/>
-      <c r="E175" s="156"/>
-      <c r="F175" s="156"/>
-      <c r="G175" s="156"/>
-      <c r="H175" s="156"/>
-      <c r="I175" s="156"/>
-      <c r="J175" s="156"/>
-      <c r="K175" s="156"/>
-      <c r="L175" s="156"/>
-      <c r="M175" s="156"/>
-      <c r="N175" s="156"/>
-      <c r="O175" s="156"/>
-      <c r="P175" s="156"/>
-      <c r="Q175" s="156"/>
-      <c r="R175" s="156"/>
-      <c r="S175" s="156"/>
-      <c r="T175" s="156"/>
-      <c r="U175" s="156"/>
+      <c r="D175" s="153"/>
+      <c r="E175" s="153"/>
+      <c r="F175" s="153"/>
+      <c r="G175" s="153"/>
+      <c r="H175" s="153"/>
+      <c r="I175" s="153"/>
+      <c r="J175" s="153"/>
+      <c r="K175" s="153"/>
+      <c r="L175" s="153"/>
+      <c r="M175" s="153"/>
+      <c r="N175" s="153"/>
+      <c r="O175" s="153"/>
+      <c r="P175" s="153"/>
+      <c r="Q175" s="153"/>
+      <c r="R175" s="153"/>
+      <c r="S175" s="153"/>
+      <c r="T175" s="153"/>
+      <c r="U175" s="153"/>
     </row>
     <row r="176" spans="4:21">
-      <c r="D176" s="156"/>
-      <c r="E176" s="156"/>
-      <c r="F176" s="156"/>
-      <c r="G176" s="156"/>
-      <c r="H176" s="156"/>
-      <c r="I176" s="156"/>
-      <c r="J176" s="156"/>
-      <c r="K176" s="156"/>
-      <c r="L176" s="156"/>
-      <c r="M176" s="156"/>
-      <c r="N176" s="156"/>
-      <c r="O176" s="156"/>
-      <c r="P176" s="156"/>
-      <c r="Q176" s="156"/>
-      <c r="R176" s="156"/>
-      <c r="S176" s="156"/>
-      <c r="T176" s="156"/>
-      <c r="U176" s="156"/>
+      <c r="D176" s="153"/>
+      <c r="E176" s="153"/>
+      <c r="F176" s="153"/>
+      <c r="G176" s="153"/>
+      <c r="H176" s="153"/>
+      <c r="I176" s="153"/>
+      <c r="J176" s="153"/>
+      <c r="K176" s="153"/>
+      <c r="L176" s="153"/>
+      <c r="M176" s="153"/>
+      <c r="N176" s="153"/>
+      <c r="O176" s="153"/>
+      <c r="P176" s="153"/>
+      <c r="Q176" s="153"/>
+      <c r="R176" s="153"/>
+      <c r="S176" s="153"/>
+      <c r="T176" s="153"/>
+      <c r="U176" s="153"/>
     </row>
     <row r="177" spans="4:21">
-      <c r="D177" s="156"/>
-      <c r="E177" s="156"/>
-      <c r="F177" s="156"/>
-      <c r="G177" s="156"/>
-      <c r="H177" s="156"/>
-      <c r="I177" s="156"/>
-      <c r="J177" s="156"/>
-      <c r="K177" s="156"/>
-      <c r="L177" s="156"/>
-      <c r="M177" s="156"/>
-      <c r="N177" s="156"/>
-      <c r="O177" s="156"/>
-      <c r="P177" s="156"/>
-      <c r="Q177" s="156"/>
-      <c r="R177" s="156"/>
-      <c r="S177" s="156"/>
-      <c r="T177" s="156"/>
-      <c r="U177" s="156"/>
+      <c r="D177" s="153"/>
+      <c r="E177" s="153"/>
+      <c r="F177" s="153"/>
+      <c r="G177" s="153"/>
+      <c r="H177" s="153"/>
+      <c r="I177" s="153"/>
+      <c r="J177" s="153"/>
+      <c r="K177" s="153"/>
+      <c r="L177" s="153"/>
+      <c r="M177" s="153"/>
+      <c r="N177" s="153"/>
+      <c r="O177" s="153"/>
+      <c r="P177" s="153"/>
+      <c r="Q177" s="153"/>
+      <c r="R177" s="153"/>
+      <c r="S177" s="153"/>
+      <c r="T177" s="153"/>
+      <c r="U177" s="153"/>
     </row>
     <row r="178" spans="4:21">
-      <c r="D178" s="156"/>
-      <c r="E178" s="156"/>
-      <c r="F178" s="156"/>
-      <c r="G178" s="156"/>
-      <c r="H178" s="156"/>
-      <c r="I178" s="156"/>
-      <c r="J178" s="156"/>
-      <c r="K178" s="156"/>
-      <c r="L178" s="156"/>
-      <c r="M178" s="156"/>
-      <c r="N178" s="156"/>
-      <c r="O178" s="156"/>
-      <c r="P178" s="156"/>
-      <c r="Q178" s="156"/>
-      <c r="R178" s="156"/>
-      <c r="S178" s="156"/>
-      <c r="T178" s="156"/>
-      <c r="U178" s="156"/>
+      <c r="D178" s="153"/>
+      <c r="E178" s="153"/>
+      <c r="F178" s="153"/>
+      <c r="G178" s="153"/>
+      <c r="H178" s="153"/>
+      <c r="I178" s="153"/>
+      <c r="J178" s="153"/>
+      <c r="K178" s="153"/>
+      <c r="L178" s="153"/>
+      <c r="M178" s="153"/>
+      <c r="N178" s="153"/>
+      <c r="O178" s="153"/>
+      <c r="P178" s="153"/>
+      <c r="Q178" s="153"/>
+      <c r="R178" s="153"/>
+      <c r="S178" s="153"/>
+      <c r="T178" s="153"/>
+      <c r="U178" s="153"/>
     </row>
     <row r="179" spans="4:21">
-      <c r="D179" s="156"/>
-      <c r="E179" s="156"/>
-      <c r="F179" s="156"/>
-      <c r="G179" s="156"/>
-      <c r="H179" s="156"/>
-      <c r="I179" s="156"/>
-      <c r="J179" s="156"/>
-      <c r="K179" s="156"/>
-      <c r="L179" s="156"/>
-      <c r="M179" s="156"/>
-      <c r="N179" s="156"/>
-      <c r="O179" s="156"/>
-      <c r="P179" s="156"/>
-      <c r="Q179" s="156"/>
-      <c r="R179" s="156"/>
-      <c r="S179" s="156"/>
-      <c r="T179" s="156"/>
-      <c r="U179" s="156"/>
+      <c r="D179" s="153"/>
+      <c r="E179" s="153"/>
+      <c r="F179" s="153"/>
+      <c r="G179" s="153"/>
+      <c r="H179" s="153"/>
+      <c r="I179" s="153"/>
+      <c r="J179" s="153"/>
+      <c r="K179" s="153"/>
+      <c r="L179" s="153"/>
+      <c r="M179" s="153"/>
+      <c r="N179" s="153"/>
+      <c r="O179" s="153"/>
+      <c r="P179" s="153"/>
+      <c r="Q179" s="153"/>
+      <c r="R179" s="153"/>
+      <c r="S179" s="153"/>
+      <c r="T179" s="153"/>
+      <c r="U179" s="153"/>
     </row>
     <row r="180" spans="4:21">
-      <c r="D180" s="156"/>
-      <c r="E180" s="156"/>
-      <c r="F180" s="156"/>
-      <c r="G180" s="156"/>
-      <c r="H180" s="156"/>
-      <c r="I180" s="156"/>
-      <c r="J180" s="156"/>
-      <c r="K180" s="156"/>
-      <c r="L180" s="156"/>
-      <c r="M180" s="156"/>
-      <c r="N180" s="156"/>
-      <c r="O180" s="156"/>
-      <c r="P180" s="156"/>
-      <c r="Q180" s="156"/>
-      <c r="R180" s="156"/>
-      <c r="S180" s="156"/>
-      <c r="T180" s="156"/>
-      <c r="U180" s="156"/>
+      <c r="D180" s="153"/>
+      <c r="E180" s="153"/>
+      <c r="F180" s="153"/>
+      <c r="G180" s="153"/>
+      <c r="H180" s="153"/>
+      <c r="I180" s="153"/>
+      <c r="J180" s="153"/>
+      <c r="K180" s="153"/>
+      <c r="L180" s="153"/>
+      <c r="M180" s="153"/>
+      <c r="N180" s="153"/>
+      <c r="O180" s="153"/>
+      <c r="P180" s="153"/>
+      <c r="Q180" s="153"/>
+      <c r="R180" s="153"/>
+      <c r="S180" s="153"/>
+      <c r="T180" s="153"/>
+      <c r="U180" s="153"/>
     </row>
     <row r="181" spans="4:21">
-      <c r="D181" s="156"/>
-      <c r="E181" s="156"/>
-      <c r="F181" s="156"/>
-      <c r="G181" s="156"/>
-      <c r="H181" s="156"/>
-      <c r="I181" s="156"/>
-      <c r="J181" s="156"/>
-      <c r="K181" s="156"/>
-      <c r="L181" s="156"/>
-      <c r="M181" s="156"/>
-      <c r="N181" s="156"/>
-      <c r="O181" s="156"/>
-      <c r="P181" s="156"/>
-      <c r="Q181" s="156"/>
-      <c r="R181" s="156"/>
-      <c r="S181" s="156"/>
-      <c r="T181" s="156"/>
-      <c r="U181" s="156"/>
+      <c r="D181" s="153"/>
+      <c r="E181" s="153"/>
+      <c r="F181" s="153"/>
+      <c r="G181" s="153"/>
+      <c r="H181" s="153"/>
+      <c r="I181" s="153"/>
+      <c r="J181" s="153"/>
+      <c r="K181" s="153"/>
+      <c r="L181" s="153"/>
+      <c r="M181" s="153"/>
+      <c r="N181" s="153"/>
+      <c r="O181" s="153"/>
+      <c r="P181" s="153"/>
+      <c r="Q181" s="153"/>
+      <c r="R181" s="153"/>
+      <c r="S181" s="153"/>
+      <c r="T181" s="153"/>
+      <c r="U181" s="153"/>
     </row>
     <row r="182" spans="4:21">
-      <c r="D182" s="156"/>
-      <c r="E182" s="156"/>
-      <c r="F182" s="156"/>
-      <c r="G182" s="156"/>
-      <c r="H182" s="156"/>
-      <c r="I182" s="156"/>
-      <c r="J182" s="156"/>
-      <c r="K182" s="156"/>
-      <c r="L182" s="156"/>
-      <c r="M182" s="156"/>
-      <c r="N182" s="156"/>
-      <c r="O182" s="156"/>
-      <c r="P182" s="156"/>
-      <c r="Q182" s="156"/>
-      <c r="R182" s="156"/>
-      <c r="S182" s="156"/>
-      <c r="T182" s="156"/>
-      <c r="U182" s="156"/>
+      <c r="D182" s="153"/>
+      <c r="E182" s="153"/>
+      <c r="F182" s="153"/>
+      <c r="G182" s="153"/>
+      <c r="H182" s="153"/>
+      <c r="I182" s="153"/>
+      <c r="J182" s="153"/>
+      <c r="K182" s="153"/>
+      <c r="L182" s="153"/>
+      <c r="M182" s="153"/>
+      <c r="N182" s="153"/>
+      <c r="O182" s="153"/>
+      <c r="P182" s="153"/>
+      <c r="Q182" s="153"/>
+      <c r="R182" s="153"/>
+      <c r="S182" s="153"/>
+      <c r="T182" s="153"/>
+      <c r="U182" s="153"/>
     </row>
     <row r="183" spans="4:21">
-      <c r="D183" s="156"/>
-      <c r="E183" s="156"/>
-      <c r="F183" s="156"/>
-      <c r="G183" s="156"/>
-      <c r="H183" s="156"/>
-      <c r="I183" s="156"/>
-      <c r="J183" s="156"/>
-      <c r="K183" s="156"/>
-      <c r="L183" s="156"/>
-      <c r="M183" s="156"/>
-      <c r="N183" s="156"/>
-      <c r="O183" s="156"/>
-      <c r="P183" s="156"/>
-      <c r="Q183" s="156"/>
-      <c r="R183" s="156"/>
-      <c r="S183" s="156"/>
-      <c r="T183" s="156"/>
-      <c r="U183" s="156"/>
+      <c r="D183" s="153"/>
+      <c r="E183" s="153"/>
+      <c r="F183" s="153"/>
+      <c r="G183" s="153"/>
+      <c r="H183" s="153"/>
+      <c r="I183" s="153"/>
+      <c r="J183" s="153"/>
+      <c r="K183" s="153"/>
+      <c r="L183" s="153"/>
+      <c r="M183" s="153"/>
+      <c r="N183" s="153"/>
+      <c r="O183" s="153"/>
+      <c r="P183" s="153"/>
+      <c r="Q183" s="153"/>
+      <c r="R183" s="153"/>
+      <c r="S183" s="153"/>
+      <c r="T183" s="153"/>
+      <c r="U183" s="153"/>
     </row>
     <row r="184" spans="4:21">
-      <c r="D184" s="156"/>
-      <c r="E184" s="156"/>
-      <c r="F184" s="156"/>
-      <c r="G184" s="156"/>
-      <c r="H184" s="156"/>
-      <c r="I184" s="156"/>
-      <c r="J184" s="156"/>
-      <c r="K184" s="156"/>
-      <c r="L184" s="156"/>
-      <c r="M184" s="156"/>
-      <c r="N184" s="156"/>
-      <c r="O184" s="156"/>
-      <c r="P184" s="156"/>
-      <c r="Q184" s="156"/>
-      <c r="R184" s="156"/>
-      <c r="S184" s="156"/>
-      <c r="T184" s="156"/>
-      <c r="U184" s="156"/>
+      <c r="D184" s="153"/>
+      <c r="E184" s="153"/>
+      <c r="F184" s="153"/>
+      <c r="G184" s="153"/>
+      <c r="H184" s="153"/>
+      <c r="I184" s="153"/>
+      <c r="J184" s="153"/>
+      <c r="K184" s="153"/>
+      <c r="L184" s="153"/>
+      <c r="M184" s="153"/>
+      <c r="N184" s="153"/>
+      <c r="O184" s="153"/>
+      <c r="P184" s="153"/>
+      <c r="Q184" s="153"/>
+      <c r="R184" s="153"/>
+      <c r="S184" s="153"/>
+      <c r="T184" s="153"/>
+      <c r="U184" s="153"/>
     </row>
     <row r="185" spans="4:21">
-      <c r="D185" s="156"/>
-      <c r="E185" s="156"/>
-      <c r="F185" s="156"/>
-      <c r="G185" s="156"/>
-      <c r="H185" s="156"/>
-      <c r="I185" s="156"/>
-      <c r="J185" s="156"/>
-      <c r="K185" s="156"/>
-      <c r="L185" s="156"/>
-      <c r="M185" s="156"/>
-      <c r="N185" s="156"/>
-      <c r="O185" s="156"/>
-      <c r="P185" s="156"/>
-      <c r="Q185" s="156"/>
-      <c r="R185" s="156"/>
-      <c r="S185" s="156"/>
-      <c r="T185" s="156"/>
-      <c r="U185" s="156"/>
+      <c r="D185" s="153"/>
+      <c r="E185" s="153"/>
+      <c r="F185" s="153"/>
+      <c r="G185" s="153"/>
+      <c r="H185" s="153"/>
+      <c r="I185" s="153"/>
+      <c r="J185" s="153"/>
+      <c r="K185" s="153"/>
+      <c r="L185" s="153"/>
+      <c r="M185" s="153"/>
+      <c r="N185" s="153"/>
+      <c r="O185" s="153"/>
+      <c r="P185" s="153"/>
+      <c r="Q185" s="153"/>
+      <c r="R185" s="153"/>
+      <c r="S185" s="153"/>
+      <c r="T185" s="153"/>
+      <c r="U185" s="153"/>
     </row>
     <row r="186" spans="4:21">
-      <c r="D186" s="156"/>
-      <c r="E186" s="156"/>
-      <c r="F186" s="156"/>
-      <c r="G186" s="156"/>
-      <c r="H186" s="156"/>
-      <c r="I186" s="156"/>
-      <c r="J186" s="156"/>
-      <c r="K186" s="156"/>
-      <c r="L186" s="156"/>
-      <c r="M186" s="156"/>
-      <c r="N186" s="156"/>
-      <c r="O186" s="156"/>
-      <c r="P186" s="156"/>
-      <c r="Q186" s="156"/>
-      <c r="R186" s="156"/>
-      <c r="S186" s="156"/>
-      <c r="T186" s="156"/>
-      <c r="U186" s="156"/>
+      <c r="D186" s="153"/>
+      <c r="E186" s="153"/>
+      <c r="F186" s="153"/>
+      <c r="G186" s="153"/>
+      <c r="H186" s="153"/>
+      <c r="I186" s="153"/>
+      <c r="J186" s="153"/>
+      <c r="K186" s="153"/>
+      <c r="L186" s="153"/>
+      <c r="M186" s="153"/>
+      <c r="N186" s="153"/>
+      <c r="O186" s="153"/>
+      <c r="P186" s="153"/>
+      <c r="Q186" s="153"/>
+      <c r="R186" s="153"/>
+      <c r="S186" s="153"/>
+      <c r="T186" s="153"/>
+      <c r="U186" s="153"/>
     </row>
     <row r="187" spans="4:21">
-      <c r="D187" s="156"/>
-      <c r="E187" s="156"/>
-      <c r="F187" s="156"/>
-      <c r="G187" s="156"/>
-      <c r="H187" s="156"/>
-      <c r="I187" s="156"/>
-      <c r="J187" s="156"/>
-      <c r="K187" s="156"/>
-      <c r="L187" s="156"/>
-      <c r="M187" s="156"/>
-      <c r="N187" s="156"/>
-      <c r="O187" s="156"/>
-      <c r="P187" s="156"/>
-      <c r="Q187" s="156"/>
-      <c r="R187" s="156"/>
-      <c r="S187" s="156"/>
-      <c r="T187" s="156"/>
-      <c r="U187" s="156"/>
+      <c r="D187" s="153"/>
+      <c r="E187" s="153"/>
+      <c r="F187" s="153"/>
+      <c r="G187" s="153"/>
+      <c r="H187" s="153"/>
+      <c r="I187" s="153"/>
+      <c r="J187" s="153"/>
+      <c r="K187" s="153"/>
+      <c r="L187" s="153"/>
+      <c r="M187" s="153"/>
+      <c r="N187" s="153"/>
+      <c r="O187" s="153"/>
+      <c r="P187" s="153"/>
+      <c r="Q187" s="153"/>
+      <c r="R187" s="153"/>
+      <c r="S187" s="153"/>
+      <c r="T187" s="153"/>
+      <c r="U187" s="153"/>
     </row>
     <row r="188" spans="4:21">
-      <c r="D188" s="156"/>
-      <c r="E188" s="156"/>
-      <c r="F188" s="156"/>
-      <c r="G188" s="156"/>
-      <c r="H188" s="156"/>
-      <c r="I188" s="156"/>
-      <c r="J188" s="156"/>
-      <c r="K188" s="156"/>
-      <c r="L188" s="156"/>
-      <c r="M188" s="156"/>
-      <c r="N188" s="156"/>
-      <c r="O188" s="156"/>
-      <c r="P188" s="156"/>
-      <c r="Q188" s="156"/>
-      <c r="R188" s="156"/>
-      <c r="S188" s="156"/>
-      <c r="T188" s="156"/>
-      <c r="U188" s="156"/>
+      <c r="D188" s="153"/>
+      <c r="E188" s="153"/>
+      <c r="F188" s="153"/>
+      <c r="G188" s="153"/>
+      <c r="H188" s="153"/>
+      <c r="I188" s="153"/>
+      <c r="J188" s="153"/>
+      <c r="K188" s="153"/>
+      <c r="L188" s="153"/>
+      <c r="M188" s="153"/>
+      <c r="N188" s="153"/>
+      <c r="O188" s="153"/>
+      <c r="P188" s="153"/>
+      <c r="Q188" s="153"/>
+      <c r="R188" s="153"/>
+      <c r="S188" s="153"/>
+      <c r="T188" s="153"/>
+      <c r="U188" s="153"/>
     </row>
     <row r="189" spans="4:21">
-      <c r="D189" s="156"/>
-      <c r="E189" s="156"/>
-      <c r="F189" s="156"/>
-      <c r="G189" s="156"/>
-      <c r="H189" s="156"/>
-      <c r="I189" s="156"/>
-      <c r="J189" s="156"/>
-      <c r="K189" s="156"/>
-      <c r="L189" s="156"/>
-      <c r="M189" s="156"/>
-      <c r="N189" s="156"/>
-      <c r="O189" s="156"/>
-      <c r="P189" s="156"/>
-      <c r="Q189" s="156"/>
-      <c r="R189" s="156"/>
-      <c r="S189" s="156"/>
-      <c r="T189" s="156"/>
-      <c r="U189" s="156"/>
+      <c r="D189" s="153"/>
+      <c r="E189" s="153"/>
+      <c r="F189" s="153"/>
+      <c r="G189" s="153"/>
+      <c r="H189" s="153"/>
+      <c r="I189" s="153"/>
+      <c r="J189" s="153"/>
+      <c r="K189" s="153"/>
+      <c r="L189" s="153"/>
+      <c r="M189" s="153"/>
+      <c r="N189" s="153"/>
+      <c r="O189" s="153"/>
+      <c r="P189" s="153"/>
+      <c r="Q189" s="153"/>
+      <c r="R189" s="153"/>
+      <c r="S189" s="153"/>
+      <c r="T189" s="153"/>
+      <c r="U189" s="153"/>
     </row>
     <row r="190" spans="4:21">
-      <c r="D190" s="156"/>
-      <c r="E190" s="156"/>
-      <c r="F190" s="156"/>
-      <c r="G190" s="156"/>
-      <c r="H190" s="156"/>
-      <c r="I190" s="156"/>
-      <c r="J190" s="156"/>
-      <c r="K190" s="156"/>
-      <c r="L190" s="156"/>
-      <c r="M190" s="156"/>
-      <c r="N190" s="156"/>
-      <c r="O190" s="156"/>
-      <c r="P190" s="156"/>
-      <c r="Q190" s="156"/>
-      <c r="R190" s="156"/>
-      <c r="S190" s="156"/>
-      <c r="T190" s="156"/>
-      <c r="U190" s="156"/>
+      <c r="D190" s="153"/>
+      <c r="E190" s="153"/>
+      <c r="F190" s="153"/>
+      <c r="G190" s="153"/>
+      <c r="H190" s="153"/>
+      <c r="I190" s="153"/>
+      <c r="J190" s="153"/>
+      <c r="K190" s="153"/>
+      <c r="L190" s="153"/>
+      <c r="M190" s="153"/>
+      <c r="N190" s="153"/>
+      <c r="O190" s="153"/>
+      <c r="P190" s="153"/>
+      <c r="Q190" s="153"/>
+      <c r="R190" s="153"/>
+      <c r="S190" s="153"/>
+      <c r="T190" s="153"/>
+      <c r="U190" s="153"/>
     </row>
     <row r="191" spans="4:21">
-      <c r="D191" s="156"/>
-      <c r="E191" s="156"/>
-      <c r="F191" s="156"/>
-      <c r="G191" s="156"/>
-      <c r="H191" s="156"/>
-      <c r="I191" s="156"/>
-      <c r="J191" s="156"/>
-      <c r="K191" s="156"/>
-      <c r="L191" s="156"/>
-      <c r="M191" s="156"/>
-      <c r="N191" s="156"/>
-      <c r="O191" s="156"/>
-      <c r="P191" s="156"/>
-      <c r="Q191" s="156"/>
-      <c r="R191" s="156"/>
-      <c r="S191" s="156"/>
-      <c r="T191" s="156"/>
-      <c r="U191" s="156"/>
+      <c r="D191" s="153"/>
+      <c r="E191" s="153"/>
+      <c r="F191" s="153"/>
+      <c r="G191" s="153"/>
+      <c r="H191" s="153"/>
+      <c r="I191" s="153"/>
+      <c r="J191" s="153"/>
+      <c r="K191" s="153"/>
+      <c r="L191" s="153"/>
+      <c r="M191" s="153"/>
+      <c r="N191" s="153"/>
+      <c r="O191" s="153"/>
+      <c r="P191" s="153"/>
+      <c r="Q191" s="153"/>
+      <c r="R191" s="153"/>
+      <c r="S191" s="153"/>
+      <c r="T191" s="153"/>
+      <c r="U191" s="153"/>
     </row>
     <row r="192" spans="4:21">
-      <c r="D192" s="156"/>
-      <c r="E192" s="156"/>
-      <c r="F192" s="156"/>
-      <c r="G192" s="156"/>
-      <c r="H192" s="156"/>
-      <c r="I192" s="156"/>
-      <c r="J192" s="156"/>
-      <c r="K192" s="156"/>
-      <c r="L192" s="156"/>
-      <c r="M192" s="156"/>
-      <c r="N192" s="156"/>
-      <c r="O192" s="156"/>
-      <c r="P192" s="156"/>
-      <c r="Q192" s="156"/>
-      <c r="R192" s="156"/>
-      <c r="S192" s="156"/>
-      <c r="T192" s="156"/>
-      <c r="U192" s="156"/>
+      <c r="D192" s="153"/>
+      <c r="E192" s="153"/>
+      <c r="F192" s="153"/>
+      <c r="G192" s="153"/>
+      <c r="H192" s="153"/>
+      <c r="I192" s="153"/>
+      <c r="J192" s="153"/>
+      <c r="K192" s="153"/>
+      <c r="L192" s="153"/>
+      <c r="M192" s="153"/>
+      <c r="N192" s="153"/>
+      <c r="O192" s="153"/>
+      <c r="P192" s="153"/>
+      <c r="Q192" s="153"/>
+      <c r="R192" s="153"/>
+      <c r="S192" s="153"/>
+      <c r="T192" s="153"/>
+      <c r="U192" s="153"/>
     </row>
     <row r="193" spans="4:21">
-      <c r="D193" s="156"/>
-      <c r="E193" s="156"/>
-      <c r="F193" s="156"/>
-      <c r="G193" s="156"/>
-      <c r="H193" s="156"/>
-      <c r="I193" s="156"/>
-      <c r="J193" s="156"/>
-      <c r="K193" s="156"/>
-      <c r="L193" s="156"/>
-      <c r="M193" s="156"/>
-      <c r="N193" s="156"/>
-      <c r="O193" s="156"/>
-      <c r="P193" s="156"/>
-      <c r="Q193" s="156"/>
-      <c r="R193" s="156"/>
-      <c r="S193" s="156"/>
-      <c r="T193" s="156"/>
-      <c r="U193" s="156"/>
+      <c r="D193" s="153"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="153"/>
+      <c r="H193" s="153"/>
+      <c r="I193" s="153"/>
+      <c r="J193" s="153"/>
+      <c r="K193" s="153"/>
+      <c r="L193" s="153"/>
+      <c r="M193" s="153"/>
+      <c r="N193" s="153"/>
+      <c r="O193" s="153"/>
+      <c r="P193" s="153"/>
+      <c r="Q193" s="153"/>
+      <c r="R193" s="153"/>
+      <c r="S193" s="153"/>
+      <c r="T193" s="153"/>
+      <c r="U193" s="153"/>
     </row>
     <row r="194" spans="4:21">
-      <c r="D194" s="156"/>
-      <c r="E194" s="156"/>
-      <c r="F194" s="156"/>
-      <c r="G194" s="156"/>
-      <c r="H194" s="156"/>
-      <c r="I194" s="156"/>
-      <c r="J194" s="156"/>
-      <c r="K194" s="156"/>
-      <c r="L194" s="156"/>
-      <c r="M194" s="156"/>
-      <c r="N194" s="156"/>
-      <c r="O194" s="156"/>
-      <c r="P194" s="156"/>
-      <c r="Q194" s="156"/>
-      <c r="R194" s="156"/>
-      <c r="S194" s="156"/>
-      <c r="T194" s="156"/>
-      <c r="U194" s="156"/>
+      <c r="D194" s="153"/>
+      <c r="E194" s="153"/>
+      <c r="F194" s="153"/>
+      <c r="G194" s="153"/>
+      <c r="H194" s="153"/>
+      <c r="I194" s="153"/>
+      <c r="J194" s="153"/>
+      <c r="K194" s="153"/>
+      <c r="L194" s="153"/>
+      <c r="M194" s="153"/>
+      <c r="N194" s="153"/>
+      <c r="O194" s="153"/>
+      <c r="P194" s="153"/>
+      <c r="Q194" s="153"/>
+      <c r="R194" s="153"/>
+      <c r="S194" s="153"/>
+      <c r="T194" s="153"/>
+      <c r="U194" s="153"/>
     </row>
     <row r="195" spans="4:21">
-      <c r="D195" s="156"/>
-      <c r="E195" s="156"/>
-      <c r="F195" s="156"/>
-      <c r="G195" s="156"/>
-      <c r="H195" s="156"/>
-      <c r="I195" s="156"/>
-      <c r="J195" s="156"/>
-      <c r="K195" s="156"/>
-      <c r="L195" s="156"/>
-      <c r="M195" s="156"/>
-      <c r="N195" s="156"/>
-      <c r="O195" s="156"/>
-      <c r="P195" s="156"/>
-      <c r="Q195" s="156"/>
-      <c r="R195" s="156"/>
-      <c r="S195" s="156"/>
-      <c r="T195" s="156"/>
-      <c r="U195" s="156"/>
+      <c r="D195" s="153"/>
+      <c r="E195" s="153"/>
+      <c r="F195" s="153"/>
+      <c r="G195" s="153"/>
+      <c r="H195" s="153"/>
+      <c r="I195" s="153"/>
+      <c r="J195" s="153"/>
+      <c r="K195" s="153"/>
+      <c r="L195" s="153"/>
+      <c r="M195" s="153"/>
+      <c r="N195" s="153"/>
+      <c r="O195" s="153"/>
+      <c r="P195" s="153"/>
+      <c r="Q195" s="153"/>
+      <c r="R195" s="153"/>
+      <c r="S195" s="153"/>
+      <c r="T195" s="153"/>
+      <c r="U195" s="153"/>
     </row>
     <row r="196" spans="4:21">
-      <c r="D196" s="156"/>
-      <c r="E196" s="156"/>
-      <c r="F196" s="156"/>
-      <c r="G196" s="156"/>
-      <c r="H196" s="156"/>
-      <c r="I196" s="156"/>
-      <c r="J196" s="156"/>
-      <c r="K196" s="156"/>
-      <c r="L196" s="156"/>
-      <c r="M196" s="156"/>
-      <c r="N196" s="156"/>
-      <c r="O196" s="156"/>
-      <c r="P196" s="156"/>
-      <c r="Q196" s="156"/>
-      <c r="R196" s="156"/>
-      <c r="S196" s="156"/>
-      <c r="T196" s="156"/>
-      <c r="U196" s="156"/>
+      <c r="D196" s="153"/>
+      <c r="E196" s="153"/>
+      <c r="F196" s="153"/>
+      <c r="G196" s="153"/>
+      <c r="H196" s="153"/>
+      <c r="I196" s="153"/>
+      <c r="J196" s="153"/>
+      <c r="K196" s="153"/>
+      <c r="L196" s="153"/>
+      <c r="M196" s="153"/>
+      <c r="N196" s="153"/>
+      <c r="O196" s="153"/>
+      <c r="P196" s="153"/>
+      <c r="Q196" s="153"/>
+      <c r="R196" s="153"/>
+      <c r="S196" s="153"/>
+      <c r="T196" s="153"/>
+      <c r="U196" s="153"/>
     </row>
     <row r="197" spans="4:21">
-      <c r="D197" s="156"/>
-      <c r="E197" s="156"/>
-      <c r="F197" s="156"/>
-      <c r="G197" s="156"/>
-      <c r="H197" s="156"/>
-      <c r="I197" s="156"/>
-      <c r="J197" s="156"/>
-      <c r="K197" s="156"/>
-      <c r="L197" s="156"/>
-      <c r="M197" s="156"/>
-      <c r="N197" s="156"/>
-      <c r="O197" s="156"/>
-      <c r="P197" s="156"/>
-      <c r="Q197" s="156"/>
-      <c r="R197" s="156"/>
-      <c r="S197" s="156"/>
-      <c r="T197" s="156"/>
-      <c r="U197" s="156"/>
+      <c r="D197" s="153"/>
+      <c r="E197" s="153"/>
+      <c r="F197" s="153"/>
+      <c r="G197" s="153"/>
+      <c r="H197" s="153"/>
+      <c r="I197" s="153"/>
+      <c r="J197" s="153"/>
+      <c r="K197" s="153"/>
+      <c r="L197" s="153"/>
+      <c r="M197" s="153"/>
+      <c r="N197" s="153"/>
+      <c r="O197" s="153"/>
+      <c r="P197" s="153"/>
+      <c r="Q197" s="153"/>
+      <c r="R197" s="153"/>
+      <c r="S197" s="153"/>
+      <c r="T197" s="153"/>
+      <c r="U197" s="153"/>
     </row>
     <row r="198" spans="4:21">
-      <c r="D198" s="156"/>
-      <c r="E198" s="156"/>
-      <c r="F198" s="156"/>
-      <c r="G198" s="156"/>
-      <c r="H198" s="156"/>
-      <c r="I198" s="156"/>
-      <c r="J198" s="156"/>
-      <c r="K198" s="156"/>
-      <c r="L198" s="156"/>
-      <c r="M198" s="156"/>
-      <c r="N198" s="156"/>
-      <c r="O198" s="156"/>
-      <c r="P198" s="156"/>
-      <c r="Q198" s="156"/>
-      <c r="R198" s="156"/>
-      <c r="S198" s="156"/>
-      <c r="T198" s="156"/>
-      <c r="U198" s="156"/>
+      <c r="D198" s="153"/>
+      <c r="E198" s="153"/>
+      <c r="F198" s="153"/>
+      <c r="G198" s="153"/>
+      <c r="H198" s="153"/>
+      <c r="I198" s="153"/>
+      <c r="J198" s="153"/>
+      <c r="K198" s="153"/>
+      <c r="L198" s="153"/>
+      <c r="M198" s="153"/>
+      <c r="N198" s="153"/>
+      <c r="O198" s="153"/>
+      <c r="P198" s="153"/>
+      <c r="Q198" s="153"/>
+      <c r="R198" s="153"/>
+      <c r="S198" s="153"/>
+      <c r="T198" s="153"/>
+      <c r="U198" s="153"/>
     </row>
     <row r="199" spans="4:21">
-      <c r="D199" s="156"/>
-      <c r="E199" s="156"/>
-      <c r="F199" s="156"/>
-      <c r="G199" s="156"/>
-      <c r="H199" s="156"/>
-      <c r="I199" s="156"/>
-      <c r="J199" s="156"/>
-      <c r="K199" s="156"/>
-      <c r="L199" s="156"/>
-      <c r="M199" s="156"/>
-      <c r="N199" s="156"/>
-      <c r="O199" s="156"/>
-      <c r="P199" s="156"/>
-      <c r="Q199" s="156"/>
-      <c r="R199" s="156"/>
-      <c r="S199" s="156"/>
-      <c r="T199" s="156"/>
-      <c r="U199" s="156"/>
+      <c r="D199" s="153"/>
+      <c r="E199" s="153"/>
+      <c r="F199" s="153"/>
+      <c r="G199" s="153"/>
+      <c r="H199" s="153"/>
+      <c r="I199" s="153"/>
+      <c r="J199" s="153"/>
+      <c r="K199" s="153"/>
+      <c r="L199" s="153"/>
+      <c r="M199" s="153"/>
+      <c r="N199" s="153"/>
+      <c r="O199" s="153"/>
+      <c r="P199" s="153"/>
+      <c r="Q199" s="153"/>
+      <c r="R199" s="153"/>
+      <c r="S199" s="153"/>
+      <c r="T199" s="153"/>
+      <c r="U199" s="153"/>
     </row>
     <row r="200" spans="4:21">
-      <c r="D200" s="156"/>
-      <c r="E200" s="156"/>
-      <c r="F200" s="156"/>
-      <c r="G200" s="156"/>
-      <c r="H200" s="156"/>
-      <c r="I200" s="156"/>
-      <c r="J200" s="156"/>
-      <c r="K200" s="156"/>
-      <c r="L200" s="156"/>
-      <c r="M200" s="156"/>
-      <c r="N200" s="156"/>
-      <c r="O200" s="156"/>
-      <c r="P200" s="156"/>
-      <c r="Q200" s="156"/>
-      <c r="R200" s="156"/>
-      <c r="S200" s="156"/>
-      <c r="T200" s="156"/>
-      <c r="U200" s="156"/>
+      <c r="D200" s="153"/>
+      <c r="E200" s="153"/>
+      <c r="F200" s="153"/>
+      <c r="G200" s="153"/>
+      <c r="H200" s="153"/>
+      <c r="I200" s="153"/>
+      <c r="J200" s="153"/>
+      <c r="K200" s="153"/>
+      <c r="L200" s="153"/>
+      <c r="M200" s="153"/>
+      <c r="N200" s="153"/>
+      <c r="O200" s="153"/>
+      <c r="P200" s="153"/>
+      <c r="Q200" s="153"/>
+      <c r="R200" s="153"/>
+      <c r="S200" s="153"/>
+      <c r="T200" s="153"/>
+      <c r="U200" s="153"/>
     </row>
     <row r="201" spans="4:21">
-      <c r="D201" s="156"/>
-      <c r="E201" s="156"/>
-      <c r="F201" s="156"/>
-      <c r="G201" s="156"/>
-      <c r="H201" s="156"/>
-      <c r="I201" s="156"/>
-      <c r="J201" s="156"/>
-      <c r="K201" s="156"/>
-      <c r="L201" s="156"/>
-      <c r="M201" s="156"/>
-      <c r="N201" s="156"/>
-      <c r="O201" s="156"/>
-      <c r="P201" s="156"/>
-      <c r="Q201" s="156"/>
-      <c r="R201" s="156"/>
-      <c r="S201" s="156"/>
-      <c r="T201" s="156"/>
-      <c r="U201" s="156"/>
+      <c r="D201" s="153"/>
+      <c r="E201" s="153"/>
+      <c r="F201" s="153"/>
+      <c r="G201" s="153"/>
+      <c r="H201" s="153"/>
+      <c r="I201" s="153"/>
+      <c r="J201" s="153"/>
+      <c r="K201" s="153"/>
+      <c r="L201" s="153"/>
+      <c r="M201" s="153"/>
+      <c r="N201" s="153"/>
+      <c r="O201" s="153"/>
+      <c r="P201" s="153"/>
+      <c r="Q201" s="153"/>
+      <c r="R201" s="153"/>
+      <c r="S201" s="153"/>
+      <c r="T201" s="153"/>
+      <c r="U201" s="153"/>
     </row>
     <row r="202" spans="4:21">
-      <c r="D202" s="156"/>
-      <c r="E202" s="156"/>
-      <c r="F202" s="156"/>
-      <c r="G202" s="156"/>
-      <c r="H202" s="156"/>
-      <c r="I202" s="156"/>
-      <c r="J202" s="156"/>
-      <c r="K202" s="156"/>
-      <c r="L202" s="156"/>
-      <c r="M202" s="156"/>
-      <c r="N202" s="156"/>
-      <c r="O202" s="156"/>
-      <c r="P202" s="156"/>
-      <c r="Q202" s="156"/>
-      <c r="R202" s="156"/>
-      <c r="S202" s="156"/>
-      <c r="T202" s="156"/>
-      <c r="U202" s="156"/>
+      <c r="D202" s="153"/>
+      <c r="E202" s="153"/>
+      <c r="F202" s="153"/>
+      <c r="G202" s="153"/>
+      <c r="H202" s="153"/>
+      <c r="I202" s="153"/>
+      <c r="J202" s="153"/>
+      <c r="K202" s="153"/>
+      <c r="L202" s="153"/>
+      <c r="M202" s="153"/>
+      <c r="N202" s="153"/>
+      <c r="O202" s="153"/>
+      <c r="P202" s="153"/>
+      <c r="Q202" s="153"/>
+      <c r="R202" s="153"/>
+      <c r="S202" s="153"/>
+      <c r="T202" s="153"/>
+      <c r="U202" s="153"/>
     </row>
     <row r="203" spans="4:21">
-      <c r="D203" s="156"/>
-      <c r="E203" s="156"/>
-      <c r="F203" s="156"/>
-      <c r="G203" s="156"/>
-      <c r="H203" s="156"/>
-      <c r="I203" s="156"/>
-      <c r="J203" s="156"/>
-      <c r="K203" s="156"/>
-      <c r="L203" s="156"/>
-      <c r="M203" s="156"/>
-      <c r="N203" s="156"/>
-      <c r="O203" s="156"/>
-      <c r="P203" s="156"/>
-      <c r="Q203" s="156"/>
-      <c r="R203" s="156"/>
-      <c r="S203" s="156"/>
-      <c r="T203" s="156"/>
-      <c r="U203" s="156"/>
+      <c r="D203" s="153"/>
+      <c r="E203" s="153"/>
+      <c r="F203" s="153"/>
+      <c r="G203" s="153"/>
+      <c r="H203" s="153"/>
+      <c r="I203" s="153"/>
+      <c r="J203" s="153"/>
+      <c r="K203" s="153"/>
+      <c r="L203" s="153"/>
+      <c r="M203" s="153"/>
+      <c r="N203" s="153"/>
+      <c r="O203" s="153"/>
+      <c r="P203" s="153"/>
+      <c r="Q203" s="153"/>
+      <c r="R203" s="153"/>
+      <c r="S203" s="153"/>
+      <c r="T203" s="153"/>
+      <c r="U203" s="153"/>
     </row>
     <row r="204" spans="4:21">
-      <c r="D204" s="156"/>
-      <c r="E204" s="156"/>
-      <c r="F204" s="156"/>
-      <c r="G204" s="156"/>
-      <c r="H204" s="156"/>
-      <c r="I204" s="156"/>
-      <c r="J204" s="156"/>
-      <c r="K204" s="156"/>
-      <c r="L204" s="156"/>
-      <c r="M204" s="156"/>
-      <c r="N204" s="156"/>
-      <c r="O204" s="156"/>
-      <c r="P204" s="156"/>
-      <c r="Q204" s="156"/>
-      <c r="R204" s="156"/>
-      <c r="S204" s="156"/>
-      <c r="T204" s="156"/>
-      <c r="U204" s="156"/>
+      <c r="D204" s="153"/>
+      <c r="E204" s="153"/>
+      <c r="F204" s="153"/>
+      <c r="G204" s="153"/>
+      <c r="H204" s="153"/>
+      <c r="I204" s="153"/>
+      <c r="J204" s="153"/>
+      <c r="K204" s="153"/>
+      <c r="L204" s="153"/>
+      <c r="M204" s="153"/>
+      <c r="N204" s="153"/>
+      <c r="O204" s="153"/>
+      <c r="P204" s="153"/>
+      <c r="Q204" s="153"/>
+      <c r="R204" s="153"/>
+      <c r="S204" s="153"/>
+      <c r="T204" s="153"/>
+      <c r="U204" s="153"/>
     </row>
     <row r="205" spans="4:21">
-      <c r="D205" s="156"/>
-      <c r="E205" s="156"/>
-      <c r="F205" s="156"/>
-      <c r="G205" s="156"/>
-      <c r="H205" s="156"/>
-      <c r="I205" s="156"/>
-      <c r="J205" s="156"/>
-      <c r="K205" s="156"/>
-      <c r="L205" s="156"/>
-      <c r="M205" s="156"/>
-      <c r="N205" s="156"/>
-      <c r="O205" s="156"/>
-      <c r="P205" s="156"/>
-      <c r="Q205" s="156"/>
-      <c r="R205" s="156"/>
-      <c r="S205" s="156"/>
-      <c r="T205" s="156"/>
-      <c r="U205" s="156"/>
+      <c r="D205" s="153"/>
+      <c r="E205" s="153"/>
+      <c r="F205" s="153"/>
+      <c r="G205" s="153"/>
+      <c r="H205" s="153"/>
+      <c r="I205" s="153"/>
+      <c r="J205" s="153"/>
+      <c r="K205" s="153"/>
+      <c r="L205" s="153"/>
+      <c r="M205" s="153"/>
+      <c r="N205" s="153"/>
+      <c r="O205" s="153"/>
+      <c r="P205" s="153"/>
+      <c r="Q205" s="153"/>
+      <c r="R205" s="153"/>
+      <c r="S205" s="153"/>
+      <c r="T205" s="153"/>
+      <c r="U205" s="153"/>
     </row>
     <row r="206" spans="4:21">
-      <c r="D206" s="156"/>
-      <c r="E206" s="156"/>
-      <c r="F206" s="156"/>
-      <c r="G206" s="156"/>
-      <c r="H206" s="156"/>
-      <c r="I206" s="156"/>
-      <c r="J206" s="156"/>
-      <c r="K206" s="156"/>
-      <c r="L206" s="156"/>
-      <c r="M206" s="156"/>
-      <c r="N206" s="156"/>
-      <c r="O206" s="156"/>
-      <c r="P206" s="156"/>
-      <c r="Q206" s="156"/>
-      <c r="R206" s="156"/>
-      <c r="S206" s="156"/>
-      <c r="T206" s="156"/>
-      <c r="U206" s="156"/>
+      <c r="D206" s="153"/>
+      <c r="E206" s="153"/>
+      <c r="F206" s="153"/>
+      <c r="G206" s="153"/>
+      <c r="H206" s="153"/>
+      <c r="I206" s="153"/>
+      <c r="J206" s="153"/>
+      <c r="K206" s="153"/>
+      <c r="L206" s="153"/>
+      <c r="M206" s="153"/>
+      <c r="N206" s="153"/>
+      <c r="O206" s="153"/>
+      <c r="P206" s="153"/>
+      <c r="Q206" s="153"/>
+      <c r="R206" s="153"/>
+      <c r="S206" s="153"/>
+      <c r="T206" s="153"/>
+      <c r="U206" s="153"/>
     </row>
     <row r="207" spans="4:21">
-      <c r="D207" s="156"/>
-      <c r="E207" s="156"/>
-      <c r="F207" s="156"/>
-      <c r="G207" s="156"/>
-      <c r="H207" s="156"/>
-      <c r="I207" s="156"/>
-      <c r="J207" s="156"/>
-      <c r="K207" s="156"/>
-      <c r="L207" s="156"/>
-      <c r="M207" s="156"/>
-      <c r="N207" s="156"/>
-      <c r="O207" s="156"/>
-      <c r="P207" s="156"/>
-      <c r="Q207" s="156"/>
-      <c r="R207" s="156"/>
-      <c r="S207" s="156"/>
-      <c r="T207" s="156"/>
-      <c r="U207" s="156"/>
+      <c r="D207" s="153"/>
+      <c r="E207" s="153"/>
+      <c r="F207" s="153"/>
+      <c r="G207" s="153"/>
+      <c r="H207" s="153"/>
+      <c r="I207" s="153"/>
+      <c r="J207" s="153"/>
+      <c r="K207" s="153"/>
+      <c r="L207" s="153"/>
+      <c r="M207" s="153"/>
+      <c r="N207" s="153"/>
+      <c r="O207" s="153"/>
+      <c r="P207" s="153"/>
+      <c r="Q207" s="153"/>
+      <c r="R207" s="153"/>
+      <c r="S207" s="153"/>
+      <c r="T207" s="153"/>
+      <c r="U207" s="153"/>
     </row>
     <row r="208" spans="4:21">
-      <c r="D208" s="156"/>
-      <c r="E208" s="156"/>
-      <c r="F208" s="156"/>
-      <c r="G208" s="156"/>
-      <c r="H208" s="156"/>
-      <c r="I208" s="156"/>
-      <c r="J208" s="156"/>
-      <c r="K208" s="156"/>
-      <c r="L208" s="156"/>
-      <c r="M208" s="156"/>
-      <c r="N208" s="156"/>
-      <c r="O208" s="156"/>
-      <c r="P208" s="156"/>
-      <c r="Q208" s="156"/>
-      <c r="R208" s="156"/>
-      <c r="S208" s="156"/>
-      <c r="T208" s="156"/>
-      <c r="U208" s="156"/>
+      <c r="D208" s="153"/>
+      <c r="E208" s="153"/>
+      <c r="F208" s="153"/>
+      <c r="G208" s="153"/>
+      <c r="H208" s="153"/>
+      <c r="I208" s="153"/>
+      <c r="J208" s="153"/>
+      <c r="K208" s="153"/>
+      <c r="L208" s="153"/>
+      <c r="M208" s="153"/>
+      <c r="N208" s="153"/>
+      <c r="O208" s="153"/>
+      <c r="P208" s="153"/>
+      <c r="Q208" s="153"/>
+      <c r="R208" s="153"/>
+      <c r="S208" s="153"/>
+      <c r="T208" s="153"/>
+      <c r="U208" s="153"/>
     </row>
     <row r="209" spans="4:21">
-      <c r="D209" s="156"/>
-      <c r="E209" s="156"/>
-      <c r="F209" s="156"/>
-      <c r="G209" s="156"/>
-      <c r="H209" s="156"/>
-      <c r="I209" s="156"/>
-      <c r="J209" s="156"/>
-      <c r="K209" s="156"/>
-      <c r="L209" s="156"/>
-      <c r="M209" s="156"/>
-      <c r="N209" s="156"/>
-      <c r="O209" s="156"/>
-      <c r="P209" s="156"/>
-      <c r="Q209" s="156"/>
-      <c r="R209" s="156"/>
-      <c r="S209" s="156"/>
-      <c r="T209" s="156"/>
-      <c r="U209" s="156"/>
+      <c r="D209" s="153"/>
+      <c r="E209" s="153"/>
+      <c r="F209" s="153"/>
+      <c r="G209" s="153"/>
+      <c r="H209" s="153"/>
+      <c r="I209" s="153"/>
+      <c r="J209" s="153"/>
+      <c r="K209" s="153"/>
+      <c r="L209" s="153"/>
+      <c r="M209" s="153"/>
+      <c r="N209" s="153"/>
+      <c r="O209" s="153"/>
+      <c r="P209" s="153"/>
+      <c r="Q209" s="153"/>
+      <c r="R209" s="153"/>
+      <c r="S209" s="153"/>
+      <c r="T209" s="153"/>
+      <c r="U209" s="153"/>
     </row>
     <row r="210" spans="4:21">
-      <c r="D210" s="156"/>
-      <c r="E210" s="156"/>
-      <c r="F210" s="156"/>
-      <c r="G210" s="156"/>
-      <c r="H210" s="156"/>
-      <c r="I210" s="156"/>
-      <c r="J210" s="156"/>
-      <c r="K210" s="156"/>
-      <c r="L210" s="156"/>
-      <c r="M210" s="156"/>
-      <c r="N210" s="156"/>
-      <c r="O210" s="156"/>
-      <c r="P210" s="156"/>
-      <c r="Q210" s="156"/>
-      <c r="R210" s="156"/>
-      <c r="S210" s="156"/>
-      <c r="T210" s="156"/>
-      <c r="U210" s="156"/>
+      <c r="D210" s="153"/>
+      <c r="E210" s="153"/>
+      <c r="F210" s="153"/>
+      <c r="G210" s="153"/>
+      <c r="H210" s="153"/>
+      <c r="I210" s="153"/>
+      <c r="J210" s="153"/>
+      <c r="K210" s="153"/>
+      <c r="L210" s="153"/>
+      <c r="M210" s="153"/>
+      <c r="N210" s="153"/>
+      <c r="O210" s="153"/>
+      <c r="P210" s="153"/>
+      <c r="Q210" s="153"/>
+      <c r="R210" s="153"/>
+      <c r="S210" s="153"/>
+      <c r="T210" s="153"/>
+      <c r="U210" s="153"/>
     </row>
     <row r="211" spans="4:21">
-      <c r="D211" s="156"/>
-      <c r="E211" s="156"/>
-      <c r="F211" s="156"/>
-      <c r="G211" s="156"/>
-      <c r="H211" s="156"/>
-      <c r="I211" s="156"/>
-      <c r="J211" s="156"/>
-      <c r="K211" s="156"/>
-      <c r="L211" s="156"/>
-      <c r="M211" s="156"/>
-      <c r="N211" s="156"/>
-      <c r="O211" s="156"/>
-      <c r="P211" s="156"/>
-      <c r="Q211" s="156"/>
-      <c r="R211" s="156"/>
-      <c r="S211" s="156"/>
-      <c r="T211" s="156"/>
-      <c r="U211" s="156"/>
+      <c r="D211" s="153"/>
+      <c r="E211" s="153"/>
+      <c r="F211" s="153"/>
+      <c r="G211" s="153"/>
+      <c r="H211" s="153"/>
+      <c r="I211" s="153"/>
+      <c r="J211" s="153"/>
+      <c r="K211" s="153"/>
+      <c r="L211" s="153"/>
+      <c r="M211" s="153"/>
+      <c r="N211" s="153"/>
+      <c r="O211" s="153"/>
+      <c r="P211" s="153"/>
+      <c r="Q211" s="153"/>
+      <c r="R211" s="153"/>
+      <c r="S211" s="153"/>
+      <c r="T211" s="153"/>
+      <c r="U211" s="153"/>
     </row>
     <row r="212" spans="4:21">
-      <c r="D212" s="156"/>
-      <c r="E212" s="156"/>
-      <c r="F212" s="156"/>
-      <c r="G212" s="156"/>
-      <c r="H212" s="156"/>
-      <c r="I212" s="156"/>
-      <c r="J212" s="156"/>
-      <c r="K212" s="156"/>
-      <c r="L212" s="156"/>
-      <c r="M212" s="156"/>
-      <c r="N212" s="156"/>
-      <c r="O212" s="156"/>
-      <c r="P212" s="156"/>
-      <c r="Q212" s="156"/>
-      <c r="R212" s="156"/>
-      <c r="S212" s="156"/>
-      <c r="T212" s="156"/>
-      <c r="U212" s="156"/>
+      <c r="D212" s="153"/>
+      <c r="E212" s="153"/>
+      <c r="F212" s="153"/>
+      <c r="G212" s="153"/>
+      <c r="H212" s="153"/>
+      <c r="I212" s="153"/>
+      <c r="J212" s="153"/>
+      <c r="K212" s="153"/>
+      <c r="L212" s="153"/>
+      <c r="M212" s="153"/>
+      <c r="N212" s="153"/>
+      <c r="O212" s="153"/>
+      <c r="P212" s="153"/>
+      <c r="Q212" s="153"/>
+      <c r="R212" s="153"/>
+      <c r="S212" s="153"/>
+      <c r="T212" s="153"/>
+      <c r="U212" s="153"/>
     </row>
     <row r="213" spans="4:21">
-      <c r="D213" s="156"/>
-      <c r="E213" s="156"/>
-      <c r="F213" s="156"/>
-      <c r="G213" s="156"/>
-      <c r="H213" s="156"/>
-      <c r="I213" s="156"/>
-      <c r="J213" s="156"/>
-      <c r="K213" s="156"/>
-      <c r="L213" s="156"/>
-      <c r="M213" s="156"/>
-      <c r="N213" s="156"/>
-      <c r="O213" s="156"/>
-      <c r="P213" s="156"/>
-      <c r="Q213" s="156"/>
-      <c r="R213" s="156"/>
-      <c r="S213" s="156"/>
-      <c r="T213" s="156"/>
-      <c r="U213" s="156"/>
+      <c r="D213" s="153"/>
+      <c r="E213" s="153"/>
+      <c r="F213" s="153"/>
+      <c r="G213" s="153"/>
+      <c r="H213" s="153"/>
+      <c r="I213" s="153"/>
+      <c r="J213" s="153"/>
+      <c r="K213" s="153"/>
+      <c r="L213" s="153"/>
+      <c r="M213" s="153"/>
+      <c r="N213" s="153"/>
+      <c r="O213" s="153"/>
+      <c r="P213" s="153"/>
+      <c r="Q213" s="153"/>
+      <c r="R213" s="153"/>
+      <c r="S213" s="153"/>
+      <c r="T213" s="153"/>
+      <c r="U213" s="153"/>
     </row>
     <row r="214" spans="4:21">
-      <c r="D214" s="156"/>
-      <c r="E214" s="156"/>
-      <c r="F214" s="156"/>
-      <c r="G214" s="156"/>
-      <c r="H214" s="156"/>
-      <c r="I214" s="156"/>
-      <c r="J214" s="156"/>
-      <c r="K214" s="156"/>
-      <c r="L214" s="156"/>
-      <c r="M214" s="156"/>
-      <c r="N214" s="156"/>
-      <c r="O214" s="156"/>
-      <c r="P214" s="156"/>
-      <c r="Q214" s="156"/>
-      <c r="R214" s="156"/>
-      <c r="S214" s="156"/>
-      <c r="T214" s="156"/>
-      <c r="U214" s="156"/>
+      <c r="D214" s="153"/>
+      <c r="E214" s="153"/>
+      <c r="F214" s="153"/>
+      <c r="G214" s="153"/>
+      <c r="H214" s="153"/>
+      <c r="I214" s="153"/>
+      <c r="J214" s="153"/>
+      <c r="K214" s="153"/>
+      <c r="L214" s="153"/>
+      <c r="M214" s="153"/>
+      <c r="N214" s="153"/>
+      <c r="O214" s="153"/>
+      <c r="P214" s="153"/>
+      <c r="Q214" s="153"/>
+      <c r="R214" s="153"/>
+      <c r="S214" s="153"/>
+      <c r="T214" s="153"/>
+      <c r="U214" s="153"/>
     </row>
     <row r="215" spans="4:21">
-      <c r="D215" s="156"/>
-      <c r="E215" s="156"/>
-      <c r="F215" s="156"/>
-      <c r="G215" s="156"/>
-      <c r="H215" s="156"/>
-      <c r="I215" s="156"/>
-      <c r="J215" s="156"/>
-      <c r="K215" s="156"/>
-      <c r="L215" s="156"/>
-      <c r="M215" s="156"/>
-      <c r="N215" s="156"/>
-      <c r="O215" s="156"/>
-      <c r="P215" s="156"/>
-      <c r="Q215" s="156"/>
-      <c r="R215" s="156"/>
-      <c r="S215" s="156"/>
-      <c r="T215" s="156"/>
-      <c r="U215" s="156"/>
+      <c r="D215" s="153"/>
+      <c r="E215" s="153"/>
+      <c r="F215" s="153"/>
+      <c r="G215" s="153"/>
+      <c r="H215" s="153"/>
+      <c r="I215" s="153"/>
+      <c r="J215" s="153"/>
+      <c r="K215" s="153"/>
+      <c r="L215" s="153"/>
+      <c r="M215" s="153"/>
+      <c r="N215" s="153"/>
+      <c r="O215" s="153"/>
+      <c r="P215" s="153"/>
+      <c r="Q215" s="153"/>
+      <c r="R215" s="153"/>
+      <c r="S215" s="153"/>
+      <c r="T215" s="153"/>
+      <c r="U215" s="153"/>
     </row>
     <row r="216" spans="4:21">
-      <c r="D216" s="156"/>
-      <c r="E216" s="156"/>
-      <c r="F216" s="156"/>
-      <c r="G216" s="156"/>
-      <c r="H216" s="156"/>
-      <c r="I216" s="156"/>
-      <c r="J216" s="156"/>
-      <c r="K216" s="156"/>
-      <c r="L216" s="156"/>
-      <c r="M216" s="156"/>
-      <c r="N216" s="156"/>
-      <c r="O216" s="156"/>
-      <c r="P216" s="156"/>
-      <c r="Q216" s="156"/>
-      <c r="R216" s="156"/>
-      <c r="S216" s="156"/>
-      <c r="T216" s="156"/>
-      <c r="U216" s="156"/>
+      <c r="D216" s="153"/>
+      <c r="E216" s="153"/>
+      <c r="F216" s="153"/>
+      <c r="G216" s="153"/>
+      <c r="H216" s="153"/>
+      <c r="I216" s="153"/>
+      <c r="J216" s="153"/>
+      <c r="K216" s="153"/>
+      <c r="L216" s="153"/>
+      <c r="M216" s="153"/>
+      <c r="N216" s="153"/>
+      <c r="O216" s="153"/>
+      <c r="P216" s="153"/>
+      <c r="Q216" s="153"/>
+      <c r="R216" s="153"/>
+      <c r="S216" s="153"/>
+      <c r="T216" s="153"/>
+      <c r="U216" s="153"/>
     </row>
     <row r="217" spans="4:21">
-      <c r="D217" s="156"/>
-      <c r="E217" s="156"/>
-      <c r="F217" s="156"/>
-      <c r="G217" s="156"/>
-      <c r="H217" s="156"/>
-      <c r="I217" s="156"/>
-      <c r="J217" s="156"/>
-      <c r="K217" s="156"/>
-      <c r="L217" s="156"/>
-      <c r="M217" s="156"/>
-      <c r="N217" s="156"/>
-      <c r="O217" s="156"/>
-      <c r="P217" s="156"/>
-      <c r="Q217" s="156"/>
-      <c r="R217" s="156"/>
-      <c r="S217" s="156"/>
-      <c r="T217" s="156"/>
-      <c r="U217" s="156"/>
+      <c r="D217" s="153"/>
+      <c r="E217" s="153"/>
+      <c r="F217" s="153"/>
+      <c r="G217" s="153"/>
+      <c r="H217" s="153"/>
+      <c r="I217" s="153"/>
+      <c r="J217" s="153"/>
+      <c r="K217" s="153"/>
+      <c r="L217" s="153"/>
+      <c r="M217" s="153"/>
+      <c r="N217" s="153"/>
+      <c r="O217" s="153"/>
+      <c r="P217" s="153"/>
+      <c r="Q217" s="153"/>
+      <c r="R217" s="153"/>
+      <c r="S217" s="153"/>
+      <c r="T217" s="153"/>
+      <c r="U217" s="153"/>
     </row>
     <row r="218" spans="4:21">
-      <c r="D218" s="156"/>
-      <c r="E218" s="156"/>
-      <c r="F218" s="156"/>
-      <c r="G218" s="156"/>
-      <c r="H218" s="156"/>
-      <c r="I218" s="156"/>
-      <c r="J218" s="156"/>
-      <c r="K218" s="156"/>
-      <c r="L218" s="156"/>
-      <c r="M218" s="156"/>
-      <c r="N218" s="156"/>
-      <c r="O218" s="156"/>
-      <c r="P218" s="156"/>
-      <c r="Q218" s="156"/>
-      <c r="R218" s="156"/>
-      <c r="S218" s="156"/>
-      <c r="T218" s="156"/>
-      <c r="U218" s="156"/>
+      <c r="D218" s="153"/>
+      <c r="E218" s="153"/>
+      <c r="F218" s="153"/>
+      <c r="G218" s="153"/>
+      <c r="H218" s="153"/>
+      <c r="I218" s="153"/>
+      <c r="J218" s="153"/>
+      <c r="K218" s="153"/>
+      <c r="L218" s="153"/>
+      <c r="M218" s="153"/>
+      <c r="N218" s="153"/>
+      <c r="O218" s="153"/>
+      <c r="P218" s="153"/>
+      <c r="Q218" s="153"/>
+      <c r="R218" s="153"/>
+      <c r="S218" s="153"/>
+      <c r="T218" s="153"/>
+      <c r="U218" s="153"/>
     </row>
     <row r="219" spans="4:21">
-      <c r="D219" s="156"/>
-      <c r="E219" s="156"/>
-      <c r="F219" s="156"/>
-      <c r="G219" s="156"/>
-      <c r="H219" s="156"/>
-      <c r="I219" s="156"/>
-      <c r="J219" s="156"/>
-      <c r="K219" s="156"/>
-      <c r="L219" s="156"/>
-      <c r="M219" s="156"/>
-      <c r="N219" s="156"/>
-      <c r="O219" s="156"/>
-      <c r="P219" s="156"/>
-      <c r="Q219" s="156"/>
-      <c r="R219" s="156"/>
-      <c r="S219" s="156"/>
-      <c r="T219" s="156"/>
-      <c r="U219" s="156"/>
+      <c r="D219" s="153"/>
+      <c r="E219" s="153"/>
+      <c r="F219" s="153"/>
+      <c r="G219" s="153"/>
+      <c r="H219" s="153"/>
+      <c r="I219" s="153"/>
+      <c r="J219" s="153"/>
+      <c r="K219" s="153"/>
+      <c r="L219" s="153"/>
+      <c r="M219" s="153"/>
+      <c r="N219" s="153"/>
+      <c r="O219" s="153"/>
+      <c r="P219" s="153"/>
+      <c r="Q219" s="153"/>
+      <c r="R219" s="153"/>
+      <c r="S219" s="153"/>
+      <c r="T219" s="153"/>
+      <c r="U219" s="153"/>
     </row>
     <row r="220" spans="4:21">
-      <c r="D220" s="156"/>
-      <c r="E220" s="156"/>
-      <c r="F220" s="156"/>
-      <c r="G220" s="156"/>
-      <c r="H220" s="156"/>
-      <c r="I220" s="156"/>
-      <c r="J220" s="156"/>
-      <c r="K220" s="156"/>
-      <c r="L220" s="156"/>
-      <c r="M220" s="156"/>
-      <c r="N220" s="156"/>
-      <c r="O220" s="156"/>
-      <c r="P220" s="156"/>
-      <c r="Q220" s="156"/>
-      <c r="R220" s="156"/>
-      <c r="S220" s="156"/>
-      <c r="T220" s="156"/>
-      <c r="U220" s="156"/>
+      <c r="D220" s="153"/>
+      <c r="E220" s="153"/>
+      <c r="F220" s="153"/>
+      <c r="G220" s="153"/>
+      <c r="H220" s="153"/>
+      <c r="I220" s="153"/>
+      <c r="J220" s="153"/>
+      <c r="K220" s="153"/>
+      <c r="L220" s="153"/>
+      <c r="M220" s="153"/>
+      <c r="N220" s="153"/>
+      <c r="O220" s="153"/>
+      <c r="P220" s="153"/>
+      <c r="Q220" s="153"/>
+      <c r="R220" s="153"/>
+      <c r="S220" s="153"/>
+      <c r="T220" s="153"/>
+      <c r="U220" s="153"/>
     </row>
     <row r="221" spans="4:21">
-      <c r="D221" s="156"/>
-      <c r="E221" s="156"/>
-      <c r="F221" s="156"/>
-      <c r="G221" s="156"/>
-      <c r="H221" s="156"/>
-      <c r="I221" s="156"/>
-      <c r="J221" s="156"/>
-      <c r="K221" s="156"/>
-      <c r="L221" s="156"/>
-      <c r="M221" s="156"/>
-      <c r="N221" s="156"/>
-      <c r="O221" s="156"/>
-      <c r="P221" s="156"/>
-      <c r="Q221" s="156"/>
-      <c r="R221" s="156"/>
-      <c r="S221" s="156"/>
-      <c r="T221" s="156"/>
-      <c r="U221" s="156"/>
+      <c r="D221" s="153"/>
+      <c r="E221" s="153"/>
+      <c r="F221" s="153"/>
+      <c r="G221" s="153"/>
+      <c r="H221" s="153"/>
+      <c r="I221" s="153"/>
+      <c r="J221" s="153"/>
+      <c r="K221" s="153"/>
+      <c r="L221" s="153"/>
+      <c r="M221" s="153"/>
+      <c r="N221" s="153"/>
+      <c r="O221" s="153"/>
+      <c r="P221" s="153"/>
+      <c r="Q221" s="153"/>
+      <c r="R221" s="153"/>
+      <c r="S221" s="153"/>
+      <c r="T221" s="153"/>
+      <c r="U221" s="153"/>
     </row>
     <row r="222" spans="4:21">
-      <c r="D222" s="156"/>
-      <c r="E222" s="156"/>
-      <c r="F222" s="156"/>
-      <c r="G222" s="156"/>
-      <c r="H222" s="156"/>
-      <c r="I222" s="156"/>
-      <c r="J222" s="156"/>
-      <c r="K222" s="156"/>
-      <c r="L222" s="156"/>
-      <c r="M222" s="156"/>
-      <c r="N222" s="156"/>
-      <c r="O222" s="156"/>
-      <c r="P222" s="156"/>
-      <c r="Q222" s="156"/>
-      <c r="R222" s="156"/>
-      <c r="S222" s="156"/>
-      <c r="T222" s="156"/>
-      <c r="U222" s="156"/>
+      <c r="D222" s="153"/>
+      <c r="E222" s="153"/>
+      <c r="F222" s="153"/>
+      <c r="G222" s="153"/>
+      <c r="H222" s="153"/>
+      <c r="I222" s="153"/>
+      <c r="J222" s="153"/>
+      <c r="K222" s="153"/>
+      <c r="L222" s="153"/>
+      <c r="M222" s="153"/>
+      <c r="N222" s="153"/>
+      <c r="O222" s="153"/>
+      <c r="P222" s="153"/>
+      <c r="Q222" s="153"/>
+      <c r="R222" s="153"/>
+      <c r="S222" s="153"/>
+      <c r="T222" s="153"/>
+      <c r="U222" s="153"/>
     </row>
     <row r="223" spans="4:21">
-      <c r="D223" s="156"/>
-      <c r="E223" s="156"/>
-      <c r="F223" s="156"/>
-      <c r="G223" s="156"/>
-      <c r="H223" s="156"/>
-      <c r="I223" s="156"/>
-      <c r="J223" s="156"/>
-      <c r="K223" s="156"/>
-      <c r="L223" s="156"/>
-      <c r="M223" s="156"/>
-      <c r="N223" s="156"/>
-      <c r="O223" s="156"/>
-      <c r="P223" s="156"/>
-      <c r="Q223" s="156"/>
-      <c r="R223" s="156"/>
-      <c r="S223" s="156"/>
-      <c r="T223" s="156"/>
-      <c r="U223" s="156"/>
+      <c r="D223" s="153"/>
+      <c r="E223" s="153"/>
+      <c r="F223" s="153"/>
+      <c r="G223" s="153"/>
+      <c r="H223" s="153"/>
+      <c r="I223" s="153"/>
+      <c r="J223" s="153"/>
+      <c r="K223" s="153"/>
+      <c r="L223" s="153"/>
+      <c r="M223" s="153"/>
+      <c r="N223" s="153"/>
+      <c r="O223" s="153"/>
+      <c r="P223" s="153"/>
+      <c r="Q223" s="153"/>
+      <c r="R223" s="153"/>
+      <c r="S223" s="153"/>
+      <c r="T223" s="153"/>
+      <c r="U223" s="153"/>
     </row>
     <row r="224" spans="4:21">
-      <c r="D224" s="156"/>
-      <c r="E224" s="156"/>
-      <c r="F224" s="156"/>
-      <c r="G224" s="156"/>
-      <c r="H224" s="156"/>
-      <c r="I224" s="156"/>
-      <c r="J224" s="156"/>
-      <c r="K224" s="156"/>
-      <c r="L224" s="156"/>
-      <c r="M224" s="156"/>
-      <c r="N224" s="156"/>
-      <c r="O224" s="156"/>
-      <c r="P224" s="156"/>
-      <c r="Q224" s="156"/>
-      <c r="R224" s="156"/>
-      <c r="S224" s="156"/>
-      <c r="T224" s="156"/>
-      <c r="U224" s="156"/>
+      <c r="D224" s="153"/>
+      <c r="E224" s="153"/>
+      <c r="F224" s="153"/>
+      <c r="G224" s="153"/>
+      <c r="H224" s="153"/>
+      <c r="I224" s="153"/>
+      <c r="J224" s="153"/>
+      <c r="K224" s="153"/>
+      <c r="L224" s="153"/>
+      <c r="M224" s="153"/>
+      <c r="N224" s="153"/>
+      <c r="O224" s="153"/>
+      <c r="P224" s="153"/>
+      <c r="Q224" s="153"/>
+      <c r="R224" s="153"/>
+      <c r="S224" s="153"/>
+      <c r="T224" s="153"/>
+      <c r="U224" s="153"/>
     </row>
     <row r="225" spans="4:21">
-      <c r="D225" s="156"/>
-      <c r="E225" s="156"/>
-      <c r="F225" s="156"/>
-      <c r="G225" s="156"/>
-      <c r="H225" s="156"/>
-      <c r="I225" s="156"/>
-      <c r="J225" s="156"/>
-      <c r="K225" s="156"/>
-      <c r="L225" s="156"/>
-      <c r="M225" s="156"/>
-      <c r="N225" s="156"/>
-      <c r="O225" s="156"/>
-      <c r="P225" s="156"/>
-      <c r="Q225" s="156"/>
-      <c r="R225" s="156"/>
-      <c r="S225" s="156"/>
-      <c r="T225" s="156"/>
-      <c r="U225" s="156"/>
+      <c r="D225" s="153"/>
+      <c r="E225" s="153"/>
+      <c r="F225" s="153"/>
+      <c r="G225" s="153"/>
+      <c r="H225" s="153"/>
+      <c r="I225" s="153"/>
+      <c r="J225" s="153"/>
+      <c r="K225" s="153"/>
+      <c r="L225" s="153"/>
+      <c r="M225" s="153"/>
+      <c r="N225" s="153"/>
+      <c r="O225" s="153"/>
+      <c r="P225" s="153"/>
+      <c r="Q225" s="153"/>
+      <c r="R225" s="153"/>
+      <c r="S225" s="153"/>
+      <c r="T225" s="153"/>
+      <c r="U225" s="153"/>
     </row>
     <row r="226" spans="4:21">
-      <c r="D226" s="156"/>
-      <c r="E226" s="156"/>
-      <c r="F226" s="156"/>
-      <c r="G226" s="156"/>
-      <c r="H226" s="156"/>
-      <c r="I226" s="156"/>
-      <c r="J226" s="156"/>
-      <c r="K226" s="156"/>
-      <c r="L226" s="156"/>
-      <c r="M226" s="156"/>
-      <c r="N226" s="156"/>
-      <c r="O226" s="156"/>
-      <c r="P226" s="156"/>
-      <c r="Q226" s="156"/>
-      <c r="R226" s="156"/>
-      <c r="S226" s="156"/>
-      <c r="T226" s="156"/>
-      <c r="U226" s="156"/>
+      <c r="D226" s="153"/>
+      <c r="E226" s="153"/>
+      <c r="F226" s="153"/>
+      <c r="G226" s="153"/>
+      <c r="H226" s="153"/>
+      <c r="I226" s="153"/>
+      <c r="J226" s="153"/>
+      <c r="K226" s="153"/>
+      <c r="L226" s="153"/>
+      <c r="M226" s="153"/>
+      <c r="N226" s="153"/>
+      <c r="O226" s="153"/>
+      <c r="P226" s="153"/>
+      <c r="Q226" s="153"/>
+      <c r="R226" s="153"/>
+      <c r="S226" s="153"/>
+      <c r="T226" s="153"/>
+      <c r="U226" s="153"/>
     </row>
     <row r="227" spans="4:21">
-      <c r="D227" s="156"/>
-      <c r="E227" s="156"/>
-      <c r="F227" s="156"/>
-      <c r="G227" s="156"/>
-      <c r="H227" s="156"/>
-      <c r="I227" s="156"/>
-      <c r="J227" s="156"/>
-      <c r="K227" s="156"/>
-      <c r="L227" s="156"/>
-      <c r="M227" s="156"/>
-      <c r="N227" s="156"/>
-      <c r="O227" s="156"/>
-      <c r="P227" s="156"/>
-      <c r="Q227" s="156"/>
-      <c r="R227" s="156"/>
-      <c r="S227" s="156"/>
-      <c r="T227" s="156"/>
-      <c r="U227" s="156"/>
+      <c r="D227" s="153"/>
+      <c r="E227" s="153"/>
+      <c r="F227" s="153"/>
+      <c r="G227" s="153"/>
+      <c r="H227" s="153"/>
+      <c r="I227" s="153"/>
+      <c r="J227" s="153"/>
+      <c r="K227" s="153"/>
+      <c r="L227" s="153"/>
+      <c r="M227" s="153"/>
+      <c r="N227" s="153"/>
+      <c r="O227" s="153"/>
+      <c r="P227" s="153"/>
+      <c r="Q227" s="153"/>
+      <c r="R227" s="153"/>
+      <c r="S227" s="153"/>
+      <c r="T227" s="153"/>
+      <c r="U227" s="153"/>
     </row>
     <row r="228" spans="4:21">
-      <c r="D228" s="156"/>
-      <c r="E228" s="156"/>
-      <c r="F228" s="156"/>
-      <c r="G228" s="156"/>
-      <c r="H228" s="156"/>
-      <c r="I228" s="156"/>
-      <c r="J228" s="156"/>
-      <c r="K228" s="156"/>
-      <c r="L228" s="156"/>
-      <c r="M228" s="156"/>
-      <c r="N228" s="156"/>
-      <c r="O228" s="156"/>
-      <c r="P228" s="156"/>
-      <c r="Q228" s="156"/>
-      <c r="R228" s="156"/>
-      <c r="S228" s="156"/>
-      <c r="T228" s="156"/>
-      <c r="U228" s="156"/>
+      <c r="D228" s="153"/>
+      <c r="E228" s="153"/>
+      <c r="F228" s="153"/>
+      <c r="G228" s="153"/>
+      <c r="H228" s="153"/>
+      <c r="I228" s="153"/>
+      <c r="J228" s="153"/>
+      <c r="K228" s="153"/>
+      <c r="L228" s="153"/>
+      <c r="M228" s="153"/>
+      <c r="N228" s="153"/>
+      <c r="O228" s="153"/>
+      <c r="P228" s="153"/>
+      <c r="Q228" s="153"/>
+      <c r="R228" s="153"/>
+      <c r="S228" s="153"/>
+      <c r="T228" s="153"/>
+      <c r="U228" s="153"/>
     </row>
     <row r="229" spans="4:21">
-      <c r="D229" s="156"/>
-      <c r="E229" s="156"/>
-      <c r="F229" s="156"/>
-      <c r="G229" s="156"/>
-      <c r="H229" s="156"/>
-      <c r="I229" s="156"/>
-      <c r="J229" s="156"/>
-      <c r="K229" s="156"/>
-      <c r="L229" s="156"/>
-      <c r="M229" s="156"/>
-      <c r="N229" s="156"/>
-      <c r="O229" s="156"/>
-      <c r="P229" s="156"/>
-      <c r="Q229" s="156"/>
-      <c r="R229" s="156"/>
-      <c r="S229" s="156"/>
-      <c r="T229" s="156"/>
-      <c r="U229" s="156"/>
+      <c r="D229" s="153"/>
+      <c r="E229" s="153"/>
+      <c r="F229" s="153"/>
+      <c r="G229" s="153"/>
+      <c r="H229" s="153"/>
+      <c r="I229" s="153"/>
+      <c r="J229" s="153"/>
+      <c r="K229" s="153"/>
+      <c r="L229" s="153"/>
+      <c r="M229" s="153"/>
+      <c r="N229" s="153"/>
+      <c r="O229" s="153"/>
+      <c r="P229" s="153"/>
+      <c r="Q229" s="153"/>
+      <c r="R229" s="153"/>
+      <c r="S229" s="153"/>
+      <c r="T229" s="153"/>
+      <c r="U229" s="153"/>
     </row>
     <row r="230" spans="4:21">
-      <c r="D230" s="156"/>
-      <c r="E230" s="156"/>
-      <c r="F230" s="156"/>
-      <c r="G230" s="156"/>
-      <c r="H230" s="156"/>
-      <c r="I230" s="156"/>
-      <c r="J230" s="156"/>
-      <c r="K230" s="156"/>
-      <c r="L230" s="156"/>
-      <c r="M230" s="156"/>
-      <c r="N230" s="156"/>
-      <c r="O230" s="156"/>
-      <c r="P230" s="156"/>
-      <c r="Q230" s="156"/>
-      <c r="R230" s="156"/>
-      <c r="S230" s="156"/>
-      <c r="T230" s="156"/>
-      <c r="U230" s="156"/>
+      <c r="D230" s="153"/>
+      <c r="E230" s="153"/>
+      <c r="F230" s="153"/>
+      <c r="G230" s="153"/>
+      <c r="H230" s="153"/>
+      <c r="I230" s="153"/>
+      <c r="J230" s="153"/>
+      <c r="K230" s="153"/>
+      <c r="L230" s="153"/>
+      <c r="M230" s="153"/>
+      <c r="N230" s="153"/>
+      <c r="O230" s="153"/>
+      <c r="P230" s="153"/>
+      <c r="Q230" s="153"/>
+      <c r="R230" s="153"/>
+      <c r="S230" s="153"/>
+      <c r="T230" s="153"/>
+      <c r="U230" s="153"/>
     </row>
     <row r="231" spans="4:21">
-      <c r="D231" s="156"/>
-      <c r="E231" s="156"/>
-      <c r="F231" s="156"/>
-      <c r="G231" s="156"/>
-      <c r="H231" s="156"/>
-      <c r="I231" s="156"/>
-      <c r="J231" s="156"/>
-      <c r="K231" s="156"/>
-      <c r="L231" s="156"/>
-      <c r="M231" s="156"/>
-      <c r="N231" s="156"/>
-      <c r="O231" s="156"/>
-      <c r="P231" s="156"/>
-      <c r="Q231" s="156"/>
-      <c r="R231" s="156"/>
-      <c r="S231" s="156"/>
-      <c r="T231" s="156"/>
-      <c r="U231" s="156"/>
+      <c r="D231" s="153"/>
+      <c r="E231" s="153"/>
+      <c r="F231" s="153"/>
+      <c r="G231" s="153"/>
+      <c r="H231" s="153"/>
+      <c r="I231" s="153"/>
+      <c r="J231" s="153"/>
+      <c r="K231" s="153"/>
+      <c r="L231" s="153"/>
+      <c r="M231" s="153"/>
+      <c r="N231" s="153"/>
+      <c r="O231" s="153"/>
+      <c r="P231" s="153"/>
+      <c r="Q231" s="153"/>
+      <c r="R231" s="153"/>
+      <c r="S231" s="153"/>
+      <c r="T231" s="153"/>
+      <c r="U231" s="153"/>
     </row>
     <row r="232" spans="4:21">
-      <c r="D232" s="156"/>
-      <c r="E232" s="156"/>
-      <c r="F232" s="156"/>
-      <c r="G232" s="156"/>
-      <c r="H232" s="156"/>
-      <c r="I232" s="156"/>
-      <c r="J232" s="156"/>
-      <c r="K232" s="156"/>
-      <c r="L232" s="156"/>
-      <c r="M232" s="156"/>
-      <c r="N232" s="156"/>
-      <c r="O232" s="156"/>
-      <c r="P232" s="156"/>
-      <c r="Q232" s="156"/>
-      <c r="R232" s="156"/>
-      <c r="S232" s="156"/>
-      <c r="T232" s="156"/>
-      <c r="U232" s="156"/>
+      <c r="D232" s="153"/>
+      <c r="E232" s="153"/>
+      <c r="F232" s="153"/>
+      <c r="G232" s="153"/>
+      <c r="H232" s="153"/>
+      <c r="I232" s="153"/>
+      <c r="J232" s="153"/>
+      <c r="K232" s="153"/>
+      <c r="L232" s="153"/>
+      <c r="M232" s="153"/>
+      <c r="N232" s="153"/>
+      <c r="O232" s="153"/>
+      <c r="P232" s="153"/>
+      <c r="Q232" s="153"/>
+      <c r="R232" s="153"/>
+      <c r="S232" s="153"/>
+      <c r="T232" s="153"/>
+      <c r="U232" s="153"/>
     </row>
     <row r="233" spans="4:21">
-      <c r="D233" s="156"/>
-      <c r="E233" s="156"/>
-      <c r="F233" s="156"/>
-      <c r="G233" s="156"/>
-      <c r="H233" s="156"/>
-      <c r="I233" s="156"/>
-      <c r="J233" s="156"/>
-      <c r="K233" s="156"/>
-      <c r="L233" s="156"/>
-      <c r="M233" s="156"/>
-      <c r="N233" s="156"/>
-      <c r="O233" s="156"/>
-      <c r="P233" s="156"/>
-      <c r="Q233" s="156"/>
-      <c r="R233" s="156"/>
-      <c r="S233" s="156"/>
-      <c r="T233" s="156"/>
-      <c r="U233" s="156"/>
+      <c r="D233" s="153"/>
+      <c r="E233" s="153"/>
+      <c r="F233" s="153"/>
+      <c r="G233" s="153"/>
+      <c r="H233" s="153"/>
+      <c r="I233" s="153"/>
+      <c r="J233" s="153"/>
+      <c r="K233" s="153"/>
+      <c r="L233" s="153"/>
+      <c r="M233" s="153"/>
+      <c r="N233" s="153"/>
+      <c r="O233" s="153"/>
+      <c r="P233" s="153"/>
+      <c r="Q233" s="153"/>
+      <c r="R233" s="153"/>
+      <c r="S233" s="153"/>
+      <c r="T233" s="153"/>
+      <c r="U233" s="153"/>
     </row>
     <row r="234" spans="4:21">
-      <c r="D234" s="156"/>
-      <c r="E234" s="156"/>
-      <c r="F234" s="156"/>
-      <c r="G234" s="156"/>
-      <c r="H234" s="156"/>
-      <c r="I234" s="156"/>
-      <c r="J234" s="156"/>
-      <c r="K234" s="156"/>
-      <c r="L234" s="156"/>
-      <c r="M234" s="156"/>
-      <c r="N234" s="156"/>
-      <c r="O234" s="156"/>
-      <c r="P234" s="156"/>
-      <c r="Q234" s="156"/>
-      <c r="R234" s="156"/>
-      <c r="S234" s="156"/>
-      <c r="T234" s="156"/>
-      <c r="U234" s="156"/>
+      <c r="D234" s="153"/>
+      <c r="E234" s="153"/>
+      <c r="F234" s="153"/>
+      <c r="G234" s="153"/>
+      <c r="H234" s="153"/>
+      <c r="I234" s="153"/>
+      <c r="J234" s="153"/>
+      <c r="K234" s="153"/>
+      <c r="L234" s="153"/>
+      <c r="M234" s="153"/>
+      <c r="N234" s="153"/>
+      <c r="O234" s="153"/>
+      <c r="P234" s="153"/>
+      <c r="Q234" s="153"/>
+      <c r="R234" s="153"/>
+      <c r="S234" s="153"/>
+      <c r="T234" s="153"/>
+      <c r="U234" s="153"/>
     </row>
     <row r="235" spans="4:21">
-      <c r="D235" s="156"/>
-      <c r="E235" s="156"/>
-      <c r="F235" s="156"/>
-      <c r="G235" s="156"/>
-      <c r="H235" s="156"/>
-      <c r="I235" s="156"/>
-      <c r="J235" s="156"/>
-      <c r="K235" s="156"/>
-      <c r="L235" s="156"/>
-      <c r="M235" s="156"/>
-      <c r="N235" s="156"/>
-      <c r="O235" s="156"/>
-      <c r="P235" s="156"/>
-      <c r="Q235" s="156"/>
-      <c r="R235" s="156"/>
-      <c r="S235" s="156"/>
-      <c r="T235" s="156"/>
-      <c r="U235" s="156"/>
+      <c r="D235" s="153"/>
+      <c r="E235" s="153"/>
+      <c r="F235" s="153"/>
+      <c r="G235" s="153"/>
+      <c r="H235" s="153"/>
+      <c r="I235" s="153"/>
+      <c r="J235" s="153"/>
+      <c r="K235" s="153"/>
+      <c r="L235" s="153"/>
+      <c r="M235" s="153"/>
+      <c r="N235" s="153"/>
+      <c r="O235" s="153"/>
+      <c r="P235" s="153"/>
+      <c r="Q235" s="153"/>
+      <c r="R235" s="153"/>
+      <c r="S235" s="153"/>
+      <c r="T235" s="153"/>
+      <c r="U235" s="153"/>
     </row>
     <row r="236" spans="4:21">
-      <c r="D236" s="156"/>
-      <c r="E236" s="156"/>
-      <c r="F236" s="156"/>
-      <c r="G236" s="156"/>
-      <c r="H236" s="156"/>
-      <c r="I236" s="156"/>
-      <c r="J236" s="156"/>
-      <c r="K236" s="156"/>
-      <c r="L236" s="156"/>
-      <c r="M236" s="156"/>
-      <c r="N236" s="156"/>
-      <c r="O236" s="156"/>
-      <c r="P236" s="156"/>
-      <c r="Q236" s="156"/>
-      <c r="R236" s="156"/>
-      <c r="S236" s="156"/>
-      <c r="T236" s="156"/>
-      <c r="U236" s="156"/>
+      <c r="D236" s="153"/>
+      <c r="E236" s="153"/>
+      <c r="F236" s="153"/>
+      <c r="G236" s="153"/>
+      <c r="H236" s="153"/>
+      <c r="I236" s="153"/>
+      <c r="J236" s="153"/>
+      <c r="K236" s="153"/>
+      <c r="L236" s="153"/>
+      <c r="M236" s="153"/>
+      <c r="N236" s="153"/>
+      <c r="O236" s="153"/>
+      <c r="P236" s="153"/>
+      <c r="Q236" s="153"/>
+      <c r="R236" s="153"/>
+      <c r="S236" s="153"/>
+      <c r="T236" s="153"/>
+      <c r="U236" s="153"/>
     </row>
     <row r="237" spans="4:21">
-      <c r="D237" s="156"/>
-      <c r="E237" s="156"/>
-      <c r="F237" s="156"/>
-      <c r="G237" s="156"/>
-      <c r="H237" s="156"/>
-      <c r="I237" s="156"/>
-      <c r="J237" s="156"/>
-      <c r="K237" s="156"/>
-      <c r="L237" s="156"/>
-      <c r="M237" s="156"/>
-      <c r="N237" s="156"/>
-      <c r="O237" s="156"/>
-      <c r="P237" s="156"/>
-      <c r="Q237" s="156"/>
-      <c r="R237" s="156"/>
-      <c r="S237" s="156"/>
-      <c r="T237" s="156"/>
-      <c r="U237" s="156"/>
+      <c r="D237" s="153"/>
+      <c r="E237" s="153"/>
+      <c r="F237" s="153"/>
+      <c r="G237" s="153"/>
+      <c r="H237" s="153"/>
+      <c r="I237" s="153"/>
+      <c r="J237" s="153"/>
+      <c r="K237" s="153"/>
+      <c r="L237" s="153"/>
+      <c r="M237" s="153"/>
+      <c r="N237" s="153"/>
+      <c r="O237" s="153"/>
+      <c r="P237" s="153"/>
+      <c r="Q237" s="153"/>
+      <c r="R237" s="153"/>
+      <c r="S237" s="153"/>
+      <c r="T237" s="153"/>
+      <c r="U237" s="153"/>
     </row>
     <row r="238" spans="4:21">
-      <c r="D238" s="156"/>
-      <c r="E238" s="156"/>
-      <c r="F238" s="156"/>
-      <c r="G238" s="156"/>
-      <c r="H238" s="156"/>
-      <c r="I238" s="156"/>
-      <c r="J238" s="156"/>
-      <c r="K238" s="156"/>
-      <c r="L238" s="156"/>
-      <c r="M238" s="156"/>
-      <c r="N238" s="156"/>
-      <c r="O238" s="156"/>
-      <c r="P238" s="156"/>
-      <c r="Q238" s="156"/>
-      <c r="R238" s="156"/>
-      <c r="S238" s="156"/>
-      <c r="T238" s="156"/>
-      <c r="U238" s="156"/>
+      <c r="D238" s="153"/>
+      <c r="E238" s="153"/>
+      <c r="F238" s="153"/>
+      <c r="G238" s="153"/>
+      <c r="H238" s="153"/>
+      <c r="I238" s="153"/>
+      <c r="J238" s="153"/>
+      <c r="K238" s="153"/>
+      <c r="L238" s="153"/>
+      <c r="M238" s="153"/>
+      <c r="N238" s="153"/>
+      <c r="O238" s="153"/>
+      <c r="P238" s="153"/>
+      <c r="Q238" s="153"/>
+      <c r="R238" s="153"/>
+      <c r="S238" s="153"/>
+      <c r="T238" s="153"/>
+      <c r="U238" s="153"/>
     </row>
     <row r="239" spans="4:21">
-      <c r="D239" s="156"/>
-      <c r="E239" s="156"/>
-      <c r="F239" s="156"/>
-      <c r="G239" s="156"/>
-      <c r="H239" s="156"/>
-      <c r="I239" s="156"/>
-      <c r="J239" s="156"/>
-      <c r="K239" s="156"/>
-      <c r="L239" s="156"/>
-      <c r="M239" s="156"/>
-      <c r="N239" s="156"/>
-      <c r="O239" s="156"/>
-      <c r="P239" s="156"/>
-      <c r="Q239" s="156"/>
-      <c r="R239" s="156"/>
-      <c r="S239" s="156"/>
-      <c r="T239" s="156"/>
-      <c r="U239" s="156"/>
+      <c r="D239" s="153"/>
+      <c r="E239" s="153"/>
+      <c r="F239" s="153"/>
+      <c r="G239" s="153"/>
+      <c r="H239" s="153"/>
+      <c r="I239" s="153"/>
+      <c r="J239" s="153"/>
+      <c r="K239" s="153"/>
+      <c r="L239" s="153"/>
+      <c r="M239" s="153"/>
+      <c r="N239" s="153"/>
+      <c r="O239" s="153"/>
+      <c r="P239" s="153"/>
+      <c r="Q239" s="153"/>
+      <c r="R239" s="153"/>
+      <c r="S239" s="153"/>
+      <c r="T239" s="153"/>
+      <c r="U239" s="153"/>
     </row>
     <row r="240" spans="4:21">
-      <c r="D240" s="156"/>
-      <c r="E240" s="156"/>
-      <c r="F240" s="156"/>
-      <c r="G240" s="156"/>
-      <c r="H240" s="156"/>
-      <c r="I240" s="156"/>
-      <c r="J240" s="156"/>
-      <c r="K240" s="156"/>
-      <c r="L240" s="156"/>
-      <c r="M240" s="156"/>
-      <c r="N240" s="156"/>
-      <c r="O240" s="156"/>
-      <c r="P240" s="156"/>
-      <c r="Q240" s="156"/>
-      <c r="R240" s="156"/>
-      <c r="S240" s="156"/>
-      <c r="T240" s="156"/>
-      <c r="U240" s="156"/>
+      <c r="D240" s="153"/>
+      <c r="E240" s="153"/>
+      <c r="F240" s="153"/>
+      <c r="G240" s="153"/>
+      <c r="H240" s="153"/>
+      <c r="I240" s="153"/>
+      <c r="J240" s="153"/>
+      <c r="K240" s="153"/>
+      <c r="L240" s="153"/>
+      <c r="M240" s="153"/>
+      <c r="N240" s="153"/>
+      <c r="O240" s="153"/>
+      <c r="P240" s="153"/>
+      <c r="Q240" s="153"/>
+      <c r="R240" s="153"/>
+      <c r="S240" s="153"/>
+      <c r="T240" s="153"/>
+      <c r="U240" s="153"/>
     </row>
     <row r="241" spans="4:21">
-      <c r="D241" s="156"/>
-      <c r="E241" s="156"/>
-      <c r="F241" s="156"/>
-      <c r="G241" s="156"/>
-      <c r="H241" s="156"/>
-      <c r="I241" s="156"/>
-      <c r="J241" s="156"/>
-      <c r="K241" s="156"/>
-      <c r="L241" s="156"/>
-      <c r="M241" s="156"/>
-      <c r="N241" s="156"/>
-      <c r="O241" s="156"/>
-      <c r="P241" s="156"/>
-      <c r="Q241" s="156"/>
-      <c r="R241" s="156"/>
-      <c r="S241" s="156"/>
-      <c r="T241" s="156"/>
-      <c r="U241" s="156"/>
+      <c r="D241" s="153"/>
+      <c r="E241" s="153"/>
+      <c r="F241" s="153"/>
+      <c r="G241" s="153"/>
+      <c r="H241" s="153"/>
+      <c r="I241" s="153"/>
+      <c r="J241" s="153"/>
+      <c r="K241" s="153"/>
+      <c r="L241" s="153"/>
+      <c r="M241" s="153"/>
+      <c r="N241" s="153"/>
+      <c r="O241" s="153"/>
+      <c r="P241" s="153"/>
+      <c r="Q241" s="153"/>
+      <c r="R241" s="153"/>
+      <c r="S241" s="153"/>
+      <c r="T241" s="153"/>
+      <c r="U241" s="153"/>
     </row>
     <row r="242" spans="4:21">
-      <c r="D242" s="156"/>
-      <c r="E242" s="156"/>
-      <c r="F242" s="156"/>
-      <c r="G242" s="156"/>
-      <c r="H242" s="156"/>
-      <c r="I242" s="156"/>
-      <c r="J242" s="156"/>
-      <c r="K242" s="156"/>
-      <c r="L242" s="156"/>
-      <c r="M242" s="156"/>
-      <c r="N242" s="156"/>
-      <c r="O242" s="156"/>
-      <c r="P242" s="156"/>
-      <c r="Q242" s="156"/>
-      <c r="R242" s="156"/>
-      <c r="S242" s="156"/>
-      <c r="T242" s="156"/>
-      <c r="U242" s="156"/>
+      <c r="D242" s="153"/>
+      <c r="E242" s="153"/>
+      <c r="F242" s="153"/>
+      <c r="G242" s="153"/>
+      <c r="H242" s="153"/>
+      <c r="I242" s="153"/>
+      <c r="J242" s="153"/>
+      <c r="K242" s="153"/>
+      <c r="L242" s="153"/>
+      <c r="M242" s="153"/>
+      <c r="N242" s="153"/>
+      <c r="O242" s="153"/>
+      <c r="P242" s="153"/>
+      <c r="Q242" s="153"/>
+      <c r="R242" s="153"/>
+      <c r="S242" s="153"/>
+      <c r="T242" s="153"/>
+      <c r="U242" s="153"/>
     </row>
     <row r="243" spans="4:21">
-      <c r="D243" s="156"/>
-      <c r="E243" s="156"/>
-      <c r="F243" s="156"/>
-      <c r="G243" s="156"/>
-      <c r="H243" s="156"/>
-      <c r="I243" s="156"/>
-      <c r="J243" s="156"/>
-      <c r="K243" s="156"/>
-      <c r="L243" s="156"/>
-      <c r="M243" s="156"/>
-      <c r="N243" s="156"/>
-      <c r="O243" s="156"/>
-      <c r="P243" s="156"/>
-      <c r="Q243" s="156"/>
-      <c r="R243" s="156"/>
-      <c r="S243" s="156"/>
-      <c r="T243" s="156"/>
-      <c r="U243" s="156"/>
+      <c r="D243" s="153"/>
+      <c r="E243" s="153"/>
+      <c r="F243" s="153"/>
+      <c r="G243" s="153"/>
+      <c r="H243" s="153"/>
+      <c r="I243" s="153"/>
+      <c r="J243" s="153"/>
+      <c r="K243" s="153"/>
+      <c r="L243" s="153"/>
+      <c r="M243" s="153"/>
+      <c r="N243" s="153"/>
+      <c r="O243" s="153"/>
+      <c r="P243" s="153"/>
+      <c r="Q243" s="153"/>
+      <c r="R243" s="153"/>
+      <c r="S243" s="153"/>
+      <c r="T243" s="153"/>
+      <c r="U243" s="153"/>
     </row>
     <row r="244" spans="4:21">
-      <c r="D244" s="156"/>
-      <c r="E244" s="156"/>
-      <c r="F244" s="156"/>
-      <c r="G244" s="156"/>
-      <c r="H244" s="156"/>
-      <c r="I244" s="156"/>
-      <c r="J244" s="156"/>
-      <c r="K244" s="156"/>
-      <c r="L244" s="156"/>
-      <c r="M244" s="156"/>
-      <c r="N244" s="156"/>
-      <c r="O244" s="156"/>
-      <c r="P244" s="156"/>
-      <c r="Q244" s="156"/>
-      <c r="R244" s="156"/>
-      <c r="S244" s="156"/>
-      <c r="T244" s="156"/>
-      <c r="U244" s="156"/>
+      <c r="D244" s="153"/>
+      <c r="E244" s="153"/>
+      <c r="F244" s="153"/>
+      <c r="G244" s="153"/>
+      <c r="H244" s="153"/>
+      <c r="I244" s="153"/>
+      <c r="J244" s="153"/>
+      <c r="K244" s="153"/>
+      <c r="L244" s="153"/>
+      <c r="M244" s="153"/>
+      <c r="N244" s="153"/>
+      <c r="O244" s="153"/>
+      <c r="P244" s="153"/>
+      <c r="Q244" s="153"/>
+      <c r="R244" s="153"/>
+      <c r="S244" s="153"/>
+      <c r="T244" s="153"/>
+      <c r="U244" s="153"/>
     </row>
     <row r="245" spans="4:21">
-      <c r="D245" s="156"/>
-      <c r="E245" s="156"/>
-      <c r="F245" s="156"/>
-      <c r="G245" s="156"/>
-      <c r="H245" s="156"/>
-      <c r="I245" s="156"/>
-      <c r="J245" s="156"/>
-      <c r="K245" s="156"/>
-      <c r="L245" s="156"/>
-      <c r="M245" s="156"/>
-      <c r="N245" s="156"/>
-      <c r="O245" s="156"/>
-      <c r="P245" s="156"/>
-      <c r="Q245" s="156"/>
-      <c r="R245" s="156"/>
-      <c r="S245" s="156"/>
-      <c r="T245" s="156"/>
-      <c r="U245" s="156"/>
+      <c r="D245" s="153"/>
+      <c r="E245" s="153"/>
+      <c r="F245" s="153"/>
+      <c r="G245" s="153"/>
+      <c r="H245" s="153"/>
+      <c r="I245" s="153"/>
+      <c r="J245" s="153"/>
+      <c r="K245" s="153"/>
+      <c r="L245" s="153"/>
+      <c r="M245" s="153"/>
+      <c r="N245" s="153"/>
+      <c r="O245" s="153"/>
+      <c r="P245" s="153"/>
+      <c r="Q245" s="153"/>
+      <c r="R245" s="153"/>
+      <c r="S245" s="153"/>
+      <c r="T245" s="153"/>
+      <c r="U245" s="153"/>
     </row>
     <row r="246" spans="4:21">
-      <c r="D246" s="156"/>
-      <c r="E246" s="156"/>
-      <c r="F246" s="156"/>
-      <c r="G246" s="156"/>
-      <c r="H246" s="156"/>
-      <c r="I246" s="156"/>
-      <c r="J246" s="156"/>
-      <c r="K246" s="156"/>
-      <c r="L246" s="156"/>
-      <c r="M246" s="156"/>
-      <c r="N246" s="156"/>
-      <c r="O246" s="156"/>
-      <c r="P246" s="156"/>
-      <c r="Q246" s="156"/>
-      <c r="R246" s="156"/>
-      <c r="S246" s="156"/>
-      <c r="T246" s="156"/>
-      <c r="U246" s="156"/>
+      <c r="D246" s="153"/>
+      <c r="E246" s="153"/>
+      <c r="F246" s="153"/>
+      <c r="G246" s="153"/>
+      <c r="H246" s="153"/>
+      <c r="I246" s="153"/>
+      <c r="J246" s="153"/>
+      <c r="K246" s="153"/>
+      <c r="L246" s="153"/>
+      <c r="M246" s="153"/>
+      <c r="N246" s="153"/>
+      <c r="O246" s="153"/>
+      <c r="P246" s="153"/>
+      <c r="Q246" s="153"/>
+      <c r="R246" s="153"/>
+      <c r="S246" s="153"/>
+      <c r="T246" s="153"/>
+      <c r="U246" s="153"/>
     </row>
     <row r="247" spans="4:21">
-      <c r="D247" s="156"/>
-      <c r="E247" s="156"/>
-      <c r="F247" s="156"/>
-      <c r="G247" s="156"/>
-      <c r="H247" s="156"/>
-      <c r="I247" s="156"/>
-      <c r="J247" s="156"/>
-      <c r="K247" s="156"/>
-      <c r="L247" s="156"/>
-      <c r="M247" s="156"/>
-      <c r="N247" s="156"/>
-      <c r="O247" s="156"/>
-      <c r="P247" s="156"/>
-      <c r="Q247" s="156"/>
-      <c r="R247" s="156"/>
-      <c r="S247" s="156"/>
-      <c r="T247" s="156"/>
-      <c r="U247" s="156"/>
+      <c r="D247" s="153"/>
+      <c r="E247" s="153"/>
+      <c r="F247" s="153"/>
+      <c r="G247" s="153"/>
+      <c r="H247" s="153"/>
+      <c r="I247" s="153"/>
+      <c r="J247" s="153"/>
+      <c r="K247" s="153"/>
+      <c r="L247" s="153"/>
+      <c r="M247" s="153"/>
+      <c r="N247" s="153"/>
+      <c r="O247" s="153"/>
+      <c r="P247" s="153"/>
+      <c r="Q247" s="153"/>
+      <c r="R247" s="153"/>
+      <c r="S247" s="153"/>
+      <c r="T247" s="153"/>
+      <c r="U247" s="153"/>
     </row>
     <row r="248" spans="4:21">
-      <c r="D248" s="156"/>
-      <c r="E248" s="156"/>
-      <c r="F248" s="156"/>
-      <c r="G248" s="156"/>
-      <c r="H248" s="156"/>
-      <c r="I248" s="156"/>
-      <c r="J248" s="156"/>
-      <c r="K248" s="156"/>
-      <c r="L248" s="156"/>
-      <c r="M248" s="156"/>
-      <c r="N248" s="156"/>
-      <c r="O248" s="156"/>
-      <c r="P248" s="156"/>
-      <c r="Q248" s="156"/>
-      <c r="R248" s="156"/>
-      <c r="S248" s="156"/>
-      <c r="T248" s="156"/>
-      <c r="U248" s="156"/>
+      <c r="D248" s="153"/>
+      <c r="E248" s="153"/>
+      <c r="F248" s="153"/>
+      <c r="G248" s="153"/>
+      <c r="H248" s="153"/>
+      <c r="I248" s="153"/>
+      <c r="J248" s="153"/>
+      <c r="K248" s="153"/>
+      <c r="L248" s="153"/>
+      <c r="M248" s="153"/>
+      <c r="N248" s="153"/>
+      <c r="O248" s="153"/>
+      <c r="P248" s="153"/>
+      <c r="Q248" s="153"/>
+      <c r="R248" s="153"/>
+      <c r="S248" s="153"/>
+      <c r="T248" s="153"/>
+      <c r="U248" s="153"/>
     </row>
     <row r="249" spans="4:21">
-      <c r="D249" s="156"/>
-      <c r="E249" s="156"/>
-      <c r="F249" s="156"/>
-      <c r="G249" s="156"/>
-      <c r="H249" s="156"/>
-      <c r="I249" s="156"/>
-      <c r="J249" s="156"/>
-      <c r="K249" s="156"/>
-      <c r="L249" s="156"/>
-      <c r="M249" s="156"/>
-      <c r="N249" s="156"/>
-      <c r="O249" s="156"/>
-      <c r="P249" s="156"/>
-      <c r="Q249" s="156"/>
-      <c r="R249" s="156"/>
-      <c r="S249" s="156"/>
-      <c r="T249" s="156"/>
-      <c r="U249" s="156"/>
+      <c r="D249" s="153"/>
+      <c r="E249" s="153"/>
+      <c r="F249" s="153"/>
+      <c r="G249" s="153"/>
+      <c r="H249" s="153"/>
+      <c r="I249" s="153"/>
+      <c r="J249" s="153"/>
+      <c r="K249" s="153"/>
+      <c r="L249" s="153"/>
+      <c r="M249" s="153"/>
+      <c r="N249" s="153"/>
+      <c r="O249" s="153"/>
+      <c r="P249" s="153"/>
+      <c r="Q249" s="153"/>
+      <c r="R249" s="153"/>
+      <c r="S249" s="153"/>
+      <c r="T249" s="153"/>
+      <c r="U249" s="153"/>
     </row>
     <row r="250" spans="4:21">
-      <c r="D250" s="156"/>
-      <c r="E250" s="156"/>
-      <c r="F250" s="156"/>
-      <c r="G250" s="156"/>
-      <c r="H250" s="156"/>
-      <c r="I250" s="156"/>
-      <c r="J250" s="156"/>
-      <c r="K250" s="156"/>
-      <c r="L250" s="156"/>
-      <c r="M250" s="156"/>
-      <c r="N250" s="156"/>
-      <c r="O250" s="156"/>
-      <c r="P250" s="156"/>
-      <c r="Q250" s="156"/>
-      <c r="R250" s="156"/>
-      <c r="S250" s="156"/>
-      <c r="T250" s="156"/>
-      <c r="U250" s="156"/>
+      <c r="D250" s="153"/>
+      <c r="E250" s="153"/>
+      <c r="F250" s="153"/>
+      <c r="G250" s="153"/>
+      <c r="H250" s="153"/>
+      <c r="I250" s="153"/>
+      <c r="J250" s="153"/>
+      <c r="K250" s="153"/>
+      <c r="L250" s="153"/>
+      <c r="M250" s="153"/>
+      <c r="N250" s="153"/>
+      <c r="O250" s="153"/>
+      <c r="P250" s="153"/>
+      <c r="Q250" s="153"/>
+      <c r="R250" s="153"/>
+      <c r="S250" s="153"/>
+      <c r="T250" s="153"/>
+      <c r="U250" s="153"/>
     </row>
     <row r="251" spans="4:21">
-      <c r="D251" s="156"/>
-      <c r="E251" s="156"/>
-      <c r="F251" s="156"/>
-      <c r="G251" s="156"/>
-      <c r="H251" s="156"/>
-      <c r="I251" s="156"/>
-      <c r="J251" s="156"/>
-      <c r="K251" s="156"/>
-      <c r="L251" s="156"/>
-      <c r="M251" s="156"/>
-      <c r="N251" s="156"/>
-      <c r="O251" s="156"/>
-      <c r="P251" s="156"/>
-      <c r="Q251" s="156"/>
-      <c r="R251" s="156"/>
-      <c r="S251" s="156"/>
-      <c r="T251" s="156"/>
-      <c r="U251" s="156"/>
+      <c r="D251" s="153"/>
+      <c r="E251" s="153"/>
+      <c r="F251" s="153"/>
+      <c r="G251" s="153"/>
+      <c r="H251" s="153"/>
+      <c r="I251" s="153"/>
+      <c r="J251" s="153"/>
+      <c r="K251" s="153"/>
+      <c r="L251" s="153"/>
+      <c r="M251" s="153"/>
+      <c r="N251" s="153"/>
+      <c r="O251" s="153"/>
+      <c r="P251" s="153"/>
+      <c r="Q251" s="153"/>
+      <c r="R251" s="153"/>
+      <c r="S251" s="153"/>
+      <c r="T251" s="153"/>
+      <c r="U251" s="153"/>
     </row>
     <row r="254" spans="4:21">
       <c r="D254" s="48" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="4:21">
       <c r="D256" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="4:4">
       <c r="D257" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="258" spans="4:4">
       <c r="D258" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="4:4">
       <c r="D259" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="260" spans="4:4">
       <c r="D260" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="261" spans="4:4">
       <c r="D261" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="4:4">
       <c r="D262" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="4:4">
       <c r="D263" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="264" spans="4:4">
       <c r="D264" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D168:U251"/>
-    <mergeCell ref="D167:U167"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:B31"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="B19:B23"/>
@@ -10111,6 +10120,11 @@
     <mergeCell ref="D100:U164"/>
     <mergeCell ref="D99:U99"/>
     <mergeCell ref="D35:T35"/>
+    <mergeCell ref="D168:U251"/>
+    <mergeCell ref="D167:U167"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10147,7 +10161,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="D1" s="54" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
@@ -10155,46 +10169,46 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="D3" s="56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="F5" s="158" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G5" s="158"/>
       <c r="H5" s="159"/>
       <c r="I5" s="99" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I6" s="100"/>
       <c r="J6" s="101"/>
@@ -10204,25 +10218,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C7" s="63">
         <v>1</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H7" s="98" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
@@ -10232,25 +10246,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C8" s="75">
         <v>1</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
@@ -10262,19 +10276,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I9" s="101"/>
       <c r="J9" s="101"/>
@@ -10286,19 +10300,19 @@
         <v>3</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
@@ -10310,13 +10324,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G11" s="68"/>
       <c r="H11" s="69"/>
@@ -10330,10 +10344,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
@@ -10348,10 +10362,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
@@ -10366,10 +10380,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
@@ -10384,10 +10398,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="68"/>
@@ -10402,10 +10416,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
@@ -10420,10 +10434,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
@@ -10438,10 +10452,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10456,10 +10470,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
@@ -10474,10 +10488,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
@@ -10492,10 +10506,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
@@ -10508,25 +10522,25 @@
         <v>3</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C22" s="72">
         <v>1</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I22" s="101"/>
       <c r="J22" s="101"/>
@@ -10538,25 +10552,25 @@
         <v>2</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I23" s="101" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J23" s="101" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10566,25 +10580,25 @@
         <v>3</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I24" s="101" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10594,25 +10608,25 @@
         <v>4</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="J25" s="101" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10622,25 +10636,25 @@
         <v>5</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J26" s="101" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10650,25 +10664,25 @@
         <v>6</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J27" s="101" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10678,25 +10692,25 @@
         <v>7</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10706,25 +10720,25 @@
         <v>8</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H29" s="85" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I29" s="102" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J29" s="102" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10734,25 +10748,25 @@
         <v>9</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I30" s="101" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J30" s="102" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10762,25 +10776,25 @@
         <v>10</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J31" s="102" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10790,25 +10804,25 @@
         <v>11</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I32" s="101" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J32" s="101" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10816,25 +10830,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C33" s="75">
         <v>1</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -10846,19 +10860,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
@@ -10870,19 +10884,19 @@
         <v>3</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I35" s="101"/>
       <c r="J35" s="101"/>
@@ -10894,19 +10908,19 @@
         <v>4</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G36" s="68" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
@@ -10918,19 +10932,19 @@
         <v>5</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -10942,10 +10956,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68"/>
@@ -10960,10 +10974,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
@@ -10978,10 +10992,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F40" s="68"/>
       <c r="G40" s="68"/>
@@ -10996,10 +11010,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
@@ -11014,10 +11028,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F42" s="68"/>
       <c r="G42" s="68"/>
@@ -11032,10 +11046,10 @@
         <v>10</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
@@ -11050,10 +11064,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F44" s="68"/>
       <c r="G44" s="68"/>
@@ -11068,10 +11082,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
@@ -11086,10 +11100,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
@@ -11099,17 +11113,17 @@
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="90" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="90" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="90" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -11399,7 +11413,7 @@
     </row>
     <row r="173" spans="4:6">
       <c r="D173" s="90" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="176" spans="4:6">
@@ -11634,76 +11648,76 @@
     </row>
     <row r="228" spans="4:7">
       <c r="D228" s="89" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E228" s="89" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="229" spans="4:7">
       <c r="D229" s="53" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E229" s="53" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="230" spans="4:7">
       <c r="D230" s="53" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="231" spans="4:7">
       <c r="D231" s="53" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="232" spans="4:7">
       <c r="D232" s="53" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="233" spans="4:7">
       <c r="D233" s="85" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="234" spans="4:7">
       <c r="D234" s="53" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="237" spans="4:7">
       <c r="F237" s="88" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="239" spans="4:7">
       <c r="D239" s="86" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E239" s="87" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F239" s="87" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="G239" s="87" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="241" spans="4:7">
       <c r="D241" s="53" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E241" s="53" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F241" s="53" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G241" s="53" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -11746,22 +11760,22 @@
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>39</v>
@@ -11772,156 +11786,156 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E8" s="109"/>
       <c r="F8" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
       <c r="C11" s="96" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E12" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F12" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D13" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F14" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F15" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E16" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F16" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75">
@@ -11929,7 +11943,7 @@
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
@@ -11955,7 +11969,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
       <c r="D21" s="56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
@@ -11983,41 +11997,41 @@
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="158" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G23" s="158"/>
       <c r="H23" s="159"/>
       <c r="I23" s="99" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="J23" s="99" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E24" s="108" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I24" s="100"/>
       <c r="J24" s="101"/>
@@ -12027,28 +12041,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C25" s="104">
         <v>1</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H25" s="98" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="J25" s="101"/>
     </row>
@@ -12057,31 +12071,31 @@
         <v>2</v>
       </c>
       <c r="B26" s="160" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C26" s="78">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H26" s="98" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="J26" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -12091,25 +12105,25 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F27" s="106" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J27" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -12119,25 +12133,25 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F28" s="106" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J28" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -12147,25 +12161,25 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F29" s="106" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J29" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -12175,25 +12189,25 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F30" s="106" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J30" s="101" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30.75">
@@ -12203,25 +12217,25 @@
         <v>6</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F31" s="106" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J31" s="96" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -12231,25 +12245,25 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F32" s="106" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J32" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -12259,25 +12273,25 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F33" s="106" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="J33" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -12287,19 +12301,19 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F34" s="106"/>
       <c r="G34" s="68"/>
       <c r="H34" s="69"/>
       <c r="I34" s="38" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J34" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -12309,19 +12323,19 @@
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F35" s="106"/>
       <c r="G35" s="68"/>
       <c r="H35" s="69"/>
       <c r="I35" s="38" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J35" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -12331,19 +12345,19 @@
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F36" s="106"/>
       <c r="G36" s="68"/>
       <c r="H36" s="69"/>
       <c r="I36" s="38" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J36" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -12351,25 +12365,25 @@
         <v>3</v>
       </c>
       <c r="B37" s="165" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C37" s="72">
         <v>1</v>
       </c>
       <c r="D37" s="73" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -12381,25 +12395,25 @@
         <v>2</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H38" s="69" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I38" s="101" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J38" s="101" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -12409,25 +12423,25 @@
         <v>3</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I39" s="101" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J39" s="101" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -12437,25 +12451,25 @@
         <v>4</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I40" s="101" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="J40" s="101" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -12465,25 +12479,25 @@
         <v>5</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="I41" s="101" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J41" s="101" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -12493,25 +12507,25 @@
         <v>6</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I42" s="101" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12521,25 +12535,25 @@
         <v>7</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I43" s="101" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="J43" s="102" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -12549,25 +12563,25 @@
         <v>8</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H44" s="85" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I44" s="102" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J44" s="102" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -12577,25 +12591,25 @@
         <v>9</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H45" s="69" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I45" s="101" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J45" s="102" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -12605,25 +12619,25 @@
         <v>10</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G46" s="68" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I46" s="101" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J46" s="102" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -12633,25 +12647,25 @@
         <v>11</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I47" s="101" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J47" s="101" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -12659,25 +12673,25 @@
         <v>4</v>
       </c>
       <c r="B48" s="163" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C48" s="75">
         <v>1</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="I48" s="101"/>
       <c r="J48" s="101"/>
@@ -12689,19 +12703,19 @@
         <v>2</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="I49" s="101"/>
       <c r="J49" s="101"/>
@@ -12713,19 +12727,19 @@
         <v>3</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E50" s="82" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I50" s="101"/>
       <c r="J50" s="101"/>
@@ -12737,19 +12751,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E51" s="84" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I51" s="101"/>
       <c r="J51" s="101"/>
@@ -12761,19 +12775,19 @@
         <v>5</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F52" s="68" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I52" s="101"/>
       <c r="J52" s="101"/>
@@ -12785,10 +12799,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F53" s="68"/>
       <c r="G53" s="68"/>
@@ -12803,10 +12817,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E54" s="71" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
@@ -12821,10 +12835,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F55" s="68"/>
       <c r="G55" s="68"/>
@@ -12839,10 +12853,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
@@ -12857,10 +12871,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F57" s="68"/>
       <c r="G57" s="68"/>
@@ -12875,10 +12889,10 @@
         <v>10</v>
       </c>
       <c r="D58" s="70" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F58" s="68"/>
       <c r="G58" s="68"/>
@@ -12893,10 +12907,10 @@
         <v>11</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
@@ -12911,10 +12925,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E60" s="71" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F60" s="68"/>
       <c r="G60" s="68"/>
@@ -12929,10 +12943,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="70" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F61" s="68"/>
       <c r="G61" s="68"/>
@@ -12981,7 +12995,7 @@
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="54" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
@@ -13007,7 +13021,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -13040,28 +13054,28 @@
     </row>
     <row r="10" spans="2:11" ht="15.75">
       <c r="B10" s="118" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E10" s="129" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75">
@@ -13069,22 +13083,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H11" s="105" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="I11" s="122"/>
     </row>
@@ -13093,22 +13107,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="160" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D12" s="132">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H12" s="120" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="I12" s="123"/>
     </row>
@@ -13119,19 +13133,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H13" s="120" t="s">
+        <v>420</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -13141,19 +13155,19 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H14" s="120" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -13163,19 +13177,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H15" s="120" t="s">
+        <v>427</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -13185,19 +13199,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="H16" s="126" t="s">
+        <v>431</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -13207,19 +13221,19 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G17" s="101" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H17" s="127" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I17" s="103" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -13229,19 +13243,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H18" s="120" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -13251,17 +13265,17 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G19" s="124"/>
       <c r="H19" s="127" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -13271,17 +13285,17 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="127" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -13291,17 +13305,17 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G21" s="101"/>
       <c r="H21" s="127" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -13309,25 +13323,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="160" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D22" s="132">
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H22" s="127" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -13337,13 +13351,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H23" s="128"/>
       <c r="I23" s="122"/>
@@ -13355,13 +13369,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H24" s="128"/>
       <c r="I24" s="122"/>
@@ -13373,19 +13387,19 @@
         <v>3</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F25" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>502</v>
+      </c>
+      <c r="H25" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="G25" s="68" t="s">
-        <v>499</v>
-      </c>
-      <c r="H25" s="120" t="s">
-        <v>295</v>
-      </c>
       <c r="I25" s="101" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -13395,19 +13409,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F26" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>504</v>
+      </c>
+      <c r="H26" s="120" t="s">
         <v>305</v>
       </c>
-      <c r="G26" s="68" t="s">
-        <v>501</v>
-      </c>
-      <c r="H26" s="120" t="s">
-        <v>302</v>
-      </c>
       <c r="I26" s="101" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -13417,19 +13431,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F27" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="G27" s="102" t="s">
+        <v>506</v>
+      </c>
+      <c r="H27" s="120" t="s">
         <v>312</v>
       </c>
-      <c r="G27" s="102" t="s">
-        <v>503</v>
-      </c>
-      <c r="H27" s="120" t="s">
-        <v>309</v>
-      </c>
       <c r="I27" s="101" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -13439,19 +13453,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H28" s="120" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -13461,19 +13475,19 @@
         <v>7</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F29" s="70" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>510</v>
+      </c>
+      <c r="H29" s="120" t="s">
         <v>325</v>
       </c>
-      <c r="G29" s="102" t="s">
-        <v>507</v>
-      </c>
-      <c r="H29" s="120" t="s">
-        <v>322</v>
-      </c>
       <c r="I29" s="101" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -13483,19 +13497,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F30" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>512</v>
+      </c>
+      <c r="H30" s="120" t="s">
         <v>332</v>
       </c>
-      <c r="G30" s="68" t="s">
-        <v>509</v>
-      </c>
-      <c r="H30" s="120" t="s">
-        <v>329</v>
-      </c>
       <c r="I30" s="102" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -13505,19 +13519,19 @@
         <v>9</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F31" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>514</v>
+      </c>
+      <c r="H31" s="133" t="s">
         <v>338</v>
       </c>
-      <c r="G31" s="68" t="s">
-        <v>511</v>
-      </c>
-      <c r="H31" s="133" t="s">
-        <v>335</v>
-      </c>
       <c r="I31" s="102" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -13527,19 +13541,19 @@
         <v>10</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F32" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>516</v>
+      </c>
+      <c r="H32" s="120" t="s">
         <v>344</v>
       </c>
-      <c r="G32" s="68" t="s">
-        <v>513</v>
-      </c>
-      <c r="H32" s="120" t="s">
-        <v>341</v>
-      </c>
       <c r="I32" s="102" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -13549,19 +13563,19 @@
         <v>11</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F33" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>518</v>
+      </c>
+      <c r="H33" s="120" t="s">
         <v>351</v>
       </c>
-      <c r="G33" s="102" t="s">
-        <v>515</v>
-      </c>
-      <c r="H33" s="120" t="s">
-        <v>348</v>
-      </c>
       <c r="I33" s="102" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -13569,25 +13583,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="160" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D34" s="132">
         <v>1</v>
       </c>
       <c r="E34" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="G34" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="H34" s="120" t="s">
         <v>358</v>
       </c>
-      <c r="F34" s="68" t="s">
-        <v>472</v>
-      </c>
-      <c r="G34" s="68" t="s">
-        <v>516</v>
-      </c>
-      <c r="H34" s="120" t="s">
-        <v>355</v>
-      </c>
       <c r="I34" s="101" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -13598,13 +13612,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H35" s="120"/>
       <c r="I35" s="101"/>
@@ -13616,13 +13630,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G36" s="102" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H36" s="120"/>
       <c r="I36" s="101"/>
@@ -13635,13 +13649,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="81" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F37" s="81" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G37" s="102" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H37" s="120"/>
       <c r="I37" s="101"/>
@@ -13654,13 +13668,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G38" s="102" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H38" s="120"/>
       <c r="I38" s="101"/>
@@ -13673,13 +13687,13 @@
         <v>6</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F39" s="81" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G39" s="102" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H39" s="120"/>
       <c r="I39" s="101"/>
@@ -13692,13 +13706,13 @@
         <v>7</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G40" s="102" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H40" s="120"/>
       <c r="I40" s="101"/>
@@ -13711,13 +13725,13 @@
         <v>8</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H41" s="120"/>
       <c r="I41" s="101"/>
@@ -13730,13 +13744,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="101"/>
@@ -13749,13 +13763,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="102" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="101"/>
@@ -13768,16 +13782,16 @@
         <v>11</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H44" s="106" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I44" s="101"/>
     </row>
@@ -13789,16 +13803,16 @@
         <v>12</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H45" s="106" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I45" s="101"/>
     </row>
@@ -13810,14 +13824,14 @@
         <v>13</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="106" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I46" s="101"/>
     </row>
@@ -13829,10 +13843,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G47" s="68"/>
       <c r="H47" s="120"/>
@@ -13846,10 +13860,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G48" s="68"/>
       <c r="H48" s="120"/>
@@ -13863,10 +13877,10 @@
         <v>16</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G49" s="68"/>
       <c r="H49" s="120"/>
@@ -13880,10 +13894,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G50" s="68"/>
       <c r="H50" s="120"/>
@@ -13897,10 +13911,10 @@
         <v>18</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G51" s="68"/>
       <c r="H51" s="120"/>
@@ -13914,10 +13928,10 @@
         <v>19</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G52" s="68"/>
       <c r="H52" s="120"/>
@@ -13931,10 +13945,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="120"/>
@@ -13948,10 +13962,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G54" s="68"/>
       <c r="H54" s="120"/>
@@ -13965,10 +13979,10 @@
         <v>22</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G55" s="68"/>
       <c r="H55" s="120"/>
@@ -14009,7 +14023,7 @@
     <row r="2" spans="1:8" ht="18.75">
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -14019,33 +14033,33 @@
     <row r="4" spans="1:8" ht="15.75">
       <c r="C4" s="53"/>
       <c r="D4" s="56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="118" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -14053,25 +14067,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C6" s="63">
         <v>1</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E6" s="134" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H6" s="122" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14079,25 +14093,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C7" s="132">
         <v>2</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G7" s="120" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14107,19 +14121,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G8" s="120" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14129,19 +14143,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G9" s="120" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14151,19 +14165,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G10" s="120" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14173,19 +14187,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G11" s="126" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14195,19 +14209,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14217,19 +14231,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G13" s="120" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14239,19 +14253,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E14" s="101" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14261,19 +14275,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E15" s="101" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14283,19 +14297,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14303,22 +14317,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="160" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C17" s="132">
         <v>1</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -14329,16 +14343,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G18" s="135" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H18" s="101"/>
     </row>
@@ -14349,16 +14363,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G19" s="128" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H19" s="122"/>
     </row>
@@ -14369,19 +14383,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G20" s="120" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H20" s="101" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14391,19 +14405,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G21" s="120" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H21" s="101" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14413,19 +14427,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F22" s="102" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G22" s="120" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H22" s="101" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14435,19 +14449,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G23" s="120" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H23" s="101" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14457,19 +14471,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="G24" s="120" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H24" s="101" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14479,19 +14493,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G25" s="133" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H25" s="102" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14501,19 +14515,19 @@
         <v>9</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G26" s="120" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14523,19 +14537,19 @@
         <v>10</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G27" s="120" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H27" s="102" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14545,19 +14559,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14565,25 +14579,25 @@
         <v>4</v>
       </c>
       <c r="B29" s="160" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C29" s="132">
         <v>1</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G29" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H29" s="101" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14594,16 +14608,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G30" s="120" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H30" s="101"/>
     </row>
@@ -14614,16 +14628,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H31" s="101"/>
     </row>
@@ -14635,16 +14649,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G32" s="120" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H32" s="101"/>
     </row>
@@ -14656,16 +14670,16 @@
         <v>5</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G33" s="120" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H33" s="101"/>
     </row>
@@ -14677,16 +14691,16 @@
         <v>6</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F34" s="102" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H34" s="101"/>
     </row>
@@ -14698,16 +14712,16 @@
         <v>7</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E35" s="81" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F35" s="102" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H35" s="101"/>
     </row>
@@ -14719,16 +14733,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H36" s="101"/>
     </row>
@@ -14740,16 +14754,16 @@
         <v>9</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G37" s="120" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H37" s="101"/>
     </row>
@@ -14761,16 +14775,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G38" s="120" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H38" s="101"/>
     </row>
@@ -14782,16 +14796,16 @@
         <v>11</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G39" s="106" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H39" s="101"/>
     </row>
@@ -14803,16 +14817,16 @@
         <v>12</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G40" s="106" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H40" s="101"/>
     </row>
@@ -14824,16 +14838,16 @@
         <v>13</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G41" s="106" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H41" s="101"/>
     </row>
@@ -14845,16 +14859,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G42" s="120" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H42" s="101"/>
     </row>
@@ -14866,16 +14880,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="G43" s="120" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H43" s="101"/>
     </row>
@@ -14887,16 +14901,16 @@
         <v>16</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G44" s="120" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H44" s="101"/>
     </row>
@@ -14908,16 +14922,16 @@
         <v>17</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G45" s="120" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H45" s="101"/>
     </row>
@@ -14929,16 +14943,16 @@
         <v>18</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G46" s="120" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H46" s="101"/>
     </row>
@@ -14950,16 +14964,16 @@
         <v>19</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G47" s="120" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="H47" s="101"/>
     </row>
@@ -14971,16 +14985,16 @@
         <v>20</v>
       </c>
       <c r="D48" s="70" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G48" s="120" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H48" s="101"/>
     </row>
@@ -14992,16 +15006,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="70" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G49" s="120" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H49" s="101"/>
     </row>
@@ -15013,16 +15027,16 @@
         <v>22</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G50" s="120" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H50" s="101"/>
     </row>

--- a/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
+++ b/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACEABC04-B82A-492F-B4CF-CC2F6F59BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2EE9CA5-1B67-40F0-8E61-073474B88EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="599">
   <si>
     <t>MOM</t>
   </si>
@@ -449,6 +449,45 @@
   </si>
   <si>
     <t>Address multiple scenarios in a single implementation</t>
+  </si>
+  <si>
+    <t>Register Page- Confirm password spelling error</t>
+  </si>
+  <si>
+    <t>Home Page - Correction in alignment of Collapsible Menu bar</t>
+  </si>
+  <si>
+    <t>(Issue in Published Layout)-Clear Browser Cache or View finished layout in Inprivate tab</t>
+  </si>
+  <si>
+    <t>Current drive(gap between filters (Pool Name--- filter gaps are required,remove semicolon ,Include multi line Input)</t>
+  </si>
+  <si>
+    <t>Upcoming drives view responses (In card format not Grid) Pagenation</t>
+  </si>
+  <si>
+    <t>Show agenda and portray a clear context regarding(pages shown ,features out of scope on that presentation)</t>
+  </si>
+  <si>
+    <t>Dashboard(spacing required between cards)</t>
+  </si>
+  <si>
+    <t>Create Pool(Top margin),Edit pool (navigatability needs improvement)</t>
+  </si>
+  <si>
+    <t>Register page and create invite page(Consistency in lettering is Required)</t>
+  </si>
+  <si>
+    <t>(Create invite) not responsive (reason: Calender)</t>
+  </si>
+  <si>
+    <t>Top Title tape Not proper</t>
+  </si>
+  <si>
+    <t>Overall Pages Consistency should be improved</t>
+  </si>
+  <si>
+    <t>Timesheet discipline requires improvement(Working hours on project must be increased)</t>
   </si>
   <si>
     <t xml:space="preserve"> TEAM ALPHA</t>
@@ -2195,7 +2234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2563,16 +2602,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2604,6 +2643,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3395,16 +3443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46290B07-6E6D-4B19-9A9B-C3E38C6518F8}">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="76.140625" customWidth="1"/>
-    <col min="3" max="3" width="77.85546875" customWidth="1"/>
+    <col min="2" max="2" width="104.5703125" customWidth="1"/>
+    <col min="3" max="3" width="99.140625" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4447,6 +4495,123 @@
       </c>
       <c r="B158" s="2" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="25">
+        <v>1</v>
+      </c>
+      <c r="B163" s="167" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="25">
+        <v>2</v>
+      </c>
+      <c r="B164" s="167" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="25">
+        <v>3</v>
+      </c>
+      <c r="B165" s="168" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="112">
+        <v>4</v>
+      </c>
+      <c r="B166" s="167" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="25">
+        <v>5</v>
+      </c>
+      <c r="B167" s="169" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="25">
+        <v>6</v>
+      </c>
+      <c r="B168" s="167" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="25">
+        <v>7</v>
+      </c>
+      <c r="B169" s="167" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="25">
+        <v>8</v>
+      </c>
+      <c r="B170" s="167" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="25">
+        <v>9</v>
+      </c>
+      <c r="B171" s="167" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="25">
+        <v>10</v>
+      </c>
+      <c r="B172" s="167" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="25">
+        <v>11</v>
+      </c>
+      <c r="B173" s="167" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="25">
+        <v>12</v>
+      </c>
+      <c r="B174" s="167" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="25">
+        <v>13</v>
+      </c>
+      <c r="B175" s="167" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4472,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="G1" s="142" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
@@ -4482,14 +4647,14 @@
     </row>
     <row r="3" spans="1:14">
       <c r="G3" s="143" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="H3" s="143"/>
       <c r="I3" s="143"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="F5" s="138" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
@@ -4499,11 +4664,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="27" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="137" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D8" s="137"/>
       <c r="E8" s="137"/>
@@ -4519,11 +4684,11 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="27" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="28" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="28"/>
@@ -4539,7 +4704,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="C12" s="139" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="140"/>
@@ -4555,7 +4720,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="C13" s="137" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
@@ -4602,7 +4767,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
       <c r="E1" s="10" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.75">
@@ -4610,7 +4775,7 @@
     </row>
     <row r="3" spans="2:6" ht="15.75">
       <c r="E3" s="12" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -4618,19 +4783,19 @@
     </row>
     <row r="5" spans="2:6" ht="15.75">
       <c r="B5" s="13" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4638,16 +4803,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -4657,10 +4822,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -4670,10 +4835,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -4683,10 +4848,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -4696,10 +4861,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -4709,10 +4874,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -4722,10 +4887,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -4735,10 +4900,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -4746,16 +4911,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="146" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D14" s="25">
         <v>9</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -4765,10 +4930,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -4778,10 +4943,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4791,10 +4956,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4804,10 +4969,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -4815,16 +4980,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D19" s="25">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -4834,10 +4999,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4847,10 +5012,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4860,10 +5025,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -4936,20 +5101,20 @@
   <sheetData>
     <row r="1" spans="3:16" ht="18.75">
       <c r="C1" s="21" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="3:16">
       <c r="C3" s="22" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="3:16" ht="17.25">
       <c r="C5" s="20" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="H5" s="143" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="I5" s="143"/>
       <c r="J5" s="143"/>
@@ -4960,10 +5125,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="3:16">
@@ -4972,10 +5137,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="144" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -4985,7 +5150,7 @@
       </c>
       <c r="I9" s="145"/>
       <c r="J9" s="2" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="17.25">
@@ -4995,10 +5160,10 @@
       </c>
       <c r="I10" s="145"/>
       <c r="J10" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="3:16">
@@ -5008,7 +5173,7 @@
       </c>
       <c r="I11" s="145"/>
       <c r="J11" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="3:16">
@@ -5018,7 +5183,7 @@
       </c>
       <c r="I12" s="145"/>
       <c r="J12" s="2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -5028,7 +5193,7 @@
       </c>
       <c r="I13" s="145"/>
       <c r="J13" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="3:16">
@@ -5038,7 +5203,7 @@
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -5048,7 +5213,7 @@
       </c>
       <c r="I15" s="145"/>
       <c r="J15" s="19" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="3:16">
@@ -5058,7 +5223,7 @@
       </c>
       <c r="I16" s="149"/>
       <c r="J16" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -5072,10 +5237,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="151" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -5085,7 +5250,7 @@
       </c>
       <c r="I19" s="151"/>
       <c r="J19" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -5095,7 +5260,7 @@
       </c>
       <c r="I20" s="151"/>
       <c r="J20" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -5105,7 +5270,7 @@
       </c>
       <c r="I21" s="151"/>
       <c r="J21" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="3:10">
@@ -5115,7 +5280,7 @@
       </c>
       <c r="I22" s="151"/>
       <c r="J22" s="2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -5125,7 +5290,7 @@
       </c>
       <c r="I23" s="151"/>
       <c r="J23" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -5135,7 +5300,7 @@
       </c>
       <c r="I24" s="151"/>
       <c r="J24" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="3:10">
@@ -5148,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="151" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="3:10">
@@ -5161,7 +5326,7 @@
       </c>
       <c r="I27" s="151"/>
       <c r="J27" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="3:10">
@@ -5171,7 +5336,7 @@
       </c>
       <c r="I28" s="151"/>
       <c r="J28" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="3:10">
@@ -5181,7 +5346,7 @@
       </c>
       <c r="I29" s="151"/>
       <c r="J29" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -5191,7 +5356,7 @@
       </c>
       <c r="I30" s="151"/>
       <c r="J30" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="3:10">
@@ -5201,7 +5366,7 @@
       </c>
       <c r="I31" s="151"/>
       <c r="J31" s="2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="3:10">
@@ -5211,7 +5376,7 @@
       </c>
       <c r="I32" s="151"/>
       <c r="J32" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="3:10">
@@ -5220,12 +5385,12 @@
       </c>
       <c r="I33" s="151"/>
       <c r="J33" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="17.25">
       <c r="C34" s="23" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="3:10">
@@ -5336,12 +5501,12 @@
     </row>
     <row r="72" spans="3:4" ht="17.25">
       <c r="C72" s="23" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="150" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="3:4">
@@ -5359,7 +5524,7 @@
     <row r="79" spans="3:4" ht="17.25">
       <c r="C79" s="150"/>
       <c r="D79" s="17" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="3:4">
@@ -5480,7 +5645,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="D1" s="10" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -5488,24 +5653,24 @@
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="D3" s="12" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="13" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5513,16 +5678,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="151" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5532,10 +5697,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5545,10 +5710,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5558,10 +5723,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5571,10 +5736,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5584,10 +5749,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5597,10 +5762,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5610,10 +5775,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5623,10 +5788,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5636,10 +5801,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5649,10 +5814,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5662,10 +5827,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5675,10 +5840,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5686,16 +5851,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="149" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C19" s="51">
         <v>14</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5705,10 +5870,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5718,10 +5883,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5731,10 +5896,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5744,10 +5909,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5755,16 +5920,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C24" s="50">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5774,10 +5939,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5787,10 +5952,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5800,10 +5965,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5813,10 +5978,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5826,10 +5991,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5839,10 +6004,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5852,10 +6017,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5874,44 +6039,44 @@
       <c r="E34" s="47"/>
     </row>
     <row r="35" spans="3:20">
-      <c r="D35" s="156" t="s">
-        <v>255</v>
-      </c>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="156"/>
-      <c r="Q35" s="156"/>
-      <c r="R35" s="156"/>
-      <c r="S35" s="156"/>
-      <c r="T35" s="156"/>
+      <c r="D35" s="155" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="155"/>
+      <c r="Q35" s="155"/>
+      <c r="R35" s="155"/>
+      <c r="S35" s="155"/>
+      <c r="T35" s="155"/>
     </row>
     <row r="36" spans="3:20">
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="155"/>
-      <c r="R36" s="155"/>
-      <c r="S36" s="155"/>
-      <c r="T36" s="155"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="153"/>
     </row>
     <row r="37" spans="3:20">
       <c r="D37" s="152"/>
@@ -7039,7 +7204,7 @@
     </row>
     <row r="99" spans="4:21">
       <c r="D99" s="154" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E99" s="154"/>
       <c r="F99" s="154"/>
@@ -7060,24 +7225,24 @@
       <c r="U99" s="154"/>
     </row>
     <row r="100" spans="4:21">
-      <c r="D100" s="155"/>
-      <c r="E100" s="155"/>
-      <c r="F100" s="155"/>
-      <c r="G100" s="155"/>
-      <c r="H100" s="155"/>
-      <c r="I100" s="155"/>
-      <c r="J100" s="155"/>
-      <c r="K100" s="155"/>
-      <c r="L100" s="155"/>
-      <c r="M100" s="155"/>
-      <c r="N100" s="155"/>
-      <c r="O100" s="155"/>
-      <c r="P100" s="155"/>
-      <c r="Q100" s="155"/>
-      <c r="R100" s="155"/>
-      <c r="S100" s="155"/>
-      <c r="T100" s="155"/>
-      <c r="U100" s="155"/>
+      <c r="D100" s="153"/>
+      <c r="E100" s="153"/>
+      <c r="F100" s="153"/>
+      <c r="G100" s="153"/>
+      <c r="H100" s="153"/>
+      <c r="I100" s="153"/>
+      <c r="J100" s="153"/>
+      <c r="K100" s="153"/>
+      <c r="L100" s="153"/>
+      <c r="M100" s="153"/>
+      <c r="N100" s="153"/>
+      <c r="O100" s="153"/>
+      <c r="P100" s="153"/>
+      <c r="Q100" s="153"/>
+      <c r="R100" s="153"/>
+      <c r="S100" s="153"/>
+      <c r="T100" s="153"/>
+      <c r="U100" s="153"/>
     </row>
     <row r="101" spans="4:21">
       <c r="D101" s="152"/>
@@ -8361,7 +8526,7 @@
     </row>
     <row r="167" spans="4:21">
       <c r="D167" s="154" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E167" s="154"/>
       <c r="F167" s="154"/>
@@ -8382,1737 +8547,1742 @@
       <c r="U167" s="154"/>
     </row>
     <row r="168" spans="4:21">
-      <c r="D168" s="153"/>
-      <c r="E168" s="153"/>
-      <c r="F168" s="153"/>
-      <c r="G168" s="153"/>
-      <c r="H168" s="153"/>
-      <c r="I168" s="153"/>
-      <c r="J168" s="153"/>
-      <c r="K168" s="153"/>
-      <c r="L168" s="153"/>
-      <c r="M168" s="153"/>
-      <c r="N168" s="153"/>
-      <c r="O168" s="153"/>
-      <c r="P168" s="153"/>
-      <c r="Q168" s="153"/>
-      <c r="R168" s="153"/>
-      <c r="S168" s="153"/>
-      <c r="T168" s="153"/>
-      <c r="U168" s="153"/>
+      <c r="D168" s="156"/>
+      <c r="E168" s="156"/>
+      <c r="F168" s="156"/>
+      <c r="G168" s="156"/>
+      <c r="H168" s="156"/>
+      <c r="I168" s="156"/>
+      <c r="J168" s="156"/>
+      <c r="K168" s="156"/>
+      <c r="L168" s="156"/>
+      <c r="M168" s="156"/>
+      <c r="N168" s="156"/>
+      <c r="O168" s="156"/>
+      <c r="P168" s="156"/>
+      <c r="Q168" s="156"/>
+      <c r="R168" s="156"/>
+      <c r="S168" s="156"/>
+      <c r="T168" s="156"/>
+      <c r="U168" s="156"/>
     </row>
     <row r="169" spans="4:21">
-      <c r="D169" s="153"/>
-      <c r="E169" s="153"/>
-      <c r="F169" s="153"/>
-      <c r="G169" s="153"/>
-      <c r="H169" s="153"/>
-      <c r="I169" s="153"/>
-      <c r="J169" s="153"/>
-      <c r="K169" s="153"/>
-      <c r="L169" s="153"/>
-      <c r="M169" s="153"/>
-      <c r="N169" s="153"/>
-      <c r="O169" s="153"/>
-      <c r="P169" s="153"/>
-      <c r="Q169" s="153"/>
-      <c r="R169" s="153"/>
-      <c r="S169" s="153"/>
-      <c r="T169" s="153"/>
-      <c r="U169" s="153"/>
+      <c r="D169" s="156"/>
+      <c r="E169" s="156"/>
+      <c r="F169" s="156"/>
+      <c r="G169" s="156"/>
+      <c r="H169" s="156"/>
+      <c r="I169" s="156"/>
+      <c r="J169" s="156"/>
+      <c r="K169" s="156"/>
+      <c r="L169" s="156"/>
+      <c r="M169" s="156"/>
+      <c r="N169" s="156"/>
+      <c r="O169" s="156"/>
+      <c r="P169" s="156"/>
+      <c r="Q169" s="156"/>
+      <c r="R169" s="156"/>
+      <c r="S169" s="156"/>
+      <c r="T169" s="156"/>
+      <c r="U169" s="156"/>
     </row>
     <row r="170" spans="4:21">
-      <c r="D170" s="153"/>
-      <c r="E170" s="153"/>
-      <c r="F170" s="153"/>
-      <c r="G170" s="153"/>
-      <c r="H170" s="153"/>
-      <c r="I170" s="153"/>
-      <c r="J170" s="153"/>
-      <c r="K170" s="153"/>
-      <c r="L170" s="153"/>
-      <c r="M170" s="153"/>
-      <c r="N170" s="153"/>
-      <c r="O170" s="153"/>
-      <c r="P170" s="153"/>
-      <c r="Q170" s="153"/>
-      <c r="R170" s="153"/>
-      <c r="S170" s="153"/>
-      <c r="T170" s="153"/>
-      <c r="U170" s="153"/>
+      <c r="D170" s="156"/>
+      <c r="E170" s="156"/>
+      <c r="F170" s="156"/>
+      <c r="G170" s="156"/>
+      <c r="H170" s="156"/>
+      <c r="I170" s="156"/>
+      <c r="J170" s="156"/>
+      <c r="K170" s="156"/>
+      <c r="L170" s="156"/>
+      <c r="M170" s="156"/>
+      <c r="N170" s="156"/>
+      <c r="O170" s="156"/>
+      <c r="P170" s="156"/>
+      <c r="Q170" s="156"/>
+      <c r="R170" s="156"/>
+      <c r="S170" s="156"/>
+      <c r="T170" s="156"/>
+      <c r="U170" s="156"/>
     </row>
     <row r="171" spans="4:21">
-      <c r="D171" s="153"/>
-      <c r="E171" s="153"/>
-      <c r="F171" s="153"/>
-      <c r="G171" s="153"/>
-      <c r="H171" s="153"/>
-      <c r="I171" s="153"/>
-      <c r="J171" s="153"/>
-      <c r="K171" s="153"/>
-      <c r="L171" s="153"/>
-      <c r="M171" s="153"/>
-      <c r="N171" s="153"/>
-      <c r="O171" s="153"/>
-      <c r="P171" s="153"/>
-      <c r="Q171" s="153"/>
-      <c r="R171" s="153"/>
-      <c r="S171" s="153"/>
-      <c r="T171" s="153"/>
-      <c r="U171" s="153"/>
+      <c r="D171" s="156"/>
+      <c r="E171" s="156"/>
+      <c r="F171" s="156"/>
+      <c r="G171" s="156"/>
+      <c r="H171" s="156"/>
+      <c r="I171" s="156"/>
+      <c r="J171" s="156"/>
+      <c r="K171" s="156"/>
+      <c r="L171" s="156"/>
+      <c r="M171" s="156"/>
+      <c r="N171" s="156"/>
+      <c r="O171" s="156"/>
+      <c r="P171" s="156"/>
+      <c r="Q171" s="156"/>
+      <c r="R171" s="156"/>
+      <c r="S171" s="156"/>
+      <c r="T171" s="156"/>
+      <c r="U171" s="156"/>
     </row>
     <row r="172" spans="4:21">
-      <c r="D172" s="153"/>
-      <c r="E172" s="153"/>
-      <c r="F172" s="153"/>
-      <c r="G172" s="153"/>
-      <c r="H172" s="153"/>
-      <c r="I172" s="153"/>
-      <c r="J172" s="153"/>
-      <c r="K172" s="153"/>
-      <c r="L172" s="153"/>
-      <c r="M172" s="153"/>
-      <c r="N172" s="153"/>
-      <c r="O172" s="153"/>
-      <c r="P172" s="153"/>
-      <c r="Q172" s="153"/>
-      <c r="R172" s="153"/>
-      <c r="S172" s="153"/>
-      <c r="T172" s="153"/>
-      <c r="U172" s="153"/>
+      <c r="D172" s="156"/>
+      <c r="E172" s="156"/>
+      <c r="F172" s="156"/>
+      <c r="G172" s="156"/>
+      <c r="H172" s="156"/>
+      <c r="I172" s="156"/>
+      <c r="J172" s="156"/>
+      <c r="K172" s="156"/>
+      <c r="L172" s="156"/>
+      <c r="M172" s="156"/>
+      <c r="N172" s="156"/>
+      <c r="O172" s="156"/>
+      <c r="P172" s="156"/>
+      <c r="Q172" s="156"/>
+      <c r="R172" s="156"/>
+      <c r="S172" s="156"/>
+      <c r="T172" s="156"/>
+      <c r="U172" s="156"/>
     </row>
     <row r="173" spans="4:21">
-      <c r="D173" s="153"/>
-      <c r="E173" s="153"/>
-      <c r="F173" s="153"/>
-      <c r="G173" s="153"/>
-      <c r="H173" s="153"/>
-      <c r="I173" s="153"/>
-      <c r="J173" s="153"/>
-      <c r="K173" s="153"/>
-      <c r="L173" s="153"/>
-      <c r="M173" s="153"/>
-      <c r="N173" s="153"/>
-      <c r="O173" s="153"/>
-      <c r="P173" s="153"/>
-      <c r="Q173" s="153"/>
-      <c r="R173" s="153"/>
-      <c r="S173" s="153"/>
-      <c r="T173" s="153"/>
-      <c r="U173" s="153"/>
+      <c r="D173" s="156"/>
+      <c r="E173" s="156"/>
+      <c r="F173" s="156"/>
+      <c r="G173" s="156"/>
+      <c r="H173" s="156"/>
+      <c r="I173" s="156"/>
+      <c r="J173" s="156"/>
+      <c r="K173" s="156"/>
+      <c r="L173" s="156"/>
+      <c r="M173" s="156"/>
+      <c r="N173" s="156"/>
+      <c r="O173" s="156"/>
+      <c r="P173" s="156"/>
+      <c r="Q173" s="156"/>
+      <c r="R173" s="156"/>
+      <c r="S173" s="156"/>
+      <c r="T173" s="156"/>
+      <c r="U173" s="156"/>
     </row>
     <row r="174" spans="4:21">
-      <c r="D174" s="153"/>
-      <c r="E174" s="153"/>
-      <c r="F174" s="153"/>
-      <c r="G174" s="153"/>
-      <c r="H174" s="153"/>
-      <c r="I174" s="153"/>
-      <c r="J174" s="153"/>
-      <c r="K174" s="153"/>
-      <c r="L174" s="153"/>
-      <c r="M174" s="153"/>
-      <c r="N174" s="153"/>
-      <c r="O174" s="153"/>
-      <c r="P174" s="153"/>
-      <c r="Q174" s="153"/>
-      <c r="R174" s="153"/>
-      <c r="S174" s="153"/>
-      <c r="T174" s="153"/>
-      <c r="U174" s="153"/>
+      <c r="D174" s="156"/>
+      <c r="E174" s="156"/>
+      <c r="F174" s="156"/>
+      <c r="G174" s="156"/>
+      <c r="H174" s="156"/>
+      <c r="I174" s="156"/>
+      <c r="J174" s="156"/>
+      <c r="K174" s="156"/>
+      <c r="L174" s="156"/>
+      <c r="M174" s="156"/>
+      <c r="N174" s="156"/>
+      <c r="O174" s="156"/>
+      <c r="P174" s="156"/>
+      <c r="Q174" s="156"/>
+      <c r="R174" s="156"/>
+      <c r="S174" s="156"/>
+      <c r="T174" s="156"/>
+      <c r="U174" s="156"/>
     </row>
     <row r="175" spans="4:21">
-      <c r="D175" s="153"/>
-      <c r="E175" s="153"/>
-      <c r="F175" s="153"/>
-      <c r="G175" s="153"/>
-      <c r="H175" s="153"/>
-      <c r="I175" s="153"/>
-      <c r="J175" s="153"/>
-      <c r="K175" s="153"/>
-      <c r="L175" s="153"/>
-      <c r="M175" s="153"/>
-      <c r="N175" s="153"/>
-      <c r="O175" s="153"/>
-      <c r="P175" s="153"/>
-      <c r="Q175" s="153"/>
-      <c r="R175" s="153"/>
-      <c r="S175" s="153"/>
-      <c r="T175" s="153"/>
-      <c r="U175" s="153"/>
+      <c r="D175" s="156"/>
+      <c r="E175" s="156"/>
+      <c r="F175" s="156"/>
+      <c r="G175" s="156"/>
+      <c r="H175" s="156"/>
+      <c r="I175" s="156"/>
+      <c r="J175" s="156"/>
+      <c r="K175" s="156"/>
+      <c r="L175" s="156"/>
+      <c r="M175" s="156"/>
+      <c r="N175" s="156"/>
+      <c r="O175" s="156"/>
+      <c r="P175" s="156"/>
+      <c r="Q175" s="156"/>
+      <c r="R175" s="156"/>
+      <c r="S175" s="156"/>
+      <c r="T175" s="156"/>
+      <c r="U175" s="156"/>
     </row>
     <row r="176" spans="4:21">
-      <c r="D176" s="153"/>
-      <c r="E176" s="153"/>
-      <c r="F176" s="153"/>
-      <c r="G176" s="153"/>
-      <c r="H176" s="153"/>
-      <c r="I176" s="153"/>
-      <c r="J176" s="153"/>
-      <c r="K176" s="153"/>
-      <c r="L176" s="153"/>
-      <c r="M176" s="153"/>
-      <c r="N176" s="153"/>
-      <c r="O176" s="153"/>
-      <c r="P176" s="153"/>
-      <c r="Q176" s="153"/>
-      <c r="R176" s="153"/>
-      <c r="S176" s="153"/>
-      <c r="T176" s="153"/>
-      <c r="U176" s="153"/>
+      <c r="D176" s="156"/>
+      <c r="E176" s="156"/>
+      <c r="F176" s="156"/>
+      <c r="G176" s="156"/>
+      <c r="H176" s="156"/>
+      <c r="I176" s="156"/>
+      <c r="J176" s="156"/>
+      <c r="K176" s="156"/>
+      <c r="L176" s="156"/>
+      <c r="M176" s="156"/>
+      <c r="N176" s="156"/>
+      <c r="O176" s="156"/>
+      <c r="P176" s="156"/>
+      <c r="Q176" s="156"/>
+      <c r="R176" s="156"/>
+      <c r="S176" s="156"/>
+      <c r="T176" s="156"/>
+      <c r="U176" s="156"/>
     </row>
     <row r="177" spans="4:21">
-      <c r="D177" s="153"/>
-      <c r="E177" s="153"/>
-      <c r="F177" s="153"/>
-      <c r="G177" s="153"/>
-      <c r="H177" s="153"/>
-      <c r="I177" s="153"/>
-      <c r="J177" s="153"/>
-      <c r="K177" s="153"/>
-      <c r="L177" s="153"/>
-      <c r="M177" s="153"/>
-      <c r="N177" s="153"/>
-      <c r="O177" s="153"/>
-      <c r="P177" s="153"/>
-      <c r="Q177" s="153"/>
-      <c r="R177" s="153"/>
-      <c r="S177" s="153"/>
-      <c r="T177" s="153"/>
-      <c r="U177" s="153"/>
+      <c r="D177" s="156"/>
+      <c r="E177" s="156"/>
+      <c r="F177" s="156"/>
+      <c r="G177" s="156"/>
+      <c r="H177" s="156"/>
+      <c r="I177" s="156"/>
+      <c r="J177" s="156"/>
+      <c r="K177" s="156"/>
+      <c r="L177" s="156"/>
+      <c r="M177" s="156"/>
+      <c r="N177" s="156"/>
+      <c r="O177" s="156"/>
+      <c r="P177" s="156"/>
+      <c r="Q177" s="156"/>
+      <c r="R177" s="156"/>
+      <c r="S177" s="156"/>
+      <c r="T177" s="156"/>
+      <c r="U177" s="156"/>
     </row>
     <row r="178" spans="4:21">
-      <c r="D178" s="153"/>
-      <c r="E178" s="153"/>
-      <c r="F178" s="153"/>
-      <c r="G178" s="153"/>
-      <c r="H178" s="153"/>
-      <c r="I178" s="153"/>
-      <c r="J178" s="153"/>
-      <c r="K178" s="153"/>
-      <c r="L178" s="153"/>
-      <c r="M178" s="153"/>
-      <c r="N178" s="153"/>
-      <c r="O178" s="153"/>
-      <c r="P178" s="153"/>
-      <c r="Q178" s="153"/>
-      <c r="R178" s="153"/>
-      <c r="S178" s="153"/>
-      <c r="T178" s="153"/>
-      <c r="U178" s="153"/>
+      <c r="D178" s="156"/>
+      <c r="E178" s="156"/>
+      <c r="F178" s="156"/>
+      <c r="G178" s="156"/>
+      <c r="H178" s="156"/>
+      <c r="I178" s="156"/>
+      <c r="J178" s="156"/>
+      <c r="K178" s="156"/>
+      <c r="L178" s="156"/>
+      <c r="M178" s="156"/>
+      <c r="N178" s="156"/>
+      <c r="O178" s="156"/>
+      <c r="P178" s="156"/>
+      <c r="Q178" s="156"/>
+      <c r="R178" s="156"/>
+      <c r="S178" s="156"/>
+      <c r="T178" s="156"/>
+      <c r="U178" s="156"/>
     </row>
     <row r="179" spans="4:21">
-      <c r="D179" s="153"/>
-      <c r="E179" s="153"/>
-      <c r="F179" s="153"/>
-      <c r="G179" s="153"/>
-      <c r="H179" s="153"/>
-      <c r="I179" s="153"/>
-      <c r="J179" s="153"/>
-      <c r="K179" s="153"/>
-      <c r="L179" s="153"/>
-      <c r="M179" s="153"/>
-      <c r="N179" s="153"/>
-      <c r="O179" s="153"/>
-      <c r="P179" s="153"/>
-      <c r="Q179" s="153"/>
-      <c r="R179" s="153"/>
-      <c r="S179" s="153"/>
-      <c r="T179" s="153"/>
-      <c r="U179" s="153"/>
+      <c r="D179" s="156"/>
+      <c r="E179" s="156"/>
+      <c r="F179" s="156"/>
+      <c r="G179" s="156"/>
+      <c r="H179" s="156"/>
+      <c r="I179" s="156"/>
+      <c r="J179" s="156"/>
+      <c r="K179" s="156"/>
+      <c r="L179" s="156"/>
+      <c r="M179" s="156"/>
+      <c r="N179" s="156"/>
+      <c r="O179" s="156"/>
+      <c r="P179" s="156"/>
+      <c r="Q179" s="156"/>
+      <c r="R179" s="156"/>
+      <c r="S179" s="156"/>
+      <c r="T179" s="156"/>
+      <c r="U179" s="156"/>
     </row>
     <row r="180" spans="4:21">
-      <c r="D180" s="153"/>
-      <c r="E180" s="153"/>
-      <c r="F180" s="153"/>
-      <c r="G180" s="153"/>
-      <c r="H180" s="153"/>
-      <c r="I180" s="153"/>
-      <c r="J180" s="153"/>
-      <c r="K180" s="153"/>
-      <c r="L180" s="153"/>
-      <c r="M180" s="153"/>
-      <c r="N180" s="153"/>
-      <c r="O180" s="153"/>
-      <c r="P180" s="153"/>
-      <c r="Q180" s="153"/>
-      <c r="R180" s="153"/>
-      <c r="S180" s="153"/>
-      <c r="T180" s="153"/>
-      <c r="U180" s="153"/>
+      <c r="D180" s="156"/>
+      <c r="E180" s="156"/>
+      <c r="F180" s="156"/>
+      <c r="G180" s="156"/>
+      <c r="H180" s="156"/>
+      <c r="I180" s="156"/>
+      <c r="J180" s="156"/>
+      <c r="K180" s="156"/>
+      <c r="L180" s="156"/>
+      <c r="M180" s="156"/>
+      <c r="N180" s="156"/>
+      <c r="O180" s="156"/>
+      <c r="P180" s="156"/>
+      <c r="Q180" s="156"/>
+      <c r="R180" s="156"/>
+      <c r="S180" s="156"/>
+      <c r="T180" s="156"/>
+      <c r="U180" s="156"/>
     </row>
     <row r="181" spans="4:21">
-      <c r="D181" s="153"/>
-      <c r="E181" s="153"/>
-      <c r="F181" s="153"/>
-      <c r="G181" s="153"/>
-      <c r="H181" s="153"/>
-      <c r="I181" s="153"/>
-      <c r="J181" s="153"/>
-      <c r="K181" s="153"/>
-      <c r="L181" s="153"/>
-      <c r="M181" s="153"/>
-      <c r="N181" s="153"/>
-      <c r="O181" s="153"/>
-      <c r="P181" s="153"/>
-      <c r="Q181" s="153"/>
-      <c r="R181" s="153"/>
-      <c r="S181" s="153"/>
-      <c r="T181" s="153"/>
-      <c r="U181" s="153"/>
+      <c r="D181" s="156"/>
+      <c r="E181" s="156"/>
+      <c r="F181" s="156"/>
+      <c r="G181" s="156"/>
+      <c r="H181" s="156"/>
+      <c r="I181" s="156"/>
+      <c r="J181" s="156"/>
+      <c r="K181" s="156"/>
+      <c r="L181" s="156"/>
+      <c r="M181" s="156"/>
+      <c r="N181" s="156"/>
+      <c r="O181" s="156"/>
+      <c r="P181" s="156"/>
+      <c r="Q181" s="156"/>
+      <c r="R181" s="156"/>
+      <c r="S181" s="156"/>
+      <c r="T181" s="156"/>
+      <c r="U181" s="156"/>
     </row>
     <row r="182" spans="4:21">
-      <c r="D182" s="153"/>
-      <c r="E182" s="153"/>
-      <c r="F182" s="153"/>
-      <c r="G182" s="153"/>
-      <c r="H182" s="153"/>
-      <c r="I182" s="153"/>
-      <c r="J182" s="153"/>
-      <c r="K182" s="153"/>
-      <c r="L182" s="153"/>
-      <c r="M182" s="153"/>
-      <c r="N182" s="153"/>
-      <c r="O182" s="153"/>
-      <c r="P182" s="153"/>
-      <c r="Q182" s="153"/>
-      <c r="R182" s="153"/>
-      <c r="S182" s="153"/>
-      <c r="T182" s="153"/>
-      <c r="U182" s="153"/>
+      <c r="D182" s="156"/>
+      <c r="E182" s="156"/>
+      <c r="F182" s="156"/>
+      <c r="G182" s="156"/>
+      <c r="H182" s="156"/>
+      <c r="I182" s="156"/>
+      <c r="J182" s="156"/>
+      <c r="K182" s="156"/>
+      <c r="L182" s="156"/>
+      <c r="M182" s="156"/>
+      <c r="N182" s="156"/>
+      <c r="O182" s="156"/>
+      <c r="P182" s="156"/>
+      <c r="Q182" s="156"/>
+      <c r="R182" s="156"/>
+      <c r="S182" s="156"/>
+      <c r="T182" s="156"/>
+      <c r="U182" s="156"/>
     </row>
     <row r="183" spans="4:21">
-      <c r="D183" s="153"/>
-      <c r="E183" s="153"/>
-      <c r="F183" s="153"/>
-      <c r="G183" s="153"/>
-      <c r="H183" s="153"/>
-      <c r="I183" s="153"/>
-      <c r="J183" s="153"/>
-      <c r="K183" s="153"/>
-      <c r="L183" s="153"/>
-      <c r="M183" s="153"/>
-      <c r="N183" s="153"/>
-      <c r="O183" s="153"/>
-      <c r="P183" s="153"/>
-      <c r="Q183" s="153"/>
-      <c r="R183" s="153"/>
-      <c r="S183" s="153"/>
-      <c r="T183" s="153"/>
-      <c r="U183" s="153"/>
+      <c r="D183" s="156"/>
+      <c r="E183" s="156"/>
+      <c r="F183" s="156"/>
+      <c r="G183" s="156"/>
+      <c r="H183" s="156"/>
+      <c r="I183" s="156"/>
+      <c r="J183" s="156"/>
+      <c r="K183" s="156"/>
+      <c r="L183" s="156"/>
+      <c r="M183" s="156"/>
+      <c r="N183" s="156"/>
+      <c r="O183" s="156"/>
+      <c r="P183" s="156"/>
+      <c r="Q183" s="156"/>
+      <c r="R183" s="156"/>
+      <c r="S183" s="156"/>
+      <c r="T183" s="156"/>
+      <c r="U183" s="156"/>
     </row>
     <row r="184" spans="4:21">
-      <c r="D184" s="153"/>
-      <c r="E184" s="153"/>
-      <c r="F184" s="153"/>
-      <c r="G184" s="153"/>
-      <c r="H184" s="153"/>
-      <c r="I184" s="153"/>
-      <c r="J184" s="153"/>
-      <c r="K184" s="153"/>
-      <c r="L184" s="153"/>
-      <c r="M184" s="153"/>
-      <c r="N184" s="153"/>
-      <c r="O184" s="153"/>
-      <c r="P184" s="153"/>
-      <c r="Q184" s="153"/>
-      <c r="R184" s="153"/>
-      <c r="S184" s="153"/>
-      <c r="T184" s="153"/>
-      <c r="U184" s="153"/>
+      <c r="D184" s="156"/>
+      <c r="E184" s="156"/>
+      <c r="F184" s="156"/>
+      <c r="G184" s="156"/>
+      <c r="H184" s="156"/>
+      <c r="I184" s="156"/>
+      <c r="J184" s="156"/>
+      <c r="K184" s="156"/>
+      <c r="L184" s="156"/>
+      <c r="M184" s="156"/>
+      <c r="N184" s="156"/>
+      <c r="O184" s="156"/>
+      <c r="P184" s="156"/>
+      <c r="Q184" s="156"/>
+      <c r="R184" s="156"/>
+      <c r="S184" s="156"/>
+      <c r="T184" s="156"/>
+      <c r="U184" s="156"/>
     </row>
     <row r="185" spans="4:21">
-      <c r="D185" s="153"/>
-      <c r="E185" s="153"/>
-      <c r="F185" s="153"/>
-      <c r="G185" s="153"/>
-      <c r="H185" s="153"/>
-      <c r="I185" s="153"/>
-      <c r="J185" s="153"/>
-      <c r="K185" s="153"/>
-      <c r="L185" s="153"/>
-      <c r="M185" s="153"/>
-      <c r="N185" s="153"/>
-      <c r="O185" s="153"/>
-      <c r="P185" s="153"/>
-      <c r="Q185" s="153"/>
-      <c r="R185" s="153"/>
-      <c r="S185" s="153"/>
-      <c r="T185" s="153"/>
-      <c r="U185" s="153"/>
+      <c r="D185" s="156"/>
+      <c r="E185" s="156"/>
+      <c r="F185" s="156"/>
+      <c r="G185" s="156"/>
+      <c r="H185" s="156"/>
+      <c r="I185" s="156"/>
+      <c r="J185" s="156"/>
+      <c r="K185" s="156"/>
+      <c r="L185" s="156"/>
+      <c r="M185" s="156"/>
+      <c r="N185" s="156"/>
+      <c r="O185" s="156"/>
+      <c r="P185" s="156"/>
+      <c r="Q185" s="156"/>
+      <c r="R185" s="156"/>
+      <c r="S185" s="156"/>
+      <c r="T185" s="156"/>
+      <c r="U185" s="156"/>
     </row>
     <row r="186" spans="4:21">
-      <c r="D186" s="153"/>
-      <c r="E186" s="153"/>
-      <c r="F186" s="153"/>
-      <c r="G186" s="153"/>
-      <c r="H186" s="153"/>
-      <c r="I186" s="153"/>
-      <c r="J186" s="153"/>
-      <c r="K186" s="153"/>
-      <c r="L186" s="153"/>
-      <c r="M186" s="153"/>
-      <c r="N186" s="153"/>
-      <c r="O186" s="153"/>
-      <c r="P186" s="153"/>
-      <c r="Q186" s="153"/>
-      <c r="R186" s="153"/>
-      <c r="S186" s="153"/>
-      <c r="T186" s="153"/>
-      <c r="U186" s="153"/>
+      <c r="D186" s="156"/>
+      <c r="E186" s="156"/>
+      <c r="F186" s="156"/>
+      <c r="G186" s="156"/>
+      <c r="H186" s="156"/>
+      <c r="I186" s="156"/>
+      <c r="J186" s="156"/>
+      <c r="K186" s="156"/>
+      <c r="L186" s="156"/>
+      <c r="M186" s="156"/>
+      <c r="N186" s="156"/>
+      <c r="O186" s="156"/>
+      <c r="P186" s="156"/>
+      <c r="Q186" s="156"/>
+      <c r="R186" s="156"/>
+      <c r="S186" s="156"/>
+      <c r="T186" s="156"/>
+      <c r="U186" s="156"/>
     </row>
     <row r="187" spans="4:21">
-      <c r="D187" s="153"/>
-      <c r="E187" s="153"/>
-      <c r="F187" s="153"/>
-      <c r="G187" s="153"/>
-      <c r="H187" s="153"/>
-      <c r="I187" s="153"/>
-      <c r="J187" s="153"/>
-      <c r="K187" s="153"/>
-      <c r="L187" s="153"/>
-      <c r="M187" s="153"/>
-      <c r="N187" s="153"/>
-      <c r="O187" s="153"/>
-      <c r="P187" s="153"/>
-      <c r="Q187" s="153"/>
-      <c r="R187" s="153"/>
-      <c r="S187" s="153"/>
-      <c r="T187" s="153"/>
-      <c r="U187" s="153"/>
+      <c r="D187" s="156"/>
+      <c r="E187" s="156"/>
+      <c r="F187" s="156"/>
+      <c r="G187" s="156"/>
+      <c r="H187" s="156"/>
+      <c r="I187" s="156"/>
+      <c r="J187" s="156"/>
+      <c r="K187" s="156"/>
+      <c r="L187" s="156"/>
+      <c r="M187" s="156"/>
+      <c r="N187" s="156"/>
+      <c r="O187" s="156"/>
+      <c r="P187" s="156"/>
+      <c r="Q187" s="156"/>
+      <c r="R187" s="156"/>
+      <c r="S187" s="156"/>
+      <c r="T187" s="156"/>
+      <c r="U187" s="156"/>
     </row>
     <row r="188" spans="4:21">
-      <c r="D188" s="153"/>
-      <c r="E188" s="153"/>
-      <c r="F188" s="153"/>
-      <c r="G188" s="153"/>
-      <c r="H188" s="153"/>
-      <c r="I188" s="153"/>
-      <c r="J188" s="153"/>
-      <c r="K188" s="153"/>
-      <c r="L188" s="153"/>
-      <c r="M188" s="153"/>
-      <c r="N188" s="153"/>
-      <c r="O188" s="153"/>
-      <c r="P188" s="153"/>
-      <c r="Q188" s="153"/>
-      <c r="R188" s="153"/>
-      <c r="S188" s="153"/>
-      <c r="T188" s="153"/>
-      <c r="U188" s="153"/>
+      <c r="D188" s="156"/>
+      <c r="E188" s="156"/>
+      <c r="F188" s="156"/>
+      <c r="G188" s="156"/>
+      <c r="H188" s="156"/>
+      <c r="I188" s="156"/>
+      <c r="J188" s="156"/>
+      <c r="K188" s="156"/>
+      <c r="L188" s="156"/>
+      <c r="M188" s="156"/>
+      <c r="N188" s="156"/>
+      <c r="O188" s="156"/>
+      <c r="P188" s="156"/>
+      <c r="Q188" s="156"/>
+      <c r="R188" s="156"/>
+      <c r="S188" s="156"/>
+      <c r="T188" s="156"/>
+      <c r="U188" s="156"/>
     </row>
     <row r="189" spans="4:21">
-      <c r="D189" s="153"/>
-      <c r="E189" s="153"/>
-      <c r="F189" s="153"/>
-      <c r="G189" s="153"/>
-      <c r="H189" s="153"/>
-      <c r="I189" s="153"/>
-      <c r="J189" s="153"/>
-      <c r="K189" s="153"/>
-      <c r="L189" s="153"/>
-      <c r="M189" s="153"/>
-      <c r="N189" s="153"/>
-      <c r="O189" s="153"/>
-      <c r="P189" s="153"/>
-      <c r="Q189" s="153"/>
-      <c r="R189" s="153"/>
-      <c r="S189" s="153"/>
-      <c r="T189" s="153"/>
-      <c r="U189" s="153"/>
+      <c r="D189" s="156"/>
+      <c r="E189" s="156"/>
+      <c r="F189" s="156"/>
+      <c r="G189" s="156"/>
+      <c r="H189" s="156"/>
+      <c r="I189" s="156"/>
+      <c r="J189" s="156"/>
+      <c r="K189" s="156"/>
+      <c r="L189" s="156"/>
+      <c r="M189" s="156"/>
+      <c r="N189" s="156"/>
+      <c r="O189" s="156"/>
+      <c r="P189" s="156"/>
+      <c r="Q189" s="156"/>
+      <c r="R189" s="156"/>
+      <c r="S189" s="156"/>
+      <c r="T189" s="156"/>
+      <c r="U189" s="156"/>
     </row>
     <row r="190" spans="4:21">
-      <c r="D190" s="153"/>
-      <c r="E190" s="153"/>
-      <c r="F190" s="153"/>
-      <c r="G190" s="153"/>
-      <c r="H190" s="153"/>
-      <c r="I190" s="153"/>
-      <c r="J190" s="153"/>
-      <c r="K190" s="153"/>
-      <c r="L190" s="153"/>
-      <c r="M190" s="153"/>
-      <c r="N190" s="153"/>
-      <c r="O190" s="153"/>
-      <c r="P190" s="153"/>
-      <c r="Q190" s="153"/>
-      <c r="R190" s="153"/>
-      <c r="S190" s="153"/>
-      <c r="T190" s="153"/>
-      <c r="U190" s="153"/>
+      <c r="D190" s="156"/>
+      <c r="E190" s="156"/>
+      <c r="F190" s="156"/>
+      <c r="G190" s="156"/>
+      <c r="H190" s="156"/>
+      <c r="I190" s="156"/>
+      <c r="J190" s="156"/>
+      <c r="K190" s="156"/>
+      <c r="L190" s="156"/>
+      <c r="M190" s="156"/>
+      <c r="N190" s="156"/>
+      <c r="O190" s="156"/>
+      <c r="P190" s="156"/>
+      <c r="Q190" s="156"/>
+      <c r="R190" s="156"/>
+      <c r="S190" s="156"/>
+      <c r="T190" s="156"/>
+      <c r="U190" s="156"/>
     </row>
     <row r="191" spans="4:21">
-      <c r="D191" s="153"/>
-      <c r="E191" s="153"/>
-      <c r="F191" s="153"/>
-      <c r="G191" s="153"/>
-      <c r="H191" s="153"/>
-      <c r="I191" s="153"/>
-      <c r="J191" s="153"/>
-      <c r="K191" s="153"/>
-      <c r="L191" s="153"/>
-      <c r="M191" s="153"/>
-      <c r="N191" s="153"/>
-      <c r="O191" s="153"/>
-      <c r="P191" s="153"/>
-      <c r="Q191" s="153"/>
-      <c r="R191" s="153"/>
-      <c r="S191" s="153"/>
-      <c r="T191" s="153"/>
-      <c r="U191" s="153"/>
+      <c r="D191" s="156"/>
+      <c r="E191" s="156"/>
+      <c r="F191" s="156"/>
+      <c r="G191" s="156"/>
+      <c r="H191" s="156"/>
+      <c r="I191" s="156"/>
+      <c r="J191" s="156"/>
+      <c r="K191" s="156"/>
+      <c r="L191" s="156"/>
+      <c r="M191" s="156"/>
+      <c r="N191" s="156"/>
+      <c r="O191" s="156"/>
+      <c r="P191" s="156"/>
+      <c r="Q191" s="156"/>
+      <c r="R191" s="156"/>
+      <c r="S191" s="156"/>
+      <c r="T191" s="156"/>
+      <c r="U191" s="156"/>
     </row>
     <row r="192" spans="4:21">
-      <c r="D192" s="153"/>
-      <c r="E192" s="153"/>
-      <c r="F192" s="153"/>
-      <c r="G192" s="153"/>
-      <c r="H192" s="153"/>
-      <c r="I192" s="153"/>
-      <c r="J192" s="153"/>
-      <c r="K192" s="153"/>
-      <c r="L192" s="153"/>
-      <c r="M192" s="153"/>
-      <c r="N192" s="153"/>
-      <c r="O192" s="153"/>
-      <c r="P192" s="153"/>
-      <c r="Q192" s="153"/>
-      <c r="R192" s="153"/>
-      <c r="S192" s="153"/>
-      <c r="T192" s="153"/>
-      <c r="U192" s="153"/>
+      <c r="D192" s="156"/>
+      <c r="E192" s="156"/>
+      <c r="F192" s="156"/>
+      <c r="G192" s="156"/>
+      <c r="H192" s="156"/>
+      <c r="I192" s="156"/>
+      <c r="J192" s="156"/>
+      <c r="K192" s="156"/>
+      <c r="L192" s="156"/>
+      <c r="M192" s="156"/>
+      <c r="N192" s="156"/>
+      <c r="O192" s="156"/>
+      <c r="P192" s="156"/>
+      <c r="Q192" s="156"/>
+      <c r="R192" s="156"/>
+      <c r="S192" s="156"/>
+      <c r="T192" s="156"/>
+      <c r="U192" s="156"/>
     </row>
     <row r="193" spans="4:21">
-      <c r="D193" s="153"/>
-      <c r="E193" s="153"/>
-      <c r="F193" s="153"/>
-      <c r="G193" s="153"/>
-      <c r="H193" s="153"/>
-      <c r="I193" s="153"/>
-      <c r="J193" s="153"/>
-      <c r="K193" s="153"/>
-      <c r="L193" s="153"/>
-      <c r="M193" s="153"/>
-      <c r="N193" s="153"/>
-      <c r="O193" s="153"/>
-      <c r="P193" s="153"/>
-      <c r="Q193" s="153"/>
-      <c r="R193" s="153"/>
-      <c r="S193" s="153"/>
-      <c r="T193" s="153"/>
-      <c r="U193" s="153"/>
+      <c r="D193" s="156"/>
+      <c r="E193" s="156"/>
+      <c r="F193" s="156"/>
+      <c r="G193" s="156"/>
+      <c r="H193" s="156"/>
+      <c r="I193" s="156"/>
+      <c r="J193" s="156"/>
+      <c r="K193" s="156"/>
+      <c r="L193" s="156"/>
+      <c r="M193" s="156"/>
+      <c r="N193" s="156"/>
+      <c r="O193" s="156"/>
+      <c r="P193" s="156"/>
+      <c r="Q193" s="156"/>
+      <c r="R193" s="156"/>
+      <c r="S193" s="156"/>
+      <c r="T193" s="156"/>
+      <c r="U193" s="156"/>
     </row>
     <row r="194" spans="4:21">
-      <c r="D194" s="153"/>
-      <c r="E194" s="153"/>
-      <c r="F194" s="153"/>
-      <c r="G194" s="153"/>
-      <c r="H194" s="153"/>
-      <c r="I194" s="153"/>
-      <c r="J194" s="153"/>
-      <c r="K194" s="153"/>
-      <c r="L194" s="153"/>
-      <c r="M194" s="153"/>
-      <c r="N194" s="153"/>
-      <c r="O194" s="153"/>
-      <c r="P194" s="153"/>
-      <c r="Q194" s="153"/>
-      <c r="R194" s="153"/>
-      <c r="S194" s="153"/>
-      <c r="T194" s="153"/>
-      <c r="U194" s="153"/>
+      <c r="D194" s="156"/>
+      <c r="E194" s="156"/>
+      <c r="F194" s="156"/>
+      <c r="G194" s="156"/>
+      <c r="H194" s="156"/>
+      <c r="I194" s="156"/>
+      <c r="J194" s="156"/>
+      <c r="K194" s="156"/>
+      <c r="L194" s="156"/>
+      <c r="M194" s="156"/>
+      <c r="N194" s="156"/>
+      <c r="O194" s="156"/>
+      <c r="P194" s="156"/>
+      <c r="Q194" s="156"/>
+      <c r="R194" s="156"/>
+      <c r="S194" s="156"/>
+      <c r="T194" s="156"/>
+      <c r="U194" s="156"/>
     </row>
     <row r="195" spans="4:21">
-      <c r="D195" s="153"/>
-      <c r="E195" s="153"/>
-      <c r="F195" s="153"/>
-      <c r="G195" s="153"/>
-      <c r="H195" s="153"/>
-      <c r="I195" s="153"/>
-      <c r="J195" s="153"/>
-      <c r="K195" s="153"/>
-      <c r="L195" s="153"/>
-      <c r="M195" s="153"/>
-      <c r="N195" s="153"/>
-      <c r="O195" s="153"/>
-      <c r="P195" s="153"/>
-      <c r="Q195" s="153"/>
-      <c r="R195" s="153"/>
-      <c r="S195" s="153"/>
-      <c r="T195" s="153"/>
-      <c r="U195" s="153"/>
+      <c r="D195" s="156"/>
+      <c r="E195" s="156"/>
+      <c r="F195" s="156"/>
+      <c r="G195" s="156"/>
+      <c r="H195" s="156"/>
+      <c r="I195" s="156"/>
+      <c r="J195" s="156"/>
+      <c r="K195" s="156"/>
+      <c r="L195" s="156"/>
+      <c r="M195" s="156"/>
+      <c r="N195" s="156"/>
+      <c r="O195" s="156"/>
+      <c r="P195" s="156"/>
+      <c r="Q195" s="156"/>
+      <c r="R195" s="156"/>
+      <c r="S195" s="156"/>
+      <c r="T195" s="156"/>
+      <c r="U195" s="156"/>
     </row>
     <row r="196" spans="4:21">
-      <c r="D196" s="153"/>
-      <c r="E196" s="153"/>
-      <c r="F196" s="153"/>
-      <c r="G196" s="153"/>
-      <c r="H196" s="153"/>
-      <c r="I196" s="153"/>
-      <c r="J196" s="153"/>
-      <c r="K196" s="153"/>
-      <c r="L196" s="153"/>
-      <c r="M196" s="153"/>
-      <c r="N196" s="153"/>
-      <c r="O196" s="153"/>
-      <c r="P196" s="153"/>
-      <c r="Q196" s="153"/>
-      <c r="R196" s="153"/>
-      <c r="S196" s="153"/>
-      <c r="T196" s="153"/>
-      <c r="U196" s="153"/>
+      <c r="D196" s="156"/>
+      <c r="E196" s="156"/>
+      <c r="F196" s="156"/>
+      <c r="G196" s="156"/>
+      <c r="H196" s="156"/>
+      <c r="I196" s="156"/>
+      <c r="J196" s="156"/>
+      <c r="K196" s="156"/>
+      <c r="L196" s="156"/>
+      <c r="M196" s="156"/>
+      <c r="N196" s="156"/>
+      <c r="O196" s="156"/>
+      <c r="P196" s="156"/>
+      <c r="Q196" s="156"/>
+      <c r="R196" s="156"/>
+      <c r="S196" s="156"/>
+      <c r="T196" s="156"/>
+      <c r="U196" s="156"/>
     </row>
     <row r="197" spans="4:21">
-      <c r="D197" s="153"/>
-      <c r="E197" s="153"/>
-      <c r="F197" s="153"/>
-      <c r="G197" s="153"/>
-      <c r="H197" s="153"/>
-      <c r="I197" s="153"/>
-      <c r="J197" s="153"/>
-      <c r="K197" s="153"/>
-      <c r="L197" s="153"/>
-      <c r="M197" s="153"/>
-      <c r="N197" s="153"/>
-      <c r="O197" s="153"/>
-      <c r="P197" s="153"/>
-      <c r="Q197" s="153"/>
-      <c r="R197" s="153"/>
-      <c r="S197" s="153"/>
-      <c r="T197" s="153"/>
-      <c r="U197" s="153"/>
+      <c r="D197" s="156"/>
+      <c r="E197" s="156"/>
+      <c r="F197" s="156"/>
+      <c r="G197" s="156"/>
+      <c r="H197" s="156"/>
+      <c r="I197" s="156"/>
+      <c r="J197" s="156"/>
+      <c r="K197" s="156"/>
+      <c r="L197" s="156"/>
+      <c r="M197" s="156"/>
+      <c r="N197" s="156"/>
+      <c r="O197" s="156"/>
+      <c r="P197" s="156"/>
+      <c r="Q197" s="156"/>
+      <c r="R197" s="156"/>
+      <c r="S197" s="156"/>
+      <c r="T197" s="156"/>
+      <c r="U197" s="156"/>
     </row>
     <row r="198" spans="4:21">
-      <c r="D198" s="153"/>
-      <c r="E198" s="153"/>
-      <c r="F198" s="153"/>
-      <c r="G198" s="153"/>
-      <c r="H198" s="153"/>
-      <c r="I198" s="153"/>
-      <c r="J198" s="153"/>
-      <c r="K198" s="153"/>
-      <c r="L198" s="153"/>
-      <c r="M198" s="153"/>
-      <c r="N198" s="153"/>
-      <c r="O198" s="153"/>
-      <c r="P198" s="153"/>
-      <c r="Q198" s="153"/>
-      <c r="R198" s="153"/>
-      <c r="S198" s="153"/>
-      <c r="T198" s="153"/>
-      <c r="U198" s="153"/>
+      <c r="D198" s="156"/>
+      <c r="E198" s="156"/>
+      <c r="F198" s="156"/>
+      <c r="G198" s="156"/>
+      <c r="H198" s="156"/>
+      <c r="I198" s="156"/>
+      <c r="J198" s="156"/>
+      <c r="K198" s="156"/>
+      <c r="L198" s="156"/>
+      <c r="M198" s="156"/>
+      <c r="N198" s="156"/>
+      <c r="O198" s="156"/>
+      <c r="P198" s="156"/>
+      <c r="Q198" s="156"/>
+      <c r="R198" s="156"/>
+      <c r="S198" s="156"/>
+      <c r="T198" s="156"/>
+      <c r="U198" s="156"/>
     </row>
     <row r="199" spans="4:21">
-      <c r="D199" s="153"/>
-      <c r="E199" s="153"/>
-      <c r="F199" s="153"/>
-      <c r="G199" s="153"/>
-      <c r="H199" s="153"/>
-      <c r="I199" s="153"/>
-      <c r="J199" s="153"/>
-      <c r="K199" s="153"/>
-      <c r="L199" s="153"/>
-      <c r="M199" s="153"/>
-      <c r="N199" s="153"/>
-      <c r="O199" s="153"/>
-      <c r="P199" s="153"/>
-      <c r="Q199" s="153"/>
-      <c r="R199" s="153"/>
-      <c r="S199" s="153"/>
-      <c r="T199" s="153"/>
-      <c r="U199" s="153"/>
+      <c r="D199" s="156"/>
+      <c r="E199" s="156"/>
+      <c r="F199" s="156"/>
+      <c r="G199" s="156"/>
+      <c r="H199" s="156"/>
+      <c r="I199" s="156"/>
+      <c r="J199" s="156"/>
+      <c r="K199" s="156"/>
+      <c r="L199" s="156"/>
+      <c r="M199" s="156"/>
+      <c r="N199" s="156"/>
+      <c r="O199" s="156"/>
+      <c r="P199" s="156"/>
+      <c r="Q199" s="156"/>
+      <c r="R199" s="156"/>
+      <c r="S199" s="156"/>
+      <c r="T199" s="156"/>
+      <c r="U199" s="156"/>
     </row>
     <row r="200" spans="4:21">
-      <c r="D200" s="153"/>
-      <c r="E200" s="153"/>
-      <c r="F200" s="153"/>
-      <c r="G200" s="153"/>
-      <c r="H200" s="153"/>
-      <c r="I200" s="153"/>
-      <c r="J200" s="153"/>
-      <c r="K200" s="153"/>
-      <c r="L200" s="153"/>
-      <c r="M200" s="153"/>
-      <c r="N200" s="153"/>
-      <c r="O200" s="153"/>
-      <c r="P200" s="153"/>
-      <c r="Q200" s="153"/>
-      <c r="R200" s="153"/>
-      <c r="S200" s="153"/>
-      <c r="T200" s="153"/>
-      <c r="U200" s="153"/>
+      <c r="D200" s="156"/>
+      <c r="E200" s="156"/>
+      <c r="F200" s="156"/>
+      <c r="G200" s="156"/>
+      <c r="H200" s="156"/>
+      <c r="I200" s="156"/>
+      <c r="J200" s="156"/>
+      <c r="K200" s="156"/>
+      <c r="L200" s="156"/>
+      <c r="M200" s="156"/>
+      <c r="N200" s="156"/>
+      <c r="O200" s="156"/>
+      <c r="P200" s="156"/>
+      <c r="Q200" s="156"/>
+      <c r="R200" s="156"/>
+      <c r="S200" s="156"/>
+      <c r="T200" s="156"/>
+      <c r="U200" s="156"/>
     </row>
     <row r="201" spans="4:21">
-      <c r="D201" s="153"/>
-      <c r="E201" s="153"/>
-      <c r="F201" s="153"/>
-      <c r="G201" s="153"/>
-      <c r="H201" s="153"/>
-      <c r="I201" s="153"/>
-      <c r="J201" s="153"/>
-      <c r="K201" s="153"/>
-      <c r="L201" s="153"/>
-      <c r="M201" s="153"/>
-      <c r="N201" s="153"/>
-      <c r="O201" s="153"/>
-      <c r="P201" s="153"/>
-      <c r="Q201" s="153"/>
-      <c r="R201" s="153"/>
-      <c r="S201" s="153"/>
-      <c r="T201" s="153"/>
-      <c r="U201" s="153"/>
+      <c r="D201" s="156"/>
+      <c r="E201" s="156"/>
+      <c r="F201" s="156"/>
+      <c r="G201" s="156"/>
+      <c r="H201" s="156"/>
+      <c r="I201" s="156"/>
+      <c r="J201" s="156"/>
+      <c r="K201" s="156"/>
+      <c r="L201" s="156"/>
+      <c r="M201" s="156"/>
+      <c r="N201" s="156"/>
+      <c r="O201" s="156"/>
+      <c r="P201" s="156"/>
+      <c r="Q201" s="156"/>
+      <c r="R201" s="156"/>
+      <c r="S201" s="156"/>
+      <c r="T201" s="156"/>
+      <c r="U201" s="156"/>
     </row>
     <row r="202" spans="4:21">
-      <c r="D202" s="153"/>
-      <c r="E202" s="153"/>
-      <c r="F202" s="153"/>
-      <c r="G202" s="153"/>
-      <c r="H202" s="153"/>
-      <c r="I202" s="153"/>
-      <c r="J202" s="153"/>
-      <c r="K202" s="153"/>
-      <c r="L202" s="153"/>
-      <c r="M202" s="153"/>
-      <c r="N202" s="153"/>
-      <c r="O202" s="153"/>
-      <c r="P202" s="153"/>
-      <c r="Q202" s="153"/>
-      <c r="R202" s="153"/>
-      <c r="S202" s="153"/>
-      <c r="T202" s="153"/>
-      <c r="U202" s="153"/>
+      <c r="D202" s="156"/>
+      <c r="E202" s="156"/>
+      <c r="F202" s="156"/>
+      <c r="G202" s="156"/>
+      <c r="H202" s="156"/>
+      <c r="I202" s="156"/>
+      <c r="J202" s="156"/>
+      <c r="K202" s="156"/>
+      <c r="L202" s="156"/>
+      <c r="M202" s="156"/>
+      <c r="N202" s="156"/>
+      <c r="O202" s="156"/>
+      <c r="P202" s="156"/>
+      <c r="Q202" s="156"/>
+      <c r="R202" s="156"/>
+      <c r="S202" s="156"/>
+      <c r="T202" s="156"/>
+      <c r="U202" s="156"/>
     </row>
     <row r="203" spans="4:21">
-      <c r="D203" s="153"/>
-      <c r="E203" s="153"/>
-      <c r="F203" s="153"/>
-      <c r="G203" s="153"/>
-      <c r="H203" s="153"/>
-      <c r="I203" s="153"/>
-      <c r="J203" s="153"/>
-      <c r="K203" s="153"/>
-      <c r="L203" s="153"/>
-      <c r="M203" s="153"/>
-      <c r="N203" s="153"/>
-      <c r="O203" s="153"/>
-      <c r="P203" s="153"/>
-      <c r="Q203" s="153"/>
-      <c r="R203" s="153"/>
-      <c r="S203" s="153"/>
-      <c r="T203" s="153"/>
-      <c r="U203" s="153"/>
+      <c r="D203" s="156"/>
+      <c r="E203" s="156"/>
+      <c r="F203" s="156"/>
+      <c r="G203" s="156"/>
+      <c r="H203" s="156"/>
+      <c r="I203" s="156"/>
+      <c r="J203" s="156"/>
+      <c r="K203" s="156"/>
+      <c r="L203" s="156"/>
+      <c r="M203" s="156"/>
+      <c r="N203" s="156"/>
+      <c r="O203" s="156"/>
+      <c r="P203" s="156"/>
+      <c r="Q203" s="156"/>
+      <c r="R203" s="156"/>
+      <c r="S203" s="156"/>
+      <c r="T203" s="156"/>
+      <c r="U203" s="156"/>
     </row>
     <row r="204" spans="4:21">
-      <c r="D204" s="153"/>
-      <c r="E204" s="153"/>
-      <c r="F204" s="153"/>
-      <c r="G204" s="153"/>
-      <c r="H204" s="153"/>
-      <c r="I204" s="153"/>
-      <c r="J204" s="153"/>
-      <c r="K204" s="153"/>
-      <c r="L204" s="153"/>
-      <c r="M204" s="153"/>
-      <c r="N204" s="153"/>
-      <c r="O204" s="153"/>
-      <c r="P204" s="153"/>
-      <c r="Q204" s="153"/>
-      <c r="R204" s="153"/>
-      <c r="S204" s="153"/>
-      <c r="T204" s="153"/>
-      <c r="U204" s="153"/>
+      <c r="D204" s="156"/>
+      <c r="E204" s="156"/>
+      <c r="F204" s="156"/>
+      <c r="G204" s="156"/>
+      <c r="H204" s="156"/>
+      <c r="I204" s="156"/>
+      <c r="J204" s="156"/>
+      <c r="K204" s="156"/>
+      <c r="L204" s="156"/>
+      <c r="M204" s="156"/>
+      <c r="N204" s="156"/>
+      <c r="O204" s="156"/>
+      <c r="P204" s="156"/>
+      <c r="Q204" s="156"/>
+      <c r="R204" s="156"/>
+      <c r="S204" s="156"/>
+      <c r="T204" s="156"/>
+      <c r="U204" s="156"/>
     </row>
     <row r="205" spans="4:21">
-      <c r="D205" s="153"/>
-      <c r="E205" s="153"/>
-      <c r="F205" s="153"/>
-      <c r="G205" s="153"/>
-      <c r="H205" s="153"/>
-      <c r="I205" s="153"/>
-      <c r="J205" s="153"/>
-      <c r="K205" s="153"/>
-      <c r="L205" s="153"/>
-      <c r="M205" s="153"/>
-      <c r="N205" s="153"/>
-      <c r="O205" s="153"/>
-      <c r="P205" s="153"/>
-      <c r="Q205" s="153"/>
-      <c r="R205" s="153"/>
-      <c r="S205" s="153"/>
-      <c r="T205" s="153"/>
-      <c r="U205" s="153"/>
+      <c r="D205" s="156"/>
+      <c r="E205" s="156"/>
+      <c r="F205" s="156"/>
+      <c r="G205" s="156"/>
+      <c r="H205" s="156"/>
+      <c r="I205" s="156"/>
+      <c r="J205" s="156"/>
+      <c r="K205" s="156"/>
+      <c r="L205" s="156"/>
+      <c r="M205" s="156"/>
+      <c r="N205" s="156"/>
+      <c r="O205" s="156"/>
+      <c r="P205" s="156"/>
+      <c r="Q205" s="156"/>
+      <c r="R205" s="156"/>
+      <c r="S205" s="156"/>
+      <c r="T205" s="156"/>
+      <c r="U205" s="156"/>
     </row>
     <row r="206" spans="4:21">
-      <c r="D206" s="153"/>
-      <c r="E206" s="153"/>
-      <c r="F206" s="153"/>
-      <c r="G206" s="153"/>
-      <c r="H206" s="153"/>
-      <c r="I206" s="153"/>
-      <c r="J206" s="153"/>
-      <c r="K206" s="153"/>
-      <c r="L206" s="153"/>
-      <c r="M206" s="153"/>
-      <c r="N206" s="153"/>
-      <c r="O206" s="153"/>
-      <c r="P206" s="153"/>
-      <c r="Q206" s="153"/>
-      <c r="R206" s="153"/>
-      <c r="S206" s="153"/>
-      <c r="T206" s="153"/>
-      <c r="U206" s="153"/>
+      <c r="D206" s="156"/>
+      <c r="E206" s="156"/>
+      <c r="F206" s="156"/>
+      <c r="G206" s="156"/>
+      <c r="H206" s="156"/>
+      <c r="I206" s="156"/>
+      <c r="J206" s="156"/>
+      <c r="K206" s="156"/>
+      <c r="L206" s="156"/>
+      <c r="M206" s="156"/>
+      <c r="N206" s="156"/>
+      <c r="O206" s="156"/>
+      <c r="P206" s="156"/>
+      <c r="Q206" s="156"/>
+      <c r="R206" s="156"/>
+      <c r="S206" s="156"/>
+      <c r="T206" s="156"/>
+      <c r="U206" s="156"/>
     </row>
     <row r="207" spans="4:21">
-      <c r="D207" s="153"/>
-      <c r="E207" s="153"/>
-      <c r="F207" s="153"/>
-      <c r="G207" s="153"/>
-      <c r="H207" s="153"/>
-      <c r="I207" s="153"/>
-      <c r="J207" s="153"/>
-      <c r="K207" s="153"/>
-      <c r="L207" s="153"/>
-      <c r="M207" s="153"/>
-      <c r="N207" s="153"/>
-      <c r="O207" s="153"/>
-      <c r="P207" s="153"/>
-      <c r="Q207" s="153"/>
-      <c r="R207" s="153"/>
-      <c r="S207" s="153"/>
-      <c r="T207" s="153"/>
-      <c r="U207" s="153"/>
+      <c r="D207" s="156"/>
+      <c r="E207" s="156"/>
+      <c r="F207" s="156"/>
+      <c r="G207" s="156"/>
+      <c r="H207" s="156"/>
+      <c r="I207" s="156"/>
+      <c r="J207" s="156"/>
+      <c r="K207" s="156"/>
+      <c r="L207" s="156"/>
+      <c r="M207" s="156"/>
+      <c r="N207" s="156"/>
+      <c r="O207" s="156"/>
+      <c r="P207" s="156"/>
+      <c r="Q207" s="156"/>
+      <c r="R207" s="156"/>
+      <c r="S207" s="156"/>
+      <c r="T207" s="156"/>
+      <c r="U207" s="156"/>
     </row>
     <row r="208" spans="4:21">
-      <c r="D208" s="153"/>
-      <c r="E208" s="153"/>
-      <c r="F208" s="153"/>
-      <c r="G208" s="153"/>
-      <c r="H208" s="153"/>
-      <c r="I208" s="153"/>
-      <c r="J208" s="153"/>
-      <c r="K208" s="153"/>
-      <c r="L208" s="153"/>
-      <c r="M208" s="153"/>
-      <c r="N208" s="153"/>
-      <c r="O208" s="153"/>
-      <c r="P208" s="153"/>
-      <c r="Q208" s="153"/>
-      <c r="R208" s="153"/>
-      <c r="S208" s="153"/>
-      <c r="T208" s="153"/>
-      <c r="U208" s="153"/>
+      <c r="D208" s="156"/>
+      <c r="E208" s="156"/>
+      <c r="F208" s="156"/>
+      <c r="G208" s="156"/>
+      <c r="H208" s="156"/>
+      <c r="I208" s="156"/>
+      <c r="J208" s="156"/>
+      <c r="K208" s="156"/>
+      <c r="L208" s="156"/>
+      <c r="M208" s="156"/>
+      <c r="N208" s="156"/>
+      <c r="O208" s="156"/>
+      <c r="P208" s="156"/>
+      <c r="Q208" s="156"/>
+      <c r="R208" s="156"/>
+      <c r="S208" s="156"/>
+      <c r="T208" s="156"/>
+      <c r="U208" s="156"/>
     </row>
     <row r="209" spans="4:21">
-      <c r="D209" s="153"/>
-      <c r="E209" s="153"/>
-      <c r="F209" s="153"/>
-      <c r="G209" s="153"/>
-      <c r="H209" s="153"/>
-      <c r="I209" s="153"/>
-      <c r="J209" s="153"/>
-      <c r="K209" s="153"/>
-      <c r="L209" s="153"/>
-      <c r="M209" s="153"/>
-      <c r="N209" s="153"/>
-      <c r="O209" s="153"/>
-      <c r="P209" s="153"/>
-      <c r="Q209" s="153"/>
-      <c r="R209" s="153"/>
-      <c r="S209" s="153"/>
-      <c r="T209" s="153"/>
-      <c r="U209" s="153"/>
+      <c r="D209" s="156"/>
+      <c r="E209" s="156"/>
+      <c r="F209" s="156"/>
+      <c r="G209" s="156"/>
+      <c r="H209" s="156"/>
+      <c r="I209" s="156"/>
+      <c r="J209" s="156"/>
+      <c r="K209" s="156"/>
+      <c r="L209" s="156"/>
+      <c r="M209" s="156"/>
+      <c r="N209" s="156"/>
+      <c r="O209" s="156"/>
+      <c r="P209" s="156"/>
+      <c r="Q209" s="156"/>
+      <c r="R209" s="156"/>
+      <c r="S209" s="156"/>
+      <c r="T209" s="156"/>
+      <c r="U209" s="156"/>
     </row>
     <row r="210" spans="4:21">
-      <c r="D210" s="153"/>
-      <c r="E210" s="153"/>
-      <c r="F210" s="153"/>
-      <c r="G210" s="153"/>
-      <c r="H210" s="153"/>
-      <c r="I210" s="153"/>
-      <c r="J210" s="153"/>
-      <c r="K210" s="153"/>
-      <c r="L210" s="153"/>
-      <c r="M210" s="153"/>
-      <c r="N210" s="153"/>
-      <c r="O210" s="153"/>
-      <c r="P210" s="153"/>
-      <c r="Q210" s="153"/>
-      <c r="R210" s="153"/>
-      <c r="S210" s="153"/>
-      <c r="T210" s="153"/>
-      <c r="U210" s="153"/>
+      <c r="D210" s="156"/>
+      <c r="E210" s="156"/>
+      <c r="F210" s="156"/>
+      <c r="G210" s="156"/>
+      <c r="H210" s="156"/>
+      <c r="I210" s="156"/>
+      <c r="J210" s="156"/>
+      <c r="K210" s="156"/>
+      <c r="L210" s="156"/>
+      <c r="M210" s="156"/>
+      <c r="N210" s="156"/>
+      <c r="O210" s="156"/>
+      <c r="P210" s="156"/>
+      <c r="Q210" s="156"/>
+      <c r="R210" s="156"/>
+      <c r="S210" s="156"/>
+      <c r="T210" s="156"/>
+      <c r="U210" s="156"/>
     </row>
     <row r="211" spans="4:21">
-      <c r="D211" s="153"/>
-      <c r="E211" s="153"/>
-      <c r="F211" s="153"/>
-      <c r="G211" s="153"/>
-      <c r="H211" s="153"/>
-      <c r="I211" s="153"/>
-      <c r="J211" s="153"/>
-      <c r="K211" s="153"/>
-      <c r="L211" s="153"/>
-      <c r="M211" s="153"/>
-      <c r="N211" s="153"/>
-      <c r="O211" s="153"/>
-      <c r="P211" s="153"/>
-      <c r="Q211" s="153"/>
-      <c r="R211" s="153"/>
-      <c r="S211" s="153"/>
-      <c r="T211" s="153"/>
-      <c r="U211" s="153"/>
+      <c r="D211" s="156"/>
+      <c r="E211" s="156"/>
+      <c r="F211" s="156"/>
+      <c r="G211" s="156"/>
+      <c r="H211" s="156"/>
+      <c r="I211" s="156"/>
+      <c r="J211" s="156"/>
+      <c r="K211" s="156"/>
+      <c r="L211" s="156"/>
+      <c r="M211" s="156"/>
+      <c r="N211" s="156"/>
+      <c r="O211" s="156"/>
+      <c r="P211" s="156"/>
+      <c r="Q211" s="156"/>
+      <c r="R211" s="156"/>
+      <c r="S211" s="156"/>
+      <c r="T211" s="156"/>
+      <c r="U211" s="156"/>
     </row>
     <row r="212" spans="4:21">
-      <c r="D212" s="153"/>
-      <c r="E212" s="153"/>
-      <c r="F212" s="153"/>
-      <c r="G212" s="153"/>
-      <c r="H212" s="153"/>
-      <c r="I212" s="153"/>
-      <c r="J212" s="153"/>
-      <c r="K212" s="153"/>
-      <c r="L212" s="153"/>
-      <c r="M212" s="153"/>
-      <c r="N212" s="153"/>
-      <c r="O212" s="153"/>
-      <c r="P212" s="153"/>
-      <c r="Q212" s="153"/>
-      <c r="R212" s="153"/>
-      <c r="S212" s="153"/>
-      <c r="T212" s="153"/>
-      <c r="U212" s="153"/>
+      <c r="D212" s="156"/>
+      <c r="E212" s="156"/>
+      <c r="F212" s="156"/>
+      <c r="G212" s="156"/>
+      <c r="H212" s="156"/>
+      <c r="I212" s="156"/>
+      <c r="J212" s="156"/>
+      <c r="K212" s="156"/>
+      <c r="L212" s="156"/>
+      <c r="M212" s="156"/>
+      <c r="N212" s="156"/>
+      <c r="O212" s="156"/>
+      <c r="P212" s="156"/>
+      <c r="Q212" s="156"/>
+      <c r="R212" s="156"/>
+      <c r="S212" s="156"/>
+      <c r="T212" s="156"/>
+      <c r="U212" s="156"/>
     </row>
     <row r="213" spans="4:21">
-      <c r="D213" s="153"/>
-      <c r="E213" s="153"/>
-      <c r="F213" s="153"/>
-      <c r="G213" s="153"/>
-      <c r="H213" s="153"/>
-      <c r="I213" s="153"/>
-      <c r="J213" s="153"/>
-      <c r="K213" s="153"/>
-      <c r="L213" s="153"/>
-      <c r="M213" s="153"/>
-      <c r="N213" s="153"/>
-      <c r="O213" s="153"/>
-      <c r="P213" s="153"/>
-      <c r="Q213" s="153"/>
-      <c r="R213" s="153"/>
-      <c r="S213" s="153"/>
-      <c r="T213" s="153"/>
-      <c r="U213" s="153"/>
+      <c r="D213" s="156"/>
+      <c r="E213" s="156"/>
+      <c r="F213" s="156"/>
+      <c r="G213" s="156"/>
+      <c r="H213" s="156"/>
+      <c r="I213" s="156"/>
+      <c r="J213" s="156"/>
+      <c r="K213" s="156"/>
+      <c r="L213" s="156"/>
+      <c r="M213" s="156"/>
+      <c r="N213" s="156"/>
+      <c r="O213" s="156"/>
+      <c r="P213" s="156"/>
+      <c r="Q213" s="156"/>
+      <c r="R213" s="156"/>
+      <c r="S213" s="156"/>
+      <c r="T213" s="156"/>
+      <c r="U213" s="156"/>
     </row>
     <row r="214" spans="4:21">
-      <c r="D214" s="153"/>
-      <c r="E214" s="153"/>
-      <c r="F214" s="153"/>
-      <c r="G214" s="153"/>
-      <c r="H214" s="153"/>
-      <c r="I214" s="153"/>
-      <c r="J214" s="153"/>
-      <c r="K214" s="153"/>
-      <c r="L214" s="153"/>
-      <c r="M214" s="153"/>
-      <c r="N214" s="153"/>
-      <c r="O214" s="153"/>
-      <c r="P214" s="153"/>
-      <c r="Q214" s="153"/>
-      <c r="R214" s="153"/>
-      <c r="S214" s="153"/>
-      <c r="T214" s="153"/>
-      <c r="U214" s="153"/>
+      <c r="D214" s="156"/>
+      <c r="E214" s="156"/>
+      <c r="F214" s="156"/>
+      <c r="G214" s="156"/>
+      <c r="H214" s="156"/>
+      <c r="I214" s="156"/>
+      <c r="J214" s="156"/>
+      <c r="K214" s="156"/>
+      <c r="L214" s="156"/>
+      <c r="M214" s="156"/>
+      <c r="N214" s="156"/>
+      <c r="O214" s="156"/>
+      <c r="P214" s="156"/>
+      <c r="Q214" s="156"/>
+      <c r="R214" s="156"/>
+      <c r="S214" s="156"/>
+      <c r="T214" s="156"/>
+      <c r="U214" s="156"/>
     </row>
     <row r="215" spans="4:21">
-      <c r="D215" s="153"/>
-      <c r="E215" s="153"/>
-      <c r="F215" s="153"/>
-      <c r="G215" s="153"/>
-      <c r="H215" s="153"/>
-      <c r="I215" s="153"/>
-      <c r="J215" s="153"/>
-      <c r="K215" s="153"/>
-      <c r="L215" s="153"/>
-      <c r="M215" s="153"/>
-      <c r="N215" s="153"/>
-      <c r="O215" s="153"/>
-      <c r="P215" s="153"/>
-      <c r="Q215" s="153"/>
-      <c r="R215" s="153"/>
-      <c r="S215" s="153"/>
-      <c r="T215" s="153"/>
-      <c r="U215" s="153"/>
+      <c r="D215" s="156"/>
+      <c r="E215" s="156"/>
+      <c r="F215" s="156"/>
+      <c r="G215" s="156"/>
+      <c r="H215" s="156"/>
+      <c r="I215" s="156"/>
+      <c r="J215" s="156"/>
+      <c r="K215" s="156"/>
+      <c r="L215" s="156"/>
+      <c r="M215" s="156"/>
+      <c r="N215" s="156"/>
+      <c r="O215" s="156"/>
+      <c r="P215" s="156"/>
+      <c r="Q215" s="156"/>
+      <c r="R215" s="156"/>
+      <c r="S215" s="156"/>
+      <c r="T215" s="156"/>
+      <c r="U215" s="156"/>
     </row>
     <row r="216" spans="4:21">
-      <c r="D216" s="153"/>
-      <c r="E216" s="153"/>
-      <c r="F216" s="153"/>
-      <c r="G216" s="153"/>
-      <c r="H216" s="153"/>
-      <c r="I216" s="153"/>
-      <c r="J216" s="153"/>
-      <c r="K216" s="153"/>
-      <c r="L216" s="153"/>
-      <c r="M216" s="153"/>
-      <c r="N216" s="153"/>
-      <c r="O216" s="153"/>
-      <c r="P216" s="153"/>
-      <c r="Q216" s="153"/>
-      <c r="R216" s="153"/>
-      <c r="S216" s="153"/>
-      <c r="T216" s="153"/>
-      <c r="U216" s="153"/>
+      <c r="D216" s="156"/>
+      <c r="E216" s="156"/>
+      <c r="F216" s="156"/>
+      <c r="G216" s="156"/>
+      <c r="H216" s="156"/>
+      <c r="I216" s="156"/>
+      <c r="J216" s="156"/>
+      <c r="K216" s="156"/>
+      <c r="L216" s="156"/>
+      <c r="M216" s="156"/>
+      <c r="N216" s="156"/>
+      <c r="O216" s="156"/>
+      <c r="P216" s="156"/>
+      <c r="Q216" s="156"/>
+      <c r="R216" s="156"/>
+      <c r="S216" s="156"/>
+      <c r="T216" s="156"/>
+      <c r="U216" s="156"/>
     </row>
     <row r="217" spans="4:21">
-      <c r="D217" s="153"/>
-      <c r="E217" s="153"/>
-      <c r="F217" s="153"/>
-      <c r="G217" s="153"/>
-      <c r="H217" s="153"/>
-      <c r="I217" s="153"/>
-      <c r="J217" s="153"/>
-      <c r="K217" s="153"/>
-      <c r="L217" s="153"/>
-      <c r="M217" s="153"/>
-      <c r="N217" s="153"/>
-      <c r="O217" s="153"/>
-      <c r="P217" s="153"/>
-      <c r="Q217" s="153"/>
-      <c r="R217" s="153"/>
-      <c r="S217" s="153"/>
-      <c r="T217" s="153"/>
-      <c r="U217" s="153"/>
+      <c r="D217" s="156"/>
+      <c r="E217" s="156"/>
+      <c r="F217" s="156"/>
+      <c r="G217" s="156"/>
+      <c r="H217" s="156"/>
+      <c r="I217" s="156"/>
+      <c r="J217" s="156"/>
+      <c r="K217" s="156"/>
+      <c r="L217" s="156"/>
+      <c r="M217" s="156"/>
+      <c r="N217" s="156"/>
+      <c r="O217" s="156"/>
+      <c r="P217" s="156"/>
+      <c r="Q217" s="156"/>
+      <c r="R217" s="156"/>
+      <c r="S217" s="156"/>
+      <c r="T217" s="156"/>
+      <c r="U217" s="156"/>
     </row>
     <row r="218" spans="4:21">
-      <c r="D218" s="153"/>
-      <c r="E218" s="153"/>
-      <c r="F218" s="153"/>
-      <c r="G218" s="153"/>
-      <c r="H218" s="153"/>
-      <c r="I218" s="153"/>
-      <c r="J218" s="153"/>
-      <c r="K218" s="153"/>
-      <c r="L218" s="153"/>
-      <c r="M218" s="153"/>
-      <c r="N218" s="153"/>
-      <c r="O218" s="153"/>
-      <c r="P218" s="153"/>
-      <c r="Q218" s="153"/>
-      <c r="R218" s="153"/>
-      <c r="S218" s="153"/>
-      <c r="T218" s="153"/>
-      <c r="U218" s="153"/>
+      <c r="D218" s="156"/>
+      <c r="E218" s="156"/>
+      <c r="F218" s="156"/>
+      <c r="G218" s="156"/>
+      <c r="H218" s="156"/>
+      <c r="I218" s="156"/>
+      <c r="J218" s="156"/>
+      <c r="K218" s="156"/>
+      <c r="L218" s="156"/>
+      <c r="M218" s="156"/>
+      <c r="N218" s="156"/>
+      <c r="O218" s="156"/>
+      <c r="P218" s="156"/>
+      <c r="Q218" s="156"/>
+      <c r="R218" s="156"/>
+      <c r="S218" s="156"/>
+      <c r="T218" s="156"/>
+      <c r="U218" s="156"/>
     </row>
     <row r="219" spans="4:21">
-      <c r="D219" s="153"/>
-      <c r="E219" s="153"/>
-      <c r="F219" s="153"/>
-      <c r="G219" s="153"/>
-      <c r="H219" s="153"/>
-      <c r="I219" s="153"/>
-      <c r="J219" s="153"/>
-      <c r="K219" s="153"/>
-      <c r="L219" s="153"/>
-      <c r="M219" s="153"/>
-      <c r="N219" s="153"/>
-      <c r="O219" s="153"/>
-      <c r="P219" s="153"/>
-      <c r="Q219" s="153"/>
-      <c r="R219" s="153"/>
-      <c r="S219" s="153"/>
-      <c r="T219" s="153"/>
-      <c r="U219" s="153"/>
+      <c r="D219" s="156"/>
+      <c r="E219" s="156"/>
+      <c r="F219" s="156"/>
+      <c r="G219" s="156"/>
+      <c r="H219" s="156"/>
+      <c r="I219" s="156"/>
+      <c r="J219" s="156"/>
+      <c r="K219" s="156"/>
+      <c r="L219" s="156"/>
+      <c r="M219" s="156"/>
+      <c r="N219" s="156"/>
+      <c r="O219" s="156"/>
+      <c r="P219" s="156"/>
+      <c r="Q219" s="156"/>
+      <c r="R219" s="156"/>
+      <c r="S219" s="156"/>
+      <c r="T219" s="156"/>
+      <c r="U219" s="156"/>
     </row>
     <row r="220" spans="4:21">
-      <c r="D220" s="153"/>
-      <c r="E220" s="153"/>
-      <c r="F220" s="153"/>
-      <c r="G220" s="153"/>
-      <c r="H220" s="153"/>
-      <c r="I220" s="153"/>
-      <c r="J220" s="153"/>
-      <c r="K220" s="153"/>
-      <c r="L220" s="153"/>
-      <c r="M220" s="153"/>
-      <c r="N220" s="153"/>
-      <c r="O220" s="153"/>
-      <c r="P220" s="153"/>
-      <c r="Q220" s="153"/>
-      <c r="R220" s="153"/>
-      <c r="S220" s="153"/>
-      <c r="T220" s="153"/>
-      <c r="U220" s="153"/>
+      <c r="D220" s="156"/>
+      <c r="E220" s="156"/>
+      <c r="F220" s="156"/>
+      <c r="G220" s="156"/>
+      <c r="H220" s="156"/>
+      <c r="I220" s="156"/>
+      <c r="J220" s="156"/>
+      <c r="K220" s="156"/>
+      <c r="L220" s="156"/>
+      <c r="M220" s="156"/>
+      <c r="N220" s="156"/>
+      <c r="O220" s="156"/>
+      <c r="P220" s="156"/>
+      <c r="Q220" s="156"/>
+      <c r="R220" s="156"/>
+      <c r="S220" s="156"/>
+      <c r="T220" s="156"/>
+      <c r="U220" s="156"/>
     </row>
     <row r="221" spans="4:21">
-      <c r="D221" s="153"/>
-      <c r="E221" s="153"/>
-      <c r="F221" s="153"/>
-      <c r="G221" s="153"/>
-      <c r="H221" s="153"/>
-      <c r="I221" s="153"/>
-      <c r="J221" s="153"/>
-      <c r="K221" s="153"/>
-      <c r="L221" s="153"/>
-      <c r="M221" s="153"/>
-      <c r="N221" s="153"/>
-      <c r="O221" s="153"/>
-      <c r="P221" s="153"/>
-      <c r="Q221" s="153"/>
-      <c r="R221" s="153"/>
-      <c r="S221" s="153"/>
-      <c r="T221" s="153"/>
-      <c r="U221" s="153"/>
+      <c r="D221" s="156"/>
+      <c r="E221" s="156"/>
+      <c r="F221" s="156"/>
+      <c r="G221" s="156"/>
+      <c r="H221" s="156"/>
+      <c r="I221" s="156"/>
+      <c r="J221" s="156"/>
+      <c r="K221" s="156"/>
+      <c r="L221" s="156"/>
+      <c r="M221" s="156"/>
+      <c r="N221" s="156"/>
+      <c r="O221" s="156"/>
+      <c r="P221" s="156"/>
+      <c r="Q221" s="156"/>
+      <c r="R221" s="156"/>
+      <c r="S221" s="156"/>
+      <c r="T221" s="156"/>
+      <c r="U221" s="156"/>
     </row>
     <row r="222" spans="4:21">
-      <c r="D222" s="153"/>
-      <c r="E222" s="153"/>
-      <c r="F222" s="153"/>
-      <c r="G222" s="153"/>
-      <c r="H222" s="153"/>
-      <c r="I222" s="153"/>
-      <c r="J222" s="153"/>
-      <c r="K222" s="153"/>
-      <c r="L222" s="153"/>
-      <c r="M222" s="153"/>
-      <c r="N222" s="153"/>
-      <c r="O222" s="153"/>
-      <c r="P222" s="153"/>
-      <c r="Q222" s="153"/>
-      <c r="R222" s="153"/>
-      <c r="S222" s="153"/>
-      <c r="T222" s="153"/>
-      <c r="U222" s="153"/>
+      <c r="D222" s="156"/>
+      <c r="E222" s="156"/>
+      <c r="F222" s="156"/>
+      <c r="G222" s="156"/>
+      <c r="H222" s="156"/>
+      <c r="I222" s="156"/>
+      <c r="J222" s="156"/>
+      <c r="K222" s="156"/>
+      <c r="L222" s="156"/>
+      <c r="M222" s="156"/>
+      <c r="N222" s="156"/>
+      <c r="O222" s="156"/>
+      <c r="P222" s="156"/>
+      <c r="Q222" s="156"/>
+      <c r="R222" s="156"/>
+      <c r="S222" s="156"/>
+      <c r="T222" s="156"/>
+      <c r="U222" s="156"/>
     </row>
     <row r="223" spans="4:21">
-      <c r="D223" s="153"/>
-      <c r="E223" s="153"/>
-      <c r="F223" s="153"/>
-      <c r="G223" s="153"/>
-      <c r="H223" s="153"/>
-      <c r="I223" s="153"/>
-      <c r="J223" s="153"/>
-      <c r="K223" s="153"/>
-      <c r="L223" s="153"/>
-      <c r="M223" s="153"/>
-      <c r="N223" s="153"/>
-      <c r="O223" s="153"/>
-      <c r="P223" s="153"/>
-      <c r="Q223" s="153"/>
-      <c r="R223" s="153"/>
-      <c r="S223" s="153"/>
-      <c r="T223" s="153"/>
-      <c r="U223" s="153"/>
+      <c r="D223" s="156"/>
+      <c r="E223" s="156"/>
+      <c r="F223" s="156"/>
+      <c r="G223" s="156"/>
+      <c r="H223" s="156"/>
+      <c r="I223" s="156"/>
+      <c r="J223" s="156"/>
+      <c r="K223" s="156"/>
+      <c r="L223" s="156"/>
+      <c r="M223" s="156"/>
+      <c r="N223" s="156"/>
+      <c r="O223" s="156"/>
+      <c r="P223" s="156"/>
+      <c r="Q223" s="156"/>
+      <c r="R223" s="156"/>
+      <c r="S223" s="156"/>
+      <c r="T223" s="156"/>
+      <c r="U223" s="156"/>
     </row>
     <row r="224" spans="4:21">
-      <c r="D224" s="153"/>
-      <c r="E224" s="153"/>
-      <c r="F224" s="153"/>
-      <c r="G224" s="153"/>
-      <c r="H224" s="153"/>
-      <c r="I224" s="153"/>
-      <c r="J224" s="153"/>
-      <c r="K224" s="153"/>
-      <c r="L224" s="153"/>
-      <c r="M224" s="153"/>
-      <c r="N224" s="153"/>
-      <c r="O224" s="153"/>
-      <c r="P224" s="153"/>
-      <c r="Q224" s="153"/>
-      <c r="R224" s="153"/>
-      <c r="S224" s="153"/>
-      <c r="T224" s="153"/>
-      <c r="U224" s="153"/>
+      <c r="D224" s="156"/>
+      <c r="E224" s="156"/>
+      <c r="F224" s="156"/>
+      <c r="G224" s="156"/>
+      <c r="H224" s="156"/>
+      <c r="I224" s="156"/>
+      <c r="J224" s="156"/>
+      <c r="K224" s="156"/>
+      <c r="L224" s="156"/>
+      <c r="M224" s="156"/>
+      <c r="N224" s="156"/>
+      <c r="O224" s="156"/>
+      <c r="P224" s="156"/>
+      <c r="Q224" s="156"/>
+      <c r="R224" s="156"/>
+      <c r="S224" s="156"/>
+      <c r="T224" s="156"/>
+      <c r="U224" s="156"/>
     </row>
     <row r="225" spans="4:21">
-      <c r="D225" s="153"/>
-      <c r="E225" s="153"/>
-      <c r="F225" s="153"/>
-      <c r="G225" s="153"/>
-      <c r="H225" s="153"/>
-      <c r="I225" s="153"/>
-      <c r="J225" s="153"/>
-      <c r="K225" s="153"/>
-      <c r="L225" s="153"/>
-      <c r="M225" s="153"/>
-      <c r="N225" s="153"/>
-      <c r="O225" s="153"/>
-      <c r="P225" s="153"/>
-      <c r="Q225" s="153"/>
-      <c r="R225" s="153"/>
-      <c r="S225" s="153"/>
-      <c r="T225" s="153"/>
-      <c r="U225" s="153"/>
+      <c r="D225" s="156"/>
+      <c r="E225" s="156"/>
+      <c r="F225" s="156"/>
+      <c r="G225" s="156"/>
+      <c r="H225" s="156"/>
+      <c r="I225" s="156"/>
+      <c r="J225" s="156"/>
+      <c r="K225" s="156"/>
+      <c r="L225" s="156"/>
+      <c r="M225" s="156"/>
+      <c r="N225" s="156"/>
+      <c r="O225" s="156"/>
+      <c r="P225" s="156"/>
+      <c r="Q225" s="156"/>
+      <c r="R225" s="156"/>
+      <c r="S225" s="156"/>
+      <c r="T225" s="156"/>
+      <c r="U225" s="156"/>
     </row>
     <row r="226" spans="4:21">
-      <c r="D226" s="153"/>
-      <c r="E226" s="153"/>
-      <c r="F226" s="153"/>
-      <c r="G226" s="153"/>
-      <c r="H226" s="153"/>
-      <c r="I226" s="153"/>
-      <c r="J226" s="153"/>
-      <c r="K226" s="153"/>
-      <c r="L226" s="153"/>
-      <c r="M226" s="153"/>
-      <c r="N226" s="153"/>
-      <c r="O226" s="153"/>
-      <c r="P226" s="153"/>
-      <c r="Q226" s="153"/>
-      <c r="R226" s="153"/>
-      <c r="S226" s="153"/>
-      <c r="T226" s="153"/>
-      <c r="U226" s="153"/>
+      <c r="D226" s="156"/>
+      <c r="E226" s="156"/>
+      <c r="F226" s="156"/>
+      <c r="G226" s="156"/>
+      <c r="H226" s="156"/>
+      <c r="I226" s="156"/>
+      <c r="J226" s="156"/>
+      <c r="K226" s="156"/>
+      <c r="L226" s="156"/>
+      <c r="M226" s="156"/>
+      <c r="N226" s="156"/>
+      <c r="O226" s="156"/>
+      <c r="P226" s="156"/>
+      <c r="Q226" s="156"/>
+      <c r="R226" s="156"/>
+      <c r="S226" s="156"/>
+      <c r="T226" s="156"/>
+      <c r="U226" s="156"/>
     </row>
     <row r="227" spans="4:21">
-      <c r="D227" s="153"/>
-      <c r="E227" s="153"/>
-      <c r="F227" s="153"/>
-      <c r="G227" s="153"/>
-      <c r="H227" s="153"/>
-      <c r="I227" s="153"/>
-      <c r="J227" s="153"/>
-      <c r="K227" s="153"/>
-      <c r="L227" s="153"/>
-      <c r="M227" s="153"/>
-      <c r="N227" s="153"/>
-      <c r="O227" s="153"/>
-      <c r="P227" s="153"/>
-      <c r="Q227" s="153"/>
-      <c r="R227" s="153"/>
-      <c r="S227" s="153"/>
-      <c r="T227" s="153"/>
-      <c r="U227" s="153"/>
+      <c r="D227" s="156"/>
+      <c r="E227" s="156"/>
+      <c r="F227" s="156"/>
+      <c r="G227" s="156"/>
+      <c r="H227" s="156"/>
+      <c r="I227" s="156"/>
+      <c r="J227" s="156"/>
+      <c r="K227" s="156"/>
+      <c r="L227" s="156"/>
+      <c r="M227" s="156"/>
+      <c r="N227" s="156"/>
+      <c r="O227" s="156"/>
+      <c r="P227" s="156"/>
+      <c r="Q227" s="156"/>
+      <c r="R227" s="156"/>
+      <c r="S227" s="156"/>
+      <c r="T227" s="156"/>
+      <c r="U227" s="156"/>
     </row>
     <row r="228" spans="4:21">
-      <c r="D228" s="153"/>
-      <c r="E228" s="153"/>
-      <c r="F228" s="153"/>
-      <c r="G228" s="153"/>
-      <c r="H228" s="153"/>
-      <c r="I228" s="153"/>
-      <c r="J228" s="153"/>
-      <c r="K228" s="153"/>
-      <c r="L228" s="153"/>
-      <c r="M228" s="153"/>
-      <c r="N228" s="153"/>
-      <c r="O228" s="153"/>
-      <c r="P228" s="153"/>
-      <c r="Q228" s="153"/>
-      <c r="R228" s="153"/>
-      <c r="S228" s="153"/>
-      <c r="T228" s="153"/>
-      <c r="U228" s="153"/>
+      <c r="D228" s="156"/>
+      <c r="E228" s="156"/>
+      <c r="F228" s="156"/>
+      <c r="G228" s="156"/>
+      <c r="H228" s="156"/>
+      <c r="I228" s="156"/>
+      <c r="J228" s="156"/>
+      <c r="K228" s="156"/>
+      <c r="L228" s="156"/>
+      <c r="M228" s="156"/>
+      <c r="N228" s="156"/>
+      <c r="O228" s="156"/>
+      <c r="P228" s="156"/>
+      <c r="Q228" s="156"/>
+      <c r="R228" s="156"/>
+      <c r="S228" s="156"/>
+      <c r="T228" s="156"/>
+      <c r="U228" s="156"/>
     </row>
     <row r="229" spans="4:21">
-      <c r="D229" s="153"/>
-      <c r="E229" s="153"/>
-      <c r="F229" s="153"/>
-      <c r="G229" s="153"/>
-      <c r="H229" s="153"/>
-      <c r="I229" s="153"/>
-      <c r="J229" s="153"/>
-      <c r="K229" s="153"/>
-      <c r="L229" s="153"/>
-      <c r="M229" s="153"/>
-      <c r="N229" s="153"/>
-      <c r="O229" s="153"/>
-      <c r="P229" s="153"/>
-      <c r="Q229" s="153"/>
-      <c r="R229" s="153"/>
-      <c r="S229" s="153"/>
-      <c r="T229" s="153"/>
-      <c r="U229" s="153"/>
+      <c r="D229" s="156"/>
+      <c r="E229" s="156"/>
+      <c r="F229" s="156"/>
+      <c r="G229" s="156"/>
+      <c r="H229" s="156"/>
+      <c r="I229" s="156"/>
+      <c r="J229" s="156"/>
+      <c r="K229" s="156"/>
+      <c r="L229" s="156"/>
+      <c r="M229" s="156"/>
+      <c r="N229" s="156"/>
+      <c r="O229" s="156"/>
+      <c r="P229" s="156"/>
+      <c r="Q229" s="156"/>
+      <c r="R229" s="156"/>
+      <c r="S229" s="156"/>
+      <c r="T229" s="156"/>
+      <c r="U229" s="156"/>
     </row>
     <row r="230" spans="4:21">
-      <c r="D230" s="153"/>
-      <c r="E230" s="153"/>
-      <c r="F230" s="153"/>
-      <c r="G230" s="153"/>
-      <c r="H230" s="153"/>
-      <c r="I230" s="153"/>
-      <c r="J230" s="153"/>
-      <c r="K230" s="153"/>
-      <c r="L230" s="153"/>
-      <c r="M230" s="153"/>
-      <c r="N230" s="153"/>
-      <c r="O230" s="153"/>
-      <c r="P230" s="153"/>
-      <c r="Q230" s="153"/>
-      <c r="R230" s="153"/>
-      <c r="S230" s="153"/>
-      <c r="T230" s="153"/>
-      <c r="U230" s="153"/>
+      <c r="D230" s="156"/>
+      <c r="E230" s="156"/>
+      <c r="F230" s="156"/>
+      <c r="G230" s="156"/>
+      <c r="H230" s="156"/>
+      <c r="I230" s="156"/>
+      <c r="J230" s="156"/>
+      <c r="K230" s="156"/>
+      <c r="L230" s="156"/>
+      <c r="M230" s="156"/>
+      <c r="N230" s="156"/>
+      <c r="O230" s="156"/>
+      <c r="P230" s="156"/>
+      <c r="Q230" s="156"/>
+      <c r="R230" s="156"/>
+      <c r="S230" s="156"/>
+      <c r="T230" s="156"/>
+      <c r="U230" s="156"/>
     </row>
     <row r="231" spans="4:21">
-      <c r="D231" s="153"/>
-      <c r="E231" s="153"/>
-      <c r="F231" s="153"/>
-      <c r="G231" s="153"/>
-      <c r="H231" s="153"/>
-      <c r="I231" s="153"/>
-      <c r="J231" s="153"/>
-      <c r="K231" s="153"/>
-      <c r="L231" s="153"/>
-      <c r="M231" s="153"/>
-      <c r="N231" s="153"/>
-      <c r="O231" s="153"/>
-      <c r="P231" s="153"/>
-      <c r="Q231" s="153"/>
-      <c r="R231" s="153"/>
-      <c r="S231" s="153"/>
-      <c r="T231" s="153"/>
-      <c r="U231" s="153"/>
+      <c r="D231" s="156"/>
+      <c r="E231" s="156"/>
+      <c r="F231" s="156"/>
+      <c r="G231" s="156"/>
+      <c r="H231" s="156"/>
+      <c r="I231" s="156"/>
+      <c r="J231" s="156"/>
+      <c r="K231" s="156"/>
+      <c r="L231" s="156"/>
+      <c r="M231" s="156"/>
+      <c r="N231" s="156"/>
+      <c r="O231" s="156"/>
+      <c r="P231" s="156"/>
+      <c r="Q231" s="156"/>
+      <c r="R231" s="156"/>
+      <c r="S231" s="156"/>
+      <c r="T231" s="156"/>
+      <c r="U231" s="156"/>
     </row>
     <row r="232" spans="4:21">
-      <c r="D232" s="153"/>
-      <c r="E232" s="153"/>
-      <c r="F232" s="153"/>
-      <c r="G232" s="153"/>
-      <c r="H232" s="153"/>
-      <c r="I232" s="153"/>
-      <c r="J232" s="153"/>
-      <c r="K232" s="153"/>
-      <c r="L232" s="153"/>
-      <c r="M232" s="153"/>
-      <c r="N232" s="153"/>
-      <c r="O232" s="153"/>
-      <c r="P232" s="153"/>
-      <c r="Q232" s="153"/>
-      <c r="R232" s="153"/>
-      <c r="S232" s="153"/>
-      <c r="T232" s="153"/>
-      <c r="U232" s="153"/>
+      <c r="D232" s="156"/>
+      <c r="E232" s="156"/>
+      <c r="F232" s="156"/>
+      <c r="G232" s="156"/>
+      <c r="H232" s="156"/>
+      <c r="I232" s="156"/>
+      <c r="J232" s="156"/>
+      <c r="K232" s="156"/>
+      <c r="L232" s="156"/>
+      <c r="M232" s="156"/>
+      <c r="N232" s="156"/>
+      <c r="O232" s="156"/>
+      <c r="P232" s="156"/>
+      <c r="Q232" s="156"/>
+      <c r="R232" s="156"/>
+      <c r="S232" s="156"/>
+      <c r="T232" s="156"/>
+      <c r="U232" s="156"/>
     </row>
     <row r="233" spans="4:21">
-      <c r="D233" s="153"/>
-      <c r="E233" s="153"/>
-      <c r="F233" s="153"/>
-      <c r="G233" s="153"/>
-      <c r="H233" s="153"/>
-      <c r="I233" s="153"/>
-      <c r="J233" s="153"/>
-      <c r="K233" s="153"/>
-      <c r="L233" s="153"/>
-      <c r="M233" s="153"/>
-      <c r="N233" s="153"/>
-      <c r="O233" s="153"/>
-      <c r="P233" s="153"/>
-      <c r="Q233" s="153"/>
-      <c r="R233" s="153"/>
-      <c r="S233" s="153"/>
-      <c r="T233" s="153"/>
-      <c r="U233" s="153"/>
+      <c r="D233" s="156"/>
+      <c r="E233" s="156"/>
+      <c r="F233" s="156"/>
+      <c r="G233" s="156"/>
+      <c r="H233" s="156"/>
+      <c r="I233" s="156"/>
+      <c r="J233" s="156"/>
+      <c r="K233" s="156"/>
+      <c r="L233" s="156"/>
+      <c r="M233" s="156"/>
+      <c r="N233" s="156"/>
+      <c r="O233" s="156"/>
+      <c r="P233" s="156"/>
+      <c r="Q233" s="156"/>
+      <c r="R233" s="156"/>
+      <c r="S233" s="156"/>
+      <c r="T233" s="156"/>
+      <c r="U233" s="156"/>
     </row>
     <row r="234" spans="4:21">
-      <c r="D234" s="153"/>
-      <c r="E234" s="153"/>
-      <c r="F234" s="153"/>
-      <c r="G234" s="153"/>
-      <c r="H234" s="153"/>
-      <c r="I234" s="153"/>
-      <c r="J234" s="153"/>
-      <c r="K234" s="153"/>
-      <c r="L234" s="153"/>
-      <c r="M234" s="153"/>
-      <c r="N234" s="153"/>
-      <c r="O234" s="153"/>
-      <c r="P234" s="153"/>
-      <c r="Q234" s="153"/>
-      <c r="R234" s="153"/>
-      <c r="S234" s="153"/>
-      <c r="T234" s="153"/>
-      <c r="U234" s="153"/>
+      <c r="D234" s="156"/>
+      <c r="E234" s="156"/>
+      <c r="F234" s="156"/>
+      <c r="G234" s="156"/>
+      <c r="H234" s="156"/>
+      <c r="I234" s="156"/>
+      <c r="J234" s="156"/>
+      <c r="K234" s="156"/>
+      <c r="L234" s="156"/>
+      <c r="M234" s="156"/>
+      <c r="N234" s="156"/>
+      <c r="O234" s="156"/>
+      <c r="P234" s="156"/>
+      <c r="Q234" s="156"/>
+      <c r="R234" s="156"/>
+      <c r="S234" s="156"/>
+      <c r="T234" s="156"/>
+      <c r="U234" s="156"/>
     </row>
     <row r="235" spans="4:21">
-      <c r="D235" s="153"/>
-      <c r="E235" s="153"/>
-      <c r="F235" s="153"/>
-      <c r="G235" s="153"/>
-      <c r="H235" s="153"/>
-      <c r="I235" s="153"/>
-      <c r="J235" s="153"/>
-      <c r="K235" s="153"/>
-      <c r="L235" s="153"/>
-      <c r="M235" s="153"/>
-      <c r="N235" s="153"/>
-      <c r="O235" s="153"/>
-      <c r="P235" s="153"/>
-      <c r="Q235" s="153"/>
-      <c r="R235" s="153"/>
-      <c r="S235" s="153"/>
-      <c r="T235" s="153"/>
-      <c r="U235" s="153"/>
+      <c r="D235" s="156"/>
+      <c r="E235" s="156"/>
+      <c r="F235" s="156"/>
+      <c r="G235" s="156"/>
+      <c r="H235" s="156"/>
+      <c r="I235" s="156"/>
+      <c r="J235" s="156"/>
+      <c r="K235" s="156"/>
+      <c r="L235" s="156"/>
+      <c r="M235" s="156"/>
+      <c r="N235" s="156"/>
+      <c r="O235" s="156"/>
+      <c r="P235" s="156"/>
+      <c r="Q235" s="156"/>
+      <c r="R235" s="156"/>
+      <c r="S235" s="156"/>
+      <c r="T235" s="156"/>
+      <c r="U235" s="156"/>
     </row>
     <row r="236" spans="4:21">
-      <c r="D236" s="153"/>
-      <c r="E236" s="153"/>
-      <c r="F236" s="153"/>
-      <c r="G236" s="153"/>
-      <c r="H236" s="153"/>
-      <c r="I236" s="153"/>
-      <c r="J236" s="153"/>
-      <c r="K236" s="153"/>
-      <c r="L236" s="153"/>
-      <c r="M236" s="153"/>
-      <c r="N236" s="153"/>
-      <c r="O236" s="153"/>
-      <c r="P236" s="153"/>
-      <c r="Q236" s="153"/>
-      <c r="R236" s="153"/>
-      <c r="S236" s="153"/>
-      <c r="T236" s="153"/>
-      <c r="U236" s="153"/>
+      <c r="D236" s="156"/>
+      <c r="E236" s="156"/>
+      <c r="F236" s="156"/>
+      <c r="G236" s="156"/>
+      <c r="H236" s="156"/>
+      <c r="I236" s="156"/>
+      <c r="J236" s="156"/>
+      <c r="K236" s="156"/>
+      <c r="L236" s="156"/>
+      <c r="M236" s="156"/>
+      <c r="N236" s="156"/>
+      <c r="O236" s="156"/>
+      <c r="P236" s="156"/>
+      <c r="Q236" s="156"/>
+      <c r="R236" s="156"/>
+      <c r="S236" s="156"/>
+      <c r="T236" s="156"/>
+      <c r="U236" s="156"/>
     </row>
     <row r="237" spans="4:21">
-      <c r="D237" s="153"/>
-      <c r="E237" s="153"/>
-      <c r="F237" s="153"/>
-      <c r="G237" s="153"/>
-      <c r="H237" s="153"/>
-      <c r="I237" s="153"/>
-      <c r="J237" s="153"/>
-      <c r="K237" s="153"/>
-      <c r="L237" s="153"/>
-      <c r="M237" s="153"/>
-      <c r="N237" s="153"/>
-      <c r="O237" s="153"/>
-      <c r="P237" s="153"/>
-      <c r="Q237" s="153"/>
-      <c r="R237" s="153"/>
-      <c r="S237" s="153"/>
-      <c r="T237" s="153"/>
-      <c r="U237" s="153"/>
+      <c r="D237" s="156"/>
+      <c r="E237" s="156"/>
+      <c r="F237" s="156"/>
+      <c r="G237" s="156"/>
+      <c r="H237" s="156"/>
+      <c r="I237" s="156"/>
+      <c r="J237" s="156"/>
+      <c r="K237" s="156"/>
+      <c r="L237" s="156"/>
+      <c r="M237" s="156"/>
+      <c r="N237" s="156"/>
+      <c r="O237" s="156"/>
+      <c r="P237" s="156"/>
+      <c r="Q237" s="156"/>
+      <c r="R237" s="156"/>
+      <c r="S237" s="156"/>
+      <c r="T237" s="156"/>
+      <c r="U237" s="156"/>
     </row>
     <row r="238" spans="4:21">
-      <c r="D238" s="153"/>
-      <c r="E238" s="153"/>
-      <c r="F238" s="153"/>
-      <c r="G238" s="153"/>
-      <c r="H238" s="153"/>
-      <c r="I238" s="153"/>
-      <c r="J238" s="153"/>
-      <c r="K238" s="153"/>
-      <c r="L238" s="153"/>
-      <c r="M238" s="153"/>
-      <c r="N238" s="153"/>
-      <c r="O238" s="153"/>
-      <c r="P238" s="153"/>
-      <c r="Q238" s="153"/>
-      <c r="R238" s="153"/>
-      <c r="S238" s="153"/>
-      <c r="T238" s="153"/>
-      <c r="U238" s="153"/>
+      <c r="D238" s="156"/>
+      <c r="E238" s="156"/>
+      <c r="F238" s="156"/>
+      <c r="G238" s="156"/>
+      <c r="H238" s="156"/>
+      <c r="I238" s="156"/>
+      <c r="J238" s="156"/>
+      <c r="K238" s="156"/>
+      <c r="L238" s="156"/>
+      <c r="M238" s="156"/>
+      <c r="N238" s="156"/>
+      <c r="O238" s="156"/>
+      <c r="P238" s="156"/>
+      <c r="Q238" s="156"/>
+      <c r="R238" s="156"/>
+      <c r="S238" s="156"/>
+      <c r="T238" s="156"/>
+      <c r="U238" s="156"/>
     </row>
     <row r="239" spans="4:21">
-      <c r="D239" s="153"/>
-      <c r="E239" s="153"/>
-      <c r="F239" s="153"/>
-      <c r="G239" s="153"/>
-      <c r="H239" s="153"/>
-      <c r="I239" s="153"/>
-      <c r="J239" s="153"/>
-      <c r="K239" s="153"/>
-      <c r="L239" s="153"/>
-      <c r="M239" s="153"/>
-      <c r="N239" s="153"/>
-      <c r="O239" s="153"/>
-      <c r="P239" s="153"/>
-      <c r="Q239" s="153"/>
-      <c r="R239" s="153"/>
-      <c r="S239" s="153"/>
-      <c r="T239" s="153"/>
-      <c r="U239" s="153"/>
+      <c r="D239" s="156"/>
+      <c r="E239" s="156"/>
+      <c r="F239" s="156"/>
+      <c r="G239" s="156"/>
+      <c r="H239" s="156"/>
+      <c r="I239" s="156"/>
+      <c r="J239" s="156"/>
+      <c r="K239" s="156"/>
+      <c r="L239" s="156"/>
+      <c r="M239" s="156"/>
+      <c r="N239" s="156"/>
+      <c r="O239" s="156"/>
+      <c r="P239" s="156"/>
+      <c r="Q239" s="156"/>
+      <c r="R239" s="156"/>
+      <c r="S239" s="156"/>
+      <c r="T239" s="156"/>
+      <c r="U239" s="156"/>
     </row>
     <row r="240" spans="4:21">
-      <c r="D240" s="153"/>
-      <c r="E240" s="153"/>
-      <c r="F240" s="153"/>
-      <c r="G240" s="153"/>
-      <c r="H240" s="153"/>
-      <c r="I240" s="153"/>
-      <c r="J240" s="153"/>
-      <c r="K240" s="153"/>
-      <c r="L240" s="153"/>
-      <c r="M240" s="153"/>
-      <c r="N240" s="153"/>
-      <c r="O240" s="153"/>
-      <c r="P240" s="153"/>
-      <c r="Q240" s="153"/>
-      <c r="R240" s="153"/>
-      <c r="S240" s="153"/>
-      <c r="T240" s="153"/>
-      <c r="U240" s="153"/>
+      <c r="D240" s="156"/>
+      <c r="E240" s="156"/>
+      <c r="F240" s="156"/>
+      <c r="G240" s="156"/>
+      <c r="H240" s="156"/>
+      <c r="I240" s="156"/>
+      <c r="J240" s="156"/>
+      <c r="K240" s="156"/>
+      <c r="L240" s="156"/>
+      <c r="M240" s="156"/>
+      <c r="N240" s="156"/>
+      <c r="O240" s="156"/>
+      <c r="P240" s="156"/>
+      <c r="Q240" s="156"/>
+      <c r="R240" s="156"/>
+      <c r="S240" s="156"/>
+      <c r="T240" s="156"/>
+      <c r="U240" s="156"/>
     </row>
     <row r="241" spans="4:21">
-      <c r="D241" s="153"/>
-      <c r="E241" s="153"/>
-      <c r="F241" s="153"/>
-      <c r="G241" s="153"/>
-      <c r="H241" s="153"/>
-      <c r="I241" s="153"/>
-      <c r="J241" s="153"/>
-      <c r="K241" s="153"/>
-      <c r="L241" s="153"/>
-      <c r="M241" s="153"/>
-      <c r="N241" s="153"/>
-      <c r="O241" s="153"/>
-      <c r="P241" s="153"/>
-      <c r="Q241" s="153"/>
-      <c r="R241" s="153"/>
-      <c r="S241" s="153"/>
-      <c r="T241" s="153"/>
-      <c r="U241" s="153"/>
+      <c r="D241" s="156"/>
+      <c r="E241" s="156"/>
+      <c r="F241" s="156"/>
+      <c r="G241" s="156"/>
+      <c r="H241" s="156"/>
+      <c r="I241" s="156"/>
+      <c r="J241" s="156"/>
+      <c r="K241" s="156"/>
+      <c r="L241" s="156"/>
+      <c r="M241" s="156"/>
+      <c r="N241" s="156"/>
+      <c r="O241" s="156"/>
+      <c r="P241" s="156"/>
+      <c r="Q241" s="156"/>
+      <c r="R241" s="156"/>
+      <c r="S241" s="156"/>
+      <c r="T241" s="156"/>
+      <c r="U241" s="156"/>
     </row>
     <row r="242" spans="4:21">
-      <c r="D242" s="153"/>
-      <c r="E242" s="153"/>
-      <c r="F242" s="153"/>
-      <c r="G242" s="153"/>
-      <c r="H242" s="153"/>
-      <c r="I242" s="153"/>
-      <c r="J242" s="153"/>
-      <c r="K242" s="153"/>
-      <c r="L242" s="153"/>
-      <c r="M242" s="153"/>
-      <c r="N242" s="153"/>
-      <c r="O242" s="153"/>
-      <c r="P242" s="153"/>
-      <c r="Q242" s="153"/>
-      <c r="R242" s="153"/>
-      <c r="S242" s="153"/>
-      <c r="T242" s="153"/>
-      <c r="U242" s="153"/>
+      <c r="D242" s="156"/>
+      <c r="E242" s="156"/>
+      <c r="F242" s="156"/>
+      <c r="G242" s="156"/>
+      <c r="H242" s="156"/>
+      <c r="I242" s="156"/>
+      <c r="J242" s="156"/>
+      <c r="K242" s="156"/>
+      <c r="L242" s="156"/>
+      <c r="M242" s="156"/>
+      <c r="N242" s="156"/>
+      <c r="O242" s="156"/>
+      <c r="P242" s="156"/>
+      <c r="Q242" s="156"/>
+      <c r="R242" s="156"/>
+      <c r="S242" s="156"/>
+      <c r="T242" s="156"/>
+      <c r="U242" s="156"/>
     </row>
     <row r="243" spans="4:21">
-      <c r="D243" s="153"/>
-      <c r="E243" s="153"/>
-      <c r="F243" s="153"/>
-      <c r="G243" s="153"/>
-      <c r="H243" s="153"/>
-      <c r="I243" s="153"/>
-      <c r="J243" s="153"/>
-      <c r="K243" s="153"/>
-      <c r="L243" s="153"/>
-      <c r="M243" s="153"/>
-      <c r="N243" s="153"/>
-      <c r="O243" s="153"/>
-      <c r="P243" s="153"/>
-      <c r="Q243" s="153"/>
-      <c r="R243" s="153"/>
-      <c r="S243" s="153"/>
-      <c r="T243" s="153"/>
-      <c r="U243" s="153"/>
+      <c r="D243" s="156"/>
+      <c r="E243" s="156"/>
+      <c r="F243" s="156"/>
+      <c r="G243" s="156"/>
+      <c r="H243" s="156"/>
+      <c r="I243" s="156"/>
+      <c r="J243" s="156"/>
+      <c r="K243" s="156"/>
+      <c r="L243" s="156"/>
+      <c r="M243" s="156"/>
+      <c r="N243" s="156"/>
+      <c r="O243" s="156"/>
+      <c r="P243" s="156"/>
+      <c r="Q243" s="156"/>
+      <c r="R243" s="156"/>
+      <c r="S243" s="156"/>
+      <c r="T243" s="156"/>
+      <c r="U243" s="156"/>
     </row>
     <row r="244" spans="4:21">
-      <c r="D244" s="153"/>
-      <c r="E244" s="153"/>
-      <c r="F244" s="153"/>
-      <c r="G244" s="153"/>
-      <c r="H244" s="153"/>
-      <c r="I244" s="153"/>
-      <c r="J244" s="153"/>
-      <c r="K244" s="153"/>
-      <c r="L244" s="153"/>
-      <c r="M244" s="153"/>
-      <c r="N244" s="153"/>
-      <c r="O244" s="153"/>
-      <c r="P244" s="153"/>
-      <c r="Q244" s="153"/>
-      <c r="R244" s="153"/>
-      <c r="S244" s="153"/>
-      <c r="T244" s="153"/>
-      <c r="U244" s="153"/>
+      <c r="D244" s="156"/>
+      <c r="E244" s="156"/>
+      <c r="F244" s="156"/>
+      <c r="G244" s="156"/>
+      <c r="H244" s="156"/>
+      <c r="I244" s="156"/>
+      <c r="J244" s="156"/>
+      <c r="K244" s="156"/>
+      <c r="L244" s="156"/>
+      <c r="M244" s="156"/>
+      <c r="N244" s="156"/>
+      <c r="O244" s="156"/>
+      <c r="P244" s="156"/>
+      <c r="Q244" s="156"/>
+      <c r="R244" s="156"/>
+      <c r="S244" s="156"/>
+      <c r="T244" s="156"/>
+      <c r="U244" s="156"/>
     </row>
     <row r="245" spans="4:21">
-      <c r="D245" s="153"/>
-      <c r="E245" s="153"/>
-      <c r="F245" s="153"/>
-      <c r="G245" s="153"/>
-      <c r="H245" s="153"/>
-      <c r="I245" s="153"/>
-      <c r="J245" s="153"/>
-      <c r="K245" s="153"/>
-      <c r="L245" s="153"/>
-      <c r="M245" s="153"/>
-      <c r="N245" s="153"/>
-      <c r="O245" s="153"/>
-      <c r="P245" s="153"/>
-      <c r="Q245" s="153"/>
-      <c r="R245" s="153"/>
-      <c r="S245" s="153"/>
-      <c r="T245" s="153"/>
-      <c r="U245" s="153"/>
+      <c r="D245" s="156"/>
+      <c r="E245" s="156"/>
+      <c r="F245" s="156"/>
+      <c r="G245" s="156"/>
+      <c r="H245" s="156"/>
+      <c r="I245" s="156"/>
+      <c r="J245" s="156"/>
+      <c r="K245" s="156"/>
+      <c r="L245" s="156"/>
+      <c r="M245" s="156"/>
+      <c r="N245" s="156"/>
+      <c r="O245" s="156"/>
+      <c r="P245" s="156"/>
+      <c r="Q245" s="156"/>
+      <c r="R245" s="156"/>
+      <c r="S245" s="156"/>
+      <c r="T245" s="156"/>
+      <c r="U245" s="156"/>
     </row>
     <row r="246" spans="4:21">
-      <c r="D246" s="153"/>
-      <c r="E246" s="153"/>
-      <c r="F246" s="153"/>
-      <c r="G246" s="153"/>
-      <c r="H246" s="153"/>
-      <c r="I246" s="153"/>
-      <c r="J246" s="153"/>
-      <c r="K246" s="153"/>
-      <c r="L246" s="153"/>
-      <c r="M246" s="153"/>
-      <c r="N246" s="153"/>
-      <c r="O246" s="153"/>
-      <c r="P246" s="153"/>
-      <c r="Q246" s="153"/>
-      <c r="R246" s="153"/>
-      <c r="S246" s="153"/>
-      <c r="T246" s="153"/>
-      <c r="U246" s="153"/>
+      <c r="D246" s="156"/>
+      <c r="E246" s="156"/>
+      <c r="F246" s="156"/>
+      <c r="G246" s="156"/>
+      <c r="H246" s="156"/>
+      <c r="I246" s="156"/>
+      <c r="J246" s="156"/>
+      <c r="K246" s="156"/>
+      <c r="L246" s="156"/>
+      <c r="M246" s="156"/>
+      <c r="N246" s="156"/>
+      <c r="O246" s="156"/>
+      <c r="P246" s="156"/>
+      <c r="Q246" s="156"/>
+      <c r="R246" s="156"/>
+      <c r="S246" s="156"/>
+      <c r="T246" s="156"/>
+      <c r="U246" s="156"/>
     </row>
     <row r="247" spans="4:21">
-      <c r="D247" s="153"/>
-      <c r="E247" s="153"/>
-      <c r="F247" s="153"/>
-      <c r="G247" s="153"/>
-      <c r="H247" s="153"/>
-      <c r="I247" s="153"/>
-      <c r="J247" s="153"/>
-      <c r="K247" s="153"/>
-      <c r="L247" s="153"/>
-      <c r="M247" s="153"/>
-      <c r="N247" s="153"/>
-      <c r="O247" s="153"/>
-      <c r="P247" s="153"/>
-      <c r="Q247" s="153"/>
-      <c r="R247" s="153"/>
-      <c r="S247" s="153"/>
-      <c r="T247" s="153"/>
-      <c r="U247" s="153"/>
+      <c r="D247" s="156"/>
+      <c r="E247" s="156"/>
+      <c r="F247" s="156"/>
+      <c r="G247" s="156"/>
+      <c r="H247" s="156"/>
+      <c r="I247" s="156"/>
+      <c r="J247" s="156"/>
+      <c r="K247" s="156"/>
+      <c r="L247" s="156"/>
+      <c r="M247" s="156"/>
+      <c r="N247" s="156"/>
+      <c r="O247" s="156"/>
+      <c r="P247" s="156"/>
+      <c r="Q247" s="156"/>
+      <c r="R247" s="156"/>
+      <c r="S247" s="156"/>
+      <c r="T247" s="156"/>
+      <c r="U247" s="156"/>
     </row>
     <row r="248" spans="4:21">
-      <c r="D248" s="153"/>
-      <c r="E248" s="153"/>
-      <c r="F248" s="153"/>
-      <c r="G248" s="153"/>
-      <c r="H248" s="153"/>
-      <c r="I248" s="153"/>
-      <c r="J248" s="153"/>
-      <c r="K248" s="153"/>
-      <c r="L248" s="153"/>
-      <c r="M248" s="153"/>
-      <c r="N248" s="153"/>
-      <c r="O248" s="153"/>
-      <c r="P248" s="153"/>
-      <c r="Q248" s="153"/>
-      <c r="R248" s="153"/>
-      <c r="S248" s="153"/>
-      <c r="T248" s="153"/>
-      <c r="U248" s="153"/>
+      <c r="D248" s="156"/>
+      <c r="E248" s="156"/>
+      <c r="F248" s="156"/>
+      <c r="G248" s="156"/>
+      <c r="H248" s="156"/>
+      <c r="I248" s="156"/>
+      <c r="J248" s="156"/>
+      <c r="K248" s="156"/>
+      <c r="L248" s="156"/>
+      <c r="M248" s="156"/>
+      <c r="N248" s="156"/>
+      <c r="O248" s="156"/>
+      <c r="P248" s="156"/>
+      <c r="Q248" s="156"/>
+      <c r="R248" s="156"/>
+      <c r="S248" s="156"/>
+      <c r="T248" s="156"/>
+      <c r="U248" s="156"/>
     </row>
     <row r="249" spans="4:21">
-      <c r="D249" s="153"/>
-      <c r="E249" s="153"/>
-      <c r="F249" s="153"/>
-      <c r="G249" s="153"/>
-      <c r="H249" s="153"/>
-      <c r="I249" s="153"/>
-      <c r="J249" s="153"/>
-      <c r="K249" s="153"/>
-      <c r="L249" s="153"/>
-      <c r="M249" s="153"/>
-      <c r="N249" s="153"/>
-      <c r="O249" s="153"/>
-      <c r="P249" s="153"/>
-      <c r="Q249" s="153"/>
-      <c r="R249" s="153"/>
-      <c r="S249" s="153"/>
-      <c r="T249" s="153"/>
-      <c r="U249" s="153"/>
+      <c r="D249" s="156"/>
+      <c r="E249" s="156"/>
+      <c r="F249" s="156"/>
+      <c r="G249" s="156"/>
+      <c r="H249" s="156"/>
+      <c r="I249" s="156"/>
+      <c r="J249" s="156"/>
+      <c r="K249" s="156"/>
+      <c r="L249" s="156"/>
+      <c r="M249" s="156"/>
+      <c r="N249" s="156"/>
+      <c r="O249" s="156"/>
+      <c r="P249" s="156"/>
+      <c r="Q249" s="156"/>
+      <c r="R249" s="156"/>
+      <c r="S249" s="156"/>
+      <c r="T249" s="156"/>
+      <c r="U249" s="156"/>
     </row>
     <row r="250" spans="4:21">
-      <c r="D250" s="153"/>
-      <c r="E250" s="153"/>
-      <c r="F250" s="153"/>
-      <c r="G250" s="153"/>
-      <c r="H250" s="153"/>
-      <c r="I250" s="153"/>
-      <c r="J250" s="153"/>
-      <c r="K250" s="153"/>
-      <c r="L250" s="153"/>
-      <c r="M250" s="153"/>
-      <c r="N250" s="153"/>
-      <c r="O250" s="153"/>
-      <c r="P250" s="153"/>
-      <c r="Q250" s="153"/>
-      <c r="R250" s="153"/>
-      <c r="S250" s="153"/>
-      <c r="T250" s="153"/>
-      <c r="U250" s="153"/>
+      <c r="D250" s="156"/>
+      <c r="E250" s="156"/>
+      <c r="F250" s="156"/>
+      <c r="G250" s="156"/>
+      <c r="H250" s="156"/>
+      <c r="I250" s="156"/>
+      <c r="J250" s="156"/>
+      <c r="K250" s="156"/>
+      <c r="L250" s="156"/>
+      <c r="M250" s="156"/>
+      <c r="N250" s="156"/>
+      <c r="O250" s="156"/>
+      <c r="P250" s="156"/>
+      <c r="Q250" s="156"/>
+      <c r="R250" s="156"/>
+      <c r="S250" s="156"/>
+      <c r="T250" s="156"/>
+      <c r="U250" s="156"/>
     </row>
     <row r="251" spans="4:21">
-      <c r="D251" s="153"/>
-      <c r="E251" s="153"/>
-      <c r="F251" s="153"/>
-      <c r="G251" s="153"/>
-      <c r="H251" s="153"/>
-      <c r="I251" s="153"/>
-      <c r="J251" s="153"/>
-      <c r="K251" s="153"/>
-      <c r="L251" s="153"/>
-      <c r="M251" s="153"/>
-      <c r="N251" s="153"/>
-      <c r="O251" s="153"/>
-      <c r="P251" s="153"/>
-      <c r="Q251" s="153"/>
-      <c r="R251" s="153"/>
-      <c r="S251" s="153"/>
-      <c r="T251" s="153"/>
-      <c r="U251" s="153"/>
+      <c r="D251" s="156"/>
+      <c r="E251" s="156"/>
+      <c r="F251" s="156"/>
+      <c r="G251" s="156"/>
+      <c r="H251" s="156"/>
+      <c r="I251" s="156"/>
+      <c r="J251" s="156"/>
+      <c r="K251" s="156"/>
+      <c r="L251" s="156"/>
+      <c r="M251" s="156"/>
+      <c r="N251" s="156"/>
+      <c r="O251" s="156"/>
+      <c r="P251" s="156"/>
+      <c r="Q251" s="156"/>
+      <c r="R251" s="156"/>
+      <c r="S251" s="156"/>
+      <c r="T251" s="156"/>
+      <c r="U251" s="156"/>
     </row>
     <row r="254" spans="4:21">
       <c r="D254" s="48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="4:21">
       <c r="D256" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="4:4">
       <c r="D257" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="4:4">
       <c r="D258" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="4:4">
       <c r="D259" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="4:4">
       <c r="D260" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="4:4">
       <c r="D261" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262" spans="4:4">
       <c r="D262" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="4:4">
       <c r="D263" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264" spans="4:4">
       <c r="D264" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D168:U251"/>
+    <mergeCell ref="D167:U167"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B31"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="B19:B23"/>
@@ -10120,11 +10290,6 @@
     <mergeCell ref="D100:U164"/>
     <mergeCell ref="D99:U99"/>
     <mergeCell ref="D35:T35"/>
-    <mergeCell ref="D168:U251"/>
-    <mergeCell ref="D167:U167"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10161,7 +10326,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="D1" s="54" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
@@ -10169,46 +10334,46 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="D3" s="56" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="F5" s="158" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G5" s="158"/>
       <c r="H5" s="159"/>
       <c r="I5" s="99" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="57" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="I6" s="100"/>
       <c r="J6" s="101"/>
@@ -10218,25 +10383,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C7" s="63">
         <v>1</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="H7" s="98" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
@@ -10246,25 +10411,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C8" s="75">
         <v>1</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
@@ -10276,19 +10441,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I9" s="101"/>
       <c r="J9" s="101"/>
@@ -10300,19 +10465,19 @@
         <v>3</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
@@ -10324,13 +10489,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G11" s="68"/>
       <c r="H11" s="69"/>
@@ -10344,10 +10509,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
@@ -10362,10 +10527,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
@@ -10380,10 +10545,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
@@ -10398,10 +10563,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="68"/>
@@ -10416,10 +10581,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
@@ -10434,10 +10599,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
@@ -10452,10 +10617,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10470,10 +10635,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
@@ -10488,10 +10653,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
@@ -10506,10 +10671,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
@@ -10522,25 +10687,25 @@
         <v>3</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C22" s="72">
         <v>1</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="I22" s="101"/>
       <c r="J22" s="101"/>
@@ -10552,25 +10717,25 @@
         <v>2</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I23" s="101" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="J23" s="101" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10580,25 +10745,25 @@
         <v>3</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="I24" s="101" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10608,25 +10773,25 @@
         <v>4</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="J25" s="101" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10636,25 +10801,25 @@
         <v>5</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="J26" s="101" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10664,25 +10829,25 @@
         <v>6</v>
       </c>
       <c r="D27" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="E27" s="80" t="s">
         <v>321</v>
       </c>
-      <c r="E27" s="80" t="s">
-        <v>308</v>
-      </c>
       <c r="F27" s="68" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="J27" s="101" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10692,25 +10857,25 @@
         <v>7</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10720,25 +10885,25 @@
         <v>8</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H29" s="85" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="I29" s="102" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="J29" s="102" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10748,25 +10913,25 @@
         <v>9</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="I30" s="101" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="J30" s="102" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10776,25 +10941,25 @@
         <v>10</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="J31" s="102" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10804,25 +10969,25 @@
         <v>11</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="I32" s="101" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="J32" s="101" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10830,25 +10995,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C33" s="75">
         <v>1</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -10860,19 +11025,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
@@ -10884,19 +11049,19 @@
         <v>3</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="I35" s="101"/>
       <c r="J35" s="101"/>
@@ -10908,19 +11073,19 @@
         <v>4</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="G36" s="68" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
@@ -10932,19 +11097,19 @@
         <v>5</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -10956,10 +11121,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68"/>
@@ -10974,10 +11139,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
@@ -10992,10 +11157,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F40" s="68"/>
       <c r="G40" s="68"/>
@@ -11010,10 +11175,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
@@ -11028,10 +11193,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="F42" s="68"/>
       <c r="G42" s="68"/>
@@ -11046,10 +11211,10 @@
         <v>10</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
@@ -11064,10 +11229,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F44" s="68"/>
       <c r="G44" s="68"/>
@@ -11082,10 +11247,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
@@ -11100,10 +11265,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
@@ -11113,17 +11278,17 @@
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="90" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="90" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="90" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -11413,7 +11578,7 @@
     </row>
     <row r="173" spans="4:6">
       <c r="D173" s="90" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="176" spans="4:6">
@@ -11648,76 +11813,76 @@
     </row>
     <row r="228" spans="4:7">
       <c r="D228" s="89" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E228" s="89" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="229" spans="4:7">
       <c r="D229" s="53" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="E229" s="53" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="230" spans="4:7">
       <c r="D230" s="53" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="231" spans="4:7">
       <c r="D231" s="53" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="232" spans="4:7">
       <c r="D232" s="53" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="233" spans="4:7">
       <c r="D233" s="85" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="234" spans="4:7">
       <c r="D234" s="53" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="237" spans="4:7">
       <c r="F237" s="88" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="239" spans="4:7">
       <c r="D239" s="86" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="E239" s="87" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="F239" s="87" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="G239" s="87" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="241" spans="4:7">
       <c r="D241" s="53" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="E241" s="53" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="F241" s="53" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="G241" s="53" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -11760,22 +11925,22 @@
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>39</v>
@@ -11786,156 +11951,156 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="E6" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="F6" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="E7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="D8" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="E8" s="109"/>
       <c r="F8" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="E9" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="F9" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="F10" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
       <c r="C11" s="96" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="D12" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="E12" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="F12" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="D13" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="E14" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="F14" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="D15" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="F15" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="D16" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E16" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="F16" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75">
@@ -11943,7 +12108,7 @@
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
@@ -11969,7 +12134,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
       <c r="D21" s="56" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
@@ -11997,41 +12162,41 @@
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="158" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G23" s="158"/>
       <c r="H23" s="159"/>
       <c r="I23" s="99" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="J23" s="99" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="57" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E24" s="108" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="I24" s="100"/>
       <c r="J24" s="101"/>
@@ -12041,28 +12206,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C25" s="104">
         <v>1</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="H25" s="98" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="J25" s="101"/>
     </row>
@@ -12071,31 +12236,31 @@
         <v>2</v>
       </c>
       <c r="B26" s="160" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C26" s="78">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H26" s="98" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="J26" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -12105,25 +12270,25 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="F27" s="106" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="J27" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -12133,25 +12298,25 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="F28" s="106" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="J28" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -12161,25 +12326,25 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="F29" s="106" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="J29" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -12189,25 +12354,25 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F30" s="106" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="J30" s="101" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30.75">
@@ -12217,25 +12382,25 @@
         <v>6</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="F31" s="106" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="J31" s="96" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -12245,25 +12410,25 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="F32" s="106" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="J32" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -12273,25 +12438,25 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="F33" s="106" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="J33" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -12301,19 +12466,19 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F34" s="106"/>
       <c r="G34" s="68"/>
       <c r="H34" s="69"/>
       <c r="I34" s="38" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="J34" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -12323,19 +12488,19 @@
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F35" s="106"/>
       <c r="G35" s="68"/>
       <c r="H35" s="69"/>
       <c r="I35" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="J35" t="s">
         <v>462</v>
-      </c>
-      <c r="J35" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -12345,19 +12510,19 @@
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="F36" s="106"/>
       <c r="G36" s="68"/>
       <c r="H36" s="69"/>
       <c r="I36" s="38" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="J36" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -12365,25 +12530,25 @@
         <v>3</v>
       </c>
       <c r="B37" s="165" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C37" s="72">
         <v>1</v>
       </c>
       <c r="D37" s="73" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -12395,25 +12560,25 @@
         <v>2</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H38" s="69" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="I38" s="101" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="J38" s="101" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -12423,25 +12588,25 @@
         <v>3</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="I39" s="101" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="J39" s="101" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -12451,25 +12616,25 @@
         <v>4</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="I40" s="101" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="J40" s="101" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -12479,25 +12644,25 @@
         <v>5</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="I41" s="101" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="J41" s="101" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -12507,25 +12672,25 @@
         <v>6</v>
       </c>
       <c r="D42" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="E42" s="69" t="s">
-        <v>308</v>
-      </c>
       <c r="F42" s="68" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="I42" s="101" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12535,25 +12700,25 @@
         <v>7</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="I43" s="101" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="J43" s="102" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -12563,25 +12728,25 @@
         <v>8</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H44" s="85" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="I44" s="102" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="J44" s="102" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -12591,25 +12756,25 @@
         <v>9</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="H45" s="69" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="I45" s="101" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="J45" s="102" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -12619,25 +12784,25 @@
         <v>10</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="G46" s="68" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="I46" s="101" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="J46" s="102" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -12647,25 +12812,25 @@
         <v>11</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="I47" s="101" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="J47" s="101" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -12673,25 +12838,25 @@
         <v>4</v>
       </c>
       <c r="B48" s="163" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C48" s="75">
         <v>1</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="I48" s="101"/>
       <c r="J48" s="101"/>
@@ -12703,19 +12868,19 @@
         <v>2</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="I49" s="101"/>
       <c r="J49" s="101"/>
@@ -12727,19 +12892,19 @@
         <v>3</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E50" s="82" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="I50" s="101"/>
       <c r="J50" s="101"/>
@@ -12751,19 +12916,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="E51" s="84" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="I51" s="101"/>
       <c r="J51" s="101"/>
@@ -12775,19 +12940,19 @@
         <v>5</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="F52" s="68" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="I52" s="101"/>
       <c r="J52" s="101"/>
@@ -12799,10 +12964,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="F53" s="68"/>
       <c r="G53" s="68"/>
@@ -12817,10 +12982,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="E54" s="71" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
@@ -12835,10 +13000,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F55" s="68"/>
       <c r="G55" s="68"/>
@@ -12853,10 +13018,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
@@ -12871,10 +13036,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="F57" s="68"/>
       <c r="G57" s="68"/>
@@ -12889,10 +13054,10 @@
         <v>10</v>
       </c>
       <c r="D58" s="70" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F58" s="68"/>
       <c r="G58" s="68"/>
@@ -12907,10 +13072,10 @@
         <v>11</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
@@ -12925,10 +13090,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="E60" s="71" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F60" s="68"/>
       <c r="G60" s="68"/>
@@ -12943,10 +13108,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="70" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F61" s="68"/>
       <c r="G61" s="68"/>
@@ -12995,7 +13160,7 @@
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="54" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
@@ -13021,7 +13186,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="56" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -13054,28 +13219,28 @@
     </row>
     <row r="10" spans="2:11" ht="15.75">
       <c r="B10" s="118" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E10" s="129" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75">
@@ -13083,22 +13248,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="H11" s="105" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="I11" s="122"/>
     </row>
@@ -13107,22 +13272,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="160" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D12" s="132">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="H12" s="120" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="I12" s="123"/>
     </row>
@@ -13133,19 +13298,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="H13" s="120" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -13155,19 +13320,19 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="H14" s="120" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -13177,19 +13342,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="H15" s="120" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -13199,19 +13364,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -13221,19 +13386,19 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="G17" s="101" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="H17" s="127" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="I17" s="103" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -13243,19 +13408,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="H18" s="120" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -13265,17 +13430,17 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G19" s="124"/>
       <c r="H19" s="127" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -13285,17 +13450,17 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="127" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -13305,17 +13470,17 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G21" s="101"/>
       <c r="H21" s="127" t="s">
+        <v>475</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -13323,25 +13488,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="160" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D22" s="132">
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="H22" s="127" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -13351,13 +13516,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="H23" s="128"/>
       <c r="I23" s="122"/>
@@ -13369,13 +13534,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="H24" s="128"/>
       <c r="I24" s="122"/>
@@ -13387,19 +13552,19 @@
         <v>3</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="H25" s="120" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -13409,19 +13574,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="H26" s="120" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -13431,19 +13596,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="G27" s="102" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="H27" s="120" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -13453,19 +13618,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="H28" s="120" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -13475,19 +13640,19 @@
         <v>7</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="F29" s="70" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="G29" s="102" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="H29" s="120" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="I29" s="101" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -13497,19 +13662,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="F30" s="70" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H30" s="120" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="I30" s="102" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -13519,19 +13684,19 @@
         <v>9</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="F31" s="70" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="H31" s="133" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="I31" s="102" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -13541,19 +13706,19 @@
         <v>10</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="F32" s="70" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="H32" s="120" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="I32" s="102" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -13563,19 +13728,19 @@
         <v>11</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="G33" s="102" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="H33" s="120" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="I33" s="102" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -13583,25 +13748,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="160" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="D34" s="132">
         <v>1</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="H34" s="120" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="I34" s="101" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -13612,13 +13777,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="H35" s="120"/>
       <c r="I35" s="101"/>
@@ -13630,13 +13795,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="G36" s="102" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H36" s="120"/>
       <c r="I36" s="101"/>
@@ -13649,13 +13814,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="81" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="F37" s="81" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="G37" s="102" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H37" s="120"/>
       <c r="I37" s="101"/>
@@ -13668,13 +13833,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G38" s="102" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="H38" s="120"/>
       <c r="I38" s="101"/>
@@ -13687,13 +13852,13 @@
         <v>6</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="F39" s="81" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="G39" s="102" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="H39" s="120"/>
       <c r="I39" s="101"/>
@@ -13706,13 +13871,13 @@
         <v>7</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="G40" s="102" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="H40" s="120"/>
       <c r="I40" s="101"/>
@@ -13725,13 +13890,13 @@
         <v>8</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="H41" s="120"/>
       <c r="I41" s="101"/>
@@ -13744,13 +13909,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="101"/>
@@ -13763,13 +13928,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="102" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="101"/>
@@ -13782,16 +13947,16 @@
         <v>11</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="H44" s="106" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="I44" s="101"/>
     </row>
@@ -13803,16 +13968,16 @@
         <v>12</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="H45" s="106" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="I45" s="101"/>
     </row>
@@ -13824,14 +13989,14 @@
         <v>13</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="106" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="I46" s="101"/>
     </row>
@@ -13843,10 +14008,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="G47" s="68"/>
       <c r="H47" s="120"/>
@@ -13860,10 +14025,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G48" s="68"/>
       <c r="H48" s="120"/>
@@ -13877,10 +14042,10 @@
         <v>16</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="G49" s="68"/>
       <c r="H49" s="120"/>
@@ -13894,10 +14059,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G50" s="68"/>
       <c r="H50" s="120"/>
@@ -13911,10 +14076,10 @@
         <v>18</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="G51" s="68"/>
       <c r="H51" s="120"/>
@@ -13928,10 +14093,10 @@
         <v>19</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G52" s="68"/>
       <c r="H52" s="120"/>
@@ -13945,10 +14110,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="120"/>
@@ -13962,10 +14127,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="G54" s="68"/>
       <c r="H54" s="120"/>
@@ -13979,10 +14144,10 @@
         <v>22</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="G55" s="68"/>
       <c r="H55" s="120"/>
@@ -14023,7 +14188,7 @@
     <row r="2" spans="1:8" ht="18.75">
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -14033,33 +14198,33 @@
     <row r="4" spans="1:8" ht="15.75">
       <c r="C4" s="53"/>
       <c r="D4" s="56" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="118" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -14067,25 +14232,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C6" s="63">
         <v>1</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="E6" s="134" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="H6" s="122" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14093,25 +14258,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C7" s="132">
         <v>2</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="G7" s="120" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14121,19 +14286,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="G8" s="120" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14143,19 +14308,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="G9" s="120" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14165,19 +14330,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="G10" s="120" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14187,19 +14352,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="G11" s="126" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14209,19 +14374,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14231,19 +14396,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="G13" s="120" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14253,19 +14418,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E14" s="101" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14275,19 +14440,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="E15" s="101" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14297,19 +14462,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14317,22 +14482,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="160" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="C17" s="132">
         <v>1</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -14343,16 +14508,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="G18" s="135" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="H18" s="101"/>
     </row>
@@ -14363,16 +14528,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="G19" s="128" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="H19" s="122"/>
     </row>
@@ -14383,19 +14548,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="G20" s="120" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="H20" s="101" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14405,19 +14570,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="G21" s="120" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="H21" s="101" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14427,19 +14592,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F22" s="102" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="G22" s="120" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H22" s="101" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14449,19 +14614,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="G23" s="120" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="H23" s="101" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14471,19 +14636,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="G24" s="120" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="H24" s="101" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14493,19 +14658,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="G25" s="133" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="H25" s="102" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14515,19 +14680,19 @@
         <v>9</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="G26" s="120" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14537,19 +14702,19 @@
         <v>10</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="G27" s="120" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="H27" s="102" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14559,19 +14724,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14579,25 +14744,25 @@
         <v>4</v>
       </c>
       <c r="B29" s="160" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C29" s="132">
         <v>1</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="G29" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="H29" s="101" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14608,16 +14773,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="G30" s="120" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="H30" s="101"/>
     </row>
@@ -14628,16 +14793,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H31" s="101"/>
     </row>
@@ -14649,16 +14814,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="G32" s="120" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="H32" s="101"/>
     </row>
@@ -14670,16 +14835,16 @@
         <v>5</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="G33" s="120" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H33" s="101"/>
     </row>
@@ -14691,16 +14856,16 @@
         <v>6</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="F34" s="102" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H34" s="101"/>
     </row>
@@ -14712,16 +14877,16 @@
         <v>7</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="E35" s="81" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="F35" s="102" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H35" s="101"/>
     </row>
@@ -14733,16 +14898,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H36" s="101"/>
     </row>
@@ -14754,16 +14919,16 @@
         <v>9</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="G37" s="120" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H37" s="101"/>
     </row>
@@ -14775,16 +14940,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="G38" s="120" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="H38" s="101"/>
     </row>
@@ -14796,16 +14961,16 @@
         <v>11</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="G39" s="106" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="H39" s="101"/>
     </row>
@@ -14817,16 +14982,16 @@
         <v>12</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="G40" s="106" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="H40" s="101"/>
     </row>
@@ -14838,16 +15003,16 @@
         <v>13</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G41" s="106" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="H41" s="101"/>
     </row>
@@ -14859,16 +15024,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="G42" s="120" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="H42" s="101"/>
     </row>
@@ -14880,16 +15045,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="G43" s="120" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="H43" s="101"/>
     </row>
@@ -14901,16 +15066,16 @@
         <v>16</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="G44" s="120" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="H44" s="101"/>
     </row>
@@ -14922,16 +15087,16 @@
         <v>17</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="G45" s="120" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="H45" s="101"/>
     </row>
@@ -14943,16 +15108,16 @@
         <v>18</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="G46" s="120" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="H46" s="101"/>
     </row>
@@ -14964,16 +15129,16 @@
         <v>19</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="G47" s="120" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="H47" s="101"/>
     </row>
@@ -14985,16 +15150,16 @@
         <v>20</v>
       </c>
       <c r="D48" s="70" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="G48" s="120" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="H48" s="101"/>
     </row>
@@ -15006,16 +15171,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="70" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="G49" s="120" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="H49" s="101"/>
     </row>
@@ -15027,16 +15192,16 @@
         <v>22</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="G50" s="120" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="H50" s="101"/>
     </row>

--- a/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
+++ b/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25301"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3350544-446C-4E27-87D5-A5EB5BDD6BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F79C914-C32B-4D72-990E-ED9407DE0CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="563">
   <si>
     <t>MOM</t>
   </si>
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t>Consider Maximum &amp; minimum length</t>
+  </si>
+  <si>
+    <t>DAY 10</t>
+  </si>
+  <si>
+    <t>Work on Estimations -(Open/Closed)</t>
+  </si>
+  <si>
+    <t>Sequence diagram for Usecase</t>
   </si>
   <si>
     <t xml:space="preserve"> TEAM ALPHA</t>
@@ -2117,7 +2126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2485,16 +2494,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2526,6 +2535,10 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3317,15 +3330,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46290B07-6E6D-4B19-9A9B-C3E38C6518F8}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110:B113"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="76.140625" customWidth="1"/>
+    <col min="2" max="2" width="80.5703125" customWidth="1"/>
     <col min="3" max="3" width="77.85546875" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
@@ -4116,13 +4129,57 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:3">
       <c r="A113" s="6">
         <v>4</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>111</v>
       </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="7">
+        <v>1</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="6">
+        <v>2</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="168"/>
+      <c r="B120" s="167"/>
+      <c r="C120" s="167"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="168"/>
+      <c r="B121" s="167"/>
+      <c r="C121" s="167"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="167"/>
+      <c r="B122" s="167"/>
+      <c r="C122" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4147,7 +4204,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
       <c r="G1" s="142" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H1" s="142"/>
       <c r="I1" s="142"/>
@@ -4157,14 +4214,14 @@
     </row>
     <row r="3" spans="1:14">
       <c r="G3" s="143" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H3" s="143"/>
       <c r="I3" s="143"/>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="F5" s="138" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G5" s="138"/>
       <c r="H5" s="138"/>
@@ -4174,11 +4231,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="137" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D8" s="137"/>
       <c r="E8" s="137"/>
@@ -4194,11 +4251,11 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="28"/>
@@ -4214,7 +4271,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="C12" s="139" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D12" s="140"/>
       <c r="E12" s="140"/>
@@ -4230,7 +4287,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="C13" s="137" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D13" s="137"/>
       <c r="E13" s="137"/>
@@ -4277,7 +4334,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
       <c r="E1" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.75">
@@ -4285,7 +4342,7 @@
     </row>
     <row r="3" spans="2:6" ht="15.75">
       <c r="E3" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -4293,19 +4350,19 @@
     </row>
     <row r="5" spans="2:6" ht="15.75">
       <c r="B5" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4313,16 +4370,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="146" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -4332,10 +4389,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -4345,10 +4402,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -4358,10 +4415,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -4371,10 +4428,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -4384,10 +4441,10 @@
         <v>6</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -4397,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -4410,10 +4467,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -4421,16 +4478,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="146" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D14" s="25">
         <v>9</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -4440,10 +4497,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -4453,10 +4510,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4466,10 +4523,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4479,10 +4536,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -4490,16 +4547,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="146" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D19" s="25">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -4509,10 +4566,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -4522,10 +4579,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4535,10 +4592,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -4611,20 +4668,20 @@
   <sheetData>
     <row r="1" spans="3:16" ht="18.75">
       <c r="C1" s="21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="3:16">
       <c r="C3" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="3:16" ht="17.25">
       <c r="C5" s="20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H5" s="143" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I5" s="143"/>
       <c r="J5" s="143"/>
@@ -4635,10 +4692,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="3:16">
@@ -4647,10 +4704,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="144" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -4660,7 +4717,7 @@
       </c>
       <c r="I9" s="145"/>
       <c r="J9" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="17.25">
@@ -4670,10 +4727,10 @@
       </c>
       <c r="I10" s="145"/>
       <c r="J10" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="3:16">
@@ -4683,7 +4740,7 @@
       </c>
       <c r="I11" s="145"/>
       <c r="J11" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="3:16">
@@ -4693,7 +4750,7 @@
       </c>
       <c r="I12" s="145"/>
       <c r="J12" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -4703,7 +4760,7 @@
       </c>
       <c r="I13" s="145"/>
       <c r="J13" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="3:16">
@@ -4713,7 +4770,7 @@
       </c>
       <c r="I14" s="145"/>
       <c r="J14" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -4723,7 +4780,7 @@
       </c>
       <c r="I15" s="145"/>
       <c r="J15" s="19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="3:16">
@@ -4733,7 +4790,7 @@
       </c>
       <c r="I16" s="149"/>
       <c r="J16" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -4747,10 +4804,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="151" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -4760,7 +4817,7 @@
       </c>
       <c r="I19" s="151"/>
       <c r="J19" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -4770,7 +4827,7 @@
       </c>
       <c r="I20" s="151"/>
       <c r="J20" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -4780,7 +4837,7 @@
       </c>
       <c r="I21" s="151"/>
       <c r="J21" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="3:10">
@@ -4790,7 +4847,7 @@
       </c>
       <c r="I22" s="151"/>
       <c r="J22" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -4800,7 +4857,7 @@
       </c>
       <c r="I23" s="151"/>
       <c r="J23" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -4810,7 +4867,7 @@
       </c>
       <c r="I24" s="151"/>
       <c r="J24" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="3:10">
@@ -4823,10 +4880,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="151" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="3:10">
@@ -4836,7 +4893,7 @@
       </c>
       <c r="I27" s="151"/>
       <c r="J27" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="3:10">
@@ -4846,7 +4903,7 @@
       </c>
       <c r="I28" s="151"/>
       <c r="J28" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="3:10">
@@ -4856,7 +4913,7 @@
       </c>
       <c r="I29" s="151"/>
       <c r="J29" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="3:10">
@@ -4866,7 +4923,7 @@
       </c>
       <c r="I30" s="151"/>
       <c r="J30" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="3:10">
@@ -4876,7 +4933,7 @@
       </c>
       <c r="I31" s="151"/>
       <c r="J31" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="3:10">
@@ -4886,7 +4943,7 @@
       </c>
       <c r="I32" s="151"/>
       <c r="J32" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="3:10">
@@ -4895,12 +4952,12 @@
       </c>
       <c r="I33" s="151"/>
       <c r="J33" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="17.25">
       <c r="C34" s="23" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="3:10">
@@ -5011,12 +5068,12 @@
     </row>
     <row r="72" spans="3:4" ht="17.25">
       <c r="C72" s="23" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="3:4">
       <c r="C74" s="150" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="3:4">
@@ -5034,7 +5091,7 @@
     <row r="79" spans="3:4" ht="17.25">
       <c r="C79" s="150"/>
       <c r="D79" s="17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="3:4">
@@ -5155,7 +5212,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="D1" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
@@ -5163,24 +5220,24 @@
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="D3" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5188,16 +5245,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="151" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5207,10 +5264,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5220,10 +5277,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5233,10 +5290,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5246,10 +5303,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5259,10 +5316,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5272,10 +5329,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5285,10 +5342,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5298,10 +5355,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5311,10 +5368,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5324,10 +5381,10 @@
         <v>11</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5337,10 +5394,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5350,10 +5407,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5361,16 +5418,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="149" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C19" s="51">
         <v>14</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5380,10 +5437,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5393,10 +5450,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5406,10 +5463,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5419,10 +5476,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5430,16 +5487,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C24" s="50">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5449,10 +5506,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5462,10 +5519,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5475,10 +5532,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5488,10 +5545,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5501,10 +5558,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5514,10 +5571,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5527,10 +5584,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5549,44 +5606,44 @@
       <c r="E34" s="47"/>
     </row>
     <row r="35" spans="3:20">
-      <c r="D35" s="155" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="155"/>
-      <c r="R35" s="155"/>
-      <c r="S35" s="155"/>
-      <c r="T35" s="155"/>
+      <c r="D35" s="156" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="156"/>
+      <c r="P35" s="156"/>
+      <c r="Q35" s="156"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="156"/>
+      <c r="T35" s="156"/>
     </row>
     <row r="36" spans="3:20">
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="153"/>
-      <c r="T36" s="153"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+      <c r="P36" s="155"/>
+      <c r="Q36" s="155"/>
+      <c r="R36" s="155"/>
+      <c r="S36" s="155"/>
+      <c r="T36" s="155"/>
     </row>
     <row r="37" spans="3:20">
       <c r="D37" s="152"/>
@@ -6714,7 +6771,7 @@
     </row>
     <row r="99" spans="4:21">
       <c r="D99" s="154" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E99" s="154"/>
       <c r="F99" s="154"/>
@@ -6735,24 +6792,24 @@
       <c r="U99" s="154"/>
     </row>
     <row r="100" spans="4:21">
-      <c r="D100" s="153"/>
-      <c r="E100" s="153"/>
-      <c r="F100" s="153"/>
-      <c r="G100" s="153"/>
-      <c r="H100" s="153"/>
-      <c r="I100" s="153"/>
-      <c r="J100" s="153"/>
-      <c r="K100" s="153"/>
-      <c r="L100" s="153"/>
-      <c r="M100" s="153"/>
-      <c r="N100" s="153"/>
-      <c r="O100" s="153"/>
-      <c r="P100" s="153"/>
-      <c r="Q100" s="153"/>
-      <c r="R100" s="153"/>
-      <c r="S100" s="153"/>
-      <c r="T100" s="153"/>
-      <c r="U100" s="153"/>
+      <c r="D100" s="155"/>
+      <c r="E100" s="155"/>
+      <c r="F100" s="155"/>
+      <c r="G100" s="155"/>
+      <c r="H100" s="155"/>
+      <c r="I100" s="155"/>
+      <c r="J100" s="155"/>
+      <c r="K100" s="155"/>
+      <c r="L100" s="155"/>
+      <c r="M100" s="155"/>
+      <c r="N100" s="155"/>
+      <c r="O100" s="155"/>
+      <c r="P100" s="155"/>
+      <c r="Q100" s="155"/>
+      <c r="R100" s="155"/>
+      <c r="S100" s="155"/>
+      <c r="T100" s="155"/>
+      <c r="U100" s="155"/>
     </row>
     <row r="101" spans="4:21">
       <c r="D101" s="152"/>
@@ -8036,7 +8093,7 @@
     </row>
     <row r="167" spans="4:21">
       <c r="D167" s="154" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E167" s="154"/>
       <c r="F167" s="154"/>
@@ -8057,1742 +8114,1737 @@
       <c r="U167" s="154"/>
     </row>
     <row r="168" spans="4:21">
-      <c r="D168" s="156"/>
-      <c r="E168" s="156"/>
-      <c r="F168" s="156"/>
-      <c r="G168" s="156"/>
-      <c r="H168" s="156"/>
-      <c r="I168" s="156"/>
-      <c r="J168" s="156"/>
-      <c r="K168" s="156"/>
-      <c r="L168" s="156"/>
-      <c r="M168" s="156"/>
-      <c r="N168" s="156"/>
-      <c r="O168" s="156"/>
-      <c r="P168" s="156"/>
-      <c r="Q168" s="156"/>
-      <c r="R168" s="156"/>
-      <c r="S168" s="156"/>
-      <c r="T168" s="156"/>
-      <c r="U168" s="156"/>
+      <c r="D168" s="153"/>
+      <c r="E168" s="153"/>
+      <c r="F168" s="153"/>
+      <c r="G168" s="153"/>
+      <c r="H168" s="153"/>
+      <c r="I168" s="153"/>
+      <c r="J168" s="153"/>
+      <c r="K168" s="153"/>
+      <c r="L168" s="153"/>
+      <c r="M168" s="153"/>
+      <c r="N168" s="153"/>
+      <c r="O168" s="153"/>
+      <c r="P168" s="153"/>
+      <c r="Q168" s="153"/>
+      <c r="R168" s="153"/>
+      <c r="S168" s="153"/>
+      <c r="T168" s="153"/>
+      <c r="U168" s="153"/>
     </row>
     <row r="169" spans="4:21">
-      <c r="D169" s="156"/>
-      <c r="E169" s="156"/>
-      <c r="F169" s="156"/>
-      <c r="G169" s="156"/>
-      <c r="H169" s="156"/>
-      <c r="I169" s="156"/>
-      <c r="J169" s="156"/>
-      <c r="K169" s="156"/>
-      <c r="L169" s="156"/>
-      <c r="M169" s="156"/>
-      <c r="N169" s="156"/>
-      <c r="O169" s="156"/>
-      <c r="P169" s="156"/>
-      <c r="Q169" s="156"/>
-      <c r="R169" s="156"/>
-      <c r="S169" s="156"/>
-      <c r="T169" s="156"/>
-      <c r="U169" s="156"/>
+      <c r="D169" s="153"/>
+      <c r="E169" s="153"/>
+      <c r="F169" s="153"/>
+      <c r="G169" s="153"/>
+      <c r="H169" s="153"/>
+      <c r="I169" s="153"/>
+      <c r="J169" s="153"/>
+      <c r="K169" s="153"/>
+      <c r="L169" s="153"/>
+      <c r="M169" s="153"/>
+      <c r="N169" s="153"/>
+      <c r="O169" s="153"/>
+      <c r="P169" s="153"/>
+      <c r="Q169" s="153"/>
+      <c r="R169" s="153"/>
+      <c r="S169" s="153"/>
+      <c r="T169" s="153"/>
+      <c r="U169" s="153"/>
     </row>
     <row r="170" spans="4:21">
-      <c r="D170" s="156"/>
-      <c r="E170" s="156"/>
-      <c r="F170" s="156"/>
-      <c r="G170" s="156"/>
-      <c r="H170" s="156"/>
-      <c r="I170" s="156"/>
-      <c r="J170" s="156"/>
-      <c r="K170" s="156"/>
-      <c r="L170" s="156"/>
-      <c r="M170" s="156"/>
-      <c r="N170" s="156"/>
-      <c r="O170" s="156"/>
-      <c r="P170" s="156"/>
-      <c r="Q170" s="156"/>
-      <c r="R170" s="156"/>
-      <c r="S170" s="156"/>
-      <c r="T170" s="156"/>
-      <c r="U170" s="156"/>
+      <c r="D170" s="153"/>
+      <c r="E170" s="153"/>
+      <c r="F170" s="153"/>
+      <c r="G170" s="153"/>
+      <c r="H170" s="153"/>
+      <c r="I170" s="153"/>
+      <c r="J170" s="153"/>
+      <c r="K170" s="153"/>
+      <c r="L170" s="153"/>
+      <c r="M170" s="153"/>
+      <c r="N170" s="153"/>
+      <c r="O170" s="153"/>
+      <c r="P170" s="153"/>
+      <c r="Q170" s="153"/>
+      <c r="R170" s="153"/>
+      <c r="S170" s="153"/>
+      <c r="T170" s="153"/>
+      <c r="U170" s="153"/>
     </row>
     <row r="171" spans="4:21">
-      <c r="D171" s="156"/>
-      <c r="E171" s="156"/>
-      <c r="F171" s="156"/>
-      <c r="G171" s="156"/>
-      <c r="H171" s="156"/>
-      <c r="I171" s="156"/>
-      <c r="J171" s="156"/>
-      <c r="K171" s="156"/>
-      <c r="L171" s="156"/>
-      <c r="M171" s="156"/>
-      <c r="N171" s="156"/>
-      <c r="O171" s="156"/>
-      <c r="P171" s="156"/>
-      <c r="Q171" s="156"/>
-      <c r="R171" s="156"/>
-      <c r="S171" s="156"/>
-      <c r="T171" s="156"/>
-      <c r="U171" s="156"/>
+      <c r="D171" s="153"/>
+      <c r="E171" s="153"/>
+      <c r="F171" s="153"/>
+      <c r="G171" s="153"/>
+      <c r="H171" s="153"/>
+      <c r="I171" s="153"/>
+      <c r="J171" s="153"/>
+      <c r="K171" s="153"/>
+      <c r="L171" s="153"/>
+      <c r="M171" s="153"/>
+      <c r="N171" s="153"/>
+      <c r="O171" s="153"/>
+      <c r="P171" s="153"/>
+      <c r="Q171" s="153"/>
+      <c r="R171" s="153"/>
+      <c r="S171" s="153"/>
+      <c r="T171" s="153"/>
+      <c r="U171" s="153"/>
     </row>
     <row r="172" spans="4:21">
-      <c r="D172" s="156"/>
-      <c r="E172" s="156"/>
-      <c r="F172" s="156"/>
-      <c r="G172" s="156"/>
-      <c r="H172" s="156"/>
-      <c r="I172" s="156"/>
-      <c r="J172" s="156"/>
-      <c r="K172" s="156"/>
-      <c r="L172" s="156"/>
-      <c r="M172" s="156"/>
-      <c r="N172" s="156"/>
-      <c r="O172" s="156"/>
-      <c r="P172" s="156"/>
-      <c r="Q172" s="156"/>
-      <c r="R172" s="156"/>
-      <c r="S172" s="156"/>
-      <c r="T172" s="156"/>
-      <c r="U172" s="156"/>
+      <c r="D172" s="153"/>
+      <c r="E172" s="153"/>
+      <c r="F172" s="153"/>
+      <c r="G172" s="153"/>
+      <c r="H172" s="153"/>
+      <c r="I172" s="153"/>
+      <c r="J172" s="153"/>
+      <c r="K172" s="153"/>
+      <c r="L172" s="153"/>
+      <c r="M172" s="153"/>
+      <c r="N172" s="153"/>
+      <c r="O172" s="153"/>
+      <c r="P172" s="153"/>
+      <c r="Q172" s="153"/>
+      <c r="R172" s="153"/>
+      <c r="S172" s="153"/>
+      <c r="T172" s="153"/>
+      <c r="U172" s="153"/>
     </row>
     <row r="173" spans="4:21">
-      <c r="D173" s="156"/>
-      <c r="E173" s="156"/>
-      <c r="F173" s="156"/>
-      <c r="G173" s="156"/>
-      <c r="H173" s="156"/>
-      <c r="I173" s="156"/>
-      <c r="J173" s="156"/>
-      <c r="K173" s="156"/>
-      <c r="L173" s="156"/>
-      <c r="M173" s="156"/>
-      <c r="N173" s="156"/>
-      <c r="O173" s="156"/>
-      <c r="P173" s="156"/>
-      <c r="Q173" s="156"/>
-      <c r="R173" s="156"/>
-      <c r="S173" s="156"/>
-      <c r="T173" s="156"/>
-      <c r="U173" s="156"/>
+      <c r="D173" s="153"/>
+      <c r="E173" s="153"/>
+      <c r="F173" s="153"/>
+      <c r="G173" s="153"/>
+      <c r="H173" s="153"/>
+      <c r="I173" s="153"/>
+      <c r="J173" s="153"/>
+      <c r="K173" s="153"/>
+      <c r="L173" s="153"/>
+      <c r="M173" s="153"/>
+      <c r="N173" s="153"/>
+      <c r="O173" s="153"/>
+      <c r="P173" s="153"/>
+      <c r="Q173" s="153"/>
+      <c r="R173" s="153"/>
+      <c r="S173" s="153"/>
+      <c r="T173" s="153"/>
+      <c r="U173" s="153"/>
     </row>
     <row r="174" spans="4:21">
-      <c r="D174" s="156"/>
-      <c r="E174" s="156"/>
-      <c r="F174" s="156"/>
-      <c r="G174" s="156"/>
-      <c r="H174" s="156"/>
-      <c r="I174" s="156"/>
-      <c r="J174" s="156"/>
-      <c r="K174" s="156"/>
-      <c r="L174" s="156"/>
-      <c r="M174" s="156"/>
-      <c r="N174" s="156"/>
-      <c r="O174" s="156"/>
-      <c r="P174" s="156"/>
-      <c r="Q174" s="156"/>
-      <c r="R174" s="156"/>
-      <c r="S174" s="156"/>
-      <c r="T174" s="156"/>
-      <c r="U174" s="156"/>
+      <c r="D174" s="153"/>
+      <c r="E174" s="153"/>
+      <c r="F174" s="153"/>
+      <c r="G174" s="153"/>
+      <c r="H174" s="153"/>
+      <c r="I174" s="153"/>
+      <c r="J174" s="153"/>
+      <c r="K174" s="153"/>
+      <c r="L174" s="153"/>
+      <c r="M174" s="153"/>
+      <c r="N174" s="153"/>
+      <c r="O174" s="153"/>
+      <c r="P174" s="153"/>
+      <c r="Q174" s="153"/>
+      <c r="R174" s="153"/>
+      <c r="S174" s="153"/>
+      <c r="T174" s="153"/>
+      <c r="U174" s="153"/>
     </row>
     <row r="175" spans="4:21">
-      <c r="D175" s="156"/>
-      <c r="E175" s="156"/>
-      <c r="F175" s="156"/>
-      <c r="G175" s="156"/>
-      <c r="H175" s="156"/>
-      <c r="I175" s="156"/>
-      <c r="J175" s="156"/>
-      <c r="K175" s="156"/>
-      <c r="L175" s="156"/>
-      <c r="M175" s="156"/>
-      <c r="N175" s="156"/>
-      <c r="O175" s="156"/>
-      <c r="P175" s="156"/>
-      <c r="Q175" s="156"/>
-      <c r="R175" s="156"/>
-      <c r="S175" s="156"/>
-      <c r="T175" s="156"/>
-      <c r="U175" s="156"/>
+      <c r="D175" s="153"/>
+      <c r="E175" s="153"/>
+      <c r="F175" s="153"/>
+      <c r="G175" s="153"/>
+      <c r="H175" s="153"/>
+      <c r="I175" s="153"/>
+      <c r="J175" s="153"/>
+      <c r="K175" s="153"/>
+      <c r="L175" s="153"/>
+      <c r="M175" s="153"/>
+      <c r="N175" s="153"/>
+      <c r="O175" s="153"/>
+      <c r="P175" s="153"/>
+      <c r="Q175" s="153"/>
+      <c r="R175" s="153"/>
+      <c r="S175" s="153"/>
+      <c r="T175" s="153"/>
+      <c r="U175" s="153"/>
     </row>
     <row r="176" spans="4:21">
-      <c r="D176" s="156"/>
-      <c r="E176" s="156"/>
-      <c r="F176" s="156"/>
-      <c r="G176" s="156"/>
-      <c r="H176" s="156"/>
-      <c r="I176" s="156"/>
-      <c r="J176" s="156"/>
-      <c r="K176" s="156"/>
-      <c r="L176" s="156"/>
-      <c r="M176" s="156"/>
-      <c r="N176" s="156"/>
-      <c r="O176" s="156"/>
-      <c r="P176" s="156"/>
-      <c r="Q176" s="156"/>
-      <c r="R176" s="156"/>
-      <c r="S176" s="156"/>
-      <c r="T176" s="156"/>
-      <c r="U176" s="156"/>
+      <c r="D176" s="153"/>
+      <c r="E176" s="153"/>
+      <c r="F176" s="153"/>
+      <c r="G176" s="153"/>
+      <c r="H176" s="153"/>
+      <c r="I176" s="153"/>
+      <c r="J176" s="153"/>
+      <c r="K176" s="153"/>
+      <c r="L176" s="153"/>
+      <c r="M176" s="153"/>
+      <c r="N176" s="153"/>
+      <c r="O176" s="153"/>
+      <c r="P176" s="153"/>
+      <c r="Q176" s="153"/>
+      <c r="R176" s="153"/>
+      <c r="S176" s="153"/>
+      <c r="T176" s="153"/>
+      <c r="U176" s="153"/>
     </row>
     <row r="177" spans="4:21">
-      <c r="D177" s="156"/>
-      <c r="E177" s="156"/>
-      <c r="F177" s="156"/>
-      <c r="G177" s="156"/>
-      <c r="H177" s="156"/>
-      <c r="I177" s="156"/>
-      <c r="J177" s="156"/>
-      <c r="K177" s="156"/>
-      <c r="L177" s="156"/>
-      <c r="M177" s="156"/>
-      <c r="N177" s="156"/>
-      <c r="O177" s="156"/>
-      <c r="P177" s="156"/>
-      <c r="Q177" s="156"/>
-      <c r="R177" s="156"/>
-      <c r="S177" s="156"/>
-      <c r="T177" s="156"/>
-      <c r="U177" s="156"/>
+      <c r="D177" s="153"/>
+      <c r="E177" s="153"/>
+      <c r="F177" s="153"/>
+      <c r="G177" s="153"/>
+      <c r="H177" s="153"/>
+      <c r="I177" s="153"/>
+      <c r="J177" s="153"/>
+      <c r="K177" s="153"/>
+      <c r="L177" s="153"/>
+      <c r="M177" s="153"/>
+      <c r="N177" s="153"/>
+      <c r="O177" s="153"/>
+      <c r="P177" s="153"/>
+      <c r="Q177" s="153"/>
+      <c r="R177" s="153"/>
+      <c r="S177" s="153"/>
+      <c r="T177" s="153"/>
+      <c r="U177" s="153"/>
     </row>
     <row r="178" spans="4:21">
-      <c r="D178" s="156"/>
-      <c r="E178" s="156"/>
-      <c r="F178" s="156"/>
-      <c r="G178" s="156"/>
-      <c r="H178" s="156"/>
-      <c r="I178" s="156"/>
-      <c r="J178" s="156"/>
-      <c r="K178" s="156"/>
-      <c r="L178" s="156"/>
-      <c r="M178" s="156"/>
-      <c r="N178" s="156"/>
-      <c r="O178" s="156"/>
-      <c r="P178" s="156"/>
-      <c r="Q178" s="156"/>
-      <c r="R178" s="156"/>
-      <c r="S178" s="156"/>
-      <c r="T178" s="156"/>
-      <c r="U178" s="156"/>
+      <c r="D178" s="153"/>
+      <c r="E178" s="153"/>
+      <c r="F178" s="153"/>
+      <c r="G178" s="153"/>
+      <c r="H178" s="153"/>
+      <c r="I178" s="153"/>
+      <c r="J178" s="153"/>
+      <c r="K178" s="153"/>
+      <c r="L178" s="153"/>
+      <c r="M178" s="153"/>
+      <c r="N178" s="153"/>
+      <c r="O178" s="153"/>
+      <c r="P178" s="153"/>
+      <c r="Q178" s="153"/>
+      <c r="R178" s="153"/>
+      <c r="S178" s="153"/>
+      <c r="T178" s="153"/>
+      <c r="U178" s="153"/>
     </row>
     <row r="179" spans="4:21">
-      <c r="D179" s="156"/>
-      <c r="E179" s="156"/>
-      <c r="F179" s="156"/>
-      <c r="G179" s="156"/>
-      <c r="H179" s="156"/>
-      <c r="I179" s="156"/>
-      <c r="J179" s="156"/>
-      <c r="K179" s="156"/>
-      <c r="L179" s="156"/>
-      <c r="M179" s="156"/>
-      <c r="N179" s="156"/>
-      <c r="O179" s="156"/>
-      <c r="P179" s="156"/>
-      <c r="Q179" s="156"/>
-      <c r="R179" s="156"/>
-      <c r="S179" s="156"/>
-      <c r="T179" s="156"/>
-      <c r="U179" s="156"/>
+      <c r="D179" s="153"/>
+      <c r="E179" s="153"/>
+      <c r="F179" s="153"/>
+      <c r="G179" s="153"/>
+      <c r="H179" s="153"/>
+      <c r="I179" s="153"/>
+      <c r="J179" s="153"/>
+      <c r="K179" s="153"/>
+      <c r="L179" s="153"/>
+      <c r="M179" s="153"/>
+      <c r="N179" s="153"/>
+      <c r="O179" s="153"/>
+      <c r="P179" s="153"/>
+      <c r="Q179" s="153"/>
+      <c r="R179" s="153"/>
+      <c r="S179" s="153"/>
+      <c r="T179" s="153"/>
+      <c r="U179" s="153"/>
     </row>
     <row r="180" spans="4:21">
-      <c r="D180" s="156"/>
-      <c r="E180" s="156"/>
-      <c r="F180" s="156"/>
-      <c r="G180" s="156"/>
-      <c r="H180" s="156"/>
-      <c r="I180" s="156"/>
-      <c r="J180" s="156"/>
-      <c r="K180" s="156"/>
-      <c r="L180" s="156"/>
-      <c r="M180" s="156"/>
-      <c r="N180" s="156"/>
-      <c r="O180" s="156"/>
-      <c r="P180" s="156"/>
-      <c r="Q180" s="156"/>
-      <c r="R180" s="156"/>
-      <c r="S180" s="156"/>
-      <c r="T180" s="156"/>
-      <c r="U180" s="156"/>
+      <c r="D180" s="153"/>
+      <c r="E180" s="153"/>
+      <c r="F180" s="153"/>
+      <c r="G180" s="153"/>
+      <c r="H180" s="153"/>
+      <c r="I180" s="153"/>
+      <c r="J180" s="153"/>
+      <c r="K180" s="153"/>
+      <c r="L180" s="153"/>
+      <c r="M180" s="153"/>
+      <c r="N180" s="153"/>
+      <c r="O180" s="153"/>
+      <c r="P180" s="153"/>
+      <c r="Q180" s="153"/>
+      <c r="R180" s="153"/>
+      <c r="S180" s="153"/>
+      <c r="T180" s="153"/>
+      <c r="U180" s="153"/>
     </row>
     <row r="181" spans="4:21">
-      <c r="D181" s="156"/>
-      <c r="E181" s="156"/>
-      <c r="F181" s="156"/>
-      <c r="G181" s="156"/>
-      <c r="H181" s="156"/>
-      <c r="I181" s="156"/>
-      <c r="J181" s="156"/>
-      <c r="K181" s="156"/>
-      <c r="L181" s="156"/>
-      <c r="M181" s="156"/>
-      <c r="N181" s="156"/>
-      <c r="O181" s="156"/>
-      <c r="P181" s="156"/>
-      <c r="Q181" s="156"/>
-      <c r="R181" s="156"/>
-      <c r="S181" s="156"/>
-      <c r="T181" s="156"/>
-      <c r="U181" s="156"/>
+      <c r="D181" s="153"/>
+      <c r="E181" s="153"/>
+      <c r="F181" s="153"/>
+      <c r="G181" s="153"/>
+      <c r="H181" s="153"/>
+      <c r="I181" s="153"/>
+      <c r="J181" s="153"/>
+      <c r="K181" s="153"/>
+      <c r="L181" s="153"/>
+      <c r="M181" s="153"/>
+      <c r="N181" s="153"/>
+      <c r="O181" s="153"/>
+      <c r="P181" s="153"/>
+      <c r="Q181" s="153"/>
+      <c r="R181" s="153"/>
+      <c r="S181" s="153"/>
+      <c r="T181" s="153"/>
+      <c r="U181" s="153"/>
     </row>
     <row r="182" spans="4:21">
-      <c r="D182" s="156"/>
-      <c r="E182" s="156"/>
-      <c r="F182" s="156"/>
-      <c r="G182" s="156"/>
-      <c r="H182" s="156"/>
-      <c r="I182" s="156"/>
-      <c r="J182" s="156"/>
-      <c r="K182" s="156"/>
-      <c r="L182" s="156"/>
-      <c r="M182" s="156"/>
-      <c r="N182" s="156"/>
-      <c r="O182" s="156"/>
-      <c r="P182" s="156"/>
-      <c r="Q182" s="156"/>
-      <c r="R182" s="156"/>
-      <c r="S182" s="156"/>
-      <c r="T182" s="156"/>
-      <c r="U182" s="156"/>
+      <c r="D182" s="153"/>
+      <c r="E182" s="153"/>
+      <c r="F182" s="153"/>
+      <c r="G182" s="153"/>
+      <c r="H182" s="153"/>
+      <c r="I182" s="153"/>
+      <c r="J182" s="153"/>
+      <c r="K182" s="153"/>
+      <c r="L182" s="153"/>
+      <c r="M182" s="153"/>
+      <c r="N182" s="153"/>
+      <c r="O182" s="153"/>
+      <c r="P182" s="153"/>
+      <c r="Q182" s="153"/>
+      <c r="R182" s="153"/>
+      <c r="S182" s="153"/>
+      <c r="T182" s="153"/>
+      <c r="U182" s="153"/>
     </row>
     <row r="183" spans="4:21">
-      <c r="D183" s="156"/>
-      <c r="E183" s="156"/>
-      <c r="F183" s="156"/>
-      <c r="G183" s="156"/>
-      <c r="H183" s="156"/>
-      <c r="I183" s="156"/>
-      <c r="J183" s="156"/>
-      <c r="K183" s="156"/>
-      <c r="L183" s="156"/>
-      <c r="M183" s="156"/>
-      <c r="N183" s="156"/>
-      <c r="O183" s="156"/>
-      <c r="P183" s="156"/>
-      <c r="Q183" s="156"/>
-      <c r="R183" s="156"/>
-      <c r="S183" s="156"/>
-      <c r="T183" s="156"/>
-      <c r="U183" s="156"/>
+      <c r="D183" s="153"/>
+      <c r="E183" s="153"/>
+      <c r="F183" s="153"/>
+      <c r="G183" s="153"/>
+      <c r="H183" s="153"/>
+      <c r="I183" s="153"/>
+      <c r="J183" s="153"/>
+      <c r="K183" s="153"/>
+      <c r="L183" s="153"/>
+      <c r="M183" s="153"/>
+      <c r="N183" s="153"/>
+      <c r="O183" s="153"/>
+      <c r="P183" s="153"/>
+      <c r="Q183" s="153"/>
+      <c r="R183" s="153"/>
+      <c r="S183" s="153"/>
+      <c r="T183" s="153"/>
+      <c r="U183" s="153"/>
     </row>
     <row r="184" spans="4:21">
-      <c r="D184" s="156"/>
-      <c r="E184" s="156"/>
-      <c r="F184" s="156"/>
-      <c r="G184" s="156"/>
-      <c r="H184" s="156"/>
-      <c r="I184" s="156"/>
-      <c r="J184" s="156"/>
-      <c r="K184" s="156"/>
-      <c r="L184" s="156"/>
-      <c r="M184" s="156"/>
-      <c r="N184" s="156"/>
-      <c r="O184" s="156"/>
-      <c r="P184" s="156"/>
-      <c r="Q184" s="156"/>
-      <c r="R184" s="156"/>
-      <c r="S184" s="156"/>
-      <c r="T184" s="156"/>
-      <c r="U184" s="156"/>
+      <c r="D184" s="153"/>
+      <c r="E184" s="153"/>
+      <c r="F184" s="153"/>
+      <c r="G184" s="153"/>
+      <c r="H184" s="153"/>
+      <c r="I184" s="153"/>
+      <c r="J184" s="153"/>
+      <c r="K184" s="153"/>
+      <c r="L184" s="153"/>
+      <c r="M184" s="153"/>
+      <c r="N184" s="153"/>
+      <c r="O184" s="153"/>
+      <c r="P184" s="153"/>
+      <c r="Q184" s="153"/>
+      <c r="R184" s="153"/>
+      <c r="S184" s="153"/>
+      <c r="T184" s="153"/>
+      <c r="U184" s="153"/>
     </row>
     <row r="185" spans="4:21">
-      <c r="D185" s="156"/>
-      <c r="E185" s="156"/>
-      <c r="F185" s="156"/>
-      <c r="G185" s="156"/>
-      <c r="H185" s="156"/>
-      <c r="I185" s="156"/>
-      <c r="J185" s="156"/>
-      <c r="K185" s="156"/>
-      <c r="L185" s="156"/>
-      <c r="M185" s="156"/>
-      <c r="N185" s="156"/>
-      <c r="O185" s="156"/>
-      <c r="P185" s="156"/>
-      <c r="Q185" s="156"/>
-      <c r="R185" s="156"/>
-      <c r="S185" s="156"/>
-      <c r="T185" s="156"/>
-      <c r="U185" s="156"/>
+      <c r="D185" s="153"/>
+      <c r="E185" s="153"/>
+      <c r="F185" s="153"/>
+      <c r="G185" s="153"/>
+      <c r="H185" s="153"/>
+      <c r="I185" s="153"/>
+      <c r="J185" s="153"/>
+      <c r="K185" s="153"/>
+      <c r="L185" s="153"/>
+      <c r="M185" s="153"/>
+      <c r="N185" s="153"/>
+      <c r="O185" s="153"/>
+      <c r="P185" s="153"/>
+      <c r="Q185" s="153"/>
+      <c r="R185" s="153"/>
+      <c r="S185" s="153"/>
+      <c r="T185" s="153"/>
+      <c r="U185" s="153"/>
     </row>
     <row r="186" spans="4:21">
-      <c r="D186" s="156"/>
-      <c r="E186" s="156"/>
-      <c r="F186" s="156"/>
-      <c r="G186" s="156"/>
-      <c r="H186" s="156"/>
-      <c r="I186" s="156"/>
-      <c r="J186" s="156"/>
-      <c r="K186" s="156"/>
-      <c r="L186" s="156"/>
-      <c r="M186" s="156"/>
-      <c r="N186" s="156"/>
-      <c r="O186" s="156"/>
-      <c r="P186" s="156"/>
-      <c r="Q186" s="156"/>
-      <c r="R186" s="156"/>
-      <c r="S186" s="156"/>
-      <c r="T186" s="156"/>
-      <c r="U186" s="156"/>
+      <c r="D186" s="153"/>
+      <c r="E186" s="153"/>
+      <c r="F186" s="153"/>
+      <c r="G186" s="153"/>
+      <c r="H186" s="153"/>
+      <c r="I186" s="153"/>
+      <c r="J186" s="153"/>
+      <c r="K186" s="153"/>
+      <c r="L186" s="153"/>
+      <c r="M186" s="153"/>
+      <c r="N186" s="153"/>
+      <c r="O186" s="153"/>
+      <c r="P186" s="153"/>
+      <c r="Q186" s="153"/>
+      <c r="R186" s="153"/>
+      <c r="S186" s="153"/>
+      <c r="T186" s="153"/>
+      <c r="U186" s="153"/>
     </row>
     <row r="187" spans="4:21">
-      <c r="D187" s="156"/>
-      <c r="E187" s="156"/>
-      <c r="F187" s="156"/>
-      <c r="G187" s="156"/>
-      <c r="H187" s="156"/>
-      <c r="I187" s="156"/>
-      <c r="J187" s="156"/>
-      <c r="K187" s="156"/>
-      <c r="L187" s="156"/>
-      <c r="M187" s="156"/>
-      <c r="N187" s="156"/>
-      <c r="O187" s="156"/>
-      <c r="P187" s="156"/>
-      <c r="Q187" s="156"/>
-      <c r="R187" s="156"/>
-      <c r="S187" s="156"/>
-      <c r="T187" s="156"/>
-      <c r="U187" s="156"/>
+      <c r="D187" s="153"/>
+      <c r="E187" s="153"/>
+      <c r="F187" s="153"/>
+      <c r="G187" s="153"/>
+      <c r="H187" s="153"/>
+      <c r="I187" s="153"/>
+      <c r="J187" s="153"/>
+      <c r="K187" s="153"/>
+      <c r="L187" s="153"/>
+      <c r="M187" s="153"/>
+      <c r="N187" s="153"/>
+      <c r="O187" s="153"/>
+      <c r="P187" s="153"/>
+      <c r="Q187" s="153"/>
+      <c r="R187" s="153"/>
+      <c r="S187" s="153"/>
+      <c r="T187" s="153"/>
+      <c r="U187" s="153"/>
     </row>
     <row r="188" spans="4:21">
-      <c r="D188" s="156"/>
-      <c r="E188" s="156"/>
-      <c r="F188" s="156"/>
-      <c r="G188" s="156"/>
-      <c r="H188" s="156"/>
-      <c r="I188" s="156"/>
-      <c r="J188" s="156"/>
-      <c r="K188" s="156"/>
-      <c r="L188" s="156"/>
-      <c r="M188" s="156"/>
-      <c r="N188" s="156"/>
-      <c r="O188" s="156"/>
-      <c r="P188" s="156"/>
-      <c r="Q188" s="156"/>
-      <c r="R188" s="156"/>
-      <c r="S188" s="156"/>
-      <c r="T188" s="156"/>
-      <c r="U188" s="156"/>
+      <c r="D188" s="153"/>
+      <c r="E188" s="153"/>
+      <c r="F188" s="153"/>
+      <c r="G188" s="153"/>
+      <c r="H188" s="153"/>
+      <c r="I188" s="153"/>
+      <c r="J188" s="153"/>
+      <c r="K188" s="153"/>
+      <c r="L188" s="153"/>
+      <c r="M188" s="153"/>
+      <c r="N188" s="153"/>
+      <c r="O188" s="153"/>
+      <c r="P188" s="153"/>
+      <c r="Q188" s="153"/>
+      <c r="R188" s="153"/>
+      <c r="S188" s="153"/>
+      <c r="T188" s="153"/>
+      <c r="U188" s="153"/>
     </row>
     <row r="189" spans="4:21">
-      <c r="D189" s="156"/>
-      <c r="E189" s="156"/>
-      <c r="F189" s="156"/>
-      <c r="G189" s="156"/>
-      <c r="H189" s="156"/>
-      <c r="I189" s="156"/>
-      <c r="J189" s="156"/>
-      <c r="K189" s="156"/>
-      <c r="L189" s="156"/>
-      <c r="M189" s="156"/>
-      <c r="N189" s="156"/>
-      <c r="O189" s="156"/>
-      <c r="P189" s="156"/>
-      <c r="Q189" s="156"/>
-      <c r="R189" s="156"/>
-      <c r="S189" s="156"/>
-      <c r="T189" s="156"/>
-      <c r="U189" s="156"/>
+      <c r="D189" s="153"/>
+      <c r="E189" s="153"/>
+      <c r="F189" s="153"/>
+      <c r="G189" s="153"/>
+      <c r="H189" s="153"/>
+      <c r="I189" s="153"/>
+      <c r="J189" s="153"/>
+      <c r="K189" s="153"/>
+      <c r="L189" s="153"/>
+      <c r="M189" s="153"/>
+      <c r="N189" s="153"/>
+      <c r="O189" s="153"/>
+      <c r="P189" s="153"/>
+      <c r="Q189" s="153"/>
+      <c r="R189" s="153"/>
+      <c r="S189" s="153"/>
+      <c r="T189" s="153"/>
+      <c r="U189" s="153"/>
     </row>
     <row r="190" spans="4:21">
-      <c r="D190" s="156"/>
-      <c r="E190" s="156"/>
-      <c r="F190" s="156"/>
-      <c r="G190" s="156"/>
-      <c r="H190" s="156"/>
-      <c r="I190" s="156"/>
-      <c r="J190" s="156"/>
-      <c r="K190" s="156"/>
-      <c r="L190" s="156"/>
-      <c r="M190" s="156"/>
-      <c r="N190" s="156"/>
-      <c r="O190" s="156"/>
-      <c r="P190" s="156"/>
-      <c r="Q190" s="156"/>
-      <c r="R190" s="156"/>
-      <c r="S190" s="156"/>
-      <c r="T190" s="156"/>
-      <c r="U190" s="156"/>
+      <c r="D190" s="153"/>
+      <c r="E190" s="153"/>
+      <c r="F190" s="153"/>
+      <c r="G190" s="153"/>
+      <c r="H190" s="153"/>
+      <c r="I190" s="153"/>
+      <c r="J190" s="153"/>
+      <c r="K190" s="153"/>
+      <c r="L190" s="153"/>
+      <c r="M190" s="153"/>
+      <c r="N190" s="153"/>
+      <c r="O190" s="153"/>
+      <c r="P190" s="153"/>
+      <c r="Q190" s="153"/>
+      <c r="R190" s="153"/>
+      <c r="S190" s="153"/>
+      <c r="T190" s="153"/>
+      <c r="U190" s="153"/>
     </row>
     <row r="191" spans="4:21">
-      <c r="D191" s="156"/>
-      <c r="E191" s="156"/>
-      <c r="F191" s="156"/>
-      <c r="G191" s="156"/>
-      <c r="H191" s="156"/>
-      <c r="I191" s="156"/>
-      <c r="J191" s="156"/>
-      <c r="K191" s="156"/>
-      <c r="L191" s="156"/>
-      <c r="M191" s="156"/>
-      <c r="N191" s="156"/>
-      <c r="O191" s="156"/>
-      <c r="P191" s="156"/>
-      <c r="Q191" s="156"/>
-      <c r="R191" s="156"/>
-      <c r="S191" s="156"/>
-      <c r="T191" s="156"/>
-      <c r="U191" s="156"/>
+      <c r="D191" s="153"/>
+      <c r="E191" s="153"/>
+      <c r="F191" s="153"/>
+      <c r="G191" s="153"/>
+      <c r="H191" s="153"/>
+      <c r="I191" s="153"/>
+      <c r="J191" s="153"/>
+      <c r="K191" s="153"/>
+      <c r="L191" s="153"/>
+      <c r="M191" s="153"/>
+      <c r="N191" s="153"/>
+      <c r="O191" s="153"/>
+      <c r="P191" s="153"/>
+      <c r="Q191" s="153"/>
+      <c r="R191" s="153"/>
+      <c r="S191" s="153"/>
+      <c r="T191" s="153"/>
+      <c r="U191" s="153"/>
     </row>
     <row r="192" spans="4:21">
-      <c r="D192" s="156"/>
-      <c r="E192" s="156"/>
-      <c r="F192" s="156"/>
-      <c r="G192" s="156"/>
-      <c r="H192" s="156"/>
-      <c r="I192" s="156"/>
-      <c r="J192" s="156"/>
-      <c r="K192" s="156"/>
-      <c r="L192" s="156"/>
-      <c r="M192" s="156"/>
-      <c r="N192" s="156"/>
-      <c r="O192" s="156"/>
-      <c r="P192" s="156"/>
-      <c r="Q192" s="156"/>
-      <c r="R192" s="156"/>
-      <c r="S192" s="156"/>
-      <c r="T192" s="156"/>
-      <c r="U192" s="156"/>
+      <c r="D192" s="153"/>
+      <c r="E192" s="153"/>
+      <c r="F192" s="153"/>
+      <c r="G192" s="153"/>
+      <c r="H192" s="153"/>
+      <c r="I192" s="153"/>
+      <c r="J192" s="153"/>
+      <c r="K192" s="153"/>
+      <c r="L192" s="153"/>
+      <c r="M192" s="153"/>
+      <c r="N192" s="153"/>
+      <c r="O192" s="153"/>
+      <c r="P192" s="153"/>
+      <c r="Q192" s="153"/>
+      <c r="R192" s="153"/>
+      <c r="S192" s="153"/>
+      <c r="T192" s="153"/>
+      <c r="U192" s="153"/>
     </row>
     <row r="193" spans="4:21">
-      <c r="D193" s="156"/>
-      <c r="E193" s="156"/>
-      <c r="F193" s="156"/>
-      <c r="G193" s="156"/>
-      <c r="H193" s="156"/>
-      <c r="I193" s="156"/>
-      <c r="J193" s="156"/>
-      <c r="K193" s="156"/>
-      <c r="L193" s="156"/>
-      <c r="M193" s="156"/>
-      <c r="N193" s="156"/>
-      <c r="O193" s="156"/>
-      <c r="P193" s="156"/>
-      <c r="Q193" s="156"/>
-      <c r="R193" s="156"/>
-      <c r="S193" s="156"/>
-      <c r="T193" s="156"/>
-      <c r="U193" s="156"/>
+      <c r="D193" s="153"/>
+      <c r="E193" s="153"/>
+      <c r="F193" s="153"/>
+      <c r="G193" s="153"/>
+      <c r="H193" s="153"/>
+      <c r="I193" s="153"/>
+      <c r="J193" s="153"/>
+      <c r="K193" s="153"/>
+      <c r="L193" s="153"/>
+      <c r="M193" s="153"/>
+      <c r="N193" s="153"/>
+      <c r="O193" s="153"/>
+      <c r="P193" s="153"/>
+      <c r="Q193" s="153"/>
+      <c r="R193" s="153"/>
+      <c r="S193" s="153"/>
+      <c r="T193" s="153"/>
+      <c r="U193" s="153"/>
     </row>
     <row r="194" spans="4:21">
-      <c r="D194" s="156"/>
-      <c r="E194" s="156"/>
-      <c r="F194" s="156"/>
-      <c r="G194" s="156"/>
-      <c r="H194" s="156"/>
-      <c r="I194" s="156"/>
-      <c r="J194" s="156"/>
-      <c r="K194" s="156"/>
-      <c r="L194" s="156"/>
-      <c r="M194" s="156"/>
-      <c r="N194" s="156"/>
-      <c r="O194" s="156"/>
-      <c r="P194" s="156"/>
-      <c r="Q194" s="156"/>
-      <c r="R194" s="156"/>
-      <c r="S194" s="156"/>
-      <c r="T194" s="156"/>
-      <c r="U194" s="156"/>
+      <c r="D194" s="153"/>
+      <c r="E194" s="153"/>
+      <c r="F194" s="153"/>
+      <c r="G194" s="153"/>
+      <c r="H194" s="153"/>
+      <c r="I194" s="153"/>
+      <c r="J194" s="153"/>
+      <c r="K194" s="153"/>
+      <c r="L194" s="153"/>
+      <c r="M194" s="153"/>
+      <c r="N194" s="153"/>
+      <c r="O194" s="153"/>
+      <c r="P194" s="153"/>
+      <c r="Q194" s="153"/>
+      <c r="R194" s="153"/>
+      <c r="S194" s="153"/>
+      <c r="T194" s="153"/>
+      <c r="U194" s="153"/>
     </row>
     <row r="195" spans="4:21">
-      <c r="D195" s="156"/>
-      <c r="E195" s="156"/>
-      <c r="F195" s="156"/>
-      <c r="G195" s="156"/>
-      <c r="H195" s="156"/>
-      <c r="I195" s="156"/>
-      <c r="J195" s="156"/>
-      <c r="K195" s="156"/>
-      <c r="L195" s="156"/>
-      <c r="M195" s="156"/>
-      <c r="N195" s="156"/>
-      <c r="O195" s="156"/>
-      <c r="P195" s="156"/>
-      <c r="Q195" s="156"/>
-      <c r="R195" s="156"/>
-      <c r="S195" s="156"/>
-      <c r="T195" s="156"/>
-      <c r="U195" s="156"/>
+      <c r="D195" s="153"/>
+      <c r="E195" s="153"/>
+      <c r="F195" s="153"/>
+      <c r="G195" s="153"/>
+      <c r="H195" s="153"/>
+      <c r="I195" s="153"/>
+      <c r="J195" s="153"/>
+      <c r="K195" s="153"/>
+      <c r="L195" s="153"/>
+      <c r="M195" s="153"/>
+      <c r="N195" s="153"/>
+      <c r="O195" s="153"/>
+      <c r="P195" s="153"/>
+      <c r="Q195" s="153"/>
+      <c r="R195" s="153"/>
+      <c r="S195" s="153"/>
+      <c r="T195" s="153"/>
+      <c r="U195" s="153"/>
     </row>
     <row r="196" spans="4:21">
-      <c r="D196" s="156"/>
-      <c r="E196" s="156"/>
-      <c r="F196" s="156"/>
-      <c r="G196" s="156"/>
-      <c r="H196" s="156"/>
-      <c r="I196" s="156"/>
-      <c r="J196" s="156"/>
-      <c r="K196" s="156"/>
-      <c r="L196" s="156"/>
-      <c r="M196" s="156"/>
-      <c r="N196" s="156"/>
-      <c r="O196" s="156"/>
-      <c r="P196" s="156"/>
-      <c r="Q196" s="156"/>
-      <c r="R196" s="156"/>
-      <c r="S196" s="156"/>
-      <c r="T196" s="156"/>
-      <c r="U196" s="156"/>
+      <c r="D196" s="153"/>
+      <c r="E196" s="153"/>
+      <c r="F196" s="153"/>
+      <c r="G196" s="153"/>
+      <c r="H196" s="153"/>
+      <c r="I196" s="153"/>
+      <c r="J196" s="153"/>
+      <c r="K196" s="153"/>
+      <c r="L196" s="153"/>
+      <c r="M196" s="153"/>
+      <c r="N196" s="153"/>
+      <c r="O196" s="153"/>
+      <c r="P196" s="153"/>
+      <c r="Q196" s="153"/>
+      <c r="R196" s="153"/>
+      <c r="S196" s="153"/>
+      <c r="T196" s="153"/>
+      <c r="U196" s="153"/>
     </row>
     <row r="197" spans="4:21">
-      <c r="D197" s="156"/>
-      <c r="E197" s="156"/>
-      <c r="F197" s="156"/>
-      <c r="G197" s="156"/>
-      <c r="H197" s="156"/>
-      <c r="I197" s="156"/>
-      <c r="J197" s="156"/>
-      <c r="K197" s="156"/>
-      <c r="L197" s="156"/>
-      <c r="M197" s="156"/>
-      <c r="N197" s="156"/>
-      <c r="O197" s="156"/>
-      <c r="P197" s="156"/>
-      <c r="Q197" s="156"/>
-      <c r="R197" s="156"/>
-      <c r="S197" s="156"/>
-      <c r="T197" s="156"/>
-      <c r="U197" s="156"/>
+      <c r="D197" s="153"/>
+      <c r="E197" s="153"/>
+      <c r="F197" s="153"/>
+      <c r="G197" s="153"/>
+      <c r="H197" s="153"/>
+      <c r="I197" s="153"/>
+      <c r="J197" s="153"/>
+      <c r="K197" s="153"/>
+      <c r="L197" s="153"/>
+      <c r="M197" s="153"/>
+      <c r="N197" s="153"/>
+      <c r="O197" s="153"/>
+      <c r="P197" s="153"/>
+      <c r="Q197" s="153"/>
+      <c r="R197" s="153"/>
+      <c r="S197" s="153"/>
+      <c r="T197" s="153"/>
+      <c r="U197" s="153"/>
     </row>
     <row r="198" spans="4:21">
-      <c r="D198" s="156"/>
-      <c r="E198" s="156"/>
-      <c r="F198" s="156"/>
-      <c r="G198" s="156"/>
-      <c r="H198" s="156"/>
-      <c r="I198" s="156"/>
-      <c r="J198" s="156"/>
-      <c r="K198" s="156"/>
-      <c r="L198" s="156"/>
-      <c r="M198" s="156"/>
-      <c r="N198" s="156"/>
-      <c r="O198" s="156"/>
-      <c r="P198" s="156"/>
-      <c r="Q198" s="156"/>
-      <c r="R198" s="156"/>
-      <c r="S198" s="156"/>
-      <c r="T198" s="156"/>
-      <c r="U198" s="156"/>
+      <c r="D198" s="153"/>
+      <c r="E198" s="153"/>
+      <c r="F198" s="153"/>
+      <c r="G198" s="153"/>
+      <c r="H198" s="153"/>
+      <c r="I198" s="153"/>
+      <c r="J198" s="153"/>
+      <c r="K198" s="153"/>
+      <c r="L198" s="153"/>
+      <c r="M198" s="153"/>
+      <c r="N198" s="153"/>
+      <c r="O198" s="153"/>
+      <c r="P198" s="153"/>
+      <c r="Q198" s="153"/>
+      <c r="R198" s="153"/>
+      <c r="S198" s="153"/>
+      <c r="T198" s="153"/>
+      <c r="U198" s="153"/>
     </row>
     <row r="199" spans="4:21">
-      <c r="D199" s="156"/>
-      <c r="E199" s="156"/>
-      <c r="F199" s="156"/>
-      <c r="G199" s="156"/>
-      <c r="H199" s="156"/>
-      <c r="I199" s="156"/>
-      <c r="J199" s="156"/>
-      <c r="K199" s="156"/>
-      <c r="L199" s="156"/>
-      <c r="M199" s="156"/>
-      <c r="N199" s="156"/>
-      <c r="O199" s="156"/>
-      <c r="P199" s="156"/>
-      <c r="Q199" s="156"/>
-      <c r="R199" s="156"/>
-      <c r="S199" s="156"/>
-      <c r="T199" s="156"/>
-      <c r="U199" s="156"/>
+      <c r="D199" s="153"/>
+      <c r="E199" s="153"/>
+      <c r="F199" s="153"/>
+      <c r="G199" s="153"/>
+      <c r="H199" s="153"/>
+      <c r="I199" s="153"/>
+      <c r="J199" s="153"/>
+      <c r="K199" s="153"/>
+      <c r="L199" s="153"/>
+      <c r="M199" s="153"/>
+      <c r="N199" s="153"/>
+      <c r="O199" s="153"/>
+      <c r="P199" s="153"/>
+      <c r="Q199" s="153"/>
+      <c r="R199" s="153"/>
+      <c r="S199" s="153"/>
+      <c r="T199" s="153"/>
+      <c r="U199" s="153"/>
     </row>
     <row r="200" spans="4:21">
-      <c r="D200" s="156"/>
-      <c r="E200" s="156"/>
-      <c r="F200" s="156"/>
-      <c r="G200" s="156"/>
-      <c r="H200" s="156"/>
-      <c r="I200" s="156"/>
-      <c r="J200" s="156"/>
-      <c r="K200" s="156"/>
-      <c r="L200" s="156"/>
-      <c r="M200" s="156"/>
-      <c r="N200" s="156"/>
-      <c r="O200" s="156"/>
-      <c r="P200" s="156"/>
-      <c r="Q200" s="156"/>
-      <c r="R200" s="156"/>
-      <c r="S200" s="156"/>
-      <c r="T200" s="156"/>
-      <c r="U200" s="156"/>
+      <c r="D200" s="153"/>
+      <c r="E200" s="153"/>
+      <c r="F200" s="153"/>
+      <c r="G200" s="153"/>
+      <c r="H200" s="153"/>
+      <c r="I200" s="153"/>
+      <c r="J200" s="153"/>
+      <c r="K200" s="153"/>
+      <c r="L200" s="153"/>
+      <c r="M200" s="153"/>
+      <c r="N200" s="153"/>
+      <c r="O200" s="153"/>
+      <c r="P200" s="153"/>
+      <c r="Q200" s="153"/>
+      <c r="R200" s="153"/>
+      <c r="S200" s="153"/>
+      <c r="T200" s="153"/>
+      <c r="U200" s="153"/>
     </row>
     <row r="201" spans="4:21">
-      <c r="D201" s="156"/>
-      <c r="E201" s="156"/>
-      <c r="F201" s="156"/>
-      <c r="G201" s="156"/>
-      <c r="H201" s="156"/>
-      <c r="I201" s="156"/>
-      <c r="J201" s="156"/>
-      <c r="K201" s="156"/>
-      <c r="L201" s="156"/>
-      <c r="M201" s="156"/>
-      <c r="N201" s="156"/>
-      <c r="O201" s="156"/>
-      <c r="P201" s="156"/>
-      <c r="Q201" s="156"/>
-      <c r="R201" s="156"/>
-      <c r="S201" s="156"/>
-      <c r="T201" s="156"/>
-      <c r="U201" s="156"/>
+      <c r="D201" s="153"/>
+      <c r="E201" s="153"/>
+      <c r="F201" s="153"/>
+      <c r="G201" s="153"/>
+      <c r="H201" s="153"/>
+      <c r="I201" s="153"/>
+      <c r="J201" s="153"/>
+      <c r="K201" s="153"/>
+      <c r="L201" s="153"/>
+      <c r="M201" s="153"/>
+      <c r="N201" s="153"/>
+      <c r="O201" s="153"/>
+      <c r="P201" s="153"/>
+      <c r="Q201" s="153"/>
+      <c r="R201" s="153"/>
+      <c r="S201" s="153"/>
+      <c r="T201" s="153"/>
+      <c r="U201" s="153"/>
     </row>
     <row r="202" spans="4:21">
-      <c r="D202" s="156"/>
-      <c r="E202" s="156"/>
-      <c r="F202" s="156"/>
-      <c r="G202" s="156"/>
-      <c r="H202" s="156"/>
-      <c r="I202" s="156"/>
-      <c r="J202" s="156"/>
-      <c r="K202" s="156"/>
-      <c r="L202" s="156"/>
-      <c r="M202" s="156"/>
-      <c r="N202" s="156"/>
-      <c r="O202" s="156"/>
-      <c r="P202" s="156"/>
-      <c r="Q202" s="156"/>
-      <c r="R202" s="156"/>
-      <c r="S202" s="156"/>
-      <c r="T202" s="156"/>
-      <c r="U202" s="156"/>
+      <c r="D202" s="153"/>
+      <c r="E202" s="153"/>
+      <c r="F202" s="153"/>
+      <c r="G202" s="153"/>
+      <c r="H202" s="153"/>
+      <c r="I202" s="153"/>
+      <c r="J202" s="153"/>
+      <c r="K202" s="153"/>
+      <c r="L202" s="153"/>
+      <c r="M202" s="153"/>
+      <c r="N202" s="153"/>
+      <c r="O202" s="153"/>
+      <c r="P202" s="153"/>
+      <c r="Q202" s="153"/>
+      <c r="R202" s="153"/>
+      <c r="S202" s="153"/>
+      <c r="T202" s="153"/>
+      <c r="U202" s="153"/>
     </row>
     <row r="203" spans="4:21">
-      <c r="D203" s="156"/>
-      <c r="E203" s="156"/>
-      <c r="F203" s="156"/>
-      <c r="G203" s="156"/>
-      <c r="H203" s="156"/>
-      <c r="I203" s="156"/>
-      <c r="J203" s="156"/>
-      <c r="K203" s="156"/>
-      <c r="L203" s="156"/>
-      <c r="M203" s="156"/>
-      <c r="N203" s="156"/>
-      <c r="O203" s="156"/>
-      <c r="P203" s="156"/>
-      <c r="Q203" s="156"/>
-      <c r="R203" s="156"/>
-      <c r="S203" s="156"/>
-      <c r="T203" s="156"/>
-      <c r="U203" s="156"/>
+      <c r="D203" s="153"/>
+      <c r="E203" s="153"/>
+      <c r="F203" s="153"/>
+      <c r="G203" s="153"/>
+      <c r="H203" s="153"/>
+      <c r="I203" s="153"/>
+      <c r="J203" s="153"/>
+      <c r="K203" s="153"/>
+      <c r="L203" s="153"/>
+      <c r="M203" s="153"/>
+      <c r="N203" s="153"/>
+      <c r="O203" s="153"/>
+      <c r="P203" s="153"/>
+      <c r="Q203" s="153"/>
+      <c r="R203" s="153"/>
+      <c r="S203" s="153"/>
+      <c r="T203" s="153"/>
+      <c r="U203" s="153"/>
     </row>
     <row r="204" spans="4:21">
-      <c r="D204" s="156"/>
-      <c r="E204" s="156"/>
-      <c r="F204" s="156"/>
-      <c r="G204" s="156"/>
-      <c r="H204" s="156"/>
-      <c r="I204" s="156"/>
-      <c r="J204" s="156"/>
-      <c r="K204" s="156"/>
-      <c r="L204" s="156"/>
-      <c r="M204" s="156"/>
-      <c r="N204" s="156"/>
-      <c r="O204" s="156"/>
-      <c r="P204" s="156"/>
-      <c r="Q204" s="156"/>
-      <c r="R204" s="156"/>
-      <c r="S204" s="156"/>
-      <c r="T204" s="156"/>
-      <c r="U204" s="156"/>
+      <c r="D204" s="153"/>
+      <c r="E204" s="153"/>
+      <c r="F204" s="153"/>
+      <c r="G204" s="153"/>
+      <c r="H204" s="153"/>
+      <c r="I204" s="153"/>
+      <c r="J204" s="153"/>
+      <c r="K204" s="153"/>
+      <c r="L204" s="153"/>
+      <c r="M204" s="153"/>
+      <c r="N204" s="153"/>
+      <c r="O204" s="153"/>
+      <c r="P204" s="153"/>
+      <c r="Q204" s="153"/>
+      <c r="R204" s="153"/>
+      <c r="S204" s="153"/>
+      <c r="T204" s="153"/>
+      <c r="U204" s="153"/>
     </row>
     <row r="205" spans="4:21">
-      <c r="D205" s="156"/>
-      <c r="E205" s="156"/>
-      <c r="F205" s="156"/>
-      <c r="G205" s="156"/>
-      <c r="H205" s="156"/>
-      <c r="I205" s="156"/>
-      <c r="J205" s="156"/>
-      <c r="K205" s="156"/>
-      <c r="L205" s="156"/>
-      <c r="M205" s="156"/>
-      <c r="N205" s="156"/>
-      <c r="O205" s="156"/>
-      <c r="P205" s="156"/>
-      <c r="Q205" s="156"/>
-      <c r="R205" s="156"/>
-      <c r="S205" s="156"/>
-      <c r="T205" s="156"/>
-      <c r="U205" s="156"/>
+      <c r="D205" s="153"/>
+      <c r="E205" s="153"/>
+      <c r="F205" s="153"/>
+      <c r="G205" s="153"/>
+      <c r="H205" s="153"/>
+      <c r="I205" s="153"/>
+      <c r="J205" s="153"/>
+      <c r="K205" s="153"/>
+      <c r="L205" s="153"/>
+      <c r="M205" s="153"/>
+      <c r="N205" s="153"/>
+      <c r="O205" s="153"/>
+      <c r="P205" s="153"/>
+      <c r="Q205" s="153"/>
+      <c r="R205" s="153"/>
+      <c r="S205" s="153"/>
+      <c r="T205" s="153"/>
+      <c r="U205" s="153"/>
     </row>
     <row r="206" spans="4:21">
-      <c r="D206" s="156"/>
-      <c r="E206" s="156"/>
-      <c r="F206" s="156"/>
-      <c r="G206" s="156"/>
-      <c r="H206" s="156"/>
-      <c r="I206" s="156"/>
-      <c r="J206" s="156"/>
-      <c r="K206" s="156"/>
-      <c r="L206" s="156"/>
-      <c r="M206" s="156"/>
-      <c r="N206" s="156"/>
-      <c r="O206" s="156"/>
-      <c r="P206" s="156"/>
-      <c r="Q206" s="156"/>
-      <c r="R206" s="156"/>
-      <c r="S206" s="156"/>
-      <c r="T206" s="156"/>
-      <c r="U206" s="156"/>
+      <c r="D206" s="153"/>
+      <c r="E206" s="153"/>
+      <c r="F206" s="153"/>
+      <c r="G206" s="153"/>
+      <c r="H206" s="153"/>
+      <c r="I206" s="153"/>
+      <c r="J206" s="153"/>
+      <c r="K206" s="153"/>
+      <c r="L206" s="153"/>
+      <c r="M206" s="153"/>
+      <c r="N206" s="153"/>
+      <c r="O206" s="153"/>
+      <c r="P206" s="153"/>
+      <c r="Q206" s="153"/>
+      <c r="R206" s="153"/>
+      <c r="S206" s="153"/>
+      <c r="T206" s="153"/>
+      <c r="U206" s="153"/>
     </row>
     <row r="207" spans="4:21">
-      <c r="D207" s="156"/>
-      <c r="E207" s="156"/>
-      <c r="F207" s="156"/>
-      <c r="G207" s="156"/>
-      <c r="H207" s="156"/>
-      <c r="I207" s="156"/>
-      <c r="J207" s="156"/>
-      <c r="K207" s="156"/>
-      <c r="L207" s="156"/>
-      <c r="M207" s="156"/>
-      <c r="N207" s="156"/>
-      <c r="O207" s="156"/>
-      <c r="P207" s="156"/>
-      <c r="Q207" s="156"/>
-      <c r="R207" s="156"/>
-      <c r="S207" s="156"/>
-      <c r="T207" s="156"/>
-      <c r="U207" s="156"/>
+      <c r="D207" s="153"/>
+      <c r="E207" s="153"/>
+      <c r="F207" s="153"/>
+      <c r="G207" s="153"/>
+      <c r="H207" s="153"/>
+      <c r="I207" s="153"/>
+      <c r="J207" s="153"/>
+      <c r="K207" s="153"/>
+      <c r="L207" s="153"/>
+      <c r="M207" s="153"/>
+      <c r="N207" s="153"/>
+      <c r="O207" s="153"/>
+      <c r="P207" s="153"/>
+      <c r="Q207" s="153"/>
+      <c r="R207" s="153"/>
+      <c r="S207" s="153"/>
+      <c r="T207" s="153"/>
+      <c r="U207" s="153"/>
     </row>
     <row r="208" spans="4:21">
-      <c r="D208" s="156"/>
-      <c r="E208" s="156"/>
-      <c r="F208" s="156"/>
-      <c r="G208" s="156"/>
-      <c r="H208" s="156"/>
-      <c r="I208" s="156"/>
-      <c r="J208" s="156"/>
-      <c r="K208" s="156"/>
-      <c r="L208" s="156"/>
-      <c r="M208" s="156"/>
-      <c r="N208" s="156"/>
-      <c r="O208" s="156"/>
-      <c r="P208" s="156"/>
-      <c r="Q208" s="156"/>
-      <c r="R208" s="156"/>
-      <c r="S208" s="156"/>
-      <c r="T208" s="156"/>
-      <c r="U208" s="156"/>
+      <c r="D208" s="153"/>
+      <c r="E208" s="153"/>
+      <c r="F208" s="153"/>
+      <c r="G208" s="153"/>
+      <c r="H208" s="153"/>
+      <c r="I208" s="153"/>
+      <c r="J208" s="153"/>
+      <c r="K208" s="153"/>
+      <c r="L208" s="153"/>
+      <c r="M208" s="153"/>
+      <c r="N208" s="153"/>
+      <c r="O208" s="153"/>
+      <c r="P208" s="153"/>
+      <c r="Q208" s="153"/>
+      <c r="R208" s="153"/>
+      <c r="S208" s="153"/>
+      <c r="T208" s="153"/>
+      <c r="U208" s="153"/>
     </row>
     <row r="209" spans="4:21">
-      <c r="D209" s="156"/>
-      <c r="E209" s="156"/>
-      <c r="F209" s="156"/>
-      <c r="G209" s="156"/>
-      <c r="H209" s="156"/>
-      <c r="I209" s="156"/>
-      <c r="J209" s="156"/>
-      <c r="K209" s="156"/>
-      <c r="L209" s="156"/>
-      <c r="M209" s="156"/>
-      <c r="N209" s="156"/>
-      <c r="O209" s="156"/>
-      <c r="P209" s="156"/>
-      <c r="Q209" s="156"/>
-      <c r="R209" s="156"/>
-      <c r="S209" s="156"/>
-      <c r="T209" s="156"/>
-      <c r="U209" s="156"/>
+      <c r="D209" s="153"/>
+      <c r="E209" s="153"/>
+      <c r="F209" s="153"/>
+      <c r="G209" s="153"/>
+      <c r="H209" s="153"/>
+      <c r="I209" s="153"/>
+      <c r="J209" s="153"/>
+      <c r="K209" s="153"/>
+      <c r="L209" s="153"/>
+      <c r="M209" s="153"/>
+      <c r="N209" s="153"/>
+      <c r="O209" s="153"/>
+      <c r="P209" s="153"/>
+      <c r="Q209" s="153"/>
+      <c r="R209" s="153"/>
+      <c r="S209" s="153"/>
+      <c r="T209" s="153"/>
+      <c r="U209" s="153"/>
     </row>
     <row r="210" spans="4:21">
-      <c r="D210" s="156"/>
-      <c r="E210" s="156"/>
-      <c r="F210" s="156"/>
-      <c r="G210" s="156"/>
-      <c r="H210" s="156"/>
-      <c r="I210" s="156"/>
-      <c r="J210" s="156"/>
-      <c r="K210" s="156"/>
-      <c r="L210" s="156"/>
-      <c r="M210" s="156"/>
-      <c r="N210" s="156"/>
-      <c r="O210" s="156"/>
-      <c r="P210" s="156"/>
-      <c r="Q210" s="156"/>
-      <c r="R210" s="156"/>
-      <c r="S210" s="156"/>
-      <c r="T210" s="156"/>
-      <c r="U210" s="156"/>
+      <c r="D210" s="153"/>
+      <c r="E210" s="153"/>
+      <c r="F210" s="153"/>
+      <c r="G210" s="153"/>
+      <c r="H210" s="153"/>
+      <c r="I210" s="153"/>
+      <c r="J210" s="153"/>
+      <c r="K210" s="153"/>
+      <c r="L210" s="153"/>
+      <c r="M210" s="153"/>
+      <c r="N210" s="153"/>
+      <c r="O210" s="153"/>
+      <c r="P210" s="153"/>
+      <c r="Q210" s="153"/>
+      <c r="R210" s="153"/>
+      <c r="S210" s="153"/>
+      <c r="T210" s="153"/>
+      <c r="U210" s="153"/>
     </row>
     <row r="211" spans="4:21">
-      <c r="D211" s="156"/>
-      <c r="E211" s="156"/>
-      <c r="F211" s="156"/>
-      <c r="G211" s="156"/>
-      <c r="H211" s="156"/>
-      <c r="I211" s="156"/>
-      <c r="J211" s="156"/>
-      <c r="K211" s="156"/>
-      <c r="L211" s="156"/>
-      <c r="M211" s="156"/>
-      <c r="N211" s="156"/>
-      <c r="O211" s="156"/>
-      <c r="P211" s="156"/>
-      <c r="Q211" s="156"/>
-      <c r="R211" s="156"/>
-      <c r="S211" s="156"/>
-      <c r="T211" s="156"/>
-      <c r="U211" s="156"/>
+      <c r="D211" s="153"/>
+      <c r="E211" s="153"/>
+      <c r="F211" s="153"/>
+      <c r="G211" s="153"/>
+      <c r="H211" s="153"/>
+      <c r="I211" s="153"/>
+      <c r="J211" s="153"/>
+      <c r="K211" s="153"/>
+      <c r="L211" s="153"/>
+      <c r="M211" s="153"/>
+      <c r="N211" s="153"/>
+      <c r="O211" s="153"/>
+      <c r="P211" s="153"/>
+      <c r="Q211" s="153"/>
+      <c r="R211" s="153"/>
+      <c r="S211" s="153"/>
+      <c r="T211" s="153"/>
+      <c r="U211" s="153"/>
     </row>
     <row r="212" spans="4:21">
-      <c r="D212" s="156"/>
-      <c r="E212" s="156"/>
-      <c r="F212" s="156"/>
-      <c r="G212" s="156"/>
-      <c r="H212" s="156"/>
-      <c r="I212" s="156"/>
-      <c r="J212" s="156"/>
-      <c r="K212" s="156"/>
-      <c r="L212" s="156"/>
-      <c r="M212" s="156"/>
-      <c r="N212" s="156"/>
-      <c r="O212" s="156"/>
-      <c r="P212" s="156"/>
-      <c r="Q212" s="156"/>
-      <c r="R212" s="156"/>
-      <c r="S212" s="156"/>
-      <c r="T212" s="156"/>
-      <c r="U212" s="156"/>
+      <c r="D212" s="153"/>
+      <c r="E212" s="153"/>
+      <c r="F212" s="153"/>
+      <c r="G212" s="153"/>
+      <c r="H212" s="153"/>
+      <c r="I212" s="153"/>
+      <c r="J212" s="153"/>
+      <c r="K212" s="153"/>
+      <c r="L212" s="153"/>
+      <c r="M212" s="153"/>
+      <c r="N212" s="153"/>
+      <c r="O212" s="153"/>
+      <c r="P212" s="153"/>
+      <c r="Q212" s="153"/>
+      <c r="R212" s="153"/>
+      <c r="S212" s="153"/>
+      <c r="T212" s="153"/>
+      <c r="U212" s="153"/>
     </row>
     <row r="213" spans="4:21">
-      <c r="D213" s="156"/>
-      <c r="E213" s="156"/>
-      <c r="F213" s="156"/>
-      <c r="G213" s="156"/>
-      <c r="H213" s="156"/>
-      <c r="I213" s="156"/>
-      <c r="J213" s="156"/>
-      <c r="K213" s="156"/>
-      <c r="L213" s="156"/>
-      <c r="M213" s="156"/>
-      <c r="N213" s="156"/>
-      <c r="O213" s="156"/>
-      <c r="P213" s="156"/>
-      <c r="Q213" s="156"/>
-      <c r="R213" s="156"/>
-      <c r="S213" s="156"/>
-      <c r="T213" s="156"/>
-      <c r="U213" s="156"/>
+      <c r="D213" s="153"/>
+      <c r="E213" s="153"/>
+      <c r="F213" s="153"/>
+      <c r="G213" s="153"/>
+      <c r="H213" s="153"/>
+      <c r="I213" s="153"/>
+      <c r="J213" s="153"/>
+      <c r="K213" s="153"/>
+      <c r="L213" s="153"/>
+      <c r="M213" s="153"/>
+      <c r="N213" s="153"/>
+      <c r="O213" s="153"/>
+      <c r="P213" s="153"/>
+      <c r="Q213" s="153"/>
+      <c r="R213" s="153"/>
+      <c r="S213" s="153"/>
+      <c r="T213" s="153"/>
+      <c r="U213" s="153"/>
     </row>
     <row r="214" spans="4:21">
-      <c r="D214" s="156"/>
-      <c r="E214" s="156"/>
-      <c r="F214" s="156"/>
-      <c r="G214" s="156"/>
-      <c r="H214" s="156"/>
-      <c r="I214" s="156"/>
-      <c r="J214" s="156"/>
-      <c r="K214" s="156"/>
-      <c r="L214" s="156"/>
-      <c r="M214" s="156"/>
-      <c r="N214" s="156"/>
-      <c r="O214" s="156"/>
-      <c r="P214" s="156"/>
-      <c r="Q214" s="156"/>
-      <c r="R214" s="156"/>
-      <c r="S214" s="156"/>
-      <c r="T214" s="156"/>
-      <c r="U214" s="156"/>
+      <c r="D214" s="153"/>
+      <c r="E214" s="153"/>
+      <c r="F214" s="153"/>
+      <c r="G214" s="153"/>
+      <c r="H214" s="153"/>
+      <c r="I214" s="153"/>
+      <c r="J214" s="153"/>
+      <c r="K214" s="153"/>
+      <c r="L214" s="153"/>
+      <c r="M214" s="153"/>
+      <c r="N214" s="153"/>
+      <c r="O214" s="153"/>
+      <c r="P214" s="153"/>
+      <c r="Q214" s="153"/>
+      <c r="R214" s="153"/>
+      <c r="S214" s="153"/>
+      <c r="T214" s="153"/>
+      <c r="U214" s="153"/>
     </row>
     <row r="215" spans="4:21">
-      <c r="D215" s="156"/>
-      <c r="E215" s="156"/>
-      <c r="F215" s="156"/>
-      <c r="G215" s="156"/>
-      <c r="H215" s="156"/>
-      <c r="I215" s="156"/>
-      <c r="J215" s="156"/>
-      <c r="K215" s="156"/>
-      <c r="L215" s="156"/>
-      <c r="M215" s="156"/>
-      <c r="N215" s="156"/>
-      <c r="O215" s="156"/>
-      <c r="P215" s="156"/>
-      <c r="Q215" s="156"/>
-      <c r="R215" s="156"/>
-      <c r="S215" s="156"/>
-      <c r="T215" s="156"/>
-      <c r="U215" s="156"/>
+      <c r="D215" s="153"/>
+      <c r="E215" s="153"/>
+      <c r="F215" s="153"/>
+      <c r="G215" s="153"/>
+      <c r="H215" s="153"/>
+      <c r="I215" s="153"/>
+      <c r="J215" s="153"/>
+      <c r="K215" s="153"/>
+      <c r="L215" s="153"/>
+      <c r="M215" s="153"/>
+      <c r="N215" s="153"/>
+      <c r="O215" s="153"/>
+      <c r="P215" s="153"/>
+      <c r="Q215" s="153"/>
+      <c r="R215" s="153"/>
+      <c r="S215" s="153"/>
+      <c r="T215" s="153"/>
+      <c r="U215" s="153"/>
     </row>
     <row r="216" spans="4:21">
-      <c r="D216" s="156"/>
-      <c r="E216" s="156"/>
-      <c r="F216" s="156"/>
-      <c r="G216" s="156"/>
-      <c r="H216" s="156"/>
-      <c r="I216" s="156"/>
-      <c r="J216" s="156"/>
-      <c r="K216" s="156"/>
-      <c r="L216" s="156"/>
-      <c r="M216" s="156"/>
-      <c r="N216" s="156"/>
-      <c r="O216" s="156"/>
-      <c r="P216" s="156"/>
-      <c r="Q216" s="156"/>
-      <c r="R216" s="156"/>
-      <c r="S216" s="156"/>
-      <c r="T216" s="156"/>
-      <c r="U216" s="156"/>
+      <c r="D216" s="153"/>
+      <c r="E216" s="153"/>
+      <c r="F216" s="153"/>
+      <c r="G216" s="153"/>
+      <c r="H216" s="153"/>
+      <c r="I216" s="153"/>
+      <c r="J216" s="153"/>
+      <c r="K216" s="153"/>
+      <c r="L216" s="153"/>
+      <c r="M216" s="153"/>
+      <c r="N216" s="153"/>
+      <c r="O216" s="153"/>
+      <c r="P216" s="153"/>
+      <c r="Q216" s="153"/>
+      <c r="R216" s="153"/>
+      <c r="S216" s="153"/>
+      <c r="T216" s="153"/>
+      <c r="U216" s="153"/>
     </row>
     <row r="217" spans="4:21">
-      <c r="D217" s="156"/>
-      <c r="E217" s="156"/>
-      <c r="F217" s="156"/>
-      <c r="G217" s="156"/>
-      <c r="H217" s="156"/>
-      <c r="I217" s="156"/>
-      <c r="J217" s="156"/>
-      <c r="K217" s="156"/>
-      <c r="L217" s="156"/>
-      <c r="M217" s="156"/>
-      <c r="N217" s="156"/>
-      <c r="O217" s="156"/>
-      <c r="P217" s="156"/>
-      <c r="Q217" s="156"/>
-      <c r="R217" s="156"/>
-      <c r="S217" s="156"/>
-      <c r="T217" s="156"/>
-      <c r="U217" s="156"/>
+      <c r="D217" s="153"/>
+      <c r="E217" s="153"/>
+      <c r="F217" s="153"/>
+      <c r="G217" s="153"/>
+      <c r="H217" s="153"/>
+      <c r="I217" s="153"/>
+      <c r="J217" s="153"/>
+      <c r="K217" s="153"/>
+      <c r="L217" s="153"/>
+      <c r="M217" s="153"/>
+      <c r="N217" s="153"/>
+      <c r="O217" s="153"/>
+      <c r="P217" s="153"/>
+      <c r="Q217" s="153"/>
+      <c r="R217" s="153"/>
+      <c r="S217" s="153"/>
+      <c r="T217" s="153"/>
+      <c r="U217" s="153"/>
     </row>
     <row r="218" spans="4:21">
-      <c r="D218" s="156"/>
-      <c r="E218" s="156"/>
-      <c r="F218" s="156"/>
-      <c r="G218" s="156"/>
-      <c r="H218" s="156"/>
-      <c r="I218" s="156"/>
-      <c r="J218" s="156"/>
-      <c r="K218" s="156"/>
-      <c r="L218" s="156"/>
-      <c r="M218" s="156"/>
-      <c r="N218" s="156"/>
-      <c r="O218" s="156"/>
-      <c r="P218" s="156"/>
-      <c r="Q218" s="156"/>
-      <c r="R218" s="156"/>
-      <c r="S218" s="156"/>
-      <c r="T218" s="156"/>
-      <c r="U218" s="156"/>
+      <c r="D218" s="153"/>
+      <c r="E218" s="153"/>
+      <c r="F218" s="153"/>
+      <c r="G218" s="153"/>
+      <c r="H218" s="153"/>
+      <c r="I218" s="153"/>
+      <c r="J218" s="153"/>
+      <c r="K218" s="153"/>
+      <c r="L218" s="153"/>
+      <c r="M218" s="153"/>
+      <c r="N218" s="153"/>
+      <c r="O218" s="153"/>
+      <c r="P218" s="153"/>
+      <c r="Q218" s="153"/>
+      <c r="R218" s="153"/>
+      <c r="S218" s="153"/>
+      <c r="T218" s="153"/>
+      <c r="U218" s="153"/>
     </row>
     <row r="219" spans="4:21">
-      <c r="D219" s="156"/>
-      <c r="E219" s="156"/>
-      <c r="F219" s="156"/>
-      <c r="G219" s="156"/>
-      <c r="H219" s="156"/>
-      <c r="I219" s="156"/>
-      <c r="J219" s="156"/>
-      <c r="K219" s="156"/>
-      <c r="L219" s="156"/>
-      <c r="M219" s="156"/>
-      <c r="N219" s="156"/>
-      <c r="O219" s="156"/>
-      <c r="P219" s="156"/>
-      <c r="Q219" s="156"/>
-      <c r="R219" s="156"/>
-      <c r="S219" s="156"/>
-      <c r="T219" s="156"/>
-      <c r="U219" s="156"/>
+      <c r="D219" s="153"/>
+      <c r="E219" s="153"/>
+      <c r="F219" s="153"/>
+      <c r="G219" s="153"/>
+      <c r="H219" s="153"/>
+      <c r="I219" s="153"/>
+      <c r="J219" s="153"/>
+      <c r="K219" s="153"/>
+      <c r="L219" s="153"/>
+      <c r="M219" s="153"/>
+      <c r="N219" s="153"/>
+      <c r="O219" s="153"/>
+      <c r="P219" s="153"/>
+      <c r="Q219" s="153"/>
+      <c r="R219" s="153"/>
+      <c r="S219" s="153"/>
+      <c r="T219" s="153"/>
+      <c r="U219" s="153"/>
     </row>
     <row r="220" spans="4:21">
-      <c r="D220" s="156"/>
-      <c r="E220" s="156"/>
-      <c r="F220" s="156"/>
-      <c r="G220" s="156"/>
-      <c r="H220" s="156"/>
-      <c r="I220" s="156"/>
-      <c r="J220" s="156"/>
-      <c r="K220" s="156"/>
-      <c r="L220" s="156"/>
-      <c r="M220" s="156"/>
-      <c r="N220" s="156"/>
-      <c r="O220" s="156"/>
-      <c r="P220" s="156"/>
-      <c r="Q220" s="156"/>
-      <c r="R220" s="156"/>
-      <c r="S220" s="156"/>
-      <c r="T220" s="156"/>
-      <c r="U220" s="156"/>
+      <c r="D220" s="153"/>
+      <c r="E220" s="153"/>
+      <c r="F220" s="153"/>
+      <c r="G220" s="153"/>
+      <c r="H220" s="153"/>
+      <c r="I220" s="153"/>
+      <c r="J220" s="153"/>
+      <c r="K220" s="153"/>
+      <c r="L220" s="153"/>
+      <c r="M220" s="153"/>
+      <c r="N220" s="153"/>
+      <c r="O220" s="153"/>
+      <c r="P220" s="153"/>
+      <c r="Q220" s="153"/>
+      <c r="R220" s="153"/>
+      <c r="S220" s="153"/>
+      <c r="T220" s="153"/>
+      <c r="U220" s="153"/>
     </row>
     <row r="221" spans="4:21">
-      <c r="D221" s="156"/>
-      <c r="E221" s="156"/>
-      <c r="F221" s="156"/>
-      <c r="G221" s="156"/>
-      <c r="H221" s="156"/>
-      <c r="I221" s="156"/>
-      <c r="J221" s="156"/>
-      <c r="K221" s="156"/>
-      <c r="L221" s="156"/>
-      <c r="M221" s="156"/>
-      <c r="N221" s="156"/>
-      <c r="O221" s="156"/>
-      <c r="P221" s="156"/>
-      <c r="Q221" s="156"/>
-      <c r="R221" s="156"/>
-      <c r="S221" s="156"/>
-      <c r="T221" s="156"/>
-      <c r="U221" s="156"/>
+      <c r="D221" s="153"/>
+      <c r="E221" s="153"/>
+      <c r="F221" s="153"/>
+      <c r="G221" s="153"/>
+      <c r="H221" s="153"/>
+      <c r="I221" s="153"/>
+      <c r="J221" s="153"/>
+      <c r="K221" s="153"/>
+      <c r="L221" s="153"/>
+      <c r="M221" s="153"/>
+      <c r="N221" s="153"/>
+      <c r="O221" s="153"/>
+      <c r="P221" s="153"/>
+      <c r="Q221" s="153"/>
+      <c r="R221" s="153"/>
+      <c r="S221" s="153"/>
+      <c r="T221" s="153"/>
+      <c r="U221" s="153"/>
     </row>
     <row r="222" spans="4:21">
-      <c r="D222" s="156"/>
-      <c r="E222" s="156"/>
-      <c r="F222" s="156"/>
-      <c r="G222" s="156"/>
-      <c r="H222" s="156"/>
-      <c r="I222" s="156"/>
-      <c r="J222" s="156"/>
-      <c r="K222" s="156"/>
-      <c r="L222" s="156"/>
-      <c r="M222" s="156"/>
-      <c r="N222" s="156"/>
-      <c r="O222" s="156"/>
-      <c r="P222" s="156"/>
-      <c r="Q222" s="156"/>
-      <c r="R222" s="156"/>
-      <c r="S222" s="156"/>
-      <c r="T222" s="156"/>
-      <c r="U222" s="156"/>
+      <c r="D222" s="153"/>
+      <c r="E222" s="153"/>
+      <c r="F222" s="153"/>
+      <c r="G222" s="153"/>
+      <c r="H222" s="153"/>
+      <c r="I222" s="153"/>
+      <c r="J222" s="153"/>
+      <c r="K222" s="153"/>
+      <c r="L222" s="153"/>
+      <c r="M222" s="153"/>
+      <c r="N222" s="153"/>
+      <c r="O222" s="153"/>
+      <c r="P222" s="153"/>
+      <c r="Q222" s="153"/>
+      <c r="R222" s="153"/>
+      <c r="S222" s="153"/>
+      <c r="T222" s="153"/>
+      <c r="U222" s="153"/>
     </row>
     <row r="223" spans="4:21">
-      <c r="D223" s="156"/>
-      <c r="E223" s="156"/>
-      <c r="F223" s="156"/>
-      <c r="G223" s="156"/>
-      <c r="H223" s="156"/>
-      <c r="I223" s="156"/>
-      <c r="J223" s="156"/>
-      <c r="K223" s="156"/>
-      <c r="L223" s="156"/>
-      <c r="M223" s="156"/>
-      <c r="N223" s="156"/>
-      <c r="O223" s="156"/>
-      <c r="P223" s="156"/>
-      <c r="Q223" s="156"/>
-      <c r="R223" s="156"/>
-      <c r="S223" s="156"/>
-      <c r="T223" s="156"/>
-      <c r="U223" s="156"/>
+      <c r="D223" s="153"/>
+      <c r="E223" s="153"/>
+      <c r="F223" s="153"/>
+      <c r="G223" s="153"/>
+      <c r="H223" s="153"/>
+      <c r="I223" s="153"/>
+      <c r="J223" s="153"/>
+      <c r="K223" s="153"/>
+      <c r="L223" s="153"/>
+      <c r="M223" s="153"/>
+      <c r="N223" s="153"/>
+      <c r="O223" s="153"/>
+      <c r="P223" s="153"/>
+      <c r="Q223" s="153"/>
+      <c r="R223" s="153"/>
+      <c r="S223" s="153"/>
+      <c r="T223" s="153"/>
+      <c r="U223" s="153"/>
     </row>
     <row r="224" spans="4:21">
-      <c r="D224" s="156"/>
-      <c r="E224" s="156"/>
-      <c r="F224" s="156"/>
-      <c r="G224" s="156"/>
-      <c r="H224" s="156"/>
-      <c r="I224" s="156"/>
-      <c r="J224" s="156"/>
-      <c r="K224" s="156"/>
-      <c r="L224" s="156"/>
-      <c r="M224" s="156"/>
-      <c r="N224" s="156"/>
-      <c r="O224" s="156"/>
-      <c r="P224" s="156"/>
-      <c r="Q224" s="156"/>
-      <c r="R224" s="156"/>
-      <c r="S224" s="156"/>
-      <c r="T224" s="156"/>
-      <c r="U224" s="156"/>
+      <c r="D224" s="153"/>
+      <c r="E224" s="153"/>
+      <c r="F224" s="153"/>
+      <c r="G224" s="153"/>
+      <c r="H224" s="153"/>
+      <c r="I224" s="153"/>
+      <c r="J224" s="153"/>
+      <c r="K224" s="153"/>
+      <c r="L224" s="153"/>
+      <c r="M224" s="153"/>
+      <c r="N224" s="153"/>
+      <c r="O224" s="153"/>
+      <c r="P224" s="153"/>
+      <c r="Q224" s="153"/>
+      <c r="R224" s="153"/>
+      <c r="S224" s="153"/>
+      <c r="T224" s="153"/>
+      <c r="U224" s="153"/>
     </row>
     <row r="225" spans="4:21">
-      <c r="D225" s="156"/>
-      <c r="E225" s="156"/>
-      <c r="F225" s="156"/>
-      <c r="G225" s="156"/>
-      <c r="H225" s="156"/>
-      <c r="I225" s="156"/>
-      <c r="J225" s="156"/>
-      <c r="K225" s="156"/>
-      <c r="L225" s="156"/>
-      <c r="M225" s="156"/>
-      <c r="N225" s="156"/>
-      <c r="O225" s="156"/>
-      <c r="P225" s="156"/>
-      <c r="Q225" s="156"/>
-      <c r="R225" s="156"/>
-      <c r="S225" s="156"/>
-      <c r="T225" s="156"/>
-      <c r="U225" s="156"/>
+      <c r="D225" s="153"/>
+      <c r="E225" s="153"/>
+      <c r="F225" s="153"/>
+      <c r="G225" s="153"/>
+      <c r="H225" s="153"/>
+      <c r="I225" s="153"/>
+      <c r="J225" s="153"/>
+      <c r="K225" s="153"/>
+      <c r="L225" s="153"/>
+      <c r="M225" s="153"/>
+      <c r="N225" s="153"/>
+      <c r="O225" s="153"/>
+      <c r="P225" s="153"/>
+      <c r="Q225" s="153"/>
+      <c r="R225" s="153"/>
+      <c r="S225" s="153"/>
+      <c r="T225" s="153"/>
+      <c r="U225" s="153"/>
     </row>
     <row r="226" spans="4:21">
-      <c r="D226" s="156"/>
-      <c r="E226" s="156"/>
-      <c r="F226" s="156"/>
-      <c r="G226" s="156"/>
-      <c r="H226" s="156"/>
-      <c r="I226" s="156"/>
-      <c r="J226" s="156"/>
-      <c r="K226" s="156"/>
-      <c r="L226" s="156"/>
-      <c r="M226" s="156"/>
-      <c r="N226" s="156"/>
-      <c r="O226" s="156"/>
-      <c r="P226" s="156"/>
-      <c r="Q226" s="156"/>
-      <c r="R226" s="156"/>
-      <c r="S226" s="156"/>
-      <c r="T226" s="156"/>
-      <c r="U226" s="156"/>
+      <c r="D226" s="153"/>
+      <c r="E226" s="153"/>
+      <c r="F226" s="153"/>
+      <c r="G226" s="153"/>
+      <c r="H226" s="153"/>
+      <c r="I226" s="153"/>
+      <c r="J226" s="153"/>
+      <c r="K226" s="153"/>
+      <c r="L226" s="153"/>
+      <c r="M226" s="153"/>
+      <c r="N226" s="153"/>
+      <c r="O226" s="153"/>
+      <c r="P226" s="153"/>
+      <c r="Q226" s="153"/>
+      <c r="R226" s="153"/>
+      <c r="S226" s="153"/>
+      <c r="T226" s="153"/>
+      <c r="U226" s="153"/>
     </row>
     <row r="227" spans="4:21">
-      <c r="D227" s="156"/>
-      <c r="E227" s="156"/>
-      <c r="F227" s="156"/>
-      <c r="G227" s="156"/>
-      <c r="H227" s="156"/>
-      <c r="I227" s="156"/>
-      <c r="J227" s="156"/>
-      <c r="K227" s="156"/>
-      <c r="L227" s="156"/>
-      <c r="M227" s="156"/>
-      <c r="N227" s="156"/>
-      <c r="O227" s="156"/>
-      <c r="P227" s="156"/>
-      <c r="Q227" s="156"/>
-      <c r="R227" s="156"/>
-      <c r="S227" s="156"/>
-      <c r="T227" s="156"/>
-      <c r="U227" s="156"/>
+      <c r="D227" s="153"/>
+      <c r="E227" s="153"/>
+      <c r="F227" s="153"/>
+      <c r="G227" s="153"/>
+      <c r="H227" s="153"/>
+      <c r="I227" s="153"/>
+      <c r="J227" s="153"/>
+      <c r="K227" s="153"/>
+      <c r="L227" s="153"/>
+      <c r="M227" s="153"/>
+      <c r="N227" s="153"/>
+      <c r="O227" s="153"/>
+      <c r="P227" s="153"/>
+      <c r="Q227" s="153"/>
+      <c r="R227" s="153"/>
+      <c r="S227" s="153"/>
+      <c r="T227" s="153"/>
+      <c r="U227" s="153"/>
     </row>
     <row r="228" spans="4:21">
-      <c r="D228" s="156"/>
-      <c r="E228" s="156"/>
-      <c r="F228" s="156"/>
-      <c r="G228" s="156"/>
-      <c r="H228" s="156"/>
-      <c r="I228" s="156"/>
-      <c r="J228" s="156"/>
-      <c r="K228" s="156"/>
-      <c r="L228" s="156"/>
-      <c r="M228" s="156"/>
-      <c r="N228" s="156"/>
-      <c r="O228" s="156"/>
-      <c r="P228" s="156"/>
-      <c r="Q228" s="156"/>
-      <c r="R228" s="156"/>
-      <c r="S228" s="156"/>
-      <c r="T228" s="156"/>
-      <c r="U228" s="156"/>
+      <c r="D228" s="153"/>
+      <c r="E228" s="153"/>
+      <c r="F228" s="153"/>
+      <c r="G228" s="153"/>
+      <c r="H228" s="153"/>
+      <c r="I228" s="153"/>
+      <c r="J228" s="153"/>
+      <c r="K228" s="153"/>
+      <c r="L228" s="153"/>
+      <c r="M228" s="153"/>
+      <c r="N228" s="153"/>
+      <c r="O228" s="153"/>
+      <c r="P228" s="153"/>
+      <c r="Q228" s="153"/>
+      <c r="R228" s="153"/>
+      <c r="S228" s="153"/>
+      <c r="T228" s="153"/>
+      <c r="U228" s="153"/>
     </row>
     <row r="229" spans="4:21">
-      <c r="D229" s="156"/>
-      <c r="E229" s="156"/>
-      <c r="F229" s="156"/>
-      <c r="G229" s="156"/>
-      <c r="H229" s="156"/>
-      <c r="I229" s="156"/>
-      <c r="J229" s="156"/>
-      <c r="K229" s="156"/>
-      <c r="L229" s="156"/>
-      <c r="M229" s="156"/>
-      <c r="N229" s="156"/>
-      <c r="O229" s="156"/>
-      <c r="P229" s="156"/>
-      <c r="Q229" s="156"/>
-      <c r="R229" s="156"/>
-      <c r="S229" s="156"/>
-      <c r="T229" s="156"/>
-      <c r="U229" s="156"/>
+      <c r="D229" s="153"/>
+      <c r="E229" s="153"/>
+      <c r="F229" s="153"/>
+      <c r="G229" s="153"/>
+      <c r="H229" s="153"/>
+      <c r="I229" s="153"/>
+      <c r="J229" s="153"/>
+      <c r="K229" s="153"/>
+      <c r="L229" s="153"/>
+      <c r="M229" s="153"/>
+      <c r="N229" s="153"/>
+      <c r="O229" s="153"/>
+      <c r="P229" s="153"/>
+      <c r="Q229" s="153"/>
+      <c r="R229" s="153"/>
+      <c r="S229" s="153"/>
+      <c r="T229" s="153"/>
+      <c r="U229" s="153"/>
     </row>
     <row r="230" spans="4:21">
-      <c r="D230" s="156"/>
-      <c r="E230" s="156"/>
-      <c r="F230" s="156"/>
-      <c r="G230" s="156"/>
-      <c r="H230" s="156"/>
-      <c r="I230" s="156"/>
-      <c r="J230" s="156"/>
-      <c r="K230" s="156"/>
-      <c r="L230" s="156"/>
-      <c r="M230" s="156"/>
-      <c r="N230" s="156"/>
-      <c r="O230" s="156"/>
-      <c r="P230" s="156"/>
-      <c r="Q230" s="156"/>
-      <c r="R230" s="156"/>
-      <c r="S230" s="156"/>
-      <c r="T230" s="156"/>
-      <c r="U230" s="156"/>
+      <c r="D230" s="153"/>
+      <c r="E230" s="153"/>
+      <c r="F230" s="153"/>
+      <c r="G230" s="153"/>
+      <c r="H230" s="153"/>
+      <c r="I230" s="153"/>
+      <c r="J230" s="153"/>
+      <c r="K230" s="153"/>
+      <c r="L230" s="153"/>
+      <c r="M230" s="153"/>
+      <c r="N230" s="153"/>
+      <c r="O230" s="153"/>
+      <c r="P230" s="153"/>
+      <c r="Q230" s="153"/>
+      <c r="R230" s="153"/>
+      <c r="S230" s="153"/>
+      <c r="T230" s="153"/>
+      <c r="U230" s="153"/>
     </row>
     <row r="231" spans="4:21">
-      <c r="D231" s="156"/>
-      <c r="E231" s="156"/>
-      <c r="F231" s="156"/>
-      <c r="G231" s="156"/>
-      <c r="H231" s="156"/>
-      <c r="I231" s="156"/>
-      <c r="J231" s="156"/>
-      <c r="K231" s="156"/>
-      <c r="L231" s="156"/>
-      <c r="M231" s="156"/>
-      <c r="N231" s="156"/>
-      <c r="O231" s="156"/>
-      <c r="P231" s="156"/>
-      <c r="Q231" s="156"/>
-      <c r="R231" s="156"/>
-      <c r="S231" s="156"/>
-      <c r="T231" s="156"/>
-      <c r="U231" s="156"/>
+      <c r="D231" s="153"/>
+      <c r="E231" s="153"/>
+      <c r="F231" s="153"/>
+      <c r="G231" s="153"/>
+      <c r="H231" s="153"/>
+      <c r="I231" s="153"/>
+      <c r="J231" s="153"/>
+      <c r="K231" s="153"/>
+      <c r="L231" s="153"/>
+      <c r="M231" s="153"/>
+      <c r="N231" s="153"/>
+      <c r="O231" s="153"/>
+      <c r="P231" s="153"/>
+      <c r="Q231" s="153"/>
+      <c r="R231" s="153"/>
+      <c r="S231" s="153"/>
+      <c r="T231" s="153"/>
+      <c r="U231" s="153"/>
     </row>
     <row r="232" spans="4:21">
-      <c r="D232" s="156"/>
-      <c r="E232" s="156"/>
-      <c r="F232" s="156"/>
-      <c r="G232" s="156"/>
-      <c r="H232" s="156"/>
-      <c r="I232" s="156"/>
-      <c r="J232" s="156"/>
-      <c r="K232" s="156"/>
-      <c r="L232" s="156"/>
-      <c r="M232" s="156"/>
-      <c r="N232" s="156"/>
-      <c r="O232" s="156"/>
-      <c r="P232" s="156"/>
-      <c r="Q232" s="156"/>
-      <c r="R232" s="156"/>
-      <c r="S232" s="156"/>
-      <c r="T232" s="156"/>
-      <c r="U232" s="156"/>
+      <c r="D232" s="153"/>
+      <c r="E232" s="153"/>
+      <c r="F232" s="153"/>
+      <c r="G232" s="153"/>
+      <c r="H232" s="153"/>
+      <c r="I232" s="153"/>
+      <c r="J232" s="153"/>
+      <c r="K232" s="153"/>
+      <c r="L232" s="153"/>
+      <c r="M232" s="153"/>
+      <c r="N232" s="153"/>
+      <c r="O232" s="153"/>
+      <c r="P232" s="153"/>
+      <c r="Q232" s="153"/>
+      <c r="R232" s="153"/>
+      <c r="S232" s="153"/>
+      <c r="T232" s="153"/>
+      <c r="U232" s="153"/>
     </row>
     <row r="233" spans="4:21">
-      <c r="D233" s="156"/>
-      <c r="E233" s="156"/>
-      <c r="F233" s="156"/>
-      <c r="G233" s="156"/>
-      <c r="H233" s="156"/>
-      <c r="I233" s="156"/>
-      <c r="J233" s="156"/>
-      <c r="K233" s="156"/>
-      <c r="L233" s="156"/>
-      <c r="M233" s="156"/>
-      <c r="N233" s="156"/>
-      <c r="O233" s="156"/>
-      <c r="P233" s="156"/>
-      <c r="Q233" s="156"/>
-      <c r="R233" s="156"/>
-      <c r="S233" s="156"/>
-      <c r="T233" s="156"/>
-      <c r="U233" s="156"/>
+      <c r="D233" s="153"/>
+      <c r="E233" s="153"/>
+      <c r="F233" s="153"/>
+      <c r="G233" s="153"/>
+      <c r="H233" s="153"/>
+      <c r="I233" s="153"/>
+      <c r="J233" s="153"/>
+      <c r="K233" s="153"/>
+      <c r="L233" s="153"/>
+      <c r="M233" s="153"/>
+      <c r="N233" s="153"/>
+      <c r="O233" s="153"/>
+      <c r="P233" s="153"/>
+      <c r="Q233" s="153"/>
+      <c r="R233" s="153"/>
+      <c r="S233" s="153"/>
+      <c r="T233" s="153"/>
+      <c r="U233" s="153"/>
     </row>
     <row r="234" spans="4:21">
-      <c r="D234" s="156"/>
-      <c r="E234" s="156"/>
-      <c r="F234" s="156"/>
-      <c r="G234" s="156"/>
-      <c r="H234" s="156"/>
-      <c r="I234" s="156"/>
-      <c r="J234" s="156"/>
-      <c r="K234" s="156"/>
-      <c r="L234" s="156"/>
-      <c r="M234" s="156"/>
-      <c r="N234" s="156"/>
-      <c r="O234" s="156"/>
-      <c r="P234" s="156"/>
-      <c r="Q234" s="156"/>
-      <c r="R234" s="156"/>
-      <c r="S234" s="156"/>
-      <c r="T234" s="156"/>
-      <c r="U234" s="156"/>
+      <c r="D234" s="153"/>
+      <c r="E234" s="153"/>
+      <c r="F234" s="153"/>
+      <c r="G234" s="153"/>
+      <c r="H234" s="153"/>
+      <c r="I234" s="153"/>
+      <c r="J234" s="153"/>
+      <c r="K234" s="153"/>
+      <c r="L234" s="153"/>
+      <c r="M234" s="153"/>
+      <c r="N234" s="153"/>
+      <c r="O234" s="153"/>
+      <c r="P234" s="153"/>
+      <c r="Q234" s="153"/>
+      <c r="R234" s="153"/>
+      <c r="S234" s="153"/>
+      <c r="T234" s="153"/>
+      <c r="U234" s="153"/>
     </row>
     <row r="235" spans="4:21">
-      <c r="D235" s="156"/>
-      <c r="E235" s="156"/>
-      <c r="F235" s="156"/>
-      <c r="G235" s="156"/>
-      <c r="H235" s="156"/>
-      <c r="I235" s="156"/>
-      <c r="J235" s="156"/>
-      <c r="K235" s="156"/>
-      <c r="L235" s="156"/>
-      <c r="M235" s="156"/>
-      <c r="N235" s="156"/>
-      <c r="O235" s="156"/>
-      <c r="P235" s="156"/>
-      <c r="Q235" s="156"/>
-      <c r="R235" s="156"/>
-      <c r="S235" s="156"/>
-      <c r="T235" s="156"/>
-      <c r="U235" s="156"/>
+      <c r="D235" s="153"/>
+      <c r="E235" s="153"/>
+      <c r="F235" s="153"/>
+      <c r="G235" s="153"/>
+      <c r="H235" s="153"/>
+      <c r="I235" s="153"/>
+      <c r="J235" s="153"/>
+      <c r="K235" s="153"/>
+      <c r="L235" s="153"/>
+      <c r="M235" s="153"/>
+      <c r="N235" s="153"/>
+      <c r="O235" s="153"/>
+      <c r="P235" s="153"/>
+      <c r="Q235" s="153"/>
+      <c r="R235" s="153"/>
+      <c r="S235" s="153"/>
+      <c r="T235" s="153"/>
+      <c r="U235" s="153"/>
     </row>
     <row r="236" spans="4:21">
-      <c r="D236" s="156"/>
-      <c r="E236" s="156"/>
-      <c r="F236" s="156"/>
-      <c r="G236" s="156"/>
-      <c r="H236" s="156"/>
-      <c r="I236" s="156"/>
-      <c r="J236" s="156"/>
-      <c r="K236" s="156"/>
-      <c r="L236" s="156"/>
-      <c r="M236" s="156"/>
-      <c r="N236" s="156"/>
-      <c r="O236" s="156"/>
-      <c r="P236" s="156"/>
-      <c r="Q236" s="156"/>
-      <c r="R236" s="156"/>
-      <c r="S236" s="156"/>
-      <c r="T236" s="156"/>
-      <c r="U236" s="156"/>
+      <c r="D236" s="153"/>
+      <c r="E236" s="153"/>
+      <c r="F236" s="153"/>
+      <c r="G236" s="153"/>
+      <c r="H236" s="153"/>
+      <c r="I236" s="153"/>
+      <c r="J236" s="153"/>
+      <c r="K236" s="153"/>
+      <c r="L236" s="153"/>
+      <c r="M236" s="153"/>
+      <c r="N236" s="153"/>
+      <c r="O236" s="153"/>
+      <c r="P236" s="153"/>
+      <c r="Q236" s="153"/>
+      <c r="R236" s="153"/>
+      <c r="S236" s="153"/>
+      <c r="T236" s="153"/>
+      <c r="U236" s="153"/>
     </row>
     <row r="237" spans="4:21">
-      <c r="D237" s="156"/>
-      <c r="E237" s="156"/>
-      <c r="F237" s="156"/>
-      <c r="G237" s="156"/>
-      <c r="H237" s="156"/>
-      <c r="I237" s="156"/>
-      <c r="J237" s="156"/>
-      <c r="K237" s="156"/>
-      <c r="L237" s="156"/>
-      <c r="M237" s="156"/>
-      <c r="N237" s="156"/>
-      <c r="O237" s="156"/>
-      <c r="P237" s="156"/>
-      <c r="Q237" s="156"/>
-      <c r="R237" s="156"/>
-      <c r="S237" s="156"/>
-      <c r="T237" s="156"/>
-      <c r="U237" s="156"/>
+      <c r="D237" s="153"/>
+      <c r="E237" s="153"/>
+      <c r="F237" s="153"/>
+      <c r="G237" s="153"/>
+      <c r="H237" s="153"/>
+      <c r="I237" s="153"/>
+      <c r="J237" s="153"/>
+      <c r="K237" s="153"/>
+      <c r="L237" s="153"/>
+      <c r="M237" s="153"/>
+      <c r="N237" s="153"/>
+      <c r="O237" s="153"/>
+      <c r="P237" s="153"/>
+      <c r="Q237" s="153"/>
+      <c r="R237" s="153"/>
+      <c r="S237" s="153"/>
+      <c r="T237" s="153"/>
+      <c r="U237" s="153"/>
     </row>
     <row r="238" spans="4:21">
-      <c r="D238" s="156"/>
-      <c r="E238" s="156"/>
-      <c r="F238" s="156"/>
-      <c r="G238" s="156"/>
-      <c r="H238" s="156"/>
-      <c r="I238" s="156"/>
-      <c r="J238" s="156"/>
-      <c r="K238" s="156"/>
-      <c r="L238" s="156"/>
-      <c r="M238" s="156"/>
-      <c r="N238" s="156"/>
-      <c r="O238" s="156"/>
-      <c r="P238" s="156"/>
-      <c r="Q238" s="156"/>
-      <c r="R238" s="156"/>
-      <c r="S238" s="156"/>
-      <c r="T238" s="156"/>
-      <c r="U238" s="156"/>
+      <c r="D238" s="153"/>
+      <c r="E238" s="153"/>
+      <c r="F238" s="153"/>
+      <c r="G238" s="153"/>
+      <c r="H238" s="153"/>
+      <c r="I238" s="153"/>
+      <c r="J238" s="153"/>
+      <c r="K238" s="153"/>
+      <c r="L238" s="153"/>
+      <c r="M238" s="153"/>
+      <c r="N238" s="153"/>
+      <c r="O238" s="153"/>
+      <c r="P238" s="153"/>
+      <c r="Q238" s="153"/>
+      <c r="R238" s="153"/>
+      <c r="S238" s="153"/>
+      <c r="T238" s="153"/>
+      <c r="U238" s="153"/>
     </row>
     <row r="239" spans="4:21">
-      <c r="D239" s="156"/>
-      <c r="E239" s="156"/>
-      <c r="F239" s="156"/>
-      <c r="G239" s="156"/>
-      <c r="H239" s="156"/>
-      <c r="I239" s="156"/>
-      <c r="J239" s="156"/>
-      <c r="K239" s="156"/>
-      <c r="L239" s="156"/>
-      <c r="M239" s="156"/>
-      <c r="N239" s="156"/>
-      <c r="O239" s="156"/>
-      <c r="P239" s="156"/>
-      <c r="Q239" s="156"/>
-      <c r="R239" s="156"/>
-      <c r="S239" s="156"/>
-      <c r="T239" s="156"/>
-      <c r="U239" s="156"/>
+      <c r="D239" s="153"/>
+      <c r="E239" s="153"/>
+      <c r="F239" s="153"/>
+      <c r="G239" s="153"/>
+      <c r="H239" s="153"/>
+      <c r="I239" s="153"/>
+      <c r="J239" s="153"/>
+      <c r="K239" s="153"/>
+      <c r="L239" s="153"/>
+      <c r="M239" s="153"/>
+      <c r="N239" s="153"/>
+      <c r="O239" s="153"/>
+      <c r="P239" s="153"/>
+      <c r="Q239" s="153"/>
+      <c r="R239" s="153"/>
+      <c r="S239" s="153"/>
+      <c r="T239" s="153"/>
+      <c r="U239" s="153"/>
     </row>
     <row r="240" spans="4:21">
-      <c r="D240" s="156"/>
-      <c r="E240" s="156"/>
-      <c r="F240" s="156"/>
-      <c r="G240" s="156"/>
-      <c r="H240" s="156"/>
-      <c r="I240" s="156"/>
-      <c r="J240" s="156"/>
-      <c r="K240" s="156"/>
-      <c r="L240" s="156"/>
-      <c r="M240" s="156"/>
-      <c r="N240" s="156"/>
-      <c r="O240" s="156"/>
-      <c r="P240" s="156"/>
-      <c r="Q240" s="156"/>
-      <c r="R240" s="156"/>
-      <c r="S240" s="156"/>
-      <c r="T240" s="156"/>
-      <c r="U240" s="156"/>
+      <c r="D240" s="153"/>
+      <c r="E240" s="153"/>
+      <c r="F240" s="153"/>
+      <c r="G240" s="153"/>
+      <c r="H240" s="153"/>
+      <c r="I240" s="153"/>
+      <c r="J240" s="153"/>
+      <c r="K240" s="153"/>
+      <c r="L240" s="153"/>
+      <c r="M240" s="153"/>
+      <c r="N240" s="153"/>
+      <c r="O240" s="153"/>
+      <c r="P240" s="153"/>
+      <c r="Q240" s="153"/>
+      <c r="R240" s="153"/>
+      <c r="S240" s="153"/>
+      <c r="T240" s="153"/>
+      <c r="U240" s="153"/>
     </row>
     <row r="241" spans="4:21">
-      <c r="D241" s="156"/>
-      <c r="E241" s="156"/>
-      <c r="F241" s="156"/>
-      <c r="G241" s="156"/>
-      <c r="H241" s="156"/>
-      <c r="I241" s="156"/>
-      <c r="J241" s="156"/>
-      <c r="K241" s="156"/>
-      <c r="L241" s="156"/>
-      <c r="M241" s="156"/>
-      <c r="N241" s="156"/>
-      <c r="O241" s="156"/>
-      <c r="P241" s="156"/>
-      <c r="Q241" s="156"/>
-      <c r="R241" s="156"/>
-      <c r="S241" s="156"/>
-      <c r="T241" s="156"/>
-      <c r="U241" s="156"/>
+      <c r="D241" s="153"/>
+      <c r="E241" s="153"/>
+      <c r="F241" s="153"/>
+      <c r="G241" s="153"/>
+      <c r="H241" s="153"/>
+      <c r="I241" s="153"/>
+      <c r="J241" s="153"/>
+      <c r="K241" s="153"/>
+      <c r="L241" s="153"/>
+      <c r="M241" s="153"/>
+      <c r="N241" s="153"/>
+      <c r="O241" s="153"/>
+      <c r="P241" s="153"/>
+      <c r="Q241" s="153"/>
+      <c r="R241" s="153"/>
+      <c r="S241" s="153"/>
+      <c r="T241" s="153"/>
+      <c r="U241" s="153"/>
     </row>
     <row r="242" spans="4:21">
-      <c r="D242" s="156"/>
-      <c r="E242" s="156"/>
-      <c r="F242" s="156"/>
-      <c r="G242" s="156"/>
-      <c r="H242" s="156"/>
-      <c r="I242" s="156"/>
-      <c r="J242" s="156"/>
-      <c r="K242" s="156"/>
-      <c r="L242" s="156"/>
-      <c r="M242" s="156"/>
-      <c r="N242" s="156"/>
-      <c r="O242" s="156"/>
-      <c r="P242" s="156"/>
-      <c r="Q242" s="156"/>
-      <c r="R242" s="156"/>
-      <c r="S242" s="156"/>
-      <c r="T242" s="156"/>
-      <c r="U242" s="156"/>
+      <c r="D242" s="153"/>
+      <c r="E242" s="153"/>
+      <c r="F242" s="153"/>
+      <c r="G242" s="153"/>
+      <c r="H242" s="153"/>
+      <c r="I242" s="153"/>
+      <c r="J242" s="153"/>
+      <c r="K242" s="153"/>
+      <c r="L242" s="153"/>
+      <c r="M242" s="153"/>
+      <c r="N242" s="153"/>
+      <c r="O242" s="153"/>
+      <c r="P242" s="153"/>
+      <c r="Q242" s="153"/>
+      <c r="R242" s="153"/>
+      <c r="S242" s="153"/>
+      <c r="T242" s="153"/>
+      <c r="U242" s="153"/>
     </row>
     <row r="243" spans="4:21">
-      <c r="D243" s="156"/>
-      <c r="E243" s="156"/>
-      <c r="F243" s="156"/>
-      <c r="G243" s="156"/>
-      <c r="H243" s="156"/>
-      <c r="I243" s="156"/>
-      <c r="J243" s="156"/>
-      <c r="K243" s="156"/>
-      <c r="L243" s="156"/>
-      <c r="M243" s="156"/>
-      <c r="N243" s="156"/>
-      <c r="O243" s="156"/>
-      <c r="P243" s="156"/>
-      <c r="Q243" s="156"/>
-      <c r="R243" s="156"/>
-      <c r="S243" s="156"/>
-      <c r="T243" s="156"/>
-      <c r="U243" s="156"/>
+      <c r="D243" s="153"/>
+      <c r="E243" s="153"/>
+      <c r="F243" s="153"/>
+      <c r="G243" s="153"/>
+      <c r="H243" s="153"/>
+      <c r="I243" s="153"/>
+      <c r="J243" s="153"/>
+      <c r="K243" s="153"/>
+      <c r="L243" s="153"/>
+      <c r="M243" s="153"/>
+      <c r="N243" s="153"/>
+      <c r="O243" s="153"/>
+      <c r="P243" s="153"/>
+      <c r="Q243" s="153"/>
+      <c r="R243" s="153"/>
+      <c r="S243" s="153"/>
+      <c r="T243" s="153"/>
+      <c r="U243" s="153"/>
     </row>
     <row r="244" spans="4:21">
-      <c r="D244" s="156"/>
-      <c r="E244" s="156"/>
-      <c r="F244" s="156"/>
-      <c r="G244" s="156"/>
-      <c r="H244" s="156"/>
-      <c r="I244" s="156"/>
-      <c r="J244" s="156"/>
-      <c r="K244" s="156"/>
-      <c r="L244" s="156"/>
-      <c r="M244" s="156"/>
-      <c r="N244" s="156"/>
-      <c r="O244" s="156"/>
-      <c r="P244" s="156"/>
-      <c r="Q244" s="156"/>
-      <c r="R244" s="156"/>
-      <c r="S244" s="156"/>
-      <c r="T244" s="156"/>
-      <c r="U244" s="156"/>
+      <c r="D244" s="153"/>
+      <c r="E244" s="153"/>
+      <c r="F244" s="153"/>
+      <c r="G244" s="153"/>
+      <c r="H244" s="153"/>
+      <c r="I244" s="153"/>
+      <c r="J244" s="153"/>
+      <c r="K244" s="153"/>
+      <c r="L244" s="153"/>
+      <c r="M244" s="153"/>
+      <c r="N244" s="153"/>
+      <c r="O244" s="153"/>
+      <c r="P244" s="153"/>
+      <c r="Q244" s="153"/>
+      <c r="R244" s="153"/>
+      <c r="S244" s="153"/>
+      <c r="T244" s="153"/>
+      <c r="U244" s="153"/>
     </row>
     <row r="245" spans="4:21">
-      <c r="D245" s="156"/>
-      <c r="E245" s="156"/>
-      <c r="F245" s="156"/>
-      <c r="G245" s="156"/>
-      <c r="H245" s="156"/>
-      <c r="I245" s="156"/>
-      <c r="J245" s="156"/>
-      <c r="K245" s="156"/>
-      <c r="L245" s="156"/>
-      <c r="M245" s="156"/>
-      <c r="N245" s="156"/>
-      <c r="O245" s="156"/>
-      <c r="P245" s="156"/>
-      <c r="Q245" s="156"/>
-      <c r="R245" s="156"/>
-      <c r="S245" s="156"/>
-      <c r="T245" s="156"/>
-      <c r="U245" s="156"/>
+      <c r="D245" s="153"/>
+      <c r="E245" s="153"/>
+      <c r="F245" s="153"/>
+      <c r="G245" s="153"/>
+      <c r="H245" s="153"/>
+      <c r="I245" s="153"/>
+      <c r="J245" s="153"/>
+      <c r="K245" s="153"/>
+      <c r="L245" s="153"/>
+      <c r="M245" s="153"/>
+      <c r="N245" s="153"/>
+      <c r="O245" s="153"/>
+      <c r="P245" s="153"/>
+      <c r="Q245" s="153"/>
+      <c r="R245" s="153"/>
+      <c r="S245" s="153"/>
+      <c r="T245" s="153"/>
+      <c r="U245" s="153"/>
     </row>
     <row r="246" spans="4:21">
-      <c r="D246" s="156"/>
-      <c r="E246" s="156"/>
-      <c r="F246" s="156"/>
-      <c r="G246" s="156"/>
-      <c r="H246" s="156"/>
-      <c r="I246" s="156"/>
-      <c r="J246" s="156"/>
-      <c r="K246" s="156"/>
-      <c r="L246" s="156"/>
-      <c r="M246" s="156"/>
-      <c r="N246" s="156"/>
-      <c r="O246" s="156"/>
-      <c r="P246" s="156"/>
-      <c r="Q246" s="156"/>
-      <c r="R246" s="156"/>
-      <c r="S246" s="156"/>
-      <c r="T246" s="156"/>
-      <c r="U246" s="156"/>
+      <c r="D246" s="153"/>
+      <c r="E246" s="153"/>
+      <c r="F246" s="153"/>
+      <c r="G246" s="153"/>
+      <c r="H246" s="153"/>
+      <c r="I246" s="153"/>
+      <c r="J246" s="153"/>
+      <c r="K246" s="153"/>
+      <c r="L246" s="153"/>
+      <c r="M246" s="153"/>
+      <c r="N246" s="153"/>
+      <c r="O246" s="153"/>
+      <c r="P246" s="153"/>
+      <c r="Q246" s="153"/>
+      <c r="R246" s="153"/>
+      <c r="S246" s="153"/>
+      <c r="T246" s="153"/>
+      <c r="U246" s="153"/>
     </row>
     <row r="247" spans="4:21">
-      <c r="D247" s="156"/>
-      <c r="E247" s="156"/>
-      <c r="F247" s="156"/>
-      <c r="G247" s="156"/>
-      <c r="H247" s="156"/>
-      <c r="I247" s="156"/>
-      <c r="J247" s="156"/>
-      <c r="K247" s="156"/>
-      <c r="L247" s="156"/>
-      <c r="M247" s="156"/>
-      <c r="N247" s="156"/>
-      <c r="O247" s="156"/>
-      <c r="P247" s="156"/>
-      <c r="Q247" s="156"/>
-      <c r="R247" s="156"/>
-      <c r="S247" s="156"/>
-      <c r="T247" s="156"/>
-      <c r="U247" s="156"/>
+      <c r="D247" s="153"/>
+      <c r="E247" s="153"/>
+      <c r="F247" s="153"/>
+      <c r="G247" s="153"/>
+      <c r="H247" s="153"/>
+      <c r="I247" s="153"/>
+      <c r="J247" s="153"/>
+      <c r="K247" s="153"/>
+      <c r="L247" s="153"/>
+      <c r="M247" s="153"/>
+      <c r="N247" s="153"/>
+      <c r="O247" s="153"/>
+      <c r="P247" s="153"/>
+      <c r="Q247" s="153"/>
+      <c r="R247" s="153"/>
+      <c r="S247" s="153"/>
+      <c r="T247" s="153"/>
+      <c r="U247" s="153"/>
     </row>
     <row r="248" spans="4:21">
-      <c r="D248" s="156"/>
-      <c r="E248" s="156"/>
-      <c r="F248" s="156"/>
-      <c r="G248" s="156"/>
-      <c r="H248" s="156"/>
-      <c r="I248" s="156"/>
-      <c r="J248" s="156"/>
-      <c r="K248" s="156"/>
-      <c r="L248" s="156"/>
-      <c r="M248" s="156"/>
-      <c r="N248" s="156"/>
-      <c r="O248" s="156"/>
-      <c r="P248" s="156"/>
-      <c r="Q248" s="156"/>
-      <c r="R248" s="156"/>
-      <c r="S248" s="156"/>
-      <c r="T248" s="156"/>
-      <c r="U248" s="156"/>
+      <c r="D248" s="153"/>
+      <c r="E248" s="153"/>
+      <c r="F248" s="153"/>
+      <c r="G248" s="153"/>
+      <c r="H248" s="153"/>
+      <c r="I248" s="153"/>
+      <c r="J248" s="153"/>
+      <c r="K248" s="153"/>
+      <c r="L248" s="153"/>
+      <c r="M248" s="153"/>
+      <c r="N248" s="153"/>
+      <c r="O248" s="153"/>
+      <c r="P248" s="153"/>
+      <c r="Q248" s="153"/>
+      <c r="R248" s="153"/>
+      <c r="S248" s="153"/>
+      <c r="T248" s="153"/>
+      <c r="U248" s="153"/>
     </row>
     <row r="249" spans="4:21">
-      <c r="D249" s="156"/>
-      <c r="E249" s="156"/>
-      <c r="F249" s="156"/>
-      <c r="G249" s="156"/>
-      <c r="H249" s="156"/>
-      <c r="I249" s="156"/>
-      <c r="J249" s="156"/>
-      <c r="K249" s="156"/>
-      <c r="L249" s="156"/>
-      <c r="M249" s="156"/>
-      <c r="N249" s="156"/>
-      <c r="O249" s="156"/>
-      <c r="P249" s="156"/>
-      <c r="Q249" s="156"/>
-      <c r="R249" s="156"/>
-      <c r="S249" s="156"/>
-      <c r="T249" s="156"/>
-      <c r="U249" s="156"/>
+      <c r="D249" s="153"/>
+      <c r="E249" s="153"/>
+      <c r="F249" s="153"/>
+      <c r="G249" s="153"/>
+      <c r="H249" s="153"/>
+      <c r="I249" s="153"/>
+      <c r="J249" s="153"/>
+      <c r="K249" s="153"/>
+      <c r="L249" s="153"/>
+      <c r="M249" s="153"/>
+      <c r="N249" s="153"/>
+      <c r="O249" s="153"/>
+      <c r="P249" s="153"/>
+      <c r="Q249" s="153"/>
+      <c r="R249" s="153"/>
+      <c r="S249" s="153"/>
+      <c r="T249" s="153"/>
+      <c r="U249" s="153"/>
     </row>
     <row r="250" spans="4:21">
-      <c r="D250" s="156"/>
-      <c r="E250" s="156"/>
-      <c r="F250" s="156"/>
-      <c r="G250" s="156"/>
-      <c r="H250" s="156"/>
-      <c r="I250" s="156"/>
-      <c r="J250" s="156"/>
-      <c r="K250" s="156"/>
-      <c r="L250" s="156"/>
-      <c r="M250" s="156"/>
-      <c r="N250" s="156"/>
-      <c r="O250" s="156"/>
-      <c r="P250" s="156"/>
-      <c r="Q250" s="156"/>
-      <c r="R250" s="156"/>
-      <c r="S250" s="156"/>
-      <c r="T250" s="156"/>
-      <c r="U250" s="156"/>
+      <c r="D250" s="153"/>
+      <c r="E250" s="153"/>
+      <c r="F250" s="153"/>
+      <c r="G250" s="153"/>
+      <c r="H250" s="153"/>
+      <c r="I250" s="153"/>
+      <c r="J250" s="153"/>
+      <c r="K250" s="153"/>
+      <c r="L250" s="153"/>
+      <c r="M250" s="153"/>
+      <c r="N250" s="153"/>
+      <c r="O250" s="153"/>
+      <c r="P250" s="153"/>
+      <c r="Q250" s="153"/>
+      <c r="R250" s="153"/>
+      <c r="S250" s="153"/>
+      <c r="T250" s="153"/>
+      <c r="U250" s="153"/>
     </row>
     <row r="251" spans="4:21">
-      <c r="D251" s="156"/>
-      <c r="E251" s="156"/>
-      <c r="F251" s="156"/>
-      <c r="G251" s="156"/>
-      <c r="H251" s="156"/>
-      <c r="I251" s="156"/>
-      <c r="J251" s="156"/>
-      <c r="K251" s="156"/>
-      <c r="L251" s="156"/>
-      <c r="M251" s="156"/>
-      <c r="N251" s="156"/>
-      <c r="O251" s="156"/>
-      <c r="P251" s="156"/>
-      <c r="Q251" s="156"/>
-      <c r="R251" s="156"/>
-      <c r="S251" s="156"/>
-      <c r="T251" s="156"/>
-      <c r="U251" s="156"/>
+      <c r="D251" s="153"/>
+      <c r="E251" s="153"/>
+      <c r="F251" s="153"/>
+      <c r="G251" s="153"/>
+      <c r="H251" s="153"/>
+      <c r="I251" s="153"/>
+      <c r="J251" s="153"/>
+      <c r="K251" s="153"/>
+      <c r="L251" s="153"/>
+      <c r="M251" s="153"/>
+      <c r="N251" s="153"/>
+      <c r="O251" s="153"/>
+      <c r="P251" s="153"/>
+      <c r="Q251" s="153"/>
+      <c r="R251" s="153"/>
+      <c r="S251" s="153"/>
+      <c r="T251" s="153"/>
+      <c r="U251" s="153"/>
     </row>
     <row r="254" spans="4:21">
       <c r="D254" s="48" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="256" spans="4:21">
       <c r="D256" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="257" spans="4:4">
       <c r="D257" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="258" spans="4:4">
       <c r="D258" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="259" spans="4:4">
       <c r="D259" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="260" spans="4:4">
       <c r="D260" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="261" spans="4:4">
       <c r="D261" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="262" spans="4:4">
       <c r="D262" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="263" spans="4:4">
       <c r="D263" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="264" spans="4:4">
       <c r="D264" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D168:U251"/>
-    <mergeCell ref="D167:U167"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:B31"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="B19:B23"/>
@@ -9800,6 +9852,11 @@
     <mergeCell ref="D100:U164"/>
     <mergeCell ref="D99:U99"/>
     <mergeCell ref="D35:T35"/>
+    <mergeCell ref="D168:U251"/>
+    <mergeCell ref="D167:U167"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9836,7 +9893,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
       <c r="D1" s="54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
@@ -9844,46 +9901,46 @@
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="D3" s="56" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="F5" s="158" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G5" s="158"/>
       <c r="H5" s="159"/>
       <c r="I5" s="99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="57" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I6" s="100"/>
       <c r="J6" s="101"/>
@@ -9893,25 +9950,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C7" s="63">
         <v>1</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H7" s="98" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I7" s="101"/>
       <c r="J7" s="101"/>
@@ -9921,25 +9978,25 @@
         <v>2</v>
       </c>
       <c r="B8" s="160" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C8" s="75">
         <v>1</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
@@ -9951,19 +10008,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I9" s="101"/>
       <c r="J9" s="101"/>
@@ -9975,19 +10032,19 @@
         <v>3</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H10" s="69" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I10" s="101"/>
       <c r="J10" s="101"/>
@@ -9999,13 +10056,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G11" s="68"/>
       <c r="H11" s="69"/>
@@ -10019,10 +10076,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F12" s="68"/>
       <c r="G12" s="68"/>
@@ -10037,10 +10094,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
@@ -10055,10 +10112,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="68"/>
@@ -10073,10 +10130,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F15" s="68"/>
       <c r="G15" s="68"/>
@@ -10091,10 +10148,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F16" s="68"/>
       <c r="G16" s="68"/>
@@ -10109,10 +10166,10 @@
         <v>10</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
@@ -10127,10 +10184,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10145,10 +10202,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
@@ -10163,10 +10220,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
@@ -10181,10 +10238,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
@@ -10197,25 +10254,25 @@
         <v>3</v>
       </c>
       <c r="B22" s="165" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C22" s="72">
         <v>1</v>
       </c>
       <c r="D22" s="73" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H22" s="69" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I22" s="101"/>
       <c r="J22" s="101"/>
@@ -10227,25 +10284,25 @@
         <v>2</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E23" s="69" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H23" s="69" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I23" s="101" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J23" s="101" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10255,25 +10312,25 @@
         <v>3</v>
       </c>
       <c r="D24" s="68" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H24" s="69" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I24" s="101" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J24" s="101" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10283,25 +10340,25 @@
         <v>4</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G25" s="68" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J25" s="101" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10311,25 +10368,25 @@
         <v>5</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G26" s="68" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H26" s="69" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I26" s="101" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J26" s="101" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10339,25 +10396,25 @@
         <v>6</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E27" s="80" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I27" s="101" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J27" s="101" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10367,25 +10424,25 @@
         <v>7</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10395,25 +10452,25 @@
         <v>8</v>
       </c>
       <c r="D29" s="70" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G29" s="68" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H29" s="85" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I29" s="102" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J29" s="102" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10423,25 +10480,25 @@
         <v>9</v>
       </c>
       <c r="D30" s="70" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G30" s="68" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I30" s="101" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J30" s="102" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10451,25 +10508,25 @@
         <v>10</v>
       </c>
       <c r="D31" s="70" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I31" s="101" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J31" s="102" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10479,25 +10536,25 @@
         <v>11</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G32" s="68" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I32" s="101" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J32" s="101" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10505,25 +10562,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C33" s="75">
         <v>1</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
@@ -10535,19 +10592,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G34" s="68" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H34" s="69" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
@@ -10559,19 +10616,19 @@
         <v>3</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H35" s="69" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I35" s="101"/>
       <c r="J35" s="101"/>
@@ -10583,19 +10640,19 @@
         <v>4</v>
       </c>
       <c r="D36" s="83" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G36" s="68" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H36" s="69" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
@@ -10607,19 +10664,19 @@
         <v>5</v>
       </c>
       <c r="D37" s="70" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -10631,10 +10688,10 @@
         <v>5</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F38" s="68"/>
       <c r="G38" s="68"/>
@@ -10649,10 +10706,10 @@
         <v>6</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
@@ -10667,10 +10724,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E40" s="71" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F40" s="68"/>
       <c r="G40" s="68"/>
@@ -10685,10 +10742,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
@@ -10703,10 +10760,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F42" s="68"/>
       <c r="G42" s="68"/>
@@ -10721,10 +10778,10 @@
         <v>10</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
@@ -10739,10 +10796,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F44" s="68"/>
       <c r="G44" s="68"/>
@@ -10757,10 +10814,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F45" s="68"/>
       <c r="G45" s="68"/>
@@ -10775,10 +10832,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F46" s="68"/>
       <c r="G46" s="68"/>
@@ -10788,17 +10845,17 @@
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="90" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" s="90" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="90" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="4:6">
@@ -11088,7 +11145,7 @@
     </row>
     <row r="173" spans="4:6">
       <c r="D173" s="90" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="176" spans="4:6">
@@ -11323,76 +11380,76 @@
     </row>
     <row r="228" spans="4:7">
       <c r="D228" s="89" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E228" s="89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="4:7">
       <c r="D229" s="53" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E229" s="53" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="230" spans="4:7">
       <c r="D230" s="53" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="231" spans="4:7">
       <c r="D231" s="53" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="232" spans="4:7">
       <c r="D232" s="53" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="233" spans="4:7">
       <c r="D233" s="85" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="234" spans="4:7">
       <c r="D234" s="53" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="237" spans="4:7">
       <c r="F237" s="88" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="4:7">
       <c r="D239" s="86" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E239" s="87" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F239" s="87" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G239" s="87" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="241" spans="4:7">
       <c r="D241" s="53" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E241" s="53" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F241" s="53" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G241" s="53" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -11435,22 +11492,22 @@
   <sheetData>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>39</v>
@@ -11461,156 +11518,156 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="C8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E8" s="109"/>
       <c r="F8" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1">
       <c r="C11" s="96" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="C12" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D12" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F12" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D13" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D14" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E14" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D15" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F15" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D16" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E16" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F16" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75">
@@ -11618,7 +11675,7 @@
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
       <c r="D19" s="54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
@@ -11644,7 +11701,7 @@
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
       <c r="D21" s="56" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
@@ -11672,41 +11729,41 @@
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="158" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G23" s="158"/>
       <c r="H23" s="159"/>
       <c r="I23" s="99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J23" s="99" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="57" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E24" s="108" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F24" s="60" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I24" s="100"/>
       <c r="J24" s="101"/>
@@ -11716,28 +11773,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C25" s="104">
         <v>1</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H25" s="98" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I25" s="101" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="J25" s="101"/>
     </row>
@@ -11746,31 +11803,31 @@
         <v>2</v>
       </c>
       <c r="B26" s="160" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C26" s="78">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G26" s="66" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H26" s="98" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J26" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -11780,25 +11837,25 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F27" s="106" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G27" s="68" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H27" s="69" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="I27" s="38" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="J27" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -11808,25 +11865,25 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F28" s="106" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H28" s="69" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J28" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -11836,25 +11893,25 @@
         <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F29" s="106" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I29" s="38" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J29" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -11864,25 +11921,25 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F30" s="106" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H30" s="69" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="I30" s="38" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="J30" s="101" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30.75">
@@ -11892,25 +11949,25 @@
         <v>6</v>
       </c>
       <c r="D31" s="103" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F31" s="106" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G31" s="68" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="H31" s="95" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="I31" s="38" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J31" s="96" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -11920,25 +11977,25 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F32" s="106" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G32" s="66" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H32" s="69" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I32" s="38" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J32" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -11948,25 +12005,25 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F33" s="106" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G33" s="68" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="I33" s="38" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="J33" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -11976,19 +12033,19 @@
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F34" s="106"/>
       <c r="G34" s="68"/>
       <c r="H34" s="69"/>
       <c r="I34" s="38" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J34" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -11998,19 +12055,19 @@
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F35" s="106"/>
       <c r="G35" s="68"/>
       <c r="H35" s="69"/>
       <c r="I35" s="38" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J35" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -12020,19 +12077,19 @@
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F36" s="106"/>
       <c r="G36" s="68"/>
       <c r="H36" s="69"/>
       <c r="I36" s="38" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="J36" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -12040,25 +12097,25 @@
         <v>3</v>
       </c>
       <c r="B37" s="165" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C37" s="72">
         <v>1</v>
       </c>
       <c r="D37" s="73" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G37" s="68" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H37" s="69" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I37" s="101"/>
       <c r="J37" s="101"/>
@@ -12070,25 +12127,25 @@
         <v>2</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E38" s="69" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G38" s="68" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H38" s="69" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I38" s="101" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="J38" s="101" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -12098,25 +12155,25 @@
         <v>3</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E39" s="69" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G39" s="68" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H39" s="69" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I39" s="101" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J39" s="101" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -12126,25 +12183,25 @@
         <v>4</v>
       </c>
       <c r="D40" s="68" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F40" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G40" s="68" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I40" s="101" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J40" s="101" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -12154,25 +12211,25 @@
         <v>5</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E41" s="69" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F41" s="68" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H41" s="69" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I41" s="101" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J41" s="101" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -12182,25 +12239,25 @@
         <v>6</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E42" s="69" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H42" s="69" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I42" s="101" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="J42" s="101" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -12210,25 +12267,25 @@
         <v>7</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E43" s="71" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I43" s="101" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J43" s="102" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -12238,25 +12295,25 @@
         <v>8</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E44" s="71" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G44" s="68" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H44" s="85" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="I44" s="102" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="J44" s="102" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -12266,25 +12323,25 @@
         <v>9</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E45" s="71" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G45" s="68" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H45" s="69" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I45" s="101" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J45" s="102" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -12294,25 +12351,25 @@
         <v>10</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G46" s="68" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H46" s="69" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I46" s="101" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J46" s="102" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -12322,25 +12379,25 @@
         <v>11</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E47" s="69" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G47" s="68" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I47" s="101" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J47" s="101" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -12348,25 +12405,25 @@
         <v>4</v>
       </c>
       <c r="B48" s="163" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C48" s="75">
         <v>1</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G48" s="68" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H48" s="69" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I48" s="101"/>
       <c r="J48" s="101"/>
@@ -12378,19 +12435,19 @@
         <v>2</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G49" s="68" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H49" s="69" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I49" s="101"/>
       <c r="J49" s="101"/>
@@ -12402,19 +12459,19 @@
         <v>3</v>
       </c>
       <c r="D50" s="81" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E50" s="82" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G50" s="68" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I50" s="101"/>
       <c r="J50" s="101"/>
@@ -12426,19 +12483,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E51" s="84" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F51" s="68" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G51" s="68" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H51" s="69" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I51" s="101"/>
       <c r="J51" s="101"/>
@@ -12450,19 +12507,19 @@
         <v>5</v>
       </c>
       <c r="D52" s="70" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E52" s="71" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F52" s="68" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G52" s="68" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H52" s="69" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I52" s="101"/>
       <c r="J52" s="101"/>
@@ -12474,10 +12531,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="70" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E53" s="71" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F53" s="68"/>
       <c r="G53" s="68"/>
@@ -12492,10 +12549,10 @@
         <v>6</v>
       </c>
       <c r="D54" s="70" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E54" s="71" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
@@ -12510,10 +12567,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="70" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F55" s="68"/>
       <c r="G55" s="68"/>
@@ -12528,10 +12585,10 @@
         <v>8</v>
       </c>
       <c r="D56" s="70" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
@@ -12546,10 +12603,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="70" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F57" s="68"/>
       <c r="G57" s="68"/>
@@ -12564,10 +12621,10 @@
         <v>10</v>
       </c>
       <c r="D58" s="70" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F58" s="68"/>
       <c r="G58" s="68"/>
@@ -12582,10 +12639,10 @@
         <v>11</v>
       </c>
       <c r="D59" s="70" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
@@ -12600,10 +12657,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="70" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E60" s="71" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F60" s="68"/>
       <c r="G60" s="68"/>
@@ -12618,10 +12675,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="70" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F61" s="68"/>
       <c r="G61" s="68"/>
@@ -12670,7 +12727,7 @@
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
@@ -12696,7 +12753,7 @@
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
       <c r="E7" s="56" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -12729,28 +12786,28 @@
     </row>
     <row r="10" spans="2:11" ht="15.75">
       <c r="B10" s="118" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E10" s="129" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G10" s="117" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I10" s="117" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75">
@@ -12758,22 +12815,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D11" s="63">
         <v>1</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H11" s="105" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I11" s="122"/>
     </row>
@@ -12782,22 +12839,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="160" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D12" s="132">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H12" s="120" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I12" s="123"/>
     </row>
@@ -12808,19 +12865,19 @@
         <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H13" s="120" t="s">
+        <v>397</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -12830,19 +12887,19 @@
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H14" s="120" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -12852,19 +12909,19 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H15" s="120" t="s">
+        <v>404</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -12874,19 +12931,19 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H16" s="126" t="s">
+        <v>408</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -12896,19 +12953,19 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G17" s="101" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H17" s="127" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I17" s="103" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -12918,19 +12975,19 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H18" s="120" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -12940,17 +12997,17 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G19" s="124"/>
       <c r="H19" s="127" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -12960,17 +13017,17 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="127" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="2:9">
@@ -12980,17 +13037,17 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G21" s="101"/>
       <c r="H21" s="127" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -12998,25 +13055,25 @@
         <v>3</v>
       </c>
       <c r="C22" s="160" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D22" s="132">
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H22" s="127" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -13026,13 +13083,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G23" s="68" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H23" s="128"/>
       <c r="I23" s="122"/>
@@ -13044,13 +13101,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G24" s="68" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H24" s="128"/>
       <c r="I24" s="122"/>
@@ -13062,19 +13119,19 @@
         <v>3</v>
       </c>
       <c r="E25" s="68" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F25" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="68" t="s">
+        <v>479</v>
+      </c>
+      <c r="H25" s="120" t="s">
         <v>275</v>
       </c>
-      <c r="G25" s="68" t="s">
-        <v>476</v>
-      </c>
-      <c r="H25" s="120" t="s">
-        <v>272</v>
-      </c>
       <c r="I25" s="101" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -13084,19 +13141,19 @@
         <v>4</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F26" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="G26" s="68" t="s">
+        <v>481</v>
+      </c>
+      <c r="H26" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="G26" s="68" t="s">
-        <v>478</v>
-      </c>
-      <c r="H26" s="120" t="s">
-        <v>279</v>
-      </c>
       <c r="I26" s="101" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -13106,19 +13163,19 @@
         <v>5</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F27" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" s="102" t="s">
+        <v>483</v>
+      </c>
+      <c r="H27" s="120" t="s">
         <v>289</v>
       </c>
-      <c r="G27" s="102" t="s">
-        <v>480</v>
-      </c>
-      <c r="H27" s="120" t="s">
-        <v>286</v>
-      </c>
       <c r="I27" s="101" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -13128,19 +13185,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F28" s="68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G28" s="68" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H28" s="120" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I28" s="101" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -13150,19 +13207,19 @@
         <v>7</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F29" s="70" t="s">
+        <v>305</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>487</v>
+      </c>
+      <c r="H29" s="120" t="s">
         <v>302</v>
       </c>
-      <c r="G29" s="102" t="s">
-        <v>484</v>
-      </c>
-      <c r="H29" s="120" t="s">
-        <v>299</v>
-      </c>
       <c r="I29" s="101" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -13172,19 +13229,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F30" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>489</v>
+      </c>
+      <c r="H30" s="120" t="s">
         <v>309</v>
       </c>
-      <c r="G30" s="68" t="s">
-        <v>486</v>
-      </c>
-      <c r="H30" s="120" t="s">
-        <v>306</v>
-      </c>
       <c r="I30" s="102" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -13194,19 +13251,19 @@
         <v>9</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F31" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>491</v>
+      </c>
+      <c r="H31" s="133" t="s">
         <v>315</v>
       </c>
-      <c r="G31" s="68" t="s">
-        <v>488</v>
-      </c>
-      <c r="H31" s="133" t="s">
-        <v>312</v>
-      </c>
       <c r="I31" s="102" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -13216,19 +13273,19 @@
         <v>10</v>
       </c>
       <c r="E32" s="70" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F32" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>493</v>
+      </c>
+      <c r="H32" s="120" t="s">
         <v>321</v>
       </c>
-      <c r="G32" s="68" t="s">
-        <v>490</v>
-      </c>
-      <c r="H32" s="120" t="s">
-        <v>318</v>
-      </c>
       <c r="I32" s="102" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -13238,19 +13295,19 @@
         <v>11</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F33" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>495</v>
+      </c>
+      <c r="H33" s="120" t="s">
         <v>328</v>
       </c>
-      <c r="G33" s="102" t="s">
-        <v>492</v>
-      </c>
-      <c r="H33" s="120" t="s">
-        <v>325</v>
-      </c>
       <c r="I33" s="102" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -13258,25 +13315,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="160" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D34" s="132">
         <v>1</v>
       </c>
       <c r="E34" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>452</v>
+      </c>
+      <c r="G34" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="H34" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="F34" s="68" t="s">
-        <v>449</v>
-      </c>
-      <c r="G34" s="68" t="s">
-        <v>493</v>
-      </c>
-      <c r="H34" s="120" t="s">
-        <v>332</v>
-      </c>
       <c r="I34" s="101" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -13287,13 +13344,13 @@
         <v>2</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F35" s="68" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H35" s="120"/>
       <c r="I35" s="101"/>
@@ -13305,13 +13362,13 @@
         <v>3</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G36" s="102" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H36" s="120"/>
       <c r="I36" s="101"/>
@@ -13324,13 +13381,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="81" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F37" s="81" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G37" s="102" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H37" s="120"/>
       <c r="I37" s="101"/>
@@ -13343,13 +13400,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G38" s="102" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H38" s="120"/>
       <c r="I38" s="101"/>
@@ -13362,13 +13419,13 @@
         <v>6</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F39" s="81" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G39" s="102" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H39" s="120"/>
       <c r="I39" s="101"/>
@@ -13381,13 +13438,13 @@
         <v>7</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G40" s="102" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H40" s="120"/>
       <c r="I40" s="101"/>
@@ -13400,13 +13457,13 @@
         <v>8</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G41" s="68" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H41" s="120"/>
       <c r="I41" s="101"/>
@@ -13419,13 +13476,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G42" s="68" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="101"/>
@@ -13438,13 +13495,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="102" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F43" s="70" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G43" s="68" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="101"/>
@@ -13457,16 +13514,16 @@
         <v>11</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H44" s="106" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="I44" s="101"/>
     </row>
@@ -13478,16 +13535,16 @@
         <v>12</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F45" s="70" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H45" s="106" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="I45" s="101"/>
     </row>
@@ -13499,14 +13556,14 @@
         <v>13</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="106" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I46" s="101"/>
     </row>
@@ -13518,10 +13575,10 @@
         <v>14</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G47" s="68"/>
       <c r="H47" s="120"/>
@@ -13535,10 +13592,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G48" s="68"/>
       <c r="H48" s="120"/>
@@ -13552,10 +13609,10 @@
         <v>16</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G49" s="68"/>
       <c r="H49" s="120"/>
@@ -13569,10 +13626,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G50" s="68"/>
       <c r="H50" s="120"/>
@@ -13586,10 +13643,10 @@
         <v>18</v>
       </c>
       <c r="E51" s="70" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F51" s="70" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G51" s="68"/>
       <c r="H51" s="120"/>
@@ -13603,10 +13660,10 @@
         <v>19</v>
       </c>
       <c r="E52" s="70" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F52" s="70" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G52" s="68"/>
       <c r="H52" s="120"/>
@@ -13620,10 +13677,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="70" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F53" s="70" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="120"/>
@@ -13637,10 +13694,10 @@
         <v>21</v>
       </c>
       <c r="E54" s="70" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F54" s="70" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G54" s="68"/>
       <c r="H54" s="120"/>
@@ -13654,10 +13711,10 @@
         <v>22</v>
       </c>
       <c r="E55" s="70" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F55" s="70" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G55" s="68"/>
       <c r="H55" s="120"/>
@@ -13698,7 +13755,7 @@
     <row r="2" spans="1:8" ht="18.75">
       <c r="C2" s="53"/>
       <c r="D2" s="54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75">
@@ -13708,33 +13765,33 @@
     <row r="4" spans="1:8" ht="15.75">
       <c r="C4" s="53"/>
       <c r="D4" s="56" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="118" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E5" s="129" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
@@ -13742,25 +13799,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C6" s="63">
         <v>1</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E6" s="134" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H6" s="122" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13768,25 +13825,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="160" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="132">
         <v>2</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G7" s="120" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -13796,19 +13853,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G8" s="120" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -13818,19 +13875,19 @@
         <v>4</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G9" s="120" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -13840,19 +13897,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E10" s="101" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G10" s="120" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13862,19 +13919,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G11" s="126" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -13884,19 +13941,19 @@
         <v>7</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -13906,19 +13963,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G13" s="120" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -13928,19 +13985,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E14" s="101" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F14" s="124" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -13950,19 +14007,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E15" s="101" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -13972,19 +14029,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -13992,22 +14049,22 @@
         <v>3</v>
       </c>
       <c r="B17" s="160" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C17" s="132">
         <v>1</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -14018,16 +14075,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G18" s="135" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H18" s="101"/>
     </row>
@@ -14038,16 +14095,16 @@
         <v>3</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G19" s="128" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H19" s="122"/>
     </row>
@@ -14058,19 +14115,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G20" s="120" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H20" s="101" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -14080,19 +14137,19 @@
         <v>4</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E21" s="68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G21" s="120" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H21" s="101" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -14102,19 +14159,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E22" s="68" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F22" s="102" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G22" s="120" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H22" s="101" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -14124,19 +14181,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="68" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G23" s="120" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H23" s="101" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -14146,19 +14203,19 @@
         <v>7</v>
       </c>
       <c r="D24" s="70" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F24" s="102" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="G24" s="120" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H24" s="101" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -14168,19 +14225,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="70" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G25" s="133" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H25" s="102" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -14190,19 +14247,19 @@
         <v>9</v>
       </c>
       <c r="D26" s="70" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G26" s="120" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14212,19 +14269,19 @@
         <v>10</v>
       </c>
       <c r="D27" s="70" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G27" s="120" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H27" s="102" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -14234,19 +14291,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G28" s="120" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -14254,25 +14311,25 @@
         <v>4</v>
       </c>
       <c r="B29" s="160" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C29" s="132">
         <v>1</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E29" s="68" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G29" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H29" s="101" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -14283,16 +14340,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="68" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F30" s="68" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G30" s="120" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H30" s="101"/>
     </row>
@@ -14303,16 +14360,16 @@
         <v>3</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F31" s="102" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H31" s="101"/>
     </row>
@@ -14324,16 +14381,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F32" s="102" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G32" s="120" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H32" s="101"/>
     </row>
@@ -14345,16 +14402,16 @@
         <v>5</v>
       </c>
       <c r="D33" s="81" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F33" s="102" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G33" s="120" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H33" s="101"/>
     </row>
@@ -14366,16 +14423,16 @@
         <v>6</v>
       </c>
       <c r="D34" s="81" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F34" s="102" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H34" s="101"/>
     </row>
@@ -14387,16 +14444,16 @@
         <v>7</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E35" s="81" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F35" s="102" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H35" s="101"/>
     </row>
@@ -14408,16 +14465,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="70" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F36" s="68" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="G36" s="120" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H36" s="101"/>
     </row>
@@ -14429,16 +14486,16 @@
         <v>9</v>
       </c>
       <c r="D37" s="102" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E37" s="70" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F37" s="68" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G37" s="120" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H37" s="101"/>
     </row>
@@ -14450,16 +14507,16 @@
         <v>10</v>
       </c>
       <c r="D38" s="102" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F38" s="68" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G38" s="120" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H38" s="101"/>
     </row>
@@ -14471,16 +14528,16 @@
         <v>11</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F39" s="101" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G39" s="106" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H39" s="101"/>
     </row>
@@ -14492,16 +14549,16 @@
         <v>12</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G40" s="106" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H40" s="101"/>
     </row>
@@ -14513,16 +14570,16 @@
         <v>13</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G41" s="106" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H41" s="101"/>
     </row>
@@ -14534,16 +14591,16 @@
         <v>14</v>
       </c>
       <c r="D42" s="70" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G42" s="120" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H42" s="101"/>
     </row>
@@ -14555,16 +14612,16 @@
         <v>15</v>
       </c>
       <c r="D43" s="70" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E43" s="70" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G43" s="120" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H43" s="101"/>
     </row>
@@ -14576,16 +14633,16 @@
         <v>16</v>
       </c>
       <c r="D44" s="70" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F44" s="68" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G44" s="120" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H44" s="101"/>
     </row>
@@ -14597,16 +14654,16 @@
         <v>17</v>
       </c>
       <c r="D45" s="70" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E45" s="70" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F45" s="68" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G45" s="120" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H45" s="101"/>
     </row>
@@ -14618,16 +14675,16 @@
         <v>18</v>
       </c>
       <c r="D46" s="70" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G46" s="120" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H46" s="101"/>
     </row>
@@ -14639,16 +14696,16 @@
         <v>19</v>
       </c>
       <c r="D47" s="70" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G47" s="120" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H47" s="101"/>
     </row>
@@ -14660,16 +14717,16 @@
         <v>20</v>
       </c>
       <c r="D48" s="70" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F48" s="68" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G48" s="120" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H48" s="101"/>
     </row>
@@ -14681,16 +14738,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="70" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F49" s="68" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G49" s="120" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H49" s="101"/>
     </row>
@@ -14702,16 +14759,16 @@
         <v>22</v>
       </c>
       <c r="D50" s="70" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F50" s="68" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G50" s="120" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H50" s="101"/>
     </row>

--- a/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
+++ b/Process/Process Sheet/TeamAlpha - Progress Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8693D9B1-8E7F-4E6E-8A27-7D67D23933EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{8693D9B1-8E7F-4E6E-8A27-7D67D23933EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58709339-AFBB-452A-8BF6-7BF3571441E7}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="660">
   <si>
     <t>MOM</t>
   </si>
@@ -1987,6 +1987,33 @@
   </si>
   <si>
     <t>PERFORMANCE PAGE(Name,ACE ID,Role,Drives,Accepted,Availability,Utilized,Not Utilized,Denied,Ignored,Cancelled</t>
+  </si>
+  <si>
+    <t>use common db</t>
+  </si>
+  <si>
+    <t>cancellation reason text max length bug</t>
+  </si>
+  <si>
+    <t>do boundary testing(min and max)</t>
+  </si>
+  <si>
+    <t>information not displayed while boundary testing api</t>
+  </si>
+  <si>
+    <t>test access violations via URL.</t>
+  </si>
+  <si>
+    <t>ensure delivery standards in code.</t>
+  </si>
+  <si>
+    <t>Lighthouse report(page wise).</t>
+  </si>
+  <si>
+    <t>Populate data in JMeter.</t>
+  </si>
+  <si>
+    <t>DAY 78</t>
   </si>
 </sst>
 </file>
@@ -2443,7 +2470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2854,16 +2881,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2896,6 +2923,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3686,10 +3714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46290B07-6E6D-4B19-9A9B-C3E38C6518F8}">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A262" sqref="A262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5315,13 +5343,82 @@
       <c r="A248" s="142"/>
       <c r="B248" s="149"/>
     </row>
-    <row r="249" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A249" s="142"/>
-      <c r="B249" s="149"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="143"/>
-      <c r="B250" s="143"/>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="44" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="145" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="146">
+        <v>1</v>
+      </c>
+      <c r="B252" s="148" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="146">
+        <v>2</v>
+      </c>
+      <c r="B253" s="148" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="150">
+        <v>3</v>
+      </c>
+      <c r="B254" s="151" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="152">
+        <v>4</v>
+      </c>
+      <c r="B255" s="151" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="146">
+        <v>5</v>
+      </c>
+      <c r="B256" s="184" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="146">
+        <v>6</v>
+      </c>
+      <c r="B257" s="184" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="146">
+        <v>7</v>
+      </c>
+      <c r="B258" s="184" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="146">
+        <v>8</v>
+      </c>
+      <c r="B259" s="184" t="s">
+        <v>658</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6748,44 +6845,44 @@
       <c r="E34" s="47"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D35" s="173" t="s">
+      <c r="D35" s="172" t="s">
         <v>296</v>
       </c>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="173"/>
-      <c r="R35" s="173"/>
-      <c r="S35" s="173"/>
-      <c r="T35" s="173"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="172"/>
+      <c r="L35" s="172"/>
+      <c r="M35" s="172"/>
+      <c r="N35" s="172"/>
+      <c r="O35" s="172"/>
+      <c r="P35" s="172"/>
+      <c r="Q35" s="172"/>
+      <c r="R35" s="172"/>
+      <c r="S35" s="172"/>
+      <c r="T35" s="172"/>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="172"/>
-      <c r="R36" s="172"/>
-      <c r="S36" s="172"/>
-      <c r="T36" s="172"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="170"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="170"/>
+      <c r="O36" s="170"/>
+      <c r="P36" s="170"/>
+      <c r="Q36" s="170"/>
+      <c r="R36" s="170"/>
+      <c r="S36" s="170"/>
+      <c r="T36" s="170"/>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D37" s="169"/>
@@ -7934,24 +8031,24 @@
       <c r="U99" s="171"/>
     </row>
     <row r="100" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D100" s="172"/>
-      <c r="E100" s="172"/>
-      <c r="F100" s="172"/>
-      <c r="G100" s="172"/>
-      <c r="H100" s="172"/>
-      <c r="I100" s="172"/>
-      <c r="J100" s="172"/>
-      <c r="K100" s="172"/>
-      <c r="L100" s="172"/>
-      <c r="M100" s="172"/>
-      <c r="N100" s="172"/>
-      <c r="O100" s="172"/>
-      <c r="P100" s="172"/>
-      <c r="Q100" s="172"/>
-      <c r="R100" s="172"/>
-      <c r="S100" s="172"/>
-      <c r="T100" s="172"/>
-      <c r="U100" s="172"/>
+      <c r="D100" s="170"/>
+      <c r="E100" s="170"/>
+      <c r="F100" s="170"/>
+      <c r="G100" s="170"/>
+      <c r="H100" s="170"/>
+      <c r="I100" s="170"/>
+      <c r="J100" s="170"/>
+      <c r="K100" s="170"/>
+      <c r="L100" s="170"/>
+      <c r="M100" s="170"/>
+      <c r="N100" s="170"/>
+      <c r="O100" s="170"/>
+      <c r="P100" s="170"/>
+      <c r="Q100" s="170"/>
+      <c r="R100" s="170"/>
+      <c r="S100" s="170"/>
+      <c r="T100" s="170"/>
+      <c r="U100" s="170"/>
     </row>
     <row r="101" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D101" s="169"/>
@@ -9256,1684 +9353,1684 @@
       <c r="U167" s="171"/>
     </row>
     <row r="168" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D168" s="170"/>
-      <c r="E168" s="170"/>
-      <c r="F168" s="170"/>
-      <c r="G168" s="170"/>
-      <c r="H168" s="170"/>
-      <c r="I168" s="170"/>
-      <c r="J168" s="170"/>
-      <c r="K168" s="170"/>
-      <c r="L168" s="170"/>
-      <c r="M168" s="170"/>
-      <c r="N168" s="170"/>
-      <c r="O168" s="170"/>
-      <c r="P168" s="170"/>
-      <c r="Q168" s="170"/>
-      <c r="R168" s="170"/>
-      <c r="S168" s="170"/>
-      <c r="T168" s="170"/>
-      <c r="U168" s="170"/>
+      <c r="D168" s="173"/>
+      <c r="E168" s="173"/>
+      <c r="F168" s="173"/>
+      <c r="G168" s="173"/>
+      <c r="H168" s="173"/>
+      <c r="I168" s="173"/>
+      <c r="J168" s="173"/>
+      <c r="K168" s="173"/>
+      <c r="L168" s="173"/>
+      <c r="M168" s="173"/>
+      <c r="N168" s="173"/>
+      <c r="O168" s="173"/>
+      <c r="P168" s="173"/>
+      <c r="Q168" s="173"/>
+      <c r="R168" s="173"/>
+      <c r="S168" s="173"/>
+      <c r="T168" s="173"/>
+      <c r="U168" s="173"/>
     </row>
     <row r="169" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D169" s="170"/>
-      <c r="E169" s="170"/>
-      <c r="F169" s="170"/>
-      <c r="G169" s="170"/>
-      <c r="H169" s="170"/>
-      <c r="I169" s="170"/>
-      <c r="J169" s="170"/>
-      <c r="K169" s="170"/>
-      <c r="L169" s="170"/>
-      <c r="M169" s="170"/>
-      <c r="N169" s="170"/>
-      <c r="O169" s="170"/>
-      <c r="P169" s="170"/>
-      <c r="Q169" s="170"/>
-      <c r="R169" s="170"/>
-      <c r="S169" s="170"/>
-      <c r="T169" s="170"/>
-      <c r="U169" s="170"/>
+      <c r="D169" s="173"/>
+      <c r="E169" s="173"/>
+      <c r="F169" s="173"/>
+      <c r="G169" s="173"/>
+      <c r="H169" s="173"/>
+      <c r="I169" s="173"/>
+      <c r="J169" s="173"/>
+      <c r="K169" s="173"/>
+      <c r="L169" s="173"/>
+      <c r="M169" s="173"/>
+      <c r="N169" s="173"/>
+      <c r="O169" s="173"/>
+      <c r="P169" s="173"/>
+      <c r="Q169" s="173"/>
+      <c r="R169" s="173"/>
+      <c r="S169" s="173"/>
+      <c r="T169" s="173"/>
+      <c r="U169" s="173"/>
     </row>
     <row r="170" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D170" s="170"/>
-      <c r="E170" s="170"/>
-      <c r="F170" s="170"/>
-      <c r="G170" s="170"/>
-      <c r="H170" s="170"/>
-      <c r="I170" s="170"/>
-      <c r="J170" s="170"/>
-      <c r="K170" s="170"/>
-      <c r="L170" s="170"/>
-      <c r="M170" s="170"/>
-      <c r="N170" s="170"/>
-      <c r="O170" s="170"/>
-      <c r="P170" s="170"/>
-      <c r="Q170" s="170"/>
-      <c r="R170" s="170"/>
-      <c r="S170" s="170"/>
-      <c r="T170" s="170"/>
-      <c r="U170" s="170"/>
+      <c r="D170" s="173"/>
+      <c r="E170" s="173"/>
+      <c r="F170" s="173"/>
+      <c r="G170" s="173"/>
+      <c r="H170" s="173"/>
+      <c r="I170" s="173"/>
+      <c r="J170" s="173"/>
+      <c r="K170" s="173"/>
+      <c r="L170" s="173"/>
+      <c r="M170" s="173"/>
+      <c r="N170" s="173"/>
+      <c r="O170" s="173"/>
+      <c r="P170" s="173"/>
+      <c r="Q170" s="173"/>
+      <c r="R170" s="173"/>
+      <c r="S170" s="173"/>
+      <c r="T170" s="173"/>
+      <c r="U170" s="173"/>
     </row>
     <row r="171" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D171" s="170"/>
-      <c r="E171" s="170"/>
-      <c r="F171" s="170"/>
-      <c r="G171" s="170"/>
-      <c r="H171" s="170"/>
-      <c r="I171" s="170"/>
-      <c r="J171" s="170"/>
-      <c r="K171" s="170"/>
-      <c r="L171" s="170"/>
-      <c r="M171" s="170"/>
-      <c r="N171" s="170"/>
-      <c r="O171" s="170"/>
-      <c r="P171" s="170"/>
-      <c r="Q171" s="170"/>
-      <c r="R171" s="170"/>
-      <c r="S171" s="170"/>
-      <c r="T171" s="170"/>
-      <c r="U171" s="170"/>
+      <c r="D171" s="173"/>
+      <c r="E171" s="173"/>
+      <c r="F171" s="173"/>
+      <c r="G171" s="173"/>
+      <c r="H171" s="173"/>
+      <c r="I171" s="173"/>
+      <c r="J171" s="173"/>
+      <c r="K171" s="173"/>
+      <c r="L171" s="173"/>
+      <c r="M171" s="173"/>
+      <c r="N171" s="173"/>
+      <c r="O171" s="173"/>
+      <c r="P171" s="173"/>
+      <c r="Q171" s="173"/>
+      <c r="R171" s="173"/>
+      <c r="S171" s="173"/>
+      <c r="T171" s="173"/>
+      <c r="U171" s="173"/>
     </row>
     <row r="172" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D172" s="170"/>
-      <c r="E172" s="170"/>
-      <c r="F172" s="170"/>
-      <c r="G172" s="170"/>
-      <c r="H172" s="170"/>
-      <c r="I172" s="170"/>
-      <c r="J172" s="170"/>
-      <c r="K172" s="170"/>
-      <c r="L172" s="170"/>
-      <c r="M172" s="170"/>
-      <c r="N172" s="170"/>
-      <c r="O172" s="170"/>
-      <c r="P172" s="170"/>
-      <c r="Q172" s="170"/>
-      <c r="R172" s="170"/>
-      <c r="S172" s="170"/>
-      <c r="T172" s="170"/>
-      <c r="U172" s="170"/>
+      <c r="D172" s="173"/>
+      <c r="E172" s="173"/>
+      <c r="F172" s="173"/>
+      <c r="G172" s="173"/>
+      <c r="H172" s="173"/>
+      <c r="I172" s="173"/>
+      <c r="J172" s="173"/>
+      <c r="K172" s="173"/>
+      <c r="L172" s="173"/>
+      <c r="M172" s="173"/>
+      <c r="N172" s="173"/>
+      <c r="O172" s="173"/>
+      <c r="P172" s="173"/>
+      <c r="Q172" s="173"/>
+      <c r="R172" s="173"/>
+      <c r="S172" s="173"/>
+      <c r="T172" s="173"/>
+      <c r="U172" s="173"/>
     </row>
     <row r="173" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D173" s="170"/>
-      <c r="E173" s="170"/>
-      <c r="F173" s="170"/>
-      <c r="G173" s="170"/>
-      <c r="H173" s="170"/>
-      <c r="I173" s="170"/>
-      <c r="J173" s="170"/>
-      <c r="K173" s="170"/>
-      <c r="L173" s="170"/>
-      <c r="M173" s="170"/>
-      <c r="N173" s="170"/>
-      <c r="O173" s="170"/>
-      <c r="P173" s="170"/>
-      <c r="Q173" s="170"/>
-      <c r="R173" s="170"/>
-      <c r="S173" s="170"/>
-      <c r="T173" s="170"/>
-      <c r="U173" s="170"/>
+      <c r="D173" s="173"/>
+      <c r="E173" s="173"/>
+      <c r="F173" s="173"/>
+      <c r="G173" s="173"/>
+      <c r="H173" s="173"/>
+      <c r="I173" s="173"/>
+      <c r="J173" s="173"/>
+      <c r="K173" s="173"/>
+      <c r="L173" s="173"/>
+      <c r="M173" s="173"/>
+      <c r="N173" s="173"/>
+      <c r="O173" s="173"/>
+      <c r="P173" s="173"/>
+      <c r="Q173" s="173"/>
+      <c r="R173" s="173"/>
+      <c r="S173" s="173"/>
+      <c r="T173" s="173"/>
+      <c r="U173" s="173"/>
     </row>
     <row r="174" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D174" s="170"/>
-      <c r="E174" s="170"/>
-      <c r="F174" s="170"/>
-      <c r="G174" s="170"/>
-      <c r="H174" s="170"/>
-      <c r="I174" s="170"/>
-      <c r="J174" s="170"/>
-      <c r="K174" s="170"/>
-      <c r="L174" s="170"/>
-      <c r="M174" s="170"/>
-      <c r="N174" s="170"/>
-      <c r="O174" s="170"/>
-      <c r="P174" s="170"/>
-      <c r="Q174" s="170"/>
-      <c r="R174" s="170"/>
-      <c r="S174" s="170"/>
-      <c r="T174" s="170"/>
-      <c r="U174" s="170"/>
+      <c r="D174" s="173"/>
+      <c r="E174" s="173"/>
+      <c r="F174" s="173"/>
+      <c r="G174" s="173"/>
+      <c r="H174" s="173"/>
+      <c r="I174" s="173"/>
+      <c r="J174" s="173"/>
+      <c r="K174" s="173"/>
+      <c r="L174" s="173"/>
+      <c r="M174" s="173"/>
+      <c r="N174" s="173"/>
+      <c r="O174" s="173"/>
+      <c r="P174" s="173"/>
+      <c r="Q174" s="173"/>
+      <c r="R174" s="173"/>
+      <c r="S174" s="173"/>
+      <c r="T174" s="173"/>
+      <c r="U174" s="173"/>
     </row>
     <row r="175" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D175" s="170"/>
-      <c r="E175" s="170"/>
-      <c r="F175" s="170"/>
-      <c r="G175" s="170"/>
-      <c r="H175" s="170"/>
-      <c r="I175" s="170"/>
-      <c r="J175" s="170"/>
-      <c r="K175" s="170"/>
-      <c r="L175" s="170"/>
-      <c r="M175" s="170"/>
-      <c r="N175" s="170"/>
-      <c r="O175" s="170"/>
-      <c r="P175" s="170"/>
-      <c r="Q175" s="170"/>
-      <c r="R175" s="170"/>
-      <c r="S175" s="170"/>
-      <c r="T175" s="170"/>
-      <c r="U175" s="170"/>
+      <c r="D175" s="173"/>
+      <c r="E175" s="173"/>
+      <c r="F175" s="173"/>
+      <c r="G175" s="173"/>
+      <c r="H175" s="173"/>
+      <c r="I175" s="173"/>
+      <c r="J175" s="173"/>
+      <c r="K175" s="173"/>
+      <c r="L175" s="173"/>
+      <c r="M175" s="173"/>
+      <c r="N175" s="173"/>
+      <c r="O175" s="173"/>
+      <c r="P175" s="173"/>
+      <c r="Q175" s="173"/>
+      <c r="R175" s="173"/>
+      <c r="S175" s="173"/>
+      <c r="T175" s="173"/>
+      <c r="U175" s="173"/>
     </row>
     <row r="176" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D176" s="170"/>
-      <c r="E176" s="170"/>
-      <c r="F176" s="170"/>
-      <c r="G176" s="170"/>
-      <c r="H176" s="170"/>
-      <c r="I176" s="170"/>
-      <c r="J176" s="170"/>
-      <c r="K176" s="170"/>
-      <c r="L176" s="170"/>
-      <c r="M176" s="170"/>
-      <c r="N176" s="170"/>
-      <c r="O176" s="170"/>
-      <c r="P176" s="170"/>
-      <c r="Q176" s="170"/>
-      <c r="R176" s="170"/>
-      <c r="S176" s="170"/>
-      <c r="T176" s="170"/>
-      <c r="U176" s="170"/>
+      <c r="D176" s="173"/>
+      <c r="E176" s="173"/>
+      <c r="F176" s="173"/>
+      <c r="G176" s="173"/>
+      <c r="H176" s="173"/>
+      <c r="I176" s="173"/>
+      <c r="J176" s="173"/>
+      <c r="K176" s="173"/>
+      <c r="L176" s="173"/>
+      <c r="M176" s="173"/>
+      <c r="N176" s="173"/>
+      <c r="O176" s="173"/>
+      <c r="P176" s="173"/>
+      <c r="Q176" s="173"/>
+      <c r="R176" s="173"/>
+      <c r="S176" s="173"/>
+      <c r="T176" s="173"/>
+      <c r="U176" s="173"/>
     </row>
     <row r="177" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D177" s="170"/>
-      <c r="E177" s="170"/>
-      <c r="F177" s="170"/>
-      <c r="G177" s="170"/>
-      <c r="H177" s="170"/>
-      <c r="I177" s="170"/>
-      <c r="J177" s="170"/>
-      <c r="K177" s="170"/>
-      <c r="L177" s="170"/>
-      <c r="M177" s="170"/>
-      <c r="N177" s="170"/>
-      <c r="O177" s="170"/>
-      <c r="P177" s="170"/>
-      <c r="Q177" s="170"/>
-      <c r="R177" s="170"/>
-      <c r="S177" s="170"/>
-      <c r="T177" s="170"/>
-      <c r="U177" s="170"/>
+      <c r="D177" s="173"/>
+      <c r="E177" s="173"/>
+      <c r="F177" s="173"/>
+      <c r="G177" s="173"/>
+      <c r="H177" s="173"/>
+      <c r="I177" s="173"/>
+      <c r="J177" s="173"/>
+      <c r="K177" s="173"/>
+      <c r="L177" s="173"/>
+      <c r="M177" s="173"/>
+      <c r="N177" s="173"/>
+      <c r="O177" s="173"/>
+      <c r="P177" s="173"/>
+      <c r="Q177" s="173"/>
+      <c r="R177" s="173"/>
+      <c r="S177" s="173"/>
+      <c r="T177" s="173"/>
+      <c r="U177" s="173"/>
     </row>
     <row r="178" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D178" s="170"/>
-      <c r="E178" s="170"/>
-      <c r="F178" s="170"/>
-      <c r="G178" s="170"/>
-      <c r="H178" s="170"/>
-      <c r="I178" s="170"/>
-      <c r="J178" s="170"/>
-      <c r="K178" s="170"/>
-      <c r="L178" s="170"/>
-      <c r="M178" s="170"/>
-      <c r="N178" s="170"/>
-      <c r="O178" s="170"/>
-      <c r="P178" s="170"/>
-      <c r="Q178" s="170"/>
-      <c r="R178" s="170"/>
-      <c r="S178" s="170"/>
-      <c r="T178" s="170"/>
-      <c r="U178" s="170"/>
+      <c r="D178" s="173"/>
+      <c r="E178" s="173"/>
+      <c r="F178" s="173"/>
+      <c r="G178" s="173"/>
+      <c r="H178" s="173"/>
+      <c r="I178" s="173"/>
+      <c r="J178" s="173"/>
+      <c r="K178" s="173"/>
+      <c r="L178" s="173"/>
+      <c r="M178" s="173"/>
+      <c r="N178" s="173"/>
+      <c r="O178" s="173"/>
+      <c r="P178" s="173"/>
+      <c r="Q178" s="173"/>
+      <c r="R178" s="173"/>
+      <c r="S178" s="173"/>
+      <c r="T178" s="173"/>
+      <c r="U178" s="173"/>
     </row>
     <row r="179" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D179" s="170"/>
-      <c r="E179" s="170"/>
-      <c r="F179" s="170"/>
-      <c r="G179" s="170"/>
-      <c r="H179" s="170"/>
-      <c r="I179" s="170"/>
-      <c r="J179" s="170"/>
-      <c r="K179" s="170"/>
-      <c r="L179" s="170"/>
-      <c r="M179" s="170"/>
-      <c r="N179" s="170"/>
-      <c r="O179" s="170"/>
-      <c r="P179" s="170"/>
-      <c r="Q179" s="170"/>
-      <c r="R179" s="170"/>
-      <c r="S179" s="170"/>
-      <c r="T179" s="170"/>
-      <c r="U179" s="170"/>
+      <c r="D179" s="173"/>
+      <c r="E179" s="173"/>
+      <c r="F179" s="173"/>
+      <c r="G179" s="173"/>
+      <c r="H179" s="173"/>
+      <c r="I179" s="173"/>
+      <c r="J179" s="173"/>
+      <c r="K179" s="173"/>
+      <c r="L179" s="173"/>
+      <c r="M179" s="173"/>
+      <c r="N179" s="173"/>
+      <c r="O179" s="173"/>
+      <c r="P179" s="173"/>
+      <c r="Q179" s="173"/>
+      <c r="R179" s="173"/>
+      <c r="S179" s="173"/>
+      <c r="T179" s="173"/>
+      <c r="U179" s="173"/>
     </row>
     <row r="180" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D180" s="170"/>
-      <c r="E180" s="170"/>
-      <c r="F180" s="170"/>
-      <c r="G180" s="170"/>
-      <c r="H180" s="170"/>
-      <c r="I180" s="170"/>
-      <c r="J180" s="170"/>
-      <c r="K180" s="170"/>
-      <c r="L180" s="170"/>
-      <c r="M180" s="170"/>
-      <c r="N180" s="170"/>
-      <c r="O180" s="170"/>
-      <c r="P180" s="170"/>
-      <c r="Q180" s="170"/>
-      <c r="R180" s="170"/>
-      <c r="S180" s="170"/>
-      <c r="T180" s="170"/>
-      <c r="U180" s="170"/>
+      <c r="D180" s="173"/>
+      <c r="E180" s="173"/>
+      <c r="F180" s="173"/>
+      <c r="G180" s="173"/>
+      <c r="H180" s="173"/>
+      <c r="I180" s="173"/>
+      <c r="J180" s="173"/>
+      <c r="K180" s="173"/>
+      <c r="L180" s="173"/>
+      <c r="M180" s="173"/>
+      <c r="N180" s="173"/>
+      <c r="O180" s="173"/>
+      <c r="P180" s="173"/>
+      <c r="Q180" s="173"/>
+      <c r="R180" s="173"/>
+      <c r="S180" s="173"/>
+      <c r="T180" s="173"/>
+      <c r="U180" s="173"/>
     </row>
     <row r="181" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D181" s="170"/>
-      <c r="E181" s="170"/>
-      <c r="F181" s="170"/>
-      <c r="G181" s="170"/>
-      <c r="H181" s="170"/>
-      <c r="I181" s="170"/>
-      <c r="J181" s="170"/>
-      <c r="K181" s="170"/>
-      <c r="L181" s="170"/>
-      <c r="M181" s="170"/>
-      <c r="N181" s="170"/>
-      <c r="O181" s="170"/>
-      <c r="P181" s="170"/>
-      <c r="Q181" s="170"/>
-      <c r="R181" s="170"/>
-      <c r="S181" s="170"/>
-      <c r="T181" s="170"/>
-      <c r="U181" s="170"/>
+      <c r="D181" s="173"/>
+      <c r="E181" s="173"/>
+      <c r="F181" s="173"/>
+      <c r="G181" s="173"/>
+      <c r="H181" s="173"/>
+      <c r="I181" s="173"/>
+      <c r="J181" s="173"/>
+      <c r="K181" s="173"/>
+      <c r="L181" s="173"/>
+      <c r="M181" s="173"/>
+      <c r="N181" s="173"/>
+      <c r="O181" s="173"/>
+      <c r="P181" s="173"/>
+      <c r="Q181" s="173"/>
+      <c r="R181" s="173"/>
+      <c r="S181" s="173"/>
+      <c r="T181" s="173"/>
+      <c r="U181" s="173"/>
     </row>
     <row r="182" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D182" s="170"/>
-      <c r="E182" s="170"/>
-      <c r="F182" s="170"/>
-      <c r="G182" s="170"/>
-      <c r="H182" s="170"/>
-      <c r="I182" s="170"/>
-      <c r="J182" s="170"/>
-      <c r="K182" s="170"/>
-      <c r="L182" s="170"/>
-      <c r="M182" s="170"/>
-      <c r="N182" s="170"/>
-      <c r="O182" s="170"/>
-      <c r="P182" s="170"/>
-      <c r="Q182" s="170"/>
-      <c r="R182" s="170"/>
-      <c r="S182" s="170"/>
-      <c r="T182" s="170"/>
-      <c r="U182" s="170"/>
+      <c r="D182" s="173"/>
+      <c r="E182" s="173"/>
+      <c r="F182" s="173"/>
+      <c r="G182" s="173"/>
+      <c r="H182" s="173"/>
+      <c r="I182" s="173"/>
+      <c r="J182" s="173"/>
+      <c r="K182" s="173"/>
+      <c r="L182" s="173"/>
+      <c r="M182" s="173"/>
+      <c r="N182" s="173"/>
+      <c r="O182" s="173"/>
+      <c r="P182" s="173"/>
+      <c r="Q182" s="173"/>
+      <c r="R182" s="173"/>
+      <c r="S182" s="173"/>
+      <c r="T182" s="173"/>
+      <c r="U182" s="173"/>
     </row>
     <row r="183" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D183" s="170"/>
-      <c r="E183" s="170"/>
-      <c r="F183" s="170"/>
-      <c r="G183" s="170"/>
-      <c r="H183" s="170"/>
-      <c r="I183" s="170"/>
-      <c r="J183" s="170"/>
-      <c r="K183" s="170"/>
-      <c r="L183" s="170"/>
-      <c r="M183" s="170"/>
-      <c r="N183" s="170"/>
-      <c r="O183" s="170"/>
-      <c r="P183" s="170"/>
-      <c r="Q183" s="170"/>
-      <c r="R183" s="170"/>
-      <c r="S183" s="170"/>
-      <c r="T183" s="170"/>
-      <c r="U183" s="170"/>
+      <c r="D183" s="173"/>
+      <c r="E183" s="173"/>
+      <c r="F183" s="173"/>
+      <c r="G183" s="173"/>
+      <c r="H183" s="173"/>
+      <c r="I183" s="173"/>
+      <c r="J183" s="173"/>
+      <c r="K183" s="173"/>
+      <c r="L183" s="173"/>
+      <c r="M183" s="173"/>
+      <c r="N183" s="173"/>
+      <c r="O183" s="173"/>
+      <c r="P183" s="173"/>
+      <c r="Q183" s="173"/>
+      <c r="R183" s="173"/>
+      <c r="S183" s="173"/>
+      <c r="T183" s="173"/>
+      <c r="U183" s="173"/>
     </row>
     <row r="184" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D184" s="170"/>
-      <c r="E184" s="170"/>
-      <c r="F184" s="170"/>
-      <c r="G184" s="170"/>
-      <c r="H184" s="170"/>
-      <c r="I184" s="170"/>
-      <c r="J184" s="170"/>
-      <c r="K184" s="170"/>
-      <c r="L184" s="170"/>
-      <c r="M184" s="170"/>
-      <c r="N184" s="170"/>
-      <c r="O184" s="170"/>
-      <c r="P184" s="170"/>
-      <c r="Q184" s="170"/>
-      <c r="R184" s="170"/>
-      <c r="S184" s="170"/>
-      <c r="T184" s="170"/>
-      <c r="U184" s="170"/>
+      <c r="D184" s="173"/>
+      <c r="E184" s="173"/>
+      <c r="F184" s="173"/>
+      <c r="G184" s="173"/>
+      <c r="H184" s="173"/>
+      <c r="I184" s="173"/>
+      <c r="J184" s="173"/>
+      <c r="K184" s="173"/>
+      <c r="L184" s="173"/>
+      <c r="M184" s="173"/>
+      <c r="N184" s="173"/>
+      <c r="O184" s="173"/>
+      <c r="P184" s="173"/>
+      <c r="Q184" s="173"/>
+      <c r="R184" s="173"/>
+      <c r="S184" s="173"/>
+      <c r="T184" s="173"/>
+      <c r="U184" s="173"/>
     </row>
     <row r="185" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D185" s="170"/>
-      <c r="E185" s="170"/>
-      <c r="F185" s="170"/>
-      <c r="G185" s="170"/>
-      <c r="H185" s="170"/>
-      <c r="I185" s="170"/>
-      <c r="J185" s="170"/>
-      <c r="K185" s="170"/>
-      <c r="L185" s="170"/>
-      <c r="M185" s="170"/>
-      <c r="N185" s="170"/>
-      <c r="O185" s="170"/>
-      <c r="P185" s="170"/>
-      <c r="Q185" s="170"/>
-      <c r="R185" s="170"/>
-      <c r="S185" s="170"/>
-      <c r="T185" s="170"/>
-      <c r="U185" s="170"/>
+      <c r="D185" s="173"/>
+      <c r="E185" s="173"/>
+      <c r="F185" s="173"/>
+      <c r="G185" s="173"/>
+      <c r="H185" s="173"/>
+      <c r="I185" s="173"/>
+      <c r="J185" s="173"/>
+      <c r="K185" s="173"/>
+      <c r="L185" s="173"/>
+      <c r="M185" s="173"/>
+      <c r="N185" s="173"/>
+      <c r="O185" s="173"/>
+      <c r="P185" s="173"/>
+      <c r="Q185" s="173"/>
+      <c r="R185" s="173"/>
+      <c r="S185" s="173"/>
+      <c r="T185" s="173"/>
+      <c r="U185" s="173"/>
     </row>
     <row r="186" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D186" s="170"/>
-      <c r="E186" s="170"/>
-      <c r="F186" s="170"/>
-      <c r="G186" s="170"/>
-      <c r="H186" s="170"/>
-      <c r="I186" s="170"/>
-      <c r="J186" s="170"/>
-      <c r="K186" s="170"/>
-      <c r="L186" s="170"/>
-      <c r="M186" s="170"/>
-      <c r="N186" s="170"/>
-      <c r="O186" s="170"/>
-      <c r="P186" s="170"/>
-      <c r="Q186" s="170"/>
-      <c r="R186" s="170"/>
-      <c r="S186" s="170"/>
-      <c r="T186" s="170"/>
-      <c r="U186" s="170"/>
+      <c r="D186" s="173"/>
+      <c r="E186" s="173"/>
+      <c r="F186" s="173"/>
+      <c r="G186" s="173"/>
+      <c r="H186" s="173"/>
+      <c r="I186" s="173"/>
+      <c r="J186" s="173"/>
+      <c r="K186" s="173"/>
+      <c r="L186" s="173"/>
+      <c r="M186" s="173"/>
+      <c r="N186" s="173"/>
+      <c r="O186" s="173"/>
+      <c r="P186" s="173"/>
+      <c r="Q186" s="173"/>
+      <c r="R186" s="173"/>
+      <c r="S186" s="173"/>
+      <c r="T186" s="173"/>
+      <c r="U186" s="173"/>
     </row>
     <row r="187" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D187" s="170"/>
-      <c r="E187" s="170"/>
-      <c r="F187" s="170"/>
-      <c r="G187" s="170"/>
-      <c r="H187" s="170"/>
-      <c r="I187" s="170"/>
-      <c r="J187" s="170"/>
-      <c r="K187" s="170"/>
-      <c r="L187" s="170"/>
-      <c r="M187" s="170"/>
-      <c r="N187" s="170"/>
-      <c r="O187" s="170"/>
-      <c r="P187" s="170"/>
-      <c r="Q187" s="170"/>
-      <c r="R187" s="170"/>
-      <c r="S187" s="170"/>
-      <c r="T187" s="170"/>
-      <c r="U187" s="170"/>
+      <c r="D187" s="173"/>
+      <c r="E187" s="173"/>
+      <c r="F187" s="173"/>
+      <c r="G187" s="173"/>
+      <c r="H187" s="173"/>
+      <c r="I187" s="173"/>
+      <c r="J187" s="173"/>
+      <c r="K187" s="173"/>
+      <c r="L187" s="173"/>
+      <c r="M187" s="173"/>
+      <c r="N187" s="173"/>
+      <c r="O187" s="173"/>
+      <c r="P187" s="173"/>
+      <c r="Q187" s="173"/>
+      <c r="R187" s="173"/>
+      <c r="S187" s="173"/>
+      <c r="T187" s="173"/>
+      <c r="U187" s="173"/>
     </row>
     <row r="188" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D188" s="170"/>
-      <c r="E188" s="170"/>
-      <c r="F188" s="170"/>
-      <c r="G188" s="170"/>
-      <c r="H188" s="170"/>
-      <c r="I188" s="170"/>
-      <c r="J188" s="170"/>
-      <c r="K188" s="170"/>
-      <c r="L188" s="170"/>
-      <c r="M188" s="170"/>
-      <c r="N188" s="170"/>
-      <c r="O188" s="170"/>
-      <c r="P188" s="170"/>
-      <c r="Q188" s="170"/>
-      <c r="R188" s="170"/>
-      <c r="S188" s="170"/>
-      <c r="T188" s="170"/>
-      <c r="U188" s="170"/>
+      <c r="D188" s="173"/>
+      <c r="E188" s="173"/>
+      <c r="F188" s="173"/>
+      <c r="G188" s="173"/>
+      <c r="H188" s="173"/>
+      <c r="I188" s="173"/>
+      <c r="J188" s="173"/>
+      <c r="K188" s="173"/>
+      <c r="L188" s="173"/>
+      <c r="M188" s="173"/>
+      <c r="N188" s="173"/>
+      <c r="O188" s="173"/>
+      <c r="P188" s="173"/>
+      <c r="Q188" s="173"/>
+      <c r="R188" s="173"/>
+      <c r="S188" s="173"/>
+      <c r="T188" s="173"/>
+      <c r="U188" s="173"/>
     </row>
     <row r="189" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D189" s="170"/>
-      <c r="E189" s="170"/>
-      <c r="F189" s="170"/>
-      <c r="G189" s="170"/>
-      <c r="H189" s="170"/>
-      <c r="I189" s="170"/>
-      <c r="J189" s="170"/>
-      <c r="K189" s="170"/>
-      <c r="L189" s="170"/>
-      <c r="M189" s="170"/>
-      <c r="N189" s="170"/>
-      <c r="O189" s="170"/>
-      <c r="P189" s="170"/>
-      <c r="Q189" s="170"/>
-      <c r="R189" s="170"/>
-      <c r="S189" s="170"/>
-      <c r="T189" s="170"/>
-      <c r="U189" s="170"/>
+      <c r="D189" s="173"/>
+      <c r="E189" s="173"/>
+      <c r="F189" s="173"/>
+      <c r="G189" s="173"/>
+      <c r="H189" s="173"/>
+      <c r="I189" s="173"/>
+      <c r="J189" s="173"/>
+      <c r="K189" s="173"/>
+      <c r="L189" s="173"/>
+      <c r="M189" s="173"/>
+      <c r="N189" s="173"/>
+      <c r="O189" s="173"/>
+      <c r="P189" s="173"/>
+      <c r="Q189" s="173"/>
+      <c r="R189" s="173"/>
+      <c r="S189" s="173"/>
+      <c r="T189" s="173"/>
+      <c r="U189" s="173"/>
     </row>
     <row r="190" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D190" s="170"/>
-      <c r="E190" s="170"/>
-      <c r="F190" s="170"/>
-      <c r="G190" s="170"/>
-      <c r="H190" s="170"/>
-      <c r="I190" s="170"/>
-      <c r="J190" s="170"/>
-      <c r="K190" s="170"/>
-      <c r="L190" s="170"/>
-      <c r="M190" s="170"/>
-      <c r="N190" s="170"/>
-      <c r="O190" s="170"/>
-      <c r="P190" s="170"/>
-      <c r="Q190" s="170"/>
-      <c r="R190" s="170"/>
-      <c r="S190" s="170"/>
-      <c r="T190" s="170"/>
-      <c r="U190" s="170"/>
+      <c r="D190" s="173"/>
+      <c r="E190" s="173"/>
+      <c r="F190" s="173"/>
+      <c r="G190" s="173"/>
+      <c r="H190" s="173"/>
+      <c r="I190" s="173"/>
+      <c r="J190" s="173"/>
+      <c r="K190" s="173"/>
+      <c r="L190" s="173"/>
+      <c r="M190" s="173"/>
+      <c r="N190" s="173"/>
+      <c r="O190" s="173"/>
+      <c r="P190" s="173"/>
+      <c r="Q190" s="173"/>
+      <c r="R190" s="173"/>
+      <c r="S190" s="173"/>
+      <c r="T190" s="173"/>
+      <c r="U190" s="173"/>
     </row>
     <row r="191" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D191" s="170"/>
-      <c r="E191" s="170"/>
-      <c r="F191" s="170"/>
-      <c r="G191" s="170"/>
-      <c r="H191" s="170"/>
-      <c r="I191" s="170"/>
-      <c r="J191" s="170"/>
-      <c r="K191" s="170"/>
-      <c r="L191" s="170"/>
-      <c r="M191" s="170"/>
-      <c r="N191" s="170"/>
-      <c r="O191" s="170"/>
-      <c r="P191" s="170"/>
-      <c r="Q191" s="170"/>
-      <c r="R191" s="170"/>
-      <c r="S191" s="170"/>
-      <c r="T191" s="170"/>
-      <c r="U191" s="170"/>
+      <c r="D191" s="173"/>
+      <c r="E191" s="173"/>
+      <c r="F191" s="173"/>
+      <c r="G191" s="173"/>
+      <c r="H191" s="173"/>
+      <c r="I191" s="173"/>
+      <c r="J191" s="173"/>
+      <c r="K191" s="173"/>
+      <c r="L191" s="173"/>
+      <c r="M191" s="173"/>
+      <c r="N191" s="173"/>
+      <c r="O191" s="173"/>
+      <c r="P191" s="173"/>
+      <c r="Q191" s="173"/>
+      <c r="R191" s="173"/>
+      <c r="S191" s="173"/>
+      <c r="T191" s="173"/>
+      <c r="U191" s="173"/>
     </row>
     <row r="192" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D192" s="170"/>
-      <c r="E192" s="170"/>
-      <c r="F192" s="170"/>
-      <c r="G192" s="170"/>
-      <c r="H192" s="170"/>
-      <c r="I192" s="170"/>
-      <c r="J192" s="170"/>
-      <c r="K192" s="170"/>
-      <c r="L192" s="170"/>
-      <c r="M192" s="170"/>
-      <c r="N192" s="170"/>
-      <c r="O192" s="170"/>
-      <c r="P192" s="170"/>
-      <c r="Q192" s="170"/>
-      <c r="R192" s="170"/>
-      <c r="S192" s="170"/>
-      <c r="T192" s="170"/>
-      <c r="U192" s="170"/>
+      <c r="D192" s="173"/>
+      <c r="E192" s="173"/>
+      <c r="F192" s="173"/>
+      <c r="G192" s="173"/>
+      <c r="H192" s="173"/>
+      <c r="I192" s="173"/>
+      <c r="J192" s="173"/>
+      <c r="K192" s="173"/>
+      <c r="L192" s="173"/>
+      <c r="M192" s="173"/>
+      <c r="N192" s="173"/>
+      <c r="O192" s="173"/>
+      <c r="P192" s="173"/>
+      <c r="Q192" s="173"/>
+      <c r="R192" s="173"/>
+      <c r="S192" s="173"/>
+      <c r="T192" s="173"/>
+      <c r="U192" s="173"/>
     </row>
     <row r="193" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D193" s="170"/>
-      <c r="E193" s="170"/>
-      <c r="F193" s="170"/>
-      <c r="G193" s="170"/>
-      <c r="H193" s="170"/>
-      <c r="I193" s="170"/>
-      <c r="J193" s="170"/>
-      <c r="K193" s="170"/>
-      <c r="L193" s="170"/>
-      <c r="M193" s="170"/>
-      <c r="N193" s="170"/>
-      <c r="O193" s="170"/>
-      <c r="P193" s="170"/>
-      <c r="Q193" s="170"/>
-      <c r="R193" s="170"/>
-      <c r="S193" s="170"/>
-      <c r="T193" s="170"/>
-      <c r="U193" s="170"/>
+      <c r="D193" s="173"/>
+      <c r="E193" s="173"/>
+      <c r="F193" s="173"/>
+      <c r="G193" s="173"/>
+      <c r="H193" s="173"/>
+      <c r="I193" s="173"/>
+      <c r="J193" s="173"/>
+      <c r="K193" s="173"/>
+      <c r="L193" s="173"/>
+      <c r="M193" s="173"/>
+      <c r="N193" s="173"/>
+      <c r="O193" s="173"/>
+      <c r="P193" s="173"/>
+      <c r="Q193" s="173"/>
+      <c r="R193" s="173"/>
+      <c r="S193" s="173"/>
+      <c r="T193" s="173"/>
+      <c r="U193" s="173"/>
     </row>
     <row r="194" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D194" s="170"/>
-      <c r="E194" s="170"/>
-      <c r="F194" s="170"/>
-      <c r="G194" s="170"/>
-      <c r="H194" s="170"/>
-      <c r="I194" s="170"/>
-      <c r="J194" s="170"/>
-      <c r="K194" s="170"/>
-      <c r="L194" s="170"/>
-      <c r="M194" s="170"/>
-      <c r="N194" s="170"/>
-      <c r="O194" s="170"/>
-      <c r="P194" s="170"/>
-      <c r="Q194" s="170"/>
-      <c r="R194" s="170"/>
-      <c r="S194" s="170"/>
-      <c r="T194" s="170"/>
-      <c r="U194" s="170"/>
+      <c r="D194" s="173"/>
+      <c r="E194" s="173"/>
+      <c r="F194" s="173"/>
+      <c r="G194" s="173"/>
+      <c r="H194" s="173"/>
+      <c r="I194" s="173"/>
+      <c r="J194" s="173"/>
+      <c r="K194" s="173"/>
+      <c r="L194" s="173"/>
+      <c r="M194" s="173"/>
+      <c r="N194" s="173"/>
+      <c r="O194" s="173"/>
+      <c r="P194" s="173"/>
+      <c r="Q194" s="173"/>
+      <c r="R194" s="173"/>
+      <c r="S194" s="173"/>
+      <c r="T194" s="173"/>
+      <c r="U194" s="173"/>
     </row>
     <row r="195" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D195" s="170"/>
-      <c r="E195" s="170"/>
-      <c r="F195" s="170"/>
-      <c r="G195" s="170"/>
-      <c r="H195" s="170"/>
-      <c r="I195" s="170"/>
-      <c r="J195" s="170"/>
-      <c r="K195" s="170"/>
-      <c r="L195" s="170"/>
-      <c r="M195" s="170"/>
-      <c r="N195" s="170"/>
-      <c r="O195" s="170"/>
-      <c r="P195" s="170"/>
-      <c r="Q195" s="170"/>
-      <c r="R195" s="170"/>
-      <c r="S195" s="170"/>
-      <c r="T195" s="170"/>
-      <c r="U195" s="170"/>
+      <c r="D195" s="173"/>
+      <c r="E195" s="173"/>
+      <c r="F195" s="173"/>
+      <c r="G195" s="173"/>
+      <c r="H195" s="173"/>
+      <c r="I195" s="173"/>
+      <c r="J195" s="173"/>
+      <c r="K195" s="173"/>
+      <c r="L195" s="173"/>
+      <c r="M195" s="173"/>
+      <c r="N195" s="173"/>
+      <c r="O195" s="173"/>
+      <c r="P195" s="173"/>
+      <c r="Q195" s="173"/>
+      <c r="R195" s="173"/>
+      <c r="S195" s="173"/>
+      <c r="T195" s="173"/>
+      <c r="U195" s="173"/>
     </row>
     <row r="196" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D196" s="170"/>
-      <c r="E196" s="170"/>
-      <c r="F196" s="170"/>
-      <c r="G196" s="170"/>
-      <c r="H196" s="170"/>
-      <c r="I196" s="170"/>
-      <c r="J196" s="170"/>
-      <c r="K196" s="170"/>
-      <c r="L196" s="170"/>
-      <c r="M196" s="170"/>
-      <c r="N196" s="170"/>
-      <c r="O196" s="170"/>
-      <c r="P196" s="170"/>
-      <c r="Q196" s="170"/>
-      <c r="R196" s="170"/>
-      <c r="S196" s="170"/>
-      <c r="T196" s="170"/>
-      <c r="U196" s="170"/>
+      <c r="D196" s="173"/>
+      <c r="E196" s="173"/>
+      <c r="F196" s="173"/>
+      <c r="G196" s="173"/>
+      <c r="H196" s="173"/>
+      <c r="I196" s="173"/>
+      <c r="J196" s="173"/>
+      <c r="K196" s="173"/>
+      <c r="L196" s="173"/>
+      <c r="M196" s="173"/>
+      <c r="N196" s="173"/>
+      <c r="O196" s="173"/>
+      <c r="P196" s="173"/>
+      <c r="Q196" s="173"/>
+      <c r="R196" s="173"/>
+      <c r="S196" s="173"/>
+      <c r="T196" s="173"/>
+      <c r="U196" s="173"/>
     </row>
     <row r="197" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D197" s="170"/>
-      <c r="E197" s="170"/>
-      <c r="F197" s="170"/>
-      <c r="G197" s="170"/>
-      <c r="H197" s="170"/>
-      <c r="I197" s="170"/>
-      <c r="J197" s="170"/>
-      <c r="K197" s="170"/>
-      <c r="L197" s="170"/>
-      <c r="M197" s="170"/>
-      <c r="N197" s="170"/>
-      <c r="O197" s="170"/>
-      <c r="P197" s="170"/>
-      <c r="Q197" s="170"/>
-      <c r="R197" s="170"/>
-      <c r="S197" s="170"/>
-      <c r="T197" s="170"/>
-      <c r="U197" s="170"/>
+      <c r="D197" s="173"/>
+      <c r="E197" s="173"/>
+      <c r="F197" s="173"/>
+      <c r="G197" s="173"/>
+      <c r="H197" s="173"/>
+      <c r="I197" s="173"/>
+      <c r="J197" s="173"/>
+      <c r="K197" s="173"/>
+      <c r="L197" s="173"/>
+      <c r="M197" s="173"/>
+      <c r="N197" s="173"/>
+      <c r="O197" s="173"/>
+      <c r="P197" s="173"/>
+      <c r="Q197" s="173"/>
+      <c r="R197" s="173"/>
+      <c r="S197" s="173"/>
+      <c r="T197" s="173"/>
+      <c r="U197" s="173"/>
     </row>
     <row r="198" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D198" s="170"/>
-      <c r="E198" s="170"/>
-      <c r="F198" s="170"/>
-      <c r="G198" s="170"/>
-      <c r="H198" s="170"/>
-      <c r="I198" s="170"/>
-      <c r="J198" s="170"/>
-      <c r="K198" s="170"/>
-      <c r="L198" s="170"/>
-      <c r="M198" s="170"/>
-      <c r="N198" s="170"/>
-      <c r="O198" s="170"/>
-      <c r="P198" s="170"/>
-      <c r="Q198" s="170"/>
-      <c r="R198" s="170"/>
-      <c r="S198" s="170"/>
-      <c r="T198" s="170"/>
-      <c r="U198" s="170"/>
+      <c r="D198" s="173"/>
+      <c r="E198" s="173"/>
+      <c r="F198" s="173"/>
+      <c r="G198" s="173"/>
+      <c r="H198" s="173"/>
+      <c r="I198" s="173"/>
+      <c r="J198" s="173"/>
+      <c r="K198" s="173"/>
+      <c r="L198" s="173"/>
+      <c r="M198" s="173"/>
+      <c r="N198" s="173"/>
+      <c r="O198" s="173"/>
+      <c r="P198" s="173"/>
+      <c r="Q198" s="173"/>
+      <c r="R198" s="173"/>
+      <c r="S198" s="173"/>
+      <c r="T198" s="173"/>
+      <c r="U198" s="173"/>
     </row>
     <row r="199" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D199" s="170"/>
-      <c r="E199" s="170"/>
-      <c r="F199" s="170"/>
-      <c r="G199" s="170"/>
-      <c r="H199" s="170"/>
-      <c r="I199" s="170"/>
-      <c r="J199" s="170"/>
-      <c r="K199" s="170"/>
-      <c r="L199" s="170"/>
-      <c r="M199" s="170"/>
-      <c r="N199" s="170"/>
-      <c r="O199" s="170"/>
-      <c r="P199" s="170"/>
-      <c r="Q199" s="170"/>
-      <c r="R199" s="170"/>
-      <c r="S199" s="170"/>
-      <c r="T199" s="170"/>
-      <c r="U199" s="170"/>
+      <c r="D199" s="173"/>
+      <c r="E199" s="173"/>
+      <c r="F199" s="173"/>
+      <c r="G199" s="173"/>
+      <c r="H199" s="173"/>
+      <c r="I199" s="173"/>
+      <c r="J199" s="173"/>
+      <c r="K199" s="173"/>
+      <c r="L199" s="173"/>
+      <c r="M199" s="173"/>
+      <c r="N199" s="173"/>
+      <c r="O199" s="173"/>
+      <c r="P199" s="173"/>
+      <c r="Q199" s="173"/>
+      <c r="R199" s="173"/>
+      <c r="S199" s="173"/>
+      <c r="T199" s="173"/>
+      <c r="U199" s="173"/>
     </row>
     <row r="200" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D200" s="170"/>
-      <c r="E200" s="170"/>
-      <c r="F200" s="170"/>
-      <c r="G200" s="170"/>
-      <c r="H200" s="170"/>
-      <c r="I200" s="170"/>
-      <c r="J200" s="170"/>
-      <c r="K200" s="170"/>
-      <c r="L200" s="170"/>
-      <c r="M200" s="170"/>
-      <c r="N200" s="170"/>
-      <c r="O200" s="170"/>
-      <c r="P200" s="170"/>
-      <c r="Q200" s="170"/>
-      <c r="R200" s="170"/>
-      <c r="S200" s="170"/>
-      <c r="T200" s="170"/>
-      <c r="U200" s="170"/>
+      <c r="D200" s="173"/>
+      <c r="E200" s="173"/>
+      <c r="F200" s="173"/>
+      <c r="G200" s="173"/>
+      <c r="H200" s="173"/>
+      <c r="I200" s="173"/>
+      <c r="J200" s="173"/>
+      <c r="K200" s="173"/>
+      <c r="L200" s="173"/>
+      <c r="M200" s="173"/>
+      <c r="N200" s="173"/>
+      <c r="O200" s="173"/>
+      <c r="P200" s="173"/>
+      <c r="Q200" s="173"/>
+      <c r="R200" s="173"/>
+      <c r="S200" s="173"/>
+      <c r="T200" s="173"/>
+      <c r="U200" s="173"/>
     </row>
     <row r="201" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D201" s="170"/>
-      <c r="E201" s="170"/>
-      <c r="F201" s="170"/>
-      <c r="G201" s="170"/>
-      <c r="H201" s="170"/>
-      <c r="I201" s="170"/>
-      <c r="J201" s="170"/>
-      <c r="K201" s="170"/>
-      <c r="L201" s="170"/>
-      <c r="M201" s="170"/>
-      <c r="N201" s="170"/>
-      <c r="O201" s="170"/>
-      <c r="P201" s="170"/>
-      <c r="Q201" s="170"/>
-      <c r="R201" s="170"/>
-      <c r="S201" s="170"/>
-      <c r="T201" s="170"/>
-      <c r="U201" s="170"/>
+      <c r="D201" s="173"/>
+      <c r="E201" s="173"/>
+      <c r="F201" s="173"/>
+      <c r="G201" s="173"/>
+      <c r="H201" s="173"/>
+      <c r="I201" s="173"/>
+      <c r="J201" s="173"/>
+      <c r="K201" s="173"/>
+      <c r="L201" s="173"/>
+      <c r="M201" s="173"/>
+      <c r="N201" s="173"/>
+      <c r="O201" s="173"/>
+      <c r="P201" s="173"/>
+      <c r="Q201" s="173"/>
+      <c r="R201" s="173"/>
+      <c r="S201" s="173"/>
+      <c r="T201" s="173"/>
+      <c r="U201" s="173"/>
     </row>
     <row r="202" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D202" s="170"/>
-      <c r="E202" s="170"/>
-      <c r="F202" s="170"/>
-      <c r="G202" s="170"/>
-      <c r="H202" s="170"/>
-      <c r="I202" s="170"/>
-      <c r="J202" s="170"/>
-      <c r="K202" s="170"/>
-      <c r="L202" s="170"/>
-      <c r="M202" s="170"/>
-      <c r="N202" s="170"/>
-      <c r="O202" s="170"/>
-      <c r="P202" s="170"/>
-      <c r="Q202" s="170"/>
-      <c r="R202" s="170"/>
-      <c r="S202" s="170"/>
-      <c r="T202" s="170"/>
-      <c r="U202" s="170"/>
+      <c r="D202" s="173"/>
+      <c r="E202" s="173"/>
+      <c r="F202" s="173"/>
+      <c r="G202" s="173"/>
+      <c r="H202" s="173"/>
+      <c r="I202" s="173"/>
+      <c r="J202" s="173"/>
+      <c r="K202" s="173"/>
+      <c r="L202" s="173"/>
+      <c r="M202" s="173"/>
+      <c r="N202" s="173"/>
+      <c r="O202" s="173"/>
+      <c r="P202" s="173"/>
+      <c r="Q202" s="173"/>
+      <c r="R202" s="173"/>
+      <c r="S202" s="173"/>
+      <c r="T202" s="173"/>
+      <c r="U202" s="173"/>
     </row>
     <row r="203" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D203" s="170"/>
-      <c r="E203" s="170"/>
-      <c r="F203" s="170"/>
-      <c r="G203" s="170"/>
-      <c r="H203" s="170"/>
-      <c r="I203" s="170"/>
-      <c r="J203" s="170"/>
-      <c r="K203" s="170"/>
-      <c r="L203" s="170"/>
-      <c r="M203" s="170"/>
-      <c r="N203" s="170"/>
-      <c r="O203" s="170"/>
-      <c r="P203" s="170"/>
-      <c r="Q203" s="170"/>
-      <c r="R203" s="170"/>
-      <c r="S203" s="170"/>
-      <c r="T203" s="170"/>
-      <c r="U203" s="170"/>
+      <c r="D203" s="173"/>
+      <c r="E203" s="173"/>
+      <c r="F203" s="173"/>
+      <c r="G203" s="173"/>
+      <c r="H203" s="173"/>
+      <c r="I203" s="173"/>
+      <c r="J203" s="173"/>
+      <c r="K203" s="173"/>
+      <c r="L203" s="173"/>
+      <c r="M203" s="173"/>
+      <c r="N203" s="173"/>
+      <c r="O203" s="173"/>
+      <c r="P203" s="173"/>
+      <c r="Q203" s="173"/>
+      <c r="R203" s="173"/>
+      <c r="S203" s="173"/>
+      <c r="T203" s="173"/>
+      <c r="U203" s="173"/>
     </row>
     <row r="204" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D204" s="170"/>
-      <c r="E204" s="170"/>
-      <c r="F204" s="170"/>
-      <c r="G204" s="170"/>
-      <c r="H204" s="170"/>
-      <c r="I204" s="170"/>
-      <c r="J204" s="170"/>
-      <c r="K204" s="170"/>
-      <c r="L204" s="170"/>
-      <c r="M204" s="170"/>
-      <c r="N204" s="170"/>
-      <c r="O204" s="170"/>
-      <c r="P204" s="170"/>
-      <c r="Q204" s="170"/>
-      <c r="R204" s="170"/>
-      <c r="S204" s="170"/>
-      <c r="T204" s="170"/>
-      <c r="U204" s="170"/>
+      <c r="D204" s="173"/>
+      <c r="E204" s="173"/>
+      <c r="F204" s="173"/>
+      <c r="G204" s="173"/>
+      <c r="H204" s="173"/>
+      <c r="I204" s="173"/>
+      <c r="J204" s="173"/>
+      <c r="K204" s="173"/>
+      <c r="L204" s="173"/>
+      <c r="M204" s="173"/>
+      <c r="N204" s="173"/>
+      <c r="O204" s="173"/>
+      <c r="P204" s="173"/>
+      <c r="Q204" s="173"/>
+      <c r="R204" s="173"/>
+      <c r="S204" s="173"/>
+      <c r="T204" s="173"/>
+      <c r="U204" s="173"/>
     </row>
     <row r="205" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D205" s="170"/>
-      <c r="E205" s="170"/>
-      <c r="F205" s="170"/>
-      <c r="G205" s="170"/>
-      <c r="H205" s="170"/>
-      <c r="I205" s="170"/>
-      <c r="J205" s="170"/>
-      <c r="K205" s="170"/>
-      <c r="L205" s="170"/>
-      <c r="M205" s="170"/>
-      <c r="N205" s="170"/>
-      <c r="O205" s="170"/>
-      <c r="P205" s="170"/>
-      <c r="Q205" s="170"/>
-      <c r="R205" s="170"/>
-      <c r="S205" s="170"/>
-      <c r="T205" s="170"/>
-      <c r="U205" s="170"/>
+      <c r="D205" s="173"/>
+      <c r="E205" s="173"/>
+      <c r="F205" s="173"/>
+      <c r="G205" s="173"/>
+      <c r="H205" s="173"/>
+      <c r="I205" s="173"/>
+      <c r="J205" s="173"/>
+      <c r="K205" s="173"/>
+      <c r="L205" s="173"/>
+      <c r="M205" s="173"/>
+      <c r="N205" s="173"/>
+      <c r="O205" s="173"/>
+      <c r="P205" s="173"/>
+      <c r="Q205" s="173"/>
+      <c r="R205" s="173"/>
+      <c r="S205" s="173"/>
+      <c r="T205" s="173"/>
+      <c r="U205" s="173"/>
     </row>
     <row r="206" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D206" s="170"/>
-      <c r="E206" s="170"/>
-      <c r="F206" s="170"/>
-      <c r="G206" s="170"/>
-      <c r="H206" s="170"/>
-      <c r="I206" s="170"/>
-      <c r="J206" s="170"/>
-      <c r="K206" s="170"/>
-      <c r="L206" s="170"/>
-      <c r="M206" s="170"/>
-      <c r="N206" s="170"/>
-      <c r="O206" s="170"/>
-      <c r="P206" s="170"/>
-      <c r="Q206" s="170"/>
-      <c r="R206" s="170"/>
-      <c r="S206" s="170"/>
-      <c r="T206" s="170"/>
-      <c r="U206" s="170"/>
+      <c r="D206" s="173"/>
+      <c r="E206" s="173"/>
+      <c r="F206" s="173"/>
+      <c r="G206" s="173"/>
+      <c r="H206" s="173"/>
+      <c r="I206" s="173"/>
+      <c r="J206" s="173"/>
+      <c r="K206" s="173"/>
+      <c r="L206" s="173"/>
+      <c r="M206" s="173"/>
+      <c r="N206" s="173"/>
+      <c r="O206" s="173"/>
+      <c r="P206" s="173"/>
+      <c r="Q206" s="173"/>
+      <c r="R206" s="173"/>
+      <c r="S206" s="173"/>
+      <c r="T206" s="173"/>
+      <c r="U206" s="173"/>
     </row>
     <row r="207" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D207" s="170"/>
-      <c r="E207" s="170"/>
-      <c r="F207" s="170"/>
-      <c r="G207" s="170"/>
-      <c r="H207" s="170"/>
-      <c r="I207" s="170"/>
-      <c r="J207" s="170"/>
-      <c r="K207" s="170"/>
-      <c r="L207" s="170"/>
-      <c r="M207" s="170"/>
-      <c r="N207" s="170"/>
-      <c r="O207" s="170"/>
-      <c r="P207" s="170"/>
-      <c r="Q207" s="170"/>
-      <c r="R207" s="170"/>
-      <c r="S207" s="170"/>
-      <c r="T207" s="170"/>
-      <c r="U207" s="170"/>
+      <c r="D207" s="173"/>
+      <c r="E207" s="173"/>
+      <c r="F207" s="173"/>
+      <c r="G207" s="173"/>
+      <c r="H207" s="173"/>
+      <c r="I207" s="173"/>
+      <c r="J207" s="173"/>
+      <c r="K207" s="173"/>
+      <c r="L207" s="173"/>
+      <c r="M207" s="173"/>
+      <c r="N207" s="173"/>
+      <c r="O207" s="173"/>
+      <c r="P207" s="173"/>
+      <c r="Q207" s="173"/>
+      <c r="R207" s="173"/>
+      <c r="S207" s="173"/>
+      <c r="T207" s="173"/>
+      <c r="U207" s="173"/>
     </row>
     <row r="208" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D208" s="170"/>
-      <c r="E208" s="170"/>
-      <c r="F208" s="170"/>
-      <c r="G208" s="170"/>
-      <c r="H208" s="170"/>
-      <c r="I208" s="170"/>
-      <c r="J208" s="170"/>
-      <c r="K208" s="170"/>
-      <c r="L208" s="170"/>
-      <c r="M208" s="170"/>
-      <c r="N208" s="170"/>
-      <c r="O208" s="170"/>
-      <c r="P208" s="170"/>
-      <c r="Q208" s="170"/>
-      <c r="R208" s="170"/>
-      <c r="S208" s="170"/>
-      <c r="T208" s="170"/>
-      <c r="U208" s="170"/>
+      <c r="D208" s="173"/>
+      <c r="E208" s="173"/>
+      <c r="F208" s="173"/>
+      <c r="G208" s="173"/>
+      <c r="H208" s="173"/>
+      <c r="I208" s="173"/>
+      <c r="J208" s="173"/>
+      <c r="K208" s="173"/>
+      <c r="L208" s="173"/>
+      <c r="M208" s="173"/>
+      <c r="N208" s="173"/>
+      <c r="O208" s="173"/>
+      <c r="P208" s="173"/>
+      <c r="Q208" s="173"/>
+      <c r="R208" s="173"/>
+      <c r="S208" s="173"/>
+      <c r="T208" s="173"/>
+      <c r="U208" s="173"/>
     </row>
     <row r="209" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D209" s="170"/>
-      <c r="E209" s="170"/>
-      <c r="F209" s="170"/>
-      <c r="G209" s="170"/>
-      <c r="H209" s="170"/>
-      <c r="I209" s="170"/>
-      <c r="J209" s="170"/>
-      <c r="K209" s="170"/>
-      <c r="L209" s="170"/>
-      <c r="M209" s="170"/>
-      <c r="N209" s="170"/>
-      <c r="O209" s="170"/>
-      <c r="P209" s="170"/>
-      <c r="Q209" s="170"/>
-      <c r="R209" s="170"/>
-      <c r="S209" s="170"/>
-      <c r="T209" s="170"/>
-      <c r="U209" s="170"/>
+      <c r="D209" s="173"/>
+      <c r="E209" s="173"/>
+      <c r="F209" s="173"/>
+      <c r="G209" s="173"/>
+      <c r="H209" s="173"/>
+      <c r="I209" s="173"/>
+      <c r="J209" s="173"/>
+      <c r="K209" s="173"/>
+      <c r="L209" s="173"/>
+      <c r="M209" s="173"/>
+      <c r="N209" s="173"/>
+      <c r="O209" s="173"/>
+      <c r="P209" s="173"/>
+      <c r="Q209" s="173"/>
+      <c r="R209" s="173"/>
+      <c r="S209" s="173"/>
+      <c r="T209" s="173"/>
+      <c r="U209" s="173"/>
     </row>
     <row r="210" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D210" s="170"/>
-      <c r="E210" s="170"/>
-      <c r="F210" s="170"/>
-      <c r="G210" s="170"/>
-      <c r="H210" s="170"/>
-      <c r="I210" s="170"/>
-      <c r="J210" s="170"/>
-      <c r="K210" s="170"/>
-      <c r="L210" s="170"/>
-      <c r="M210" s="170"/>
-      <c r="N210" s="170"/>
-      <c r="O210" s="170"/>
-      <c r="P210" s="170"/>
-      <c r="Q210" s="170"/>
-      <c r="R210" s="170"/>
-      <c r="S210" s="170"/>
-      <c r="T210" s="170"/>
-      <c r="U210" s="170"/>
+      <c r="D210" s="173"/>
+      <c r="E210" s="173"/>
+      <c r="F210" s="173"/>
+      <c r="G210" s="173"/>
+      <c r="H210" s="173"/>
+      <c r="I210" s="173"/>
+      <c r="J210" s="173"/>
+      <c r="K210" s="173"/>
+      <c r="L210" s="173"/>
+      <c r="M210" s="173"/>
+      <c r="N210" s="173"/>
+      <c r="O210" s="173"/>
+      <c r="P210" s="173"/>
+      <c r="Q210" s="173"/>
+      <c r="R210" s="173"/>
+      <c r="S210" s="173"/>
+      <c r="T210" s="173"/>
+      <c r="U210" s="173"/>
     </row>
     <row r="211" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D211" s="170"/>
-      <c r="E211" s="170"/>
-      <c r="F211" s="170"/>
-      <c r="G211" s="170"/>
-      <c r="H211" s="170"/>
-      <c r="I211" s="170"/>
-      <c r="J211" s="170"/>
-      <c r="K211" s="170"/>
-      <c r="L211" s="170"/>
-      <c r="M211" s="170"/>
-      <c r="N211" s="170"/>
-      <c r="O211" s="170"/>
-      <c r="P211" s="170"/>
-      <c r="Q211" s="170"/>
-      <c r="R211" s="170"/>
-      <c r="S211" s="170"/>
-      <c r="T211" s="170"/>
-      <c r="U211" s="170"/>
+      <c r="D211" s="173"/>
+      <c r="E211" s="173"/>
+      <c r="F211" s="173"/>
+      <c r="G211" s="173"/>
+      <c r="H211" s="173"/>
+      <c r="I211" s="173"/>
+      <c r="J211" s="173"/>
+      <c r="K211" s="173"/>
+      <c r="L211" s="173"/>
+      <c r="M211" s="173"/>
+      <c r="N211" s="173"/>
+      <c r="O211" s="173"/>
+      <c r="P211" s="173"/>
+      <c r="Q211" s="173"/>
+      <c r="R211" s="173"/>
+      <c r="S211" s="173"/>
+      <c r="T211" s="173"/>
+      <c r="U211" s="173"/>
     </row>
     <row r="212" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D212" s="170"/>
-      <c r="E212" s="170"/>
-      <c r="F212" s="170"/>
-      <c r="G212" s="170"/>
-      <c r="H212" s="170"/>
-      <c r="I212" s="170"/>
-      <c r="J212" s="170"/>
-      <c r="K212" s="170"/>
-      <c r="L212" s="170"/>
-      <c r="M212" s="170"/>
-      <c r="N212" s="170"/>
-      <c r="O212" s="170"/>
-      <c r="P212" s="170"/>
-      <c r="Q212" s="170"/>
-      <c r="R212" s="170"/>
-      <c r="S212" s="170"/>
-      <c r="T212" s="170"/>
-      <c r="U212" s="170"/>
+      <c r="D212" s="173"/>
+      <c r="E212" s="173"/>
+      <c r="F212" s="173"/>
+      <c r="G212" s="173"/>
+      <c r="H212" s="173"/>
+      <c r="I212" s="173"/>
+      <c r="J212" s="173"/>
+      <c r="K212" s="173"/>
+      <c r="L212" s="173"/>
+      <c r="M212" s="173"/>
+      <c r="N212" s="173"/>
+      <c r="O212" s="173"/>
+      <c r="P212" s="173"/>
+      <c r="Q212" s="173"/>
+      <c r="R212" s="173"/>
+      <c r="S212" s="173"/>
+      <c r="T212" s="173"/>
+      <c r="U212" s="173"/>
     </row>
     <row r="213" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D213" s="170"/>
-      <c r="E213" s="170"/>
-      <c r="F213" s="170"/>
-      <c r="G213" s="170"/>
-      <c r="H213" s="170"/>
-      <c r="I213" s="170"/>
-      <c r="J213" s="170"/>
-      <c r="K213" s="170"/>
-      <c r="L213" s="170"/>
-      <c r="M213" s="170"/>
-      <c r="N213" s="170"/>
-      <c r="O213" s="170"/>
-      <c r="P213" s="170"/>
-      <c r="Q213" s="170"/>
-      <c r="R213" s="170"/>
-      <c r="S213" s="170"/>
-      <c r="T213" s="170"/>
-      <c r="U213" s="170"/>
+      <c r="D213" s="173"/>
+      <c r="E213" s="173"/>
+      <c r="F213" s="173"/>
+      <c r="G213" s="173"/>
+      <c r="H213" s="173"/>
+      <c r="I213" s="173"/>
+      <c r="J213" s="173"/>
+      <c r="K213" s="173"/>
+      <c r="L213" s="173"/>
+      <c r="M213" s="173"/>
+      <c r="N213" s="173"/>
+      <c r="O213" s="173"/>
+      <c r="P213" s="173"/>
+      <c r="Q213" s="173"/>
+      <c r="R213" s="173"/>
+      <c r="S213" s="173"/>
+      <c r="T213" s="173"/>
+      <c r="U213" s="173"/>
     </row>
     <row r="214" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D214" s="170"/>
-      <c r="E214" s="170"/>
-      <c r="F214" s="170"/>
-      <c r="G214" s="170"/>
-      <c r="H214" s="170"/>
-      <c r="I214" s="170"/>
-      <c r="J214" s="170"/>
-      <c r="K214" s="170"/>
-      <c r="L214" s="170"/>
-      <c r="M214" s="170"/>
-      <c r="N214" s="170"/>
-      <c r="O214" s="170"/>
-      <c r="P214" s="170"/>
-      <c r="Q214" s="170"/>
-      <c r="R214" s="170"/>
-      <c r="S214" s="170"/>
-      <c r="T214" s="170"/>
-      <c r="U214" s="170"/>
+      <c r="D214" s="173"/>
+      <c r="E214" s="173"/>
+      <c r="F214" s="173"/>
+      <c r="G214" s="173"/>
+      <c r="H214" s="173"/>
+      <c r="I214" s="173"/>
+      <c r="J214" s="173"/>
+      <c r="K214" s="173"/>
+      <c r="L214" s="173"/>
+      <c r="M214" s="173"/>
+      <c r="N214" s="173"/>
+      <c r="O214" s="173"/>
+      <c r="P214" s="173"/>
+      <c r="Q214" s="173"/>
+      <c r="R214" s="173"/>
+      <c r="S214" s="173"/>
+      <c r="T214" s="173"/>
+      <c r="U214" s="173"/>
     </row>
     <row r="215" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D215" s="170"/>
-      <c r="E215" s="170"/>
-      <c r="F215" s="170"/>
-      <c r="G215" s="170"/>
-      <c r="H215" s="170"/>
-      <c r="I215" s="170"/>
-      <c r="J215" s="170"/>
-      <c r="K215" s="170"/>
-      <c r="L215" s="170"/>
-      <c r="M215" s="170"/>
-      <c r="N215" s="170"/>
-      <c r="O215" s="170"/>
-      <c r="P215" s="170"/>
-      <c r="Q215" s="170"/>
-      <c r="R215" s="170"/>
-      <c r="S215" s="170"/>
-      <c r="T215" s="170"/>
-      <c r="U215" s="170"/>
+      <c r="D215" s="173"/>
+      <c r="E215" s="173"/>
+      <c r="F215" s="173"/>
+      <c r="G215" s="173"/>
+      <c r="H215" s="173"/>
+      <c r="I215" s="173"/>
+      <c r="J215" s="173"/>
+      <c r="K215" s="173"/>
+      <c r="L215" s="173"/>
+      <c r="M215" s="173"/>
+      <c r="N215" s="173"/>
+      <c r="O215" s="173"/>
+      <c r="P215" s="173"/>
+      <c r="Q215" s="173"/>
+      <c r="R215" s="173"/>
+      <c r="S215" s="173"/>
+      <c r="T215" s="173"/>
+      <c r="U215" s="173"/>
     </row>
     <row r="216" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D216" s="170"/>
-      <c r="E216" s="170"/>
-      <c r="F216" s="170"/>
-      <c r="G216" s="170"/>
-      <c r="H216" s="170"/>
-      <c r="I216" s="170"/>
-      <c r="J216" s="170"/>
-      <c r="K216" s="170"/>
-      <c r="L216" s="170"/>
-      <c r="M216" s="170"/>
-      <c r="N216" s="170"/>
-      <c r="O216" s="170"/>
-      <c r="P216" s="170"/>
-      <c r="Q216" s="170"/>
-      <c r="R216" s="170"/>
-      <c r="S216" s="170"/>
-      <c r="T216" s="170"/>
-      <c r="U216" s="170"/>
+      <c r="D216" s="173"/>
+      <c r="E216" s="173"/>
+      <c r="F216" s="173"/>
+      <c r="G216" s="173"/>
+      <c r="H216" s="173"/>
+      <c r="I216" s="173"/>
+      <c r="J216" s="173"/>
+      <c r="K216" s="173"/>
+      <c r="L216" s="173"/>
+      <c r="M216" s="173"/>
+      <c r="N216" s="173"/>
+      <c r="O216" s="173"/>
+      <c r="P216" s="173"/>
+      <c r="Q216" s="173"/>
+      <c r="R216" s="173"/>
+      <c r="S216" s="173"/>
+      <c r="T216" s="173"/>
+      <c r="U216" s="173"/>
     </row>
     <row r="217" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D217" s="170"/>
-      <c r="E217" s="170"/>
-      <c r="F217" s="170"/>
-      <c r="G217" s="170"/>
-      <c r="H217" s="170"/>
-      <c r="I217" s="170"/>
-      <c r="J217" s="170"/>
-      <c r="K217" s="170"/>
-      <c r="L217" s="170"/>
-      <c r="M217" s="170"/>
-      <c r="N217" s="170"/>
-      <c r="O217" s="170"/>
-      <c r="P217" s="170"/>
-      <c r="Q217" s="170"/>
-      <c r="R217" s="170"/>
-      <c r="S217" s="170"/>
-      <c r="T217" s="170"/>
-      <c r="U217" s="170"/>
+      <c r="D217" s="173"/>
+      <c r="E217" s="173"/>
+      <c r="F217" s="173"/>
+      <c r="G217" s="173"/>
+      <c r="H217" s="173"/>
+      <c r="I217" s="173"/>
+      <c r="J217" s="173"/>
+      <c r="K217" s="173"/>
+      <c r="L217" s="173"/>
+      <c r="M217" s="173"/>
+      <c r="N217" s="173"/>
+      <c r="O217" s="173"/>
+      <c r="P217" s="173"/>
+      <c r="Q217" s="173"/>
+      <c r="R217" s="173"/>
+      <c r="S217" s="173"/>
+      <c r="T217" s="173"/>
+      <c r="U217" s="173"/>
     </row>
     <row r="218" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D218" s="170"/>
-      <c r="E218" s="170"/>
-      <c r="F218" s="170"/>
-      <c r="G218" s="170"/>
-      <c r="H218" s="170"/>
-      <c r="I218" s="170"/>
-      <c r="J218" s="170"/>
-      <c r="K218" s="170"/>
-      <c r="L218" s="170"/>
-      <c r="M218" s="170"/>
-      <c r="N218" s="170"/>
-      <c r="O218" s="170"/>
-      <c r="P218" s="170"/>
-      <c r="Q218" s="170"/>
-      <c r="R218" s="170"/>
-      <c r="S218" s="170"/>
-      <c r="T218" s="170"/>
-      <c r="U218" s="170"/>
+      <c r="D218" s="173"/>
+      <c r="E218" s="173"/>
+      <c r="F218" s="173"/>
+      <c r="G218" s="173"/>
+      <c r="H218" s="173"/>
+      <c r="I218" s="173"/>
+      <c r="J218" s="173"/>
+      <c r="K218" s="173"/>
+      <c r="L218" s="173"/>
+      <c r="M218" s="173"/>
+      <c r="N218" s="173"/>
+      <c r="O218" s="173"/>
+      <c r="P218" s="173"/>
+      <c r="Q218" s="173"/>
+      <c r="R218" s="173"/>
+      <c r="S218" s="173"/>
+      <c r="T218" s="173"/>
+      <c r="U218" s="173"/>
     </row>
     <row r="219" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D219" s="170"/>
-      <c r="E219" s="170"/>
-      <c r="F219" s="170"/>
-      <c r="G219" s="170"/>
-      <c r="H219" s="170"/>
-      <c r="I219" s="170"/>
-      <c r="J219" s="170"/>
-      <c r="K219" s="170"/>
-      <c r="L219" s="170"/>
-      <c r="M219" s="170"/>
-      <c r="N219" s="170"/>
-      <c r="O219" s="170"/>
-      <c r="P219" s="170"/>
-      <c r="Q219" s="170"/>
-      <c r="R219" s="170"/>
-      <c r="S219" s="170"/>
-      <c r="T219" s="170"/>
-      <c r="U219" s="170"/>
+      <c r="D219" s="173"/>
+      <c r="E219" s="173"/>
+      <c r="F219" s="173"/>
+      <c r="G219" s="173"/>
+      <c r="H219" s="173"/>
+      <c r="I219" s="173"/>
+      <c r="J219" s="173"/>
+      <c r="K219" s="173"/>
+      <c r="L219" s="173"/>
+      <c r="M219" s="173"/>
+      <c r="N219" s="173"/>
+      <c r="O219" s="173"/>
+      <c r="P219" s="173"/>
+      <c r="Q219" s="173"/>
+      <c r="R219" s="173"/>
+      <c r="S219" s="173"/>
+      <c r="T219" s="173"/>
+      <c r="U219" s="173"/>
     </row>
     <row r="220" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D220" s="170"/>
-      <c r="E220" s="170"/>
-      <c r="F220" s="170"/>
-      <c r="G220" s="170"/>
-      <c r="H220" s="170"/>
-      <c r="I220" s="170"/>
-      <c r="J220" s="170"/>
-      <c r="K220" s="170"/>
-      <c r="L220" s="170"/>
-      <c r="M220" s="170"/>
-      <c r="N220" s="170"/>
-      <c r="O220" s="170"/>
-      <c r="P220" s="170"/>
-      <c r="Q220" s="170"/>
-      <c r="R220" s="170"/>
-      <c r="S220" s="170"/>
-      <c r="T220" s="170"/>
-      <c r="U220" s="170"/>
+      <c r="D220" s="173"/>
+      <c r="E220" s="173"/>
+      <c r="F220" s="173"/>
+      <c r="G220" s="173"/>
+      <c r="H220" s="173"/>
+      <c r="I220" s="173"/>
+      <c r="J220" s="173"/>
+      <c r="K220" s="173"/>
+      <c r="L220" s="173"/>
+      <c r="M220" s="173"/>
+      <c r="N220" s="173"/>
+      <c r="O220" s="173"/>
+      <c r="P220" s="173"/>
+      <c r="Q220" s="173"/>
+      <c r="R220" s="173"/>
+      <c r="S220" s="173"/>
+      <c r="T220" s="173"/>
+      <c r="U220" s="173"/>
     </row>
     <row r="221" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D221" s="170"/>
-      <c r="E221" s="170"/>
-      <c r="F221" s="170"/>
-      <c r="G221" s="170"/>
-      <c r="H221" s="170"/>
-      <c r="I221" s="170"/>
-      <c r="J221" s="170"/>
-      <c r="K221" s="170"/>
-      <c r="L221" s="170"/>
-      <c r="M221" s="170"/>
-      <c r="N221" s="170"/>
-      <c r="O221" s="170"/>
-      <c r="P221" s="170"/>
-      <c r="Q221" s="170"/>
-      <c r="R221" s="170"/>
-      <c r="S221" s="170"/>
-      <c r="T221" s="170"/>
-      <c r="U221" s="170"/>
+      <c r="D221" s="173"/>
+      <c r="E221" s="173"/>
+      <c r="F221" s="173"/>
+      <c r="G221" s="173"/>
+      <c r="H221" s="173"/>
+      <c r="I221" s="173"/>
+      <c r="J221" s="173"/>
+      <c r="K221" s="173"/>
+      <c r="L221" s="173"/>
+      <c r="M221" s="173"/>
+      <c r="N221" s="173"/>
+      <c r="O221" s="173"/>
+      <c r="P221" s="173"/>
+      <c r="Q221" s="173"/>
+      <c r="R221" s="173"/>
+      <c r="S221" s="173"/>
+      <c r="T221" s="173"/>
+      <c r="U221" s="173"/>
     </row>
     <row r="222" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D222" s="170"/>
-      <c r="E222" s="170"/>
-      <c r="F222" s="170"/>
-      <c r="G222" s="170"/>
-      <c r="H222" s="170"/>
-      <c r="I222" s="170"/>
-      <c r="J222" s="170"/>
-      <c r="K222" s="170"/>
-      <c r="L222" s="170"/>
-      <c r="M222" s="170"/>
-      <c r="N222" s="170"/>
-      <c r="O222" s="170"/>
-      <c r="P222" s="170"/>
-      <c r="Q222" s="170"/>
-      <c r="R222" s="170"/>
-      <c r="S222" s="170"/>
-      <c r="T222" s="170"/>
-      <c r="U222" s="170"/>
+      <c r="D222" s="173"/>
+      <c r="E222" s="173"/>
+      <c r="F222" s="173"/>
+      <c r="G222" s="173"/>
+      <c r="H222" s="173"/>
+      <c r="I222" s="173"/>
+      <c r="J222" s="173"/>
+      <c r="K222" s="173"/>
+      <c r="L222" s="173"/>
+      <c r="M222" s="173"/>
+      <c r="N222" s="173"/>
+      <c r="O222" s="173"/>
+      <c r="P222" s="173"/>
+      <c r="Q222" s="173"/>
+      <c r="R222" s="173"/>
+      <c r="S222" s="173"/>
+      <c r="T222" s="173"/>
+      <c r="U222" s="173"/>
     </row>
     <row r="223" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D223" s="170"/>
-      <c r="E223" s="170"/>
-      <c r="F223" s="170"/>
-      <c r="G223" s="170"/>
-      <c r="H223" s="170"/>
-      <c r="I223" s="170"/>
-      <c r="J223" s="170"/>
-      <c r="K223" s="170"/>
-      <c r="L223" s="170"/>
-      <c r="M223" s="170"/>
-      <c r="N223" s="170"/>
-      <c r="O223" s="170"/>
-      <c r="P223" s="170"/>
-      <c r="Q223" s="170"/>
-      <c r="R223" s="170"/>
-      <c r="S223" s="170"/>
-      <c r="T223" s="170"/>
-      <c r="U223" s="170"/>
+      <c r="D223" s="173"/>
+      <c r="E223" s="173"/>
+      <c r="F223" s="173"/>
+      <c r="G223" s="173"/>
+      <c r="H223" s="173"/>
+      <c r="I223" s="173"/>
+      <c r="J223" s="173"/>
+      <c r="K223" s="173"/>
+      <c r="L223" s="173"/>
+      <c r="M223" s="173"/>
+      <c r="N223" s="173"/>
+      <c r="O223" s="173"/>
+      <c r="P223" s="173"/>
+      <c r="Q223" s="173"/>
+      <c r="R223" s="173"/>
+      <c r="S223" s="173"/>
+      <c r="T223" s="173"/>
+      <c r="U223" s="173"/>
     </row>
     <row r="224" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D224" s="170"/>
-      <c r="E224" s="170"/>
-      <c r="F224" s="170"/>
-      <c r="G224" s="170"/>
-      <c r="H224" s="170"/>
-      <c r="I224" s="170"/>
-      <c r="J224" s="170"/>
-      <c r="K224" s="170"/>
-      <c r="L224" s="170"/>
-      <c r="M224" s="170"/>
-      <c r="N224" s="170"/>
-      <c r="O224" s="170"/>
-      <c r="P224" s="170"/>
-      <c r="Q224" s="170"/>
-      <c r="R224" s="170"/>
-      <c r="S224" s="170"/>
-      <c r="T224" s="170"/>
-      <c r="U224" s="170"/>
+      <c r="D224" s="173"/>
+      <c r="E224" s="173"/>
+      <c r="F224" s="173"/>
+      <c r="G224" s="173"/>
+      <c r="H224" s="173"/>
+      <c r="I224" s="173"/>
+      <c r="J224" s="173"/>
+      <c r="K224" s="173"/>
+      <c r="L224" s="173"/>
+      <c r="M224" s="173"/>
+      <c r="N224" s="173"/>
+      <c r="O224" s="173"/>
+      <c r="P224" s="173"/>
+      <c r="Q224" s="173"/>
+      <c r="R224" s="173"/>
+      <c r="S224" s="173"/>
+      <c r="T224" s="173"/>
+      <c r="U224" s="173"/>
     </row>
     <row r="225" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D225" s="170"/>
-      <c r="E225" s="170"/>
-      <c r="F225" s="170"/>
-      <c r="G225" s="170"/>
-      <c r="H225" s="170"/>
-      <c r="I225" s="170"/>
-      <c r="J225" s="170"/>
-      <c r="K225" s="170"/>
-      <c r="L225" s="170"/>
-      <c r="M225" s="170"/>
-      <c r="N225" s="170"/>
-      <c r="O225" s="170"/>
-      <c r="P225" s="170"/>
-      <c r="Q225" s="170"/>
-      <c r="R225" s="170"/>
-      <c r="S225" s="170"/>
-      <c r="T225" s="170"/>
-      <c r="U225" s="170"/>
+      <c r="D225" s="173"/>
+      <c r="E225" s="173"/>
+      <c r="F225" s="173"/>
+      <c r="G225" s="173"/>
+      <c r="H225" s="173"/>
+      <c r="I225" s="173"/>
+      <c r="J225" s="173"/>
+      <c r="K225" s="173"/>
+      <c r="L225" s="173"/>
+      <c r="M225" s="173"/>
+      <c r="N225" s="173"/>
+      <c r="O225" s="173"/>
+      <c r="P225" s="173"/>
+      <c r="Q225" s="173"/>
+      <c r="R225" s="173"/>
+      <c r="S225" s="173"/>
+      <c r="T225" s="173"/>
+      <c r="U225" s="173"/>
     </row>
     <row r="226" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D226" s="170"/>
-      <c r="E226" s="170"/>
-      <c r="F226" s="170"/>
-      <c r="G226" s="170"/>
-      <c r="H226" s="170"/>
-      <c r="I226" s="170"/>
-      <c r="J226" s="170"/>
-      <c r="K226" s="170"/>
-      <c r="L226" s="170"/>
-      <c r="M226" s="170"/>
-      <c r="N226" s="170"/>
-      <c r="O226" s="170"/>
-      <c r="P226" s="170"/>
-      <c r="Q226" s="170"/>
-      <c r="R226" s="170"/>
-      <c r="S226" s="170"/>
-      <c r="T226" s="170"/>
-      <c r="U226" s="170"/>
+      <c r="D226" s="173"/>
+      <c r="E226" s="173"/>
+      <c r="F226" s="173"/>
+      <c r="G226" s="173"/>
+      <c r="H226" s="173"/>
+      <c r="I226" s="173"/>
+      <c r="J226" s="173"/>
+      <c r="K226" s="173"/>
+      <c r="L226" s="173"/>
+      <c r="M226" s="173"/>
+      <c r="N226" s="173"/>
+      <c r="O226" s="173"/>
+      <c r="P226" s="173"/>
+      <c r="Q226" s="173"/>
+      <c r="R226" s="173"/>
+      <c r="S226" s="173"/>
+      <c r="T226" s="173"/>
+      <c r="U226" s="173"/>
     </row>
     <row r="227" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D227" s="170"/>
-      <c r="E227" s="170"/>
-      <c r="F227" s="170"/>
-      <c r="G227" s="170"/>
-      <c r="H227" s="170"/>
-      <c r="I227" s="170"/>
-      <c r="J227" s="170"/>
-      <c r="K227" s="170"/>
-      <c r="L227" s="170"/>
-      <c r="M227" s="170"/>
-      <c r="N227" s="170"/>
-      <c r="O227" s="170"/>
-      <c r="P227" s="170"/>
-      <c r="Q227" s="170"/>
-      <c r="R227" s="170"/>
-      <c r="S227" s="170"/>
-      <c r="T227" s="170"/>
-      <c r="U227" s="170"/>
+      <c r="D227" s="173"/>
+      <c r="E227" s="173"/>
+      <c r="F227" s="173"/>
+      <c r="G227" s="173"/>
+      <c r="H227" s="173"/>
+      <c r="I227" s="173"/>
+      <c r="J227" s="173"/>
+      <c r="K227" s="173"/>
+      <c r="L227" s="173"/>
+      <c r="M227" s="173"/>
+      <c r="N227" s="173"/>
+      <c r="O227" s="173"/>
+      <c r="P227" s="173"/>
+      <c r="Q227" s="173"/>
+      <c r="R227" s="173"/>
+      <c r="S227" s="173"/>
+      <c r="T227" s="173"/>
+      <c r="U227" s="173"/>
     </row>
     <row r="228" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D228" s="170"/>
-      <c r="E228" s="170"/>
-      <c r="F228" s="170"/>
-      <c r="G228" s="170"/>
-      <c r="H228" s="170"/>
-      <c r="I228" s="170"/>
-      <c r="J228" s="170"/>
-      <c r="K228" s="170"/>
-      <c r="L228" s="170"/>
-      <c r="M228" s="170"/>
-      <c r="N228" s="170"/>
-      <c r="O228" s="170"/>
-      <c r="P228" s="170"/>
-      <c r="Q228" s="170"/>
-      <c r="R228" s="170"/>
-      <c r="S228" s="170"/>
-      <c r="T228" s="170"/>
-      <c r="U228" s="170"/>
+      <c r="D228" s="173"/>
+      <c r="E228" s="173"/>
+      <c r="F228" s="173"/>
+      <c r="G228" s="173"/>
+      <c r="H228" s="173"/>
+      <c r="I228" s="173"/>
+      <c r="J228" s="173"/>
+      <c r="K228" s="173"/>
+      <c r="L228" s="173"/>
+      <c r="M228" s="173"/>
+      <c r="N228" s="173"/>
+      <c r="O228" s="173"/>
+      <c r="P228" s="173"/>
+      <c r="Q228" s="173"/>
+      <c r="R228" s="173"/>
+      <c r="S228" s="173"/>
+      <c r="T228" s="173"/>
+      <c r="U228" s="173"/>
     </row>
     <row r="229" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D229" s="170"/>
-      <c r="E229" s="170"/>
-      <c r="F229" s="170"/>
-      <c r="G229" s="170"/>
-      <c r="H229" s="170"/>
-      <c r="I229" s="170"/>
-      <c r="J229" s="170"/>
-      <c r="K229" s="170"/>
-      <c r="L229" s="170"/>
-      <c r="M229" s="170"/>
-      <c r="N229" s="170"/>
-      <c r="O229" s="170"/>
-      <c r="P229" s="170"/>
-      <c r="Q229" s="170"/>
-      <c r="R229" s="170"/>
-      <c r="S229" s="170"/>
-      <c r="T229" s="170"/>
-      <c r="U229" s="170"/>
+      <c r="D229" s="173"/>
+      <c r="E229" s="173"/>
+      <c r="F229" s="173"/>
+      <c r="G229" s="173"/>
+      <c r="H229" s="173"/>
+      <c r="I229" s="173"/>
+      <c r="J229" s="173"/>
+      <c r="K229" s="173"/>
+      <c r="L229" s="173"/>
+      <c r="M229" s="173"/>
+      <c r="N229" s="173"/>
+      <c r="O229" s="173"/>
+      <c r="P229" s="173"/>
+      <c r="Q229" s="173"/>
+      <c r="R229" s="173"/>
+      <c r="S229" s="173"/>
+      <c r="T229" s="173"/>
+      <c r="U229" s="173"/>
     </row>
     <row r="230" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D230" s="170"/>
-      <c r="E230" s="170"/>
-      <c r="F230" s="170"/>
-      <c r="G230" s="170"/>
-      <c r="H230" s="170"/>
-      <c r="I230" s="170"/>
-      <c r="J230" s="170"/>
-      <c r="K230" s="170"/>
-      <c r="L230" s="170"/>
-      <c r="M230" s="170"/>
-      <c r="N230" s="170"/>
-      <c r="O230" s="170"/>
-      <c r="P230" s="170"/>
-      <c r="Q230" s="170"/>
-      <c r="R230" s="170"/>
-      <c r="S230" s="170"/>
-      <c r="T230" s="170"/>
-      <c r="U230" s="170"/>
+      <c r="D230" s="173"/>
+      <c r="E230" s="173"/>
+      <c r="F230" s="173"/>
+      <c r="G230" s="173"/>
+      <c r="H230" s="173"/>
+      <c r="I230" s="173"/>
+      <c r="J230" s="173"/>
+      <c r="K230" s="173"/>
+      <c r="L230" s="173"/>
+      <c r="M230" s="173"/>
+      <c r="N230" s="173"/>
+      <c r="O230" s="173"/>
+      <c r="P230" s="173"/>
+      <c r="Q230" s="173"/>
+      <c r="R230" s="173"/>
+      <c r="S230" s="173"/>
+      <c r="T230" s="173"/>
+      <c r="U230" s="173"/>
     </row>
     <row r="231" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D231" s="170"/>
-      <c r="E231" s="170"/>
-      <c r="F231" s="170"/>
-      <c r="G231" s="170"/>
-      <c r="H231" s="170"/>
-      <c r="I231" s="170"/>
-      <c r="J231" s="170"/>
-      <c r="K231" s="170"/>
-      <c r="L231" s="170"/>
-      <c r="M231" s="170"/>
-      <c r="N231" s="170"/>
-      <c r="O231" s="170"/>
-      <c r="P231" s="170"/>
-      <c r="Q231" s="170"/>
-      <c r="R231" s="170"/>
-      <c r="S231" s="170"/>
-      <c r="T231" s="170"/>
-      <c r="U231" s="170"/>
+      <c r="D231" s="173"/>
+      <c r="E231" s="173"/>
+      <c r="F231" s="173"/>
+      <c r="G231" s="173"/>
+      <c r="H231" s="173"/>
+      <c r="I231" s="173"/>
+      <c r="J231" s="173"/>
+      <c r="K231" s="173"/>
+      <c r="L231" s="173"/>
+      <c r="M231" s="173"/>
+      <c r="N231" s="173"/>
+      <c r="O231" s="173"/>
+      <c r="P231" s="173"/>
+      <c r="Q231" s="173"/>
+      <c r="R231" s="173"/>
+      <c r="S231" s="173"/>
+      <c r="T231" s="173"/>
+      <c r="U231" s="173"/>
     </row>
     <row r="232" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D232" s="170"/>
-      <c r="E232" s="170"/>
-      <c r="F232" s="170"/>
-      <c r="G232" s="170"/>
-      <c r="H232" s="170"/>
-      <c r="I232" s="170"/>
-      <c r="J232" s="170"/>
-      <c r="K232" s="170"/>
-      <c r="L232" s="170"/>
-      <c r="M232" s="170"/>
-      <c r="N232" s="170"/>
-      <c r="O232" s="170"/>
-      <c r="P232" s="170"/>
-      <c r="Q232" s="170"/>
-      <c r="R232" s="170"/>
-      <c r="S232" s="170"/>
-      <c r="T232" s="170"/>
-      <c r="U232" s="170"/>
+      <c r="D232" s="173"/>
+      <c r="E232" s="173"/>
+      <c r="F232" s="173"/>
+      <c r="G232" s="173"/>
+      <c r="H232" s="173"/>
+      <c r="I232" s="173"/>
+      <c r="J232" s="173"/>
+      <c r="K232" s="173"/>
+      <c r="L232" s="173"/>
+      <c r="M232" s="173"/>
+      <c r="N232" s="173"/>
+      <c r="O232" s="173"/>
+      <c r="P232" s="173"/>
+      <c r="Q232" s="173"/>
+      <c r="R232" s="173"/>
+      <c r="S232" s="173"/>
+      <c r="T232" s="173"/>
+      <c r="U232" s="173"/>
     </row>
     <row r="233" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D233" s="170"/>
-      <c r="E233" s="170"/>
-      <c r="F233" s="170"/>
-      <c r="G233" s="170"/>
-      <c r="H233" s="170"/>
-      <c r="I233" s="170"/>
-      <c r="J233" s="170"/>
-      <c r="K233" s="170"/>
-      <c r="L233" s="170"/>
-      <c r="M233" s="170"/>
-      <c r="N233" s="170"/>
-      <c r="O233" s="170"/>
-      <c r="P233" s="170"/>
-      <c r="Q233" s="170"/>
-      <c r="R233" s="170"/>
-      <c r="S233" s="170"/>
-      <c r="T233" s="170"/>
-      <c r="U233" s="170"/>
+      <c r="D233" s="173"/>
+      <c r="E233" s="173"/>
+      <c r="F233" s="173"/>
+      <c r="G233" s="173"/>
+      <c r="H233" s="173"/>
+      <c r="I233" s="173"/>
+      <c r="J233" s="173"/>
+      <c r="K233" s="173"/>
+      <c r="L233" s="173"/>
+      <c r="M233" s="173"/>
+      <c r="N233" s="173"/>
+      <c r="O233" s="173"/>
+      <c r="P233" s="173"/>
+      <c r="Q233" s="173"/>
+      <c r="R233" s="173"/>
+      <c r="S233" s="173"/>
+      <c r="T233" s="173"/>
+      <c r="U233" s="173"/>
     </row>
     <row r="234" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D234" s="170"/>
-      <c r="E234" s="170"/>
-      <c r="F234" s="170"/>
-      <c r="G234" s="170"/>
-      <c r="H234" s="170"/>
-      <c r="I234" s="170"/>
-      <c r="J234" s="170"/>
-      <c r="K234" s="170"/>
-      <c r="L234" s="170"/>
-      <c r="M234" s="170"/>
-      <c r="N234" s="170"/>
-      <c r="O234" s="170"/>
-      <c r="P234" s="170"/>
-      <c r="Q234" s="170"/>
-      <c r="R234" s="170"/>
-      <c r="S234" s="170"/>
-      <c r="T234" s="170"/>
-      <c r="U234" s="170"/>
+      <c r="D234" s="173"/>
+      <c r="E234" s="173"/>
+      <c r="F234" s="173"/>
+      <c r="G234" s="173"/>
+      <c r="H234" s="173"/>
+      <c r="I234" s="173"/>
+      <c r="J234" s="173"/>
+      <c r="K234" s="173"/>
+      <c r="L234" s="173"/>
+      <c r="M234" s="173"/>
+      <c r="N234" s="173"/>
+      <c r="O234" s="173"/>
+      <c r="P234" s="173"/>
+      <c r="Q234" s="173"/>
+      <c r="R234" s="173"/>
+      <c r="S234" s="173"/>
+      <c r="T234" s="173"/>
+      <c r="U234" s="173"/>
     </row>
     <row r="235" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D235" s="170"/>
-      <c r="E235" s="170"/>
-      <c r="F235" s="170"/>
-      <c r="G235" s="170"/>
-      <c r="H235" s="170"/>
-      <c r="I235" s="170"/>
-      <c r="J235" s="170"/>
-      <c r="K235" s="170"/>
-      <c r="L235" s="170"/>
-      <c r="M235" s="170"/>
-      <c r="N235" s="170"/>
-      <c r="O235" s="170"/>
-      <c r="P235" s="170"/>
-      <c r="Q235" s="170"/>
-      <c r="R235" s="170"/>
-      <c r="S235" s="170"/>
-      <c r="T235" s="170"/>
-      <c r="U235" s="170"/>
+      <c r="D235" s="173"/>
+      <c r="E235" s="173"/>
+      <c r="F235" s="173"/>
+      <c r="G235" s="173"/>
+      <c r="H235" s="173"/>
+      <c r="I235" s="173"/>
+      <c r="J235" s="173"/>
+      <c r="K235" s="173"/>
+      <c r="L235" s="173"/>
+      <c r="M235" s="173"/>
+      <c r="N235" s="173"/>
+      <c r="O235" s="173"/>
+      <c r="P235" s="173"/>
+      <c r="Q235" s="173"/>
+      <c r="R235" s="173"/>
+      <c r="S235" s="173"/>
+      <c r="T235" s="173"/>
+      <c r="U235" s="173"/>
     </row>
     <row r="236" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D236" s="170"/>
-      <c r="E236" s="170"/>
-      <c r="F236" s="170"/>
-      <c r="G236" s="170"/>
-      <c r="H236" s="170"/>
-      <c r="I236" s="170"/>
-      <c r="J236" s="170"/>
-      <c r="K236" s="170"/>
-      <c r="L236" s="170"/>
-      <c r="M236" s="170"/>
-      <c r="N236" s="170"/>
-      <c r="O236" s="170"/>
-      <c r="P236" s="170"/>
-      <c r="Q236" s="170"/>
-      <c r="R236" s="170"/>
-      <c r="S236" s="170"/>
-      <c r="T236" s="170"/>
-      <c r="U236" s="170"/>
+      <c r="D236" s="173"/>
+      <c r="E236" s="173"/>
+      <c r="F236" s="173"/>
+      <c r="G236" s="173"/>
+      <c r="H236" s="173"/>
+      <c r="I236" s="173"/>
+      <c r="J236" s="173"/>
+      <c r="K236" s="173"/>
+      <c r="L236" s="173"/>
+      <c r="M236" s="173"/>
+      <c r="N236" s="173"/>
+      <c r="O236" s="173"/>
+      <c r="P236" s="173"/>
+      <c r="Q236" s="173"/>
+      <c r="R236" s="173"/>
+      <c r="S236" s="173"/>
+      <c r="T236" s="173"/>
+      <c r="U236" s="173"/>
     </row>
     <row r="237" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D237" s="170"/>
-      <c r="E237" s="170"/>
-      <c r="F237" s="170"/>
-      <c r="G237" s="170"/>
-      <c r="H237" s="170"/>
-      <c r="I237" s="170"/>
-      <c r="J237" s="170"/>
-      <c r="K237" s="170"/>
-      <c r="L237" s="170"/>
-      <c r="M237" s="170"/>
-      <c r="N237" s="170"/>
-      <c r="O237" s="170"/>
-      <c r="P237" s="170"/>
-      <c r="Q237" s="170"/>
-      <c r="R237" s="170"/>
-      <c r="S237" s="170"/>
-      <c r="T237" s="170"/>
-      <c r="U237" s="170"/>
+      <c r="D237" s="173"/>
+      <c r="E237" s="173"/>
+      <c r="F237" s="173"/>
+      <c r="G237" s="173"/>
+      <c r="H237" s="173"/>
+      <c r="I237" s="173"/>
+      <c r="J237" s="173"/>
+      <c r="K237" s="173"/>
+      <c r="L237" s="173"/>
+      <c r="M237" s="173"/>
+      <c r="N237" s="173"/>
+      <c r="O237" s="173"/>
+      <c r="P237" s="173"/>
+      <c r="Q237" s="173"/>
+      <c r="R237" s="173"/>
+      <c r="S237" s="173"/>
+      <c r="T237" s="173"/>
+      <c r="U237" s="173"/>
     </row>
     <row r="238" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D238" s="170"/>
-      <c r="E238" s="170"/>
-      <c r="F238" s="170"/>
-      <c r="G238" s="170"/>
-      <c r="H238" s="170"/>
-      <c r="I238" s="170"/>
-      <c r="J238" s="170"/>
-      <c r="K238" s="170"/>
-      <c r="L238" s="170"/>
-      <c r="M238" s="170"/>
-      <c r="N238" s="170"/>
-      <c r="O238" s="170"/>
-      <c r="P238" s="170"/>
-      <c r="Q238" s="170"/>
-      <c r="R238" s="170"/>
-      <c r="S238" s="170"/>
-      <c r="T238" s="170"/>
-      <c r="U238" s="170"/>
+      <c r="D238" s="173"/>
+      <c r="E238" s="173"/>
+      <c r="F238" s="173"/>
+      <c r="G238" s="173"/>
+      <c r="H238" s="173"/>
+      <c r="I238" s="173"/>
+      <c r="J238" s="173"/>
+      <c r="K238" s="173"/>
+      <c r="L238" s="173"/>
+      <c r="M238" s="173"/>
+      <c r="N238" s="173"/>
+      <c r="O238" s="173"/>
+      <c r="P238" s="173"/>
+      <c r="Q238" s="173"/>
+      <c r="R238" s="173"/>
+      <c r="S238" s="173"/>
+      <c r="T238" s="173"/>
+      <c r="U238" s="173"/>
     </row>
     <row r="239" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D239" s="170"/>
-      <c r="E239" s="170"/>
-      <c r="F239" s="170"/>
-      <c r="G239" s="170"/>
-      <c r="H239" s="170"/>
-      <c r="I239" s="170"/>
-      <c r="J239" s="170"/>
-      <c r="K239" s="170"/>
-      <c r="L239" s="170"/>
-      <c r="M239" s="170"/>
-      <c r="N239" s="170"/>
-      <c r="O239" s="170"/>
-      <c r="P239" s="170"/>
-      <c r="Q239" s="170"/>
-      <c r="R239" s="170"/>
-      <c r="S239" s="170"/>
-      <c r="T239" s="170"/>
-      <c r="U239" s="170"/>
+      <c r="D239" s="173"/>
+      <c r="E239" s="173"/>
+      <c r="F239" s="173"/>
+      <c r="G239" s="173"/>
+      <c r="H239" s="173"/>
+      <c r="I239" s="173"/>
+      <c r="J239" s="173"/>
+      <c r="K239" s="173"/>
+      <c r="L239" s="173"/>
+      <c r="M239" s="173"/>
+      <c r="N239" s="173"/>
+      <c r="O239" s="173"/>
+      <c r="P239" s="173"/>
+      <c r="Q239" s="173"/>
+      <c r="R239" s="173"/>
+      <c r="S239" s="173"/>
+      <c r="T239" s="173"/>
+      <c r="U239" s="173"/>
     </row>
     <row r="240" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D240" s="170"/>
-      <c r="E240" s="170"/>
-      <c r="F240" s="170"/>
-      <c r="G240" s="170"/>
-      <c r="H240" s="170"/>
-      <c r="I240" s="170"/>
-      <c r="J240" s="170"/>
-      <c r="K240" s="170"/>
-      <c r="L240" s="170"/>
-      <c r="M240" s="170"/>
-      <c r="N240" s="170"/>
-      <c r="O240" s="170"/>
-      <c r="P240" s="170"/>
-      <c r="Q240" s="170"/>
-      <c r="R240" s="170"/>
-      <c r="S240" s="170"/>
-      <c r="T240" s="170"/>
-      <c r="U240" s="170"/>
+      <c r="D240" s="173"/>
+      <c r="E240" s="173"/>
+      <c r="F240" s="173"/>
+      <c r="G240" s="173"/>
+      <c r="H240" s="173"/>
+      <c r="I240" s="173"/>
+      <c r="J240" s="173"/>
+      <c r="K240" s="173"/>
+      <c r="L240" s="173"/>
+      <c r="M240" s="173"/>
+      <c r="N240" s="173"/>
+      <c r="O240" s="173"/>
+      <c r="P240" s="173"/>
+      <c r="Q240" s="173"/>
+      <c r="R240" s="173"/>
+      <c r="S240" s="173"/>
+      <c r="T240" s="173"/>
+      <c r="U240" s="173"/>
     </row>
     <row r="241" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D241" s="170"/>
-      <c r="E241" s="170"/>
-      <c r="F241" s="170"/>
-      <c r="G241" s="170"/>
-      <c r="H241" s="170"/>
-      <c r="I241" s="170"/>
-      <c r="J241" s="170"/>
-      <c r="K241" s="170"/>
-      <c r="L241" s="170"/>
-      <c r="M241" s="170"/>
-      <c r="N241" s="170"/>
-      <c r="O241" s="170"/>
-      <c r="P241" s="170"/>
-      <c r="Q241" s="170"/>
-      <c r="R241" s="170"/>
-      <c r="S241" s="170"/>
-      <c r="T241" s="170"/>
-      <c r="U241" s="170"/>
+      <c r="D241" s="173"/>
+      <c r="E241" s="173"/>
+      <c r="F241" s="173"/>
+      <c r="G241" s="173"/>
+      <c r="H241" s="173"/>
+      <c r="I241" s="173"/>
+      <c r="J241" s="173"/>
+      <c r="K241" s="173"/>
+      <c r="L241" s="173"/>
+      <c r="M241" s="173"/>
+      <c r="N241" s="173"/>
+      <c r="O241" s="173"/>
+      <c r="P241" s="173"/>
+      <c r="Q241" s="173"/>
+      <c r="R241" s="173"/>
+      <c r="S241" s="173"/>
+      <c r="T241" s="173"/>
+      <c r="U241" s="173"/>
     </row>
     <row r="242" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D242" s="170"/>
-      <c r="E242" s="170"/>
-      <c r="F242" s="170"/>
-      <c r="G242" s="170"/>
-      <c r="H242" s="170"/>
-      <c r="I242" s="170"/>
-      <c r="J242" s="170"/>
-      <c r="K242" s="170"/>
-      <c r="L242" s="170"/>
-      <c r="M242" s="170"/>
-      <c r="N242" s="170"/>
-      <c r="O242" s="170"/>
-      <c r="P242" s="170"/>
-      <c r="Q242" s="170"/>
-      <c r="R242" s="170"/>
-      <c r="S242" s="170"/>
-      <c r="T242" s="170"/>
-      <c r="U242" s="170"/>
+      <c r="D242" s="173"/>
+      <c r="E242" s="173"/>
+      <c r="F242" s="173"/>
+      <c r="G242" s="173"/>
+      <c r="H242" s="173"/>
+      <c r="I242" s="173"/>
+      <c r="J242" s="173"/>
+      <c r="K242" s="173"/>
+      <c r="L242" s="173"/>
+      <c r="M242" s="173"/>
+      <c r="N242" s="173"/>
+      <c r="O242" s="173"/>
+      <c r="P242" s="173"/>
+      <c r="Q242" s="173"/>
+      <c r="R242" s="173"/>
+      <c r="S242" s="173"/>
+      <c r="T242" s="173"/>
+      <c r="U242" s="173"/>
     </row>
     <row r="243" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D243" s="170"/>
-      <c r="E243" s="170"/>
-      <c r="F243" s="170"/>
-      <c r="G243" s="170"/>
-      <c r="H243" s="170"/>
-      <c r="I243" s="170"/>
-      <c r="J243" s="170"/>
-      <c r="K243" s="170"/>
-      <c r="L243" s="170"/>
-      <c r="M243" s="170"/>
-      <c r="N243" s="170"/>
-      <c r="O243" s="170"/>
-      <c r="P243" s="170"/>
-      <c r="Q243" s="170"/>
-      <c r="R243" s="170"/>
-      <c r="S243" s="170"/>
-      <c r="T243" s="170"/>
-      <c r="U243" s="170"/>
+      <c r="D243" s="173"/>
+      <c r="E243" s="173"/>
+      <c r="F243" s="173"/>
+      <c r="G243" s="173"/>
+      <c r="H243" s="173"/>
+      <c r="I243" s="173"/>
+      <c r="J243" s="173"/>
+      <c r="K243" s="173"/>
+      <c r="L243" s="173"/>
+      <c r="M243" s="173"/>
+      <c r="N243" s="173"/>
+      <c r="O243" s="173"/>
+      <c r="P243" s="173"/>
+      <c r="Q243" s="173"/>
+      <c r="R243" s="173"/>
+      <c r="S243" s="173"/>
+      <c r="T243" s="173"/>
+      <c r="U243" s="173"/>
     </row>
     <row r="244" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D244" s="170"/>
-      <c r="E244" s="170"/>
-      <c r="F244" s="170"/>
-      <c r="G244" s="170"/>
-      <c r="H244" s="170"/>
-      <c r="I244" s="170"/>
-      <c r="J244" s="170"/>
-      <c r="K244" s="170"/>
-      <c r="L244" s="170"/>
-      <c r="M244" s="170"/>
-      <c r="N244" s="170"/>
-      <c r="O244" s="170"/>
-      <c r="P244" s="170"/>
-      <c r="Q244" s="170"/>
-      <c r="R244" s="170"/>
-      <c r="S244" s="170"/>
-      <c r="T244" s="170"/>
-      <c r="U244" s="170"/>
+      <c r="D244" s="173"/>
+      <c r="E244" s="173"/>
+      <c r="F244" s="173"/>
+      <c r="G244" s="173"/>
+      <c r="H244" s="173"/>
+      <c r="I244" s="173"/>
+      <c r="J244" s="173"/>
+      <c r="K244" s="173"/>
+      <c r="L244" s="173"/>
+      <c r="M244" s="173"/>
+      <c r="N244" s="173"/>
+      <c r="O244" s="173"/>
+      <c r="P244" s="173"/>
+      <c r="Q244" s="173"/>
+      <c r="R244" s="173"/>
+      <c r="S244" s="173"/>
+      <c r="T244" s="173"/>
+      <c r="U244" s="173"/>
     </row>
     <row r="245" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D245" s="170"/>
-      <c r="E245" s="170"/>
-      <c r="F245" s="170"/>
-      <c r="G245" s="170"/>
-      <c r="H245" s="170"/>
-      <c r="I245" s="170"/>
-      <c r="J245" s="170"/>
-      <c r="K245" s="170"/>
-      <c r="L245" s="170"/>
-      <c r="M245" s="170"/>
-      <c r="N245" s="170"/>
-      <c r="O245" s="170"/>
-      <c r="P245" s="170"/>
-      <c r="Q245" s="170"/>
-      <c r="R245" s="170"/>
-      <c r="S245" s="170"/>
-      <c r="T245" s="170"/>
-      <c r="U245" s="170"/>
+      <c r="D245" s="173"/>
+      <c r="E245" s="173"/>
+      <c r="F245" s="173"/>
+      <c r="G245" s="173"/>
+      <c r="H245" s="173"/>
+      <c r="I245" s="173"/>
+      <c r="J245" s="173"/>
+      <c r="K245" s="173"/>
+      <c r="L245" s="173"/>
+      <c r="M245" s="173"/>
+      <c r="N245" s="173"/>
+      <c r="O245" s="173"/>
+      <c r="P245" s="173"/>
+      <c r="Q245" s="173"/>
+      <c r="R245" s="173"/>
+      <c r="S245" s="173"/>
+      <c r="T245" s="173"/>
+      <c r="U245" s="173"/>
     </row>
     <row r="246" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D246" s="170"/>
-      <c r="E246" s="170"/>
-      <c r="F246" s="170"/>
-      <c r="G246" s="170"/>
-      <c r="H246" s="170"/>
-      <c r="I246" s="170"/>
-      <c r="J246" s="170"/>
-      <c r="K246" s="170"/>
-      <c r="L246" s="170"/>
-      <c r="M246" s="170"/>
-      <c r="N246" s="170"/>
-      <c r="O246" s="170"/>
-      <c r="P246" s="170"/>
-      <c r="Q246" s="170"/>
-      <c r="R246" s="170"/>
-      <c r="S246" s="170"/>
-      <c r="T246" s="170"/>
-      <c r="U246" s="170"/>
+      <c r="D246" s="173"/>
+      <c r="E246" s="173"/>
+      <c r="F246" s="173"/>
+      <c r="G246" s="173"/>
+      <c r="H246" s="173"/>
+      <c r="I246" s="173"/>
+      <c r="J246" s="173"/>
+      <c r="K246" s="173"/>
+      <c r="L246" s="173"/>
+      <c r="M246" s="173"/>
+      <c r="N246" s="173"/>
+      <c r="O246" s="173"/>
+      <c r="P246" s="173"/>
+      <c r="Q246" s="173"/>
+      <c r="R246" s="173"/>
+      <c r="S246" s="173"/>
+      <c r="T246" s="173"/>
+      <c r="U246" s="173"/>
     </row>
     <row r="247" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D247" s="170"/>
-      <c r="E247" s="170"/>
-      <c r="F247" s="170"/>
-      <c r="G247" s="170"/>
-      <c r="H247" s="170"/>
-      <c r="I247" s="170"/>
-      <c r="J247" s="170"/>
-      <c r="K247" s="170"/>
-      <c r="L247" s="170"/>
-      <c r="M247" s="170"/>
-      <c r="N247" s="170"/>
-      <c r="O247" s="170"/>
-      <c r="P247" s="170"/>
-      <c r="Q247" s="170"/>
-      <c r="R247" s="170"/>
-      <c r="S247" s="170"/>
-      <c r="T247" s="170"/>
-      <c r="U247" s="170"/>
+      <c r="D247" s="173"/>
+      <c r="E247" s="173"/>
+      <c r="F247" s="173"/>
+      <c r="G247" s="173"/>
+      <c r="H247" s="173"/>
+      <c r="I247" s="173"/>
+      <c r="J247" s="173"/>
+      <c r="K247" s="173"/>
+      <c r="L247" s="173"/>
+      <c r="M247" s="173"/>
+      <c r="N247" s="173"/>
+      <c r="O247" s="173"/>
+      <c r="P247" s="173"/>
+      <c r="Q247" s="173"/>
+      <c r="R247" s="173"/>
+      <c r="S247" s="173"/>
+      <c r="T247" s="173"/>
+      <c r="U247" s="173"/>
     </row>
     <row r="248" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D248" s="170"/>
-      <c r="E248" s="170"/>
-      <c r="F248" s="170"/>
-      <c r="G248" s="170"/>
-      <c r="H248" s="170"/>
-      <c r="I248" s="170"/>
-      <c r="J248" s="170"/>
-      <c r="K248" s="170"/>
-      <c r="L248" s="170"/>
-      <c r="M248" s="170"/>
-      <c r="N248" s="170"/>
-      <c r="O248" s="170"/>
-      <c r="P248" s="170"/>
-      <c r="Q248" s="170"/>
-      <c r="R248" s="170"/>
-      <c r="S248" s="170"/>
-      <c r="T248" s="170"/>
-      <c r="U248" s="170"/>
+      <c r="D248" s="173"/>
+      <c r="E248" s="173"/>
+      <c r="F248" s="173"/>
+      <c r="G248" s="173"/>
+      <c r="H248" s="173"/>
+      <c r="I248" s="173"/>
+      <c r="J248" s="173"/>
+      <c r="K248" s="173"/>
+      <c r="L248" s="173"/>
+      <c r="M248" s="173"/>
+      <c r="N248" s="173"/>
+      <c r="O248" s="173"/>
+      <c r="P248" s="173"/>
+      <c r="Q248" s="173"/>
+      <c r="R248" s="173"/>
+      <c r="S248" s="173"/>
+      <c r="T248" s="173"/>
+      <c r="U248" s="173"/>
     </row>
     <row r="249" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D249" s="170"/>
-      <c r="E249" s="170"/>
-      <c r="F249" s="170"/>
-      <c r="G249" s="170"/>
-      <c r="H249" s="170"/>
-      <c r="I249" s="170"/>
-      <c r="J249" s="170"/>
-      <c r="K249" s="170"/>
-      <c r="L249" s="170"/>
-      <c r="M249" s="170"/>
-      <c r="N249" s="170"/>
-      <c r="O249" s="170"/>
-      <c r="P249" s="170"/>
-      <c r="Q249" s="170"/>
-      <c r="R249" s="170"/>
-      <c r="S249" s="170"/>
-      <c r="T249" s="170"/>
-      <c r="U249" s="170"/>
+      <c r="D249" s="173"/>
+      <c r="E249" s="173"/>
+      <c r="F249" s="173"/>
+      <c r="G249" s="173"/>
+      <c r="H249" s="173"/>
+      <c r="I249" s="173"/>
+      <c r="J249" s="173"/>
+      <c r="K249" s="173"/>
+      <c r="L249" s="173"/>
+      <c r="M249" s="173"/>
+      <c r="N249" s="173"/>
+      <c r="O249" s="173"/>
+      <c r="P249" s="173"/>
+      <c r="Q249" s="173"/>
+      <c r="R249" s="173"/>
+      <c r="S249" s="173"/>
+      <c r="T249" s="173"/>
+      <c r="U249" s="173"/>
     </row>
     <row r="250" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D250" s="170"/>
-      <c r="E250" s="170"/>
-      <c r="F250" s="170"/>
-      <c r="G250" s="170"/>
-      <c r="H250" s="170"/>
-      <c r="I250" s="170"/>
-      <c r="J250" s="170"/>
-      <c r="K250" s="170"/>
-      <c r="L250" s="170"/>
-      <c r="M250" s="170"/>
-      <c r="N250" s="170"/>
-      <c r="O250" s="170"/>
-      <c r="P250" s="170"/>
-      <c r="Q250" s="170"/>
-      <c r="R250" s="170"/>
-      <c r="S250" s="170"/>
-      <c r="T250" s="170"/>
-      <c r="U250" s="170"/>
+      <c r="D250" s="173"/>
+      <c r="E250" s="173"/>
+      <c r="F250" s="173"/>
+      <c r="G250" s="173"/>
+      <c r="H250" s="173"/>
+      <c r="I250" s="173"/>
+      <c r="J250" s="173"/>
+      <c r="K250" s="173"/>
+      <c r="L250" s="173"/>
+      <c r="M250" s="173"/>
+      <c r="N250" s="173"/>
+      <c r="O250" s="173"/>
+      <c r="P250" s="173"/>
+      <c r="Q250" s="173"/>
+      <c r="R250" s="173"/>
+      <c r="S250" s="173"/>
+      <c r="T250" s="173"/>
+      <c r="U250" s="173"/>
     </row>
     <row r="251" spans="4:21" x14ac:dyDescent="0.2">
-      <c r="D251" s="170"/>
-      <c r="E251" s="170"/>
-      <c r="F251" s="170"/>
-      <c r="G251" s="170"/>
-      <c r="H251" s="170"/>
-      <c r="I251" s="170"/>
-      <c r="J251" s="170"/>
-      <c r="K251" s="170"/>
-      <c r="L251" s="170"/>
-      <c r="M251" s="170"/>
-      <c r="N251" s="170"/>
-      <c r="O251" s="170"/>
-      <c r="P251" s="170"/>
-      <c r="Q251" s="170"/>
-      <c r="R251" s="170"/>
-      <c r="S251" s="170"/>
-      <c r="T251" s="170"/>
-      <c r="U251" s="170"/>
+      <c r="D251" s="173"/>
+      <c r="E251" s="173"/>
+      <c r="F251" s="173"/>
+      <c r="G251" s="173"/>
+      <c r="H251" s="173"/>
+      <c r="I251" s="173"/>
+      <c r="J251" s="173"/>
+      <c r="K251" s="173"/>
+      <c r="L251" s="173"/>
+      <c r="M251" s="173"/>
+      <c r="N251" s="173"/>
+      <c r="O251" s="173"/>
+      <c r="P251" s="173"/>
+      <c r="Q251" s="173"/>
+      <c r="R251" s="173"/>
+      <c r="S251" s="173"/>
+      <c r="T251" s="173"/>
+      <c r="U251" s="173"/>
     </row>
     <row r="254" spans="4:21" x14ac:dyDescent="0.2">
       <c r="D254" s="48" t="s">
@@ -10987,6 +11084,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D168:U251"/>
+    <mergeCell ref="D167:U167"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:B31"/>
     <mergeCell ref="B6:B18"/>
     <mergeCell ref="A6:A18"/>
     <mergeCell ref="B19:B23"/>
@@ -10994,11 +11096,6 @@
     <mergeCell ref="D100:U164"/>
     <mergeCell ref="D99:U99"/>
     <mergeCell ref="D35:T35"/>
-    <mergeCell ref="D168:U251"/>
-    <mergeCell ref="D167:U167"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
